--- a/졸작 진행 계획 시간표.xlsx
+++ b/졸작 진행 계획 시간표.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2020 졸작 깃\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2020 졸작 깃\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5BA0698-02E5-4D83-8A9A-92E73BFD7A8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24838D4-CFA4-43F9-B420-7D2DF83C2A2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E0805F39-A49F-47F5-8E79-FFCEB62D9AEC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E0805F39-A49F-47F5-8E79-FFCEB62D9AEC}"/>
   </bookViews>
   <sheets>
     <sheet name="5월 4주차" sheetId="1" r:id="rId1"/>
@@ -710,6 +710,21 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -719,40 +734,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -778,24 +796,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1113,21 +1113,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA488195-4E58-4ADC-87D5-0E438CC6628E}">
   <dimension ref="B3:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.3984375" customWidth="1"/>
-    <col min="3" max="5" width="10.59765625" customWidth="1"/>
-    <col min="6" max="6" width="10.796875" customWidth="1"/>
-    <col min="7" max="7" width="10.3984375" customWidth="1"/>
-    <col min="9" max="9" width="24.796875" customWidth="1"/>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="3" max="5" width="10.625" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="10.375" customWidth="1"/>
+    <col min="9" max="9" width="24.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="5"/>
       <c r="C4" s="6" t="s">
         <v>0</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="13" t="s">
         <v>7</v>
       </c>
@@ -1171,13 +1171,13 @@
       <c r="G5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="33" t="s">
+      <c r="H5" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="34"/>
+      <c r="I5" s="40"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="11" t="s">
         <v>8</v>
       </c>
@@ -1196,26 +1196,26 @@
       <c r="G6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="35"/>
-      <c r="I6" s="36"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="42"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="36"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="42"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="11" t="s">
         <v>10</v>
       </c>
@@ -1234,11 +1234,11 @@
       <c r="G8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="35"/>
-      <c r="I8" s="36"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="42"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="11" t="s">
         <v>11</v>
       </c>
@@ -1257,11 +1257,11 @@
       <c r="G9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="35"/>
-      <c r="I9" s="36"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="42"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
         <v>12</v>
       </c>
@@ -1280,11 +1280,11 @@
       <c r="G10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="35"/>
-      <c r="I10" s="36"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="42"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="11" t="s">
         <v>13</v>
       </c>
@@ -1303,11 +1303,11 @@
       <c r="G11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="35"/>
-      <c r="I11" s="36"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="42"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="11" t="s">
         <v>14</v>
       </c>
@@ -1326,11 +1326,11 @@
       <c r="G12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="35"/>
-      <c r="I12" s="36"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="42"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="12" t="s">
         <v>15</v>
       </c>
@@ -1349,11 +1349,11 @@
       <c r="G13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="37"/>
-      <c r="I13" s="38"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="44"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
         <v>18</v>
@@ -1374,7 +1374,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1385,55 +1385,55 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="41" t="s">
+      <c r="C17" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
       <c r="G17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="31" t="s">
+      <c r="H17" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="I17" s="32"/>
+      <c r="I17" s="33"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="42" t="s">
+      <c r="C18" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="44"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="36"/>
       <c r="G18" s="16">
         <v>1</v>
       </c>
-      <c r="H18" s="29"/>
-      <c r="I18" s="30"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="38"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="20"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="25"/>
       <c r="G19" s="16">
         <v>1</v>
       </c>
@@ -1441,262 +1441,300 @@
       <c r="I19" s="27"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="20"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="25"/>
       <c r="G20" s="16"/>
       <c r="H20" s="26"/>
       <c r="I20" s="27"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="20"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="25"/>
       <c r="G21" s="16">
         <v>1</v>
       </c>
       <c r="H21" s="26"/>
       <c r="I21" s="27"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="20"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="25"/>
       <c r="G22" s="16"/>
       <c r="H22" s="26"/>
       <c r="I22" s="27"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="20"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="25"/>
       <c r="G23" s="16"/>
       <c r="H23" s="26"/>
       <c r="I23" s="27"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="20"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="25"/>
       <c r="G24" s="16">
         <v>1</v>
       </c>
       <c r="H24" s="26"/>
       <c r="I24" s="27"/>
     </row>
-    <row r="25" spans="2:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:10" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="20"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="25"/>
       <c r="G25" s="16">
         <v>0.8</v>
       </c>
-      <c r="H25" s="46" t="s">
+      <c r="H25" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="I25" s="45"/>
-    </row>
-    <row r="26" spans="2:10" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I25" s="29"/>
+    </row>
+    <row r="26" spans="2:10" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="23"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="20"/>
       <c r="G26" s="17">
         <v>1</v>
       </c>
-      <c r="H26" s="24"/>
-      <c r="I26" s="25"/>
-    </row>
-    <row r="27" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="28" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H26" s="21"/>
+      <c r="I26" s="22"/>
+    </row>
+    <row r="27" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="41" t="s">
+      <c r="C28" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
       <c r="G28" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H28" s="31" t="s">
+      <c r="H28" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="I28" s="32"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="I28" s="33"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="42" t="s">
+      <c r="C29" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="44"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="36"/>
       <c r="G29" s="16"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="30"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="H29" s="37"/>
+      <c r="I29" s="38"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="20"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="25"/>
       <c r="G30" s="16"/>
       <c r="H30" s="26"/>
       <c r="I30" s="27"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="20"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="25"/>
       <c r="G31" s="16"/>
       <c r="H31" s="26"/>
       <c r="I31" s="27"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B32" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="28" t="s">
+      <c r="C32" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="16"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="16">
+        <v>0.5</v>
+      </c>
       <c r="H32" s="26"/>
       <c r="I32" s="27"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="16"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="16">
+        <v>1</v>
+      </c>
       <c r="H33" s="26"/>
       <c r="I33" s="27"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="20"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="25"/>
       <c r="G34" s="16"/>
       <c r="H34" s="26"/>
       <c r="I34" s="27"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C35" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="20"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="25"/>
       <c r="G35" s="16"/>
       <c r="H35" s="26"/>
       <c r="I35" s="27"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="20"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="25"/>
       <c r="G36" s="16"/>
-      <c r="H36" s="46"/>
-      <c r="I36" s="45"/>
-    </row>
-    <row r="37" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H36" s="28"/>
+      <c r="I36" s="29"/>
+    </row>
+    <row r="37" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C37" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="23"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="20"/>
       <c r="G37" s="17"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="25"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H5:I13"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="H33:I33"/>
     <mergeCell ref="C37:F37"/>
     <mergeCell ref="H37:I37"/>
     <mergeCell ref="C34:F34"/>
@@ -1705,40 +1743,6 @@
     <mergeCell ref="H35:I35"/>
     <mergeCell ref="C36:F36"/>
     <mergeCell ref="H36:I36"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H5:I13"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1752,7 +1756,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1765,7 +1769,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1780,7 +1784,7 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1795,7 +1799,7 @@
       <selection activeCell="F35" sqref="F35:F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/졸작 진행 계획 시간표.xlsx
+++ b/졸작 진행 계획 시간표.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2020 졸작 깃\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24838D4-CFA4-43F9-B420-7D2DF83C2A2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F44D2B-60A9-487B-AD63-2899BFDA79A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E0805F39-A49F-47F5-8E79-FFCEB62D9AEC}"/>
+    <workbookView xWindow="5220" yWindow="1290" windowWidth="21600" windowHeight="11385" xr2:uid="{E0805F39-A49F-47F5-8E79-FFCEB62D9AEC}"/>
   </bookViews>
   <sheets>
     <sheet name="5월 4주차" sheetId="1" r:id="rId1"/>
@@ -710,6 +710,15 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -725,15 +734,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -749,13 +749,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
@@ -766,36 +796,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1113,8 +1113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA488195-4E58-4ADC-87D5-0E438CC6628E}">
   <dimension ref="B3:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1171,10 +1171,10 @@
       <c r="G5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="39" t="s">
+      <c r="H5" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="40"/>
+      <c r="I5" s="36"/>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
@@ -1196,23 +1196,23 @@
       <c r="G6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="41"/>
-      <c r="I6" s="42"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="38"/>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="38"/>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1234,8 +1234,8 @@
       <c r="G8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="41"/>
-      <c r="I8" s="42"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="38"/>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
@@ -1257,8 +1257,8 @@
       <c r="G9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="41"/>
-      <c r="I9" s="42"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="38"/>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
@@ -1280,8 +1280,8 @@
       <c r="G10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="41"/>
-      <c r="I10" s="42"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="38"/>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
@@ -1303,8 +1303,8 @@
       <c r="G11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="41"/>
-      <c r="I11" s="42"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="38"/>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
@@ -1326,8 +1326,8 @@
       <c r="G12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="41"/>
-      <c r="I12" s="42"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="38"/>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1349,8 +1349,8 @@
       <c r="G13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="43"/>
-      <c r="I13" s="44"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="40"/>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
@@ -1392,48 +1392,48 @@
       <c r="B17" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
       <c r="G17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="32" t="s">
+      <c r="H17" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="I17" s="33"/>
+      <c r="I17" s="34"/>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="36"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="46"/>
       <c r="G18" s="16">
         <v>1</v>
       </c>
-      <c r="H18" s="37"/>
-      <c r="I18" s="38"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="32"/>
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="25"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="20"/>
       <c r="G19" s="16">
         <v>1</v>
       </c>
@@ -1445,12 +1445,12 @@
       <c r="B20" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="25"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="20"/>
       <c r="G20" s="16"/>
       <c r="H20" s="26"/>
       <c r="I20" s="27"/>
@@ -1463,9 +1463,9 @@
       <c r="C21" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="25"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="20"/>
       <c r="G21" s="16">
         <v>1</v>
       </c>
@@ -1476,12 +1476,12 @@
       <c r="B22" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="25"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="20"/>
       <c r="G22" s="16"/>
       <c r="H22" s="26"/>
       <c r="I22" s="27"/>
@@ -1490,12 +1490,12 @@
       <c r="B23" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="25"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="20"/>
       <c r="G23" s="16"/>
       <c r="H23" s="26"/>
       <c r="I23" s="27"/>
@@ -1504,12 +1504,12 @@
       <c r="B24" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="25"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="20"/>
       <c r="G24" s="16">
         <v>1</v>
       </c>
@@ -1520,12 +1520,12 @@
       <c r="B25" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="25"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="20"/>
       <c r="G25" s="16">
         <v>0.8</v>
       </c>
@@ -1538,61 +1538,61 @@
       <c r="B26" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="20"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="23"/>
       <c r="G26" s="17">
         <v>1</v>
       </c>
-      <c r="H26" s="21"/>
-      <c r="I26" s="22"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="25"/>
     </row>
     <row r="27" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="28" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="31" t="s">
+      <c r="C28" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
       <c r="G28" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H28" s="32" t="s">
+      <c r="H28" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="I28" s="33"/>
+      <c r="I28" s="34"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="34" t="s">
+      <c r="C29" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="36"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="46"/>
       <c r="G29" s="16"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="38"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="32"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="25"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="20"/>
       <c r="G30" s="16"/>
       <c r="H30" s="26"/>
       <c r="I30" s="27"/>
@@ -1601,12 +1601,12 @@
       <c r="B31" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="25"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="20"/>
       <c r="G31" s="16"/>
       <c r="H31" s="26"/>
       <c r="I31" s="27"/>
@@ -1618,9 +1618,9 @@
       <c r="C32" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="25"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="20"/>
       <c r="G32" s="16">
         <v>0.5</v>
       </c>
@@ -1631,12 +1631,12 @@
       <c r="B33" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="25"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="20"/>
       <c r="G33" s="16">
         <v>1</v>
       </c>
@@ -1647,13 +1647,15 @@
       <c r="B34" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="C34" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="16"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="16">
+        <v>0.8</v>
+      </c>
       <c r="H34" s="26"/>
       <c r="I34" s="27"/>
     </row>
@@ -1661,13 +1663,15 @@
       <c r="B35" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="23" t="s">
+      <c r="C35" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="16"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="16">
+        <v>0.8</v>
+      </c>
       <c r="H35" s="26"/>
       <c r="I35" s="27"/>
     </row>
@@ -1675,12 +1679,12 @@
       <c r="B36" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="C36" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="25"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="20"/>
       <c r="G36" s="16"/>
       <c r="H36" s="28"/>
       <c r="I36" s="29"/>
@@ -1689,52 +1693,18 @@
       <c r="B37" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C37" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="20"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="23"/>
       <c r="G37" s="17"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="22"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H5:I13"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="H33:I33"/>
     <mergeCell ref="C37:F37"/>
     <mergeCell ref="H37:I37"/>
     <mergeCell ref="C34:F34"/>
@@ -1743,6 +1713,40 @@
     <mergeCell ref="H35:I35"/>
     <mergeCell ref="C36:F36"/>
     <mergeCell ref="H36:I36"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H5:I13"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/졸작 진행 계획 시간표.xlsx
+++ b/졸작 진행 계획 시간표.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2020 졸작 깃\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2020 졸작 깃\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F44D2B-60A9-487B-AD63-2899BFDA79A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891498F3-6094-4893-A48B-D99C4C68F122}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5220" yWindow="1290" windowWidth="21600" windowHeight="11385" xr2:uid="{E0805F39-A49F-47F5-8E79-FFCEB62D9AEC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E0805F39-A49F-47F5-8E79-FFCEB62D9AEC}"/>
   </bookViews>
   <sheets>
     <sheet name="5월 4주차" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="49">
   <si>
     <t>월</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -199,6 +199,50 @@
   </si>
   <si>
     <t>캐릭터 애니메이션 동기화를 위한 패킷 생성 및 조정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버와 클라이언트 사이에 패킷 송수신 시 
+갑자기 하나의 클라이언트와 연결이 끊어지는
+ 에러가 있는데 에러가 발생할 때도 있고 
+발생하지 않을 때도 있어서 원인 파악에 난항을 
+겪고 있음. 수정중이지만 아직 100프로 수정하지
+못함. 추가 작업해야함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어의 이동 / 점프 애니메이션 동기화 성공
+조준 / 사격 애니메이션 아직 동기화 못함.
+추가 작업해야함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버와 송수신 시 발생하는 클라이언트 연결 끊어짐 
+에러 고치기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 조준 애니메이션 관련 변수 송수신 패킷 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 사격 애니메이션 관련 변수 송수신 패킷 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사격 애니메이션 송수신 및 갱신 함수 생성 및 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조준 애니메이션 송수신 및 갱신 함수 생성 및 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020. 05. 27. 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 정보 및 애니메이션 동기화 최적화하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -206,7 +250,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,6 +274,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -239,7 +291,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -649,13 +701,253 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -710,6 +1002,24 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -719,21 +1029,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -749,16 +1044,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -785,17 +1092,92 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1111,23 +1493,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA488195-4E58-4ADC-87D5-0E438CC6628E}">
-  <dimension ref="B3:J37"/>
+  <dimension ref="B3:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="14.375" customWidth="1"/>
-    <col min="3" max="5" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="14.3984375" customWidth="1"/>
+    <col min="3" max="5" width="10.59765625" customWidth="1"/>
     <col min="6" max="6" width="13.5" customWidth="1"/>
-    <col min="7" max="7" width="10.375" customWidth="1"/>
-    <col min="9" max="9" width="24.75" customWidth="1"/>
+    <col min="7" max="7" width="10.3984375" customWidth="1"/>
+    <col min="9" max="9" width="24.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B4" s="5"/>
       <c r="C4" s="6" t="s">
         <v>0</v>
@@ -1152,7 +1534,7 @@
       </c>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B5" s="13" t="s">
         <v>7</v>
       </c>
@@ -1171,13 +1553,13 @@
       <c r="G5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="35" t="s">
+      <c r="H5" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="36"/>
+      <c r="I5" s="41"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B6" s="11" t="s">
         <v>8</v>
       </c>
@@ -1196,26 +1578,26 @@
       <c r="G6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="37"/>
-      <c r="I6" s="38"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="43"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="38"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="43"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="11" t="s">
         <v>10</v>
       </c>
@@ -1234,11 +1616,11 @@
       <c r="G8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="37"/>
-      <c r="I8" s="38"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="43"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B9" s="11" t="s">
         <v>11</v>
       </c>
@@ -1257,11 +1639,11 @@
       <c r="G9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="37"/>
-      <c r="I9" s="38"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="43"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B10" s="11" t="s">
         <v>12</v>
       </c>
@@ -1280,11 +1662,11 @@
       <c r="G10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="37"/>
-      <c r="I10" s="38"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="43"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B11" s="11" t="s">
         <v>13</v>
       </c>
@@ -1303,11 +1685,11 @@
       <c r="G11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="37"/>
-      <c r="I11" s="38"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="43"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B12" s="11" t="s">
         <v>14</v>
       </c>
@@ -1326,11 +1708,11 @@
       <c r="G12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="37"/>
-      <c r="I12" s="38"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="43"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B13" s="12" t="s">
         <v>15</v>
       </c>
@@ -1349,11 +1731,11 @@
       <c r="G13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="39"/>
-      <c r="I13" s="40"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="45"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
         <v>18</v>
@@ -1374,7 +1756,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1385,14 +1767,14 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="32" t="s">
         <v>23</v>
       </c>
       <c r="D17" s="33"/>
@@ -1407,155 +1789,155 @@
       <c r="I17" s="34"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B18" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="44" t="s">
+      <c r="C18" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="46"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="37"/>
       <c r="G18" s="16">
         <v>1</v>
       </c>
-      <c r="H18" s="31"/>
-      <c r="I18" s="32"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="39"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B19" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="20"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="26"/>
       <c r="G19" s="16">
         <v>1</v>
       </c>
-      <c r="H19" s="26"/>
-      <c r="I19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="28"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B20" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="20"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="26"/>
       <c r="G20" s="16"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="28"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B21" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="20"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="26"/>
       <c r="G21" s="16">
         <v>1</v>
       </c>
-      <c r="H21" s="26"/>
-      <c r="I21" s="27"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H21" s="27"/>
+      <c r="I21" s="28"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B22" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="20"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="26"/>
       <c r="G22" s="16"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="27"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H22" s="27"/>
+      <c r="I22" s="28"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B23" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="20"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="26"/>
       <c r="G23" s="16"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="27"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H23" s="27"/>
+      <c r="I23" s="28"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B24" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="20"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="26"/>
       <c r="G24" s="16">
         <v>1</v>
       </c>
-      <c r="H24" s="26"/>
-      <c r="I24" s="27"/>
-    </row>
-    <row r="25" spans="2:10" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H24" s="27"/>
+      <c r="I24" s="28"/>
+    </row>
+    <row r="25" spans="2:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="20"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="26"/>
       <c r="G25" s="16">
         <v>0.8</v>
       </c>
-      <c r="H25" s="28" t="s">
+      <c r="H25" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="I25" s="29"/>
-    </row>
-    <row r="26" spans="2:10" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I25" s="30"/>
+    </row>
+    <row r="26" spans="2:10" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B26" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="23"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="21"/>
       <c r="G26" s="17">
         <v>1</v>
       </c>
-      <c r="H26" s="24"/>
-      <c r="I26" s="25"/>
-    </row>
-    <row r="27" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H26" s="22"/>
+      <c r="I26" s="23"/>
+    </row>
+    <row r="27" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="28" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B28" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="43" t="s">
+      <c r="C28" s="32" t="s">
         <v>23</v>
       </c>
       <c r="D28" s="33"/>
@@ -1569,167 +1951,317 @@
       </c>
       <c r="I28" s="34"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B29" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="44" t="s">
+      <c r="C29" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="46"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="37"/>
       <c r="G29" s="16"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="32"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H29" s="53"/>
+      <c r="I29" s="54"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B30" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="20"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="26"/>
       <c r="G30" s="16"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="27"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H30" s="55"/>
+      <c r="I30" s="52"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B31" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="20"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="26"/>
       <c r="G31" s="16"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="27"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H31" s="55"/>
+      <c r="I31" s="52"/>
+    </row>
+    <row r="32" spans="2:10" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="30" t="s">
+      <c r="C32" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="20"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="26"/>
       <c r="G32" s="16">
         <v>0.5</v>
       </c>
-      <c r="H32" s="26"/>
-      <c r="I32" s="27"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H32" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="I32" s="52"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B33" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="20"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="26"/>
       <c r="G33" s="16">
         <v>1</v>
       </c>
-      <c r="H33" s="26"/>
-      <c r="I33" s="27"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H33" s="55"/>
+      <c r="I33" s="52"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B34" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="20"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="26"/>
       <c r="G34" s="16">
-        <v>0.8</v>
-      </c>
-      <c r="H34" s="26"/>
-      <c r="I34" s="27"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="H34" s="55"/>
+      <c r="I34" s="52"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B35" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C35" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="20"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="26"/>
       <c r="G35" s="16">
-        <v>0.8</v>
-      </c>
-      <c r="H35" s="26"/>
-      <c r="I35" s="27"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="H35" s="55"/>
+      <c r="I35" s="52"/>
+    </row>
+    <row r="36" spans="2:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="29"/>
-    </row>
-    <row r="37" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="H36" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="I36" s="57"/>
+    </row>
+    <row r="37" spans="2:9" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B37" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C37" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="25"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="59"/>
+    </row>
+    <row r="38" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="39" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="I39" s="34"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B40" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" s="60"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="61"/>
+      <c r="G40" s="66"/>
+      <c r="H40" s="67"/>
+      <c r="I40" s="68"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B41" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="62"/>
+      <c r="D41" s="63"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="64"/>
+      <c r="G41" s="48"/>
+      <c r="H41" s="69"/>
+      <c r="I41" s="70"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B42" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="55"/>
+      <c r="I42" s="52"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B43" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="55"/>
+      <c r="I43" s="52"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B44" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="55"/>
+      <c r="I44" s="52"/>
+    </row>
+    <row r="45" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B45" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="55"/>
+      <c r="I45" s="52"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B46" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="55"/>
+      <c r="I46" s="52"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B47" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" s="72"/>
+      <c r="E47" s="72"/>
+      <c r="F47" s="73"/>
+      <c r="G47" s="49"/>
+      <c r="H47" s="56"/>
+      <c r="I47" s="57"/>
+    </row>
+    <row r="48" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="74"/>
+      <c r="D48" s="75"/>
+      <c r="E48" s="75"/>
+      <c r="F48" s="76"/>
+      <c r="G48" s="50"/>
+      <c r="H48" s="58"/>
+      <c r="I48" s="59"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H5:I13"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
+  <mergeCells count="60">
+    <mergeCell ref="C40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:I41"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="H47:I48"/>
+    <mergeCell ref="C47:F48"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
     <mergeCell ref="C19:F19"/>
     <mergeCell ref="C20:F20"/>
     <mergeCell ref="C21:F21"/>
@@ -1737,16 +2269,31 @@
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H5:I13"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:I37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1760,7 +2307,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1773,7 +2320,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1788,7 +2335,7 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1803,7 +2350,7 @@
       <selection activeCell="F35" sqref="F35:F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/졸작 진행 계획 시간표.xlsx
+++ b/졸작 진행 계획 시간표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2020 졸작 깃\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891498F3-6094-4893-A48B-D99C4C68F122}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1ECE795-FE1A-4122-AF93-16402637BC2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E0805F39-A49F-47F5-8E79-FFCEB62D9AEC}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="61">
   <si>
     <t>월</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -226,10 +226,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>플레이어 사격 애니메이션 관련 변수 송수신 패킷 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>사격 애니메이션 송수신 및 갱신 함수 생성 및 적용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -242,7 +238,65 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>플레이어 정보 및 애니메이션 동기화 최적화하기</t>
+    <t>Overlapped 구조체의 초기화 부분의 잘못된 코드는 고쳤으나 WSARecv에서 에러 고치는 중 이해 안되는 부분이 발생하여 오전 시간 중 해결 못함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오전에 고치지 못한 에러에 대하여 정내훈 교수님께 
+상담받음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 Sprint 애니메이션 관련 변수 송수신 패킷 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprint 애니메이션 송수신 및 갱신 함수 생성 및 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실제 송수신 시 변수가 갱신 되는 것을 디버깅 하여 
+확인 하였으나 두개 이상의 클라이언트를 노트북으로
+동시 실행 시 노트북 과부하로 인해 애니메이션을 
+눈으로 직접 확인하지 못함. 두대의 컴퓨터로 확인하여 이상 있을 시 수정해야함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상담 내용을 참고하여 에러 고치기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020. 05. 28. 목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 Crouch 애니메이션 송수신 패킷 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 사격 애니메이션 송수신 패킷 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crouch 애니메이션 송수신 및 갱신 함수 생성 및 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 AimOffset 관련 송수신 패킷 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AimOffset 송수신 및 갱신 함수 생성 및 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 동기화 및 사망 애니메이션 송수신 및 갱신 함수 
+생성 및 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 체력 동기화 및 사망 애니메이션 송수신 
+패킷 생성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -291,7 +345,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="53">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -883,60 +937,13 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -947,7 +954,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1005,6 +1012,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1020,15 +1075,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1041,16 +1087,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1062,122 +1126,98 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1493,19 +1533,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA488195-4E58-4ADC-87D5-0E438CC6628E}">
-  <dimension ref="B3:J48"/>
+  <dimension ref="B3:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56:I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="14.3984375" customWidth="1"/>
-    <col min="3" max="5" width="10.59765625" customWidth="1"/>
+    <col min="3" max="4" width="10.59765625" customWidth="1"/>
+    <col min="5" max="5" width="11.09765625" customWidth="1"/>
     <col min="6" max="6" width="13.5" customWidth="1"/>
     <col min="7" max="7" width="10.3984375" customWidth="1"/>
-    <col min="9" max="9" width="24.69921875" customWidth="1"/>
+    <col min="9" max="9" width="28.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
@@ -1553,10 +1594,10 @@
       <c r="G5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="40" t="s">
+      <c r="H5" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="41"/>
+      <c r="I5" s="47"/>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.4">
@@ -1578,23 +1619,23 @@
       <c r="G6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="42"/>
-      <c r="I6" s="43"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="49"/>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="43"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="49"/>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1616,8 +1657,8 @@
       <c r="G8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="42"/>
-      <c r="I8" s="43"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="49"/>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.4">
@@ -1639,8 +1680,8 @@
       <c r="G9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="42"/>
-      <c r="I9" s="43"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="49"/>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.4">
@@ -1662,8 +1703,8 @@
       <c r="G10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="42"/>
-      <c r="I10" s="43"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="49"/>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.4">
@@ -1685,8 +1726,8 @@
       <c r="G11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="42"/>
-      <c r="I11" s="43"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="49"/>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.4">
@@ -1708,8 +1749,8 @@
       <c r="G12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="42"/>
-      <c r="I12" s="43"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="49"/>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -1731,8 +1772,8 @@
       <c r="G13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="44"/>
-      <c r="I13" s="45"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="51"/>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.4">
@@ -1793,49 +1834,49 @@
       <c r="B18" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="37"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="56"/>
       <c r="G18" s="16">
         <v>1</v>
       </c>
-      <c r="H18" s="38"/>
-      <c r="I18" s="39"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="45"/>
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B19" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="26"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="28"/>
       <c r="G19" s="16">
         <v>1</v>
       </c>
-      <c r="H19" s="27"/>
-      <c r="I19" s="28"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="41"/>
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B20" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="26"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="28"/>
       <c r="G20" s="16"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="28"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="41"/>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.4">
@@ -1845,92 +1886,92 @@
       <c r="C21" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="26"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="28"/>
       <c r="G21" s="16">
         <v>1</v>
       </c>
-      <c r="H21" s="27"/>
-      <c r="I21" s="28"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="41"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B22" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="26"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="28"/>
       <c r="G22" s="16"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="28"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="41"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B23" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="26"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="28"/>
       <c r="G23" s="16"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="28"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="41"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B24" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="26"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="28"/>
       <c r="G24" s="16">
         <v>1</v>
       </c>
-      <c r="H24" s="27"/>
-      <c r="I24" s="28"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="41"/>
     </row>
     <row r="25" spans="2:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="26"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="28"/>
       <c r="G25" s="16">
         <v>0.8</v>
       </c>
-      <c r="H25" s="29" t="s">
+      <c r="H25" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="I25" s="30"/>
+      <c r="I25" s="43"/>
     </row>
     <row r="26" spans="2:10" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B26" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="21"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="37"/>
       <c r="G26" s="17">
         <v>1</v>
       </c>
-      <c r="H26" s="22"/>
-      <c r="I26" s="23"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="39"/>
     </row>
     <row r="27" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="28" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -1955,43 +1996,43 @@
       <c r="B29" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="37"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="56"/>
       <c r="G29" s="16"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="54"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="58"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B30" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="26"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="28"/>
       <c r="G30" s="16"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="52"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="30"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B31" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="26"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="28"/>
       <c r="G31" s="16"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="52"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="30"/>
     </row>
     <row r="32" spans="2:10" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="11" t="s">
@@ -2000,101 +2041,101 @@
       <c r="C32" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="26"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="28"/>
       <c r="G32" s="16">
         <v>0.5</v>
       </c>
-      <c r="H32" s="51" t="s">
+      <c r="H32" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="I32" s="52"/>
+      <c r="I32" s="65"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B33" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="26"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="28"/>
       <c r="G33" s="16">
         <v>1</v>
       </c>
-      <c r="H33" s="55"/>
-      <c r="I33" s="52"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="30"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B34" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="26"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="28"/>
       <c r="G34" s="16">
         <v>1</v>
       </c>
-      <c r="H34" s="55"/>
-      <c r="I34" s="52"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="30"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B35" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="24" t="s">
+      <c r="C35" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="26"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="28"/>
       <c r="G35" s="16">
         <v>1</v>
       </c>
-      <c r="H35" s="55"/>
-      <c r="I35" s="52"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="30"/>
     </row>
     <row r="36" spans="2:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="24" t="s">
+      <c r="C36" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="49">
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="24">
         <v>0.5</v>
       </c>
-      <c r="H36" s="56" t="s">
+      <c r="H36" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="I36" s="57"/>
+      <c r="I36" s="67"/>
     </row>
     <row r="37" spans="2:9" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B37" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="C37" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="50"/>
-      <c r="H37" s="58"/>
-      <c r="I37" s="59"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="68"/>
+      <c r="I37" s="69"/>
     </row>
     <row r="38" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="39" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B39" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C39" s="32" t="s">
         <v>23</v>
@@ -2110,45 +2151,49 @@
       </c>
       <c r="I39" s="34"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="65" t="s">
+      <c r="C40" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="60"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="61"/>
-      <c r="G40" s="66"/>
-      <c r="H40" s="67"/>
-      <c r="I40" s="68"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D40" s="77"/>
+      <c r="E40" s="77"/>
+      <c r="F40" s="78"/>
+      <c r="G40" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="H40" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" s="61"/>
+    </row>
+    <row r="41" spans="2:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C41" s="62"/>
-      <c r="D41" s="63"/>
-      <c r="E41" s="63"/>
-      <c r="F41" s="64"/>
-      <c r="G41" s="48"/>
-      <c r="H41" s="69"/>
-      <c r="I41" s="70"/>
+      <c r="C41" s="79"/>
+      <c r="D41" s="80"/>
+      <c r="E41" s="80"/>
+      <c r="F41" s="81"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="62"/>
+      <c r="I41" s="63"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B42" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="24" t="s">
+      <c r="C42" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="26"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="28"/>
       <c r="G42" s="16"/>
-      <c r="H42" s="55"/>
-      <c r="I42" s="52"/>
+      <c r="H42" s="70"/>
+      <c r="I42" s="65"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B43" s="11" t="s">
@@ -2157,99 +2202,294 @@
       <c r="C43" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="55"/>
-      <c r="I43" s="52"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="20">
+        <v>1</v>
+      </c>
+      <c r="H43" s="70"/>
+      <c r="I43" s="65"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B44" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C44" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="55"/>
-      <c r="I44" s="52"/>
-    </row>
-    <row r="45" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+        <v>45</v>
+      </c>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="20">
+        <v>1</v>
+      </c>
+      <c r="H44" s="70"/>
+      <c r="I44" s="65"/>
+    </row>
+    <row r="45" spans="2:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C45" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="55"/>
-      <c r="I45" s="52"/>
+      <c r="C45" s="82" t="s">
+        <v>48</v>
+      </c>
+      <c r="D45" s="83"/>
+      <c r="E45" s="83"/>
+      <c r="F45" s="83"/>
+      <c r="G45" s="74"/>
+      <c r="H45" s="59"/>
+      <c r="I45" s="75"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B46" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C46" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="55"/>
-      <c r="I46" s="52"/>
+      <c r="C46" s="84" t="s">
+        <v>52</v>
+      </c>
+      <c r="D46" s="85"/>
+      <c r="E46" s="85"/>
+      <c r="F46" s="85"/>
+      <c r="G46" s="74">
+        <v>1</v>
+      </c>
+      <c r="H46" s="29"/>
+      <c r="I46" s="30"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B47" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="71" t="s">
-        <v>48</v>
-      </c>
-      <c r="D47" s="72"/>
-      <c r="E47" s="72"/>
-      <c r="F47" s="73"/>
-      <c r="G47" s="49"/>
-      <c r="H47" s="56"/>
-      <c r="I47" s="57"/>
-    </row>
-    <row r="48" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C47" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="21">
+        <v>1</v>
+      </c>
+      <c r="H47" s="64"/>
+      <c r="I47" s="71"/>
+    </row>
+    <row r="48" spans="2:9" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="74"/>
-      <c r="D48" s="75"/>
-      <c r="E48" s="75"/>
-      <c r="F48" s="76"/>
-      <c r="G48" s="50"/>
-      <c r="H48" s="58"/>
-      <c r="I48" s="59"/>
+      <c r="C48" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D48" s="36"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="H48" s="72" t="s">
+        <v>51</v>
+      </c>
+      <c r="I48" s="73"/>
+    </row>
+    <row r="49" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="50" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D50" s="33"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H50" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="I50" s="34"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B51" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="D51" s="55"/>
+      <c r="E51" s="55"/>
+      <c r="F51" s="56"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="44"/>
+      <c r="I51" s="45"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B52" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="40"/>
+      <c r="I52" s="41"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B53" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="40"/>
+      <c r="I53" s="41"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B54" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="D54" s="86"/>
+      <c r="E54" s="86"/>
+      <c r="F54" s="87"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="40"/>
+      <c r="I54" s="41"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B55" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="40"/>
+      <c r="I55" s="41"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B56" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D56" s="86"/>
+      <c r="E56" s="86"/>
+      <c r="F56" s="87"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="40"/>
+      <c r="I56" s="41"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B57" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="40"/>
+      <c r="I57" s="41"/>
+    </row>
+    <row r="58" spans="2:9" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B58" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="D58" s="27"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="43"/>
+    </row>
+    <row r="59" spans="2:9" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="D59" s="36"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="38"/>
+      <c r="I59" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="60">
-    <mergeCell ref="C40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:I41"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="H47:I48"/>
-    <mergeCell ref="C47:F48"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="H44:I44"/>
+  <mergeCells count="81">
+    <mergeCell ref="C59:F59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="C57:F57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="C58:F58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:I37"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H5:I13"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
     <mergeCell ref="C39:F39"/>
     <mergeCell ref="H39:I39"/>
     <mergeCell ref="C22:F22"/>
@@ -2262,38 +2502,23 @@
     <mergeCell ref="H23:I23"/>
     <mergeCell ref="H24:I24"/>
     <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H5:I13"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
     <mergeCell ref="C28:F28"/>
     <mergeCell ref="H28:I28"/>
     <mergeCell ref="C29:F29"/>
     <mergeCell ref="H29:I29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:I37"/>
+    <mergeCell ref="C40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:I41"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="H44:I44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/졸작 진행 계획 시간표.xlsx
+++ b/졸작 진행 계획 시간표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2020 졸작 깃\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1ECE795-FE1A-4122-AF93-16402637BC2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39183C47-D0FE-4BDC-A680-80EB5A19248E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E0805F39-A49F-47F5-8E79-FFCEB62D9AEC}"/>
   </bookViews>
@@ -1021,16 +1021,37 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1042,56 +1063,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1117,107 +1156,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1535,8 +1535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA488195-4E58-4ADC-87D5-0E438CC6628E}">
   <dimension ref="B3:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56:I56"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1594,10 +1594,10 @@
       <c r="G5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="46" t="s">
+      <c r="H5" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="47"/>
+      <c r="I5" s="60"/>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.4">
@@ -1619,23 +1619,23 @@
       <c r="G6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="48"/>
-      <c r="I6" s="49"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="62"/>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="49"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="62"/>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1657,8 +1657,8 @@
       <c r="G8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="48"/>
-      <c r="I8" s="49"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="62"/>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.4">
@@ -1680,8 +1680,8 @@
       <c r="G9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="48"/>
-      <c r="I9" s="49"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="62"/>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.4">
@@ -1703,8 +1703,8 @@
       <c r="G10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="48"/>
-      <c r="I10" s="49"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="62"/>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.4">
@@ -1726,8 +1726,8 @@
       <c r="G11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="48"/>
-      <c r="I11" s="49"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="62"/>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.4">
@@ -1749,8 +1749,8 @@
       <c r="G12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="48"/>
-      <c r="I12" s="49"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="62"/>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -1772,8 +1772,8 @@
       <c r="G13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="50"/>
-      <c r="I13" s="51"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="64"/>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.4">
@@ -1815,31 +1815,31 @@
       <c r="B17" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
       <c r="G17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="33" t="s">
+      <c r="H17" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="I17" s="34"/>
+      <c r="I17" s="40"/>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B18" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="54" t="s">
+      <c r="C18" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="56"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="43"/>
       <c r="G18" s="16">
         <v>1</v>
       </c>
@@ -1851,476 +1851,478 @@
       <c r="B19" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="28"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="35"/>
       <c r="G19" s="16">
         <v>1</v>
       </c>
-      <c r="H19" s="40"/>
-      <c r="I19" s="41"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="32"/>
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B20" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="28"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="35"/>
       <c r="G20" s="16"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="41"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="32"/>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B21" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="28"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="35"/>
       <c r="G21" s="16">
         <v>1</v>
       </c>
-      <c r="H21" s="40"/>
-      <c r="I21" s="41"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="32"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B22" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="28"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="35"/>
       <c r="G22" s="16"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="41"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="32"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B23" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="28"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="35"/>
       <c r="G23" s="16"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="41"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="32"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B24" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="28"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="35"/>
       <c r="G24" s="16">
         <v>1</v>
       </c>
-      <c r="H24" s="40"/>
-      <c r="I24" s="41"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="32"/>
     </row>
     <row r="25" spans="2:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="28"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="35"/>
       <c r="G25" s="16">
         <v>0.8</v>
       </c>
-      <c r="H25" s="42" t="s">
+      <c r="H25" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="I25" s="43"/>
+      <c r="I25" s="37"/>
     </row>
     <row r="26" spans="2:10" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B26" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="37"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="25"/>
       <c r="G26" s="17">
         <v>1</v>
       </c>
-      <c r="H26" s="38"/>
-      <c r="I26" s="39"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="27"/>
     </row>
     <row r="27" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="28" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B28" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="32" t="s">
+      <c r="C28" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
       <c r="G28" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H28" s="33" t="s">
+      <c r="H28" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="I28" s="34"/>
+      <c r="I28" s="40"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B29" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="54" t="s">
+      <c r="C29" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="56"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="43"/>
       <c r="G29" s="16"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="58"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="68"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B30" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="28"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="35"/>
       <c r="G30" s="16"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="30"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="51"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B31" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="28"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="35"/>
       <c r="G31" s="16"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="30"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="51"/>
     </row>
     <row r="32" spans="2:10" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="31" t="s">
+      <c r="C32" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="28"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="35"/>
       <c r="G32" s="16">
         <v>0.5</v>
       </c>
-      <c r="H32" s="64" t="s">
+      <c r="H32" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="I32" s="65"/>
+      <c r="I32" s="58"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B33" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="28"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="35"/>
       <c r="G33" s="16">
         <v>1</v>
       </c>
-      <c r="H33" s="29"/>
-      <c r="I33" s="30"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="51"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B34" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="26" t="s">
+      <c r="C34" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="28"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="35"/>
       <c r="G34" s="16">
         <v>1</v>
       </c>
-      <c r="H34" s="29"/>
-      <c r="I34" s="30"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="51"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B35" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="26" t="s">
+      <c r="C35" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="28"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="35"/>
       <c r="G35" s="16">
         <v>1</v>
       </c>
-      <c r="H35" s="29"/>
-      <c r="I35" s="30"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="51"/>
     </row>
     <row r="36" spans="2:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="26" t="s">
+      <c r="C36" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="24">
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="52">
         <v>0.5</v>
       </c>
-      <c r="H36" s="66" t="s">
+      <c r="H36" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="I36" s="67"/>
+      <c r="I36" s="55"/>
     </row>
     <row r="37" spans="2:9" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B37" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="35" t="s">
+      <c r="C37" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="68"/>
-      <c r="I37" s="69"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="56"/>
+      <c r="I37" s="57"/>
     </row>
     <row r="38" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="39" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B39" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="32" t="s">
+      <c r="C39" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
       <c r="G39" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="H39" s="33" t="s">
+      <c r="H39" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="I39" s="34"/>
+      <c r="I39" s="40"/>
     </row>
     <row r="40" spans="2:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="76" t="s">
+      <c r="C40" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="77"/>
-      <c r="E40" s="77"/>
-      <c r="F40" s="78"/>
-      <c r="G40" s="22">
+      <c r="D40" s="70"/>
+      <c r="E40" s="70"/>
+      <c r="F40" s="71"/>
+      <c r="G40" s="75">
         <v>0.3</v>
       </c>
-      <c r="H40" s="60" t="s">
+      <c r="H40" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="I40" s="61"/>
+      <c r="I40" s="78"/>
     </row>
     <row r="41" spans="2:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C41" s="79"/>
-      <c r="D41" s="80"/>
-      <c r="E41" s="80"/>
-      <c r="F41" s="81"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="62"/>
-      <c r="I41" s="63"/>
+      <c r="C41" s="72"/>
+      <c r="D41" s="73"/>
+      <c r="E41" s="73"/>
+      <c r="F41" s="74"/>
+      <c r="G41" s="76"/>
+      <c r="H41" s="79"/>
+      <c r="I41" s="80"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B42" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="26" t="s">
+      <c r="C42" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="28"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="35"/>
       <c r="G42" s="16"/>
-      <c r="H42" s="70"/>
-      <c r="I42" s="65"/>
+      <c r="H42" s="87"/>
+      <c r="I42" s="58"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B43" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="31" t="s">
+      <c r="C43" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="28"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="35"/>
       <c r="G43" s="20">
         <v>1</v>
       </c>
-      <c r="H43" s="70"/>
-      <c r="I43" s="65"/>
+      <c r="H43" s="87"/>
+      <c r="I43" s="58"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B44" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C44" s="31" t="s">
+      <c r="C44" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="28"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="35"/>
       <c r="G44" s="20">
         <v>1</v>
       </c>
-      <c r="H44" s="70"/>
-      <c r="I44" s="65"/>
+      <c r="H44" s="87"/>
+      <c r="I44" s="58"/>
     </row>
     <row r="45" spans="2:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C45" s="82" t="s">
+      <c r="C45" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="D45" s="83"/>
-      <c r="E45" s="83"/>
-      <c r="F45" s="83"/>
-      <c r="G45" s="74"/>
-      <c r="H45" s="59"/>
-      <c r="I45" s="75"/>
+      <c r="D45" s="82"/>
+      <c r="E45" s="82"/>
+      <c r="F45" s="82"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="83"/>
+      <c r="I45" s="84"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B46" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C46" s="84" t="s">
+      <c r="C46" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="D46" s="85"/>
-      <c r="E46" s="85"/>
-      <c r="F46" s="85"/>
-      <c r="G46" s="74">
+      <c r="D46" s="86"/>
+      <c r="E46" s="86"/>
+      <c r="F46" s="86"/>
+      <c r="G46" s="22">
         <v>1</v>
       </c>
-      <c r="H46" s="29"/>
-      <c r="I46" s="30"/>
+      <c r="H46" s="50"/>
+      <c r="I46" s="51"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B47" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="26" t="s">
+      <c r="C47" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="28"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="35"/>
       <c r="G47" s="21">
         <v>1</v>
       </c>
-      <c r="H47" s="64"/>
-      <c r="I47" s="71"/>
+      <c r="H47" s="46"/>
+      <c r="I47" s="47"/>
     </row>
     <row r="48" spans="2:9" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="35" t="s">
+      <c r="C48" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="D48" s="36"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="37"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="25"/>
       <c r="G48" s="17">
         <v>0.8</v>
       </c>
-      <c r="H48" s="72" t="s">
+      <c r="H48" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="I48" s="73"/>
+      <c r="I48" s="49"/>
     </row>
     <row r="49" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="50" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B50" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C50" s="32" t="s">
+      <c r="C50" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="D50" s="33"/>
-      <c r="E50" s="33"/>
-      <c r="F50" s="33"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="39"/>
       <c r="G50" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H50" s="33" t="s">
+      <c r="H50" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="I50" s="34"/>
+      <c r="I50" s="40"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B51" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C51" s="54" t="s">
+      <c r="C51" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="D51" s="55"/>
-      <c r="E51" s="55"/>
-      <c r="F51" s="56"/>
-      <c r="G51" s="20"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="20">
+        <v>1</v>
+      </c>
       <c r="H51" s="44"/>
       <c r="I51" s="45"/>
     </row>
@@ -2328,136 +2330,167 @@
       <c r="B52" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C52" s="26" t="s">
+      <c r="C52" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="40"/>
-      <c r="I52" s="41"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="20">
+        <v>1</v>
+      </c>
+      <c r="H52" s="31"/>
+      <c r="I52" s="32"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B53" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C53" s="26" t="s">
+      <c r="C53" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="28"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="35"/>
       <c r="G53" s="20"/>
-      <c r="H53" s="40"/>
-      <c r="I53" s="41"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="32"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B54" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C54" s="31" t="s">
+      <c r="C54" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="D54" s="86"/>
-      <c r="E54" s="86"/>
-      <c r="F54" s="87"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="40"/>
-      <c r="I54" s="41"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="20">
+        <v>1</v>
+      </c>
+      <c r="H54" s="31"/>
+      <c r="I54" s="32"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B55" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C55" s="26" t="s">
+      <c r="C55" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="40"/>
-      <c r="I55" s="41"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="20">
+        <v>1</v>
+      </c>
+      <c r="H55" s="31"/>
+      <c r="I55" s="32"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B56" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C56" s="31" t="s">
+      <c r="C56" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D56" s="86"/>
-      <c r="E56" s="86"/>
-      <c r="F56" s="87"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="30"/>
       <c r="G56" s="20"/>
-      <c r="H56" s="40"/>
-      <c r="I56" s="41"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="32"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B57" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C57" s="26" t="s">
+      <c r="C57" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="D57" s="27"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="28"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="35"/>
       <c r="G57" s="20"/>
-      <c r="H57" s="40"/>
-      <c r="I57" s="41"/>
+      <c r="H57" s="31"/>
+      <c r="I57" s="32"/>
     </row>
     <row r="58" spans="2:9" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C58" s="31" t="s">
+      <c r="C58" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="D58" s="27"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="28"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="35"/>
       <c r="G58" s="20"/>
-      <c r="H58" s="42"/>
-      <c r="I58" s="43"/>
+      <c r="H58" s="36"/>
+      <c r="I58" s="37"/>
     </row>
     <row r="59" spans="2:9" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B59" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C59" s="35" t="s">
+      <c r="C59" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="D59" s="36"/>
-      <c r="E59" s="36"/>
-      <c r="F59" s="37"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="25"/>
       <c r="G59" s="17"/>
-      <c r="H59" s="38"/>
-      <c r="I59" s="39"/>
+      <c r="H59" s="26"/>
+      <c r="I59" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="C59:F59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="C57:F57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="C58:F58"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="C40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:I41"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H5:I13"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="H32:I32"/>
     <mergeCell ref="C47:F47"/>
     <mergeCell ref="C48:F48"/>
     <mergeCell ref="H47:I47"/>
@@ -2472,53 +2505,28 @@
     <mergeCell ref="C36:F36"/>
     <mergeCell ref="G36:G37"/>
     <mergeCell ref="H36:I37"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H5:I13"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
     <mergeCell ref="C39:F39"/>
     <mergeCell ref="H39:I39"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="C40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:I41"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="C59:F59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="C57:F57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="C58:F58"/>
+    <mergeCell ref="H58:I58"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/졸작 진행 계획 시간표.xlsx
+++ b/졸작 진행 계획 시간표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2020 졸작 깃\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39183C47-D0FE-4BDC-A680-80EB5A19248E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9D49BB-5D26-4668-B15C-079E3105E8C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E0805F39-A49F-47F5-8E79-FFCEB62D9AEC}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="66">
   <si>
     <t>월</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -226,10 +226,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>사격 애니메이션 송수신 및 갱신 함수 생성 및 적용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>조준 애니메이션 송수신 및 갱신 함수 생성 및 적용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -274,10 +270,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>플레이어 사격 애니메이션 송수신 패킷 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Crouch 애니메이션 송수신 및 갱신 함수 생성 및 적용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -290,13 +282,44 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>체력 동기화 및 사망 애니메이션 송수신 및 갱신 함수 
-생성 및 적용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>플레이어 체력 동기화 및 사망 애니메이션 송수신 
-패킷 생성</t>
+    <t>확인 결과
+이상 무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 이동/점프/앉기/점프/Sprint 동기화 테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 위치 동기화 하여 갱신할때 캐릭터들이 서로 
+충돌하여 통통 튀는 버그 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어가 직접 조종하지 않는 캐릭터의 위치가 
+플레이어의 위치로 저장되는 것으로 의심되어 
+수정작업을 진행하였으나 계획한 시간 내에 
+고치지 못함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020. 05. 29. 금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 사격 애니메이션 관련 송수신패킷 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 체력 동기화 및 사망 애니메이션 패킷 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 정보, 사망 애니메이션 송수신 및 실제 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사격 애니메이션 송수신 실제 적용 및 조정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -345,7 +368,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="48">
+  <borders count="59">
     <border>
       <left/>
       <right/>
@@ -948,13 +971,122 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1024,6 +1156,132 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1033,13 +1291,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1048,176 +1357,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1533,10 +1749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA488195-4E58-4ADC-87D5-0E438CC6628E}">
-  <dimension ref="B3:J59"/>
+  <dimension ref="B3:J70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+      <selection activeCell="H56" sqref="H56:I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1594,10 +1810,10 @@
       <c r="G5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="59" t="s">
+      <c r="H5" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="60"/>
+      <c r="I5" s="71"/>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.4">
@@ -1619,23 +1835,23 @@
       <c r="G6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="61"/>
-      <c r="I6" s="62"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="73"/>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="62"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="73"/>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1657,8 +1873,8 @@
       <c r="G8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="61"/>
-      <c r="I8" s="62"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="73"/>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.4">
@@ -1680,8 +1896,8 @@
       <c r="G9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="61"/>
-      <c r="I9" s="62"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="73"/>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.4">
@@ -1703,8 +1919,8 @@
       <c r="G10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="61"/>
-      <c r="I10" s="62"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="73"/>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.4">
@@ -1726,8 +1942,8 @@
       <c r="G11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="61"/>
-      <c r="I11" s="62"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="73"/>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.4">
@@ -1749,8 +1965,8 @@
       <c r="G12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="61"/>
-      <c r="I12" s="62"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="73"/>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -1772,8 +1988,8 @@
       <c r="G13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="63"/>
-      <c r="I13" s="64"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="75"/>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.4">
@@ -1815,36 +2031,36 @@
       <c r="B17" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="38" t="s">
+      <c r="C17" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
       <c r="G17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="39" t="s">
+      <c r="H17" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="I17" s="40"/>
+      <c r="I17" s="41"/>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B18" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="44"/>
       <c r="G18" s="16">
         <v>1</v>
       </c>
-      <c r="H18" s="44"/>
-      <c r="I18" s="45"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="69"/>
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.4">
@@ -1860,8 +2076,8 @@
       <c r="G19" s="16">
         <v>1</v>
       </c>
-      <c r="H19" s="31"/>
-      <c r="I19" s="32"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="62"/>
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.4">
@@ -1875,15 +2091,15 @@
       <c r="E20" s="34"/>
       <c r="F20" s="35"/>
       <c r="G20" s="16"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="32"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="62"/>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B21" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="38" t="s">
         <v>31</v>
       </c>
       <c r="D21" s="34"/>
@@ -1892,8 +2108,8 @@
       <c r="G21" s="16">
         <v>1</v>
       </c>
-      <c r="H21" s="31"/>
-      <c r="I21" s="32"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="62"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B22" s="11" t="s">
@@ -1906,8 +2122,8 @@
       <c r="E22" s="34"/>
       <c r="F22" s="35"/>
       <c r="G22" s="16"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="32"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="62"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B23" s="11" t="s">
@@ -1920,8 +2136,8 @@
       <c r="E23" s="34"/>
       <c r="F23" s="35"/>
       <c r="G23" s="16"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="32"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="62"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B24" s="11" t="s">
@@ -1936,8 +2152,8 @@
       <c r="G24" s="16">
         <v>1</v>
       </c>
-      <c r="H24" s="31"/>
-      <c r="I24" s="32"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="62"/>
     </row>
     <row r="25" spans="2:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="11" t="s">
@@ -1952,59 +2168,59 @@
       <c r="G25" s="16">
         <v>0.8</v>
       </c>
-      <c r="H25" s="36" t="s">
+      <c r="H25" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="I25" s="37"/>
+      <c r="I25" s="64"/>
     </row>
     <row r="26" spans="2:10" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B26" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="25"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="67"/>
       <c r="G26" s="17">
         <v>1</v>
       </c>
-      <c r="H26" s="26"/>
-      <c r="I26" s="27"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="60"/>
     </row>
     <row r="27" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="28" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B28" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="38" t="s">
+      <c r="C28" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
       <c r="G28" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H28" s="39" t="s">
+      <c r="H28" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="I28" s="40"/>
+      <c r="I28" s="41"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B29" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="41" t="s">
+      <c r="C29" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="44"/>
       <c r="G29" s="16"/>
-      <c r="H29" s="67"/>
-      <c r="I29" s="68"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="46"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B30" s="11" t="s">
@@ -2017,8 +2233,8 @@
       <c r="E30" s="34"/>
       <c r="F30" s="35"/>
       <c r="G30" s="16"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="51"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="32"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B31" s="11" t="s">
@@ -2031,14 +2247,14 @@
       <c r="E31" s="34"/>
       <c r="F31" s="35"/>
       <c r="G31" s="16"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="51"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="32"/>
     </row>
     <row r="32" spans="2:10" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="28" t="s">
+      <c r="C32" s="38" t="s">
         <v>33</v>
       </c>
       <c r="D32" s="34"/>
@@ -2047,12 +2263,12 @@
       <c r="G32" s="16">
         <v>0.5</v>
       </c>
-      <c r="H32" s="46" t="s">
+      <c r="H32" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="I32" s="58"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I32" s="37"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B33" s="11" t="s">
         <v>11</v>
       </c>
@@ -2065,10 +2281,10 @@
       <c r="G33" s="16">
         <v>1</v>
       </c>
-      <c r="H33" s="50"/>
-      <c r="I33" s="51"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H33" s="31"/>
+      <c r="I33" s="32"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B34" s="11" t="s">
         <v>12</v>
       </c>
@@ -2081,10 +2297,10 @@
       <c r="G34" s="16">
         <v>1</v>
       </c>
-      <c r="H34" s="50"/>
-      <c r="I34" s="51"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H34" s="31"/>
+      <c r="I34" s="32"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B35" s="11" t="s">
         <v>13</v>
       </c>
@@ -2097,10 +2313,10 @@
       <c r="G35" s="16">
         <v>1</v>
       </c>
-      <c r="H35" s="50"/>
-      <c r="I35" s="51"/>
-    </row>
-    <row r="36" spans="2:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H35" s="31"/>
+      <c r="I35" s="32"/>
+    </row>
+    <row r="36" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="11" t="s">
         <v>14</v>
       </c>
@@ -2110,78 +2326,78 @@
       <c r="D36" s="34"/>
       <c r="E36" s="34"/>
       <c r="F36" s="35"/>
-      <c r="G36" s="52">
+      <c r="G36" s="82">
         <v>0.5</v>
       </c>
-      <c r="H36" s="54" t="s">
+      <c r="H36" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="I36" s="55"/>
-    </row>
-    <row r="37" spans="2:9" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I36" s="85"/>
+    </row>
+    <row r="37" spans="2:10" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B37" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="C37" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="53"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="57"/>
-    </row>
-    <row r="38" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="39" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D37" s="66"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="83"/>
+      <c r="H37" s="86"/>
+      <c r="I37" s="87"/>
+    </row>
+    <row r="38" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="39" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B39" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C39" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="39"/>
-      <c r="E39" s="39"/>
-      <c r="F39" s="39"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="40"/>
       <c r="G39" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="H39" s="39" t="s">
+      <c r="H39" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="I39" s="40"/>
-    </row>
-    <row r="40" spans="2:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I39" s="41"/>
+    </row>
+    <row r="40" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="69" t="s">
+      <c r="C40" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="70"/>
-      <c r="E40" s="70"/>
-      <c r="F40" s="71"/>
-      <c r="G40" s="75">
+      <c r="D40" s="48"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="53">
         <v>0.3</v>
       </c>
-      <c r="H40" s="77" t="s">
-        <v>47</v>
-      </c>
-      <c r="I40" s="78"/>
-    </row>
-    <row r="41" spans="2:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H40" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" s="56"/>
+    </row>
+    <row r="41" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C41" s="72"/>
-      <c r="D41" s="73"/>
-      <c r="E41" s="73"/>
-      <c r="F41" s="74"/>
-      <c r="G41" s="76"/>
-      <c r="H41" s="79"/>
-      <c r="I41" s="80"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C41" s="50"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="54"/>
+      <c r="H41" s="57"/>
+      <c r="I41" s="58"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B42" s="11" t="s">
         <v>9</v>
       </c>
@@ -2192,14 +2408,14 @@
       <c r="E42" s="34"/>
       <c r="F42" s="35"/>
       <c r="G42" s="16"/>
-      <c r="H42" s="87"/>
-      <c r="I42" s="58"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H42" s="36"/>
+      <c r="I42" s="37"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B43" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="28" t="s">
+      <c r="C43" s="38" t="s">
         <v>43</v>
       </c>
       <c r="D43" s="34"/>
@@ -2208,15 +2424,15 @@
       <c r="G43" s="20">
         <v>1</v>
       </c>
-      <c r="H43" s="87"/>
-      <c r="I43" s="58"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H43" s="36"/>
+      <c r="I43" s="37"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B44" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C44" s="28" t="s">
-        <v>45</v>
+      <c r="C44" s="38" t="s">
+        <v>44</v>
       </c>
       <c r="D44" s="34"/>
       <c r="E44" s="34"/>
@@ -2224,45 +2440,45 @@
       <c r="G44" s="20">
         <v>1</v>
       </c>
-      <c r="H44" s="87"/>
-      <c r="I44" s="58"/>
-    </row>
-    <row r="45" spans="2:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H44" s="36"/>
+      <c r="I44" s="37"/>
+    </row>
+    <row r="45" spans="2:10" ht="36.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C45" s="81" t="s">
-        <v>48</v>
-      </c>
-      <c r="D45" s="82"/>
-      <c r="E45" s="82"/>
-      <c r="F45" s="82"/>
+      <c r="C45" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
       <c r="G45" s="22"/>
-      <c r="H45" s="83"/>
-      <c r="I45" s="84"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H45" s="27"/>
+      <c r="I45" s="28"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B46" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C46" s="85" t="s">
-        <v>52</v>
-      </c>
-      <c r="D46" s="86"/>
-      <c r="E46" s="86"/>
-      <c r="F46" s="86"/>
+      <c r="C46" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
       <c r="G46" s="22">
         <v>1</v>
       </c>
-      <c r="H46" s="50"/>
-      <c r="I46" s="51"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H46" s="31"/>
+      <c r="I46" s="32"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B47" s="11" t="s">
         <v>14</v>
       </c>
       <c r="C47" s="33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D47" s="34"/>
       <c r="E47" s="34"/>
@@ -2270,68 +2486,71 @@
       <c r="G47" s="21">
         <v>1</v>
       </c>
-      <c r="H47" s="46"/>
-      <c r="I47" s="47"/>
-    </row>
-    <row r="48" spans="2:9" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H47" s="78"/>
+      <c r="I47" s="79"/>
+    </row>
+    <row r="48" spans="2:10" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="25"/>
+      <c r="C48" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="D48" s="66"/>
+      <c r="E48" s="66"/>
+      <c r="F48" s="67"/>
       <c r="G48" s="17">
         <v>0.8</v>
       </c>
-      <c r="H48" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="I48" s="49"/>
+      <c r="H48" s="80" t="s">
+        <v>50</v>
+      </c>
+      <c r="I48" s="81"/>
+      <c r="J48" s="90" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="49" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="50" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B50" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C50" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="D50" s="39"/>
-      <c r="E50" s="39"/>
-      <c r="F50" s="39"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
       <c r="G50" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H50" s="39" t="s">
+      <c r="H50" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="I50" s="40"/>
+      <c r="I50" s="41"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B51" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C51" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="D51" s="42"/>
-      <c r="E51" s="42"/>
-      <c r="F51" s="43"/>
+      <c r="C51" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="D51" s="43"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="44"/>
       <c r="G51" s="20">
         <v>1</v>
       </c>
-      <c r="H51" s="44"/>
-      <c r="I51" s="45"/>
+      <c r="H51" s="68"/>
+      <c r="I51" s="69"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B52" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D52" s="34"/>
       <c r="E52" s="34"/>
@@ -2339,8 +2558,8 @@
       <c r="G52" s="20">
         <v>1</v>
       </c>
-      <c r="H52" s="31"/>
-      <c r="I52" s="32"/>
+      <c r="H52" s="61"/>
+      <c r="I52" s="62"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B53" s="11" t="s">
@@ -2353,31 +2572,31 @@
       <c r="E53" s="34"/>
       <c r="F53" s="35"/>
       <c r="G53" s="20"/>
-      <c r="H53" s="31"/>
-      <c r="I53" s="32"/>
+      <c r="H53" s="61"/>
+      <c r="I53" s="62"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B54" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C54" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="D54" s="29"/>
-      <c r="E54" s="29"/>
-      <c r="F54" s="30"/>
+      <c r="C54" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="D54" s="88"/>
+      <c r="E54" s="88"/>
+      <c r="F54" s="89"/>
       <c r="G54" s="20">
         <v>1</v>
       </c>
-      <c r="H54" s="31"/>
-      <c r="I54" s="32"/>
+      <c r="H54" s="61"/>
+      <c r="I54" s="62"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B55" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C55" s="33" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D55" s="34"/>
       <c r="E55" s="34"/>
@@ -2385,112 +2604,248 @@
       <c r="G55" s="20">
         <v>1</v>
       </c>
-      <c r="H55" s="31"/>
-      <c r="I55" s="32"/>
+      <c r="H55" s="61"/>
+      <c r="I55" s="62"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B56" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C56" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="D56" s="29"/>
-      <c r="E56" s="29"/>
-      <c r="F56" s="30"/>
-      <c r="G56" s="20"/>
-      <c r="H56" s="31"/>
-      <c r="I56" s="32"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C56" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="D56" s="88"/>
+      <c r="E56" s="88"/>
+      <c r="F56" s="89"/>
+      <c r="G56" s="20">
+        <v>1</v>
+      </c>
+      <c r="H56" s="61"/>
+      <c r="I56" s="62"/>
+    </row>
+    <row r="57" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C57" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="D57" s="34"/>
-      <c r="E57" s="34"/>
-      <c r="F57" s="35"/>
-      <c r="G57" s="20"/>
-      <c r="H57" s="31"/>
-      <c r="I57" s="32"/>
-    </row>
-    <row r="58" spans="2:9" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C57" s="91" t="s">
+        <v>59</v>
+      </c>
+      <c r="D57" s="92"/>
+      <c r="E57" s="92"/>
+      <c r="F57" s="93"/>
+      <c r="G57" s="82">
+        <v>0.3</v>
+      </c>
+      <c r="H57" s="84" t="s">
+        <v>60</v>
+      </c>
+      <c r="I57" s="101"/>
+    </row>
+    <row r="58" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C58" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="D58" s="34"/>
-      <c r="E58" s="34"/>
-      <c r="F58" s="35"/>
-      <c r="G58" s="20"/>
-      <c r="H58" s="36"/>
-      <c r="I58" s="37"/>
-    </row>
-    <row r="59" spans="2:9" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C58" s="94"/>
+      <c r="D58" s="95"/>
+      <c r="E58" s="95"/>
+      <c r="F58" s="96"/>
+      <c r="G58" s="100"/>
+      <c r="H58" s="102"/>
+      <c r="I58" s="103"/>
+    </row>
+    <row r="59" spans="2:9" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B59" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C59" s="23" t="s">
+      <c r="C59" s="97"/>
+      <c r="D59" s="98"/>
+      <c r="E59" s="98"/>
+      <c r="F59" s="99"/>
+      <c r="G59" s="83"/>
+      <c r="H59" s="104"/>
+      <c r="I59" s="105"/>
+    </row>
+    <row r="60" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="61" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C61" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="D61" s="40"/>
+      <c r="E61" s="40"/>
+      <c r="F61" s="40"/>
+      <c r="G61" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="H61" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="I61" s="41"/>
+    </row>
+    <row r="62" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B62" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" s="106" t="s">
         <v>59</v>
       </c>
-      <c r="D59" s="24"/>
-      <c r="E59" s="24"/>
-      <c r="F59" s="25"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="26"/>
-      <c r="I59" s="27"/>
+      <c r="D62" s="107"/>
+      <c r="E62" s="107"/>
+      <c r="F62" s="108"/>
+      <c r="G62" s="53"/>
+      <c r="H62" s="112"/>
+      <c r="I62" s="113"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B63" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" s="109"/>
+      <c r="D63" s="110"/>
+      <c r="E63" s="110"/>
+      <c r="F63" s="111"/>
+      <c r="G63" s="54"/>
+      <c r="H63" s="114"/>
+      <c r="I63" s="115"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B64" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D64" s="34"/>
+      <c r="E64" s="34"/>
+      <c r="F64" s="35"/>
+      <c r="G64" s="24"/>
+      <c r="H64" s="61"/>
+      <c r="I64" s="62"/>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B65" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="D65" s="34"/>
+      <c r="E65" s="34"/>
+      <c r="F65" s="35"/>
+      <c r="G65" s="24"/>
+      <c r="H65" s="61"/>
+      <c r="I65" s="62"/>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B66" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D66" s="34"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="35"/>
+      <c r="G66" s="24"/>
+      <c r="H66" s="61"/>
+      <c r="I66" s="62"/>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B67" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D67" s="34"/>
+      <c r="E67" s="34"/>
+      <c r="F67" s="35"/>
+      <c r="G67" s="24"/>
+      <c r="H67" s="61"/>
+      <c r="I67" s="62"/>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B68" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D68" s="34"/>
+      <c r="E68" s="34"/>
+      <c r="F68" s="35"/>
+      <c r="G68" s="24"/>
+      <c r="H68" s="61"/>
+      <c r="I68" s="62"/>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B69" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="D69" s="34"/>
+      <c r="E69" s="34"/>
+      <c r="F69" s="35"/>
+      <c r="G69" s="24"/>
+      <c r="H69" s="63"/>
+      <c r="I69" s="64"/>
+    </row>
+    <row r="70" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C70" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="D70" s="66"/>
+      <c r="E70" s="66"/>
+      <c r="F70" s="67"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="59"/>
+      <c r="I70" s="60"/>
     </row>
   </sheetData>
-  <mergeCells count="81">
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="C40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:I41"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H5:I13"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="H32:I32"/>
+  <mergeCells count="97">
+    <mergeCell ref="C67:F67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="C68:F68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="C69:F69"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="C70:F70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="C64:F64"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="C65:F65"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="C66:F66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="C61:F61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="C62:F63"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="H62:I63"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="C57:F59"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="H57:I59"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="H52:I52"/>
     <mergeCell ref="C47:F47"/>
     <mergeCell ref="C48:F48"/>
     <mergeCell ref="H47:I47"/>
@@ -2507,26 +2862,51 @@
     <mergeCell ref="H36:I37"/>
     <mergeCell ref="C39:F39"/>
     <mergeCell ref="H39:I39"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="C59:F59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="C57:F57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="C58:F58"/>
-    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H5:I13"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="C40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:I41"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="H44:I44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/졸작 진행 계획 시간표.xlsx
+++ b/졸작 진행 계획 시간표.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2020 졸작 깃\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2020 졸작 깃\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9D49BB-5D26-4668-B15C-079E3105E8C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94A5473-0EE3-4167-B496-372F3840526C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E0805F39-A49F-47F5-8E79-FFCEB62D9AEC}"/>
+    <workbookView xWindow="5220" yWindow="1290" windowWidth="21600" windowHeight="11385" xr2:uid="{E0805F39-A49F-47F5-8E79-FFCEB62D9AEC}"/>
   </bookViews>
   <sheets>
     <sheet name="5월 4주차" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="69">
   <si>
     <t>월</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -322,12 +322,35 @@
     <t>사격 애니메이션 송수신 실제 적용 및 조정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>플레이어 위치 동기화 하여 갱신할때 캐릭터들이 서로 
+충돌하여 통통 튀는 버그 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어의 컨트롤러 관련하여 원인을 추측하고 
+컨트롤러 빙의에 대하여 계속하여 수정해보았으나 
+시간내에 고치지 못함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오전에 이어서 플레이어의 컨트롤러에 대해 오류를 
+계속 찾아보았지만 찾지 못하였음. 더 이상 플레이어 
+컨트롤러에 이상이 없다고 생각되어 캐릭터 좌표 및 
+이동 함수들에 계속하여 오류를 탐색해봄. 시간이 매우
+소비 되었으나 오류를 찾아 고쳤음. 원인은 
+플레이어의  좌표와 회전값을 설정하는 SetActorLocationAndRotation()였음 이 함수를 
+사용하지 않고 플레이어의 속도값으로 캐릭터를 
+움직이는 AddMovementInput()함수를 사용하였더니 
+캐릭터들이 통통 튀는 버그가 사라짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -359,6 +382,30 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1086,7 +1133,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1162,6 +1209,246 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1181,259 +1468,43 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1749,24 +1820,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA488195-4E58-4ADC-87D5-0E438CC6628E}">
-  <dimension ref="B3:J70"/>
+  <dimension ref="B3:O70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56:I56"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70:F70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.3984375" customWidth="1"/>
-    <col min="3" max="4" width="10.59765625" customWidth="1"/>
-    <col min="5" max="5" width="11.09765625" customWidth="1"/>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="3" max="4" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="11.125" customWidth="1"/>
     <col min="6" max="6" width="13.5" customWidth="1"/>
-    <col min="7" max="7" width="10.3984375" customWidth="1"/>
-    <col min="9" max="9" width="28.59765625" customWidth="1"/>
+    <col min="7" max="7" width="10.375" customWidth="1"/>
+    <col min="9" max="9" width="28.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="5"/>
       <c r="C4" s="6" t="s">
         <v>0</v>
@@ -1791,7 +1862,7 @@
       </c>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="13" t="s">
         <v>7</v>
       </c>
@@ -1810,13 +1881,13 @@
       <c r="G5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="70" t="s">
+      <c r="H5" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="71"/>
+      <c r="I5" s="85"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="11" t="s">
         <v>8</v>
       </c>
@@ -1835,26 +1906,26 @@
       <c r="G6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="72"/>
-      <c r="I6" s="73"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="87"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="76" t="s">
+      <c r="C7" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="73"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="91"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="87"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="11" t="s">
         <v>10</v>
       </c>
@@ -1873,11 +1944,11 @@
       <c r="G8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="72"/>
-      <c r="I8" s="73"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="87"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="11" t="s">
         <v>11</v>
       </c>
@@ -1896,11 +1967,11 @@
       <c r="G9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="72"/>
-      <c r="I9" s="73"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="87"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
         <v>12</v>
       </c>
@@ -1919,11 +1990,11 @@
       <c r="G10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="72"/>
-      <c r="I10" s="73"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="87"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="11" t="s">
         <v>13</v>
       </c>
@@ -1942,11 +2013,11 @@
       <c r="G11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="72"/>
-      <c r="I11" s="73"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="87"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="11" t="s">
         <v>14</v>
       </c>
@@ -1965,11 +2036,11 @@
       <c r="G12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="72"/>
-      <c r="I12" s="73"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="87"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="12" t="s">
         <v>15</v>
       </c>
@@ -1988,11 +2059,11 @@
       <c r="G13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="74"/>
-      <c r="I13" s="75"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="89"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
         <v>18</v>
@@ -2013,7 +2084,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -2024,10 +2095,10 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="14" t="s">
         <v>21</v>
       </c>
@@ -2046,151 +2117,151 @@
       <c r="I17" s="41"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="42" t="s">
+      <c r="C18" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="44"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="72"/>
       <c r="G18" s="16">
         <v>1</v>
       </c>
-      <c r="H18" s="68"/>
-      <c r="I18" s="69"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="74"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="35"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="28"/>
       <c r="G19" s="16">
         <v>1</v>
       </c>
-      <c r="H19" s="61"/>
-      <c r="I19" s="62"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="30"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="35"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="28"/>
       <c r="G20" s="16"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="62"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="30"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C21" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="35"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="28"/>
       <c r="G21" s="16">
         <v>1</v>
       </c>
-      <c r="H21" s="61"/>
-      <c r="I21" s="62"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="H21" s="29"/>
+      <c r="I21" s="30"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="35"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="28"/>
       <c r="G22" s="16"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="62"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="H22" s="29"/>
+      <c r="I22" s="30"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="35"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="28"/>
       <c r="G23" s="16"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="62"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="H23" s="29"/>
+      <c r="I23" s="30"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="33" t="s">
+      <c r="C24" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="35"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="28"/>
       <c r="G24" s="16">
         <v>1</v>
       </c>
-      <c r="H24" s="61"/>
-      <c r="I24" s="62"/>
-    </row>
-    <row r="25" spans="2:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H24" s="29"/>
+      <c r="I24" s="30"/>
+    </row>
+    <row r="25" spans="2:10" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="33" t="s">
+      <c r="C25" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="35"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="28"/>
       <c r="G25" s="16">
         <v>0.8</v>
       </c>
-      <c r="H25" s="63" t="s">
+      <c r="H25" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="I25" s="64"/>
-    </row>
-    <row r="26" spans="2:10" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I25" s="32"/>
+    </row>
+    <row r="26" spans="2:10" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="65" t="s">
+      <c r="C26" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="66"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="67"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="35"/>
       <c r="G26" s="17">
         <v>1</v>
       </c>
-      <c r="H26" s="59"/>
-      <c r="I26" s="60"/>
-    </row>
-    <row r="27" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="28" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H26" s="36"/>
+      <c r="I26" s="37"/>
+    </row>
+    <row r="27" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="14" t="s">
         <v>37</v>
       </c>
@@ -2208,148 +2279,148 @@
       </c>
       <c r="I28" s="41"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="42" t="s">
+      <c r="C29" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="44"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="72"/>
       <c r="G29" s="16"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="46"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="H29" s="92"/>
+      <c r="I29" s="93"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="33" t="s">
+      <c r="C30" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="35"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="28"/>
       <c r="G30" s="16"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="32"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="H30" s="79"/>
+      <c r="I30" s="80"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="33" t="s">
+      <c r="C31" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="35"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="28"/>
       <c r="G31" s="16"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="32"/>
-    </row>
-    <row r="32" spans="2:10" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H31" s="79"/>
+      <c r="I31" s="80"/>
+    </row>
+    <row r="32" spans="2:10" ht="80.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C32" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="35"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="28"/>
       <c r="G32" s="16">
         <v>0.5</v>
       </c>
-      <c r="H32" s="78" t="s">
+      <c r="H32" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="I32" s="37"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="I32" s="104"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="33" t="s">
+      <c r="C33" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="35"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="28"/>
       <c r="G33" s="16">
         <v>1</v>
       </c>
-      <c r="H33" s="31"/>
-      <c r="I33" s="32"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="H33" s="79"/>
+      <c r="I33" s="80"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="33" t="s">
+      <c r="C34" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="35"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="28"/>
       <c r="G34" s="16">
         <v>1</v>
       </c>
-      <c r="H34" s="31"/>
-      <c r="I34" s="32"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="H34" s="79"/>
+      <c r="I34" s="80"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B35" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="33" t="s">
+      <c r="C35" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="35"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="28"/>
       <c r="G35" s="16">
         <v>1</v>
       </c>
-      <c r="H35" s="31"/>
-      <c r="I35" s="32"/>
-    </row>
-    <row r="36" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H35" s="79"/>
+      <c r="I35" s="80"/>
+    </row>
+    <row r="36" spans="2:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="33" t="s">
+      <c r="C36" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="82">
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="61">
         <v>0.5</v>
       </c>
-      <c r="H36" s="84" t="s">
+      <c r="H36" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="I36" s="85"/>
-    </row>
-    <row r="37" spans="2:10" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I36" s="81"/>
+    </row>
+    <row r="37" spans="2:10" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="65" t="s">
+      <c r="C37" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="D37" s="66"/>
-      <c r="E37" s="66"/>
-      <c r="F37" s="67"/>
-      <c r="G37" s="83"/>
-      <c r="H37" s="86"/>
-      <c r="I37" s="87"/>
-    </row>
-    <row r="38" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="39" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="63"/>
+      <c r="H37" s="82"/>
+      <c r="I37" s="83"/>
+    </row>
+    <row r="38" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="14" t="s">
         <v>45</v>
       </c>
@@ -2367,151 +2438,151 @@
       </c>
       <c r="I39" s="41"/>
     </row>
-    <row r="40" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="47" t="s">
+      <c r="C40" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="48"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="53">
+      <c r="D40" s="95"/>
+      <c r="E40" s="95"/>
+      <c r="F40" s="96"/>
+      <c r="G40" s="48">
         <v>0.3</v>
       </c>
-      <c r="H40" s="55" t="s">
+      <c r="H40" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="I40" s="56"/>
-    </row>
-    <row r="41" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I40" s="101"/>
+    </row>
+    <row r="41" spans="2:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C41" s="50"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="51"/>
-      <c r="F41" s="52"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="57"/>
-      <c r="I41" s="58"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="C41" s="97"/>
+      <c r="D41" s="98"/>
+      <c r="E41" s="98"/>
+      <c r="F41" s="99"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="102"/>
+      <c r="I41" s="103"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B42" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="33" t="s">
+      <c r="C42" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="35"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="28"/>
       <c r="G42" s="16"/>
-      <c r="H42" s="36"/>
-      <c r="I42" s="37"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="H42" s="111"/>
+      <c r="I42" s="104"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B43" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C43" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="35"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="28"/>
       <c r="G43" s="20">
         <v>1</v>
       </c>
-      <c r="H43" s="36"/>
-      <c r="I43" s="37"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="H43" s="111"/>
+      <c r="I43" s="104"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C44" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="35"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="28"/>
       <c r="G44" s="20">
         <v>1</v>
       </c>
-      <c r="H44" s="36"/>
-      <c r="I44" s="37"/>
-    </row>
-    <row r="45" spans="2:10" ht="36.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H44" s="111"/>
+      <c r="I44" s="104"/>
+    </row>
+    <row r="45" spans="2:10" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C45" s="25" t="s">
+      <c r="C45" s="105" t="s">
         <v>47</v>
       </c>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
+      <c r="D45" s="106"/>
+      <c r="E45" s="106"/>
+      <c r="F45" s="106"/>
       <c r="G45" s="22"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="28"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="H45" s="107"/>
+      <c r="I45" s="108"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B46" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C46" s="29" t="s">
+      <c r="C46" s="109" t="s">
         <v>51</v>
       </c>
-      <c r="D46" s="30"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
+      <c r="D46" s="110"/>
+      <c r="E46" s="110"/>
+      <c r="F46" s="110"/>
       <c r="G46" s="22">
         <v>1</v>
       </c>
-      <c r="H46" s="31"/>
-      <c r="I46" s="32"/>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="H46" s="79"/>
+      <c r="I46" s="80"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="33" t="s">
+      <c r="C47" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="D47" s="34"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="35"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="28"/>
       <c r="G47" s="21">
         <v>1</v>
       </c>
-      <c r="H47" s="78"/>
-      <c r="I47" s="79"/>
-    </row>
-    <row r="48" spans="2:10" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H47" s="75"/>
+      <c r="I47" s="76"/>
+    </row>
+    <row r="48" spans="2:10" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B48" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="65" t="s">
+      <c r="C48" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="D48" s="66"/>
-      <c r="E48" s="66"/>
-      <c r="F48" s="67"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="35"/>
       <c r="G48" s="17">
         <v>0.8</v>
       </c>
-      <c r="H48" s="80" t="s">
+      <c r="H48" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="I48" s="81"/>
-      <c r="J48" s="90" t="s">
+      <c r="I48" s="78"/>
+      <c r="J48" s="25" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="50" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="50" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B50" s="14" t="s">
         <v>52</v>
       </c>
@@ -2529,144 +2600,144 @@
       </c>
       <c r="I50" s="41"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C51" s="42" t="s">
+      <c r="C51" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="D51" s="43"/>
-      <c r="E51" s="43"/>
-      <c r="F51" s="44"/>
+      <c r="D51" s="71"/>
+      <c r="E51" s="71"/>
+      <c r="F51" s="72"/>
       <c r="G51" s="20">
         <v>1</v>
       </c>
-      <c r="H51" s="68"/>
-      <c r="I51" s="69"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H51" s="73"/>
+      <c r="I51" s="74"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C52" s="33" t="s">
+      <c r="C52" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="D52" s="34"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="35"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="28"/>
       <c r="G52" s="20">
         <v>1</v>
       </c>
-      <c r="H52" s="61"/>
-      <c r="I52" s="62"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H52" s="29"/>
+      <c r="I52" s="30"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C53" s="33" t="s">
+      <c r="C53" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="35"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="28"/>
       <c r="G53" s="20"/>
-      <c r="H53" s="61"/>
-      <c r="I53" s="62"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H53" s="29"/>
+      <c r="I53" s="30"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C54" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="D54" s="88"/>
-      <c r="E54" s="88"/>
-      <c r="F54" s="89"/>
+      <c r="D54" s="50"/>
+      <c r="E54" s="50"/>
+      <c r="F54" s="51"/>
       <c r="G54" s="20">
         <v>1</v>
       </c>
-      <c r="H54" s="61"/>
-      <c r="I54" s="62"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H54" s="29"/>
+      <c r="I54" s="30"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C55" s="33" t="s">
+      <c r="C55" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="D55" s="34"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="35"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="28"/>
       <c r="G55" s="20">
         <v>1</v>
       </c>
-      <c r="H55" s="61"/>
-      <c r="I55" s="62"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H55" s="29"/>
+      <c r="I55" s="30"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C56" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="D56" s="88"/>
-      <c r="E56" s="88"/>
-      <c r="F56" s="89"/>
+      <c r="D56" s="50"/>
+      <c r="E56" s="50"/>
+      <c r="F56" s="51"/>
       <c r="G56" s="20">
         <v>1</v>
       </c>
-      <c r="H56" s="61"/>
-      <c r="I56" s="62"/>
-    </row>
-    <row r="57" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H56" s="29"/>
+      <c r="I56" s="30"/>
+    </row>
+    <row r="57" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C57" s="91" t="s">
+      <c r="C57" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="D57" s="92"/>
-      <c r="E57" s="92"/>
-      <c r="F57" s="93"/>
-      <c r="G57" s="82">
+      <c r="D57" s="53"/>
+      <c r="E57" s="53"/>
+      <c r="F57" s="54"/>
+      <c r="G57" s="61">
         <v>0.3</v>
       </c>
-      <c r="H57" s="84" t="s">
+      <c r="H57" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="I57" s="101"/>
-    </row>
-    <row r="58" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I57" s="65"/>
+    </row>
+    <row r="58" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C58" s="94"/>
-      <c r="D58" s="95"/>
-      <c r="E58" s="95"/>
-      <c r="F58" s="96"/>
-      <c r="G58" s="100"/>
-      <c r="H58" s="102"/>
-      <c r="I58" s="103"/>
-    </row>
-    <row r="59" spans="2:9" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C58" s="55"/>
+      <c r="D58" s="56"/>
+      <c r="E58" s="56"/>
+      <c r="F58" s="57"/>
+      <c r="G58" s="62"/>
+      <c r="H58" s="66"/>
+      <c r="I58" s="67"/>
+    </row>
+    <row r="59" spans="2:9" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B59" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C59" s="97"/>
-      <c r="D59" s="98"/>
-      <c r="E59" s="98"/>
-      <c r="F59" s="99"/>
-      <c r="G59" s="83"/>
-      <c r="H59" s="104"/>
-      <c r="I59" s="105"/>
-    </row>
-    <row r="60" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="61" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C59" s="58"/>
+      <c r="D59" s="59"/>
+      <c r="E59" s="59"/>
+      <c r="F59" s="60"/>
+      <c r="G59" s="63"/>
+      <c r="H59" s="68"/>
+      <c r="I59" s="69"/>
+    </row>
+    <row r="60" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="61" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B61" s="14" t="s">
         <v>61</v>
       </c>
@@ -2684,168 +2755,220 @@
       </c>
       <c r="I61" s="41"/>
     </row>
-    <row r="62" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C62" s="106" t="s">
+      <c r="C62" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="D62" s="107"/>
-      <c r="E62" s="107"/>
-      <c r="F62" s="108"/>
-      <c r="G62" s="53"/>
-      <c r="H62" s="112"/>
-      <c r="I62" s="113"/>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D62" s="43"/>
+      <c r="E62" s="43"/>
+      <c r="F62" s="44"/>
+      <c r="G62" s="48">
+        <v>0.3</v>
+      </c>
+      <c r="H62" s="117" t="s">
+        <v>67</v>
+      </c>
+      <c r="I62" s="112"/>
+    </row>
+    <row r="63" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C63" s="109"/>
-      <c r="D63" s="110"/>
-      <c r="E63" s="110"/>
-      <c r="F63" s="111"/>
-      <c r="G63" s="54"/>
-      <c r="H63" s="114"/>
-      <c r="I63" s="115"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C63" s="45"/>
+      <c r="D63" s="46"/>
+      <c r="E63" s="46"/>
+      <c r="F63" s="47"/>
+      <c r="G63" s="49"/>
+      <c r="H63" s="113"/>
+      <c r="I63" s="114"/>
+    </row>
+    <row r="64" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C64" s="33" t="s">
+      <c r="C64" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D64" s="34"/>
-      <c r="E64" s="34"/>
-      <c r="F64" s="35"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="28"/>
       <c r="G64" s="24"/>
-      <c r="H64" s="61"/>
-      <c r="I64" s="62"/>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H64" s="115"/>
+      <c r="I64" s="116"/>
+    </row>
+    <row r="65" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C65" s="38" t="s">
+      <c r="C65" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="D65" s="53"/>
+      <c r="E65" s="53"/>
+      <c r="F65" s="54"/>
+      <c r="G65" s="61">
+        <v>1</v>
+      </c>
+      <c r="H65" s="118" t="s">
+        <v>68</v>
+      </c>
+      <c r="I65" s="119"/>
+      <c r="L65" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="D65" s="34"/>
-      <c r="E65" s="34"/>
-      <c r="F65" s="35"/>
-      <c r="G65" s="24"/>
-      <c r="H65" s="61"/>
-      <c r="I65" s="62"/>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="M65" s="27"/>
+      <c r="N65" s="27"/>
+      <c r="O65" s="28"/>
+    </row>
+    <row r="66" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C66" s="33" t="s">
+      <c r="C66" s="55"/>
+      <c r="D66" s="56"/>
+      <c r="E66" s="56"/>
+      <c r="F66" s="57"/>
+      <c r="G66" s="62"/>
+      <c r="H66" s="120"/>
+      <c r="I66" s="121"/>
+      <c r="L66" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="D66" s="34"/>
-      <c r="E66" s="34"/>
-      <c r="F66" s="35"/>
-      <c r="G66" s="24"/>
-      <c r="H66" s="61"/>
-      <c r="I66" s="62"/>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="M66" s="27"/>
+      <c r="N66" s="27"/>
+      <c r="O66" s="28"/>
+    </row>
+    <row r="67" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B67" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C67" s="33" t="s">
+      <c r="C67" s="55"/>
+      <c r="D67" s="56"/>
+      <c r="E67" s="56"/>
+      <c r="F67" s="57"/>
+      <c r="G67" s="62"/>
+      <c r="H67" s="120"/>
+      <c r="I67" s="121"/>
+      <c r="L67" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="D67" s="34"/>
-      <c r="E67" s="34"/>
-      <c r="F67" s="35"/>
-      <c r="G67" s="24"/>
-      <c r="H67" s="61"/>
-      <c r="I67" s="62"/>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="M67" s="27"/>
+      <c r="N67" s="27"/>
+      <c r="O67" s="28"/>
+    </row>
+    <row r="68" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C68" s="33" t="s">
+      <c r="C68" s="55"/>
+      <c r="D68" s="56"/>
+      <c r="E68" s="56"/>
+      <c r="F68" s="57"/>
+      <c r="G68" s="62"/>
+      <c r="H68" s="120"/>
+      <c r="I68" s="121"/>
+      <c r="L68" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="D68" s="34"/>
-      <c r="E68" s="34"/>
-      <c r="F68" s="35"/>
-      <c r="G68" s="24"/>
-      <c r="H68" s="61"/>
-      <c r="I68" s="62"/>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="M68" s="27"/>
+      <c r="N68" s="27"/>
+      <c r="O68" s="28"/>
+    </row>
+    <row r="69" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C69" s="33" t="s">
+      <c r="C69" s="45"/>
+      <c r="D69" s="46"/>
+      <c r="E69" s="46"/>
+      <c r="F69" s="47"/>
+      <c r="G69" s="49"/>
+      <c r="H69" s="122"/>
+      <c r="I69" s="123"/>
+      <c r="L69" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="D69" s="34"/>
-      <c r="E69" s="34"/>
-      <c r="F69" s="35"/>
-      <c r="G69" s="24"/>
-      <c r="H69" s="63"/>
-      <c r="I69" s="64"/>
-    </row>
-    <row r="70" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="M69" s="27"/>
+      <c r="N69" s="27"/>
+      <c r="O69" s="28"/>
+    </row>
+    <row r="70" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B70" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C70" s="65" t="s">
+      <c r="C70" s="33"/>
+      <c r="D70" s="34"/>
+      <c r="E70" s="34"/>
+      <c r="F70" s="35"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="36"/>
+      <c r="I70" s="37"/>
+      <c r="L70" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="D70" s="66"/>
-      <c r="E70" s="66"/>
-      <c r="F70" s="67"/>
-      <c r="G70" s="17"/>
-      <c r="H70" s="59"/>
-      <c r="I70" s="60"/>
+      <c r="M70" s="34"/>
+      <c r="N70" s="34"/>
+      <c r="O70" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="97">
-    <mergeCell ref="C67:F67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="C68:F68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="C69:F69"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="C70:F70"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="C64:F64"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="C65:F65"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="C66:F66"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="C61:F61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="C62:F63"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="H62:I63"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="C57:F59"/>
-    <mergeCell ref="G57:G59"/>
-    <mergeCell ref="H57:I59"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="H52:I52"/>
+  <mergeCells count="96">
+    <mergeCell ref="L70:O70"/>
+    <mergeCell ref="C65:F69"/>
+    <mergeCell ref="G65:G69"/>
+    <mergeCell ref="H65:I69"/>
+    <mergeCell ref="L65:O65"/>
+    <mergeCell ref="L66:O66"/>
+    <mergeCell ref="L67:O67"/>
+    <mergeCell ref="L68:O68"/>
+    <mergeCell ref="L69:O69"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="C40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:I41"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H5:I13"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
     <mergeCell ref="C47:F47"/>
     <mergeCell ref="C48:F48"/>
     <mergeCell ref="H47:I47"/>
@@ -2862,51 +2985,32 @@
     <mergeCell ref="H36:I37"/>
     <mergeCell ref="C39:F39"/>
     <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H5:I13"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="C40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:I41"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="C57:F59"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="H57:I59"/>
+    <mergeCell ref="C61:F61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="C62:F63"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="H62:I63"/>
+    <mergeCell ref="C70:F70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="C64:F64"/>
+    <mergeCell ref="H64:I64"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2920,7 +3024,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2933,7 +3037,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2948,7 +3052,7 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2963,7 +3067,7 @@
       <selection activeCell="F35" sqref="F35:F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/졸작 진행 계획 시간표.xlsx
+++ b/졸작 진행 계획 시간표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2020 졸작 깃\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94A5473-0EE3-4167-B496-372F3840526C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416F3234-F7D3-4B9F-9351-7FA01FC6F560}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5220" yWindow="1290" windowWidth="21600" windowHeight="11385" xr2:uid="{E0805F39-A49F-47F5-8E79-FFCEB62D9AEC}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="84">
   <si>
     <t>월</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -343,6 +343,67 @@
 사용하지 않고 플레이어의 속도값으로 캐릭터를 
 움직이는 AddMovementInput()함수를 사용하였더니 
 캐릭터들이 통통 튀는 버그가 사라짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위의 버그 수정 후 애니메이션은 나타나나 캐릭터의 위치가 수정되지 않는 버그 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위의 버그는 사라졌으나 본인 외의 캐릭터가 위치가 변경되지 않는 문제 발생함. 원인은 캐릭터에게 컨트롤러 빙의가 사라져서 그렇다는걸 알게되어 수정중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 위치 변경 안되는 버그 수정 및 플레이어 
+사격 애니메이션 동기화 작업 진행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">19:00 ~        </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가작업 진행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020. 05. 30. 토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점심시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사격 애니메이션을 위한 무기 관리 함수 및 패킷 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어가 무기를 줍는 기능 동기화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사격 애니메이션 패킷 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사격 애니메이션 송수신 실제 적용 및 조정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 체력 동기화 함수 및 패킷 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동기화한 체력을 통해 사망 애니메이션 패킷 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사망 애니메이션 송수신 실제 적용 및 조정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1133,7 +1194,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1212,14 +1273,182 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1233,32 +1462,89 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1269,242 +1555,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1820,10 +1899,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA488195-4E58-4ADC-87D5-0E438CC6628E}">
-  <dimension ref="B3:O70"/>
+  <dimension ref="B3:O83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70:F70"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="L74" sqref="L74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1881,10 +1960,10 @@
       <c r="G5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="84" t="s">
+      <c r="H5" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="85"/>
+      <c r="I5" s="92"/>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
@@ -1906,23 +1985,23 @@
       <c r="G6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="86"/>
-      <c r="I6" s="87"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="94"/>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="90" t="s">
+      <c r="C7" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="91"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="91"/>
-      <c r="G7" s="91"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="87"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="94"/>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1944,8 +2023,8 @@
       <c r="G8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="86"/>
-      <c r="I8" s="87"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="94"/>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
@@ -1967,8 +2046,8 @@
       <c r="G9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="86"/>
-      <c r="I9" s="87"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="94"/>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
@@ -1990,8 +2069,8 @@
       <c r="G10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="86"/>
-      <c r="I10" s="87"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="94"/>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
@@ -2013,8 +2092,8 @@
       <c r="G11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="86"/>
-      <c r="I11" s="87"/>
+      <c r="H11" s="93"/>
+      <c r="I11" s="94"/>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
@@ -2036,8 +2115,8 @@
       <c r="G12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="86"/>
-      <c r="I12" s="87"/>
+      <c r="H12" s="93"/>
+      <c r="I12" s="94"/>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2059,8 +2138,8 @@
       <c r="G13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="88"/>
-      <c r="I13" s="89"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="96"/>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
@@ -2102,481 +2181,481 @@
       <c r="B17" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
       <c r="G17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="40" t="s">
+      <c r="H17" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="I17" s="41"/>
+      <c r="I17" s="65"/>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="70" t="s">
+      <c r="C18" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="72"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="68"/>
       <c r="G18" s="16">
         <v>1</v>
       </c>
-      <c r="H18" s="73"/>
-      <c r="I18" s="74"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="90"/>
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="28"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="51"/>
       <c r="G19" s="16">
         <v>1</v>
       </c>
-      <c r="H19" s="29"/>
-      <c r="I19" s="30"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="86"/>
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="28"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="51"/>
       <c r="G20" s="16"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="30"/>
+      <c r="H20" s="85"/>
+      <c r="I20" s="86"/>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="38" t="s">
+      <c r="C21" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="28"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="51"/>
       <c r="G21" s="16">
         <v>1</v>
       </c>
-      <c r="H21" s="29"/>
-      <c r="I21" s="30"/>
+      <c r="H21" s="85"/>
+      <c r="I21" s="86"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="28"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="51"/>
       <c r="G22" s="16"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="30"/>
+      <c r="H22" s="85"/>
+      <c r="I22" s="86"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="28"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="51"/>
       <c r="G23" s="16"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="30"/>
+      <c r="H23" s="85"/>
+      <c r="I23" s="86"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="28"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="51"/>
       <c r="G24" s="16">
         <v>1</v>
       </c>
-      <c r="H24" s="29"/>
-      <c r="I24" s="30"/>
+      <c r="H24" s="85"/>
+      <c r="I24" s="86"/>
     </row>
     <row r="25" spans="2:10" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="28"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="51"/>
       <c r="G25" s="16">
         <v>0.8</v>
       </c>
-      <c r="H25" s="31" t="s">
+      <c r="H25" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="I25" s="32"/>
+      <c r="I25" s="88"/>
     </row>
     <row r="26" spans="2:10" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="35"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="30"/>
       <c r="G26" s="17">
         <v>1</v>
       </c>
-      <c r="H26" s="36"/>
-      <c r="I26" s="37"/>
+      <c r="H26" s="83"/>
+      <c r="I26" s="84"/>
     </row>
     <row r="27" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="28" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="39" t="s">
+      <c r="C28" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
       <c r="G28" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H28" s="40" t="s">
+      <c r="H28" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="I28" s="41"/>
+      <c r="I28" s="65"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="70" t="s">
+      <c r="C29" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="71"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="72"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="68"/>
       <c r="G29" s="16"/>
-      <c r="H29" s="92"/>
-      <c r="I29" s="93"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="70"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="28"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="51"/>
       <c r="G30" s="16"/>
-      <c r="H30" s="79"/>
-      <c r="I30" s="80"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="60"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="28"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="51"/>
       <c r="G31" s="16"/>
-      <c r="H31" s="79"/>
-      <c r="I31" s="80"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="60"/>
     </row>
     <row r="32" spans="2:10" ht="80.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="38" t="s">
+      <c r="C32" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="28"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="51"/>
       <c r="G32" s="16">
         <v>0.5</v>
       </c>
-      <c r="H32" s="75" t="s">
+      <c r="H32" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="I32" s="104"/>
+      <c r="I32" s="62"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="28"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="51"/>
       <c r="G33" s="16">
         <v>1</v>
       </c>
-      <c r="H33" s="79"/>
-      <c r="I33" s="80"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="60"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="26" t="s">
+      <c r="C34" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="28"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="51"/>
       <c r="G34" s="16">
         <v>1</v>
       </c>
-      <c r="H34" s="79"/>
-      <c r="I34" s="80"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="60"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B35" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="26" t="s">
+      <c r="C35" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="28"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="51"/>
       <c r="G35" s="16">
         <v>1</v>
       </c>
-      <c r="H35" s="79"/>
-      <c r="I35" s="80"/>
+      <c r="H35" s="59"/>
+      <c r="I35" s="60"/>
     </row>
     <row r="36" spans="2:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="26" t="s">
+      <c r="C36" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="61">
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="40">
         <v>0.5</v>
       </c>
-      <c r="H36" s="64" t="s">
+      <c r="H36" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="I36" s="81"/>
+      <c r="I36" s="104"/>
     </row>
     <row r="37" spans="2:10" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="33" t="s">
+      <c r="C37" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="63"/>
-      <c r="H37" s="82"/>
-      <c r="I37" s="83"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="102"/>
+      <c r="H37" s="105"/>
+      <c r="I37" s="106"/>
     </row>
     <row r="38" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="39" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C39" s="39" t="s">
+      <c r="C39" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="40"/>
-      <c r="E39" s="40"/>
-      <c r="F39" s="40"/>
+      <c r="D39" s="64"/>
+      <c r="E39" s="64"/>
+      <c r="F39" s="64"/>
       <c r="G39" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="H39" s="40" t="s">
+      <c r="H39" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="I39" s="41"/>
+      <c r="I39" s="65"/>
     </row>
     <row r="40" spans="2:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="94" t="s">
+      <c r="C40" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="95"/>
-      <c r="E40" s="95"/>
-      <c r="F40" s="96"/>
-      <c r="G40" s="48">
+      <c r="D40" s="72"/>
+      <c r="E40" s="72"/>
+      <c r="F40" s="73"/>
+      <c r="G40" s="77">
         <v>0.3</v>
       </c>
-      <c r="H40" s="100" t="s">
+      <c r="H40" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="I40" s="101"/>
+      <c r="I40" s="79"/>
     </row>
     <row r="41" spans="2:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C41" s="97"/>
-      <c r="D41" s="98"/>
-      <c r="E41" s="98"/>
-      <c r="F41" s="99"/>
-      <c r="G41" s="49"/>
-      <c r="H41" s="102"/>
-      <c r="I41" s="103"/>
+      <c r="C41" s="74"/>
+      <c r="D41" s="75"/>
+      <c r="E41" s="75"/>
+      <c r="F41" s="76"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="80"/>
+      <c r="I41" s="81"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B42" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="26" t="s">
+      <c r="C42" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="28"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="51"/>
       <c r="G42" s="16"/>
-      <c r="H42" s="111"/>
-      <c r="I42" s="104"/>
+      <c r="H42" s="61"/>
+      <c r="I42" s="62"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B43" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="38" t="s">
+      <c r="C43" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="28"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="51"/>
       <c r="G43" s="20">
         <v>1</v>
       </c>
-      <c r="H43" s="111"/>
-      <c r="I43" s="104"/>
+      <c r="H43" s="61"/>
+      <c r="I43" s="62"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C44" s="38" t="s">
+      <c r="C44" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="28"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="51"/>
       <c r="G44" s="20">
         <v>1</v>
       </c>
-      <c r="H44" s="111"/>
-      <c r="I44" s="104"/>
+      <c r="H44" s="61"/>
+      <c r="I44" s="62"/>
     </row>
     <row r="45" spans="2:10" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C45" s="105" t="s">
+      <c r="C45" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="D45" s="106"/>
-      <c r="E45" s="106"/>
-      <c r="F45" s="106"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="54"/>
       <c r="G45" s="22"/>
-      <c r="H45" s="107"/>
-      <c r="I45" s="108"/>
+      <c r="H45" s="55"/>
+      <c r="I45" s="56"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B46" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C46" s="109" t="s">
+      <c r="C46" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="D46" s="110"/>
-      <c r="E46" s="110"/>
-      <c r="F46" s="110"/>
+      <c r="D46" s="58"/>
+      <c r="E46" s="58"/>
+      <c r="F46" s="58"/>
       <c r="G46" s="22">
         <v>1</v>
       </c>
-      <c r="H46" s="79"/>
-      <c r="I46" s="80"/>
+      <c r="H46" s="59"/>
+      <c r="I46" s="60"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="26" t="s">
+      <c r="C47" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="28"/>
+      <c r="D47" s="50"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="51"/>
       <c r="G47" s="21">
         <v>1</v>
       </c>
-      <c r="H47" s="75"/>
-      <c r="I47" s="76"/>
+      <c r="H47" s="82"/>
+      <c r="I47" s="99"/>
     </row>
     <row r="48" spans="2:10" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B48" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="33" t="s">
+      <c r="C48" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D48" s="34"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="35"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="30"/>
       <c r="G48" s="17">
         <v>0.8</v>
       </c>
-      <c r="H48" s="77" t="s">
+      <c r="H48" s="100" t="s">
         <v>50</v>
       </c>
-      <c r="I48" s="78"/>
+      <c r="I48" s="101"/>
       <c r="J48" s="25" t="s">
         <v>57</v>
       </c>
@@ -2586,389 +2665,550 @@
       <c r="B50" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C50" s="39" t="s">
+      <c r="C50" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="D50" s="40"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="40"/>
+      <c r="D50" s="64"/>
+      <c r="E50" s="64"/>
+      <c r="F50" s="64"/>
       <c r="G50" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H50" s="40" t="s">
+      <c r="H50" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="I50" s="41"/>
+      <c r="I50" s="65"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C51" s="70" t="s">
+      <c r="C51" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="D51" s="71"/>
-      <c r="E51" s="71"/>
-      <c r="F51" s="72"/>
+      <c r="D51" s="67"/>
+      <c r="E51" s="67"/>
+      <c r="F51" s="68"/>
       <c r="G51" s="20">
         <v>1</v>
       </c>
-      <c r="H51" s="73"/>
-      <c r="I51" s="74"/>
+      <c r="H51" s="89"/>
+      <c r="I51" s="90"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C52" s="26" t="s">
+      <c r="C52" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="28"/>
+      <c r="D52" s="50"/>
+      <c r="E52" s="50"/>
+      <c r="F52" s="51"/>
       <c r="G52" s="20">
         <v>1</v>
       </c>
-      <c r="H52" s="29"/>
-      <c r="I52" s="30"/>
+      <c r="H52" s="85"/>
+      <c r="I52" s="86"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C53" s="26" t="s">
+      <c r="C53" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="28"/>
+      <c r="D53" s="50"/>
+      <c r="E53" s="50"/>
+      <c r="F53" s="51"/>
       <c r="G53" s="20"/>
-      <c r="H53" s="29"/>
-      <c r="I53" s="30"/>
+      <c r="H53" s="85"/>
+      <c r="I53" s="86"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C54" s="38" t="s">
+      <c r="C54" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="D54" s="50"/>
-      <c r="E54" s="50"/>
-      <c r="F54" s="51"/>
+      <c r="D54" s="107"/>
+      <c r="E54" s="107"/>
+      <c r="F54" s="108"/>
       <c r="G54" s="20">
         <v>1</v>
       </c>
-      <c r="H54" s="29"/>
-      <c r="I54" s="30"/>
+      <c r="H54" s="85"/>
+      <c r="I54" s="86"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C55" s="26" t="s">
+      <c r="C55" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="28"/>
+      <c r="D55" s="50"/>
+      <c r="E55" s="50"/>
+      <c r="F55" s="51"/>
       <c r="G55" s="20">
         <v>1</v>
       </c>
-      <c r="H55" s="29"/>
-      <c r="I55" s="30"/>
+      <c r="H55" s="85"/>
+      <c r="I55" s="86"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C56" s="38" t="s">
+      <c r="C56" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="D56" s="50"/>
-      <c r="E56" s="50"/>
-      <c r="F56" s="51"/>
+      <c r="D56" s="107"/>
+      <c r="E56" s="107"/>
+      <c r="F56" s="108"/>
       <c r="G56" s="20">
         <v>1</v>
       </c>
-      <c r="H56" s="29"/>
-      <c r="I56" s="30"/>
+      <c r="H56" s="85"/>
+      <c r="I56" s="86"/>
     </row>
     <row r="57" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C57" s="52" t="s">
+      <c r="C57" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="D57" s="53"/>
-      <c r="E57" s="53"/>
-      <c r="F57" s="54"/>
-      <c r="G57" s="61">
+      <c r="D57" s="32"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="33"/>
+      <c r="G57" s="40">
         <v>0.3</v>
       </c>
-      <c r="H57" s="64" t="s">
+      <c r="H57" s="103" t="s">
         <v>60</v>
       </c>
-      <c r="I57" s="65"/>
+      <c r="I57" s="112"/>
     </row>
     <row r="58" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C58" s="55"/>
-      <c r="D58" s="56"/>
-      <c r="E58" s="56"/>
-      <c r="F58" s="57"/>
-      <c r="G58" s="62"/>
-      <c r="H58" s="66"/>
-      <c r="I58" s="67"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="35"/>
+      <c r="E58" s="35"/>
+      <c r="F58" s="36"/>
+      <c r="G58" s="41"/>
+      <c r="H58" s="113"/>
+      <c r="I58" s="114"/>
     </row>
     <row r="59" spans="2:9" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B59" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C59" s="58"/>
-      <c r="D59" s="59"/>
-      <c r="E59" s="59"/>
-      <c r="F59" s="60"/>
-      <c r="G59" s="63"/>
-      <c r="H59" s="68"/>
-      <c r="I59" s="69"/>
+      <c r="C59" s="109"/>
+      <c r="D59" s="110"/>
+      <c r="E59" s="110"/>
+      <c r="F59" s="111"/>
+      <c r="G59" s="102"/>
+      <c r="H59" s="115"/>
+      <c r="I59" s="116"/>
     </row>
     <row r="60" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="61" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B61" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C61" s="39" t="s">
+      <c r="C61" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="D61" s="40"/>
-      <c r="E61" s="40"/>
-      <c r="F61" s="40"/>
+      <c r="D61" s="64"/>
+      <c r="E61" s="64"/>
+      <c r="F61" s="64"/>
       <c r="G61" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="H61" s="40" t="s">
+      <c r="H61" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="I61" s="41"/>
+      <c r="I61" s="65"/>
     </row>
     <row r="62" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C62" s="42" t="s">
+      <c r="C62" s="117" t="s">
         <v>59</v>
       </c>
-      <c r="D62" s="43"/>
-      <c r="E62" s="43"/>
-      <c r="F62" s="44"/>
-      <c r="G62" s="48">
+      <c r="D62" s="118"/>
+      <c r="E62" s="118"/>
+      <c r="F62" s="119"/>
+      <c r="G62" s="77">
         <v>0.3</v>
       </c>
-      <c r="H62" s="117" t="s">
+      <c r="H62" s="120" t="s">
         <v>67</v>
       </c>
-      <c r="I62" s="112"/>
+      <c r="I62" s="121"/>
     </row>
     <row r="63" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C63" s="45"/>
-      <c r="D63" s="46"/>
-      <c r="E63" s="46"/>
-      <c r="F63" s="47"/>
-      <c r="G63" s="49"/>
-      <c r="H63" s="113"/>
-      <c r="I63" s="114"/>
+      <c r="C63" s="37"/>
+      <c r="D63" s="38"/>
+      <c r="E63" s="38"/>
+      <c r="F63" s="39"/>
+      <c r="G63" s="42"/>
+      <c r="H63" s="122"/>
+      <c r="I63" s="123"/>
     </row>
     <row r="64" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C64" s="26" t="s">
+      <c r="C64" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="D64" s="27"/>
-      <c r="E64" s="27"/>
-      <c r="F64" s="28"/>
+      <c r="D64" s="50"/>
+      <c r="E64" s="50"/>
+      <c r="F64" s="51"/>
       <c r="G64" s="24"/>
-      <c r="H64" s="115"/>
-      <c r="I64" s="116"/>
+      <c r="H64" s="124"/>
+      <c r="I64" s="125"/>
     </row>
     <row r="65" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C65" s="52" t="s">
+      <c r="C65" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="D65" s="53"/>
-      <c r="E65" s="53"/>
-      <c r="F65" s="54"/>
-      <c r="G65" s="61">
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="40">
         <v>1</v>
       </c>
-      <c r="H65" s="118" t="s">
+      <c r="H65" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="I65" s="119"/>
-      <c r="L65" s="38" t="s">
+      <c r="I65" s="44"/>
+      <c r="L65" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="M65" s="27"/>
-      <c r="N65" s="27"/>
-      <c r="O65" s="28"/>
+      <c r="M65" s="50"/>
+      <c r="N65" s="50"/>
+      <c r="O65" s="51"/>
     </row>
     <row r="66" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C66" s="55"/>
-      <c r="D66" s="56"/>
-      <c r="E66" s="56"/>
-      <c r="F66" s="57"/>
-      <c r="G66" s="62"/>
-      <c r="H66" s="120"/>
-      <c r="I66" s="121"/>
-      <c r="L66" s="26" t="s">
+      <c r="C66" s="34"/>
+      <c r="D66" s="35"/>
+      <c r="E66" s="35"/>
+      <c r="F66" s="36"/>
+      <c r="G66" s="41"/>
+      <c r="H66" s="45"/>
+      <c r="I66" s="46"/>
+      <c r="L66" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="M66" s="27"/>
-      <c r="N66" s="27"/>
-      <c r="O66" s="28"/>
+      <c r="M66" s="50"/>
+      <c r="N66" s="50"/>
+      <c r="O66" s="51"/>
     </row>
     <row r="67" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B67" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C67" s="55"/>
-      <c r="D67" s="56"/>
-      <c r="E67" s="56"/>
-      <c r="F67" s="57"/>
-      <c r="G67" s="62"/>
-      <c r="H67" s="120"/>
-      <c r="I67" s="121"/>
-      <c r="L67" s="26" t="s">
+      <c r="C67" s="34"/>
+      <c r="D67" s="35"/>
+      <c r="E67" s="35"/>
+      <c r="F67" s="36"/>
+      <c r="G67" s="41"/>
+      <c r="H67" s="45"/>
+      <c r="I67" s="46"/>
+      <c r="L67" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="M67" s="27"/>
-      <c r="N67" s="27"/>
-      <c r="O67" s="28"/>
+      <c r="M67" s="50"/>
+      <c r="N67" s="50"/>
+      <c r="O67" s="51"/>
     </row>
     <row r="68" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C68" s="55"/>
-      <c r="D68" s="56"/>
-      <c r="E68" s="56"/>
-      <c r="F68" s="57"/>
-      <c r="G68" s="62"/>
-      <c r="H68" s="120"/>
-      <c r="I68" s="121"/>
-      <c r="L68" s="26" t="s">
+      <c r="C68" s="34"/>
+      <c r="D68" s="35"/>
+      <c r="E68" s="35"/>
+      <c r="F68" s="36"/>
+      <c r="G68" s="41"/>
+      <c r="H68" s="45"/>
+      <c r="I68" s="46"/>
+      <c r="L68" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="M68" s="27"/>
-      <c r="N68" s="27"/>
-      <c r="O68" s="28"/>
+      <c r="M68" s="50"/>
+      <c r="N68" s="50"/>
+      <c r="O68" s="51"/>
     </row>
     <row r="69" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C69" s="45"/>
-      <c r="D69" s="46"/>
-      <c r="E69" s="46"/>
-      <c r="F69" s="47"/>
-      <c r="G69" s="49"/>
-      <c r="H69" s="122"/>
-      <c r="I69" s="123"/>
-      <c r="L69" s="26" t="s">
+      <c r="C69" s="37"/>
+      <c r="D69" s="38"/>
+      <c r="E69" s="38"/>
+      <c r="F69" s="39"/>
+      <c r="G69" s="42"/>
+      <c r="H69" s="47"/>
+      <c r="I69" s="48"/>
+      <c r="L69" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="M69" s="27"/>
-      <c r="N69" s="27"/>
-      <c r="O69" s="28"/>
-    </row>
-    <row r="70" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M69" s="50"/>
+      <c r="N69" s="50"/>
+      <c r="O69" s="51"/>
+    </row>
+    <row r="70" spans="2:15" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B70" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C70" s="33"/>
-      <c r="D70" s="34"/>
-      <c r="E70" s="34"/>
-      <c r="F70" s="35"/>
-      <c r="G70" s="17"/>
-      <c r="H70" s="36"/>
-      <c r="I70" s="37"/>
-      <c r="L70" s="33" t="s">
+      <c r="C70" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D70" s="29"/>
+      <c r="E70" s="29"/>
+      <c r="F70" s="30"/>
+      <c r="G70" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="H70" s="100" t="s">
+        <v>70</v>
+      </c>
+      <c r="I70" s="126"/>
+      <c r="L70" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="M70" s="34"/>
-      <c r="N70" s="34"/>
-      <c r="O70" s="35"/>
+      <c r="M70" s="29"/>
+      <c r="N70" s="29"/>
+      <c r="O70" s="30"/>
+    </row>
+    <row r="71" spans="2:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="127" t="s">
+        <v>72</v>
+      </c>
+      <c r="C71" s="129" t="s">
+        <v>71</v>
+      </c>
+      <c r="D71" s="72"/>
+      <c r="E71" s="72"/>
+      <c r="F71" s="72"/>
+      <c r="H71" s="128" t="s">
+        <v>73</v>
+      </c>
+      <c r="I71" s="128"/>
+      <c r="J71" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="74" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C74" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="D74" s="64"/>
+      <c r="E74" s="64"/>
+      <c r="F74" s="64"/>
+      <c r="G74" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H74" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="I74" s="65"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B75" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" s="66" t="s">
+        <v>77</v>
+      </c>
+      <c r="D75" s="67"/>
+      <c r="E75" s="67"/>
+      <c r="F75" s="68"/>
+      <c r="G75" s="27"/>
+      <c r="H75" s="89"/>
+      <c r="I75" s="90"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B76" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="D76" s="50"/>
+      <c r="E76" s="50"/>
+      <c r="F76" s="51"/>
+      <c r="G76" s="27"/>
+      <c r="H76" s="85"/>
+      <c r="I76" s="86"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B77" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="D77" s="50"/>
+      <c r="E77" s="50"/>
+      <c r="F77" s="51"/>
+      <c r="G77" s="27"/>
+      <c r="H77" s="85"/>
+      <c r="I77" s="86"/>
+    </row>
+    <row r="78" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B78" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="D78" s="50"/>
+      <c r="E78" s="50"/>
+      <c r="F78" s="51"/>
+      <c r="G78" s="27"/>
+      <c r="H78" s="85"/>
+      <c r="I78" s="86"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B79" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="D79" s="50"/>
+      <c r="E79" s="50"/>
+      <c r="F79" s="51"/>
+      <c r="G79" s="27"/>
+      <c r="H79" s="85"/>
+      <c r="I79" s="86"/>
+    </row>
+    <row r="80" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B80" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C80" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="D80" s="50"/>
+      <c r="E80" s="50"/>
+      <c r="F80" s="51"/>
+      <c r="G80" s="27"/>
+      <c r="H80" s="85"/>
+      <c r="I80" s="86"/>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B81" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C81" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="D81" s="50"/>
+      <c r="E81" s="50"/>
+      <c r="F81" s="51"/>
+      <c r="G81" s="27"/>
+      <c r="H81" s="85"/>
+      <c r="I81" s="86"/>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B82" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C82" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="D82" s="50"/>
+      <c r="E82" s="50"/>
+      <c r="F82" s="51"/>
+      <c r="G82" s="27"/>
+      <c r="H82" s="87"/>
+      <c r="I82" s="88"/>
+    </row>
+    <row r="83" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B83" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C83" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="D83" s="29"/>
+      <c r="E83" s="29"/>
+      <c r="F83" s="30"/>
+      <c r="G83" s="17"/>
+      <c r="H83" s="83"/>
+      <c r="I83" s="84"/>
     </row>
   </sheetData>
-  <mergeCells count="96">
-    <mergeCell ref="L70:O70"/>
-    <mergeCell ref="C65:F69"/>
-    <mergeCell ref="G65:G69"/>
-    <mergeCell ref="H65:I69"/>
-    <mergeCell ref="L65:O65"/>
-    <mergeCell ref="L66:O66"/>
-    <mergeCell ref="L67:O67"/>
-    <mergeCell ref="L68:O68"/>
-    <mergeCell ref="L69:O69"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="C40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:I41"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H5:I13"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
+  <mergeCells count="118">
+    <mergeCell ref="C81:F81"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="C82:F82"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="C83:F83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="C78:F78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="C79:F79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="C80:F80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="C75:F75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="C76:F76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="C77:F77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="C64:F64"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="C71:F71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="C74:F74"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="C61:F61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="C62:F63"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="H62:I63"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="C57:F59"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="H57:I59"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="H52:I52"/>
     <mergeCell ref="C47:F47"/>
     <mergeCell ref="C48:F48"/>
     <mergeCell ref="H47:I47"/>
@@ -2985,32 +3225,62 @@
     <mergeCell ref="H36:I37"/>
     <mergeCell ref="C39:F39"/>
     <mergeCell ref="H39:I39"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="C57:F59"/>
-    <mergeCell ref="G57:G59"/>
-    <mergeCell ref="H57:I59"/>
-    <mergeCell ref="C61:F61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="C62:F63"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="H62:I63"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H5:I13"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="C40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:I41"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="L70:O70"/>
+    <mergeCell ref="C65:F69"/>
+    <mergeCell ref="G65:G69"/>
+    <mergeCell ref="H65:I69"/>
+    <mergeCell ref="L65:O65"/>
+    <mergeCell ref="L66:O66"/>
+    <mergeCell ref="L67:O67"/>
+    <mergeCell ref="L68:O68"/>
+    <mergeCell ref="L69:O69"/>
     <mergeCell ref="C70:F70"/>
     <mergeCell ref="H70:I70"/>
-    <mergeCell ref="C64:F64"/>
-    <mergeCell ref="H64:I64"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/졸작 진행 계획 시간표.xlsx
+++ b/졸작 진행 계획 시간표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2020 졸작 깃\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416F3234-F7D3-4B9F-9351-7FA01FC6F560}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0235093-388E-47F9-BD0E-1922690F2EE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5220" yWindow="1290" windowWidth="21600" windowHeight="11385" xr2:uid="{E0805F39-A49F-47F5-8E79-FFCEB62D9AEC}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="98">
   <si>
     <t>월</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -391,10 +391,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>사격 애니메이션 송수신 실제 적용 및 조정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>플레이어 체력 동기화 함수 및 패킷 제작</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -404,6 +400,69 @@
   </si>
   <si>
     <t>사망 애니메이션 송수신 실제 적용 및 조정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알람을 못듣고 늦잠을 자서 하질 못함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨트롤 하지 않는 캐릭터의 애니메이션 재생을 위한 
+함수 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관련 변수를 송수신 하여 갱신하는데 성공하였으나
+캐릭터의 애니메이션에서 사용되는 변수 
+갱신을 하지못해서 수정중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">19:00 ~        </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사격 애니메이션 변수 갱신 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 체력 동기화 및 사망 애니메이션 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020. 06. 01. 월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 체력 동기화 패킷 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 체력 갱신 함수 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점심시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 체력 갱신 송수신 적용 및 조정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 내 시간 동기화 패킷 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 내 시간 갱신 함수 제작</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1194,7 +1253,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1279,6 +1338,30 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1297,6 +1380,96 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1306,24 +1479,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1342,17 +1497,140 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1372,156 +1650,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1531,59 +1686,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1899,10 +2051,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA488195-4E58-4ADC-87D5-0E438CC6628E}">
-  <dimension ref="B3:O83"/>
+  <dimension ref="B3:O99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="L74" sqref="L74"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1960,10 +2112,10 @@
       <c r="G5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="91" t="s">
+      <c r="H5" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="92"/>
+      <c r="I5" s="112"/>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
@@ -1985,23 +2137,23 @@
       <c r="G6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="93"/>
-      <c r="I6" s="94"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="114"/>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="97" t="s">
+      <c r="C7" s="117" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="98"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="93"/>
-      <c r="I7" s="94"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="113"/>
+      <c r="I7" s="114"/>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2023,8 +2175,8 @@
       <c r="G8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="93"/>
-      <c r="I8" s="94"/>
+      <c r="H8" s="113"/>
+      <c r="I8" s="114"/>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
@@ -2046,8 +2198,8 @@
       <c r="G9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="93"/>
-      <c r="I9" s="94"/>
+      <c r="H9" s="113"/>
+      <c r="I9" s="114"/>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
@@ -2069,8 +2221,8 @@
       <c r="G10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="93"/>
-      <c r="I10" s="94"/>
+      <c r="H10" s="113"/>
+      <c r="I10" s="114"/>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
@@ -2092,8 +2244,8 @@
       <c r="G11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="93"/>
-      <c r="I11" s="94"/>
+      <c r="H11" s="113"/>
+      <c r="I11" s="114"/>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
@@ -2115,8 +2267,8 @@
       <c r="G12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="93"/>
-      <c r="I12" s="94"/>
+      <c r="H12" s="113"/>
+      <c r="I12" s="114"/>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2138,8 +2290,8 @@
       <c r="G13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="95"/>
-      <c r="I13" s="96"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="116"/>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
@@ -2181,481 +2333,481 @@
       <c r="B17" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="63" t="s">
+      <c r="C17" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="84"/>
       <c r="G17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="64" t="s">
+      <c r="H17" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="I17" s="65"/>
+      <c r="I17" s="85"/>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="66" t="s">
+      <c r="C18" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="68"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="88"/>
       <c r="G18" s="16">
         <v>1</v>
       </c>
-      <c r="H18" s="89"/>
-      <c r="I18" s="90"/>
+      <c r="H18" s="119"/>
+      <c r="I18" s="120"/>
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="52" t="s">
+      <c r="C19" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="51"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="35"/>
       <c r="G19" s="16">
         <v>1</v>
       </c>
-      <c r="H19" s="85"/>
-      <c r="I19" s="86"/>
+      <c r="H19" s="107"/>
+      <c r="I19" s="108"/>
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="52" t="s">
+      <c r="C20" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="51"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="35"/>
       <c r="G20" s="16"/>
-      <c r="H20" s="85"/>
-      <c r="I20" s="86"/>
+      <c r="H20" s="107"/>
+      <c r="I20" s="108"/>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="49" t="s">
+      <c r="C21" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="51"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="35"/>
       <c r="G21" s="16">
         <v>1</v>
       </c>
-      <c r="H21" s="85"/>
-      <c r="I21" s="86"/>
+      <c r="H21" s="107"/>
+      <c r="I21" s="108"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="52" t="s">
+      <c r="C22" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="51"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="35"/>
       <c r="G22" s="16"/>
-      <c r="H22" s="85"/>
-      <c r="I22" s="86"/>
+      <c r="H22" s="107"/>
+      <c r="I22" s="108"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="52" t="s">
+      <c r="C23" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="51"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="35"/>
       <c r="G23" s="16"/>
-      <c r="H23" s="85"/>
-      <c r="I23" s="86"/>
+      <c r="H23" s="107"/>
+      <c r="I23" s="108"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="52" t="s">
+      <c r="C24" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="51"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="35"/>
       <c r="G24" s="16">
         <v>1</v>
       </c>
-      <c r="H24" s="85"/>
-      <c r="I24" s="86"/>
+      <c r="H24" s="107"/>
+      <c r="I24" s="108"/>
     </row>
     <row r="25" spans="2:10" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="52" t="s">
+      <c r="C25" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="51"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="35"/>
       <c r="G25" s="16">
         <v>0.8</v>
       </c>
-      <c r="H25" s="87" t="s">
+      <c r="H25" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="I25" s="88"/>
+      <c r="I25" s="110"/>
     </row>
     <row r="26" spans="2:10" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="30"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="38"/>
       <c r="G26" s="17">
         <v>1</v>
       </c>
-      <c r="H26" s="83"/>
-      <c r="I26" s="84"/>
+      <c r="H26" s="105"/>
+      <c r="I26" s="106"/>
     </row>
     <row r="27" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="28" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="63" t="s">
+      <c r="C28" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="84"/>
       <c r="G28" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H28" s="64" t="s">
+      <c r="H28" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="I28" s="65"/>
+      <c r="I28" s="85"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="66" t="s">
+      <c r="C29" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="68"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="88"/>
       <c r="G29" s="16"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="70"/>
+      <c r="H29" s="89"/>
+      <c r="I29" s="90"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="52" t="s">
+      <c r="C30" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="51"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="35"/>
       <c r="G30" s="16"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="60"/>
+      <c r="H30" s="102"/>
+      <c r="I30" s="103"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="52" t="s">
+      <c r="C31" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="51"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="35"/>
       <c r="G31" s="16"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="60"/>
+      <c r="H31" s="102"/>
+      <c r="I31" s="103"/>
     </row>
     <row r="32" spans="2:10" ht="80.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="49" t="s">
+      <c r="C32" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="50"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="51"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="35"/>
       <c r="G32" s="16">
         <v>0.5</v>
       </c>
-      <c r="H32" s="82" t="s">
+      <c r="H32" s="104" t="s">
         <v>40</v>
       </c>
-      <c r="I32" s="62"/>
+      <c r="I32" s="71"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="52" t="s">
+      <c r="C33" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="50"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="51"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="35"/>
       <c r="G33" s="16">
         <v>1</v>
       </c>
-      <c r="H33" s="59"/>
-      <c r="I33" s="60"/>
+      <c r="H33" s="102"/>
+      <c r="I33" s="103"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="52" t="s">
+      <c r="C34" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="51"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="35"/>
       <c r="G34" s="16">
         <v>1</v>
       </c>
-      <c r="H34" s="59"/>
-      <c r="I34" s="60"/>
+      <c r="H34" s="102"/>
+      <c r="I34" s="103"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B35" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="52" t="s">
+      <c r="C35" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D35" s="50"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="51"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="35"/>
       <c r="G35" s="16">
         <v>1</v>
       </c>
-      <c r="H35" s="59"/>
-      <c r="I35" s="60"/>
+      <c r="H35" s="102"/>
+      <c r="I35" s="103"/>
     </row>
     <row r="36" spans="2:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="52" t="s">
+      <c r="C36" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="40">
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="45">
         <v>0.5</v>
       </c>
-      <c r="H36" s="103" t="s">
+      <c r="H36" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="I36" s="104"/>
+      <c r="I36" s="123"/>
     </row>
     <row r="37" spans="2:10" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="28" t="s">
+      <c r="C37" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="102"/>
-      <c r="H37" s="105"/>
-      <c r="I37" s="106"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="124"/>
+      <c r="I37" s="125"/>
     </row>
     <row r="38" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="39" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C39" s="63" t="s">
+      <c r="C39" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="64"/>
-      <c r="E39" s="64"/>
-      <c r="F39" s="64"/>
+      <c r="D39" s="84"/>
+      <c r="E39" s="84"/>
+      <c r="F39" s="84"/>
       <c r="G39" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="H39" s="64" t="s">
+      <c r="H39" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="I39" s="65"/>
+      <c r="I39" s="85"/>
     </row>
     <row r="40" spans="2:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="71" t="s">
+      <c r="C40" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="72"/>
-      <c r="E40" s="72"/>
-      <c r="F40" s="73"/>
-      <c r="G40" s="77">
+      <c r="D40" s="92"/>
+      <c r="E40" s="92"/>
+      <c r="F40" s="93"/>
+      <c r="G40" s="97">
         <v>0.3</v>
       </c>
-      <c r="H40" s="78" t="s">
+      <c r="H40" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="I40" s="79"/>
+      <c r="I40" s="99"/>
     </row>
     <row r="41" spans="2:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C41" s="74"/>
-      <c r="D41" s="75"/>
-      <c r="E41" s="75"/>
-      <c r="F41" s="76"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="80"/>
-      <c r="I41" s="81"/>
+      <c r="C41" s="94"/>
+      <c r="D41" s="95"/>
+      <c r="E41" s="95"/>
+      <c r="F41" s="96"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="100"/>
+      <c r="I41" s="101"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B42" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="52" t="s">
+      <c r="C42" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D42" s="50"/>
-      <c r="E42" s="50"/>
-      <c r="F42" s="51"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="35"/>
       <c r="G42" s="16"/>
-      <c r="H42" s="61"/>
-      <c r="I42" s="62"/>
+      <c r="H42" s="70"/>
+      <c r="I42" s="71"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B43" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="49" t="s">
+      <c r="C43" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D43" s="50"/>
-      <c r="E43" s="50"/>
-      <c r="F43" s="51"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="35"/>
       <c r="G43" s="20">
         <v>1</v>
       </c>
-      <c r="H43" s="61"/>
-      <c r="I43" s="62"/>
+      <c r="H43" s="70"/>
+      <c r="I43" s="71"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C44" s="49" t="s">
+      <c r="C44" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="D44" s="50"/>
-      <c r="E44" s="50"/>
-      <c r="F44" s="51"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="35"/>
       <c r="G44" s="20">
         <v>1</v>
       </c>
-      <c r="H44" s="61"/>
-      <c r="I44" s="62"/>
+      <c r="H44" s="70"/>
+      <c r="I44" s="71"/>
     </row>
     <row r="45" spans="2:10" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C45" s="53" t="s">
+      <c r="C45" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="D45" s="54"/>
-      <c r="E45" s="54"/>
-      <c r="F45" s="54"/>
+      <c r="D45" s="127"/>
+      <c r="E45" s="127"/>
+      <c r="F45" s="127"/>
       <c r="G45" s="22"/>
-      <c r="H45" s="55"/>
-      <c r="I45" s="56"/>
+      <c r="H45" s="128"/>
+      <c r="I45" s="129"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B46" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C46" s="57" t="s">
+      <c r="C46" s="130" t="s">
         <v>51</v>
       </c>
-      <c r="D46" s="58"/>
-      <c r="E46" s="58"/>
-      <c r="F46" s="58"/>
+      <c r="D46" s="131"/>
+      <c r="E46" s="131"/>
+      <c r="F46" s="131"/>
       <c r="G46" s="22">
         <v>1</v>
       </c>
-      <c r="H46" s="59"/>
-      <c r="I46" s="60"/>
+      <c r="H46" s="102"/>
+      <c r="I46" s="103"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="52" t="s">
+      <c r="C47" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="D47" s="50"/>
-      <c r="E47" s="50"/>
-      <c r="F47" s="51"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="35"/>
       <c r="G47" s="21">
         <v>1</v>
       </c>
-      <c r="H47" s="82"/>
-      <c r="I47" s="99"/>
+      <c r="H47" s="104"/>
+      <c r="I47" s="121"/>
     </row>
     <row r="48" spans="2:10" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B48" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="28" t="s">
+      <c r="C48" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="30"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="38"/>
       <c r="G48" s="17">
         <v>0.8</v>
       </c>
-      <c r="H48" s="100" t="s">
+      <c r="H48" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="I48" s="101"/>
+      <c r="I48" s="122"/>
       <c r="J48" s="25" t="s">
         <v>57</v>
       </c>
@@ -2665,353 +2817,353 @@
       <c r="B50" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C50" s="63" t="s">
+      <c r="C50" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="D50" s="64"/>
-      <c r="E50" s="64"/>
-      <c r="F50" s="64"/>
+      <c r="D50" s="84"/>
+      <c r="E50" s="84"/>
+      <c r="F50" s="84"/>
       <c r="G50" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H50" s="64" t="s">
+      <c r="H50" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="I50" s="65"/>
+      <c r="I50" s="85"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C51" s="66" t="s">
+      <c r="C51" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="D51" s="67"/>
-      <c r="E51" s="67"/>
-      <c r="F51" s="68"/>
+      <c r="D51" s="87"/>
+      <c r="E51" s="87"/>
+      <c r="F51" s="88"/>
       <c r="G51" s="20">
         <v>1</v>
       </c>
-      <c r="H51" s="89"/>
-      <c r="I51" s="90"/>
+      <c r="H51" s="119"/>
+      <c r="I51" s="120"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C52" s="52" t="s">
+      <c r="C52" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="D52" s="50"/>
-      <c r="E52" s="50"/>
-      <c r="F52" s="51"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="35"/>
       <c r="G52" s="20">
         <v>1</v>
       </c>
-      <c r="H52" s="85"/>
-      <c r="I52" s="86"/>
+      <c r="H52" s="107"/>
+      <c r="I52" s="108"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C53" s="52" t="s">
+      <c r="C53" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D53" s="50"/>
-      <c r="E53" s="50"/>
-      <c r="F53" s="51"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="35"/>
       <c r="G53" s="20"/>
-      <c r="H53" s="85"/>
-      <c r="I53" s="86"/>
+      <c r="H53" s="107"/>
+      <c r="I53" s="108"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C54" s="49" t="s">
+      <c r="C54" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="D54" s="107"/>
-      <c r="E54" s="107"/>
-      <c r="F54" s="108"/>
+      <c r="D54" s="132"/>
+      <c r="E54" s="132"/>
+      <c r="F54" s="133"/>
       <c r="G54" s="20">
         <v>1</v>
       </c>
-      <c r="H54" s="85"/>
-      <c r="I54" s="86"/>
+      <c r="H54" s="107"/>
+      <c r="I54" s="108"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C55" s="52" t="s">
+      <c r="C55" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="D55" s="50"/>
-      <c r="E55" s="50"/>
-      <c r="F55" s="51"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="35"/>
       <c r="G55" s="20">
         <v>1</v>
       </c>
-      <c r="H55" s="85"/>
-      <c r="I55" s="86"/>
+      <c r="H55" s="107"/>
+      <c r="I55" s="108"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C56" s="49" t="s">
+      <c r="C56" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="D56" s="107"/>
-      <c r="E56" s="107"/>
-      <c r="F56" s="108"/>
+      <c r="D56" s="132"/>
+      <c r="E56" s="132"/>
+      <c r="F56" s="133"/>
       <c r="G56" s="20">
         <v>1</v>
       </c>
-      <c r="H56" s="85"/>
-      <c r="I56" s="86"/>
+      <c r="H56" s="107"/>
+      <c r="I56" s="108"/>
     </row>
     <row r="57" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C57" s="31" t="s">
+      <c r="C57" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="D57" s="32"/>
-      <c r="E57" s="32"/>
-      <c r="F57" s="33"/>
-      <c r="G57" s="40">
+      <c r="D57" s="40"/>
+      <c r="E57" s="40"/>
+      <c r="F57" s="41"/>
+      <c r="G57" s="45">
         <v>0.3</v>
       </c>
-      <c r="H57" s="103" t="s">
+      <c r="H57" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="I57" s="112"/>
+      <c r="I57" s="63"/>
     </row>
     <row r="58" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C58" s="34"/>
-      <c r="D58" s="35"/>
-      <c r="E58" s="35"/>
-      <c r="F58" s="36"/>
-      <c r="G58" s="41"/>
-      <c r="H58" s="113"/>
-      <c r="I58" s="114"/>
+      <c r="C58" s="72"/>
+      <c r="D58" s="73"/>
+      <c r="E58" s="73"/>
+      <c r="F58" s="74"/>
+      <c r="G58" s="60"/>
+      <c r="H58" s="64"/>
+      <c r="I58" s="65"/>
     </row>
     <row r="59" spans="2:9" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B59" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C59" s="109"/>
-      <c r="D59" s="110"/>
-      <c r="E59" s="110"/>
-      <c r="F59" s="111"/>
-      <c r="G59" s="102"/>
-      <c r="H59" s="115"/>
-      <c r="I59" s="116"/>
+      <c r="C59" s="141"/>
+      <c r="D59" s="142"/>
+      <c r="E59" s="142"/>
+      <c r="F59" s="143"/>
+      <c r="G59" s="61"/>
+      <c r="H59" s="66"/>
+      <c r="I59" s="67"/>
     </row>
     <row r="60" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="61" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B61" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C61" s="63" t="s">
+      <c r="C61" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="D61" s="64"/>
-      <c r="E61" s="64"/>
-      <c r="F61" s="64"/>
+      <c r="D61" s="84"/>
+      <c r="E61" s="84"/>
+      <c r="F61" s="84"/>
       <c r="G61" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="H61" s="64" t="s">
+      <c r="H61" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="I61" s="65"/>
+      <c r="I61" s="85"/>
     </row>
     <row r="62" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C62" s="117" t="s">
+      <c r="C62" s="134" t="s">
         <v>59</v>
       </c>
-      <c r="D62" s="118"/>
-      <c r="E62" s="118"/>
-      <c r="F62" s="119"/>
-      <c r="G62" s="77">
+      <c r="D62" s="135"/>
+      <c r="E62" s="135"/>
+      <c r="F62" s="136"/>
+      <c r="G62" s="97">
         <v>0.3</v>
       </c>
-      <c r="H62" s="120" t="s">
+      <c r="H62" s="137" t="s">
         <v>67</v>
       </c>
-      <c r="I62" s="121"/>
+      <c r="I62" s="138"/>
     </row>
     <row r="63" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C63" s="37"/>
-      <c r="D63" s="38"/>
-      <c r="E63" s="38"/>
-      <c r="F63" s="39"/>
-      <c r="G63" s="42"/>
-      <c r="H63" s="122"/>
-      <c r="I63" s="123"/>
+      <c r="C63" s="42"/>
+      <c r="D63" s="43"/>
+      <c r="E63" s="43"/>
+      <c r="F63" s="44"/>
+      <c r="G63" s="46"/>
+      <c r="H63" s="139"/>
+      <c r="I63" s="140"/>
     </row>
     <row r="64" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C64" s="52" t="s">
+      <c r="C64" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D64" s="50"/>
-      <c r="E64" s="50"/>
-      <c r="F64" s="51"/>
+      <c r="D64" s="34"/>
+      <c r="E64" s="34"/>
+      <c r="F64" s="35"/>
       <c r="G64" s="24"/>
-      <c r="H64" s="124"/>
-      <c r="I64" s="125"/>
+      <c r="H64" s="148"/>
+      <c r="I64" s="149"/>
     </row>
     <row r="65" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C65" s="31" t="s">
+      <c r="C65" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="D65" s="32"/>
-      <c r="E65" s="32"/>
-      <c r="F65" s="33"/>
-      <c r="G65" s="40">
+      <c r="D65" s="40"/>
+      <c r="E65" s="40"/>
+      <c r="F65" s="41"/>
+      <c r="G65" s="45">
         <v>1</v>
       </c>
-      <c r="H65" s="43" t="s">
+      <c r="H65" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="I65" s="44"/>
-      <c r="L65" s="49" t="s">
+      <c r="I65" s="76"/>
+      <c r="L65" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="M65" s="50"/>
-      <c r="N65" s="50"/>
-      <c r="O65" s="51"/>
+      <c r="M65" s="34"/>
+      <c r="N65" s="34"/>
+      <c r="O65" s="35"/>
     </row>
     <row r="66" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C66" s="34"/>
-      <c r="D66" s="35"/>
-      <c r="E66" s="35"/>
-      <c r="F66" s="36"/>
-      <c r="G66" s="41"/>
-      <c r="H66" s="45"/>
-      <c r="I66" s="46"/>
-      <c r="L66" s="52" t="s">
+      <c r="C66" s="72"/>
+      <c r="D66" s="73"/>
+      <c r="E66" s="73"/>
+      <c r="F66" s="74"/>
+      <c r="G66" s="60"/>
+      <c r="H66" s="77"/>
+      <c r="I66" s="78"/>
+      <c r="L66" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="M66" s="50"/>
-      <c r="N66" s="50"/>
-      <c r="O66" s="51"/>
+      <c r="M66" s="34"/>
+      <c r="N66" s="34"/>
+      <c r="O66" s="35"/>
     </row>
     <row r="67" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B67" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C67" s="34"/>
-      <c r="D67" s="35"/>
-      <c r="E67" s="35"/>
-      <c r="F67" s="36"/>
-      <c r="G67" s="41"/>
-      <c r="H67" s="45"/>
-      <c r="I67" s="46"/>
-      <c r="L67" s="52" t="s">
+      <c r="C67" s="72"/>
+      <c r="D67" s="73"/>
+      <c r="E67" s="73"/>
+      <c r="F67" s="74"/>
+      <c r="G67" s="60"/>
+      <c r="H67" s="77"/>
+      <c r="I67" s="78"/>
+      <c r="L67" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="M67" s="50"/>
-      <c r="N67" s="50"/>
-      <c r="O67" s="51"/>
+      <c r="M67" s="34"/>
+      <c r="N67" s="34"/>
+      <c r="O67" s="35"/>
     </row>
     <row r="68" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C68" s="34"/>
-      <c r="D68" s="35"/>
-      <c r="E68" s="35"/>
-      <c r="F68" s="36"/>
-      <c r="G68" s="41"/>
-      <c r="H68" s="45"/>
-      <c r="I68" s="46"/>
-      <c r="L68" s="52" t="s">
+      <c r="C68" s="72"/>
+      <c r="D68" s="73"/>
+      <c r="E68" s="73"/>
+      <c r="F68" s="74"/>
+      <c r="G68" s="60"/>
+      <c r="H68" s="77"/>
+      <c r="I68" s="78"/>
+      <c r="L68" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="M68" s="50"/>
-      <c r="N68" s="50"/>
-      <c r="O68" s="51"/>
+      <c r="M68" s="34"/>
+      <c r="N68" s="34"/>
+      <c r="O68" s="35"/>
     </row>
     <row r="69" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C69" s="37"/>
-      <c r="D69" s="38"/>
-      <c r="E69" s="38"/>
-      <c r="F69" s="39"/>
-      <c r="G69" s="42"/>
-      <c r="H69" s="47"/>
-      <c r="I69" s="48"/>
-      <c r="L69" s="52" t="s">
+      <c r="C69" s="42"/>
+      <c r="D69" s="43"/>
+      <c r="E69" s="43"/>
+      <c r="F69" s="44"/>
+      <c r="G69" s="46"/>
+      <c r="H69" s="79"/>
+      <c r="I69" s="80"/>
+      <c r="L69" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="M69" s="50"/>
-      <c r="N69" s="50"/>
-      <c r="O69" s="51"/>
+      <c r="M69" s="34"/>
+      <c r="N69" s="34"/>
+      <c r="O69" s="35"/>
     </row>
     <row r="70" spans="2:15" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B70" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C70" s="28" t="s">
+      <c r="C70" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="D70" s="29"/>
-      <c r="E70" s="29"/>
-      <c r="F70" s="30"/>
+      <c r="D70" s="37"/>
+      <c r="E70" s="37"/>
+      <c r="F70" s="38"/>
       <c r="G70" s="17">
         <v>0.5</v>
       </c>
-      <c r="H70" s="100" t="s">
+      <c r="H70" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="I70" s="126"/>
-      <c r="L70" s="28" t="s">
+      <c r="I70" s="82"/>
+      <c r="L70" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="M70" s="29"/>
-      <c r="N70" s="29"/>
-      <c r="O70" s="30"/>
+      <c r="M70" s="37"/>
+      <c r="N70" s="37"/>
+      <c r="O70" s="38"/>
     </row>
     <row r="71" spans="2:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="127" t="s">
+      <c r="B71" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="C71" s="129" t="s">
+      <c r="C71" s="150" t="s">
         <v>71</v>
       </c>
-      <c r="D71" s="72"/>
-      <c r="E71" s="72"/>
-      <c r="F71" s="72"/>
-      <c r="H71" s="128" t="s">
+      <c r="D71" s="92"/>
+      <c r="E71" s="92"/>
+      <c r="F71" s="92"/>
+      <c r="H71" s="151" t="s">
         <v>73</v>
       </c>
-      <c r="I71" s="128"/>
+      <c r="I71" s="151"/>
       <c r="J71" t="s">
         <v>74</v>
       </c>
@@ -3021,162 +3173,382 @@
       <c r="B74" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C74" s="63" t="s">
+      <c r="C74" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="D74" s="64"/>
-      <c r="E74" s="64"/>
-      <c r="F74" s="64"/>
+      <c r="D74" s="84"/>
+      <c r="E74" s="84"/>
+      <c r="F74" s="84"/>
       <c r="G74" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="H74" s="64" t="s">
+      <c r="H74" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="I74" s="65"/>
+      <c r="I74" s="85"/>
     </row>
     <row r="75" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B75" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C75" s="66" t="s">
+      <c r="C75" s="86" t="s">
         <v>77</v>
       </c>
-      <c r="D75" s="67"/>
-      <c r="E75" s="67"/>
-      <c r="F75" s="68"/>
-      <c r="G75" s="27"/>
-      <c r="H75" s="89"/>
-      <c r="I75" s="90"/>
+      <c r="D75" s="87"/>
+      <c r="E75" s="87"/>
+      <c r="F75" s="88"/>
+      <c r="G75" s="27">
+        <v>0</v>
+      </c>
+      <c r="H75" s="144" t="s">
+        <v>83</v>
+      </c>
+      <c r="I75" s="145"/>
     </row>
     <row r="76" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B76" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C76" s="52" t="s">
+      <c r="C76" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="D76" s="50"/>
-      <c r="E76" s="50"/>
-      <c r="F76" s="51"/>
-      <c r="G76" s="27"/>
-      <c r="H76" s="85"/>
-      <c r="I76" s="86"/>
+      <c r="D76" s="34"/>
+      <c r="E76" s="34"/>
+      <c r="F76" s="35"/>
+      <c r="G76" s="27">
+        <v>0</v>
+      </c>
+      <c r="H76" s="146" t="s">
+        <v>83</v>
+      </c>
+      <c r="I76" s="147"/>
     </row>
     <row r="77" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B77" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C77" s="52" t="s">
+      <c r="C77" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="D77" s="50"/>
-      <c r="E77" s="50"/>
-      <c r="F77" s="51"/>
+      <c r="D77" s="34"/>
+      <c r="E77" s="34"/>
+      <c r="F77" s="35"/>
       <c r="G77" s="27"/>
-      <c r="H77" s="85"/>
-      <c r="I77" s="86"/>
+      <c r="H77" s="107"/>
+      <c r="I77" s="108"/>
     </row>
     <row r="78" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B78" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C78" s="49" t="s">
+      <c r="C78" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="D78" s="50"/>
-      <c r="E78" s="50"/>
-      <c r="F78" s="51"/>
-      <c r="G78" s="27"/>
-      <c r="H78" s="85"/>
-      <c r="I78" s="86"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="D78" s="34"/>
+      <c r="E78" s="34"/>
+      <c r="F78" s="35"/>
+      <c r="G78" s="27">
+        <v>1</v>
+      </c>
+      <c r="H78" s="107"/>
+      <c r="I78" s="108"/>
+      <c r="L78" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="M78" s="34"/>
+      <c r="N78" s="34"/>
+      <c r="O78" s="35"/>
+    </row>
+    <row r="79" spans="2:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C79" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="D79" s="50"/>
-      <c r="E79" s="50"/>
-      <c r="F79" s="51"/>
-      <c r="G79" s="27"/>
-      <c r="H79" s="85"/>
-      <c r="I79" s="86"/>
-    </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C79" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="D79" s="40"/>
+      <c r="E79" s="40"/>
+      <c r="F79" s="41"/>
+      <c r="G79" s="45">
+        <v>1</v>
+      </c>
+      <c r="H79" s="47"/>
+      <c r="I79" s="48"/>
+      <c r="L79" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="M79" s="34"/>
+      <c r="N79" s="34"/>
+      <c r="O79" s="35"/>
+    </row>
+    <row r="80" spans="2:15" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B80" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C80" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="D80" s="50"/>
-      <c r="E80" s="50"/>
-      <c r="F80" s="51"/>
-      <c r="G80" s="27"/>
-      <c r="H80" s="85"/>
-      <c r="I80" s="86"/>
+      <c r="C80" s="42"/>
+      <c r="D80" s="43"/>
+      <c r="E80" s="43"/>
+      <c r="F80" s="44"/>
+      <c r="G80" s="46"/>
+      <c r="H80" s="49"/>
+      <c r="I80" s="50"/>
+      <c r="L80" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="M80" s="37"/>
+      <c r="N80" s="37"/>
+      <c r="O80" s="38"/>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C81" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="D81" s="50"/>
-      <c r="E81" s="50"/>
-      <c r="F81" s="51"/>
-      <c r="G81" s="27"/>
-      <c r="H81" s="85"/>
-      <c r="I81" s="86"/>
+      <c r="C81" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="D81" s="52"/>
+      <c r="E81" s="52"/>
+      <c r="F81" s="53"/>
+      <c r="G81" s="45">
+        <v>0.7</v>
+      </c>
+      <c r="H81" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="I81" s="63"/>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C82" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="D82" s="50"/>
-      <c r="E82" s="50"/>
-      <c r="F82" s="51"/>
-      <c r="G82" s="27"/>
-      <c r="H82" s="87"/>
-      <c r="I82" s="88"/>
+      <c r="C82" s="54"/>
+      <c r="D82" s="55"/>
+      <c r="E82" s="55"/>
+      <c r="F82" s="56"/>
+      <c r="G82" s="60"/>
+      <c r="H82" s="64"/>
+      <c r="I82" s="65"/>
     </row>
     <row r="83" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B83" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C83" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="D83" s="29"/>
-      <c r="E83" s="29"/>
-      <c r="F83" s="30"/>
-      <c r="G83" s="17"/>
-      <c r="H83" s="83"/>
-      <c r="I83" s="84"/>
+      <c r="C83" s="57"/>
+      <c r="D83" s="58"/>
+      <c r="E83" s="58"/>
+      <c r="F83" s="59"/>
+      <c r="G83" s="61"/>
+      <c r="H83" s="66"/>
+      <c r="I83" s="67"/>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B84" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C84" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="D84" s="32"/>
+      <c r="E84" s="32"/>
+      <c r="F84" s="32"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="I84" s="32"/>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B85" s="31"/>
+      <c r="C85" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="D85" s="68"/>
+      <c r="E85" s="68"/>
+      <c r="F85" s="68"/>
+      <c r="H85" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="I85" s="68"/>
+    </row>
+    <row r="87" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="88" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B88" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C88" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="D88" s="84"/>
+      <c r="E88" s="84"/>
+      <c r="F88" s="84"/>
+      <c r="G88" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="H88" s="84" t="s">
+        <v>24</v>
+      </c>
+      <c r="I88" s="85"/>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B89" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="D89" s="87"/>
+      <c r="E89" s="87"/>
+      <c r="F89" s="88"/>
+      <c r="G89" s="30"/>
+      <c r="H89" s="119"/>
+      <c r="I89" s="120"/>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B90" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="D90" s="34"/>
+      <c r="E90" s="34"/>
+      <c r="F90" s="35"/>
+      <c r="G90" s="30"/>
+      <c r="H90" s="107"/>
+      <c r="I90" s="108"/>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B91" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="D91" s="34"/>
+      <c r="E91" s="34"/>
+      <c r="F91" s="35"/>
+      <c r="G91" s="30"/>
+      <c r="H91" s="107"/>
+      <c r="I91" s="108"/>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B92" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="D92" s="132"/>
+      <c r="E92" s="132"/>
+      <c r="F92" s="133"/>
+      <c r="G92" s="30"/>
+      <c r="H92" s="107"/>
+      <c r="I92" s="108"/>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B93" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="D93" s="34"/>
+      <c r="E93" s="34"/>
+      <c r="F93" s="35"/>
+      <c r="G93" s="30"/>
+      <c r="H93" s="107"/>
+      <c r="I93" s="108"/>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B94" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94" s="69" t="s">
+        <v>94</v>
+      </c>
+      <c r="D94" s="132"/>
+      <c r="E94" s="132"/>
+      <c r="F94" s="133"/>
+      <c r="G94" s="30"/>
+      <c r="H94" s="107"/>
+      <c r="I94" s="108"/>
+    </row>
+    <row r="95" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C95" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="D95" s="132"/>
+      <c r="E95" s="132"/>
+      <c r="F95" s="133"/>
+      <c r="G95" s="22"/>
+      <c r="H95" s="152"/>
+      <c r="I95" s="153"/>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B96" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C96" s="69" t="s">
+        <v>96</v>
+      </c>
+      <c r="D96" s="132"/>
+      <c r="E96" s="132"/>
+      <c r="F96" s="133"/>
+      <c r="G96" s="22"/>
+      <c r="H96" s="154"/>
+      <c r="I96" s="155"/>
+    </row>
+    <row r="97" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B97" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C97" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="D97" s="158"/>
+      <c r="E97" s="158"/>
+      <c r="F97" s="159"/>
+      <c r="G97" s="17"/>
+      <c r="H97" s="156"/>
+      <c r="I97" s="157"/>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C98" s="160"/>
+      <c r="D98" s="160"/>
+      <c r="E98" s="160"/>
+      <c r="F98" s="160"/>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C99" s="160"/>
+      <c r="D99" s="160"/>
+      <c r="E99" s="160"/>
+      <c r="F99" s="160"/>
     </row>
   </sheetData>
-  <mergeCells count="118">
-    <mergeCell ref="C81:F81"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="C82:F82"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="C83:F83"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="C78:F78"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="C79:F79"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="C80:F80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="C75:F75"/>
-    <mergeCell ref="H75:I75"/>
+  <mergeCells count="141">
+    <mergeCell ref="C93:F93"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="C94:F94"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="C95:F95"/>
+    <mergeCell ref="C96:F96"/>
+    <mergeCell ref="C97:F97"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="C88:F88"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="C89:F89"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="C90:F90"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="C91:F91"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="C92:F92"/>
+    <mergeCell ref="H92:I92"/>
     <mergeCell ref="C76:F76"/>
     <mergeCell ref="H76:I76"/>
     <mergeCell ref="C77:F77"/>
@@ -3187,8 +3559,6 @@
     <mergeCell ref="H71:I71"/>
     <mergeCell ref="C74:F74"/>
     <mergeCell ref="H74:I74"/>
-    <mergeCell ref="C61:F61"/>
-    <mergeCell ref="H61:I61"/>
     <mergeCell ref="C62:F63"/>
     <mergeCell ref="G62:G63"/>
     <mergeCell ref="H62:I63"/>
@@ -3197,11 +3567,8 @@
     <mergeCell ref="C57:F59"/>
     <mergeCell ref="G57:G59"/>
     <mergeCell ref="H57:I59"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="C75:F75"/>
+    <mergeCell ref="H75:I75"/>
     <mergeCell ref="H55:I55"/>
     <mergeCell ref="C50:F50"/>
     <mergeCell ref="H50:I50"/>
@@ -3209,22 +3576,17 @@
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="C52:F52"/>
     <mergeCell ref="H52:I52"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:I37"/>
-    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="C61:F61"/>
+    <mergeCell ref="H61:I61"/>
     <mergeCell ref="H39:I39"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="H43:I43"/>
     <mergeCell ref="H17:I17"/>
     <mergeCell ref="H5:I13"/>
     <mergeCell ref="C7:G7"/>
@@ -3260,14 +3622,19 @@
     <mergeCell ref="H31:I31"/>
     <mergeCell ref="C32:F32"/>
     <mergeCell ref="H32:I32"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:I37"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="C85:F85"/>
+    <mergeCell ref="H85:I85"/>
     <mergeCell ref="C44:F44"/>
     <mergeCell ref="H44:I44"/>
     <mergeCell ref="L70:O70"/>
@@ -3281,6 +3648,28 @@
     <mergeCell ref="L69:O69"/>
     <mergeCell ref="C70:F70"/>
     <mergeCell ref="H70:I70"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="C84:F84"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="L78:O78"/>
+    <mergeCell ref="L79:O79"/>
+    <mergeCell ref="L80:O80"/>
+    <mergeCell ref="C79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="H79:I80"/>
+    <mergeCell ref="C81:F83"/>
+    <mergeCell ref="G81:G83"/>
+    <mergeCell ref="H81:I83"/>
+    <mergeCell ref="C78:F78"/>
+    <mergeCell ref="H78:I78"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/졸작 진행 계획 시간표.xlsx
+++ b/졸작 진행 계획 시간표.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2020 졸작 깃\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2020 졸작 깃\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0235093-388E-47F9-BD0E-1922690F2EE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA1F687-06AB-44ED-A916-385B553E145F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5220" yWindow="1290" windowWidth="21600" windowHeight="11385" xr2:uid="{E0805F39-A49F-47F5-8E79-FFCEB62D9AEC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{E0805F39-A49F-47F5-8E79-FFCEB62D9AEC}"/>
   </bookViews>
   <sheets>
     <sheet name="5월 4주차" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="104">
   <si>
     <t>월</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -463,6 +463,32 @@
   </si>
   <si>
     <t>게임 내 시간 갱신 함수 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어의 체력 갱신 부분은 완료 하였으나 사망 처리 및 애니메이션은 몬스터와 동기화를 완료하여야 
+제대로 구현 가능함. 몬스터 동기화 작업할 때 사망 
+애니메이션 구현 예정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 내 시간 동기화 실제 적용 및 조정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020. 06. 02. 화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사격 관련 애니메이션 동기화 적용 및 조정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 객체 관리 송수신 패킷 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 객체 정보 송수신 동기화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1253,7 +1279,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1350,6 +1376,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1458,12 +1493,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1503,6 +1544,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1566,19 +1622,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1617,21 +1673,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1650,12 +1691,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1710,32 +1745,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2051,24 +2083,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA488195-4E58-4ADC-87D5-0E438CC6628E}">
-  <dimension ref="B3:O99"/>
+  <dimension ref="B3:O95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="C98" sqref="C98"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A95" sqref="A95:XFD95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="14.375" customWidth="1"/>
-    <col min="3" max="4" width="10.625" customWidth="1"/>
-    <col min="5" max="5" width="11.125" customWidth="1"/>
+    <col min="2" max="2" width="14.3984375" customWidth="1"/>
+    <col min="3" max="4" width="10.59765625" customWidth="1"/>
+    <col min="5" max="5" width="11.09765625" customWidth="1"/>
     <col min="6" max="6" width="13.5" customWidth="1"/>
-    <col min="7" max="7" width="10.375" customWidth="1"/>
-    <col min="9" max="9" width="28.625" customWidth="1"/>
+    <col min="7" max="7" width="10.3984375" customWidth="1"/>
+    <col min="9" max="9" width="28.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B4" s="5"/>
       <c r="C4" s="6" t="s">
         <v>0</v>
@@ -2093,7 +2125,7 @@
       </c>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B5" s="13" t="s">
         <v>7</v>
       </c>
@@ -2112,13 +2144,13 @@
       <c r="G5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="111" t="s">
+      <c r="H5" s="121" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="112"/>
+      <c r="I5" s="122"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B6" s="11" t="s">
         <v>8</v>
       </c>
@@ -2137,26 +2169,26 @@
       <c r="G6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="113"/>
-      <c r="I6" s="114"/>
+      <c r="H6" s="123"/>
+      <c r="I6" s="124"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="117" t="s">
+      <c r="C7" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="113"/>
-      <c r="I7" s="114"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="128"/>
+      <c r="F7" s="128"/>
+      <c r="G7" s="128"/>
+      <c r="H7" s="123"/>
+      <c r="I7" s="124"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="11" t="s">
         <v>10</v>
       </c>
@@ -2175,11 +2207,11 @@
       <c r="G8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="113"/>
-      <c r="I8" s="114"/>
+      <c r="H8" s="123"/>
+      <c r="I8" s="124"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B9" s="11" t="s">
         <v>11</v>
       </c>
@@ -2198,11 +2230,11 @@
       <c r="G9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="113"/>
-      <c r="I9" s="114"/>
+      <c r="H9" s="123"/>
+      <c r="I9" s="124"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B10" s="11" t="s">
         <v>12</v>
       </c>
@@ -2221,11 +2253,11 @@
       <c r="G10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="113"/>
-      <c r="I10" s="114"/>
+      <c r="H10" s="123"/>
+      <c r="I10" s="124"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B11" s="11" t="s">
         <v>13</v>
       </c>
@@ -2244,11 +2276,11 @@
       <c r="G11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="113"/>
-      <c r="I11" s="114"/>
+      <c r="H11" s="123"/>
+      <c r="I11" s="124"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B12" s="11" t="s">
         <v>14</v>
       </c>
@@ -2267,11 +2299,11 @@
       <c r="G12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="113"/>
-      <c r="I12" s="114"/>
+      <c r="H12" s="123"/>
+      <c r="I12" s="124"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B13" s="12" t="s">
         <v>15</v>
       </c>
@@ -2290,11 +2322,11 @@
       <c r="G13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="115"/>
-      <c r="I13" s="116"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="126"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
         <v>18</v>
@@ -2315,7 +2347,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -2326,1229 +2358,1053 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="83" t="s">
+      <c r="C17" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="84"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="84"/>
+      <c r="D17" s="94"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="94"/>
       <c r="G17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="84" t="s">
+      <c r="H17" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="I17" s="85"/>
+      <c r="I17" s="95"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B18" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="86" t="s">
+      <c r="C18" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="87"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="88"/>
+      <c r="D18" s="97"/>
+      <c r="E18" s="97"/>
+      <c r="F18" s="98"/>
       <c r="G18" s="16">
         <v>1</v>
       </c>
-      <c r="H18" s="119"/>
-      <c r="I18" s="120"/>
+      <c r="H18" s="129"/>
+      <c r="I18" s="130"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B19" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="35"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="38"/>
       <c r="G19" s="16">
         <v>1</v>
       </c>
-      <c r="H19" s="107"/>
-      <c r="I19" s="108"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="73"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B20" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="35"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="38"/>
       <c r="G20" s="16"/>
-      <c r="H20" s="107"/>
-      <c r="I20" s="108"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="73"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B21" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="69" t="s">
+      <c r="C21" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="35"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="38"/>
       <c r="G21" s="16">
         <v>1</v>
       </c>
-      <c r="H21" s="107"/>
-      <c r="I21" s="108"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H21" s="72"/>
+      <c r="I21" s="73"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B22" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="35"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="38"/>
       <c r="G22" s="16"/>
-      <c r="H22" s="107"/>
-      <c r="I22" s="108"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H22" s="72"/>
+      <c r="I22" s="73"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B23" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="35"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="38"/>
       <c r="G23" s="16"/>
-      <c r="H23" s="107"/>
-      <c r="I23" s="108"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H23" s="72"/>
+      <c r="I23" s="73"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B24" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="33" t="s">
+      <c r="C24" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="35"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="38"/>
       <c r="G24" s="16">
         <v>1</v>
       </c>
-      <c r="H24" s="107"/>
-      <c r="I24" s="108"/>
-    </row>
-    <row r="25" spans="2:10" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H24" s="72"/>
+      <c r="I24" s="73"/>
+    </row>
+    <row r="25" spans="2:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="33" t="s">
+      <c r="C25" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="35"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="38"/>
       <c r="G25" s="16">
         <v>0.8</v>
       </c>
-      <c r="H25" s="109" t="s">
+      <c r="H25" s="119" t="s">
         <v>38</v>
       </c>
-      <c r="I25" s="110"/>
-    </row>
-    <row r="26" spans="2:10" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I25" s="120"/>
+    </row>
+    <row r="26" spans="2:10" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B26" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="36" t="s">
+      <c r="C26" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="38"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="41"/>
       <c r="G26" s="17">
         <v>1</v>
       </c>
-      <c r="H26" s="105"/>
-      <c r="I26" s="106"/>
-    </row>
-    <row r="27" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H26" s="117"/>
+      <c r="I26" s="118"/>
+    </row>
+    <row r="27" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="28" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B28" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="83" t="s">
+      <c r="C28" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="84"/>
-      <c r="E28" s="84"/>
-      <c r="F28" s="84"/>
+      <c r="D28" s="94"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="94"/>
       <c r="G28" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H28" s="84" t="s">
+      <c r="H28" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="I28" s="85"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I28" s="95"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B29" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="86" t="s">
+      <c r="C29" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="88"/>
+      <c r="D29" s="97"/>
+      <c r="E29" s="97"/>
+      <c r="F29" s="98"/>
       <c r="G29" s="16"/>
-      <c r="H29" s="89"/>
-      <c r="I29" s="90"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H29" s="99"/>
+      <c r="I29" s="100"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B30" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="33" t="s">
+      <c r="C30" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="35"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="38"/>
       <c r="G30" s="16"/>
-      <c r="H30" s="102"/>
-      <c r="I30" s="103"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H30" s="112"/>
+      <c r="I30" s="113"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B31" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="33" t="s">
+      <c r="C31" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="35"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="38"/>
       <c r="G31" s="16"/>
-      <c r="H31" s="102"/>
-      <c r="I31" s="103"/>
-    </row>
-    <row r="32" spans="2:10" ht="80.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H31" s="112"/>
+      <c r="I31" s="113"/>
+    </row>
+    <row r="32" spans="2:10" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="69" t="s">
+      <c r="C32" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="35"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="38"/>
       <c r="G32" s="16">
         <v>0.5</v>
       </c>
-      <c r="H32" s="104" t="s">
+      <c r="H32" s="88" t="s">
         <v>40</v>
       </c>
-      <c r="I32" s="71"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I32" s="76"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B33" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="33" t="s">
+      <c r="C33" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="35"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="38"/>
       <c r="G33" s="16">
         <v>1</v>
       </c>
-      <c r="H33" s="102"/>
-      <c r="I33" s="103"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H33" s="112"/>
+      <c r="I33" s="113"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B34" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="33" t="s">
+      <c r="C34" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="35"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="38"/>
       <c r="G34" s="16">
         <v>1</v>
       </c>
-      <c r="H34" s="102"/>
-      <c r="I34" s="103"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H34" s="112"/>
+      <c r="I34" s="113"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B35" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="33" t="s">
+      <c r="C35" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="35"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="38"/>
       <c r="G35" s="16">
         <v>1</v>
       </c>
-      <c r="H35" s="102"/>
-      <c r="I35" s="103"/>
-    </row>
-    <row r="36" spans="2:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H35" s="112"/>
+      <c r="I35" s="113"/>
+    </row>
+    <row r="36" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="33" t="s">
+      <c r="C36" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="45">
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="48">
         <v>0.5</v>
       </c>
-      <c r="H36" s="62" t="s">
+      <c r="H36" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="I36" s="123"/>
-    </row>
-    <row r="37" spans="2:10" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I36" s="114"/>
+    </row>
+    <row r="37" spans="2:10" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B37" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="36" t="s">
+      <c r="C37" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="D37" s="37"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="61"/>
-      <c r="H37" s="124"/>
-      <c r="I37" s="125"/>
-    </row>
-    <row r="38" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="39" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="64"/>
+      <c r="H37" s="115"/>
+      <c r="I37" s="116"/>
+    </row>
+    <row r="38" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="39" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B39" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C39" s="83" t="s">
+      <c r="C39" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="84"/>
-      <c r="E39" s="84"/>
-      <c r="F39" s="84"/>
+      <c r="D39" s="94"/>
+      <c r="E39" s="94"/>
+      <c r="F39" s="94"/>
       <c r="G39" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="H39" s="84" t="s">
+      <c r="H39" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="I39" s="85"/>
-    </row>
-    <row r="40" spans="2:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I39" s="95"/>
+    </row>
+    <row r="40" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="91" t="s">
+      <c r="C40" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="92"/>
-      <c r="E40" s="92"/>
-      <c r="F40" s="93"/>
-      <c r="G40" s="97">
+      <c r="D40" s="102"/>
+      <c r="E40" s="102"/>
+      <c r="F40" s="103"/>
+      <c r="G40" s="107">
         <v>0.3</v>
       </c>
-      <c r="H40" s="98" t="s">
+      <c r="H40" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="I40" s="99"/>
-    </row>
-    <row r="41" spans="2:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I40" s="109"/>
+    </row>
+    <row r="41" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C41" s="94"/>
-      <c r="D41" s="95"/>
-      <c r="E41" s="95"/>
-      <c r="F41" s="96"/>
-      <c r="G41" s="46"/>
-      <c r="H41" s="100"/>
-      <c r="I41" s="101"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C41" s="104"/>
+      <c r="D41" s="105"/>
+      <c r="E41" s="105"/>
+      <c r="F41" s="106"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="110"/>
+      <c r="I41" s="111"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B42" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="33" t="s">
+      <c r="C42" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="35"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="38"/>
       <c r="G42" s="16"/>
-      <c r="H42" s="70"/>
-      <c r="I42" s="71"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H42" s="75"/>
+      <c r="I42" s="76"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B43" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="69" t="s">
+      <c r="C43" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="35"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="38"/>
       <c r="G43" s="20">
         <v>1</v>
       </c>
-      <c r="H43" s="70"/>
-      <c r="I43" s="71"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H43" s="75"/>
+      <c r="I43" s="76"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B44" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C44" s="69" t="s">
+      <c r="C44" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="35"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="38"/>
       <c r="G44" s="20">
         <v>1</v>
       </c>
-      <c r="H44" s="70"/>
-      <c r="I44" s="71"/>
-    </row>
-    <row r="45" spans="2:10" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H44" s="75"/>
+      <c r="I44" s="76"/>
+    </row>
+    <row r="45" spans="2:10" ht="36.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C45" s="126" t="s">
+      <c r="C45" s="131" t="s">
         <v>47</v>
       </c>
-      <c r="D45" s="127"/>
-      <c r="E45" s="127"/>
-      <c r="F45" s="127"/>
+      <c r="D45" s="132"/>
+      <c r="E45" s="132"/>
+      <c r="F45" s="132"/>
       <c r="G45" s="22"/>
-      <c r="H45" s="128"/>
-      <c r="I45" s="129"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H45" s="133"/>
+      <c r="I45" s="134"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B46" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C46" s="130" t="s">
+      <c r="C46" s="135" t="s">
         <v>51</v>
       </c>
-      <c r="D46" s="131"/>
-      <c r="E46" s="131"/>
-      <c r="F46" s="131"/>
+      <c r="D46" s="136"/>
+      <c r="E46" s="136"/>
+      <c r="F46" s="136"/>
       <c r="G46" s="22">
         <v>1</v>
       </c>
-      <c r="H46" s="102"/>
-      <c r="I46" s="103"/>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H46" s="112"/>
+      <c r="I46" s="113"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B47" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="33" t="s">
+      <c r="C47" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="D47" s="34"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="35"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="38"/>
       <c r="G47" s="21">
         <v>1</v>
       </c>
-      <c r="H47" s="104"/>
-      <c r="I47" s="121"/>
-    </row>
-    <row r="48" spans="2:10" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H47" s="88"/>
+      <c r="I47" s="89"/>
+    </row>
+    <row r="48" spans="2:10" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="36" t="s">
+      <c r="C48" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="38"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="41"/>
       <c r="G48" s="17">
         <v>0.8</v>
       </c>
-      <c r="H48" s="81" t="s">
+      <c r="H48" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="I48" s="122"/>
+      <c r="I48" s="90"/>
       <c r="J48" s="25" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="50" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="50" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B50" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C50" s="83" t="s">
+      <c r="C50" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="D50" s="84"/>
-      <c r="E50" s="84"/>
-      <c r="F50" s="84"/>
+      <c r="D50" s="94"/>
+      <c r="E50" s="94"/>
+      <c r="F50" s="94"/>
       <c r="G50" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H50" s="84" t="s">
+      <c r="H50" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="I50" s="85"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I50" s="95"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B51" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C51" s="86" t="s">
+      <c r="C51" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="D51" s="87"/>
-      <c r="E51" s="87"/>
-      <c r="F51" s="88"/>
+      <c r="D51" s="97"/>
+      <c r="E51" s="97"/>
+      <c r="F51" s="98"/>
       <c r="G51" s="20">
         <v>1</v>
       </c>
-      <c r="H51" s="119"/>
-      <c r="I51" s="120"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H51" s="129"/>
+      <c r="I51" s="130"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B52" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C52" s="33" t="s">
+      <c r="C52" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="D52" s="34"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="35"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="38"/>
       <c r="G52" s="20">
         <v>1</v>
       </c>
-      <c r="H52" s="107"/>
-      <c r="I52" s="108"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H52" s="72"/>
+      <c r="I52" s="73"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B53" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C53" s="33" t="s">
+      <c r="C53" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="35"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="38"/>
       <c r="G53" s="20"/>
-      <c r="H53" s="107"/>
-      <c r="I53" s="108"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H53" s="72"/>
+      <c r="I53" s="73"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B54" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C54" s="69" t="s">
+      <c r="C54" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="D54" s="132"/>
-      <c r="E54" s="132"/>
-      <c r="F54" s="133"/>
+      <c r="D54" s="91"/>
+      <c r="E54" s="91"/>
+      <c r="F54" s="92"/>
       <c r="G54" s="20">
         <v>1</v>
       </c>
-      <c r="H54" s="107"/>
-      <c r="I54" s="108"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H54" s="72"/>
+      <c r="I54" s="73"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B55" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C55" s="33" t="s">
+      <c r="C55" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="D55" s="34"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="35"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="38"/>
       <c r="G55" s="20">
         <v>1</v>
       </c>
-      <c r="H55" s="107"/>
-      <c r="I55" s="108"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H55" s="72"/>
+      <c r="I55" s="73"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B56" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C56" s="69" t="s">
+      <c r="C56" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D56" s="132"/>
-      <c r="E56" s="132"/>
-      <c r="F56" s="133"/>
+      <c r="D56" s="91"/>
+      <c r="E56" s="91"/>
+      <c r="F56" s="92"/>
       <c r="G56" s="20">
         <v>1</v>
       </c>
-      <c r="H56" s="107"/>
-      <c r="I56" s="108"/>
-    </row>
-    <row r="57" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H56" s="72"/>
+      <c r="I56" s="73"/>
+    </row>
+    <row r="57" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C57" s="39" t="s">
+      <c r="C57" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="D57" s="40"/>
-      <c r="E57" s="40"/>
-      <c r="F57" s="41"/>
-      <c r="G57" s="45">
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="44"/>
+      <c r="G57" s="48">
         <v>0.3</v>
       </c>
-      <c r="H57" s="62" t="s">
+      <c r="H57" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="I57" s="63"/>
-    </row>
-    <row r="58" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I57" s="66"/>
+    </row>
+    <row r="58" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C58" s="72"/>
-      <c r="D58" s="73"/>
-      <c r="E58" s="73"/>
-      <c r="F58" s="74"/>
-      <c r="G58" s="60"/>
-      <c r="H58" s="64"/>
-      <c r="I58" s="65"/>
-    </row>
-    <row r="59" spans="2:9" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C58" s="77"/>
+      <c r="D58" s="78"/>
+      <c r="E58" s="78"/>
+      <c r="F58" s="79"/>
+      <c r="G58" s="63"/>
+      <c r="H58" s="67"/>
+      <c r="I58" s="68"/>
+    </row>
+    <row r="59" spans="2:9" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B59" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C59" s="141"/>
-      <c r="D59" s="142"/>
-      <c r="E59" s="142"/>
-      <c r="F59" s="143"/>
-      <c r="G59" s="61"/>
-      <c r="H59" s="66"/>
-      <c r="I59" s="67"/>
-    </row>
-    <row r="60" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="61" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C59" s="144"/>
+      <c r="D59" s="145"/>
+      <c r="E59" s="145"/>
+      <c r="F59" s="146"/>
+      <c r="G59" s="64"/>
+      <c r="H59" s="69"/>
+      <c r="I59" s="70"/>
+    </row>
+    <row r="60" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="61" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B61" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C61" s="83" t="s">
+      <c r="C61" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="D61" s="84"/>
-      <c r="E61" s="84"/>
-      <c r="F61" s="84"/>
+      <c r="D61" s="94"/>
+      <c r="E61" s="94"/>
+      <c r="F61" s="94"/>
       <c r="G61" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="H61" s="84" t="s">
+      <c r="H61" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="I61" s="85"/>
-    </row>
-    <row r="62" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I61" s="95"/>
+    </row>
+    <row r="62" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B62" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C62" s="134" t="s">
+      <c r="C62" s="137" t="s">
         <v>59</v>
       </c>
-      <c r="D62" s="135"/>
-      <c r="E62" s="135"/>
-      <c r="F62" s="136"/>
-      <c r="G62" s="97">
+      <c r="D62" s="138"/>
+      <c r="E62" s="138"/>
+      <c r="F62" s="139"/>
+      <c r="G62" s="107">
         <v>0.3</v>
       </c>
-      <c r="H62" s="137" t="s">
+      <c r="H62" s="140" t="s">
         <v>67</v>
       </c>
-      <c r="I62" s="138"/>
-    </row>
-    <row r="63" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I62" s="141"/>
+    </row>
+    <row r="63" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B63" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C63" s="42"/>
-      <c r="D63" s="43"/>
-      <c r="E63" s="43"/>
-      <c r="F63" s="44"/>
-      <c r="G63" s="46"/>
-      <c r="H63" s="139"/>
-      <c r="I63" s="140"/>
-    </row>
-    <row r="64" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C63" s="45"/>
+      <c r="D63" s="46"/>
+      <c r="E63" s="46"/>
+      <c r="F63" s="47"/>
+      <c r="G63" s="49"/>
+      <c r="H63" s="142"/>
+      <c r="I63" s="143"/>
+    </row>
+    <row r="64" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B64" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C64" s="33" t="s">
+      <c r="C64" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="D64" s="34"/>
-      <c r="E64" s="34"/>
-      <c r="F64" s="35"/>
+      <c r="D64" s="37"/>
+      <c r="E64" s="37"/>
+      <c r="F64" s="38"/>
       <c r="G64" s="24"/>
-      <c r="H64" s="148"/>
-      <c r="I64" s="149"/>
-    </row>
-    <row r="65" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H64" s="151"/>
+      <c r="I64" s="152"/>
+    </row>
+    <row r="65" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B65" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C65" s="39" t="s">
+      <c r="C65" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="D65" s="40"/>
-      <c r="E65" s="40"/>
-      <c r="F65" s="41"/>
-      <c r="G65" s="45">
+      <c r="D65" s="43"/>
+      <c r="E65" s="43"/>
+      <c r="F65" s="44"/>
+      <c r="G65" s="48">
         <v>1</v>
       </c>
-      <c r="H65" s="75" t="s">
+      <c r="H65" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="I65" s="76"/>
-      <c r="L65" s="69" t="s">
+      <c r="I65" s="81"/>
+      <c r="L65" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="M65" s="34"/>
-      <c r="N65" s="34"/>
-      <c r="O65" s="35"/>
-    </row>
-    <row r="66" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M65" s="37"/>
+      <c r="N65" s="37"/>
+      <c r="O65" s="38"/>
+    </row>
+    <row r="66" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B66" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C66" s="72"/>
-      <c r="D66" s="73"/>
-      <c r="E66" s="73"/>
-      <c r="F66" s="74"/>
-      <c r="G66" s="60"/>
-      <c r="H66" s="77"/>
-      <c r="I66" s="78"/>
-      <c r="L66" s="33" t="s">
+      <c r="C66" s="77"/>
+      <c r="D66" s="78"/>
+      <c r="E66" s="78"/>
+      <c r="F66" s="79"/>
+      <c r="G66" s="63"/>
+      <c r="H66" s="82"/>
+      <c r="I66" s="83"/>
+      <c r="L66" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="M66" s="34"/>
-      <c r="N66" s="34"/>
-      <c r="O66" s="35"/>
-    </row>
-    <row r="67" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M66" s="37"/>
+      <c r="N66" s="37"/>
+      <c r="O66" s="38"/>
+    </row>
+    <row r="67" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B67" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C67" s="72"/>
-      <c r="D67" s="73"/>
-      <c r="E67" s="73"/>
-      <c r="F67" s="74"/>
-      <c r="G67" s="60"/>
-      <c r="H67" s="77"/>
-      <c r="I67" s="78"/>
-      <c r="L67" s="33" t="s">
+      <c r="C67" s="77"/>
+      <c r="D67" s="78"/>
+      <c r="E67" s="78"/>
+      <c r="F67" s="79"/>
+      <c r="G67" s="63"/>
+      <c r="H67" s="82"/>
+      <c r="I67" s="83"/>
+      <c r="L67" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="M67" s="34"/>
-      <c r="N67" s="34"/>
-      <c r="O67" s="35"/>
-    </row>
-    <row r="68" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M67" s="37"/>
+      <c r="N67" s="37"/>
+      <c r="O67" s="38"/>
+    </row>
+    <row r="68" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B68" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C68" s="72"/>
-      <c r="D68" s="73"/>
-      <c r="E68" s="73"/>
-      <c r="F68" s="74"/>
-      <c r="G68" s="60"/>
-      <c r="H68" s="77"/>
-      <c r="I68" s="78"/>
-      <c r="L68" s="33" t="s">
+      <c r="C68" s="77"/>
+      <c r="D68" s="78"/>
+      <c r="E68" s="78"/>
+      <c r="F68" s="79"/>
+      <c r="G68" s="63"/>
+      <c r="H68" s="82"/>
+      <c r="I68" s="83"/>
+      <c r="L68" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="M68" s="34"/>
-      <c r="N68" s="34"/>
-      <c r="O68" s="35"/>
-    </row>
-    <row r="69" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M68" s="37"/>
+      <c r="N68" s="37"/>
+      <c r="O68" s="38"/>
+    </row>
+    <row r="69" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B69" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C69" s="42"/>
-      <c r="D69" s="43"/>
-      <c r="E69" s="43"/>
-      <c r="F69" s="44"/>
-      <c r="G69" s="46"/>
-      <c r="H69" s="79"/>
-      <c r="I69" s="80"/>
-      <c r="L69" s="33" t="s">
+      <c r="C69" s="45"/>
+      <c r="D69" s="46"/>
+      <c r="E69" s="46"/>
+      <c r="F69" s="47"/>
+      <c r="G69" s="49"/>
+      <c r="H69" s="84"/>
+      <c r="I69" s="85"/>
+      <c r="L69" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="M69" s="34"/>
-      <c r="N69" s="34"/>
-      <c r="O69" s="35"/>
-    </row>
-    <row r="70" spans="2:15" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M69" s="37"/>
+      <c r="N69" s="37"/>
+      <c r="O69" s="38"/>
+    </row>
+    <row r="70" spans="2:15" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B70" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C70" s="36" t="s">
+      <c r="C70" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="D70" s="37"/>
-      <c r="E70" s="37"/>
-      <c r="F70" s="38"/>
+      <c r="D70" s="40"/>
+      <c r="E70" s="40"/>
+      <c r="F70" s="41"/>
       <c r="G70" s="17">
         <v>0.5</v>
       </c>
-      <c r="H70" s="81" t="s">
+      <c r="H70" s="86" t="s">
         <v>70</v>
       </c>
-      <c r="I70" s="82"/>
-      <c r="L70" s="36" t="s">
+      <c r="I70" s="87"/>
+      <c r="L70" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="M70" s="37"/>
-      <c r="N70" s="37"/>
-      <c r="O70" s="38"/>
-    </row>
-    <row r="71" spans="2:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M70" s="40"/>
+      <c r="N70" s="40"/>
+      <c r="O70" s="41"/>
+    </row>
+    <row r="71" spans="2:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B71" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="C71" s="150" t="s">
+      <c r="C71" s="153" t="s">
         <v>71</v>
       </c>
-      <c r="D71" s="92"/>
-      <c r="E71" s="92"/>
-      <c r="F71" s="92"/>
-      <c r="H71" s="151" t="s">
+      <c r="D71" s="102"/>
+      <c r="E71" s="102"/>
+      <c r="F71" s="102"/>
+      <c r="H71" s="154" t="s">
         <v>73</v>
       </c>
-      <c r="I71" s="151"/>
+      <c r="I71" s="154"/>
       <c r="J71" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="73" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="74" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="74" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B74" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C74" s="83" t="s">
+      <c r="C74" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="D74" s="84"/>
-      <c r="E74" s="84"/>
-      <c r="F74" s="84"/>
+      <c r="D74" s="94"/>
+      <c r="E74" s="94"/>
+      <c r="F74" s="94"/>
       <c r="G74" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="H74" s="84" t="s">
+      <c r="H74" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="I74" s="85"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="I74" s="95"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B75" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C75" s="86" t="s">
+      <c r="C75" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="D75" s="87"/>
-      <c r="E75" s="87"/>
-      <c r="F75" s="88"/>
+      <c r="D75" s="97"/>
+      <c r="E75" s="97"/>
+      <c r="F75" s="98"/>
       <c r="G75" s="27">
         <v>0</v>
       </c>
-      <c r="H75" s="144" t="s">
+      <c r="H75" s="147" t="s">
         <v>83</v>
       </c>
-      <c r="I75" s="145"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="I75" s="148"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B76" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C76" s="33" t="s">
+      <c r="C76" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="D76" s="34"/>
-      <c r="E76" s="34"/>
-      <c r="F76" s="35"/>
+      <c r="D76" s="37"/>
+      <c r="E76" s="37"/>
+      <c r="F76" s="38"/>
       <c r="G76" s="27">
         <v>0</v>
       </c>
-      <c r="H76" s="146" t="s">
+      <c r="H76" s="149" t="s">
         <v>83</v>
       </c>
-      <c r="I76" s="147"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="I76" s="150"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B77" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C77" s="33" t="s">
+      <c r="C77" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="D77" s="34"/>
-      <c r="E77" s="34"/>
-      <c r="F77" s="35"/>
+      <c r="D77" s="37"/>
+      <c r="E77" s="37"/>
+      <c r="F77" s="38"/>
       <c r="G77" s="27"/>
-      <c r="H77" s="107"/>
-      <c r="I77" s="108"/>
-    </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="H77" s="72"/>
+      <c r="I77" s="73"/>
+    </row>
+    <row r="78" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B78" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C78" s="69" t="s">
+      <c r="C78" s="71" t="s">
         <v>79</v>
       </c>
-      <c r="D78" s="34"/>
-      <c r="E78" s="34"/>
-      <c r="F78" s="35"/>
+      <c r="D78" s="37"/>
+      <c r="E78" s="37"/>
+      <c r="F78" s="38"/>
       <c r="G78" s="27">
         <v>1</v>
       </c>
-      <c r="H78" s="107"/>
-      <c r="I78" s="108"/>
-      <c r="L78" s="33" t="s">
+      <c r="H78" s="72"/>
+      <c r="I78" s="73"/>
+      <c r="L78" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="M78" s="34"/>
-      <c r="N78" s="34"/>
-      <c r="O78" s="35"/>
-    </row>
-    <row r="79" spans="2:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M78" s="37"/>
+      <c r="N78" s="37"/>
+      <c r="O78" s="38"/>
+    </row>
+    <row r="79" spans="2:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C79" s="39" t="s">
+      <c r="C79" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="D79" s="40"/>
-      <c r="E79" s="40"/>
-      <c r="F79" s="41"/>
-      <c r="G79" s="45">
+      <c r="D79" s="43"/>
+      <c r="E79" s="43"/>
+      <c r="F79" s="44"/>
+      <c r="G79" s="48">
         <v>1</v>
       </c>
-      <c r="H79" s="47"/>
-      <c r="I79" s="48"/>
-      <c r="L79" s="33" t="s">
+      <c r="H79" s="50"/>
+      <c r="I79" s="51"/>
+      <c r="L79" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="M79" s="34"/>
-      <c r="N79" s="34"/>
-      <c r="O79" s="35"/>
-    </row>
-    <row r="80" spans="2:15" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M79" s="37"/>
+      <c r="N79" s="37"/>
+      <c r="O79" s="38"/>
+    </row>
+    <row r="80" spans="2:15" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B80" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C80" s="42"/>
-      <c r="D80" s="43"/>
-      <c r="E80" s="43"/>
-      <c r="F80" s="44"/>
-      <c r="G80" s="46"/>
-      <c r="H80" s="49"/>
-      <c r="I80" s="50"/>
-      <c r="L80" s="36" t="s">
+      <c r="C80" s="45"/>
+      <c r="D80" s="46"/>
+      <c r="E80" s="46"/>
+      <c r="F80" s="47"/>
+      <c r="G80" s="49"/>
+      <c r="H80" s="52"/>
+      <c r="I80" s="53"/>
+      <c r="L80" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="M80" s="37"/>
-      <c r="N80" s="37"/>
-      <c r="O80" s="38"/>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M80" s="40"/>
+      <c r="N80" s="40"/>
+      <c r="O80" s="41"/>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B81" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C81" s="51" t="s">
+      <c r="C81" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="D81" s="52"/>
-      <c r="E81" s="52"/>
-      <c r="F81" s="53"/>
-      <c r="G81" s="45">
+      <c r="D81" s="55"/>
+      <c r="E81" s="55"/>
+      <c r="F81" s="56"/>
+      <c r="G81" s="48">
         <v>0.7</v>
       </c>
-      <c r="H81" s="62" t="s">
+      <c r="H81" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="I81" s="63"/>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I81" s="66"/>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B82" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C82" s="54"/>
-      <c r="D82" s="55"/>
-      <c r="E82" s="55"/>
-      <c r="F82" s="56"/>
-      <c r="G82" s="60"/>
-      <c r="H82" s="64"/>
-      <c r="I82" s="65"/>
-    </row>
-    <row r="83" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C82" s="57"/>
+      <c r="D82" s="58"/>
+      <c r="E82" s="58"/>
+      <c r="F82" s="59"/>
+      <c r="G82" s="63"/>
+      <c r="H82" s="67"/>
+      <c r="I82" s="68"/>
+    </row>
+    <row r="83" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C83" s="57"/>
-      <c r="D83" s="58"/>
-      <c r="E83" s="58"/>
-      <c r="F83" s="59"/>
-      <c r="G83" s="61"/>
-      <c r="H83" s="66"/>
-      <c r="I83" s="67"/>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C83" s="60"/>
+      <c r="D83" s="61"/>
+      <c r="E83" s="61"/>
+      <c r="F83" s="62"/>
+      <c r="G83" s="64"/>
+      <c r="H83" s="69"/>
+      <c r="I83" s="70"/>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C84" s="32" t="s">
+      <c r="C84" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="D84" s="32"/>
-      <c r="E84" s="32"/>
-      <c r="F84" s="32"/>
+      <c r="D84" s="35"/>
+      <c r="E84" s="35"/>
+      <c r="F84" s="35"/>
       <c r="G84" s="1"/>
-      <c r="H84" s="32" t="s">
+      <c r="H84" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="I84" s="32"/>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I84" s="35"/>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B85" s="31"/>
-      <c r="C85" s="68" t="s">
+      <c r="C85" s="74" t="s">
         <v>89</v>
       </c>
-      <c r="D85" s="68"/>
-      <c r="E85" s="68"/>
-      <c r="F85" s="68"/>
-      <c r="H85" s="68" t="s">
+      <c r="D85" s="74"/>
+      <c r="E85" s="74"/>
+      <c r="F85" s="74"/>
+      <c r="H85" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="I85" s="68"/>
-    </row>
-    <row r="87" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="88" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B88" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="C88" s="83" t="s">
-        <v>23</v>
-      </c>
-      <c r="D88" s="84"/>
-      <c r="E88" s="84"/>
-      <c r="F88" s="84"/>
-      <c r="G88" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="H88" s="84" t="s">
-        <v>24</v>
-      </c>
-      <c r="I88" s="85"/>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B89" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C89" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="D89" s="87"/>
-      <c r="E89" s="87"/>
-      <c r="F89" s="88"/>
-      <c r="G89" s="30"/>
-      <c r="H89" s="119"/>
-      <c r="I89" s="120"/>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B90" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C90" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="D90" s="34"/>
-      <c r="E90" s="34"/>
-      <c r="F90" s="35"/>
-      <c r="G90" s="30"/>
-      <c r="H90" s="107"/>
-      <c r="I90" s="108"/>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B91" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C91" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="D91" s="34"/>
-      <c r="E91" s="34"/>
-      <c r="F91" s="35"/>
-      <c r="G91" s="30"/>
-      <c r="H91" s="107"/>
-      <c r="I91" s="108"/>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B92" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C92" s="69" t="s">
-        <v>95</v>
-      </c>
-      <c r="D92" s="132"/>
-      <c r="E92" s="132"/>
-      <c r="F92" s="133"/>
-      <c r="G92" s="30"/>
-      <c r="H92" s="107"/>
-      <c r="I92" s="108"/>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B93" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C93" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="D93" s="34"/>
-      <c r="E93" s="34"/>
-      <c r="F93" s="35"/>
-      <c r="G93" s="30"/>
-      <c r="H93" s="107"/>
-      <c r="I93" s="108"/>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B94" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C94" s="69" t="s">
-        <v>94</v>
-      </c>
-      <c r="D94" s="132"/>
-      <c r="E94" s="132"/>
-      <c r="F94" s="133"/>
-      <c r="G94" s="30"/>
-      <c r="H94" s="107"/>
-      <c r="I94" s="108"/>
-    </row>
-    <row r="95" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C95" s="69" t="s">
-        <v>95</v>
-      </c>
-      <c r="D95" s="132"/>
-      <c r="E95" s="132"/>
-      <c r="F95" s="133"/>
-      <c r="G95" s="22"/>
-      <c r="H95" s="152"/>
-      <c r="I95" s="153"/>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B96" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C96" s="69" t="s">
-        <v>96</v>
-      </c>
-      <c r="D96" s="132"/>
-      <c r="E96" s="132"/>
-      <c r="F96" s="133"/>
-      <c r="G96" s="22"/>
-      <c r="H96" s="154"/>
-      <c r="I96" s="155"/>
-    </row>
-    <row r="97" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B97" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C97" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="D97" s="158"/>
-      <c r="E97" s="158"/>
-      <c r="F97" s="159"/>
-      <c r="G97" s="17"/>
-      <c r="H97" s="156"/>
-      <c r="I97" s="157"/>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C98" s="160"/>
-      <c r="D98" s="160"/>
-      <c r="E98" s="160"/>
-      <c r="F98" s="160"/>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C99" s="160"/>
-      <c r="D99" s="160"/>
-      <c r="E99" s="160"/>
-      <c r="F99" s="160"/>
-    </row>
+      <c r="I85" s="74"/>
+    </row>
+    <row r="95" spans="2:9" ht="54" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
-  <mergeCells count="141">
-    <mergeCell ref="C93:F93"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="C94:F94"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="C95:F95"/>
-    <mergeCell ref="C96:F96"/>
-    <mergeCell ref="C97:F97"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="C88:F88"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="C89:F89"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="C90:F90"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="C91:F91"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="C92:F92"/>
-    <mergeCell ref="H92:I92"/>
+  <mergeCells count="121">
     <mergeCell ref="C76:F76"/>
     <mergeCell ref="H76:I76"/>
     <mergeCell ref="C77:F77"/>
@@ -3679,12 +3535,371 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{813EEE76-69D4-4EE1-98FD-50720CEB1426}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:F12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.796875" customWidth="1"/>
+    <col min="9" max="9" width="28.69921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="93" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="95"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="96" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="30">
+        <v>1</v>
+      </c>
+      <c r="H4" s="129"/>
+      <c r="I4" s="130"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="30">
+        <v>1</v>
+      </c>
+      <c r="H5" s="72"/>
+      <c r="I5" s="73"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="73"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="71" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="30">
+        <v>1</v>
+      </c>
+      <c r="H7" s="72"/>
+      <c r="I7" s="73"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="73"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="71" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="73"/>
+    </row>
+    <row r="10" spans="2:9" ht="54" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="71" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="22">
+        <v>0.8</v>
+      </c>
+      <c r="H10" s="161" t="s">
+        <v>98</v>
+      </c>
+      <c r="I10" s="162"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="71" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="22">
+        <v>1</v>
+      </c>
+      <c r="H11" s="157"/>
+      <c r="I11" s="158"/>
+    </row>
+    <row r="12" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="155"/>
+      <c r="E12" s="155"/>
+      <c r="F12" s="156"/>
+      <c r="G12" s="17">
+        <v>1</v>
+      </c>
+      <c r="H12" s="159"/>
+      <c r="I12" s="160"/>
+    </row>
+    <row r="13" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+    </row>
+    <row r="14" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="93" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="94"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="95"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B15" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="96" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="97"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="129"/>
+      <c r="I15" s="130"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B16" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="73"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B17" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="73"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B18" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="71" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="73"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B19" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="73"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B20" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="73"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B21" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="73"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B22" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="119"/>
+      <c r="I22" s="120"/>
+    </row>
+    <row r="23" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="117"/>
+      <c r="I23" s="118"/>
+    </row>
+  </sheetData>
+  <mergeCells count="40">
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="H21:I21"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3696,7 +3911,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3711,7 +3926,7 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3726,7 +3941,7 @@
       <selection activeCell="F35" sqref="F35:F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/졸작 진행 계획 시간표.xlsx
+++ b/졸작 진행 계획 시간표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2020 졸작 깃\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA1F687-06AB-44ED-A916-385B553E145F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5B10E5-46A1-4C91-AB3F-9CD2FC711FCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{E0805F39-A49F-47F5-8E79-FFCEB62D9AEC}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="108">
   <si>
     <t>월</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -472,10 +472,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>게임 내 시간 동기화 실제 적용 및 조정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2020. 06. 02. 화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -484,11 +480,32 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>몬스터 객체 관리 송수신 패킷 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터 객체 정보 송수신 동기화</t>
+    <t>몬스터 관리 함수 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정한 위치에 몬스터 생성하는 함수 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020. 06. 03. 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성된 몬스터에 컨트롤러 빙의를 통한 비헤비어트리 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 관리를 위한 패킷정보 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 정보 패킷 송수신 함수 및 정보 갱신 함수 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 정보 패킷 송수신, 정보 갱신 함수 실제 적용 및 
+조정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1279,7 +1296,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="196">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1385,17 +1402,227 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1406,119 +1633,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1544,206 +1717,53 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1752,22 +1772,118 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2144,10 +2260,10 @@
       <c r="G5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="121" t="s">
+      <c r="H5" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="122"/>
+      <c r="I5" s="102"/>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.4">
@@ -2169,23 +2285,23 @@
       <c r="G6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="123"/>
-      <c r="I6" s="124"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="104"/>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="127" t="s">
+      <c r="C7" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="128"/>
-      <c r="E7" s="128"/>
-      <c r="F7" s="128"/>
-      <c r="G7" s="128"/>
-      <c r="H7" s="123"/>
-      <c r="I7" s="124"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="104"/>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -2207,8 +2323,8 @@
       <c r="G8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="123"/>
-      <c r="I8" s="124"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="104"/>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.4">
@@ -2230,8 +2346,8 @@
       <c r="G9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="123"/>
-      <c r="I9" s="124"/>
+      <c r="H9" s="103"/>
+      <c r="I9" s="104"/>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.4">
@@ -2253,8 +2369,8 @@
       <c r="G10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="123"/>
-      <c r="I10" s="124"/>
+      <c r="H10" s="103"/>
+      <c r="I10" s="104"/>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.4">
@@ -2276,8 +2392,8 @@
       <c r="G11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="123"/>
-      <c r="I11" s="124"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="104"/>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.4">
@@ -2299,8 +2415,8 @@
       <c r="G12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="123"/>
-      <c r="I12" s="124"/>
+      <c r="H12" s="103"/>
+      <c r="I12" s="104"/>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -2322,8 +2438,8 @@
       <c r="G13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="125"/>
-      <c r="I13" s="126"/>
+      <c r="H13" s="105"/>
+      <c r="I13" s="106"/>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.4">
@@ -2365,36 +2481,36 @@
       <c r="B17" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="93" t="s">
+      <c r="C17" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="94"/>
-      <c r="E17" s="94"/>
-      <c r="F17" s="94"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
       <c r="G17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="94" t="s">
+      <c r="H17" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="I17" s="95"/>
+      <c r="I17" s="50"/>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B18" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="96" t="s">
+      <c r="C18" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="97"/>
-      <c r="E18" s="97"/>
-      <c r="F18" s="98"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="86"/>
       <c r="G18" s="16">
         <v>1</v>
       </c>
-      <c r="H18" s="129"/>
-      <c r="I18" s="130"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="90"/>
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.4">
@@ -2410,8 +2526,8 @@
       <c r="G19" s="16">
         <v>1</v>
       </c>
-      <c r="H19" s="72"/>
-      <c r="I19" s="73"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="42"/>
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.4">
@@ -2425,15 +2541,15 @@
       <c r="E20" s="37"/>
       <c r="F20" s="38"/>
       <c r="G20" s="16"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="73"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="42"/>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B21" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="71" t="s">
+      <c r="C21" s="63" t="s">
         <v>31</v>
       </c>
       <c r="D21" s="37"/>
@@ -2442,8 +2558,8 @@
       <c r="G21" s="16">
         <v>1</v>
       </c>
-      <c r="H21" s="72"/>
-      <c r="I21" s="73"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="42"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B22" s="11" t="s">
@@ -2456,8 +2572,8 @@
       <c r="E22" s="37"/>
       <c r="F22" s="38"/>
       <c r="G22" s="16"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="73"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="42"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B23" s="11" t="s">
@@ -2470,8 +2586,8 @@
       <c r="E23" s="37"/>
       <c r="F23" s="38"/>
       <c r="G23" s="16"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="73"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="42"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B24" s="11" t="s">
@@ -2486,8 +2602,8 @@
       <c r="G24" s="16">
         <v>1</v>
       </c>
-      <c r="H24" s="72"/>
-      <c r="I24" s="73"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="42"/>
     </row>
     <row r="25" spans="2:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="11" t="s">
@@ -2502,59 +2618,59 @@
       <c r="G25" s="16">
         <v>0.8</v>
       </c>
-      <c r="H25" s="119" t="s">
+      <c r="H25" s="114" t="s">
         <v>38</v>
       </c>
-      <c r="I25" s="120"/>
+      <c r="I25" s="115"/>
     </row>
     <row r="26" spans="2:10" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B26" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="39" t="s">
+      <c r="C26" s="109" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="41"/>
+      <c r="D26" s="110"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="111"/>
       <c r="G26" s="17">
         <v>1</v>
       </c>
-      <c r="H26" s="117"/>
-      <c r="I26" s="118"/>
+      <c r="H26" s="112"/>
+      <c r="I26" s="113"/>
     </row>
     <row r="27" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="28" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B28" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="93" t="s">
+      <c r="C28" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="94"/>
-      <c r="E28" s="94"/>
-      <c r="F28" s="94"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
       <c r="G28" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H28" s="94" t="s">
+      <c r="H28" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="I28" s="95"/>
+      <c r="I28" s="50"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B29" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="96" t="s">
+      <c r="C29" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="97"/>
-      <c r="E29" s="97"/>
-      <c r="F29" s="98"/>
+      <c r="D29" s="85"/>
+      <c r="E29" s="85"/>
+      <c r="F29" s="86"/>
       <c r="G29" s="16"/>
-      <c r="H29" s="99"/>
-      <c r="I29" s="100"/>
+      <c r="H29" s="116"/>
+      <c r="I29" s="117"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B30" s="11" t="s">
@@ -2567,8 +2683,8 @@
       <c r="E30" s="37"/>
       <c r="F30" s="38"/>
       <c r="G30" s="16"/>
-      <c r="H30" s="112"/>
-      <c r="I30" s="113"/>
+      <c r="H30" s="97"/>
+      <c r="I30" s="98"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B31" s="11" t="s">
@@ -2581,14 +2697,14 @@
       <c r="E31" s="37"/>
       <c r="F31" s="38"/>
       <c r="G31" s="16"/>
-      <c r="H31" s="112"/>
-      <c r="I31" s="113"/>
+      <c r="H31" s="97"/>
+      <c r="I31" s="98"/>
     </row>
     <row r="32" spans="2:10" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="71" t="s">
+      <c r="C32" s="63" t="s">
         <v>33</v>
       </c>
       <c r="D32" s="37"/>
@@ -2597,10 +2713,10 @@
       <c r="G32" s="16">
         <v>0.5</v>
       </c>
-      <c r="H32" s="88" t="s">
+      <c r="H32" s="127" t="s">
         <v>40</v>
       </c>
-      <c r="I32" s="76"/>
+      <c r="I32" s="100"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B33" s="11" t="s">
@@ -2615,8 +2731,8 @@
       <c r="G33" s="16">
         <v>1</v>
       </c>
-      <c r="H33" s="112"/>
-      <c r="I33" s="113"/>
+      <c r="H33" s="97"/>
+      <c r="I33" s="98"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B34" s="11" t="s">
@@ -2631,8 +2747,8 @@
       <c r="G34" s="16">
         <v>1</v>
       </c>
-      <c r="H34" s="112"/>
-      <c r="I34" s="113"/>
+      <c r="H34" s="97"/>
+      <c r="I34" s="98"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B35" s="11" t="s">
@@ -2647,8 +2763,8 @@
       <c r="G35" s="16">
         <v>1</v>
       </c>
-      <c r="H35" s="112"/>
-      <c r="I35" s="113"/>
+      <c r="H35" s="97"/>
+      <c r="I35" s="98"/>
     </row>
     <row r="36" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="11" t="s">
@@ -2660,76 +2776,76 @@
       <c r="D36" s="37"/>
       <c r="E36" s="37"/>
       <c r="F36" s="38"/>
-      <c r="G36" s="48">
+      <c r="G36" s="75">
         <v>0.5</v>
       </c>
-      <c r="H36" s="65" t="s">
+      <c r="H36" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="I36" s="114"/>
+      <c r="I36" s="128"/>
     </row>
     <row r="37" spans="2:10" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B37" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="39" t="s">
+      <c r="C37" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="D37" s="40"/>
-      <c r="E37" s="40"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="64"/>
-      <c r="H37" s="115"/>
-      <c r="I37" s="116"/>
+      <c r="D37" s="110"/>
+      <c r="E37" s="110"/>
+      <c r="F37" s="111"/>
+      <c r="G37" s="77"/>
+      <c r="H37" s="129"/>
+      <c r="I37" s="130"/>
     </row>
     <row r="38" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="39" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B39" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C39" s="93" t="s">
+      <c r="C39" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="94"/>
-      <c r="E39" s="94"/>
-      <c r="F39" s="94"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
       <c r="G39" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="H39" s="94" t="s">
+      <c r="H39" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="I39" s="95"/>
+      <c r="I39" s="50"/>
     </row>
     <row r="40" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="101" t="s">
+      <c r="C40" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="102"/>
-      <c r="E40" s="102"/>
-      <c r="F40" s="103"/>
-      <c r="G40" s="107">
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="119"/>
+      <c r="G40" s="57">
         <v>0.3</v>
       </c>
-      <c r="H40" s="108" t="s">
+      <c r="H40" s="123" t="s">
         <v>46</v>
       </c>
-      <c r="I40" s="109"/>
+      <c r="I40" s="124"/>
     </row>
     <row r="41" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C41" s="104"/>
-      <c r="D41" s="105"/>
-      <c r="E41" s="105"/>
-      <c r="F41" s="106"/>
-      <c r="G41" s="49"/>
-      <c r="H41" s="110"/>
-      <c r="I41" s="111"/>
+      <c r="C41" s="120"/>
+      <c r="D41" s="121"/>
+      <c r="E41" s="121"/>
+      <c r="F41" s="122"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="125"/>
+      <c r="I41" s="126"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B42" s="11" t="s">
@@ -2742,14 +2858,14 @@
       <c r="E42" s="37"/>
       <c r="F42" s="38"/>
       <c r="G42" s="16"/>
-      <c r="H42" s="75"/>
-      <c r="I42" s="76"/>
+      <c r="H42" s="99"/>
+      <c r="I42" s="100"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B43" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="71" t="s">
+      <c r="C43" s="63" t="s">
         <v>43</v>
       </c>
       <c r="D43" s="37"/>
@@ -2758,14 +2874,14 @@
       <c r="G43" s="20">
         <v>1</v>
       </c>
-      <c r="H43" s="75"/>
-      <c r="I43" s="76"/>
+      <c r="H43" s="99"/>
+      <c r="I43" s="100"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B44" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C44" s="71" t="s">
+      <c r="C44" s="63" t="s">
         <v>44</v>
       </c>
       <c r="D44" s="37"/>
@@ -2774,38 +2890,38 @@
       <c r="G44" s="20">
         <v>1</v>
       </c>
-      <c r="H44" s="75"/>
-      <c r="I44" s="76"/>
+      <c r="H44" s="99"/>
+      <c r="I44" s="100"/>
     </row>
     <row r="45" spans="2:10" ht="36.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C45" s="131" t="s">
+      <c r="C45" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="D45" s="132"/>
-      <c r="E45" s="132"/>
-      <c r="F45" s="132"/>
+      <c r="D45" s="92"/>
+      <c r="E45" s="92"/>
+      <c r="F45" s="92"/>
       <c r="G45" s="22"/>
-      <c r="H45" s="133"/>
-      <c r="I45" s="134"/>
+      <c r="H45" s="93"/>
+      <c r="I45" s="94"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B46" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C46" s="135" t="s">
+      <c r="C46" s="95" t="s">
         <v>51</v>
       </c>
-      <c r="D46" s="136"/>
-      <c r="E46" s="136"/>
-      <c r="F46" s="136"/>
+      <c r="D46" s="96"/>
+      <c r="E46" s="96"/>
+      <c r="F46" s="96"/>
       <c r="G46" s="22">
         <v>1</v>
       </c>
-      <c r="H46" s="112"/>
-      <c r="I46" s="113"/>
+      <c r="H46" s="97"/>
+      <c r="I46" s="98"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B47" s="11" t="s">
@@ -2820,26 +2936,26 @@
       <c r="G47" s="21">
         <v>1</v>
       </c>
-      <c r="H47" s="88"/>
-      <c r="I47" s="89"/>
+      <c r="H47" s="127"/>
+      <c r="I47" s="140"/>
     </row>
     <row r="48" spans="2:10" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="39" t="s">
+      <c r="C48" s="109" t="s">
         <v>49</v>
       </c>
-      <c r="D48" s="40"/>
-      <c r="E48" s="40"/>
-      <c r="F48" s="41"/>
+      <c r="D48" s="110"/>
+      <c r="E48" s="110"/>
+      <c r="F48" s="111"/>
       <c r="G48" s="17">
         <v>0.8</v>
       </c>
-      <c r="H48" s="86" t="s">
+      <c r="H48" s="138" t="s">
         <v>50</v>
       </c>
-      <c r="I48" s="90"/>
+      <c r="I48" s="141"/>
       <c r="J48" s="25" t="s">
         <v>57</v>
       </c>
@@ -2849,35 +2965,35 @@
       <c r="B50" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C50" s="93" t="s">
+      <c r="C50" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="D50" s="94"/>
-      <c r="E50" s="94"/>
-      <c r="F50" s="94"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="49"/>
       <c r="G50" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H50" s="94" t="s">
+      <c r="H50" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="I50" s="95"/>
+      <c r="I50" s="50"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B51" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C51" s="96" t="s">
+      <c r="C51" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="D51" s="97"/>
-      <c r="E51" s="97"/>
-      <c r="F51" s="98"/>
+      <c r="D51" s="85"/>
+      <c r="E51" s="85"/>
+      <c r="F51" s="86"/>
       <c r="G51" s="20">
         <v>1</v>
       </c>
-      <c r="H51" s="129"/>
-      <c r="I51" s="130"/>
+      <c r="H51" s="89"/>
+      <c r="I51" s="90"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B52" s="11" t="s">
@@ -2892,8 +3008,8 @@
       <c r="G52" s="20">
         <v>1</v>
       </c>
-      <c r="H52" s="72"/>
-      <c r="I52" s="73"/>
+      <c r="H52" s="41"/>
+      <c r="I52" s="42"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B53" s="11" t="s">
@@ -2906,24 +3022,24 @@
       <c r="E53" s="37"/>
       <c r="F53" s="38"/>
       <c r="G53" s="20"/>
-      <c r="H53" s="72"/>
-      <c r="I53" s="73"/>
+      <c r="H53" s="41"/>
+      <c r="I53" s="42"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B54" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C54" s="71" t="s">
+      <c r="C54" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="D54" s="91"/>
-      <c r="E54" s="91"/>
-      <c r="F54" s="92"/>
+      <c r="D54" s="64"/>
+      <c r="E54" s="64"/>
+      <c r="F54" s="65"/>
       <c r="G54" s="20">
         <v>1</v>
       </c>
-      <c r="H54" s="72"/>
-      <c r="I54" s="73"/>
+      <c r="H54" s="41"/>
+      <c r="I54" s="42"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B55" s="11" t="s">
@@ -2938,115 +3054,115 @@
       <c r="G55" s="20">
         <v>1</v>
       </c>
-      <c r="H55" s="72"/>
-      <c r="I55" s="73"/>
+      <c r="H55" s="41"/>
+      <c r="I55" s="42"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B56" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C56" s="71" t="s">
+      <c r="C56" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="D56" s="91"/>
-      <c r="E56" s="91"/>
-      <c r="F56" s="92"/>
+      <c r="D56" s="64"/>
+      <c r="E56" s="64"/>
+      <c r="F56" s="65"/>
       <c r="G56" s="20">
         <v>1</v>
       </c>
-      <c r="H56" s="72"/>
-      <c r="I56" s="73"/>
+      <c r="H56" s="41"/>
+      <c r="I56" s="42"/>
     </row>
     <row r="57" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C57" s="42" t="s">
+      <c r="C57" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="D57" s="43"/>
-      <c r="E57" s="43"/>
-      <c r="F57" s="44"/>
-      <c r="G57" s="48">
+      <c r="D57" s="67"/>
+      <c r="E57" s="67"/>
+      <c r="F57" s="68"/>
+      <c r="G57" s="75">
         <v>0.3</v>
       </c>
-      <c r="H57" s="65" t="s">
+      <c r="H57" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="I57" s="66"/>
+      <c r="I57" s="79"/>
     </row>
     <row r="58" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C58" s="77"/>
-      <c r="D58" s="78"/>
-      <c r="E58" s="78"/>
-      <c r="F58" s="79"/>
-      <c r="G58" s="63"/>
-      <c r="H58" s="67"/>
-      <c r="I58" s="68"/>
+      <c r="C58" s="69"/>
+      <c r="D58" s="70"/>
+      <c r="E58" s="70"/>
+      <c r="F58" s="71"/>
+      <c r="G58" s="76"/>
+      <c r="H58" s="80"/>
+      <c r="I58" s="81"/>
     </row>
     <row r="59" spans="2:9" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B59" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C59" s="144"/>
-      <c r="D59" s="145"/>
-      <c r="E59" s="145"/>
-      <c r="F59" s="146"/>
-      <c r="G59" s="64"/>
-      <c r="H59" s="69"/>
-      <c r="I59" s="70"/>
+      <c r="C59" s="72"/>
+      <c r="D59" s="73"/>
+      <c r="E59" s="73"/>
+      <c r="F59" s="74"/>
+      <c r="G59" s="77"/>
+      <c r="H59" s="82"/>
+      <c r="I59" s="83"/>
     </row>
     <row r="60" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="61" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B61" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C61" s="93" t="s">
+      <c r="C61" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="D61" s="94"/>
-      <c r="E61" s="94"/>
-      <c r="F61" s="94"/>
+      <c r="D61" s="49"/>
+      <c r="E61" s="49"/>
+      <c r="F61" s="49"/>
       <c r="G61" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="H61" s="94" t="s">
+      <c r="H61" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="I61" s="95"/>
+      <c r="I61" s="50"/>
     </row>
     <row r="62" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B62" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C62" s="137" t="s">
+      <c r="C62" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="D62" s="138"/>
-      <c r="E62" s="138"/>
-      <c r="F62" s="139"/>
-      <c r="G62" s="107">
+      <c r="D62" s="52"/>
+      <c r="E62" s="52"/>
+      <c r="F62" s="53"/>
+      <c r="G62" s="57">
         <v>0.3</v>
       </c>
-      <c r="H62" s="140" t="s">
+      <c r="H62" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="I62" s="141"/>
+      <c r="I62" s="60"/>
     </row>
     <row r="63" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B63" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C63" s="45"/>
-      <c r="D63" s="46"/>
-      <c r="E63" s="46"/>
-      <c r="F63" s="47"/>
-      <c r="G63" s="49"/>
-      <c r="H63" s="142"/>
-      <c r="I63" s="143"/>
+      <c r="C63" s="54"/>
+      <c r="D63" s="55"/>
+      <c r="E63" s="55"/>
+      <c r="F63" s="56"/>
+      <c r="G63" s="58"/>
+      <c r="H63" s="61"/>
+      <c r="I63" s="62"/>
     </row>
     <row r="64" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B64" s="11" t="s">
@@ -3059,27 +3175,27 @@
       <c r="E64" s="37"/>
       <c r="F64" s="38"/>
       <c r="G64" s="24"/>
-      <c r="H64" s="151"/>
-      <c r="I64" s="152"/>
+      <c r="H64" s="43"/>
+      <c r="I64" s="44"/>
     </row>
     <row r="65" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B65" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C65" s="42" t="s">
+      <c r="C65" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="D65" s="43"/>
-      <c r="E65" s="43"/>
-      <c r="F65" s="44"/>
-      <c r="G65" s="48">
+      <c r="D65" s="67"/>
+      <c r="E65" s="67"/>
+      <c r="F65" s="68"/>
+      <c r="G65" s="75">
         <v>1</v>
       </c>
-      <c r="H65" s="80" t="s">
+      <c r="H65" s="132" t="s">
         <v>68</v>
       </c>
-      <c r="I65" s="81"/>
-      <c r="L65" s="71" t="s">
+      <c r="I65" s="133"/>
+      <c r="L65" s="63" t="s">
         <v>62</v>
       </c>
       <c r="M65" s="37"/>
@@ -3090,13 +3206,13 @@
       <c r="B66" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C66" s="77"/>
-      <c r="D66" s="78"/>
-      <c r="E66" s="78"/>
-      <c r="F66" s="79"/>
-      <c r="G66" s="63"/>
-      <c r="H66" s="82"/>
-      <c r="I66" s="83"/>
+      <c r="C66" s="69"/>
+      <c r="D66" s="70"/>
+      <c r="E66" s="70"/>
+      <c r="F66" s="71"/>
+      <c r="G66" s="76"/>
+      <c r="H66" s="134"/>
+      <c r="I66" s="135"/>
       <c r="L66" s="36" t="s">
         <v>65</v>
       </c>
@@ -3108,13 +3224,13 @@
       <c r="B67" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C67" s="77"/>
-      <c r="D67" s="78"/>
-      <c r="E67" s="78"/>
-      <c r="F67" s="79"/>
-      <c r="G67" s="63"/>
-      <c r="H67" s="82"/>
-      <c r="I67" s="83"/>
+      <c r="C67" s="69"/>
+      <c r="D67" s="70"/>
+      <c r="E67" s="70"/>
+      <c r="F67" s="71"/>
+      <c r="G67" s="76"/>
+      <c r="H67" s="134"/>
+      <c r="I67" s="135"/>
       <c r="L67" s="36" t="s">
         <v>65</v>
       </c>
@@ -3126,13 +3242,13 @@
       <c r="B68" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C68" s="77"/>
-      <c r="D68" s="78"/>
-      <c r="E68" s="78"/>
-      <c r="F68" s="79"/>
-      <c r="G68" s="63"/>
-      <c r="H68" s="82"/>
-      <c r="I68" s="83"/>
+      <c r="C68" s="69"/>
+      <c r="D68" s="70"/>
+      <c r="E68" s="70"/>
+      <c r="F68" s="71"/>
+      <c r="G68" s="76"/>
+      <c r="H68" s="134"/>
+      <c r="I68" s="135"/>
       <c r="L68" s="36" t="s">
         <v>63</v>
       </c>
@@ -3144,13 +3260,13 @@
       <c r="B69" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C69" s="45"/>
-      <c r="D69" s="46"/>
-      <c r="E69" s="46"/>
-      <c r="F69" s="47"/>
-      <c r="G69" s="49"/>
-      <c r="H69" s="84"/>
-      <c r="I69" s="85"/>
+      <c r="C69" s="54"/>
+      <c r="D69" s="55"/>
+      <c r="E69" s="55"/>
+      <c r="F69" s="56"/>
+      <c r="G69" s="58"/>
+      <c r="H69" s="136"/>
+      <c r="I69" s="137"/>
       <c r="L69" s="36" t="s">
         <v>64</v>
       </c>
@@ -3162,40 +3278,40 @@
       <c r="B70" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C70" s="39" t="s">
+      <c r="C70" s="109" t="s">
         <v>69</v>
       </c>
-      <c r="D70" s="40"/>
-      <c r="E70" s="40"/>
-      <c r="F70" s="41"/>
+      <c r="D70" s="110"/>
+      <c r="E70" s="110"/>
+      <c r="F70" s="111"/>
       <c r="G70" s="17">
         <v>0.5</v>
       </c>
-      <c r="H70" s="86" t="s">
+      <c r="H70" s="138" t="s">
         <v>70</v>
       </c>
-      <c r="I70" s="87"/>
-      <c r="L70" s="39" t="s">
+      <c r="I70" s="139"/>
+      <c r="L70" s="109" t="s">
         <v>64</v>
       </c>
-      <c r="M70" s="40"/>
-      <c r="N70" s="40"/>
-      <c r="O70" s="41"/>
+      <c r="M70" s="110"/>
+      <c r="N70" s="110"/>
+      <c r="O70" s="111"/>
     </row>
     <row r="71" spans="2:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B71" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="C71" s="153" t="s">
+      <c r="C71" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="D71" s="102"/>
-      <c r="E71" s="102"/>
-      <c r="F71" s="102"/>
-      <c r="H71" s="154" t="s">
+      <c r="D71" s="46"/>
+      <c r="E71" s="46"/>
+      <c r="F71" s="46"/>
+      <c r="H71" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="I71" s="154"/>
+      <c r="I71" s="47"/>
       <c r="J71" t="s">
         <v>74</v>
       </c>
@@ -3205,37 +3321,37 @@
       <c r="B74" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C74" s="93" t="s">
+      <c r="C74" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="D74" s="94"/>
-      <c r="E74" s="94"/>
-      <c r="F74" s="94"/>
+      <c r="D74" s="49"/>
+      <c r="E74" s="49"/>
+      <c r="F74" s="49"/>
       <c r="G74" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="H74" s="94" t="s">
+      <c r="H74" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="I74" s="95"/>
+      <c r="I74" s="50"/>
     </row>
     <row r="75" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B75" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C75" s="96" t="s">
+      <c r="C75" s="84" t="s">
         <v>77</v>
       </c>
-      <c r="D75" s="97"/>
-      <c r="E75" s="97"/>
-      <c r="F75" s="98"/>
+      <c r="D75" s="85"/>
+      <c r="E75" s="85"/>
+      <c r="F75" s="86"/>
       <c r="G75" s="27">
         <v>0</v>
       </c>
-      <c r="H75" s="147" t="s">
+      <c r="H75" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="I75" s="148"/>
+      <c r="I75" s="88"/>
     </row>
     <row r="76" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B76" s="11" t="s">
@@ -3250,10 +3366,10 @@
       <c r="G76" s="27">
         <v>0</v>
       </c>
-      <c r="H76" s="149" t="s">
+      <c r="H76" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="I76" s="150"/>
+      <c r="I76" s="40"/>
     </row>
     <row r="77" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B77" s="11" t="s">
@@ -3266,14 +3382,14 @@
       <c r="E77" s="37"/>
       <c r="F77" s="38"/>
       <c r="G77" s="27"/>
-      <c r="H77" s="72"/>
-      <c r="I77" s="73"/>
+      <c r="H77" s="41"/>
+      <c r="I77" s="42"/>
     </row>
     <row r="78" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B78" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C78" s="71" t="s">
+      <c r="C78" s="63" t="s">
         <v>79</v>
       </c>
       <c r="D78" s="37"/>
@@ -3282,8 +3398,8 @@
       <c r="G78" s="27">
         <v>1</v>
       </c>
-      <c r="H78" s="72"/>
-      <c r="I78" s="73"/>
+      <c r="H78" s="41"/>
+      <c r="I78" s="42"/>
       <c r="L78" s="36" t="s">
         <v>80</v>
       </c>
@@ -3295,17 +3411,17 @@
       <c r="B79" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C79" s="42" t="s">
+      <c r="C79" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="D79" s="43"/>
-      <c r="E79" s="43"/>
-      <c r="F79" s="44"/>
-      <c r="G79" s="48">
+      <c r="D79" s="67"/>
+      <c r="E79" s="67"/>
+      <c r="F79" s="68"/>
+      <c r="G79" s="75">
         <v>1</v>
       </c>
-      <c r="H79" s="50"/>
-      <c r="I79" s="51"/>
+      <c r="H79" s="143"/>
+      <c r="I79" s="144"/>
       <c r="L79" s="36" t="s">
         <v>81</v>
       </c>
@@ -3317,154 +3433,131 @@
       <c r="B80" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C80" s="45"/>
-      <c r="D80" s="46"/>
-      <c r="E80" s="46"/>
-      <c r="F80" s="47"/>
-      <c r="G80" s="49"/>
-      <c r="H80" s="52"/>
-      <c r="I80" s="53"/>
-      <c r="L80" s="39" t="s">
+      <c r="C80" s="54"/>
+      <c r="D80" s="55"/>
+      <c r="E80" s="55"/>
+      <c r="F80" s="56"/>
+      <c r="G80" s="58"/>
+      <c r="H80" s="145"/>
+      <c r="I80" s="146"/>
+      <c r="L80" s="109" t="s">
         <v>82</v>
       </c>
-      <c r="M80" s="40"/>
-      <c r="N80" s="40"/>
-      <c r="O80" s="41"/>
+      <c r="M80" s="110"/>
+      <c r="N80" s="110"/>
+      <c r="O80" s="111"/>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B81" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C81" s="54" t="s">
+      <c r="C81" s="147" t="s">
         <v>65</v>
       </c>
-      <c r="D81" s="55"/>
-      <c r="E81" s="55"/>
-      <c r="F81" s="56"/>
-      <c r="G81" s="48">
+      <c r="D81" s="148"/>
+      <c r="E81" s="148"/>
+      <c r="F81" s="149"/>
+      <c r="G81" s="75">
         <v>0.7</v>
       </c>
-      <c r="H81" s="65" t="s">
+      <c r="H81" s="78" t="s">
         <v>85</v>
       </c>
-      <c r="I81" s="66"/>
+      <c r="I81" s="79"/>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B82" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C82" s="57"/>
-      <c r="D82" s="58"/>
-      <c r="E82" s="58"/>
-      <c r="F82" s="59"/>
-      <c r="G82" s="63"/>
-      <c r="H82" s="67"/>
-      <c r="I82" s="68"/>
+      <c r="C82" s="150"/>
+      <c r="D82" s="151"/>
+      <c r="E82" s="151"/>
+      <c r="F82" s="152"/>
+      <c r="G82" s="76"/>
+      <c r="H82" s="80"/>
+      <c r="I82" s="81"/>
     </row>
     <row r="83" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C83" s="60"/>
-      <c r="D83" s="61"/>
-      <c r="E83" s="61"/>
-      <c r="F83" s="62"/>
-      <c r="G83" s="64"/>
-      <c r="H83" s="69"/>
-      <c r="I83" s="70"/>
+      <c r="C83" s="153"/>
+      <c r="D83" s="154"/>
+      <c r="E83" s="154"/>
+      <c r="F83" s="155"/>
+      <c r="G83" s="77"/>
+      <c r="H83" s="82"/>
+      <c r="I83" s="83"/>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C84" s="35" t="s">
+      <c r="C84" s="142" t="s">
         <v>87</v>
       </c>
-      <c r="D84" s="35"/>
-      <c r="E84" s="35"/>
-      <c r="F84" s="35"/>
+      <c r="D84" s="142"/>
+      <c r="E84" s="142"/>
+      <c r="F84" s="142"/>
       <c r="G84" s="1"/>
-      <c r="H84" s="35" t="s">
+      <c r="H84" s="142" t="s">
         <v>88</v>
       </c>
-      <c r="I84" s="35"/>
+      <c r="I84" s="142"/>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B85" s="31"/>
-      <c r="C85" s="74" t="s">
+      <c r="C85" s="131" t="s">
         <v>89</v>
       </c>
-      <c r="D85" s="74"/>
-      <c r="E85" s="74"/>
-      <c r="F85" s="74"/>
-      <c r="H85" s="74" t="s">
+      <c r="D85" s="131"/>
+      <c r="E85" s="131"/>
+      <c r="F85" s="131"/>
+      <c r="H85" s="131" t="s">
         <v>88</v>
       </c>
-      <c r="I85" s="74"/>
+      <c r="I85" s="131"/>
     </row>
     <row r="95" spans="2:9" ht="54" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="121">
-    <mergeCell ref="C76:F76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="C77:F77"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="C64:F64"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="C71:F71"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="C74:F74"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="C62:F63"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="H62:I63"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="C57:F59"/>
-    <mergeCell ref="G57:G59"/>
-    <mergeCell ref="H57:I59"/>
-    <mergeCell ref="C75:F75"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="C61:F61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H5:I13"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C84:F84"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="L78:O78"/>
+    <mergeCell ref="L79:O79"/>
+    <mergeCell ref="L80:O80"/>
+    <mergeCell ref="C79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="H79:I80"/>
+    <mergeCell ref="C81:F83"/>
+    <mergeCell ref="G81:G83"/>
+    <mergeCell ref="H81:I83"/>
+    <mergeCell ref="C78:F78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="C85:F85"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="L70:O70"/>
+    <mergeCell ref="C65:F69"/>
+    <mergeCell ref="G65:G69"/>
+    <mergeCell ref="H65:I69"/>
+    <mergeCell ref="L65:O65"/>
+    <mergeCell ref="L66:O66"/>
+    <mergeCell ref="L67:O67"/>
+    <mergeCell ref="L68:O68"/>
+    <mergeCell ref="L69:O69"/>
+    <mergeCell ref="C70:F70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="C55:F55"/>
     <mergeCell ref="C28:F28"/>
     <mergeCell ref="H28:I28"/>
     <mergeCell ref="C29:F29"/>
@@ -3489,43 +3582,66 @@
     <mergeCell ref="G36:G37"/>
     <mergeCell ref="H36:I37"/>
     <mergeCell ref="C39:F39"/>
-    <mergeCell ref="C85:F85"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="L70:O70"/>
-    <mergeCell ref="C65:F69"/>
-    <mergeCell ref="G65:G69"/>
-    <mergeCell ref="H65:I69"/>
-    <mergeCell ref="L65:O65"/>
-    <mergeCell ref="L66:O66"/>
-    <mergeCell ref="L67:O67"/>
-    <mergeCell ref="L68:O68"/>
-    <mergeCell ref="L69:O69"/>
-    <mergeCell ref="C70:F70"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="C84:F84"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="L78:O78"/>
-    <mergeCell ref="L79:O79"/>
-    <mergeCell ref="L80:O80"/>
-    <mergeCell ref="C79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="H79:I80"/>
-    <mergeCell ref="C81:F83"/>
-    <mergeCell ref="G81:G83"/>
-    <mergeCell ref="H81:I83"/>
-    <mergeCell ref="C78:F78"/>
-    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H5:I13"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="C61:F61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="C62:F63"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="H62:I63"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="C57:F59"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="H57:I59"/>
+    <mergeCell ref="C75:F75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="C76:F76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="C77:F77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="C64:F64"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="C71:F71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="C74:F74"/>
+    <mergeCell ref="H74:I74"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3535,16 +3651,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{813EEE76-69D4-4EE1-98FD-50720CEB1426}">
-  <dimension ref="B2:I23"/>
+  <dimension ref="B2:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:F12"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.796875" customWidth="1"/>
+    <col min="5" max="5" width="10.59765625" customWidth="1"/>
+    <col min="6" max="6" width="20.09765625" customWidth="1"/>
     <col min="9" max="9" width="28.69921875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3553,35 +3670,35 @@
       <c r="B3" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="93" t="s">
+      <c r="C3" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
       <c r="G3" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="94" t="s">
+      <c r="H3" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="95"/>
+      <c r="I3" s="50"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="96" t="s">
+      <c r="C4" s="84" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="98"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="86"/>
       <c r="G4" s="30">
         <v>1</v>
       </c>
-      <c r="H4" s="129"/>
-      <c r="I4" s="130"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="90"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B5" s="11" t="s">
@@ -3596,8 +3713,8 @@
       <c r="G5" s="30">
         <v>1</v>
       </c>
-      <c r="H5" s="72"/>
-      <c r="I5" s="73"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="42"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B6" s="11" t="s">
@@ -3610,24 +3727,24 @@
       <c r="E6" s="37"/>
       <c r="F6" s="38"/>
       <c r="G6" s="30"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="73"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="42"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="71" t="s">
+      <c r="C7" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="91"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="92"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="65"/>
       <c r="G7" s="30">
         <v>1</v>
       </c>
-      <c r="H7" s="72"/>
-      <c r="I7" s="73"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="42"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B8" s="11" t="s">
@@ -3640,72 +3757,72 @@
       <c r="E8" s="37"/>
       <c r="F8" s="38"/>
       <c r="G8" s="30"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="73"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="42"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="71" t="s">
+      <c r="C9" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="91"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="92"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="65"/>
       <c r="G9" s="30"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="73"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="42"/>
     </row>
     <row r="10" spans="2:9" ht="54" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="71" t="s">
+      <c r="C10" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="D10" s="91"/>
-      <c r="E10" s="91"/>
-      <c r="F10" s="92"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="65"/>
       <c r="G10" s="22">
         <v>0.8</v>
       </c>
-      <c r="H10" s="161" t="s">
+      <c r="H10" s="158" t="s">
         <v>98</v>
       </c>
-      <c r="I10" s="162"/>
+      <c r="I10" s="159"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="71" t="s">
+      <c r="C11" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="D11" s="91"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="92"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="65"/>
       <c r="G11" s="22">
         <v>1</v>
       </c>
-      <c r="H11" s="157"/>
-      <c r="I11" s="158"/>
+      <c r="H11" s="160"/>
+      <c r="I11" s="161"/>
     </row>
     <row r="12" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="109" t="s">
         <v>97</v>
       </c>
-      <c r="D12" s="155"/>
-      <c r="E12" s="155"/>
-      <c r="F12" s="156"/>
+      <c r="D12" s="156"/>
+      <c r="E12" s="156"/>
+      <c r="F12" s="157"/>
       <c r="G12" s="17">
         <v>1</v>
       </c>
-      <c r="H12" s="159"/>
-      <c r="I12" s="160"/>
+      <c r="H12" s="162"/>
+      <c r="I12" s="163"/>
     </row>
     <row r="13" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C13" s="32"/>
@@ -3715,35 +3832,35 @@
     </row>
     <row r="14" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B14" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C14" s="93" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="94"/>
-      <c r="E14" s="94"/>
-      <c r="F14" s="94"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
       <c r="G14" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="94" t="s">
+      <c r="H14" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="95"/>
+      <c r="I14" s="50"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B15" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="96" t="s">
+      <c r="C15" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="97"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="98"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="86"/>
       <c r="G15" s="34"/>
-      <c r="H15" s="129"/>
-      <c r="I15" s="130"/>
+      <c r="H15" s="89"/>
+      <c r="I15" s="90"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B16" s="11" t="s">
@@ -3756,8 +3873,8 @@
       <c r="E16" s="37"/>
       <c r="F16" s="38"/>
       <c r="G16" s="34"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="73"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="42"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B17" s="11" t="s">
@@ -3770,119 +3887,250 @@
       <c r="E17" s="37"/>
       <c r="F17" s="38"/>
       <c r="G17" s="34"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="73"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="42"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B18" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="71" t="s">
-        <v>99</v>
-      </c>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="73"/>
+      <c r="C18" s="174" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" s="175"/>
+      <c r="E18" s="175"/>
+      <c r="F18" s="176"/>
+      <c r="G18" s="75">
+        <v>1</v>
+      </c>
+      <c r="H18" s="143"/>
+      <c r="I18" s="144"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B19" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="73"/>
+      <c r="C19" s="193"/>
+      <c r="D19" s="194"/>
+      <c r="E19" s="194"/>
+      <c r="F19" s="195"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="164"/>
+      <c r="I19" s="165"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B20" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="73"/>
+      <c r="C20" s="193"/>
+      <c r="D20" s="194"/>
+      <c r="E20" s="194"/>
+      <c r="F20" s="195"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="164"/>
+      <c r="I20" s="165"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B21" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="73"/>
+      <c r="C21" s="120"/>
+      <c r="D21" s="121"/>
+      <c r="E21" s="121"/>
+      <c r="F21" s="122"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="145"/>
+      <c r="I21" s="146"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B22" s="11" t="s">
         <v>14</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D22" s="37"/>
       <c r="E22" s="37"/>
       <c r="F22" s="38"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="119"/>
-      <c r="I22" s="120"/>
+      <c r="G22" s="34">
+        <v>1</v>
+      </c>
+      <c r="H22" s="114"/>
+      <c r="I22" s="115"/>
     </row>
     <row r="23" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="109" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" s="110"/>
+      <c r="E23" s="110"/>
+      <c r="F23" s="111"/>
+      <c r="G23" s="17">
+        <v>1</v>
+      </c>
+      <c r="H23" s="112"/>
+      <c r="I23" s="113"/>
+    </row>
+    <row r="24" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="25" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="117"/>
-      <c r="I23" s="118"/>
+      <c r="C25" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="I25" s="50"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B26" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="166" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="119"/>
+      <c r="G26" s="167"/>
+      <c r="H26" s="168"/>
+      <c r="I26" s="169"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B27" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="120"/>
+      <c r="D27" s="121"/>
+      <c r="E27" s="121"/>
+      <c r="F27" s="122"/>
+      <c r="G27" s="170"/>
+      <c r="H27" s="171"/>
+      <c r="I27" s="172"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B28" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="173"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="40"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B29" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="63" t="s">
+        <v>105</v>
+      </c>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="173"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="40"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B30" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="174" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30" s="175"/>
+      <c r="E30" s="175"/>
+      <c r="F30" s="176"/>
+      <c r="G30" s="177"/>
+      <c r="H30" s="178"/>
+      <c r="I30" s="179"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B31" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="120"/>
+      <c r="D31" s="121"/>
+      <c r="E31" s="121"/>
+      <c r="F31" s="122"/>
+      <c r="G31" s="170"/>
+      <c r="H31" s="171"/>
+      <c r="I31" s="172"/>
+    </row>
+    <row r="32" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="180" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" s="181"/>
+      <c r="E32" s="181"/>
+      <c r="F32" s="182"/>
+      <c r="G32" s="177"/>
+      <c r="H32" s="78"/>
+      <c r="I32" s="128"/>
+    </row>
+    <row r="33" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="183"/>
+      <c r="D33" s="184"/>
+      <c r="E33" s="184"/>
+      <c r="F33" s="185"/>
+      <c r="G33" s="186"/>
+      <c r="H33" s="187"/>
+      <c r="I33" s="188"/>
+    </row>
+    <row r="34" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="189"/>
+      <c r="D34" s="190"/>
+      <c r="E34" s="190"/>
+      <c r="F34" s="191"/>
+      <c r="G34" s="192"/>
+      <c r="H34" s="129"/>
+      <c r="I34" s="130"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
+  <mergeCells count="50">
+    <mergeCell ref="C30:F31"/>
+    <mergeCell ref="C32:F34"/>
+    <mergeCell ref="G32:G34"/>
+    <mergeCell ref="H32:I34"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:I31"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:I27"/>
+    <mergeCell ref="C18:F21"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="H18:I21"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="H22:I22"/>
     <mergeCell ref="C23:F23"/>
@@ -3893,15 +4141,32 @@
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="H16:I16"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/졸작 진행 계획 시간표.xlsx
+++ b/졸작 진행 계획 시간표.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2020 졸작 깃\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2020 졸작 깃\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5B10E5-46A1-4C91-AB3F-9CD2FC711FCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC15062-4687-418F-AF44-780620903AF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{E0805F39-A49F-47F5-8E79-FFCEB62D9AEC}"/>
+    <workbookView xWindow="5220" yWindow="1290" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{E0805F39-A49F-47F5-8E79-FFCEB62D9AEC}"/>
   </bookViews>
   <sheets>
     <sheet name="5월 4주차" sheetId="1" r:id="rId1"/>
@@ -1296,7 +1296,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="196">
+  <cellXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1405,6 +1405,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1789,6 +1792,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1798,44 +1819,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1855,15 +1843,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1873,17 +1852,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2205,18 +2190,18 @@
       <selection activeCell="A95" sqref="A95:XFD95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.3984375" customWidth="1"/>
-    <col min="3" max="4" width="10.59765625" customWidth="1"/>
-    <col min="5" max="5" width="11.09765625" customWidth="1"/>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="3" max="4" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="11.125" customWidth="1"/>
     <col min="6" max="6" width="13.5" customWidth="1"/>
-    <col min="7" max="7" width="10.3984375" customWidth="1"/>
-    <col min="9" max="9" width="28.59765625" customWidth="1"/>
+    <col min="7" max="7" width="10.375" customWidth="1"/>
+    <col min="9" max="9" width="28.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="5"/>
       <c r="C4" s="6" t="s">
         <v>0</v>
@@ -2241,7 +2226,7 @@
       </c>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="13" t="s">
         <v>7</v>
       </c>
@@ -2260,13 +2245,13 @@
       <c r="G5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="101" t="s">
+      <c r="H5" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="102"/>
+      <c r="I5" s="103"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="11" t="s">
         <v>8</v>
       </c>
@@ -2285,26 +2270,26 @@
       <c r="G6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="103"/>
-      <c r="I6" s="104"/>
+      <c r="H6" s="104"/>
+      <c r="I6" s="105"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="107" t="s">
+      <c r="C7" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="108"/>
-      <c r="E7" s="108"/>
-      <c r="F7" s="108"/>
-      <c r="G7" s="108"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="104"/>
+      <c r="D7" s="109"/>
+      <c r="E7" s="109"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="105"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="11" t="s">
         <v>10</v>
       </c>
@@ -2323,11 +2308,11 @@
       <c r="G8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="103"/>
-      <c r="I8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="105"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="11" t="s">
         <v>11</v>
       </c>
@@ -2346,11 +2331,11 @@
       <c r="G9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="103"/>
-      <c r="I9" s="104"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="105"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
         <v>12</v>
       </c>
@@ -2369,11 +2354,11 @@
       <c r="G10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="103"/>
-      <c r="I10" s="104"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="105"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="11" t="s">
         <v>13</v>
       </c>
@@ -2392,11 +2377,11 @@
       <c r="G11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="103"/>
-      <c r="I11" s="104"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="105"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="11" t="s">
         <v>14</v>
       </c>
@@ -2415,11 +2400,11 @@
       <c r="G12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="103"/>
-      <c r="I12" s="104"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="105"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="12" t="s">
         <v>15</v>
       </c>
@@ -2438,11 +2423,11 @@
       <c r="G13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="105"/>
-      <c r="I13" s="106"/>
+      <c r="H13" s="106"/>
+      <c r="I13" s="107"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
         <v>18</v>
@@ -2463,7 +2448,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -2474,1051 +2459,1051 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="48" t="s">
+      <c r="C17" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
       <c r="G17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="49" t="s">
+      <c r="H17" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="I17" s="50"/>
+      <c r="I17" s="51"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="84" t="s">
+      <c r="C18" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="85"/>
-      <c r="E18" s="85"/>
-      <c r="F18" s="86"/>
+      <c r="D18" s="86"/>
+      <c r="E18" s="86"/>
+      <c r="F18" s="87"/>
       <c r="G18" s="16">
         <v>1</v>
       </c>
-      <c r="H18" s="89"/>
-      <c r="I18" s="90"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="91"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="39"/>
       <c r="G19" s="16">
         <v>1</v>
       </c>
-      <c r="H19" s="41"/>
-      <c r="I19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="43"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="39"/>
       <c r="G20" s="16"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="43"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="63" t="s">
+      <c r="C21" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="39"/>
       <c r="G21" s="16">
         <v>1</v>
       </c>
-      <c r="H21" s="41"/>
-      <c r="I21" s="42"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="H21" s="42"/>
+      <c r="I21" s="43"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="39"/>
       <c r="G22" s="16"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="42"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="H22" s="42"/>
+      <c r="I22" s="43"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="36" t="s">
+      <c r="C23" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="39"/>
       <c r="G23" s="16"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="42"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="H23" s="42"/>
+      <c r="I23" s="43"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="36" t="s">
+      <c r="C24" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="39"/>
       <c r="G24" s="16">
         <v>1</v>
       </c>
-      <c r="H24" s="41"/>
-      <c r="I24" s="42"/>
-    </row>
-    <row r="25" spans="2:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H24" s="42"/>
+      <c r="I24" s="43"/>
+    </row>
+    <row r="25" spans="2:10" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="36" t="s">
+      <c r="C25" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="39"/>
       <c r="G25" s="16">
         <v>0.8</v>
       </c>
-      <c r="H25" s="114" t="s">
+      <c r="H25" s="115" t="s">
         <v>38</v>
       </c>
-      <c r="I25" s="115"/>
-    </row>
-    <row r="26" spans="2:10" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I25" s="116"/>
+    </row>
+    <row r="26" spans="2:10" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="109" t="s">
+      <c r="C26" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="110"/>
-      <c r="E26" s="110"/>
-      <c r="F26" s="111"/>
+      <c r="D26" s="111"/>
+      <c r="E26" s="111"/>
+      <c r="F26" s="112"/>
       <c r="G26" s="17">
         <v>1</v>
       </c>
-      <c r="H26" s="112"/>
-      <c r="I26" s="113"/>
-    </row>
-    <row r="27" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="28" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H26" s="113"/>
+      <c r="I26" s="114"/>
+    </row>
+    <row r="27" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="48" t="s">
+      <c r="C28" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
       <c r="G28" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H28" s="49" t="s">
+      <c r="H28" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="I28" s="50"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="I28" s="51"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="84" t="s">
+      <c r="C29" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="85"/>
-      <c r="E29" s="85"/>
-      <c r="F29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="87"/>
       <c r="G29" s="16"/>
-      <c r="H29" s="116"/>
-      <c r="I29" s="117"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="H29" s="117"/>
+      <c r="I29" s="118"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="36" t="s">
+      <c r="C30" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="39"/>
       <c r="G30" s="16"/>
-      <c r="H30" s="97"/>
-      <c r="I30" s="98"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="H30" s="98"/>
+      <c r="I30" s="99"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="36" t="s">
+      <c r="C31" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="39"/>
       <c r="G31" s="16"/>
-      <c r="H31" s="97"/>
-      <c r="I31" s="98"/>
-    </row>
-    <row r="32" spans="2:10" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H31" s="98"/>
+      <c r="I31" s="99"/>
+    </row>
+    <row r="32" spans="2:10" ht="80.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="63" t="s">
+      <c r="C32" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="39"/>
       <c r="G32" s="16">
         <v>0.5</v>
       </c>
-      <c r="H32" s="127" t="s">
+      <c r="H32" s="128" t="s">
         <v>40</v>
       </c>
-      <c r="I32" s="100"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="I32" s="101"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="36" t="s">
+      <c r="C33" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="39"/>
       <c r="G33" s="16">
         <v>1</v>
       </c>
-      <c r="H33" s="97"/>
-      <c r="I33" s="98"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="H33" s="98"/>
+      <c r="I33" s="99"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="36" t="s">
+      <c r="C34" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="39"/>
       <c r="G34" s="16">
         <v>1</v>
       </c>
-      <c r="H34" s="97"/>
-      <c r="I34" s="98"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="H34" s="98"/>
+      <c r="I34" s="99"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B35" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="36" t="s">
+      <c r="C35" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="39"/>
       <c r="G35" s="16">
         <v>1</v>
       </c>
-      <c r="H35" s="97"/>
-      <c r="I35" s="98"/>
-    </row>
-    <row r="36" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H35" s="98"/>
+      <c r="I35" s="99"/>
+    </row>
+    <row r="36" spans="2:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="36" t="s">
+      <c r="C36" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="75">
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="76">
         <v>0.5</v>
       </c>
-      <c r="H36" s="78" t="s">
+      <c r="H36" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="I36" s="128"/>
-    </row>
-    <row r="37" spans="2:10" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I36" s="129"/>
+    </row>
+    <row r="37" spans="2:10" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="109" t="s">
+      <c r="C37" s="110" t="s">
         <v>36</v>
       </c>
-      <c r="D37" s="110"/>
-      <c r="E37" s="110"/>
-      <c r="F37" s="111"/>
-      <c r="G37" s="77"/>
-      <c r="H37" s="129"/>
-      <c r="I37" s="130"/>
-    </row>
-    <row r="38" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="39" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D37" s="111"/>
+      <c r="E37" s="111"/>
+      <c r="F37" s="112"/>
+      <c r="G37" s="78"/>
+      <c r="H37" s="130"/>
+      <c r="I37" s="131"/>
+    </row>
+    <row r="38" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C39" s="48" t="s">
+      <c r="C39" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="49"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="49"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="50"/>
       <c r="G39" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="H39" s="49" t="s">
+      <c r="H39" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="I39" s="50"/>
-    </row>
-    <row r="40" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I39" s="51"/>
+    </row>
+    <row r="40" spans="2:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="118" t="s">
+      <c r="C40" s="119" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="46"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="119"/>
-      <c r="G40" s="57">
+      <c r="D40" s="47"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="120"/>
+      <c r="G40" s="58">
         <v>0.3</v>
       </c>
-      <c r="H40" s="123" t="s">
+      <c r="H40" s="124" t="s">
         <v>46</v>
       </c>
-      <c r="I40" s="124"/>
-    </row>
-    <row r="41" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I40" s="125"/>
+    </row>
+    <row r="41" spans="2:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C41" s="120"/>
-      <c r="D41" s="121"/>
-      <c r="E41" s="121"/>
-      <c r="F41" s="122"/>
-      <c r="G41" s="58"/>
-      <c r="H41" s="125"/>
-      <c r="I41" s="126"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="C41" s="121"/>
+      <c r="D41" s="122"/>
+      <c r="E41" s="122"/>
+      <c r="F41" s="123"/>
+      <c r="G41" s="59"/>
+      <c r="H41" s="126"/>
+      <c r="I41" s="127"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B42" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="36" t="s">
+      <c r="C42" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D42" s="37"/>
-      <c r="E42" s="37"/>
-      <c r="F42" s="38"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="39"/>
       <c r="G42" s="16"/>
-      <c r="H42" s="99"/>
-      <c r="I42" s="100"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="H42" s="100"/>
+      <c r="I42" s="101"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B43" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="63" t="s">
+      <c r="C43" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="D43" s="37"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="38"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="39"/>
       <c r="G43" s="20">
         <v>1</v>
       </c>
-      <c r="H43" s="99"/>
-      <c r="I43" s="100"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="H43" s="100"/>
+      <c r="I43" s="101"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C44" s="63" t="s">
+      <c r="C44" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="D44" s="37"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="38"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="39"/>
       <c r="G44" s="20">
         <v>1</v>
       </c>
-      <c r="H44" s="99"/>
-      <c r="I44" s="100"/>
-    </row>
-    <row r="45" spans="2:10" ht="36.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H44" s="100"/>
+      <c r="I44" s="101"/>
+    </row>
+    <row r="45" spans="2:10" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C45" s="91" t="s">
+      <c r="C45" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="D45" s="92"/>
-      <c r="E45" s="92"/>
-      <c r="F45" s="92"/>
+      <c r="D45" s="93"/>
+      <c r="E45" s="93"/>
+      <c r="F45" s="93"/>
       <c r="G45" s="22"/>
-      <c r="H45" s="93"/>
-      <c r="I45" s="94"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="H45" s="94"/>
+      <c r="I45" s="95"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B46" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C46" s="95" t="s">
+      <c r="C46" s="96" t="s">
         <v>51</v>
       </c>
-      <c r="D46" s="96"/>
-      <c r="E46" s="96"/>
-      <c r="F46" s="96"/>
+      <c r="D46" s="97"/>
+      <c r="E46" s="97"/>
+      <c r="F46" s="97"/>
       <c r="G46" s="22">
         <v>1</v>
       </c>
-      <c r="H46" s="97"/>
-      <c r="I46" s="98"/>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="H46" s="98"/>
+      <c r="I46" s="99"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="36" t="s">
+      <c r="C47" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="D47" s="37"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="38"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="39"/>
       <c r="G47" s="21">
         <v>1</v>
       </c>
-      <c r="H47" s="127"/>
-      <c r="I47" s="140"/>
-    </row>
-    <row r="48" spans="2:10" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H47" s="128"/>
+      <c r="I47" s="141"/>
+    </row>
+    <row r="48" spans="2:10" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B48" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="109" t="s">
+      <c r="C48" s="110" t="s">
         <v>49</v>
       </c>
-      <c r="D48" s="110"/>
-      <c r="E48" s="110"/>
-      <c r="F48" s="111"/>
+      <c r="D48" s="111"/>
+      <c r="E48" s="111"/>
+      <c r="F48" s="112"/>
       <c r="G48" s="17">
         <v>0.8</v>
       </c>
-      <c r="H48" s="138" t="s">
+      <c r="H48" s="139" t="s">
         <v>50</v>
       </c>
-      <c r="I48" s="141"/>
+      <c r="I48" s="142"/>
       <c r="J48" s="25" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="50" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="50" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B50" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C50" s="48" t="s">
+      <c r="C50" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="D50" s="49"/>
-      <c r="E50" s="49"/>
-      <c r="F50" s="49"/>
+      <c r="D50" s="50"/>
+      <c r="E50" s="50"/>
+      <c r="F50" s="50"/>
       <c r="G50" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H50" s="49" t="s">
+      <c r="H50" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="I50" s="50"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I50" s="51"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C51" s="84" t="s">
+      <c r="C51" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="D51" s="85"/>
-      <c r="E51" s="85"/>
-      <c r="F51" s="86"/>
+      <c r="D51" s="86"/>
+      <c r="E51" s="86"/>
+      <c r="F51" s="87"/>
       <c r="G51" s="20">
         <v>1</v>
       </c>
-      <c r="H51" s="89"/>
-      <c r="I51" s="90"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H51" s="90"/>
+      <c r="I51" s="91"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C52" s="36" t="s">
+      <c r="C52" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="D52" s="37"/>
-      <c r="E52" s="37"/>
-      <c r="F52" s="38"/>
+      <c r="D52" s="38"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="39"/>
       <c r="G52" s="20">
         <v>1</v>
       </c>
-      <c r="H52" s="41"/>
-      <c r="I52" s="42"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H52" s="42"/>
+      <c r="I52" s="43"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C53" s="36" t="s">
+      <c r="C53" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D53" s="37"/>
-      <c r="E53" s="37"/>
-      <c r="F53" s="38"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="39"/>
       <c r="G53" s="20"/>
-      <c r="H53" s="41"/>
-      <c r="I53" s="42"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H53" s="42"/>
+      <c r="I53" s="43"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C54" s="63" t="s">
+      <c r="C54" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="D54" s="64"/>
-      <c r="E54" s="64"/>
-      <c r="F54" s="65"/>
+      <c r="D54" s="65"/>
+      <c r="E54" s="65"/>
+      <c r="F54" s="66"/>
       <c r="G54" s="20">
         <v>1</v>
       </c>
-      <c r="H54" s="41"/>
-      <c r="I54" s="42"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H54" s="42"/>
+      <c r="I54" s="43"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C55" s="36" t="s">
+      <c r="C55" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="D55" s="37"/>
-      <c r="E55" s="37"/>
-      <c r="F55" s="38"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="39"/>
       <c r="G55" s="20">
         <v>1</v>
       </c>
-      <c r="H55" s="41"/>
-      <c r="I55" s="42"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H55" s="42"/>
+      <c r="I55" s="43"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C56" s="63" t="s">
+      <c r="C56" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="D56" s="64"/>
-      <c r="E56" s="64"/>
-      <c r="F56" s="65"/>
+      <c r="D56" s="65"/>
+      <c r="E56" s="65"/>
+      <c r="F56" s="66"/>
       <c r="G56" s="20">
         <v>1</v>
       </c>
-      <c r="H56" s="41"/>
-      <c r="I56" s="42"/>
-    </row>
-    <row r="57" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H56" s="42"/>
+      <c r="I56" s="43"/>
+    </row>
+    <row r="57" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C57" s="66" t="s">
+      <c r="C57" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="D57" s="67"/>
-      <c r="E57" s="67"/>
-      <c r="F57" s="68"/>
-      <c r="G57" s="75">
+      <c r="D57" s="68"/>
+      <c r="E57" s="68"/>
+      <c r="F57" s="69"/>
+      <c r="G57" s="76">
         <v>0.3</v>
       </c>
-      <c r="H57" s="78" t="s">
+      <c r="H57" s="79" t="s">
         <v>60</v>
       </c>
-      <c r="I57" s="79"/>
-    </row>
-    <row r="58" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I57" s="80"/>
+    </row>
+    <row r="58" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C58" s="69"/>
-      <c r="D58" s="70"/>
-      <c r="E58" s="70"/>
-      <c r="F58" s="71"/>
-      <c r="G58" s="76"/>
-      <c r="H58" s="80"/>
-      <c r="I58" s="81"/>
-    </row>
-    <row r="59" spans="2:9" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C58" s="70"/>
+      <c r="D58" s="71"/>
+      <c r="E58" s="71"/>
+      <c r="F58" s="72"/>
+      <c r="G58" s="77"/>
+      <c r="H58" s="81"/>
+      <c r="I58" s="82"/>
+    </row>
+    <row r="59" spans="2:9" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B59" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C59" s="72"/>
-      <c r="D59" s="73"/>
-      <c r="E59" s="73"/>
-      <c r="F59" s="74"/>
-      <c r="G59" s="77"/>
-      <c r="H59" s="82"/>
-      <c r="I59" s="83"/>
-    </row>
-    <row r="60" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="61" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C59" s="73"/>
+      <c r="D59" s="74"/>
+      <c r="E59" s="74"/>
+      <c r="F59" s="75"/>
+      <c r="G59" s="78"/>
+      <c r="H59" s="83"/>
+      <c r="I59" s="84"/>
+    </row>
+    <row r="60" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="61" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B61" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C61" s="48" t="s">
+      <c r="C61" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="D61" s="49"/>
-      <c r="E61" s="49"/>
-      <c r="F61" s="49"/>
+      <c r="D61" s="50"/>
+      <c r="E61" s="50"/>
+      <c r="F61" s="50"/>
       <c r="G61" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="H61" s="49" t="s">
+      <c r="H61" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="I61" s="50"/>
-    </row>
-    <row r="62" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I61" s="51"/>
+    </row>
+    <row r="62" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C62" s="51" t="s">
+      <c r="C62" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="D62" s="52"/>
-      <c r="E62" s="52"/>
-      <c r="F62" s="53"/>
-      <c r="G62" s="57">
+      <c r="D62" s="53"/>
+      <c r="E62" s="53"/>
+      <c r="F62" s="54"/>
+      <c r="G62" s="58">
         <v>0.3</v>
       </c>
-      <c r="H62" s="59" t="s">
+      <c r="H62" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="I62" s="60"/>
-    </row>
-    <row r="63" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I62" s="61"/>
+    </row>
+    <row r="63" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C63" s="54"/>
-      <c r="D63" s="55"/>
-      <c r="E63" s="55"/>
-      <c r="F63" s="56"/>
-      <c r="G63" s="58"/>
-      <c r="H63" s="61"/>
-      <c r="I63" s="62"/>
-    </row>
-    <row r="64" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C63" s="55"/>
+      <c r="D63" s="56"/>
+      <c r="E63" s="56"/>
+      <c r="F63" s="57"/>
+      <c r="G63" s="59"/>
+      <c r="H63" s="62"/>
+      <c r="I63" s="63"/>
+    </row>
+    <row r="64" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C64" s="36" t="s">
+      <c r="C64" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D64" s="37"/>
-      <c r="E64" s="37"/>
-      <c r="F64" s="38"/>
+      <c r="D64" s="38"/>
+      <c r="E64" s="38"/>
+      <c r="F64" s="39"/>
       <c r="G64" s="24"/>
-      <c r="H64" s="43"/>
-      <c r="I64" s="44"/>
-    </row>
-    <row r="65" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H64" s="44"/>
+      <c r="I64" s="45"/>
+    </row>
+    <row r="65" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C65" s="66" t="s">
+      <c r="C65" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="D65" s="67"/>
-      <c r="E65" s="67"/>
-      <c r="F65" s="68"/>
-      <c r="G65" s="75">
+      <c r="D65" s="68"/>
+      <c r="E65" s="68"/>
+      <c r="F65" s="69"/>
+      <c r="G65" s="76">
         <v>1</v>
       </c>
-      <c r="H65" s="132" t="s">
+      <c r="H65" s="133" t="s">
         <v>68</v>
       </c>
-      <c r="I65" s="133"/>
-      <c r="L65" s="63" t="s">
+      <c r="I65" s="134"/>
+      <c r="L65" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="M65" s="37"/>
-      <c r="N65" s="37"/>
-      <c r="O65" s="38"/>
-    </row>
-    <row r="66" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="M65" s="38"/>
+      <c r="N65" s="38"/>
+      <c r="O65" s="39"/>
+    </row>
+    <row r="66" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C66" s="69"/>
-      <c r="D66" s="70"/>
-      <c r="E66" s="70"/>
-      <c r="F66" s="71"/>
-      <c r="G66" s="76"/>
-      <c r="H66" s="134"/>
-      <c r="I66" s="135"/>
-      <c r="L66" s="36" t="s">
+      <c r="C66" s="70"/>
+      <c r="D66" s="71"/>
+      <c r="E66" s="71"/>
+      <c r="F66" s="72"/>
+      <c r="G66" s="77"/>
+      <c r="H66" s="135"/>
+      <c r="I66" s="136"/>
+      <c r="L66" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="M66" s="37"/>
-      <c r="N66" s="37"/>
-      <c r="O66" s="38"/>
-    </row>
-    <row r="67" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="M66" s="38"/>
+      <c r="N66" s="38"/>
+      <c r="O66" s="39"/>
+    </row>
+    <row r="67" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B67" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C67" s="69"/>
-      <c r="D67" s="70"/>
-      <c r="E67" s="70"/>
-      <c r="F67" s="71"/>
-      <c r="G67" s="76"/>
-      <c r="H67" s="134"/>
-      <c r="I67" s="135"/>
-      <c r="L67" s="36" t="s">
+      <c r="C67" s="70"/>
+      <c r="D67" s="71"/>
+      <c r="E67" s="71"/>
+      <c r="F67" s="72"/>
+      <c r="G67" s="77"/>
+      <c r="H67" s="135"/>
+      <c r="I67" s="136"/>
+      <c r="L67" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="M67" s="37"/>
-      <c r="N67" s="37"/>
-      <c r="O67" s="38"/>
-    </row>
-    <row r="68" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="M67" s="38"/>
+      <c r="N67" s="38"/>
+      <c r="O67" s="39"/>
+    </row>
+    <row r="68" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C68" s="69"/>
-      <c r="D68" s="70"/>
-      <c r="E68" s="70"/>
-      <c r="F68" s="71"/>
-      <c r="G68" s="76"/>
-      <c r="H68" s="134"/>
-      <c r="I68" s="135"/>
-      <c r="L68" s="36" t="s">
+      <c r="C68" s="70"/>
+      <c r="D68" s="71"/>
+      <c r="E68" s="71"/>
+      <c r="F68" s="72"/>
+      <c r="G68" s="77"/>
+      <c r="H68" s="135"/>
+      <c r="I68" s="136"/>
+      <c r="L68" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="M68" s="37"/>
-      <c r="N68" s="37"/>
-      <c r="O68" s="38"/>
-    </row>
-    <row r="69" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="M68" s="38"/>
+      <c r="N68" s="38"/>
+      <c r="O68" s="39"/>
+    </row>
+    <row r="69" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C69" s="54"/>
-      <c r="D69" s="55"/>
-      <c r="E69" s="55"/>
-      <c r="F69" s="56"/>
-      <c r="G69" s="58"/>
-      <c r="H69" s="136"/>
-      <c r="I69" s="137"/>
-      <c r="L69" s="36" t="s">
+      <c r="C69" s="55"/>
+      <c r="D69" s="56"/>
+      <c r="E69" s="56"/>
+      <c r="F69" s="57"/>
+      <c r="G69" s="59"/>
+      <c r="H69" s="137"/>
+      <c r="I69" s="138"/>
+      <c r="L69" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="M69" s="37"/>
-      <c r="N69" s="37"/>
-      <c r="O69" s="38"/>
-    </row>
-    <row r="70" spans="2:15" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="M69" s="38"/>
+      <c r="N69" s="38"/>
+      <c r="O69" s="39"/>
+    </row>
+    <row r="70" spans="2:15" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B70" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C70" s="109" t="s">
+      <c r="C70" s="110" t="s">
         <v>69</v>
       </c>
-      <c r="D70" s="110"/>
-      <c r="E70" s="110"/>
-      <c r="F70" s="111"/>
+      <c r="D70" s="111"/>
+      <c r="E70" s="111"/>
+      <c r="F70" s="112"/>
       <c r="G70" s="17">
         <v>0.5</v>
       </c>
-      <c r="H70" s="138" t="s">
+      <c r="H70" s="139" t="s">
         <v>70</v>
       </c>
-      <c r="I70" s="139"/>
-      <c r="L70" s="109" t="s">
+      <c r="I70" s="140"/>
+      <c r="L70" s="110" t="s">
         <v>64</v>
       </c>
-      <c r="M70" s="110"/>
-      <c r="N70" s="110"/>
-      <c r="O70" s="111"/>
-    </row>
-    <row r="71" spans="2:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="M70" s="111"/>
+      <c r="N70" s="111"/>
+      <c r="O70" s="112"/>
+    </row>
+    <row r="71" spans="2:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="C71" s="45" t="s">
+      <c r="C71" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="D71" s="46"/>
-      <c r="E71" s="46"/>
-      <c r="F71" s="46"/>
-      <c r="H71" s="47" t="s">
+      <c r="D71" s="47"/>
+      <c r="E71" s="47"/>
+      <c r="F71" s="47"/>
+      <c r="H71" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="I71" s="47"/>
+      <c r="I71" s="48"/>
       <c r="J71" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="73" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="74" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="74" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B74" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C74" s="48" t="s">
+      <c r="C74" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="D74" s="49"/>
-      <c r="E74" s="49"/>
-      <c r="F74" s="49"/>
+      <c r="D74" s="50"/>
+      <c r="E74" s="50"/>
+      <c r="F74" s="50"/>
       <c r="G74" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="H74" s="49" t="s">
+      <c r="H74" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="I74" s="50"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="I74" s="51"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B75" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C75" s="84" t="s">
+      <c r="C75" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="D75" s="85"/>
-      <c r="E75" s="85"/>
-      <c r="F75" s="86"/>
+      <c r="D75" s="86"/>
+      <c r="E75" s="86"/>
+      <c r="F75" s="87"/>
       <c r="G75" s="27">
         <v>0</v>
       </c>
-      <c r="H75" s="87" t="s">
+      <c r="H75" s="88" t="s">
         <v>83</v>
       </c>
-      <c r="I75" s="88"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="I75" s="89"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B76" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C76" s="36" t="s">
+      <c r="C76" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="D76" s="37"/>
-      <c r="E76" s="37"/>
-      <c r="F76" s="38"/>
+      <c r="D76" s="38"/>
+      <c r="E76" s="38"/>
+      <c r="F76" s="39"/>
       <c r="G76" s="27">
         <v>0</v>
       </c>
-      <c r="H76" s="39" t="s">
+      <c r="H76" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="I76" s="40"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="I76" s="41"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B77" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C77" s="36" t="s">
+      <c r="C77" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="D77" s="37"/>
-      <c r="E77" s="37"/>
-      <c r="F77" s="38"/>
+      <c r="D77" s="38"/>
+      <c r="E77" s="38"/>
+      <c r="F77" s="39"/>
       <c r="G77" s="27"/>
-      <c r="H77" s="41"/>
-      <c r="I77" s="42"/>
-    </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="H77" s="42"/>
+      <c r="I77" s="43"/>
+    </row>
+    <row r="78" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B78" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C78" s="63" t="s">
+      <c r="C78" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="D78" s="37"/>
-      <c r="E78" s="37"/>
-      <c r="F78" s="38"/>
+      <c r="D78" s="38"/>
+      <c r="E78" s="38"/>
+      <c r="F78" s="39"/>
       <c r="G78" s="27">
         <v>1</v>
       </c>
-      <c r="H78" s="41"/>
-      <c r="I78" s="42"/>
-      <c r="L78" s="36" t="s">
+      <c r="H78" s="42"/>
+      <c r="I78" s="43"/>
+      <c r="L78" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="M78" s="37"/>
-      <c r="N78" s="37"/>
-      <c r="O78" s="38"/>
-    </row>
-    <row r="79" spans="2:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="M78" s="38"/>
+      <c r="N78" s="38"/>
+      <c r="O78" s="39"/>
+    </row>
+    <row r="79" spans="2:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C79" s="66" t="s">
+      <c r="C79" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="D79" s="67"/>
-      <c r="E79" s="67"/>
-      <c r="F79" s="68"/>
-      <c r="G79" s="75">
+      <c r="D79" s="68"/>
+      <c r="E79" s="68"/>
+      <c r="F79" s="69"/>
+      <c r="G79" s="76">
         <v>1</v>
       </c>
-      <c r="H79" s="143"/>
-      <c r="I79" s="144"/>
-      <c r="L79" s="36" t="s">
+      <c r="H79" s="144"/>
+      <c r="I79" s="145"/>
+      <c r="L79" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="M79" s="37"/>
-      <c r="N79" s="37"/>
-      <c r="O79" s="38"/>
-    </row>
-    <row r="80" spans="2:15" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="M79" s="38"/>
+      <c r="N79" s="38"/>
+      <c r="O79" s="39"/>
+    </row>
+    <row r="80" spans="2:15" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B80" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C80" s="54"/>
-      <c r="D80" s="55"/>
-      <c r="E80" s="55"/>
-      <c r="F80" s="56"/>
-      <c r="G80" s="58"/>
-      <c r="H80" s="145"/>
-      <c r="I80" s="146"/>
-      <c r="L80" s="109" t="s">
+      <c r="C80" s="55"/>
+      <c r="D80" s="56"/>
+      <c r="E80" s="56"/>
+      <c r="F80" s="57"/>
+      <c r="G80" s="59"/>
+      <c r="H80" s="146"/>
+      <c r="I80" s="147"/>
+      <c r="L80" s="110" t="s">
         <v>82</v>
       </c>
-      <c r="M80" s="110"/>
-      <c r="N80" s="110"/>
-      <c r="O80" s="111"/>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="M80" s="111"/>
+      <c r="N80" s="111"/>
+      <c r="O80" s="112"/>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C81" s="147" t="s">
+      <c r="C81" s="148" t="s">
         <v>65</v>
       </c>
-      <c r="D81" s="148"/>
-      <c r="E81" s="148"/>
-      <c r="F81" s="149"/>
-      <c r="G81" s="75">
+      <c r="D81" s="149"/>
+      <c r="E81" s="149"/>
+      <c r="F81" s="150"/>
+      <c r="G81" s="76">
         <v>0.7</v>
       </c>
-      <c r="H81" s="78" t="s">
+      <c r="H81" s="79" t="s">
         <v>85</v>
       </c>
-      <c r="I81" s="79"/>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I81" s="80"/>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C82" s="150"/>
-      <c r="D82" s="151"/>
-      <c r="E82" s="151"/>
-      <c r="F82" s="152"/>
-      <c r="G82" s="76"/>
-      <c r="H82" s="80"/>
-      <c r="I82" s="81"/>
-    </row>
-    <row r="83" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C82" s="151"/>
+      <c r="D82" s="152"/>
+      <c r="E82" s="152"/>
+      <c r="F82" s="153"/>
+      <c r="G82" s="77"/>
+      <c r="H82" s="81"/>
+      <c r="I82" s="82"/>
+    </row>
+    <row r="83" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B83" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C83" s="153"/>
-      <c r="D83" s="154"/>
-      <c r="E83" s="154"/>
-      <c r="F83" s="155"/>
-      <c r="G83" s="77"/>
-      <c r="H83" s="82"/>
-      <c r="I83" s="83"/>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C83" s="154"/>
+      <c r="D83" s="155"/>
+      <c r="E83" s="155"/>
+      <c r="F83" s="156"/>
+      <c r="G83" s="78"/>
+      <c r="H83" s="83"/>
+      <c r="I83" s="84"/>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C84" s="142" t="s">
+      <c r="C84" s="143" t="s">
         <v>87</v>
       </c>
-      <c r="D84" s="142"/>
-      <c r="E84" s="142"/>
-      <c r="F84" s="142"/>
+      <c r="D84" s="143"/>
+      <c r="E84" s="143"/>
+      <c r="F84" s="143"/>
       <c r="G84" s="1"/>
-      <c r="H84" s="142" t="s">
+      <c r="H84" s="143" t="s">
         <v>88</v>
       </c>
-      <c r="I84" s="142"/>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I84" s="143"/>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="31"/>
-      <c r="C85" s="131" t="s">
+      <c r="C85" s="132" t="s">
         <v>89</v>
       </c>
-      <c r="D85" s="131"/>
-      <c r="E85" s="131"/>
-      <c r="F85" s="131"/>
-      <c r="H85" s="131" t="s">
+      <c r="D85" s="132"/>
+      <c r="E85" s="132"/>
+      <c r="F85" s="132"/>
+      <c r="H85" s="132" t="s">
         <v>88</v>
       </c>
-      <c r="I85" s="131"/>
-    </row>
-    <row r="95" spans="2:9" ht="54" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="I85" s="132"/>
+    </row>
+    <row r="95" spans="2:9" ht="54" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="121">
     <mergeCell ref="C84:F84"/>
@@ -3654,462 +3639,462 @@
   <dimension ref="B2:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18:I21"/>
+      <selection activeCell="G26" sqref="G26:G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.59765625" customWidth="1"/>
-    <col min="6" max="6" width="20.09765625" customWidth="1"/>
-    <col min="9" max="9" width="28.69921875" customWidth="1"/>
+    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.625" customWidth="1"/>
+    <col min="6" max="6" width="21.25" customWidth="1"/>
+    <col min="9" max="9" width="28.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
       <c r="G3" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="49" t="s">
+      <c r="H3" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="50"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I3" s="51"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="84" t="s">
+      <c r="C4" s="85" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="87"/>
       <c r="G4" s="30">
         <v>1</v>
       </c>
-      <c r="H4" s="89"/>
-      <c r="I4" s="90"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H4" s="90"/>
+      <c r="I4" s="91"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="39"/>
       <c r="G5" s="30">
         <v>1</v>
       </c>
-      <c r="H5" s="41"/>
-      <c r="I5" s="42"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H5" s="42"/>
+      <c r="I5" s="43"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="39"/>
       <c r="G6" s="30"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="42"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H6" s="42"/>
+      <c r="I6" s="43"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="64" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="66"/>
       <c r="G7" s="30">
         <v>1</v>
       </c>
-      <c r="H7" s="41"/>
-      <c r="I7" s="42"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H7" s="42"/>
+      <c r="I7" s="43"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="39"/>
       <c r="G8" s="30"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="42"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H8" s="42"/>
+      <c r="I8" s="43"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="66"/>
       <c r="G9" s="30"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="42"/>
-    </row>
-    <row r="10" spans="2:9" ht="54" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H9" s="42"/>
+      <c r="I9" s="43"/>
+    </row>
+    <row r="10" spans="2:9" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="63" t="s">
+      <c r="C10" s="64" t="s">
         <v>95</v>
       </c>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="66"/>
       <c r="G10" s="22">
         <v>0.8</v>
       </c>
-      <c r="H10" s="158" t="s">
+      <c r="H10" s="159" t="s">
         <v>98</v>
       </c>
-      <c r="I10" s="159"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I10" s="160"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="63" t="s">
+      <c r="C11" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="66"/>
       <c r="G11" s="22">
         <v>1</v>
       </c>
-      <c r="H11" s="160"/>
-      <c r="I11" s="161"/>
-    </row>
-    <row r="12" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H11" s="161"/>
+      <c r="I11" s="162"/>
+    </row>
+    <row r="12" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="109" t="s">
+      <c r="C12" s="110" t="s">
         <v>97</v>
       </c>
-      <c r="D12" s="156"/>
-      <c r="E12" s="156"/>
-      <c r="F12" s="157"/>
+      <c r="D12" s="157"/>
+      <c r="E12" s="157"/>
+      <c r="F12" s="158"/>
       <c r="G12" s="17">
         <v>1</v>
       </c>
-      <c r="H12" s="162"/>
-      <c r="I12" s="163"/>
-    </row>
-    <row r="13" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H12" s="163"/>
+      <c r="I12" s="164"/>
+    </row>
+    <row r="13" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C13" s="32"/>
       <c r="D13" s="32"/>
       <c r="E13" s="32"/>
       <c r="F13" s="32"/>
     </row>
-    <row r="14" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
       <c r="G14" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="49" t="s">
+      <c r="H14" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="50"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I14" s="51"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="84" t="s">
+      <c r="C15" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="85"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="86"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="87"/>
       <c r="G15" s="34"/>
-      <c r="H15" s="89"/>
-      <c r="I15" s="90"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H15" s="90"/>
+      <c r="I15" s="91"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="39"/>
       <c r="G16" s="34"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="42"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H16" s="42"/>
+      <c r="I16" s="43"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="39"/>
       <c r="G17" s="34"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="42"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H17" s="42"/>
+      <c r="I17" s="43"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="174" t="s">
+      <c r="C18" s="165" t="s">
         <v>100</v>
       </c>
-      <c r="D18" s="175"/>
-      <c r="E18" s="175"/>
-      <c r="F18" s="176"/>
-      <c r="G18" s="75">
+      <c r="D18" s="166"/>
+      <c r="E18" s="166"/>
+      <c r="F18" s="167"/>
+      <c r="G18" s="76">
         <v>1</v>
       </c>
-      <c r="H18" s="143"/>
-      <c r="I18" s="144"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H18" s="144"/>
+      <c r="I18" s="145"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="193"/>
-      <c r="D19" s="194"/>
-      <c r="E19" s="194"/>
-      <c r="F19" s="195"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="164"/>
-      <c r="I19" s="165"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C19" s="168"/>
+      <c r="D19" s="169"/>
+      <c r="E19" s="169"/>
+      <c r="F19" s="170"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="171"/>
+      <c r="I19" s="172"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="193"/>
-      <c r="D20" s="194"/>
-      <c r="E20" s="194"/>
-      <c r="F20" s="195"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="164"/>
-      <c r="I20" s="165"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C20" s="168"/>
+      <c r="D20" s="169"/>
+      <c r="E20" s="169"/>
+      <c r="F20" s="170"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="171"/>
+      <c r="I20" s="172"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="120"/>
-      <c r="D21" s="121"/>
-      <c r="E21" s="121"/>
-      <c r="F21" s="122"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="145"/>
-      <c r="I21" s="146"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C21" s="121"/>
+      <c r="D21" s="122"/>
+      <c r="E21" s="122"/>
+      <c r="F21" s="123"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="146"/>
+      <c r="I21" s="147"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="39"/>
       <c r="G22" s="34">
         <v>1</v>
       </c>
-      <c r="H22" s="114"/>
-      <c r="I22" s="115"/>
-    </row>
-    <row r="23" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H22" s="115"/>
+      <c r="I22" s="116"/>
+    </row>
+    <row r="23" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="109" t="s">
+      <c r="C23" s="110" t="s">
         <v>102</v>
       </c>
-      <c r="D23" s="110"/>
-      <c r="E23" s="110"/>
-      <c r="F23" s="111"/>
+      <c r="D23" s="111"/>
+      <c r="E23" s="111"/>
+      <c r="F23" s="112"/>
       <c r="G23" s="17">
         <v>1</v>
       </c>
-      <c r="H23" s="112"/>
-      <c r="I23" s="113"/>
-    </row>
-    <row r="24" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="25" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H23" s="113"/>
+      <c r="I23" s="114"/>
+    </row>
+    <row r="24" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="C25" s="48" t="s">
+      <c r="C25" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
       <c r="G25" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="H25" s="49" t="s">
+      <c r="H25" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="I25" s="50"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I25" s="51"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="166" t="s">
+      <c r="C26" s="173" t="s">
         <v>104</v>
       </c>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="119"/>
-      <c r="G26" s="167"/>
-      <c r="H26" s="168"/>
-      <c r="I26" s="169"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="120"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="174"/>
+      <c r="I26" s="175"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="120"/>
-      <c r="D27" s="121"/>
-      <c r="E27" s="121"/>
-      <c r="F27" s="122"/>
-      <c r="G27" s="170"/>
-      <c r="H27" s="171"/>
-      <c r="I27" s="172"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C27" s="121"/>
+      <c r="D27" s="122"/>
+      <c r="E27" s="122"/>
+      <c r="F27" s="123"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="146"/>
+      <c r="I27" s="147"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="36" t="s">
+      <c r="C28" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="173"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="40"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="43"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="63" t="s">
+      <c r="C29" s="64" t="s">
         <v>105</v>
       </c>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="173"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="40"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="43"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="174" t="s">
+      <c r="C30" s="165" t="s">
         <v>106</v>
       </c>
-      <c r="D30" s="175"/>
-      <c r="E30" s="175"/>
-      <c r="F30" s="176"/>
-      <c r="G30" s="177"/>
-      <c r="H30" s="178"/>
-      <c r="I30" s="179"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D30" s="166"/>
+      <c r="E30" s="166"/>
+      <c r="F30" s="167"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="144"/>
+      <c r="I30" s="145"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="120"/>
-      <c r="D31" s="121"/>
-      <c r="E31" s="121"/>
-      <c r="F31" s="122"/>
-      <c r="G31" s="170"/>
-      <c r="H31" s="171"/>
-      <c r="I31" s="172"/>
-    </row>
-    <row r="32" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C31" s="121"/>
+      <c r="D31" s="122"/>
+      <c r="E31" s="122"/>
+      <c r="F31" s="123"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="146"/>
+      <c r="I31" s="147"/>
+    </row>
+    <row r="32" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="180" t="s">
+      <c r="C32" s="176" t="s">
         <v>107</v>
       </c>
-      <c r="D32" s="181"/>
-      <c r="E32" s="181"/>
-      <c r="F32" s="182"/>
-      <c r="G32" s="177"/>
-      <c r="H32" s="78"/>
-      <c r="I32" s="128"/>
-    </row>
-    <row r="33" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D32" s="177"/>
+      <c r="E32" s="177"/>
+      <c r="F32" s="178"/>
+      <c r="G32" s="76"/>
+      <c r="H32" s="185"/>
+      <c r="I32" s="186"/>
+    </row>
+    <row r="33" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="183"/>
-      <c r="D33" s="184"/>
-      <c r="E33" s="184"/>
-      <c r="F33" s="185"/>
-      <c r="G33" s="186"/>
+      <c r="C33" s="179"/>
+      <c r="D33" s="180"/>
+      <c r="E33" s="180"/>
+      <c r="F33" s="181"/>
+      <c r="G33" s="77"/>
       <c r="H33" s="187"/>
       <c r="I33" s="188"/>
     </row>
-    <row r="34" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="189"/>
-      <c r="D34" s="190"/>
-      <c r="E34" s="190"/>
-      <c r="F34" s="191"/>
-      <c r="G34" s="192"/>
-      <c r="H34" s="129"/>
-      <c r="I34" s="130"/>
+      <c r="C34" s="182"/>
+      <c r="D34" s="183"/>
+      <c r="E34" s="183"/>
+      <c r="F34" s="184"/>
+      <c r="G34" s="78"/>
+      <c r="H34" s="189"/>
+      <c r="I34" s="190"/>
     </row>
   </sheetData>
   <mergeCells count="50">
@@ -4119,6 +4104,8 @@
     <mergeCell ref="H32:I34"/>
     <mergeCell ref="G30:G31"/>
     <mergeCell ref="H30:I31"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="H22:I22"/>
     <mergeCell ref="C29:F29"/>
     <mergeCell ref="H29:I29"/>
     <mergeCell ref="C28:F28"/>
@@ -4128,11 +4115,9 @@
     <mergeCell ref="C26:F27"/>
     <mergeCell ref="G26:G27"/>
     <mergeCell ref="H26:I27"/>
-    <mergeCell ref="C18:F21"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="H18:I21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C10:F10"/>
     <mergeCell ref="C23:F23"/>
     <mergeCell ref="H23:I23"/>
     <mergeCell ref="C14:F14"/>
@@ -4143,26 +4128,26 @@
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="H17:I17"/>
+    <mergeCell ref="C18:F21"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="H18:I21"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="H7:I7"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="H5:I5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="H7:I7"/>
     <mergeCell ref="C12:F12"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="H12:I12"/>
+    <mergeCell ref="C11:F11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4176,7 +4161,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4191,7 +4176,7 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4206,7 +4191,7 @@
       <selection activeCell="F35" sqref="F35:F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/졸작 진행 계획 시간표.xlsx
+++ b/졸작 진행 계획 시간표.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2020 졸작 깃\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2020 졸작 깃\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC15062-4687-418F-AF44-780620903AF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB524FC-22BC-427E-8F94-CFFF29044F8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5220" yWindow="1290" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{E0805F39-A49F-47F5-8E79-FFCEB62D9AEC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{E0805F39-A49F-47F5-8E79-FFCEB62D9AEC}"/>
   </bookViews>
   <sheets>
     <sheet name="5월 4주차" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="114">
   <si>
     <t>월</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -506,6 +506,33 @@
   <si>
     <t>몬스터 정보 패킷 송수신, 정보 갱신 함수 실제 적용 및 
 조정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020. 06. 04. 목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라이언트 내 서버와 송수신 구조 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근로 중 작업하고 있었는데 근로처 선생님들께서 업무를 주셔서 시간내에 작업을 완료하지 못함 / 클라이언트 내 패킷 송수신 구조 꼬임 발생 - 송수신 구조를 수정 
+해야함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 체력 패킷 송수신, 정보 갱신 함수 실제 적용 및 
+조정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터와 플레이어 간 상호작용 정보 관리 함수 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터의 비헤비어 트리가 제대로 작동하지 않아 원인 
+파악하는데 시간이 걸려 오전 내에 완료하지 못함</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -578,7 +605,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="59">
+  <borders count="60">
     <border>
       <left/>
       <right/>
@@ -1290,13 +1317,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="191">
+  <cellXfs count="214">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1405,7 +1447,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1834,15 +1882,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1852,23 +1891,95 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2190,18 +2301,18 @@
       <selection activeCell="A95" sqref="A95:XFD95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="14.375" customWidth="1"/>
-    <col min="3" max="4" width="10.625" customWidth="1"/>
-    <col min="5" max="5" width="11.125" customWidth="1"/>
+    <col min="2" max="2" width="14.3984375" customWidth="1"/>
+    <col min="3" max="4" width="10.59765625" customWidth="1"/>
+    <col min="5" max="5" width="11.09765625" customWidth="1"/>
     <col min="6" max="6" width="13.5" customWidth="1"/>
-    <col min="7" max="7" width="10.375" customWidth="1"/>
-    <col min="9" max="9" width="28.625" customWidth="1"/>
+    <col min="7" max="7" width="10.3984375" customWidth="1"/>
+    <col min="9" max="9" width="28.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B4" s="5"/>
       <c r="C4" s="6" t="s">
         <v>0</v>
@@ -2226,7 +2337,7 @@
       </c>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B5" s="13" t="s">
         <v>7</v>
       </c>
@@ -2245,13 +2356,13 @@
       <c r="G5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="102" t="s">
+      <c r="H5" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="103"/>
+      <c r="I5" s="105"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B6" s="11" t="s">
         <v>8</v>
       </c>
@@ -2270,26 +2381,26 @@
       <c r="G6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="104"/>
-      <c r="I6" s="105"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="107"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="108" t="s">
+      <c r="C7" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="109"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="105"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="107"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="11" t="s">
         <v>10</v>
       </c>
@@ -2308,11 +2419,11 @@
       <c r="G8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="104"/>
-      <c r="I8" s="105"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="107"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B9" s="11" t="s">
         <v>11</v>
       </c>
@@ -2331,11 +2442,11 @@
       <c r="G9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="104"/>
-      <c r="I9" s="105"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="107"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B10" s="11" t="s">
         <v>12</v>
       </c>
@@ -2354,11 +2465,11 @@
       <c r="G10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="104"/>
-      <c r="I10" s="105"/>
+      <c r="H10" s="106"/>
+      <c r="I10" s="107"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B11" s="11" t="s">
         <v>13</v>
       </c>
@@ -2377,11 +2488,11 @@
       <c r="G11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="104"/>
-      <c r="I11" s="105"/>
+      <c r="H11" s="106"/>
+      <c r="I11" s="107"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B12" s="11" t="s">
         <v>14</v>
       </c>
@@ -2400,11 +2511,11 @@
       <c r="G12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="104"/>
-      <c r="I12" s="105"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="107"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B13" s="12" t="s">
         <v>15</v>
       </c>
@@ -2423,11 +2534,11 @@
       <c r="G13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="106"/>
-      <c r="I13" s="107"/>
+      <c r="H13" s="108"/>
+      <c r="I13" s="109"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
         <v>18</v>
@@ -2448,7 +2559,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -2459,1051 +2570,1051 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="49" t="s">
+      <c r="C17" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
       <c r="G17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="50" t="s">
+      <c r="H17" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="I17" s="51"/>
+      <c r="I17" s="53"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B18" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="85" t="s">
+      <c r="C18" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="86"/>
-      <c r="E18" s="86"/>
-      <c r="F18" s="87"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="89"/>
       <c r="G18" s="16">
         <v>1</v>
       </c>
-      <c r="H18" s="90"/>
-      <c r="I18" s="91"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="93"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B19" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="39"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="41"/>
       <c r="G19" s="16">
         <v>1</v>
       </c>
-      <c r="H19" s="42"/>
-      <c r="I19" s="43"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="45"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B20" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="37" t="s">
+      <c r="C20" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="39"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="41"/>
       <c r="G20" s="16"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="43"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="45"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B21" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="64" t="s">
+      <c r="C21" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="39"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="41"/>
       <c r="G21" s="16">
         <v>1</v>
       </c>
-      <c r="H21" s="42"/>
-      <c r="I21" s="43"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H21" s="44"/>
+      <c r="I21" s="45"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B22" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="37" t="s">
+      <c r="C22" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="39"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="41"/>
       <c r="G22" s="16"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="43"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H22" s="44"/>
+      <c r="I22" s="45"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B23" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="39"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="41"/>
       <c r="G23" s="16"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="43"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H23" s="44"/>
+      <c r="I23" s="45"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B24" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="37" t="s">
+      <c r="C24" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="39"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="41"/>
       <c r="G24" s="16">
         <v>1</v>
       </c>
-      <c r="H24" s="42"/>
-      <c r="I24" s="43"/>
-    </row>
-    <row r="25" spans="2:10" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H24" s="44"/>
+      <c r="I24" s="45"/>
+    </row>
+    <row r="25" spans="2:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="37" t="s">
+      <c r="C25" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="39"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="41"/>
       <c r="G25" s="16">
         <v>0.8</v>
       </c>
-      <c r="H25" s="115" t="s">
+      <c r="H25" s="117" t="s">
         <v>38</v>
       </c>
-      <c r="I25" s="116"/>
-    </row>
-    <row r="26" spans="2:10" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I25" s="118"/>
+    </row>
+    <row r="26" spans="2:10" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B26" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="110" t="s">
+      <c r="C26" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="111"/>
-      <c r="E26" s="111"/>
-      <c r="F26" s="112"/>
+      <c r="D26" s="113"/>
+      <c r="E26" s="113"/>
+      <c r="F26" s="114"/>
       <c r="G26" s="17">
         <v>1</v>
       </c>
-      <c r="H26" s="113"/>
-      <c r="I26" s="114"/>
-    </row>
-    <row r="27" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H26" s="115"/>
+      <c r="I26" s="116"/>
+    </row>
+    <row r="27" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="28" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B28" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="49" t="s">
+      <c r="C28" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
       <c r="G28" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H28" s="50" t="s">
+      <c r="H28" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="I28" s="51"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I28" s="53"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B29" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="85" t="s">
+      <c r="C29" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="86"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="87"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="89"/>
       <c r="G29" s="16"/>
-      <c r="H29" s="117"/>
-      <c r="I29" s="118"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H29" s="119"/>
+      <c r="I29" s="120"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B30" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="37" t="s">
+      <c r="C30" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="39"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="41"/>
       <c r="G30" s="16"/>
-      <c r="H30" s="98"/>
-      <c r="I30" s="99"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H30" s="100"/>
+      <c r="I30" s="101"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B31" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="37" t="s">
+      <c r="C31" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="39"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="41"/>
       <c r="G31" s="16"/>
-      <c r="H31" s="98"/>
-      <c r="I31" s="99"/>
-    </row>
-    <row r="32" spans="2:10" ht="80.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H31" s="100"/>
+      <c r="I31" s="101"/>
+    </row>
+    <row r="32" spans="2:10" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="64" t="s">
+      <c r="C32" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="39"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="41"/>
       <c r="G32" s="16">
         <v>0.5</v>
       </c>
-      <c r="H32" s="128" t="s">
+      <c r="H32" s="130" t="s">
         <v>40</v>
       </c>
-      <c r="I32" s="101"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I32" s="103"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B33" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="37" t="s">
+      <c r="C33" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="39"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="41"/>
       <c r="G33" s="16">
         <v>1</v>
       </c>
-      <c r="H33" s="98"/>
-      <c r="I33" s="99"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H33" s="100"/>
+      <c r="I33" s="101"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B34" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="37" t="s">
+      <c r="C34" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="39"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="41"/>
       <c r="G34" s="16">
         <v>1</v>
       </c>
-      <c r="H34" s="98"/>
-      <c r="I34" s="99"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H34" s="100"/>
+      <c r="I34" s="101"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B35" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="37" t="s">
+      <c r="C35" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="39"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="41"/>
       <c r="G35" s="16">
         <v>1</v>
       </c>
-      <c r="H35" s="98"/>
-      <c r="I35" s="99"/>
-    </row>
-    <row r="36" spans="2:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H35" s="100"/>
+      <c r="I35" s="101"/>
+    </row>
+    <row r="36" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="37" t="s">
+      <c r="C36" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="76">
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="78">
         <v>0.5</v>
       </c>
-      <c r="H36" s="79" t="s">
+      <c r="H36" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="I36" s="129"/>
-    </row>
-    <row r="37" spans="2:10" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I36" s="131"/>
+    </row>
+    <row r="37" spans="2:10" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B37" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="110" t="s">
+      <c r="C37" s="112" t="s">
         <v>36</v>
       </c>
-      <c r="D37" s="111"/>
-      <c r="E37" s="111"/>
-      <c r="F37" s="112"/>
-      <c r="G37" s="78"/>
-      <c r="H37" s="130"/>
-      <c r="I37" s="131"/>
-    </row>
-    <row r="38" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="39" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D37" s="113"/>
+      <c r="E37" s="113"/>
+      <c r="F37" s="114"/>
+      <c r="G37" s="80"/>
+      <c r="H37" s="132"/>
+      <c r="I37" s="133"/>
+    </row>
+    <row r="38" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="39" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B39" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C39" s="49" t="s">
+      <c r="C39" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="50"/>
-      <c r="E39" s="50"/>
-      <c r="F39" s="50"/>
+      <c r="D39" s="52"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="52"/>
       <c r="G39" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="H39" s="50" t="s">
+      <c r="H39" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="I39" s="51"/>
-    </row>
-    <row r="40" spans="2:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I39" s="53"/>
+    </row>
+    <row r="40" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="119" t="s">
+      <c r="C40" s="121" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="47"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="120"/>
-      <c r="G40" s="58">
+      <c r="D40" s="49"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="122"/>
+      <c r="G40" s="60">
         <v>0.3</v>
       </c>
-      <c r="H40" s="124" t="s">
+      <c r="H40" s="126" t="s">
         <v>46</v>
       </c>
-      <c r="I40" s="125"/>
-    </row>
-    <row r="41" spans="2:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I40" s="127"/>
+    </row>
+    <row r="41" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C41" s="121"/>
-      <c r="D41" s="122"/>
-      <c r="E41" s="122"/>
-      <c r="F41" s="123"/>
-      <c r="G41" s="59"/>
-      <c r="H41" s="126"/>
-      <c r="I41" s="127"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C41" s="123"/>
+      <c r="D41" s="124"/>
+      <c r="E41" s="124"/>
+      <c r="F41" s="125"/>
+      <c r="G41" s="61"/>
+      <c r="H41" s="128"/>
+      <c r="I41" s="129"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B42" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="37" t="s">
+      <c r="C42" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="D42" s="38"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="39"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="41"/>
       <c r="G42" s="16"/>
-      <c r="H42" s="100"/>
-      <c r="I42" s="101"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H42" s="102"/>
+      <c r="I42" s="103"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B43" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="64" t="s">
+      <c r="C43" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="D43" s="38"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="39"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="41"/>
       <c r="G43" s="20">
         <v>1</v>
       </c>
-      <c r="H43" s="100"/>
-      <c r="I43" s="101"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H43" s="102"/>
+      <c r="I43" s="103"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B44" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C44" s="64" t="s">
+      <c r="C44" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="39"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="41"/>
       <c r="G44" s="20">
         <v>1</v>
       </c>
-      <c r="H44" s="100"/>
-      <c r="I44" s="101"/>
-    </row>
-    <row r="45" spans="2:10" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H44" s="102"/>
+      <c r="I44" s="103"/>
+    </row>
+    <row r="45" spans="2:10" ht="36.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C45" s="92" t="s">
+      <c r="C45" s="94" t="s">
         <v>47</v>
       </c>
-      <c r="D45" s="93"/>
-      <c r="E45" s="93"/>
-      <c r="F45" s="93"/>
+      <c r="D45" s="95"/>
+      <c r="E45" s="95"/>
+      <c r="F45" s="95"/>
       <c r="G45" s="22"/>
-      <c r="H45" s="94"/>
-      <c r="I45" s="95"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H45" s="96"/>
+      <c r="I45" s="97"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B46" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C46" s="96" t="s">
+      <c r="C46" s="98" t="s">
         <v>51</v>
       </c>
-      <c r="D46" s="97"/>
-      <c r="E46" s="97"/>
-      <c r="F46" s="97"/>
+      <c r="D46" s="99"/>
+      <c r="E46" s="99"/>
+      <c r="F46" s="99"/>
       <c r="G46" s="22">
         <v>1</v>
       </c>
-      <c r="H46" s="98"/>
-      <c r="I46" s="99"/>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H46" s="100"/>
+      <c r="I46" s="101"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B47" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="37" t="s">
+      <c r="C47" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="D47" s="38"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="39"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="41"/>
       <c r="G47" s="21">
         <v>1</v>
       </c>
-      <c r="H47" s="128"/>
-      <c r="I47" s="141"/>
-    </row>
-    <row r="48" spans="2:10" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H47" s="130"/>
+      <c r="I47" s="143"/>
+    </row>
+    <row r="48" spans="2:10" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="110" t="s">
+      <c r="C48" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="D48" s="111"/>
-      <c r="E48" s="111"/>
-      <c r="F48" s="112"/>
+      <c r="D48" s="113"/>
+      <c r="E48" s="113"/>
+      <c r="F48" s="114"/>
       <c r="G48" s="17">
         <v>0.8</v>
       </c>
-      <c r="H48" s="139" t="s">
+      <c r="H48" s="141" t="s">
         <v>50</v>
       </c>
-      <c r="I48" s="142"/>
+      <c r="I48" s="144"/>
       <c r="J48" s="25" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="50" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="50" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B50" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C50" s="49" t="s">
+      <c r="C50" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="D50" s="50"/>
-      <c r="E50" s="50"/>
-      <c r="F50" s="50"/>
+      <c r="D50" s="52"/>
+      <c r="E50" s="52"/>
+      <c r="F50" s="52"/>
       <c r="G50" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H50" s="50" t="s">
+      <c r="H50" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="I50" s="51"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I50" s="53"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B51" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C51" s="85" t="s">
+      <c r="C51" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="D51" s="86"/>
-      <c r="E51" s="86"/>
-      <c r="F51" s="87"/>
+      <c r="D51" s="88"/>
+      <c r="E51" s="88"/>
+      <c r="F51" s="89"/>
       <c r="G51" s="20">
         <v>1</v>
       </c>
-      <c r="H51" s="90"/>
-      <c r="I51" s="91"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H51" s="92"/>
+      <c r="I51" s="93"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B52" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C52" s="37" t="s">
+      <c r="C52" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="D52" s="38"/>
-      <c r="E52" s="38"/>
-      <c r="F52" s="39"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="41"/>
       <c r="G52" s="20">
         <v>1</v>
       </c>
-      <c r="H52" s="42"/>
-      <c r="I52" s="43"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H52" s="44"/>
+      <c r="I52" s="45"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B53" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C53" s="37" t="s">
+      <c r="C53" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="D53" s="38"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="39"/>
+      <c r="D53" s="40"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="41"/>
       <c r="G53" s="20"/>
-      <c r="H53" s="42"/>
-      <c r="I53" s="43"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H53" s="44"/>
+      <c r="I53" s="45"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B54" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C54" s="64" t="s">
+      <c r="C54" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="D54" s="65"/>
-      <c r="E54" s="65"/>
-      <c r="F54" s="66"/>
+      <c r="D54" s="67"/>
+      <c r="E54" s="67"/>
+      <c r="F54" s="68"/>
       <c r="G54" s="20">
         <v>1</v>
       </c>
-      <c r="H54" s="42"/>
-      <c r="I54" s="43"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H54" s="44"/>
+      <c r="I54" s="45"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B55" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C55" s="37" t="s">
+      <c r="C55" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="D55" s="38"/>
-      <c r="E55" s="38"/>
-      <c r="F55" s="39"/>
+      <c r="D55" s="40"/>
+      <c r="E55" s="40"/>
+      <c r="F55" s="41"/>
       <c r="G55" s="20">
         <v>1</v>
       </c>
-      <c r="H55" s="42"/>
-      <c r="I55" s="43"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H55" s="44"/>
+      <c r="I55" s="45"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B56" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C56" s="64" t="s">
+      <c r="C56" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="D56" s="65"/>
-      <c r="E56" s="65"/>
-      <c r="F56" s="66"/>
+      <c r="D56" s="67"/>
+      <c r="E56" s="67"/>
+      <c r="F56" s="68"/>
       <c r="G56" s="20">
         <v>1</v>
       </c>
-      <c r="H56" s="42"/>
-      <c r="I56" s="43"/>
-    </row>
-    <row r="57" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H56" s="44"/>
+      <c r="I56" s="45"/>
+    </row>
+    <row r="57" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C57" s="67" t="s">
+      <c r="C57" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="D57" s="68"/>
-      <c r="E57" s="68"/>
-      <c r="F57" s="69"/>
-      <c r="G57" s="76">
+      <c r="D57" s="70"/>
+      <c r="E57" s="70"/>
+      <c r="F57" s="71"/>
+      <c r="G57" s="78">
         <v>0.3</v>
       </c>
-      <c r="H57" s="79" t="s">
+      <c r="H57" s="81" t="s">
         <v>60</v>
       </c>
-      <c r="I57" s="80"/>
-    </row>
-    <row r="58" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I57" s="82"/>
+    </row>
+    <row r="58" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C58" s="70"/>
-      <c r="D58" s="71"/>
-      <c r="E58" s="71"/>
-      <c r="F58" s="72"/>
-      <c r="G58" s="77"/>
-      <c r="H58" s="81"/>
-      <c r="I58" s="82"/>
-    </row>
-    <row r="59" spans="2:9" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C58" s="72"/>
+      <c r="D58" s="73"/>
+      <c r="E58" s="73"/>
+      <c r="F58" s="74"/>
+      <c r="G58" s="79"/>
+      <c r="H58" s="83"/>
+      <c r="I58" s="84"/>
+    </row>
+    <row r="59" spans="2:9" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B59" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C59" s="73"/>
-      <c r="D59" s="74"/>
-      <c r="E59" s="74"/>
-      <c r="F59" s="75"/>
-      <c r="G59" s="78"/>
-      <c r="H59" s="83"/>
-      <c r="I59" s="84"/>
-    </row>
-    <row r="60" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="61" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C59" s="75"/>
+      <c r="D59" s="76"/>
+      <c r="E59" s="76"/>
+      <c r="F59" s="77"/>
+      <c r="G59" s="80"/>
+      <c r="H59" s="85"/>
+      <c r="I59" s="86"/>
+    </row>
+    <row r="60" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="61" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B61" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C61" s="49" t="s">
+      <c r="C61" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="D61" s="50"/>
-      <c r="E61" s="50"/>
-      <c r="F61" s="50"/>
+      <c r="D61" s="52"/>
+      <c r="E61" s="52"/>
+      <c r="F61" s="52"/>
       <c r="G61" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="H61" s="50" t="s">
+      <c r="H61" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="I61" s="51"/>
-    </row>
-    <row r="62" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I61" s="53"/>
+    </row>
+    <row r="62" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B62" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C62" s="52" t="s">
+      <c r="C62" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="D62" s="53"/>
-      <c r="E62" s="53"/>
-      <c r="F62" s="54"/>
-      <c r="G62" s="58">
+      <c r="D62" s="55"/>
+      <c r="E62" s="55"/>
+      <c r="F62" s="56"/>
+      <c r="G62" s="60">
         <v>0.3</v>
       </c>
-      <c r="H62" s="60" t="s">
+      <c r="H62" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="I62" s="61"/>
-    </row>
-    <row r="63" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I62" s="63"/>
+    </row>
+    <row r="63" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B63" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C63" s="55"/>
-      <c r="D63" s="56"/>
-      <c r="E63" s="56"/>
-      <c r="F63" s="57"/>
-      <c r="G63" s="59"/>
-      <c r="H63" s="62"/>
-      <c r="I63" s="63"/>
-    </row>
-    <row r="64" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C63" s="57"/>
+      <c r="D63" s="58"/>
+      <c r="E63" s="58"/>
+      <c r="F63" s="59"/>
+      <c r="G63" s="61"/>
+      <c r="H63" s="64"/>
+      <c r="I63" s="65"/>
+    </row>
+    <row r="64" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B64" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C64" s="37" t="s">
+      <c r="C64" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="D64" s="38"/>
-      <c r="E64" s="38"/>
-      <c r="F64" s="39"/>
+      <c r="D64" s="40"/>
+      <c r="E64" s="40"/>
+      <c r="F64" s="41"/>
       <c r="G64" s="24"/>
-      <c r="H64" s="44"/>
-      <c r="I64" s="45"/>
-    </row>
-    <row r="65" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H64" s="46"/>
+      <c r="I64" s="47"/>
+    </row>
+    <row r="65" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B65" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C65" s="67" t="s">
+      <c r="C65" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="D65" s="68"/>
-      <c r="E65" s="68"/>
-      <c r="F65" s="69"/>
-      <c r="G65" s="76">
+      <c r="D65" s="70"/>
+      <c r="E65" s="70"/>
+      <c r="F65" s="71"/>
+      <c r="G65" s="78">
         <v>1</v>
       </c>
-      <c r="H65" s="133" t="s">
+      <c r="H65" s="135" t="s">
         <v>68</v>
       </c>
-      <c r="I65" s="134"/>
-      <c r="L65" s="64" t="s">
+      <c r="I65" s="136"/>
+      <c r="L65" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="M65" s="38"/>
-      <c r="N65" s="38"/>
-      <c r="O65" s="39"/>
-    </row>
-    <row r="66" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M65" s="40"/>
+      <c r="N65" s="40"/>
+      <c r="O65" s="41"/>
+    </row>
+    <row r="66" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B66" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C66" s="70"/>
-      <c r="D66" s="71"/>
-      <c r="E66" s="71"/>
-      <c r="F66" s="72"/>
-      <c r="G66" s="77"/>
-      <c r="H66" s="135"/>
-      <c r="I66" s="136"/>
-      <c r="L66" s="37" t="s">
+      <c r="C66" s="72"/>
+      <c r="D66" s="73"/>
+      <c r="E66" s="73"/>
+      <c r="F66" s="74"/>
+      <c r="G66" s="79"/>
+      <c r="H66" s="137"/>
+      <c r="I66" s="138"/>
+      <c r="L66" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="M66" s="38"/>
-      <c r="N66" s="38"/>
-      <c r="O66" s="39"/>
-    </row>
-    <row r="67" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M66" s="40"/>
+      <c r="N66" s="40"/>
+      <c r="O66" s="41"/>
+    </row>
+    <row r="67" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B67" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C67" s="70"/>
-      <c r="D67" s="71"/>
-      <c r="E67" s="71"/>
-      <c r="F67" s="72"/>
-      <c r="G67" s="77"/>
-      <c r="H67" s="135"/>
-      <c r="I67" s="136"/>
-      <c r="L67" s="37" t="s">
+      <c r="C67" s="72"/>
+      <c r="D67" s="73"/>
+      <c r="E67" s="73"/>
+      <c r="F67" s="74"/>
+      <c r="G67" s="79"/>
+      <c r="H67" s="137"/>
+      <c r="I67" s="138"/>
+      <c r="L67" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="M67" s="38"/>
-      <c r="N67" s="38"/>
-      <c r="O67" s="39"/>
-    </row>
-    <row r="68" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M67" s="40"/>
+      <c r="N67" s="40"/>
+      <c r="O67" s="41"/>
+    </row>
+    <row r="68" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B68" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C68" s="70"/>
-      <c r="D68" s="71"/>
-      <c r="E68" s="71"/>
-      <c r="F68" s="72"/>
-      <c r="G68" s="77"/>
-      <c r="H68" s="135"/>
-      <c r="I68" s="136"/>
-      <c r="L68" s="37" t="s">
+      <c r="C68" s="72"/>
+      <c r="D68" s="73"/>
+      <c r="E68" s="73"/>
+      <c r="F68" s="74"/>
+      <c r="G68" s="79"/>
+      <c r="H68" s="137"/>
+      <c r="I68" s="138"/>
+      <c r="L68" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="M68" s="38"/>
-      <c r="N68" s="38"/>
-      <c r="O68" s="39"/>
-    </row>
-    <row r="69" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M68" s="40"/>
+      <c r="N68" s="40"/>
+      <c r="O68" s="41"/>
+    </row>
+    <row r="69" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B69" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C69" s="55"/>
-      <c r="D69" s="56"/>
-      <c r="E69" s="56"/>
-      <c r="F69" s="57"/>
-      <c r="G69" s="59"/>
-      <c r="H69" s="137"/>
-      <c r="I69" s="138"/>
-      <c r="L69" s="37" t="s">
+      <c r="C69" s="57"/>
+      <c r="D69" s="58"/>
+      <c r="E69" s="58"/>
+      <c r="F69" s="59"/>
+      <c r="G69" s="61"/>
+      <c r="H69" s="139"/>
+      <c r="I69" s="140"/>
+      <c r="L69" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="M69" s="38"/>
-      <c r="N69" s="38"/>
-      <c r="O69" s="39"/>
-    </row>
-    <row r="70" spans="2:15" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M69" s="40"/>
+      <c r="N69" s="40"/>
+      <c r="O69" s="41"/>
+    </row>
+    <row r="70" spans="2:15" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B70" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C70" s="110" t="s">
+      <c r="C70" s="112" t="s">
         <v>69</v>
       </c>
-      <c r="D70" s="111"/>
-      <c r="E70" s="111"/>
-      <c r="F70" s="112"/>
+      <c r="D70" s="113"/>
+      <c r="E70" s="113"/>
+      <c r="F70" s="114"/>
       <c r="G70" s="17">
         <v>0.5</v>
       </c>
-      <c r="H70" s="139" t="s">
+      <c r="H70" s="141" t="s">
         <v>70</v>
       </c>
-      <c r="I70" s="140"/>
-      <c r="L70" s="110" t="s">
+      <c r="I70" s="142"/>
+      <c r="L70" s="112" t="s">
         <v>64</v>
       </c>
-      <c r="M70" s="111"/>
-      <c r="N70" s="111"/>
-      <c r="O70" s="112"/>
-    </row>
-    <row r="71" spans="2:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M70" s="113"/>
+      <c r="N70" s="113"/>
+      <c r="O70" s="114"/>
+    </row>
+    <row r="71" spans="2:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B71" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="C71" s="46" t="s">
+      <c r="C71" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="D71" s="47"/>
-      <c r="E71" s="47"/>
-      <c r="F71" s="47"/>
-      <c r="H71" s="48" t="s">
+      <c r="D71" s="49"/>
+      <c r="E71" s="49"/>
+      <c r="F71" s="49"/>
+      <c r="H71" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="I71" s="48"/>
+      <c r="I71" s="50"/>
       <c r="J71" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="73" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="74" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="74" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B74" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C74" s="49" t="s">
+      <c r="C74" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="D74" s="50"/>
-      <c r="E74" s="50"/>
-      <c r="F74" s="50"/>
+      <c r="D74" s="52"/>
+      <c r="E74" s="52"/>
+      <c r="F74" s="52"/>
       <c r="G74" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="H74" s="50" t="s">
+      <c r="H74" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="I74" s="51"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="I74" s="53"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B75" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C75" s="85" t="s">
+      <c r="C75" s="87" t="s">
         <v>77</v>
       </c>
-      <c r="D75" s="86"/>
-      <c r="E75" s="86"/>
-      <c r="F75" s="87"/>
+      <c r="D75" s="88"/>
+      <c r="E75" s="88"/>
+      <c r="F75" s="89"/>
       <c r="G75" s="27">
         <v>0</v>
       </c>
-      <c r="H75" s="88" t="s">
+      <c r="H75" s="90" t="s">
         <v>83</v>
       </c>
-      <c r="I75" s="89"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="I75" s="91"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B76" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C76" s="37" t="s">
+      <c r="C76" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="D76" s="38"/>
-      <c r="E76" s="38"/>
-      <c r="F76" s="39"/>
+      <c r="D76" s="40"/>
+      <c r="E76" s="40"/>
+      <c r="F76" s="41"/>
       <c r="G76" s="27">
         <v>0</v>
       </c>
-      <c r="H76" s="40" t="s">
+      <c r="H76" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="I76" s="41"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="I76" s="43"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B77" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C77" s="37" t="s">
+      <c r="C77" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="D77" s="38"/>
-      <c r="E77" s="38"/>
-      <c r="F77" s="39"/>
+      <c r="D77" s="40"/>
+      <c r="E77" s="40"/>
+      <c r="F77" s="41"/>
       <c r="G77" s="27"/>
-      <c r="H77" s="42"/>
-      <c r="I77" s="43"/>
-    </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="H77" s="44"/>
+      <c r="I77" s="45"/>
+    </row>
+    <row r="78" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B78" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C78" s="64" t="s">
+      <c r="C78" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="D78" s="38"/>
-      <c r="E78" s="38"/>
-      <c r="F78" s="39"/>
+      <c r="D78" s="40"/>
+      <c r="E78" s="40"/>
+      <c r="F78" s="41"/>
       <c r="G78" s="27">
         <v>1</v>
       </c>
-      <c r="H78" s="42"/>
-      <c r="I78" s="43"/>
-      <c r="L78" s="37" t="s">
+      <c r="H78" s="44"/>
+      <c r="I78" s="45"/>
+      <c r="L78" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="M78" s="38"/>
-      <c r="N78" s="38"/>
-      <c r="O78" s="39"/>
-    </row>
-    <row r="79" spans="2:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M78" s="40"/>
+      <c r="N78" s="40"/>
+      <c r="O78" s="41"/>
+    </row>
+    <row r="79" spans="2:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C79" s="67" t="s">
+      <c r="C79" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="D79" s="68"/>
-      <c r="E79" s="68"/>
-      <c r="F79" s="69"/>
-      <c r="G79" s="76">
+      <c r="D79" s="70"/>
+      <c r="E79" s="70"/>
+      <c r="F79" s="71"/>
+      <c r="G79" s="78">
         <v>1</v>
       </c>
-      <c r="H79" s="144"/>
-      <c r="I79" s="145"/>
-      <c r="L79" s="37" t="s">
+      <c r="H79" s="146"/>
+      <c r="I79" s="147"/>
+      <c r="L79" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="M79" s="38"/>
-      <c r="N79" s="38"/>
-      <c r="O79" s="39"/>
-    </row>
-    <row r="80" spans="2:15" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M79" s="40"/>
+      <c r="N79" s="40"/>
+      <c r="O79" s="41"/>
+    </row>
+    <row r="80" spans="2:15" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B80" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C80" s="55"/>
-      <c r="D80" s="56"/>
-      <c r="E80" s="56"/>
-      <c r="F80" s="57"/>
-      <c r="G80" s="59"/>
-      <c r="H80" s="146"/>
-      <c r="I80" s="147"/>
-      <c r="L80" s="110" t="s">
+      <c r="C80" s="57"/>
+      <c r="D80" s="58"/>
+      <c r="E80" s="58"/>
+      <c r="F80" s="59"/>
+      <c r="G80" s="61"/>
+      <c r="H80" s="148"/>
+      <c r="I80" s="149"/>
+      <c r="L80" s="112" t="s">
         <v>82</v>
       </c>
-      <c r="M80" s="111"/>
-      <c r="N80" s="111"/>
-      <c r="O80" s="112"/>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M80" s="113"/>
+      <c r="N80" s="113"/>
+      <c r="O80" s="114"/>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B81" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C81" s="148" t="s">
+      <c r="C81" s="150" t="s">
         <v>65</v>
       </c>
-      <c r="D81" s="149"/>
-      <c r="E81" s="149"/>
-      <c r="F81" s="150"/>
-      <c r="G81" s="76">
+      <c r="D81" s="151"/>
+      <c r="E81" s="151"/>
+      <c r="F81" s="152"/>
+      <c r="G81" s="78">
         <v>0.7</v>
       </c>
-      <c r="H81" s="79" t="s">
+      <c r="H81" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="I81" s="80"/>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I81" s="82"/>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B82" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C82" s="151"/>
-      <c r="D82" s="152"/>
-      <c r="E82" s="152"/>
-      <c r="F82" s="153"/>
-      <c r="G82" s="77"/>
-      <c r="H82" s="81"/>
-      <c r="I82" s="82"/>
-    </row>
-    <row r="83" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C82" s="153"/>
+      <c r="D82" s="154"/>
+      <c r="E82" s="154"/>
+      <c r="F82" s="155"/>
+      <c r="G82" s="79"/>
+      <c r="H82" s="83"/>
+      <c r="I82" s="84"/>
+    </row>
+    <row r="83" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C83" s="154"/>
-      <c r="D83" s="155"/>
-      <c r="E83" s="155"/>
-      <c r="F83" s="156"/>
-      <c r="G83" s="78"/>
-      <c r="H83" s="83"/>
-      <c r="I83" s="84"/>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C83" s="156"/>
+      <c r="D83" s="157"/>
+      <c r="E83" s="157"/>
+      <c r="F83" s="158"/>
+      <c r="G83" s="80"/>
+      <c r="H83" s="85"/>
+      <c r="I83" s="86"/>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C84" s="143" t="s">
+      <c r="C84" s="145" t="s">
         <v>87</v>
       </c>
-      <c r="D84" s="143"/>
-      <c r="E84" s="143"/>
-      <c r="F84" s="143"/>
+      <c r="D84" s="145"/>
+      <c r="E84" s="145"/>
+      <c r="F84" s="145"/>
       <c r="G84" s="1"/>
-      <c r="H84" s="143" t="s">
+      <c r="H84" s="145" t="s">
         <v>88</v>
       </c>
-      <c r="I84" s="143"/>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I84" s="145"/>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B85" s="31"/>
-      <c r="C85" s="132" t="s">
+      <c r="C85" s="134" t="s">
         <v>89</v>
       </c>
-      <c r="D85" s="132"/>
-      <c r="E85" s="132"/>
-      <c r="F85" s="132"/>
-      <c r="H85" s="132" t="s">
+      <c r="D85" s="134"/>
+      <c r="E85" s="134"/>
+      <c r="F85" s="134"/>
+      <c r="H85" s="134" t="s">
         <v>88</v>
       </c>
-      <c r="I85" s="132"/>
-    </row>
-    <row r="95" spans="2:9" ht="54" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="I85" s="134"/>
+    </row>
+    <row r="95" spans="2:9" ht="54" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="121">
     <mergeCell ref="C84:F84"/>
@@ -3636,478 +3747,661 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{813EEE76-69D4-4EE1-98FD-50720CEB1426}">
-  <dimension ref="B2:I34"/>
+  <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26:G27"/>
+      <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.625" customWidth="1"/>
-    <col min="6" max="6" width="21.25" customWidth="1"/>
-    <col min="9" max="9" width="28.75" customWidth="1"/>
+    <col min="2" max="2" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.59765625" customWidth="1"/>
+    <col min="6" max="6" width="21.19921875" customWidth="1"/>
+    <col min="9" max="9" width="29.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
       <c r="G3" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="50" t="s">
+      <c r="H3" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="51"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I3" s="53"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="85" t="s">
+      <c r="C4" s="87" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="87"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="89"/>
       <c r="G4" s="30">
         <v>1</v>
       </c>
-      <c r="H4" s="90"/>
-      <c r="I4" s="91"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H4" s="92"/>
+      <c r="I4" s="93"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="39"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="41"/>
       <c r="G5" s="30">
         <v>1</v>
       </c>
-      <c r="H5" s="42"/>
-      <c r="I5" s="43"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H5" s="44"/>
+      <c r="I5" s="45"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="39"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="41"/>
       <c r="G6" s="30"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="43"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H6" s="44"/>
+      <c r="I6" s="45"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="64" t="s">
+      <c r="C7" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="66"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="68"/>
       <c r="G7" s="30">
         <v>1</v>
       </c>
-      <c r="H7" s="42"/>
-      <c r="I7" s="43"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H7" s="44"/>
+      <c r="I7" s="45"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="39"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="41"/>
       <c r="G8" s="30"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="43"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H8" s="44"/>
+      <c r="I8" s="45"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="64" t="s">
+      <c r="C9" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="66"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="68"/>
       <c r="G9" s="30"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="43"/>
-    </row>
-    <row r="10" spans="2:9" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H9" s="44"/>
+      <c r="I9" s="45"/>
+    </row>
+    <row r="10" spans="2:9" ht="54" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="64" t="s">
+      <c r="C10" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="66"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="68"/>
       <c r="G10" s="22">
         <v>0.8</v>
       </c>
-      <c r="H10" s="159" t="s">
+      <c r="H10" s="161" t="s">
         <v>98</v>
       </c>
-      <c r="I10" s="160"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I10" s="162"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="64" t="s">
+      <c r="C11" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="66"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="68"/>
       <c r="G11" s="22">
         <v>1</v>
       </c>
-      <c r="H11" s="161"/>
-      <c r="I11" s="162"/>
-    </row>
-    <row r="12" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H11" s="163"/>
+      <c r="I11" s="164"/>
+    </row>
+    <row r="12" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="110" t="s">
+      <c r="C12" s="112" t="s">
         <v>97</v>
       </c>
-      <c r="D12" s="157"/>
-      <c r="E12" s="157"/>
-      <c r="F12" s="158"/>
+      <c r="D12" s="159"/>
+      <c r="E12" s="159"/>
+      <c r="F12" s="160"/>
       <c r="G12" s="17">
         <v>1</v>
       </c>
-      <c r="H12" s="163"/>
-      <c r="I12" s="164"/>
-    </row>
-    <row r="13" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H12" s="165"/>
+      <c r="I12" s="166"/>
+    </row>
+    <row r="13" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C13" s="32"/>
       <c r="D13" s="32"/>
       <c r="E13" s="32"/>
       <c r="F13" s="32"/>
     </row>
-    <row r="14" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B14" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="49" t="s">
+      <c r="C14" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
       <c r="G14" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="50" t="s">
+      <c r="H14" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="51"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I14" s="53"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B15" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="85" t="s">
+      <c r="C15" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="86"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="87"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="89"/>
       <c r="G15" s="34"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="91"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H15" s="92"/>
+      <c r="I15" s="93"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B16" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="39"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="41"/>
       <c r="G16" s="34"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="43"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H16" s="44"/>
+      <c r="I16" s="45"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B17" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="39"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="41"/>
       <c r="G17" s="34"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="43"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H17" s="44"/>
+      <c r="I17" s="45"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B18" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="165" t="s">
+      <c r="C18" s="167" t="s">
         <v>100</v>
       </c>
-      <c r="D18" s="166"/>
-      <c r="E18" s="166"/>
-      <c r="F18" s="167"/>
-      <c r="G18" s="76">
+      <c r="D18" s="168"/>
+      <c r="E18" s="168"/>
+      <c r="F18" s="169"/>
+      <c r="G18" s="78">
         <v>1</v>
       </c>
-      <c r="H18" s="144"/>
-      <c r="I18" s="145"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H18" s="146"/>
+      <c r="I18" s="147"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B19" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="168"/>
-      <c r="D19" s="169"/>
-      <c r="E19" s="169"/>
-      <c r="F19" s="170"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="171"/>
-      <c r="I19" s="172"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C19" s="170"/>
+      <c r="D19" s="171"/>
+      <c r="E19" s="171"/>
+      <c r="F19" s="172"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="173"/>
+      <c r="I19" s="174"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B20" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="168"/>
-      <c r="D20" s="169"/>
-      <c r="E20" s="169"/>
-      <c r="F20" s="170"/>
-      <c r="G20" s="77"/>
-      <c r="H20" s="171"/>
-      <c r="I20" s="172"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C20" s="170"/>
+      <c r="D20" s="171"/>
+      <c r="E20" s="171"/>
+      <c r="F20" s="172"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="173"/>
+      <c r="I20" s="174"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B21" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="121"/>
-      <c r="D21" s="122"/>
-      <c r="E21" s="122"/>
-      <c r="F21" s="123"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="146"/>
-      <c r="I21" s="147"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C21" s="123"/>
+      <c r="D21" s="124"/>
+      <c r="E21" s="124"/>
+      <c r="F21" s="125"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="148"/>
+      <c r="I21" s="149"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B22" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="37" t="s">
+      <c r="C22" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="39"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="41"/>
       <c r="G22" s="34">
         <v>1</v>
       </c>
-      <c r="H22" s="115"/>
-      <c r="I22" s="116"/>
-    </row>
-    <row r="23" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H22" s="117"/>
+      <c r="I22" s="118"/>
+    </row>
+    <row r="23" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="110" t="s">
+      <c r="C23" s="112" t="s">
         <v>102</v>
       </c>
-      <c r="D23" s="111"/>
-      <c r="E23" s="111"/>
-      <c r="F23" s="112"/>
+      <c r="D23" s="113"/>
+      <c r="E23" s="113"/>
+      <c r="F23" s="114"/>
       <c r="G23" s="17">
         <v>1</v>
       </c>
-      <c r="H23" s="113"/>
-      <c r="I23" s="114"/>
-    </row>
-    <row r="24" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="25" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H23" s="115"/>
+      <c r="I23" s="116"/>
+    </row>
+    <row r="24" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="25" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B25" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="C25" s="49" t="s">
+      <c r="C25" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
       <c r="G25" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="H25" s="50" t="s">
+      <c r="H25" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="I25" s="51"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I25" s="53"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B26" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="173" t="s">
+      <c r="C26" s="186" t="s">
         <v>104</v>
       </c>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="120"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="174"/>
-      <c r="I26" s="175"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D26" s="187"/>
+      <c r="E26" s="187"/>
+      <c r="F26" s="188"/>
+      <c r="G26" s="60">
+        <v>0.8</v>
+      </c>
+      <c r="H26" s="126" t="s">
+        <v>113</v>
+      </c>
+      <c r="I26" s="204"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B27" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="121"/>
-      <c r="D27" s="122"/>
-      <c r="E27" s="122"/>
-      <c r="F27" s="123"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="146"/>
-      <c r="I27" s="147"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C27" s="189"/>
+      <c r="D27" s="190"/>
+      <c r="E27" s="190"/>
+      <c r="F27" s="191"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="205"/>
+      <c r="I27" s="206"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B28" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="37" t="s">
+      <c r="C28" s="192" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="36"/>
+      <c r="D28" s="193"/>
+      <c r="E28" s="193"/>
+      <c r="F28" s="194"/>
+      <c r="G28" s="37"/>
       <c r="H28" s="42"/>
       <c r="I28" s="43"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="64" t="s">
-        <v>105</v>
-      </c>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="43"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C29" s="195" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29" s="196"/>
+      <c r="E29" s="196"/>
+      <c r="F29" s="196"/>
+      <c r="G29" s="22">
+        <v>1</v>
+      </c>
+      <c r="H29" s="99"/>
+      <c r="I29" s="201"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B30" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="165" t="s">
-        <v>106</v>
-      </c>
-      <c r="D30" s="166"/>
-      <c r="E30" s="166"/>
-      <c r="F30" s="167"/>
-      <c r="G30" s="76"/>
-      <c r="H30" s="144"/>
-      <c r="I30" s="145"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C30" s="197" t="s">
+        <v>105</v>
+      </c>
+      <c r="D30" s="198"/>
+      <c r="E30" s="198"/>
+      <c r="F30" s="198"/>
+      <c r="G30" s="22">
+        <v>1</v>
+      </c>
+      <c r="H30" s="99"/>
+      <c r="I30" s="201"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B31" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="121"/>
-      <c r="D31" s="122"/>
-      <c r="E31" s="122"/>
-      <c r="F31" s="123"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="146"/>
-      <c r="I31" s="147"/>
-    </row>
-    <row r="32" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="197" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" s="198"/>
+      <c r="E31" s="198"/>
+      <c r="F31" s="198"/>
+      <c r="G31" s="184">
+        <v>1</v>
+      </c>
+      <c r="H31" s="99"/>
+      <c r="I31" s="201"/>
+    </row>
+    <row r="32" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="176" t="s">
-        <v>107</v>
-      </c>
-      <c r="D32" s="177"/>
-      <c r="E32" s="177"/>
-      <c r="F32" s="178"/>
-      <c r="G32" s="76"/>
-      <c r="H32" s="185"/>
-      <c r="I32" s="186"/>
-    </row>
-    <row r="33" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="197"/>
+      <c r="D32" s="198"/>
+      <c r="E32" s="198"/>
+      <c r="F32" s="198"/>
+      <c r="G32" s="184"/>
+      <c r="H32" s="99"/>
+      <c r="I32" s="201"/>
+    </row>
+    <row r="33" spans="2:9" ht="25.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="179"/>
-      <c r="D33" s="180"/>
-      <c r="E33" s="180"/>
-      <c r="F33" s="181"/>
-      <c r="G33" s="77"/>
-      <c r="H33" s="187"/>
-      <c r="I33" s="188"/>
-    </row>
-    <row r="34" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C33" s="195" t="s">
+        <v>107</v>
+      </c>
+      <c r="D33" s="196"/>
+      <c r="E33" s="196"/>
+      <c r="F33" s="196"/>
+      <c r="G33" s="184">
+        <v>0.5</v>
+      </c>
+      <c r="H33" s="161" t="s">
+        <v>110</v>
+      </c>
+      <c r="I33" s="162"/>
+    </row>
+    <row r="34" spans="2:9" ht="25.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B34" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="182"/>
-      <c r="D34" s="183"/>
-      <c r="E34" s="183"/>
-      <c r="F34" s="184"/>
-      <c r="G34" s="78"/>
-      <c r="H34" s="189"/>
-      <c r="I34" s="190"/>
+      <c r="C34" s="199"/>
+      <c r="D34" s="200"/>
+      <c r="E34" s="200"/>
+      <c r="F34" s="200"/>
+      <c r="G34" s="185"/>
+      <c r="H34" s="202"/>
+      <c r="I34" s="203"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B35" s="28"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="145"/>
+      <c r="I35" s="145"/>
+    </row>
+    <row r="36" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="37" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" s="52"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="H37" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="I37" s="53"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B38" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="175" t="s">
+        <v>109</v>
+      </c>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="122"/>
+      <c r="G38" s="60"/>
+      <c r="H38" s="176"/>
+      <c r="I38" s="177"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B39" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="123"/>
+      <c r="D39" s="124"/>
+      <c r="E39" s="124"/>
+      <c r="F39" s="125"/>
+      <c r="G39" s="61"/>
+      <c r="H39" s="148"/>
+      <c r="I39" s="149"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B40" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="45"/>
+    </row>
+    <row r="41" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B41" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="178" t="s">
+        <v>109</v>
+      </c>
+      <c r="D41" s="179"/>
+      <c r="E41" s="179"/>
+      <c r="F41" s="180"/>
+      <c r="G41" s="78"/>
+      <c r="H41" s="146"/>
+      <c r="I41" s="147"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B42" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="207"/>
+      <c r="D42" s="208"/>
+      <c r="E42" s="208"/>
+      <c r="F42" s="209"/>
+      <c r="G42" s="61"/>
+      <c r="H42" s="148"/>
+      <c r="I42" s="149"/>
+    </row>
+    <row r="43" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B43" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="178" t="s">
+        <v>111</v>
+      </c>
+      <c r="D43" s="179"/>
+      <c r="E43" s="179"/>
+      <c r="F43" s="180"/>
+      <c r="G43" s="78"/>
+      <c r="H43" s="146"/>
+      <c r="I43" s="147"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B44" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="207"/>
+      <c r="D44" s="208"/>
+      <c r="E44" s="208"/>
+      <c r="F44" s="209"/>
+      <c r="G44" s="61"/>
+      <c r="H44" s="148"/>
+      <c r="I44" s="149"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B45" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="178" t="s">
+        <v>112</v>
+      </c>
+      <c r="D45" s="179"/>
+      <c r="E45" s="179"/>
+      <c r="F45" s="180"/>
+      <c r="G45" s="78"/>
+      <c r="H45" s="210"/>
+      <c r="I45" s="211"/>
+    </row>
+    <row r="46" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="181"/>
+      <c r="D46" s="182"/>
+      <c r="E46" s="182"/>
+      <c r="F46" s="183"/>
+      <c r="G46" s="80"/>
+      <c r="H46" s="212"/>
+      <c r="I46" s="213"/>
     </row>
   </sheetData>
-  <mergeCells count="50">
-    <mergeCell ref="C30:F31"/>
-    <mergeCell ref="C32:F34"/>
-    <mergeCell ref="G32:G34"/>
-    <mergeCell ref="H32:I34"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:I31"/>
+  <mergeCells count="70">
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="C38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:I39"/>
+    <mergeCell ref="C41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:I42"/>
+    <mergeCell ref="C43:F44"/>
+    <mergeCell ref="C45:F46"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="H43:I44"/>
+    <mergeCell ref="H45:I46"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="C31:F32"/>
+    <mergeCell ref="C33:F34"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:I32"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:I34"/>
+    <mergeCell ref="C29:F29"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="H29:I29"/>
     <mergeCell ref="C28:F28"/>
     <mergeCell ref="H28:I28"/>
     <mergeCell ref="C25:F25"/>
@@ -4161,7 +4455,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4176,7 +4470,7 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4191,7 +4485,7 @@
       <selection activeCell="F35" sqref="F35:F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/졸작 진행 계획 시간표.xlsx
+++ b/졸작 진행 계획 시간표.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2020 졸작 깃\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2020 졸작 깃\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB524FC-22BC-427E-8F94-CFFF29044F8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A07668-F8C0-4538-B058-4F31FDD99583}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{E0805F39-A49F-47F5-8E79-FFCEB62D9AEC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E0805F39-A49F-47F5-8E79-FFCEB62D9AEC}"/>
   </bookViews>
   <sheets>
     <sheet name="5월 4주차" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="120">
   <si>
     <t>월</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -527,12 +527,44 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>몬스터와 플레이어 간 상호작용 정보 관리 함수 제작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>몬스터의 비헤비어 트리가 제대로 작동하지 않아 원인 
 파악하는데 시간이 걸려 오전 내에 완료하지 못함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터와 플레이어 간 상호작용 정보 관리 함수 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버에서 recv만 하는 액터를 만들어서 적용시키려 했으나
+송수신이 꼬이는 문제가 발생하여 구조를 다시 수정함. 
+원래 목표는 recv만 하는 액터를 만들어도 꼬이지 
+않아야함. 우선은 플레이어 관련 패킷과 몬스터 관련 
+패킷을 둘다 하나의 액터에서 송수신 하게 만들어둠. 
+추후에 수정 예정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터의 체력을 갱신하는 함수는 만들어서 적용하였으나 
+실제 플레이 화면에서는 다른 플레이어가 죽인 좀비가 죽지 
+않음. 좀비 내 총알에 데미지를 입는 함수를 적용시키려 
+했으나 시간 내에 완성하지 못함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020. 06. 05. 금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점심시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터와 플레이어 간 상호작용 정보 관리 함수 실제 적용 및 조정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 및 플레이어 사망 애니메이션 동기화 작업</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1338,7 +1370,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="214">
+  <cellXfs count="218">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1456,6 +1488,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1822,6 +1863,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1834,12 +1926,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1858,44 +1944,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1915,13 +1971,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1930,20 +1995,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1951,35 +2013,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2301,18 +2345,18 @@
       <selection activeCell="A95" sqref="A95:XFD95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.3984375" customWidth="1"/>
-    <col min="3" max="4" width="10.59765625" customWidth="1"/>
-    <col min="5" max="5" width="11.09765625" customWidth="1"/>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="3" max="4" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="11.125" customWidth="1"/>
     <col min="6" max="6" width="13.5" customWidth="1"/>
-    <col min="7" max="7" width="10.3984375" customWidth="1"/>
-    <col min="9" max="9" width="28.59765625" customWidth="1"/>
+    <col min="7" max="7" width="10.375" customWidth="1"/>
+    <col min="9" max="9" width="28.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="5"/>
       <c r="C4" s="6" t="s">
         <v>0</v>
@@ -2337,7 +2381,7 @@
       </c>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="13" t="s">
         <v>7</v>
       </c>
@@ -2356,13 +2400,13 @@
       <c r="G5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="104" t="s">
+      <c r="H5" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="105"/>
+      <c r="I5" s="108"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="11" t="s">
         <v>8</v>
       </c>
@@ -2381,26 +2425,26 @@
       <c r="G6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="106"/>
-      <c r="I6" s="107"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="110"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="110" t="s">
+      <c r="C7" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="111"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="111"/>
-      <c r="G7" s="111"/>
-      <c r="H7" s="106"/>
-      <c r="I7" s="107"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="110"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="11" t="s">
         <v>10</v>
       </c>
@@ -2419,11 +2463,11 @@
       <c r="G8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="106"/>
-      <c r="I8" s="107"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="110"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="11" t="s">
         <v>11</v>
       </c>
@@ -2442,11 +2486,11 @@
       <c r="G9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="106"/>
-      <c r="I9" s="107"/>
+      <c r="H9" s="109"/>
+      <c r="I9" s="110"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
         <v>12</v>
       </c>
@@ -2465,11 +2509,11 @@
       <c r="G10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="106"/>
-      <c r="I10" s="107"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="110"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="11" t="s">
         <v>13</v>
       </c>
@@ -2488,11 +2532,11 @@
       <c r="G11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="106"/>
-      <c r="I11" s="107"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="110"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="11" t="s">
         <v>14</v>
       </c>
@@ -2511,11 +2555,11 @@
       <c r="G12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="106"/>
-      <c r="I12" s="107"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="110"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="12" t="s">
         <v>15</v>
       </c>
@@ -2534,11 +2578,11 @@
       <c r="G13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="108"/>
-      <c r="I13" s="109"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="112"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
         <v>18</v>
@@ -2559,7 +2603,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -2570,1051 +2614,1051 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="51" t="s">
+      <c r="C17" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
       <c r="G17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="52" t="s">
+      <c r="H17" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="I17" s="53"/>
+      <c r="I17" s="56"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="87" t="s">
+      <c r="C18" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="88"/>
-      <c r="E18" s="88"/>
-      <c r="F18" s="89"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="92"/>
       <c r="G18" s="16">
         <v>1</v>
       </c>
-      <c r="H18" s="92"/>
-      <c r="I18" s="93"/>
+      <c r="H18" s="95"/>
+      <c r="I18" s="96"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="41"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="44"/>
       <c r="G19" s="16">
         <v>1</v>
       </c>
-      <c r="H19" s="44"/>
-      <c r="I19" s="45"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="48"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="39" t="s">
+      <c r="C20" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="41"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="44"/>
       <c r="G20" s="16"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="45"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="48"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="66" t="s">
+      <c r="C21" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="41"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="44"/>
       <c r="G21" s="16">
         <v>1</v>
       </c>
-      <c r="H21" s="44"/>
-      <c r="I21" s="45"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="H21" s="47"/>
+      <c r="I21" s="48"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="39" t="s">
+      <c r="C22" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="41"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="44"/>
       <c r="G22" s="16"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="45"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="H22" s="47"/>
+      <c r="I22" s="48"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="41"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="44"/>
       <c r="G23" s="16"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="45"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="H23" s="47"/>
+      <c r="I23" s="48"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="39" t="s">
+      <c r="C24" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="41"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="44"/>
       <c r="G24" s="16">
         <v>1</v>
       </c>
-      <c r="H24" s="44"/>
-      <c r="I24" s="45"/>
-    </row>
-    <row r="25" spans="2:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H24" s="47"/>
+      <c r="I24" s="48"/>
+    </row>
+    <row r="25" spans="2:10" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="39" t="s">
+      <c r="C25" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="41"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="44"/>
       <c r="G25" s="16">
         <v>0.8</v>
       </c>
-      <c r="H25" s="117" t="s">
+      <c r="H25" s="120" t="s">
         <v>38</v>
       </c>
-      <c r="I25" s="118"/>
-    </row>
-    <row r="26" spans="2:10" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I25" s="121"/>
+    </row>
+    <row r="26" spans="2:10" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="112" t="s">
+      <c r="C26" s="115" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="113"/>
-      <c r="E26" s="113"/>
-      <c r="F26" s="114"/>
+      <c r="D26" s="116"/>
+      <c r="E26" s="116"/>
+      <c r="F26" s="117"/>
       <c r="G26" s="17">
         <v>1</v>
       </c>
-      <c r="H26" s="115"/>
-      <c r="I26" s="116"/>
-    </row>
-    <row r="27" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="28" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H26" s="118"/>
+      <c r="I26" s="119"/>
+    </row>
+    <row r="27" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="51" t="s">
+      <c r="C28" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
       <c r="G28" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H28" s="52" t="s">
+      <c r="H28" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="I28" s="53"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="I28" s="56"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="87" t="s">
+      <c r="C29" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="88"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="89"/>
+      <c r="D29" s="91"/>
+      <c r="E29" s="91"/>
+      <c r="F29" s="92"/>
       <c r="G29" s="16"/>
-      <c r="H29" s="119"/>
-      <c r="I29" s="120"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="H29" s="122"/>
+      <c r="I29" s="123"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="39" t="s">
+      <c r="C30" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="41"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="44"/>
       <c r="G30" s="16"/>
-      <c r="H30" s="100"/>
-      <c r="I30" s="101"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="H30" s="103"/>
+      <c r="I30" s="104"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="39" t="s">
+      <c r="C31" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="41"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="44"/>
       <c r="G31" s="16"/>
-      <c r="H31" s="100"/>
-      <c r="I31" s="101"/>
-    </row>
-    <row r="32" spans="2:10" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H31" s="103"/>
+      <c r="I31" s="104"/>
+    </row>
+    <row r="32" spans="2:10" ht="80.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="66" t="s">
+      <c r="C32" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="41"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="44"/>
       <c r="G32" s="16">
         <v>0.5</v>
       </c>
-      <c r="H32" s="130" t="s">
+      <c r="H32" s="133" t="s">
         <v>40</v>
       </c>
-      <c r="I32" s="103"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="I32" s="106"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="39" t="s">
+      <c r="C33" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="41"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="44"/>
       <c r="G33" s="16">
         <v>1</v>
       </c>
-      <c r="H33" s="100"/>
-      <c r="I33" s="101"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="H33" s="103"/>
+      <c r="I33" s="104"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="39" t="s">
+      <c r="C34" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="41"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="44"/>
       <c r="G34" s="16">
         <v>1</v>
       </c>
-      <c r="H34" s="100"/>
-      <c r="I34" s="101"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="H34" s="103"/>
+      <c r="I34" s="104"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B35" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="39" t="s">
+      <c r="C35" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="D35" s="40"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="41"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="44"/>
       <c r="G35" s="16">
         <v>1</v>
       </c>
-      <c r="H35" s="100"/>
-      <c r="I35" s="101"/>
-    </row>
-    <row r="36" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H35" s="103"/>
+      <c r="I35" s="104"/>
+    </row>
+    <row r="36" spans="2:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="39" t="s">
+      <c r="C36" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="D36" s="40"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="78">
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="81">
         <v>0.5</v>
       </c>
-      <c r="H36" s="81" t="s">
+      <c r="H36" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="I36" s="131"/>
-    </row>
-    <row r="37" spans="2:10" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I36" s="134"/>
+    </row>
+    <row r="37" spans="2:10" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="112" t="s">
+      <c r="C37" s="115" t="s">
         <v>36</v>
       </c>
-      <c r="D37" s="113"/>
-      <c r="E37" s="113"/>
-      <c r="F37" s="114"/>
-      <c r="G37" s="80"/>
-      <c r="H37" s="132"/>
-      <c r="I37" s="133"/>
-    </row>
-    <row r="38" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="39" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D37" s="116"/>
+      <c r="E37" s="116"/>
+      <c r="F37" s="117"/>
+      <c r="G37" s="83"/>
+      <c r="H37" s="135"/>
+      <c r="I37" s="136"/>
+    </row>
+    <row r="38" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C39" s="51" t="s">
+      <c r="C39" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="52"/>
-      <c r="E39" s="52"/>
-      <c r="F39" s="52"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="55"/>
       <c r="G39" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="H39" s="52" t="s">
+      <c r="H39" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="I39" s="53"/>
-    </row>
-    <row r="40" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I39" s="56"/>
+    </row>
+    <row r="40" spans="2:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="121" t="s">
+      <c r="C40" s="124" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="49"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="122"/>
-      <c r="G40" s="60">
+      <c r="D40" s="52"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="125"/>
+      <c r="G40" s="63">
         <v>0.3</v>
       </c>
-      <c r="H40" s="126" t="s">
+      <c r="H40" s="129" t="s">
         <v>46</v>
       </c>
-      <c r="I40" s="127"/>
-    </row>
-    <row r="41" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I40" s="130"/>
+    </row>
+    <row r="41" spans="2:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C41" s="123"/>
-      <c r="D41" s="124"/>
-      <c r="E41" s="124"/>
-      <c r="F41" s="125"/>
-      <c r="G41" s="61"/>
-      <c r="H41" s="128"/>
-      <c r="I41" s="129"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="C41" s="126"/>
+      <c r="D41" s="127"/>
+      <c r="E41" s="127"/>
+      <c r="F41" s="128"/>
+      <c r="G41" s="64"/>
+      <c r="H41" s="131"/>
+      <c r="I41" s="132"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B42" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="39" t="s">
+      <c r="C42" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="D42" s="40"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="41"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="44"/>
       <c r="G42" s="16"/>
-      <c r="H42" s="102"/>
-      <c r="I42" s="103"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="H42" s="105"/>
+      <c r="I42" s="106"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B43" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="66" t="s">
+      <c r="C43" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D43" s="40"/>
-      <c r="E43" s="40"/>
-      <c r="F43" s="41"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="44"/>
       <c r="G43" s="20">
         <v>1</v>
       </c>
-      <c r="H43" s="102"/>
-      <c r="I43" s="103"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="H43" s="105"/>
+      <c r="I43" s="106"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C44" s="66" t="s">
+      <c r="C44" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="D44" s="40"/>
-      <c r="E44" s="40"/>
-      <c r="F44" s="41"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="44"/>
       <c r="G44" s="20">
         <v>1</v>
       </c>
-      <c r="H44" s="102"/>
-      <c r="I44" s="103"/>
-    </row>
-    <row r="45" spans="2:10" ht="36.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H44" s="105"/>
+      <c r="I44" s="106"/>
+    </row>
+    <row r="45" spans="2:10" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C45" s="94" t="s">
+      <c r="C45" s="97" t="s">
         <v>47</v>
       </c>
-      <c r="D45" s="95"/>
-      <c r="E45" s="95"/>
-      <c r="F45" s="95"/>
+      <c r="D45" s="98"/>
+      <c r="E45" s="98"/>
+      <c r="F45" s="98"/>
       <c r="G45" s="22"/>
-      <c r="H45" s="96"/>
-      <c r="I45" s="97"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="H45" s="99"/>
+      <c r="I45" s="100"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B46" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C46" s="98" t="s">
+      <c r="C46" s="101" t="s">
         <v>51</v>
       </c>
-      <c r="D46" s="99"/>
-      <c r="E46" s="99"/>
-      <c r="F46" s="99"/>
+      <c r="D46" s="102"/>
+      <c r="E46" s="102"/>
+      <c r="F46" s="102"/>
       <c r="G46" s="22">
         <v>1</v>
       </c>
-      <c r="H46" s="100"/>
-      <c r="I46" s="101"/>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="H46" s="103"/>
+      <c r="I46" s="104"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="39" t="s">
+      <c r="C47" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="D47" s="40"/>
-      <c r="E47" s="40"/>
-      <c r="F47" s="41"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="44"/>
       <c r="G47" s="21">
         <v>1</v>
       </c>
-      <c r="H47" s="130"/>
-      <c r="I47" s="143"/>
-    </row>
-    <row r="48" spans="2:10" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H47" s="133"/>
+      <c r="I47" s="146"/>
+    </row>
+    <row r="48" spans="2:10" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B48" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="112" t="s">
+      <c r="C48" s="115" t="s">
         <v>49</v>
       </c>
-      <c r="D48" s="113"/>
-      <c r="E48" s="113"/>
-      <c r="F48" s="114"/>
+      <c r="D48" s="116"/>
+      <c r="E48" s="116"/>
+      <c r="F48" s="117"/>
       <c r="G48" s="17">
         <v>0.8</v>
       </c>
-      <c r="H48" s="141" t="s">
+      <c r="H48" s="144" t="s">
         <v>50</v>
       </c>
-      <c r="I48" s="144"/>
+      <c r="I48" s="147"/>
       <c r="J48" s="25" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="50" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="50" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B50" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C50" s="51" t="s">
+      <c r="C50" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="D50" s="52"/>
-      <c r="E50" s="52"/>
-      <c r="F50" s="52"/>
+      <c r="D50" s="55"/>
+      <c r="E50" s="55"/>
+      <c r="F50" s="55"/>
       <c r="G50" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H50" s="52" t="s">
+      <c r="H50" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="I50" s="53"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I50" s="56"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C51" s="87" t="s">
+      <c r="C51" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="D51" s="88"/>
-      <c r="E51" s="88"/>
-      <c r="F51" s="89"/>
+      <c r="D51" s="91"/>
+      <c r="E51" s="91"/>
+      <c r="F51" s="92"/>
       <c r="G51" s="20">
         <v>1</v>
       </c>
-      <c r="H51" s="92"/>
-      <c r="I51" s="93"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H51" s="95"/>
+      <c r="I51" s="96"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C52" s="39" t="s">
+      <c r="C52" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="D52" s="40"/>
-      <c r="E52" s="40"/>
-      <c r="F52" s="41"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="43"/>
+      <c r="F52" s="44"/>
       <c r="G52" s="20">
         <v>1</v>
       </c>
-      <c r="H52" s="44"/>
-      <c r="I52" s="45"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H52" s="47"/>
+      <c r="I52" s="48"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C53" s="39" t="s">
+      <c r="C53" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="D53" s="40"/>
-      <c r="E53" s="40"/>
-      <c r="F53" s="41"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="43"/>
+      <c r="F53" s="44"/>
       <c r="G53" s="20"/>
-      <c r="H53" s="44"/>
-      <c r="I53" s="45"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H53" s="47"/>
+      <c r="I53" s="48"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C54" s="66" t="s">
+      <c r="C54" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="D54" s="67"/>
-      <c r="E54" s="67"/>
-      <c r="F54" s="68"/>
+      <c r="D54" s="70"/>
+      <c r="E54" s="70"/>
+      <c r="F54" s="71"/>
       <c r="G54" s="20">
         <v>1</v>
       </c>
-      <c r="H54" s="44"/>
-      <c r="I54" s="45"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H54" s="47"/>
+      <c r="I54" s="48"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C55" s="39" t="s">
+      <c r="C55" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="D55" s="40"/>
-      <c r="E55" s="40"/>
-      <c r="F55" s="41"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="43"/>
+      <c r="F55" s="44"/>
       <c r="G55" s="20">
         <v>1</v>
       </c>
-      <c r="H55" s="44"/>
-      <c r="I55" s="45"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H55" s="47"/>
+      <c r="I55" s="48"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C56" s="66" t="s">
+      <c r="C56" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="D56" s="67"/>
-      <c r="E56" s="67"/>
-      <c r="F56" s="68"/>
+      <c r="D56" s="70"/>
+      <c r="E56" s="70"/>
+      <c r="F56" s="71"/>
       <c r="G56" s="20">
         <v>1</v>
       </c>
-      <c r="H56" s="44"/>
-      <c r="I56" s="45"/>
-    </row>
-    <row r="57" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H56" s="47"/>
+      <c r="I56" s="48"/>
+    </row>
+    <row r="57" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C57" s="69" t="s">
+      <c r="C57" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="D57" s="70"/>
-      <c r="E57" s="70"/>
-      <c r="F57" s="71"/>
-      <c r="G57" s="78">
+      <c r="D57" s="73"/>
+      <c r="E57" s="73"/>
+      <c r="F57" s="74"/>
+      <c r="G57" s="81">
         <v>0.3</v>
       </c>
-      <c r="H57" s="81" t="s">
+      <c r="H57" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="I57" s="82"/>
-    </row>
-    <row r="58" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I57" s="85"/>
+    </row>
+    <row r="58" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C58" s="72"/>
-      <c r="D58" s="73"/>
-      <c r="E58" s="73"/>
-      <c r="F58" s="74"/>
-      <c r="G58" s="79"/>
-      <c r="H58" s="83"/>
-      <c r="I58" s="84"/>
-    </row>
-    <row r="59" spans="2:9" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C58" s="75"/>
+      <c r="D58" s="76"/>
+      <c r="E58" s="76"/>
+      <c r="F58" s="77"/>
+      <c r="G58" s="82"/>
+      <c r="H58" s="86"/>
+      <c r="I58" s="87"/>
+    </row>
+    <row r="59" spans="2:9" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B59" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C59" s="75"/>
-      <c r="D59" s="76"/>
-      <c r="E59" s="76"/>
-      <c r="F59" s="77"/>
-      <c r="G59" s="80"/>
-      <c r="H59" s="85"/>
-      <c r="I59" s="86"/>
-    </row>
-    <row r="60" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="61" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C59" s="78"/>
+      <c r="D59" s="79"/>
+      <c r="E59" s="79"/>
+      <c r="F59" s="80"/>
+      <c r="G59" s="83"/>
+      <c r="H59" s="88"/>
+      <c r="I59" s="89"/>
+    </row>
+    <row r="60" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="61" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B61" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C61" s="51" t="s">
+      <c r="C61" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="D61" s="52"/>
-      <c r="E61" s="52"/>
-      <c r="F61" s="52"/>
+      <c r="D61" s="55"/>
+      <c r="E61" s="55"/>
+      <c r="F61" s="55"/>
       <c r="G61" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="H61" s="52" t="s">
+      <c r="H61" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="I61" s="53"/>
-    </row>
-    <row r="62" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I61" s="56"/>
+    </row>
+    <row r="62" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C62" s="54" t="s">
+      <c r="C62" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="D62" s="55"/>
-      <c r="E62" s="55"/>
-      <c r="F62" s="56"/>
-      <c r="G62" s="60">
+      <c r="D62" s="58"/>
+      <c r="E62" s="58"/>
+      <c r="F62" s="59"/>
+      <c r="G62" s="63">
         <v>0.3</v>
       </c>
-      <c r="H62" s="62" t="s">
+      <c r="H62" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="I62" s="63"/>
-    </row>
-    <row r="63" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I62" s="66"/>
+    </row>
+    <row r="63" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C63" s="57"/>
-      <c r="D63" s="58"/>
-      <c r="E63" s="58"/>
-      <c r="F63" s="59"/>
-      <c r="G63" s="61"/>
-      <c r="H63" s="64"/>
-      <c r="I63" s="65"/>
-    </row>
-    <row r="64" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C63" s="60"/>
+      <c r="D63" s="61"/>
+      <c r="E63" s="61"/>
+      <c r="F63" s="62"/>
+      <c r="G63" s="64"/>
+      <c r="H63" s="67"/>
+      <c r="I63" s="68"/>
+    </row>
+    <row r="64" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C64" s="39" t="s">
+      <c r="C64" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="D64" s="40"/>
-      <c r="E64" s="40"/>
-      <c r="F64" s="41"/>
+      <c r="D64" s="43"/>
+      <c r="E64" s="43"/>
+      <c r="F64" s="44"/>
       <c r="G64" s="24"/>
-      <c r="H64" s="46"/>
-      <c r="I64" s="47"/>
-    </row>
-    <row r="65" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H64" s="49"/>
+      <c r="I64" s="50"/>
+    </row>
+    <row r="65" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C65" s="69" t="s">
+      <c r="C65" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="D65" s="70"/>
-      <c r="E65" s="70"/>
-      <c r="F65" s="71"/>
-      <c r="G65" s="78">
+      <c r="D65" s="73"/>
+      <c r="E65" s="73"/>
+      <c r="F65" s="74"/>
+      <c r="G65" s="81">
         <v>1</v>
       </c>
-      <c r="H65" s="135" t="s">
+      <c r="H65" s="138" t="s">
         <v>68</v>
       </c>
-      <c r="I65" s="136"/>
-      <c r="L65" s="66" t="s">
+      <c r="I65" s="139"/>
+      <c r="L65" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="M65" s="40"/>
-      <c r="N65" s="40"/>
-      <c r="O65" s="41"/>
-    </row>
-    <row r="66" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="M65" s="43"/>
+      <c r="N65" s="43"/>
+      <c r="O65" s="44"/>
+    </row>
+    <row r="66" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C66" s="72"/>
-      <c r="D66" s="73"/>
-      <c r="E66" s="73"/>
-      <c r="F66" s="74"/>
-      <c r="G66" s="79"/>
-      <c r="H66" s="137"/>
-      <c r="I66" s="138"/>
-      <c r="L66" s="39" t="s">
+      <c r="C66" s="75"/>
+      <c r="D66" s="76"/>
+      <c r="E66" s="76"/>
+      <c r="F66" s="77"/>
+      <c r="G66" s="82"/>
+      <c r="H66" s="140"/>
+      <c r="I66" s="141"/>
+      <c r="L66" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="M66" s="40"/>
-      <c r="N66" s="40"/>
-      <c r="O66" s="41"/>
-    </row>
-    <row r="67" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="M66" s="43"/>
+      <c r="N66" s="43"/>
+      <c r="O66" s="44"/>
+    </row>
+    <row r="67" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B67" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C67" s="72"/>
-      <c r="D67" s="73"/>
-      <c r="E67" s="73"/>
-      <c r="F67" s="74"/>
-      <c r="G67" s="79"/>
-      <c r="H67" s="137"/>
-      <c r="I67" s="138"/>
-      <c r="L67" s="39" t="s">
+      <c r="C67" s="75"/>
+      <c r="D67" s="76"/>
+      <c r="E67" s="76"/>
+      <c r="F67" s="77"/>
+      <c r="G67" s="82"/>
+      <c r="H67" s="140"/>
+      <c r="I67" s="141"/>
+      <c r="L67" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="M67" s="40"/>
-      <c r="N67" s="40"/>
-      <c r="O67" s="41"/>
-    </row>
-    <row r="68" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="M67" s="43"/>
+      <c r="N67" s="43"/>
+      <c r="O67" s="44"/>
+    </row>
+    <row r="68" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C68" s="72"/>
-      <c r="D68" s="73"/>
-      <c r="E68" s="73"/>
-      <c r="F68" s="74"/>
-      <c r="G68" s="79"/>
-      <c r="H68" s="137"/>
-      <c r="I68" s="138"/>
-      <c r="L68" s="39" t="s">
+      <c r="C68" s="75"/>
+      <c r="D68" s="76"/>
+      <c r="E68" s="76"/>
+      <c r="F68" s="77"/>
+      <c r="G68" s="82"/>
+      <c r="H68" s="140"/>
+      <c r="I68" s="141"/>
+      <c r="L68" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="M68" s="40"/>
-      <c r="N68" s="40"/>
-      <c r="O68" s="41"/>
-    </row>
-    <row r="69" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="M68" s="43"/>
+      <c r="N68" s="43"/>
+      <c r="O68" s="44"/>
+    </row>
+    <row r="69" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C69" s="57"/>
-      <c r="D69" s="58"/>
-      <c r="E69" s="58"/>
-      <c r="F69" s="59"/>
-      <c r="G69" s="61"/>
-      <c r="H69" s="139"/>
-      <c r="I69" s="140"/>
-      <c r="L69" s="39" t="s">
+      <c r="C69" s="60"/>
+      <c r="D69" s="61"/>
+      <c r="E69" s="61"/>
+      <c r="F69" s="62"/>
+      <c r="G69" s="64"/>
+      <c r="H69" s="142"/>
+      <c r="I69" s="143"/>
+      <c r="L69" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="M69" s="40"/>
-      <c r="N69" s="40"/>
-      <c r="O69" s="41"/>
-    </row>
-    <row r="70" spans="2:15" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="M69" s="43"/>
+      <c r="N69" s="43"/>
+      <c r="O69" s="44"/>
+    </row>
+    <row r="70" spans="2:15" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B70" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C70" s="112" t="s">
+      <c r="C70" s="115" t="s">
         <v>69</v>
       </c>
-      <c r="D70" s="113"/>
-      <c r="E70" s="113"/>
-      <c r="F70" s="114"/>
+      <c r="D70" s="116"/>
+      <c r="E70" s="116"/>
+      <c r="F70" s="117"/>
       <c r="G70" s="17">
         <v>0.5</v>
       </c>
-      <c r="H70" s="141" t="s">
+      <c r="H70" s="144" t="s">
         <v>70</v>
       </c>
-      <c r="I70" s="142"/>
-      <c r="L70" s="112" t="s">
+      <c r="I70" s="145"/>
+      <c r="L70" s="115" t="s">
         <v>64</v>
       </c>
-      <c r="M70" s="113"/>
-      <c r="N70" s="113"/>
-      <c r="O70" s="114"/>
-    </row>
-    <row r="71" spans="2:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="M70" s="116"/>
+      <c r="N70" s="116"/>
+      <c r="O70" s="117"/>
+    </row>
+    <row r="71" spans="2:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="C71" s="48" t="s">
+      <c r="C71" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="D71" s="49"/>
-      <c r="E71" s="49"/>
-      <c r="F71" s="49"/>
-      <c r="H71" s="50" t="s">
+      <c r="D71" s="52"/>
+      <c r="E71" s="52"/>
+      <c r="F71" s="52"/>
+      <c r="H71" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="I71" s="50"/>
+      <c r="I71" s="53"/>
       <c r="J71" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="73" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="74" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="74" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B74" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C74" s="51" t="s">
+      <c r="C74" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="D74" s="52"/>
-      <c r="E74" s="52"/>
-      <c r="F74" s="52"/>
+      <c r="D74" s="55"/>
+      <c r="E74" s="55"/>
+      <c r="F74" s="55"/>
       <c r="G74" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="H74" s="52" t="s">
+      <c r="H74" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="I74" s="53"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="I74" s="56"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B75" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C75" s="87" t="s">
+      <c r="C75" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="D75" s="88"/>
-      <c r="E75" s="88"/>
-      <c r="F75" s="89"/>
+      <c r="D75" s="91"/>
+      <c r="E75" s="91"/>
+      <c r="F75" s="92"/>
       <c r="G75" s="27">
         <v>0</v>
       </c>
-      <c r="H75" s="90" t="s">
+      <c r="H75" s="93" t="s">
         <v>83</v>
       </c>
-      <c r="I75" s="91"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="I75" s="94"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B76" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C76" s="39" t="s">
+      <c r="C76" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="D76" s="40"/>
-      <c r="E76" s="40"/>
-      <c r="F76" s="41"/>
+      <c r="D76" s="43"/>
+      <c r="E76" s="43"/>
+      <c r="F76" s="44"/>
       <c r="G76" s="27">
         <v>0</v>
       </c>
-      <c r="H76" s="42" t="s">
+      <c r="H76" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="I76" s="43"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="I76" s="46"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B77" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C77" s="39" t="s">
+      <c r="C77" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="D77" s="40"/>
-      <c r="E77" s="40"/>
-      <c r="F77" s="41"/>
+      <c r="D77" s="43"/>
+      <c r="E77" s="43"/>
+      <c r="F77" s="44"/>
       <c r="G77" s="27"/>
-      <c r="H77" s="44"/>
-      <c r="I77" s="45"/>
-    </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="H77" s="47"/>
+      <c r="I77" s="48"/>
+    </row>
+    <row r="78" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B78" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C78" s="66" t="s">
+      <c r="C78" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="D78" s="40"/>
-      <c r="E78" s="40"/>
-      <c r="F78" s="41"/>
+      <c r="D78" s="43"/>
+      <c r="E78" s="43"/>
+      <c r="F78" s="44"/>
       <c r="G78" s="27">
         <v>1</v>
       </c>
-      <c r="H78" s="44"/>
-      <c r="I78" s="45"/>
-      <c r="L78" s="39" t="s">
+      <c r="H78" s="47"/>
+      <c r="I78" s="48"/>
+      <c r="L78" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="M78" s="40"/>
-      <c r="N78" s="40"/>
-      <c r="O78" s="41"/>
-    </row>
-    <row r="79" spans="2:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="M78" s="43"/>
+      <c r="N78" s="43"/>
+      <c r="O78" s="44"/>
+    </row>
+    <row r="79" spans="2:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C79" s="69" t="s">
+      <c r="C79" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="D79" s="70"/>
-      <c r="E79" s="70"/>
-      <c r="F79" s="71"/>
-      <c r="G79" s="78">
+      <c r="D79" s="73"/>
+      <c r="E79" s="73"/>
+      <c r="F79" s="74"/>
+      <c r="G79" s="81">
         <v>1</v>
       </c>
-      <c r="H79" s="146"/>
-      <c r="I79" s="147"/>
-      <c r="L79" s="39" t="s">
+      <c r="H79" s="149"/>
+      <c r="I79" s="150"/>
+      <c r="L79" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="M79" s="40"/>
-      <c r="N79" s="40"/>
-      <c r="O79" s="41"/>
-    </row>
-    <row r="80" spans="2:15" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="M79" s="43"/>
+      <c r="N79" s="43"/>
+      <c r="O79" s="44"/>
+    </row>
+    <row r="80" spans="2:15" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B80" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C80" s="57"/>
-      <c r="D80" s="58"/>
-      <c r="E80" s="58"/>
-      <c r="F80" s="59"/>
-      <c r="G80" s="61"/>
-      <c r="H80" s="148"/>
-      <c r="I80" s="149"/>
-      <c r="L80" s="112" t="s">
+      <c r="C80" s="60"/>
+      <c r="D80" s="61"/>
+      <c r="E80" s="61"/>
+      <c r="F80" s="62"/>
+      <c r="G80" s="64"/>
+      <c r="H80" s="151"/>
+      <c r="I80" s="152"/>
+      <c r="L80" s="115" t="s">
         <v>82</v>
       </c>
-      <c r="M80" s="113"/>
-      <c r="N80" s="113"/>
-      <c r="O80" s="114"/>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="M80" s="116"/>
+      <c r="N80" s="116"/>
+      <c r="O80" s="117"/>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C81" s="150" t="s">
+      <c r="C81" s="153" t="s">
         <v>65</v>
       </c>
-      <c r="D81" s="151"/>
-      <c r="E81" s="151"/>
-      <c r="F81" s="152"/>
-      <c r="G81" s="78">
+      <c r="D81" s="154"/>
+      <c r="E81" s="154"/>
+      <c r="F81" s="155"/>
+      <c r="G81" s="81">
         <v>0.7</v>
       </c>
-      <c r="H81" s="81" t="s">
+      <c r="H81" s="84" t="s">
         <v>85</v>
       </c>
-      <c r="I81" s="82"/>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I81" s="85"/>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C82" s="153"/>
-      <c r="D82" s="154"/>
-      <c r="E82" s="154"/>
-      <c r="F82" s="155"/>
-      <c r="G82" s="79"/>
-      <c r="H82" s="83"/>
-      <c r="I82" s="84"/>
-    </row>
-    <row r="83" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C82" s="156"/>
+      <c r="D82" s="157"/>
+      <c r="E82" s="157"/>
+      <c r="F82" s="158"/>
+      <c r="G82" s="82"/>
+      <c r="H82" s="86"/>
+      <c r="I82" s="87"/>
+    </row>
+    <row r="83" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B83" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C83" s="156"/>
-      <c r="D83" s="157"/>
-      <c r="E83" s="157"/>
-      <c r="F83" s="158"/>
-      <c r="G83" s="80"/>
-      <c r="H83" s="85"/>
-      <c r="I83" s="86"/>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C83" s="159"/>
+      <c r="D83" s="160"/>
+      <c r="E83" s="160"/>
+      <c r="F83" s="161"/>
+      <c r="G83" s="83"/>
+      <c r="H83" s="88"/>
+      <c r="I83" s="89"/>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C84" s="145" t="s">
+      <c r="C84" s="148" t="s">
         <v>87</v>
       </c>
-      <c r="D84" s="145"/>
-      <c r="E84" s="145"/>
-      <c r="F84" s="145"/>
+      <c r="D84" s="148"/>
+      <c r="E84" s="148"/>
+      <c r="F84" s="148"/>
       <c r="G84" s="1"/>
-      <c r="H84" s="145" t="s">
+      <c r="H84" s="148" t="s">
         <v>88</v>
       </c>
-      <c r="I84" s="145"/>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I84" s="148"/>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="31"/>
-      <c r="C85" s="134" t="s">
+      <c r="C85" s="137" t="s">
         <v>89</v>
       </c>
-      <c r="D85" s="134"/>
-      <c r="E85" s="134"/>
-      <c r="F85" s="134"/>
-      <c r="H85" s="134" t="s">
+      <c r="D85" s="137"/>
+      <c r="E85" s="137"/>
+      <c r="F85" s="137"/>
+      <c r="H85" s="137" t="s">
         <v>88</v>
       </c>
-      <c r="I85" s="134"/>
-    </row>
-    <row r="95" spans="2:9" ht="54" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="I85" s="137"/>
+    </row>
+    <row r="95" spans="2:9" ht="54" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="121">
     <mergeCell ref="C84:F84"/>
@@ -3747,631 +3791,786 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{813EEE76-69D4-4EE1-98FD-50720CEB1426}">
-  <dimension ref="B2:I46"/>
+  <dimension ref="B2:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="L56" sqref="L56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.59765625" customWidth="1"/>
-    <col min="6" max="6" width="21.19921875" customWidth="1"/>
-    <col min="9" max="9" width="29.69921875" customWidth="1"/>
+    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.625" customWidth="1"/>
+    <col min="6" max="6" width="21.25" customWidth="1"/>
+    <col min="8" max="8" width="11.375" customWidth="1"/>
+    <col min="9" max="9" width="29.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
       <c r="G3" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="52" t="s">
+      <c r="H3" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="53"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I3" s="56"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="89"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="92"/>
       <c r="G4" s="30">
         <v>1</v>
       </c>
-      <c r="H4" s="92"/>
-      <c r="I4" s="93"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H4" s="95"/>
+      <c r="I4" s="96"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="41"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="44"/>
       <c r="G5" s="30">
         <v>1</v>
       </c>
-      <c r="H5" s="44"/>
-      <c r="I5" s="45"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H5" s="47"/>
+      <c r="I5" s="48"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="41"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="44"/>
       <c r="G6" s="30"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="45"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H6" s="47"/>
+      <c r="I6" s="48"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="66" t="s">
+      <c r="C7" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="68"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="71"/>
       <c r="G7" s="30">
         <v>1</v>
       </c>
-      <c r="H7" s="44"/>
-      <c r="I7" s="45"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H7" s="47"/>
+      <c r="I7" s="48"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="41"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="44"/>
       <c r="G8" s="30"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="45"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H8" s="47"/>
+      <c r="I8" s="48"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="66" t="s">
+      <c r="C9" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="68"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="71"/>
       <c r="G9" s="30"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="45"/>
-    </row>
-    <row r="10" spans="2:9" ht="54" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H9" s="47"/>
+      <c r="I9" s="48"/>
+    </row>
+    <row r="10" spans="2:9" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="66" t="s">
+      <c r="C10" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="68"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="71"/>
       <c r="G10" s="22">
         <v>0.8</v>
       </c>
-      <c r="H10" s="161" t="s">
+      <c r="H10" s="181" t="s">
         <v>98</v>
       </c>
-      <c r="I10" s="162"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I10" s="182"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="66" t="s">
+      <c r="C11" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="68"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="71"/>
       <c r="G11" s="22">
         <v>1</v>
       </c>
-      <c r="H11" s="163"/>
-      <c r="I11" s="164"/>
-    </row>
-    <row r="12" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H11" s="183"/>
+      <c r="I11" s="184"/>
+    </row>
+    <row r="12" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="112" t="s">
+      <c r="C12" s="115" t="s">
         <v>97</v>
       </c>
-      <c r="D12" s="159"/>
-      <c r="E12" s="159"/>
-      <c r="F12" s="160"/>
+      <c r="D12" s="162"/>
+      <c r="E12" s="162"/>
+      <c r="F12" s="163"/>
       <c r="G12" s="17">
         <v>1</v>
       </c>
-      <c r="H12" s="165"/>
-      <c r="I12" s="166"/>
-    </row>
-    <row r="13" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H12" s="164"/>
+      <c r="I12" s="165"/>
+    </row>
+    <row r="13" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C13" s="32"/>
       <c r="D13" s="32"/>
       <c r="E13" s="32"/>
       <c r="F13" s="32"/>
     </row>
-    <row r="14" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
       <c r="G14" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="52" t="s">
+      <c r="H14" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="53"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I14" s="56"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="87" t="s">
+      <c r="C15" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="89"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="92"/>
       <c r="G15" s="34"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="93"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H15" s="95"/>
+      <c r="I15" s="96"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="41"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="44"/>
       <c r="G16" s="34"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="45"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H16" s="47"/>
+      <c r="I16" s="48"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="41"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="44"/>
       <c r="G17" s="34"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="45"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H17" s="47"/>
+      <c r="I17" s="48"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="167" t="s">
+      <c r="C18" s="185" t="s">
         <v>100</v>
       </c>
-      <c r="D18" s="168"/>
-      <c r="E18" s="168"/>
-      <c r="F18" s="169"/>
-      <c r="G18" s="78">
+      <c r="D18" s="186"/>
+      <c r="E18" s="186"/>
+      <c r="F18" s="187"/>
+      <c r="G18" s="81">
         <v>1</v>
       </c>
-      <c r="H18" s="146"/>
-      <c r="I18" s="147"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H18" s="149"/>
+      <c r="I18" s="150"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="170"/>
-      <c r="D19" s="171"/>
-      <c r="E19" s="171"/>
-      <c r="F19" s="172"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="173"/>
-      <c r="I19" s="174"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C19" s="188"/>
+      <c r="D19" s="189"/>
+      <c r="E19" s="189"/>
+      <c r="F19" s="190"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="179"/>
+      <c r="I19" s="180"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="170"/>
-      <c r="D20" s="171"/>
-      <c r="E20" s="171"/>
-      <c r="F20" s="172"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="173"/>
-      <c r="I20" s="174"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C20" s="188"/>
+      <c r="D20" s="189"/>
+      <c r="E20" s="189"/>
+      <c r="F20" s="190"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="179"/>
+      <c r="I20" s="180"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="123"/>
-      <c r="D21" s="124"/>
-      <c r="E21" s="124"/>
-      <c r="F21" s="125"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="148"/>
-      <c r="I21" s="149"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C21" s="126"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="127"/>
+      <c r="F21" s="128"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="151"/>
+      <c r="I21" s="152"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="39" t="s">
+      <c r="C22" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="41"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="44"/>
       <c r="G22" s="34">
         <v>1</v>
       </c>
-      <c r="H22" s="117"/>
-      <c r="I22" s="118"/>
-    </row>
-    <row r="23" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H22" s="120"/>
+      <c r="I22" s="121"/>
+    </row>
+    <row r="23" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="112" t="s">
+      <c r="C23" s="115" t="s">
         <v>102</v>
       </c>
-      <c r="D23" s="113"/>
-      <c r="E23" s="113"/>
-      <c r="F23" s="114"/>
+      <c r="D23" s="116"/>
+      <c r="E23" s="116"/>
+      <c r="F23" s="117"/>
       <c r="G23" s="17">
         <v>1</v>
       </c>
-      <c r="H23" s="115"/>
-      <c r="I23" s="116"/>
-    </row>
-    <row r="24" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="25" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H23" s="118"/>
+      <c r="I23" s="119"/>
+    </row>
+    <row r="24" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="C25" s="51" t="s">
+      <c r="C25" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
       <c r="G25" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="H25" s="52" t="s">
+      <c r="H25" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="I25" s="53"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I25" s="56"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="186" t="s">
+      <c r="C26" s="194" t="s">
         <v>104</v>
       </c>
-      <c r="D26" s="187"/>
-      <c r="E26" s="187"/>
-      <c r="F26" s="188"/>
-      <c r="G26" s="60">
+      <c r="D26" s="195"/>
+      <c r="E26" s="195"/>
+      <c r="F26" s="196"/>
+      <c r="G26" s="63">
         <v>0.8</v>
       </c>
-      <c r="H26" s="126" t="s">
-        <v>113</v>
-      </c>
-      <c r="I26" s="204"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H26" s="129" t="s">
+        <v>112</v>
+      </c>
+      <c r="I26" s="200"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="189"/>
-      <c r="D27" s="190"/>
-      <c r="E27" s="190"/>
-      <c r="F27" s="191"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="205"/>
-      <c r="I27" s="206"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C27" s="197"/>
+      <c r="D27" s="198"/>
+      <c r="E27" s="198"/>
+      <c r="F27" s="199"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="201"/>
+      <c r="I27" s="202"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="192" t="s">
+      <c r="C28" s="191" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="193"/>
-      <c r="E28" s="193"/>
-      <c r="F28" s="194"/>
+      <c r="D28" s="192"/>
+      <c r="E28" s="192"/>
+      <c r="F28" s="193"/>
       <c r="G28" s="37"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="43"/>
-    </row>
-    <row r="29" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H28" s="45"/>
+      <c r="I28" s="46"/>
+    </row>
+    <row r="29" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="195" t="s">
+      <c r="C29" s="206" t="s">
         <v>104</v>
       </c>
-      <c r="D29" s="196"/>
-      <c r="E29" s="196"/>
-      <c r="F29" s="196"/>
+      <c r="D29" s="207"/>
+      <c r="E29" s="207"/>
+      <c r="F29" s="207"/>
       <c r="G29" s="22">
         <v>1</v>
       </c>
-      <c r="H29" s="99"/>
-      <c r="I29" s="201"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H29" s="102"/>
+      <c r="I29" s="203"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="197" t="s">
+      <c r="C30" s="204" t="s">
         <v>105</v>
       </c>
-      <c r="D30" s="198"/>
-      <c r="E30" s="198"/>
-      <c r="F30" s="198"/>
+      <c r="D30" s="205"/>
+      <c r="E30" s="205"/>
+      <c r="F30" s="205"/>
       <c r="G30" s="22">
         <v>1</v>
       </c>
-      <c r="H30" s="99"/>
-      <c r="I30" s="201"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H30" s="102"/>
+      <c r="I30" s="203"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="197" t="s">
+      <c r="C31" s="204" t="s">
         <v>106</v>
       </c>
-      <c r="D31" s="198"/>
-      <c r="E31" s="198"/>
-      <c r="F31" s="198"/>
-      <c r="G31" s="184">
+      <c r="D31" s="205"/>
+      <c r="E31" s="205"/>
+      <c r="F31" s="205"/>
+      <c r="G31" s="210">
         <v>1</v>
       </c>
-      <c r="H31" s="99"/>
-      <c r="I31" s="201"/>
-    </row>
-    <row r="32" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H31" s="102"/>
+      <c r="I31" s="203"/>
+    </row>
+    <row r="32" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="197"/>
-      <c r="D32" s="198"/>
-      <c r="E32" s="198"/>
-      <c r="F32" s="198"/>
-      <c r="G32" s="184"/>
-      <c r="H32" s="99"/>
-      <c r="I32" s="201"/>
-    </row>
-    <row r="33" spans="2:9" ht="25.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C32" s="204"/>
+      <c r="D32" s="205"/>
+      <c r="E32" s="205"/>
+      <c r="F32" s="205"/>
+      <c r="G32" s="210"/>
+      <c r="H32" s="102"/>
+      <c r="I32" s="203"/>
+    </row>
+    <row r="33" spans="2:9" ht="25.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="195" t="s">
+      <c r="C33" s="206" t="s">
         <v>107</v>
       </c>
-      <c r="D33" s="196"/>
-      <c r="E33" s="196"/>
-      <c r="F33" s="196"/>
-      <c r="G33" s="184">
+      <c r="D33" s="207"/>
+      <c r="E33" s="207"/>
+      <c r="F33" s="207"/>
+      <c r="G33" s="210">
         <v>0.5</v>
       </c>
-      <c r="H33" s="161" t="s">
+      <c r="H33" s="181" t="s">
         <v>110</v>
       </c>
-      <c r="I33" s="162"/>
-    </row>
-    <row r="34" spans="2:9" ht="25.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I33" s="182"/>
+    </row>
+    <row r="34" spans="2:9" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="199"/>
-      <c r="D34" s="200"/>
-      <c r="E34" s="200"/>
-      <c r="F34" s="200"/>
-      <c r="G34" s="185"/>
-      <c r="H34" s="202"/>
-      <c r="I34" s="203"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C34" s="208"/>
+      <c r="D34" s="209"/>
+      <c r="E34" s="209"/>
+      <c r="F34" s="209"/>
+      <c r="G34" s="211"/>
+      <c r="H34" s="212"/>
+      <c r="I34" s="213"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="28"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
       <c r="G35" s="36"/>
-      <c r="H35" s="145"/>
-      <c r="I35" s="145"/>
-    </row>
-    <row r="36" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="37" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H35" s="148"/>
+      <c r="I35" s="148"/>
+    </row>
+    <row r="36" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="37" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="C37" s="51" t="s">
+      <c r="C37" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="D37" s="52"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="52"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="55"/>
       <c r="G37" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="H37" s="52" t="s">
+      <c r="H37" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="I37" s="53"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I37" s="56"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="175" t="s">
+      <c r="C38" s="167" t="s">
         <v>109</v>
       </c>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="122"/>
-      <c r="G38" s="60"/>
-      <c r="H38" s="176"/>
-      <c r="I38" s="177"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D38" s="52"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="125"/>
+      <c r="G38" s="63">
+        <v>0.9</v>
+      </c>
+      <c r="H38" s="217"/>
+      <c r="I38" s="130"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="123"/>
-      <c r="D39" s="124"/>
-      <c r="E39" s="124"/>
-      <c r="F39" s="125"/>
-      <c r="G39" s="61"/>
-      <c r="H39" s="148"/>
-      <c r="I39" s="149"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C39" s="126"/>
+      <c r="D39" s="127"/>
+      <c r="E39" s="127"/>
+      <c r="F39" s="128"/>
+      <c r="G39" s="64"/>
+      <c r="H39" s="131"/>
+      <c r="I39" s="132"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="39" t="s">
+      <c r="C40" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="40"/>
-      <c r="E40" s="40"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="44"/>
-      <c r="I40" s="45"/>
-    </row>
-    <row r="41" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="105"/>
+      <c r="I40" s="106"/>
+    </row>
+    <row r="41" spans="2:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="178" t="s">
+      <c r="C41" s="168" t="s">
         <v>109</v>
       </c>
-      <c r="D41" s="179"/>
-      <c r="E41" s="179"/>
-      <c r="F41" s="180"/>
-      <c r="G41" s="78"/>
-      <c r="H41" s="146"/>
-      <c r="I41" s="147"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D41" s="169"/>
+      <c r="E41" s="169"/>
+      <c r="F41" s="170"/>
+      <c r="G41" s="81">
+        <v>0.9</v>
+      </c>
+      <c r="H41" s="84" t="s">
+        <v>114</v>
+      </c>
+      <c r="I41" s="85"/>
+    </row>
+    <row r="42" spans="2:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C42" s="207"/>
-      <c r="D42" s="208"/>
-      <c r="E42" s="208"/>
-      <c r="F42" s="209"/>
-      <c r="G42" s="61"/>
-      <c r="H42" s="148"/>
-      <c r="I42" s="149"/>
-    </row>
-    <row r="43" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C42" s="171"/>
+      <c r="D42" s="172"/>
+      <c r="E42" s="172"/>
+      <c r="F42" s="173"/>
+      <c r="G42" s="64"/>
+      <c r="H42" s="131"/>
+      <c r="I42" s="132"/>
+    </row>
+    <row r="43" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C43" s="178" t="s">
+      <c r="C43" s="97" t="s">
         <v>111</v>
       </c>
-      <c r="D43" s="179"/>
-      <c r="E43" s="179"/>
-      <c r="F43" s="180"/>
-      <c r="G43" s="78"/>
-      <c r="H43" s="146"/>
-      <c r="I43" s="147"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D43" s="98"/>
+      <c r="E43" s="98"/>
+      <c r="F43" s="98"/>
+      <c r="G43" s="210">
+        <v>1</v>
+      </c>
+      <c r="H43" s="214"/>
+      <c r="I43" s="215"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C44" s="207"/>
-      <c r="D44" s="208"/>
-      <c r="E44" s="208"/>
-      <c r="F44" s="209"/>
-      <c r="G44" s="61"/>
-      <c r="H44" s="148"/>
-      <c r="I44" s="149"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C44" s="97"/>
+      <c r="D44" s="98"/>
+      <c r="E44" s="98"/>
+      <c r="F44" s="98"/>
+      <c r="G44" s="210"/>
+      <c r="H44" s="214"/>
+      <c r="I44" s="215"/>
+    </row>
+    <row r="45" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="178" t="s">
-        <v>112</v>
-      </c>
-      <c r="D45" s="179"/>
-      <c r="E45" s="179"/>
-      <c r="F45" s="180"/>
-      <c r="G45" s="78"/>
-      <c r="H45" s="210"/>
-      <c r="I45" s="211"/>
-    </row>
-    <row r="46" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C45" s="97"/>
+      <c r="D45" s="98"/>
+      <c r="E45" s="98"/>
+      <c r="F45" s="98"/>
+      <c r="G45" s="210"/>
+      <c r="H45" s="214"/>
+      <c r="I45" s="215"/>
+    </row>
+    <row r="46" spans="2:9" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B46" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="181"/>
-      <c r="D46" s="182"/>
-      <c r="E46" s="182"/>
-      <c r="F46" s="183"/>
-      <c r="G46" s="80"/>
-      <c r="H46" s="212"/>
-      <c r="I46" s="213"/>
+      <c r="C46" s="166" t="s">
+        <v>113</v>
+      </c>
+      <c r="D46" s="116"/>
+      <c r="E46" s="116"/>
+      <c r="F46" s="117"/>
+      <c r="G46" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="H46" s="212" t="s">
+        <v>115</v>
+      </c>
+      <c r="I46" s="216"/>
+    </row>
+    <row r="47" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="48" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C48" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="D48" s="55"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="55"/>
+      <c r="G48" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="H48" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="I48" s="56"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B49" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="167" t="s">
+        <v>113</v>
+      </c>
+      <c r="D49" s="52"/>
+      <c r="E49" s="52"/>
+      <c r="F49" s="125"/>
+      <c r="G49" s="63">
+        <v>1</v>
+      </c>
+      <c r="H49" s="174"/>
+      <c r="I49" s="175"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B50" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="126"/>
+      <c r="D50" s="127"/>
+      <c r="E50" s="127"/>
+      <c r="F50" s="128"/>
+      <c r="G50" s="64"/>
+      <c r="H50" s="151"/>
+      <c r="I50" s="152"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B51" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="D51" s="43"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="44"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="47"/>
+      <c r="I51" s="48"/>
+    </row>
+    <row r="52" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="168" t="s">
+        <v>113</v>
+      </c>
+      <c r="D52" s="169"/>
+      <c r="E52" s="169"/>
+      <c r="F52" s="170"/>
+      <c r="G52" s="81">
+        <v>1</v>
+      </c>
+      <c r="H52" s="149"/>
+      <c r="I52" s="150"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B53" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="171"/>
+      <c r="D53" s="172"/>
+      <c r="E53" s="172"/>
+      <c r="F53" s="173"/>
+      <c r="G53" s="64"/>
+      <c r="H53" s="151"/>
+      <c r="I53" s="152"/>
+    </row>
+    <row r="54" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="168" t="s">
+        <v>118</v>
+      </c>
+      <c r="D54" s="169"/>
+      <c r="E54" s="169"/>
+      <c r="F54" s="170"/>
+      <c r="G54" s="81"/>
+      <c r="H54" s="149"/>
+      <c r="I54" s="150"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B55" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" s="176"/>
+      <c r="D55" s="177"/>
+      <c r="E55" s="177"/>
+      <c r="F55" s="178"/>
+      <c r="G55" s="82"/>
+      <c r="H55" s="179"/>
+      <c r="I55" s="180"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B56" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" s="171"/>
+      <c r="D56" s="172"/>
+      <c r="E56" s="172"/>
+      <c r="F56" s="173"/>
+      <c r="G56" s="64"/>
+      <c r="H56" s="151"/>
+      <c r="I56" s="152"/>
+    </row>
+    <row r="57" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" s="115" t="s">
+        <v>119</v>
+      </c>
+      <c r="D57" s="162"/>
+      <c r="E57" s="162"/>
+      <c r="F57" s="163"/>
+      <c r="G57" s="41"/>
+      <c r="H57" s="164"/>
+      <c r="I57" s="165"/>
     </row>
   </sheetData>
-  <mergeCells count="70">
+  <mergeCells count="84">
+    <mergeCell ref="H46:I46"/>
     <mergeCell ref="C35:F35"/>
     <mergeCell ref="H35:I35"/>
     <mergeCell ref="C38:F39"/>
@@ -4380,12 +4579,9 @@
     <mergeCell ref="C41:F42"/>
     <mergeCell ref="G41:G42"/>
     <mergeCell ref="H41:I42"/>
-    <mergeCell ref="C43:F44"/>
-    <mergeCell ref="C45:F46"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H43:I44"/>
-    <mergeCell ref="H45:I46"/>
+    <mergeCell ref="C43:F45"/>
+    <mergeCell ref="G43:G45"/>
+    <mergeCell ref="H43:I45"/>
     <mergeCell ref="C40:F40"/>
     <mergeCell ref="H40:I40"/>
     <mergeCell ref="C37:F37"/>
@@ -4442,6 +4638,22 @@
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C57:F57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="C49:F50"/>
+    <mergeCell ref="C52:F53"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H49:I50"/>
+    <mergeCell ref="H52:I53"/>
+    <mergeCell ref="C54:F56"/>
+    <mergeCell ref="G54:G56"/>
+    <mergeCell ref="H54:I56"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="H48:I48"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4455,7 +4667,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4470,7 +4682,7 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4485,7 +4697,7 @@
       <selection activeCell="F35" sqref="F35:F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/졸작 진행 계획 시간표.xlsx
+++ b/졸작 진행 계획 시간표.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2020 졸작 깃\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A07668-F8C0-4538-B058-4F31FDD99583}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F76A75F-D49B-4F94-AAFB-E5079DF60164}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E0805F39-A49F-47F5-8E79-FFCEB62D9AEC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E0805F39-A49F-47F5-8E79-FFCEB62D9AEC}"/>
   </bookViews>
   <sheets>
     <sheet name="5월 4주차" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,10 @@
     <sheet name="6월 2주차" sheetId="3" r:id="rId3"/>
     <sheet name="6월 3주차" sheetId="4" r:id="rId4"/>
     <sheet name="6월 4주차" sheetId="5" r:id="rId5"/>
+    <sheet name="7월 1주차" sheetId="6" r:id="rId6"/>
+    <sheet name="7월 2주차" sheetId="7" r:id="rId7"/>
+    <sheet name="7월 3주차" sheetId="8" r:id="rId8"/>
+    <sheet name="7월 4주차" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="135">
   <si>
     <t>월</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -564,7 +568,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>몬스터 및 플레이어 사망 애니메이션 동기화 작업</t>
+    <t>다른 플레이어가 몬스터에게 총을 쐈을 때 총알의 데미지를 
+입히는 함수에서 플레이어의 컨트롤러를 참조하지 못하는 
+문제가 파악되어 수정중.
+테스트 중 이 문제를 해결하면 다른 플레이어의 사격으로도 몬스터의 체력이 깎이는 것을 확인함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020. 06. 06. 토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점심시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">19:00 ~        </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터와 플레이어 간 상호작용 정보 관리 함수 실제 적용 
+및 조정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터와 플레이어 간 상호작용 정보 관리 함수 실제 적용 
+및 조정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알람을 못 듣고 자버림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른 플레이어가 사격 했을 때 총알 방향이 이상하게 
+나가는 문제 해결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른 플레이어가 몬스터에게 사격하였을 때 데미지를 입는 것을 구현하였으나 실제 다른 플레이어가 보고 있는 방향으로 총알이 제대로 나가지 않는 문제를 파악함. 
+FireWeapon()함수 수정중이었으나 시간내에 완성하지 못함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020. 06. 08. 월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점심시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른 플레이어가 사격 했을 때 총알 방향이 이상하게 
+나가는 문제 해결 / Fireweapon() 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fireweapon() 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터의 비헤비어 트리가 다른 플레이어에게도 적용되게 하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1370,7 +1442,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="218">
+  <cellXfs count="260">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1497,6 +1569,24 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1506,17 +1596,341 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1527,335 +1941,158 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1863,167 +2100,128 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2341,8 +2539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA488195-4E58-4ADC-87D5-0E438CC6628E}">
   <dimension ref="B3:O95"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A95" sqref="A95:XFD95"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2400,10 +2598,10 @@
       <c r="G5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="107" t="s">
+      <c r="H5" s="133" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="108"/>
+      <c r="I5" s="134"/>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
@@ -2425,23 +2623,23 @@
       <c r="G6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="109"/>
-      <c r="I6" s="110"/>
+      <c r="H6" s="135"/>
+      <c r="I6" s="136"/>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="113" t="s">
+      <c r="C7" s="139" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="109"/>
-      <c r="I7" s="110"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="140"/>
+      <c r="H7" s="135"/>
+      <c r="I7" s="136"/>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2463,8 +2661,8 @@
       <c r="G8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="109"/>
-      <c r="I8" s="110"/>
+      <c r="H8" s="135"/>
+      <c r="I8" s="136"/>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
@@ -2486,8 +2684,8 @@
       <c r="G9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="109"/>
-      <c r="I9" s="110"/>
+      <c r="H9" s="135"/>
+      <c r="I9" s="136"/>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
@@ -2509,8 +2707,8 @@
       <c r="G10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="109"/>
-      <c r="I10" s="110"/>
+      <c r="H10" s="135"/>
+      <c r="I10" s="136"/>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
@@ -2532,8 +2730,8 @@
       <c r="G11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="109"/>
-      <c r="I11" s="110"/>
+      <c r="H11" s="135"/>
+      <c r="I11" s="136"/>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
@@ -2555,8 +2753,8 @@
       <c r="G12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="109"/>
-      <c r="I12" s="110"/>
+      <c r="H12" s="135"/>
+      <c r="I12" s="136"/>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2578,8 +2776,8 @@
       <c r="G13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="111"/>
-      <c r="I13" s="112"/>
+      <c r="H13" s="137"/>
+      <c r="I13" s="138"/>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
@@ -2621,481 +2819,481 @@
       <c r="B17" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="54" t="s">
+      <c r="C17" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
+      <c r="D17" s="106"/>
+      <c r="E17" s="106"/>
+      <c r="F17" s="106"/>
       <c r="G17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="55" t="s">
+      <c r="H17" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="I17" s="56"/>
+      <c r="I17" s="107"/>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="90" t="s">
+      <c r="C18" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="91"/>
-      <c r="E18" s="91"/>
-      <c r="F18" s="92"/>
+      <c r="D18" s="109"/>
+      <c r="E18" s="109"/>
+      <c r="F18" s="110"/>
       <c r="G18" s="16">
         <v>1</v>
       </c>
-      <c r="H18" s="95"/>
-      <c r="I18" s="96"/>
+      <c r="H18" s="141"/>
+      <c r="I18" s="142"/>
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="42" t="s">
+      <c r="C19" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="44"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="50"/>
       <c r="G19" s="16">
         <v>1</v>
       </c>
-      <c r="H19" s="47"/>
-      <c r="I19" s="48"/>
+      <c r="H19" s="84"/>
+      <c r="I19" s="85"/>
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="42" t="s">
+      <c r="C20" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="44"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="50"/>
       <c r="G20" s="16"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="48"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="85"/>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="69" t="s">
+      <c r="C21" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="44"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="50"/>
       <c r="G21" s="16">
         <v>1</v>
       </c>
-      <c r="H21" s="47"/>
-      <c r="I21" s="48"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="85"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="42" t="s">
+      <c r="C22" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="44"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="50"/>
       <c r="G22" s="16"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="48"/>
+      <c r="H22" s="84"/>
+      <c r="I22" s="85"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="42" t="s">
+      <c r="C23" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="44"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="50"/>
       <c r="G23" s="16"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="48"/>
+      <c r="H23" s="84"/>
+      <c r="I23" s="85"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="42" t="s">
+      <c r="C24" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="44"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="50"/>
       <c r="G24" s="16">
         <v>1</v>
       </c>
-      <c r="H24" s="47"/>
-      <c r="I24" s="48"/>
+      <c r="H24" s="84"/>
+      <c r="I24" s="85"/>
     </row>
     <row r="25" spans="2:10" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="42" t="s">
+      <c r="C25" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="44"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="50"/>
       <c r="G25" s="16">
         <v>0.8</v>
       </c>
-      <c r="H25" s="120" t="s">
+      <c r="H25" s="131" t="s">
         <v>38</v>
       </c>
-      <c r="I25" s="121"/>
+      <c r="I25" s="132"/>
     </row>
     <row r="26" spans="2:10" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="115" t="s">
+      <c r="C26" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="116"/>
-      <c r="E26" s="116"/>
-      <c r="F26" s="117"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="53"/>
       <c r="G26" s="17">
         <v>1</v>
       </c>
-      <c r="H26" s="118"/>
-      <c r="I26" s="119"/>
+      <c r="H26" s="129"/>
+      <c r="I26" s="130"/>
     </row>
     <row r="27" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="28" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="54" t="s">
+      <c r="C28" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
+      <c r="D28" s="106"/>
+      <c r="E28" s="106"/>
+      <c r="F28" s="106"/>
       <c r="G28" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H28" s="55" t="s">
+      <c r="H28" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="I28" s="56"/>
+      <c r="I28" s="107"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="90" t="s">
+      <c r="C29" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="91"/>
-      <c r="E29" s="91"/>
-      <c r="F29" s="92"/>
+      <c r="D29" s="109"/>
+      <c r="E29" s="109"/>
+      <c r="F29" s="110"/>
       <c r="G29" s="16"/>
-      <c r="H29" s="122"/>
-      <c r="I29" s="123"/>
+      <c r="H29" s="111"/>
+      <c r="I29" s="112"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="42" t="s">
+      <c r="C30" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="44"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="50"/>
       <c r="G30" s="16"/>
-      <c r="H30" s="103"/>
-      <c r="I30" s="104"/>
+      <c r="H30" s="124"/>
+      <c r="I30" s="125"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="42" t="s">
+      <c r="C31" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="44"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="50"/>
       <c r="G31" s="16"/>
-      <c r="H31" s="103"/>
-      <c r="I31" s="104"/>
+      <c r="H31" s="124"/>
+      <c r="I31" s="125"/>
     </row>
     <row r="32" spans="2:10" ht="80.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="69" t="s">
+      <c r="C32" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="44"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="50"/>
       <c r="G32" s="16">
         <v>0.5</v>
       </c>
-      <c r="H32" s="133" t="s">
+      <c r="H32" s="100" t="s">
         <v>40</v>
       </c>
-      <c r="I32" s="106"/>
+      <c r="I32" s="88"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="42" t="s">
+      <c r="C33" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="44"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="50"/>
       <c r="G33" s="16">
         <v>1</v>
       </c>
-      <c r="H33" s="103"/>
-      <c r="I33" s="104"/>
+      <c r="H33" s="124"/>
+      <c r="I33" s="125"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="42" t="s">
+      <c r="C34" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="44"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="50"/>
       <c r="G34" s="16">
         <v>1</v>
       </c>
-      <c r="H34" s="103"/>
-      <c r="I34" s="104"/>
+      <c r="H34" s="124"/>
+      <c r="I34" s="125"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B35" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="42" t="s">
+      <c r="C35" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="44"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="50"/>
       <c r="G35" s="16">
         <v>1</v>
       </c>
-      <c r="H35" s="103"/>
-      <c r="I35" s="104"/>
+      <c r="H35" s="124"/>
+      <c r="I35" s="125"/>
     </row>
     <row r="36" spans="2:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="42" t="s">
+      <c r="C36" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="81">
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="60">
         <v>0.5</v>
       </c>
-      <c r="H36" s="84" t="s">
+      <c r="H36" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="I36" s="134"/>
+      <c r="I36" s="126"/>
     </row>
     <row r="37" spans="2:10" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="115" t="s">
+      <c r="C37" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="D37" s="116"/>
-      <c r="E37" s="116"/>
-      <c r="F37" s="117"/>
-      <c r="G37" s="83"/>
-      <c r="H37" s="135"/>
-      <c r="I37" s="136"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="76"/>
+      <c r="H37" s="127"/>
+      <c r="I37" s="128"/>
     </row>
     <row r="38" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="39" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C39" s="54" t="s">
+      <c r="C39" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="55"/>
-      <c r="E39" s="55"/>
-      <c r="F39" s="55"/>
+      <c r="D39" s="106"/>
+      <c r="E39" s="106"/>
+      <c r="F39" s="106"/>
       <c r="G39" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="H39" s="55" t="s">
+      <c r="H39" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="I39" s="56"/>
+      <c r="I39" s="107"/>
     </row>
     <row r="40" spans="2:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="124" t="s">
+      <c r="C40" s="113" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="52"/>
-      <c r="E40" s="52"/>
-      <c r="F40" s="125"/>
-      <c r="G40" s="63">
+      <c r="D40" s="114"/>
+      <c r="E40" s="114"/>
+      <c r="F40" s="115"/>
+      <c r="G40" s="119">
         <v>0.3</v>
       </c>
-      <c r="H40" s="129" t="s">
+      <c r="H40" s="120" t="s">
         <v>46</v>
       </c>
-      <c r="I40" s="130"/>
+      <c r="I40" s="121"/>
     </row>
     <row r="41" spans="2:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C41" s="126"/>
-      <c r="D41" s="127"/>
-      <c r="E41" s="127"/>
-      <c r="F41" s="128"/>
-      <c r="G41" s="64"/>
-      <c r="H41" s="131"/>
-      <c r="I41" s="132"/>
+      <c r="C41" s="116"/>
+      <c r="D41" s="117"/>
+      <c r="E41" s="117"/>
+      <c r="F41" s="118"/>
+      <c r="G41" s="61"/>
+      <c r="H41" s="122"/>
+      <c r="I41" s="123"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B42" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="42" t="s">
+      <c r="C42" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="D42" s="43"/>
-      <c r="E42" s="43"/>
-      <c r="F42" s="44"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="50"/>
       <c r="G42" s="16"/>
-      <c r="H42" s="105"/>
-      <c r="I42" s="106"/>
+      <c r="H42" s="87"/>
+      <c r="I42" s="88"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B43" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="69" t="s">
+      <c r="C43" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="D43" s="43"/>
-      <c r="E43" s="43"/>
-      <c r="F43" s="44"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="50"/>
       <c r="G43" s="20">
         <v>1</v>
       </c>
-      <c r="H43" s="105"/>
-      <c r="I43" s="106"/>
+      <c r="H43" s="87"/>
+      <c r="I43" s="88"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C44" s="69" t="s">
+      <c r="C44" s="83" t="s">
         <v>44</v>
       </c>
-      <c r="D44" s="43"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="44"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="50"/>
       <c r="G44" s="20">
         <v>1</v>
       </c>
-      <c r="H44" s="105"/>
-      <c r="I44" s="106"/>
+      <c r="H44" s="87"/>
+      <c r="I44" s="88"/>
     </row>
     <row r="45" spans="2:10" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C45" s="97" t="s">
+      <c r="C45" s="143" t="s">
         <v>47</v>
       </c>
-      <c r="D45" s="98"/>
-      <c r="E45" s="98"/>
-      <c r="F45" s="98"/>
+      <c r="D45" s="144"/>
+      <c r="E45" s="144"/>
+      <c r="F45" s="144"/>
       <c r="G45" s="22"/>
-      <c r="H45" s="99"/>
-      <c r="I45" s="100"/>
+      <c r="H45" s="145"/>
+      <c r="I45" s="146"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B46" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C46" s="101" t="s">
+      <c r="C46" s="147" t="s">
         <v>51</v>
       </c>
-      <c r="D46" s="102"/>
-      <c r="E46" s="102"/>
-      <c r="F46" s="102"/>
+      <c r="D46" s="148"/>
+      <c r="E46" s="148"/>
+      <c r="F46" s="148"/>
       <c r="G46" s="22">
         <v>1</v>
       </c>
-      <c r="H46" s="103"/>
-      <c r="I46" s="104"/>
+      <c r="H46" s="124"/>
+      <c r="I46" s="125"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="42" t="s">
+      <c r="C47" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="D47" s="43"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="44"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="49"/>
+      <c r="F47" s="50"/>
       <c r="G47" s="21">
         <v>1</v>
       </c>
-      <c r="H47" s="133"/>
-      <c r="I47" s="146"/>
+      <c r="H47" s="100"/>
+      <c r="I47" s="101"/>
     </row>
     <row r="48" spans="2:10" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B48" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="115" t="s">
+      <c r="C48" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="D48" s="116"/>
-      <c r="E48" s="116"/>
-      <c r="F48" s="117"/>
+      <c r="D48" s="52"/>
+      <c r="E48" s="52"/>
+      <c r="F48" s="53"/>
       <c r="G48" s="17">
         <v>0.8</v>
       </c>
-      <c r="H48" s="144" t="s">
+      <c r="H48" s="98" t="s">
         <v>50</v>
       </c>
-      <c r="I48" s="147"/>
+      <c r="I48" s="102"/>
       <c r="J48" s="25" t="s">
         <v>57</v>
       </c>
@@ -3105,353 +3303,353 @@
       <c r="B50" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C50" s="54" t="s">
+      <c r="C50" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="D50" s="55"/>
-      <c r="E50" s="55"/>
-      <c r="F50" s="55"/>
+      <c r="D50" s="106"/>
+      <c r="E50" s="106"/>
+      <c r="F50" s="106"/>
       <c r="G50" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H50" s="55" t="s">
+      <c r="H50" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="I50" s="56"/>
+      <c r="I50" s="107"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C51" s="90" t="s">
+      <c r="C51" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="D51" s="91"/>
-      <c r="E51" s="91"/>
-      <c r="F51" s="92"/>
+      <c r="D51" s="109"/>
+      <c r="E51" s="109"/>
+      <c r="F51" s="110"/>
       <c r="G51" s="20">
         <v>1</v>
       </c>
-      <c r="H51" s="95"/>
-      <c r="I51" s="96"/>
+      <c r="H51" s="141"/>
+      <c r="I51" s="142"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C52" s="42" t="s">
+      <c r="C52" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="D52" s="43"/>
-      <c r="E52" s="43"/>
-      <c r="F52" s="44"/>
+      <c r="D52" s="49"/>
+      <c r="E52" s="49"/>
+      <c r="F52" s="50"/>
       <c r="G52" s="20">
         <v>1</v>
       </c>
-      <c r="H52" s="47"/>
-      <c r="I52" s="48"/>
+      <c r="H52" s="84"/>
+      <c r="I52" s="85"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C53" s="42" t="s">
+      <c r="C53" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="D53" s="43"/>
-      <c r="E53" s="43"/>
-      <c r="F53" s="44"/>
+      <c r="D53" s="49"/>
+      <c r="E53" s="49"/>
+      <c r="F53" s="50"/>
       <c r="G53" s="20"/>
-      <c r="H53" s="47"/>
-      <c r="I53" s="48"/>
+      <c r="H53" s="84"/>
+      <c r="I53" s="85"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C54" s="69" t="s">
+      <c r="C54" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="D54" s="70"/>
-      <c r="E54" s="70"/>
-      <c r="F54" s="71"/>
+      <c r="D54" s="103"/>
+      <c r="E54" s="103"/>
+      <c r="F54" s="104"/>
       <c r="G54" s="20">
         <v>1</v>
       </c>
-      <c r="H54" s="47"/>
-      <c r="I54" s="48"/>
+      <c r="H54" s="84"/>
+      <c r="I54" s="85"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C55" s="42" t="s">
+      <c r="C55" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="D55" s="43"/>
-      <c r="E55" s="43"/>
-      <c r="F55" s="44"/>
+      <c r="D55" s="49"/>
+      <c r="E55" s="49"/>
+      <c r="F55" s="50"/>
       <c r="G55" s="20">
         <v>1</v>
       </c>
-      <c r="H55" s="47"/>
-      <c r="I55" s="48"/>
+      <c r="H55" s="84"/>
+      <c r="I55" s="85"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C56" s="69" t="s">
+      <c r="C56" s="83" t="s">
         <v>58</v>
       </c>
-      <c r="D56" s="70"/>
-      <c r="E56" s="70"/>
-      <c r="F56" s="71"/>
+      <c r="D56" s="103"/>
+      <c r="E56" s="103"/>
+      <c r="F56" s="104"/>
       <c r="G56" s="20">
         <v>1</v>
       </c>
-      <c r="H56" s="47"/>
-      <c r="I56" s="48"/>
+      <c r="H56" s="84"/>
+      <c r="I56" s="85"/>
     </row>
     <row r="57" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C57" s="72" t="s">
+      <c r="C57" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="D57" s="73"/>
-      <c r="E57" s="73"/>
-      <c r="F57" s="74"/>
-      <c r="G57" s="81">
+      <c r="D57" s="55"/>
+      <c r="E57" s="55"/>
+      <c r="F57" s="56"/>
+      <c r="G57" s="60">
         <v>0.3</v>
       </c>
-      <c r="H57" s="84" t="s">
+      <c r="H57" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="I57" s="85"/>
+      <c r="I57" s="78"/>
     </row>
     <row r="58" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C58" s="75"/>
-      <c r="D58" s="76"/>
-      <c r="E58" s="76"/>
-      <c r="F58" s="77"/>
-      <c r="G58" s="82"/>
-      <c r="H58" s="86"/>
-      <c r="I58" s="87"/>
+      <c r="C58" s="89"/>
+      <c r="D58" s="90"/>
+      <c r="E58" s="90"/>
+      <c r="F58" s="91"/>
+      <c r="G58" s="75"/>
+      <c r="H58" s="79"/>
+      <c r="I58" s="80"/>
     </row>
     <row r="59" spans="2:9" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B59" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C59" s="78"/>
-      <c r="D59" s="79"/>
-      <c r="E59" s="79"/>
-      <c r="F59" s="80"/>
-      <c r="G59" s="83"/>
-      <c r="H59" s="88"/>
-      <c r="I59" s="89"/>
+      <c r="C59" s="156"/>
+      <c r="D59" s="157"/>
+      <c r="E59" s="157"/>
+      <c r="F59" s="158"/>
+      <c r="G59" s="76"/>
+      <c r="H59" s="81"/>
+      <c r="I59" s="82"/>
     </row>
     <row r="60" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="61" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B61" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C61" s="54" t="s">
+      <c r="C61" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="D61" s="55"/>
-      <c r="E61" s="55"/>
-      <c r="F61" s="55"/>
+      <c r="D61" s="106"/>
+      <c r="E61" s="106"/>
+      <c r="F61" s="106"/>
       <c r="G61" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="H61" s="55" t="s">
+      <c r="H61" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="I61" s="56"/>
+      <c r="I61" s="107"/>
     </row>
     <row r="62" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C62" s="57" t="s">
+      <c r="C62" s="149" t="s">
         <v>59</v>
       </c>
-      <c r="D62" s="58"/>
-      <c r="E62" s="58"/>
-      <c r="F62" s="59"/>
-      <c r="G62" s="63">
+      <c r="D62" s="150"/>
+      <c r="E62" s="150"/>
+      <c r="F62" s="151"/>
+      <c r="G62" s="119">
         <v>0.3</v>
       </c>
-      <c r="H62" s="65" t="s">
+      <c r="H62" s="152" t="s">
         <v>67</v>
       </c>
-      <c r="I62" s="66"/>
+      <c r="I62" s="153"/>
     </row>
     <row r="63" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C63" s="60"/>
-      <c r="D63" s="61"/>
-      <c r="E63" s="61"/>
-      <c r="F63" s="62"/>
-      <c r="G63" s="64"/>
-      <c r="H63" s="67"/>
-      <c r="I63" s="68"/>
+      <c r="C63" s="57"/>
+      <c r="D63" s="58"/>
+      <c r="E63" s="58"/>
+      <c r="F63" s="59"/>
+      <c r="G63" s="61"/>
+      <c r="H63" s="154"/>
+      <c r="I63" s="155"/>
     </row>
     <row r="64" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C64" s="42" t="s">
+      <c r="C64" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="D64" s="43"/>
-      <c r="E64" s="43"/>
-      <c r="F64" s="44"/>
+      <c r="D64" s="49"/>
+      <c r="E64" s="49"/>
+      <c r="F64" s="50"/>
       <c r="G64" s="24"/>
-      <c r="H64" s="49"/>
-      <c r="I64" s="50"/>
+      <c r="H64" s="163"/>
+      <c r="I64" s="164"/>
     </row>
     <row r="65" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C65" s="72" t="s">
+      <c r="C65" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="D65" s="73"/>
-      <c r="E65" s="73"/>
-      <c r="F65" s="74"/>
-      <c r="G65" s="81">
+      <c r="D65" s="55"/>
+      <c r="E65" s="55"/>
+      <c r="F65" s="56"/>
+      <c r="G65" s="60">
         <v>1</v>
       </c>
-      <c r="H65" s="138" t="s">
+      <c r="H65" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="I65" s="139"/>
-      <c r="L65" s="69" t="s">
+      <c r="I65" s="93"/>
+      <c r="L65" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="M65" s="43"/>
-      <c r="N65" s="43"/>
-      <c r="O65" s="44"/>
+      <c r="M65" s="49"/>
+      <c r="N65" s="49"/>
+      <c r="O65" s="50"/>
     </row>
     <row r="66" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C66" s="75"/>
-      <c r="D66" s="76"/>
-      <c r="E66" s="76"/>
-      <c r="F66" s="77"/>
-      <c r="G66" s="82"/>
-      <c r="H66" s="140"/>
-      <c r="I66" s="141"/>
-      <c r="L66" s="42" t="s">
+      <c r="C66" s="89"/>
+      <c r="D66" s="90"/>
+      <c r="E66" s="90"/>
+      <c r="F66" s="91"/>
+      <c r="G66" s="75"/>
+      <c r="H66" s="94"/>
+      <c r="I66" s="95"/>
+      <c r="L66" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="M66" s="43"/>
-      <c r="N66" s="43"/>
-      <c r="O66" s="44"/>
+      <c r="M66" s="49"/>
+      <c r="N66" s="49"/>
+      <c r="O66" s="50"/>
     </row>
     <row r="67" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B67" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C67" s="75"/>
-      <c r="D67" s="76"/>
-      <c r="E67" s="76"/>
-      <c r="F67" s="77"/>
-      <c r="G67" s="82"/>
-      <c r="H67" s="140"/>
-      <c r="I67" s="141"/>
-      <c r="L67" s="42" t="s">
+      <c r="C67" s="89"/>
+      <c r="D67" s="90"/>
+      <c r="E67" s="90"/>
+      <c r="F67" s="91"/>
+      <c r="G67" s="75"/>
+      <c r="H67" s="94"/>
+      <c r="I67" s="95"/>
+      <c r="L67" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="M67" s="43"/>
-      <c r="N67" s="43"/>
-      <c r="O67" s="44"/>
+      <c r="M67" s="49"/>
+      <c r="N67" s="49"/>
+      <c r="O67" s="50"/>
     </row>
     <row r="68" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C68" s="75"/>
-      <c r="D68" s="76"/>
-      <c r="E68" s="76"/>
-      <c r="F68" s="77"/>
-      <c r="G68" s="82"/>
-      <c r="H68" s="140"/>
-      <c r="I68" s="141"/>
-      <c r="L68" s="42" t="s">
+      <c r="C68" s="89"/>
+      <c r="D68" s="90"/>
+      <c r="E68" s="90"/>
+      <c r="F68" s="91"/>
+      <c r="G68" s="75"/>
+      <c r="H68" s="94"/>
+      <c r="I68" s="95"/>
+      <c r="L68" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="M68" s="43"/>
-      <c r="N68" s="43"/>
-      <c r="O68" s="44"/>
+      <c r="M68" s="49"/>
+      <c r="N68" s="49"/>
+      <c r="O68" s="50"/>
     </row>
     <row r="69" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C69" s="60"/>
-      <c r="D69" s="61"/>
-      <c r="E69" s="61"/>
-      <c r="F69" s="62"/>
-      <c r="G69" s="64"/>
-      <c r="H69" s="142"/>
-      <c r="I69" s="143"/>
-      <c r="L69" s="42" t="s">
+      <c r="C69" s="57"/>
+      <c r="D69" s="58"/>
+      <c r="E69" s="58"/>
+      <c r="F69" s="59"/>
+      <c r="G69" s="61"/>
+      <c r="H69" s="96"/>
+      <c r="I69" s="97"/>
+      <c r="L69" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="M69" s="43"/>
-      <c r="N69" s="43"/>
-      <c r="O69" s="44"/>
+      <c r="M69" s="49"/>
+      <c r="N69" s="49"/>
+      <c r="O69" s="50"/>
     </row>
     <row r="70" spans="2:15" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B70" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C70" s="115" t="s">
+      <c r="C70" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="D70" s="116"/>
-      <c r="E70" s="116"/>
-      <c r="F70" s="117"/>
+      <c r="D70" s="52"/>
+      <c r="E70" s="52"/>
+      <c r="F70" s="53"/>
       <c r="G70" s="17">
         <v>0.5</v>
       </c>
-      <c r="H70" s="144" t="s">
+      <c r="H70" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="I70" s="145"/>
-      <c r="L70" s="115" t="s">
+      <c r="I70" s="99"/>
+      <c r="L70" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="M70" s="116"/>
-      <c r="N70" s="116"/>
-      <c r="O70" s="117"/>
+      <c r="M70" s="52"/>
+      <c r="N70" s="52"/>
+      <c r="O70" s="53"/>
     </row>
     <row r="71" spans="2:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="C71" s="51" t="s">
+      <c r="C71" s="165" t="s">
         <v>71</v>
       </c>
-      <c r="D71" s="52"/>
-      <c r="E71" s="52"/>
-      <c r="F71" s="52"/>
-      <c r="H71" s="53" t="s">
+      <c r="D71" s="114"/>
+      <c r="E71" s="114"/>
+      <c r="F71" s="114"/>
+      <c r="H71" s="166" t="s">
         <v>73</v>
       </c>
-      <c r="I71" s="53"/>
+      <c r="I71" s="166"/>
       <c r="J71" t="s">
         <v>74</v>
       </c>
@@ -3461,219 +3659,290 @@
       <c r="B74" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C74" s="54" t="s">
+      <c r="C74" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="D74" s="55"/>
-      <c r="E74" s="55"/>
-      <c r="F74" s="55"/>
+      <c r="D74" s="106"/>
+      <c r="E74" s="106"/>
+      <c r="F74" s="106"/>
       <c r="G74" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="H74" s="55" t="s">
+      <c r="H74" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="I74" s="56"/>
+      <c r="I74" s="107"/>
     </row>
     <row r="75" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B75" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C75" s="90" t="s">
+      <c r="C75" s="108" t="s">
         <v>77</v>
       </c>
-      <c r="D75" s="91"/>
-      <c r="E75" s="91"/>
-      <c r="F75" s="92"/>
+      <c r="D75" s="109"/>
+      <c r="E75" s="109"/>
+      <c r="F75" s="110"/>
       <c r="G75" s="27">
         <v>0</v>
       </c>
-      <c r="H75" s="93" t="s">
+      <c r="H75" s="159" t="s">
         <v>83</v>
       </c>
-      <c r="I75" s="94"/>
+      <c r="I75" s="160"/>
     </row>
     <row r="76" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B76" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C76" s="42" t="s">
+      <c r="C76" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="D76" s="43"/>
-      <c r="E76" s="43"/>
-      <c r="F76" s="44"/>
+      <c r="D76" s="49"/>
+      <c r="E76" s="49"/>
+      <c r="F76" s="50"/>
       <c r="G76" s="27">
         <v>0</v>
       </c>
-      <c r="H76" s="45" t="s">
+      <c r="H76" s="161" t="s">
         <v>83</v>
       </c>
-      <c r="I76" s="46"/>
+      <c r="I76" s="162"/>
     </row>
     <row r="77" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B77" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C77" s="42" t="s">
+      <c r="C77" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="D77" s="43"/>
-      <c r="E77" s="43"/>
-      <c r="F77" s="44"/>
+      <c r="D77" s="49"/>
+      <c r="E77" s="49"/>
+      <c r="F77" s="50"/>
       <c r="G77" s="27"/>
-      <c r="H77" s="47"/>
-      <c r="I77" s="48"/>
+      <c r="H77" s="84"/>
+      <c r="I77" s="85"/>
     </row>
     <row r="78" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B78" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C78" s="69" t="s">
+      <c r="C78" s="83" t="s">
         <v>79</v>
       </c>
-      <c r="D78" s="43"/>
-      <c r="E78" s="43"/>
-      <c r="F78" s="44"/>
+      <c r="D78" s="49"/>
+      <c r="E78" s="49"/>
+      <c r="F78" s="50"/>
       <c r="G78" s="27">
         <v>1</v>
       </c>
-      <c r="H78" s="47"/>
-      <c r="I78" s="48"/>
-      <c r="L78" s="42" t="s">
+      <c r="H78" s="84"/>
+      <c r="I78" s="85"/>
+      <c r="L78" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="M78" s="43"/>
-      <c r="N78" s="43"/>
-      <c r="O78" s="44"/>
+      <c r="M78" s="49"/>
+      <c r="N78" s="49"/>
+      <c r="O78" s="50"/>
     </row>
     <row r="79" spans="2:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C79" s="72" t="s">
+      <c r="C79" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="D79" s="73"/>
-      <c r="E79" s="73"/>
-      <c r="F79" s="74"/>
-      <c r="G79" s="81">
+      <c r="D79" s="55"/>
+      <c r="E79" s="55"/>
+      <c r="F79" s="56"/>
+      <c r="G79" s="60">
         <v>1</v>
       </c>
-      <c r="H79" s="149"/>
-      <c r="I79" s="150"/>
-      <c r="L79" s="42" t="s">
+      <c r="H79" s="62"/>
+      <c r="I79" s="63"/>
+      <c r="L79" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="M79" s="43"/>
-      <c r="N79" s="43"/>
-      <c r="O79" s="44"/>
+      <c r="M79" s="49"/>
+      <c r="N79" s="49"/>
+      <c r="O79" s="50"/>
     </row>
     <row r="80" spans="2:15" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B80" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C80" s="60"/>
-      <c r="D80" s="61"/>
-      <c r="E80" s="61"/>
-      <c r="F80" s="62"/>
-      <c r="G80" s="64"/>
-      <c r="H80" s="151"/>
-      <c r="I80" s="152"/>
-      <c r="L80" s="115" t="s">
+      <c r="C80" s="57"/>
+      <c r="D80" s="58"/>
+      <c r="E80" s="58"/>
+      <c r="F80" s="59"/>
+      <c r="G80" s="61"/>
+      <c r="H80" s="64"/>
+      <c r="I80" s="65"/>
+      <c r="L80" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="M80" s="116"/>
-      <c r="N80" s="116"/>
-      <c r="O80" s="117"/>
+      <c r="M80" s="52"/>
+      <c r="N80" s="52"/>
+      <c r="O80" s="53"/>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C81" s="153" t="s">
+      <c r="C81" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="D81" s="154"/>
-      <c r="E81" s="154"/>
-      <c r="F81" s="155"/>
-      <c r="G81" s="81">
+      <c r="D81" s="67"/>
+      <c r="E81" s="67"/>
+      <c r="F81" s="68"/>
+      <c r="G81" s="60">
         <v>0.7</v>
       </c>
-      <c r="H81" s="84" t="s">
+      <c r="H81" s="77" t="s">
         <v>85</v>
       </c>
-      <c r="I81" s="85"/>
+      <c r="I81" s="78"/>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C82" s="156"/>
-      <c r="D82" s="157"/>
-      <c r="E82" s="157"/>
-      <c r="F82" s="158"/>
-      <c r="G82" s="82"/>
-      <c r="H82" s="86"/>
-      <c r="I82" s="87"/>
+      <c r="C82" s="69"/>
+      <c r="D82" s="70"/>
+      <c r="E82" s="70"/>
+      <c r="F82" s="71"/>
+      <c r="G82" s="75"/>
+      <c r="H82" s="79"/>
+      <c r="I82" s="80"/>
     </row>
     <row r="83" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B83" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C83" s="159"/>
-      <c r="D83" s="160"/>
-      <c r="E83" s="160"/>
-      <c r="F83" s="161"/>
-      <c r="G83" s="83"/>
-      <c r="H83" s="88"/>
-      <c r="I83" s="89"/>
+      <c r="C83" s="72"/>
+      <c r="D83" s="73"/>
+      <c r="E83" s="73"/>
+      <c r="F83" s="74"/>
+      <c r="G83" s="76"/>
+      <c r="H83" s="81"/>
+      <c r="I83" s="82"/>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C84" s="148" t="s">
+      <c r="C84" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="D84" s="148"/>
-      <c r="E84" s="148"/>
-      <c r="F84" s="148"/>
+      <c r="D84" s="47"/>
+      <c r="E84" s="47"/>
+      <c r="F84" s="47"/>
       <c r="G84" s="1"/>
-      <c r="H84" s="148" t="s">
+      <c r="H84" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="I84" s="148"/>
+      <c r="I84" s="47"/>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="31"/>
-      <c r="C85" s="137" t="s">
+      <c r="C85" s="86" t="s">
         <v>89</v>
       </c>
-      <c r="D85" s="137"/>
-      <c r="E85" s="137"/>
-      <c r="F85" s="137"/>
-      <c r="H85" s="137" t="s">
+      <c r="D85" s="86"/>
+      <c r="E85" s="86"/>
+      <c r="F85" s="86"/>
+      <c r="H85" s="86" t="s">
         <v>88</v>
       </c>
-      <c r="I85" s="137"/>
+      <c r="I85" s="86"/>
     </row>
     <row r="95" spans="2:9" ht="54" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="121">
-    <mergeCell ref="C84:F84"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="L78:O78"/>
-    <mergeCell ref="L79:O79"/>
-    <mergeCell ref="L80:O80"/>
-    <mergeCell ref="C79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="H79:I80"/>
-    <mergeCell ref="C81:F83"/>
-    <mergeCell ref="G81:G83"/>
-    <mergeCell ref="H81:I83"/>
-    <mergeCell ref="C78:F78"/>
-    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="C76:F76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="C77:F77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="C64:F64"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="C71:F71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="C74:F74"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="C62:F63"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="H62:I63"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="C57:F59"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="H57:I59"/>
+    <mergeCell ref="C75:F75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="C61:F61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H5:I13"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="C40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:I41"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:I37"/>
+    <mergeCell ref="C39:F39"/>
     <mergeCell ref="C85:F85"/>
     <mergeCell ref="H85:I85"/>
     <mergeCell ref="C44:F44"/>
@@ -3698,90 +3967,19 @@
     <mergeCell ref="C54:F54"/>
     <mergeCell ref="H54:I54"/>
     <mergeCell ref="C55:F55"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="C40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:I41"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:I37"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H5:I13"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="C61:F61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="C62:F63"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="H62:I63"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="C57:F59"/>
-    <mergeCell ref="G57:G59"/>
-    <mergeCell ref="H57:I59"/>
-    <mergeCell ref="C75:F75"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="C76:F76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="C77:F77"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="C64:F64"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="C71:F71"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="C74:F74"/>
-    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="C84:F84"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="L78:O78"/>
+    <mergeCell ref="L79:O79"/>
+    <mergeCell ref="L80:O80"/>
+    <mergeCell ref="C79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="H79:I80"/>
+    <mergeCell ref="C81:F83"/>
+    <mergeCell ref="G81:G83"/>
+    <mergeCell ref="H81:I83"/>
+    <mergeCell ref="C78:F78"/>
+    <mergeCell ref="H78:I78"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3791,10 +3989,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{813EEE76-69D4-4EE1-98FD-50720CEB1426}">
-  <dimension ref="B2:I57"/>
+  <dimension ref="B2:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="L56" sqref="L56"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3811,159 +4009,159 @@
       <c r="B3" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
       <c r="G3" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="55" t="s">
+      <c r="H3" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="56"/>
+      <c r="I3" s="107"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="90" t="s">
+      <c r="C4" s="108" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="92"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="110"/>
       <c r="G4" s="30">
         <v>1</v>
       </c>
-      <c r="H4" s="95"/>
-      <c r="I4" s="96"/>
+      <c r="H4" s="141"/>
+      <c r="I4" s="142"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="44"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="50"/>
       <c r="G5" s="30">
         <v>1</v>
       </c>
-      <c r="H5" s="47"/>
-      <c r="I5" s="48"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="85"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="44"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="50"/>
       <c r="G6" s="30"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="48"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="85"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="71"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="104"/>
       <c r="G7" s="30">
         <v>1</v>
       </c>
-      <c r="H7" s="47"/>
-      <c r="I7" s="48"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="85"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="44"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="50"/>
       <c r="G8" s="30"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="48"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="85"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="69" t="s">
+      <c r="C9" s="83" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="71"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="104"/>
       <c r="G9" s="30"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="48"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="85"/>
     </row>
     <row r="10" spans="2:9" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="69" t="s">
+      <c r="C10" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="71"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="104"/>
       <c r="G10" s="22">
         <v>0.8</v>
       </c>
-      <c r="H10" s="181" t="s">
+      <c r="H10" s="187" t="s">
         <v>98</v>
       </c>
-      <c r="I10" s="182"/>
+      <c r="I10" s="188"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="69" t="s">
+      <c r="C11" s="83" t="s">
         <v>96</v>
       </c>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="71"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="104"/>
       <c r="G11" s="22">
         <v>1</v>
       </c>
-      <c r="H11" s="183"/>
-      <c r="I11" s="184"/>
+      <c r="H11" s="219"/>
+      <c r="I11" s="220"/>
     </row>
     <row r="12" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="115" t="s">
+      <c r="C12" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="D12" s="162"/>
-      <c r="E12" s="162"/>
-      <c r="F12" s="163"/>
+      <c r="D12" s="217"/>
+      <c r="E12" s="217"/>
+      <c r="F12" s="218"/>
       <c r="G12" s="17">
         <v>1</v>
       </c>
-      <c r="H12" s="164"/>
-      <c r="I12" s="165"/>
+      <c r="H12" s="221"/>
+      <c r="I12" s="222"/>
     </row>
     <row r="13" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C13" s="32"/>
@@ -3975,601 +4173,842 @@
       <c r="B14" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="106"/>
+      <c r="F14" s="106"/>
       <c r="G14" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="55" t="s">
+      <c r="H14" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="56"/>
+      <c r="I14" s="107"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="90" t="s">
+      <c r="C15" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="91"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="92"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="110"/>
       <c r="G15" s="34"/>
-      <c r="H15" s="95"/>
-      <c r="I15" s="96"/>
+      <c r="H15" s="141"/>
+      <c r="I15" s="142"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="42" t="s">
+      <c r="C16" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="44"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="50"/>
       <c r="G16" s="34"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="48"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="85"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="42" t="s">
+      <c r="C17" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="44"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="50"/>
       <c r="G17" s="34"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="48"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="85"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="185" t="s">
+      <c r="C18" s="211" t="s">
         <v>100</v>
       </c>
-      <c r="D18" s="186"/>
-      <c r="E18" s="186"/>
-      <c r="F18" s="187"/>
-      <c r="G18" s="81">
+      <c r="D18" s="212"/>
+      <c r="E18" s="212"/>
+      <c r="F18" s="213"/>
+      <c r="G18" s="60">
         <v>1</v>
       </c>
-      <c r="H18" s="149"/>
-      <c r="I18" s="150"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="63"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="188"/>
-      <c r="D19" s="189"/>
-      <c r="E19" s="189"/>
-      <c r="F19" s="190"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="179"/>
-      <c r="I19" s="180"/>
+      <c r="C19" s="214"/>
+      <c r="D19" s="215"/>
+      <c r="E19" s="215"/>
+      <c r="F19" s="216"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="176"/>
+      <c r="I19" s="177"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="188"/>
-      <c r="D20" s="189"/>
-      <c r="E20" s="189"/>
-      <c r="F20" s="190"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="179"/>
-      <c r="I20" s="180"/>
+      <c r="C20" s="214"/>
+      <c r="D20" s="215"/>
+      <c r="E20" s="215"/>
+      <c r="F20" s="216"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="176"/>
+      <c r="I20" s="177"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="126"/>
-      <c r="D21" s="127"/>
-      <c r="E21" s="127"/>
-      <c r="F21" s="128"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="152"/>
+      <c r="C21" s="116"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="65"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="42" t="s">
+      <c r="C22" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="44"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="50"/>
       <c r="G22" s="34">
         <v>1</v>
       </c>
-      <c r="H22" s="120"/>
-      <c r="I22" s="121"/>
+      <c r="H22" s="131"/>
+      <c r="I22" s="132"/>
     </row>
     <row r="23" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="115" t="s">
+      <c r="C23" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="D23" s="116"/>
-      <c r="E23" s="116"/>
-      <c r="F23" s="117"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="53"/>
       <c r="G23" s="17">
         <v>1</v>
       </c>
-      <c r="H23" s="118"/>
-      <c r="I23" s="119"/>
+      <c r="H23" s="129"/>
+      <c r="I23" s="130"/>
     </row>
     <row r="24" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="25" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="C25" s="54" t="s">
+      <c r="C25" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="106"/>
+      <c r="F25" s="106"/>
       <c r="G25" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="H25" s="55" t="s">
+      <c r="H25" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="I25" s="56"/>
+      <c r="I25" s="107"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="194" t="s">
+      <c r="C26" s="202" t="s">
         <v>104</v>
       </c>
-      <c r="D26" s="195"/>
-      <c r="E26" s="195"/>
-      <c r="F26" s="196"/>
-      <c r="G26" s="63">
+      <c r="D26" s="203"/>
+      <c r="E26" s="203"/>
+      <c r="F26" s="204"/>
+      <c r="G26" s="119">
         <v>0.8</v>
       </c>
-      <c r="H26" s="129" t="s">
+      <c r="H26" s="120" t="s">
         <v>112</v>
       </c>
-      <c r="I26" s="200"/>
+      <c r="I26" s="208"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="197"/>
-      <c r="D27" s="198"/>
-      <c r="E27" s="198"/>
-      <c r="F27" s="199"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="201"/>
-      <c r="I27" s="202"/>
+      <c r="C27" s="205"/>
+      <c r="D27" s="206"/>
+      <c r="E27" s="206"/>
+      <c r="F27" s="207"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="209"/>
+      <c r="I27" s="210"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="191" t="s">
+      <c r="C28" s="199" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="192"/>
-      <c r="E28" s="192"/>
-      <c r="F28" s="193"/>
+      <c r="D28" s="200"/>
+      <c r="E28" s="200"/>
+      <c r="F28" s="201"/>
       <c r="G28" s="37"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="46"/>
+      <c r="H28" s="161"/>
+      <c r="I28" s="162"/>
     </row>
     <row r="29" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="206" t="s">
+      <c r="C29" s="180" t="s">
         <v>104</v>
       </c>
-      <c r="D29" s="207"/>
-      <c r="E29" s="207"/>
-      <c r="F29" s="207"/>
+      <c r="D29" s="181"/>
+      <c r="E29" s="181"/>
+      <c r="F29" s="181"/>
       <c r="G29" s="22">
         <v>1</v>
       </c>
-      <c r="H29" s="102"/>
-      <c r="I29" s="203"/>
+      <c r="H29" s="148"/>
+      <c r="I29" s="185"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="204" t="s">
+      <c r="C30" s="178" t="s">
         <v>105</v>
       </c>
-      <c r="D30" s="205"/>
-      <c r="E30" s="205"/>
-      <c r="F30" s="205"/>
+      <c r="D30" s="179"/>
+      <c r="E30" s="179"/>
+      <c r="F30" s="179"/>
       <c r="G30" s="22">
         <v>1</v>
       </c>
-      <c r="H30" s="102"/>
-      <c r="I30" s="203"/>
+      <c r="H30" s="148"/>
+      <c r="I30" s="185"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="204" t="s">
+      <c r="C31" s="178" t="s">
         <v>106</v>
       </c>
-      <c r="D31" s="205"/>
-      <c r="E31" s="205"/>
-      <c r="F31" s="205"/>
-      <c r="G31" s="210">
+      <c r="D31" s="179"/>
+      <c r="E31" s="179"/>
+      <c r="F31" s="179"/>
+      <c r="G31" s="184">
         <v>1</v>
       </c>
-      <c r="H31" s="102"/>
-      <c r="I31" s="203"/>
+      <c r="H31" s="148"/>
+      <c r="I31" s="185"/>
     </row>
     <row r="32" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="204"/>
-      <c r="D32" s="205"/>
-      <c r="E32" s="205"/>
-      <c r="F32" s="205"/>
-      <c r="G32" s="210"/>
-      <c r="H32" s="102"/>
-      <c r="I32" s="203"/>
+      <c r="C32" s="178"/>
+      <c r="D32" s="179"/>
+      <c r="E32" s="179"/>
+      <c r="F32" s="179"/>
+      <c r="G32" s="184"/>
+      <c r="H32" s="148"/>
+      <c r="I32" s="185"/>
     </row>
     <row r="33" spans="2:9" ht="25.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="206" t="s">
+      <c r="C33" s="180" t="s">
         <v>107</v>
       </c>
-      <c r="D33" s="207"/>
-      <c r="E33" s="207"/>
-      <c r="F33" s="207"/>
-      <c r="G33" s="210">
+      <c r="D33" s="181"/>
+      <c r="E33" s="181"/>
+      <c r="F33" s="181"/>
+      <c r="G33" s="184">
         <v>0.5</v>
       </c>
-      <c r="H33" s="181" t="s">
+      <c r="H33" s="187" t="s">
         <v>110</v>
       </c>
-      <c r="I33" s="182"/>
+      <c r="I33" s="188"/>
     </row>
     <row r="34" spans="2:9" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="208"/>
-      <c r="D34" s="209"/>
-      <c r="E34" s="209"/>
-      <c r="F34" s="209"/>
-      <c r="G34" s="211"/>
-      <c r="H34" s="212"/>
-      <c r="I34" s="213"/>
+      <c r="C34" s="182"/>
+      <c r="D34" s="183"/>
+      <c r="E34" s="183"/>
+      <c r="F34" s="183"/>
+      <c r="G34" s="186"/>
+      <c r="H34" s="189"/>
+      <c r="I34" s="190"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="28"/>
-      <c r="C35" s="52"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="52"/>
+      <c r="C35" s="114"/>
+      <c r="D35" s="114"/>
+      <c r="E35" s="114"/>
+      <c r="F35" s="114"/>
       <c r="G35" s="36"/>
-      <c r="H35" s="148"/>
-      <c r="I35" s="148"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="47"/>
     </row>
     <row r="36" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="37" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="C37" s="54" t="s">
+      <c r="C37" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="D37" s="55"/>
-      <c r="E37" s="55"/>
-      <c r="F37" s="55"/>
+      <c r="D37" s="106"/>
+      <c r="E37" s="106"/>
+      <c r="F37" s="106"/>
       <c r="G37" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="H37" s="55" t="s">
+      <c r="H37" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="I37" s="56"/>
+      <c r="I37" s="107"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="167" t="s">
+      <c r="C38" s="192" t="s">
         <v>109</v>
       </c>
-      <c r="D38" s="52"/>
-      <c r="E38" s="52"/>
-      <c r="F38" s="125"/>
-      <c r="G38" s="63">
+      <c r="D38" s="114"/>
+      <c r="E38" s="114"/>
+      <c r="F38" s="115"/>
+      <c r="G38" s="119">
         <v>0.9</v>
       </c>
-      <c r="H38" s="217"/>
-      <c r="I38" s="130"/>
+      <c r="H38" s="193"/>
+      <c r="I38" s="121"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="126"/>
-      <c r="D39" s="127"/>
-      <c r="E39" s="127"/>
-      <c r="F39" s="128"/>
-      <c r="G39" s="64"/>
-      <c r="H39" s="131"/>
-      <c r="I39" s="132"/>
+      <c r="C39" s="116"/>
+      <c r="D39" s="117"/>
+      <c r="E39" s="117"/>
+      <c r="F39" s="118"/>
+      <c r="G39" s="61"/>
+      <c r="H39" s="122"/>
+      <c r="I39" s="123"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="42" t="s">
+      <c r="C40" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="43"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="44"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="50"/>
       <c r="G40" s="40"/>
-      <c r="H40" s="105"/>
-      <c r="I40" s="106"/>
+      <c r="H40" s="87"/>
+      <c r="I40" s="88"/>
     </row>
     <row r="41" spans="2:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="168" t="s">
+      <c r="C41" s="167" t="s">
         <v>109</v>
       </c>
-      <c r="D41" s="169"/>
-      <c r="E41" s="169"/>
-      <c r="F41" s="170"/>
-      <c r="G41" s="81">
+      <c r="D41" s="168"/>
+      <c r="E41" s="168"/>
+      <c r="F41" s="169"/>
+      <c r="G41" s="60">
         <v>0.9</v>
       </c>
-      <c r="H41" s="84" t="s">
+      <c r="H41" s="77" t="s">
         <v>114</v>
       </c>
-      <c r="I41" s="85"/>
+      <c r="I41" s="78"/>
     </row>
     <row r="42" spans="2:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C42" s="171"/>
-      <c r="D42" s="172"/>
-      <c r="E42" s="172"/>
-      <c r="F42" s="173"/>
-      <c r="G42" s="64"/>
-      <c r="H42" s="131"/>
-      <c r="I42" s="132"/>
+      <c r="C42" s="194"/>
+      <c r="D42" s="195"/>
+      <c r="E42" s="195"/>
+      <c r="F42" s="196"/>
+      <c r="G42" s="61"/>
+      <c r="H42" s="122"/>
+      <c r="I42" s="123"/>
     </row>
     <row r="43" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C43" s="97" t="s">
+      <c r="C43" s="143" t="s">
         <v>111</v>
       </c>
-      <c r="D43" s="98"/>
-      <c r="E43" s="98"/>
-      <c r="F43" s="98"/>
-      <c r="G43" s="210">
+      <c r="D43" s="144"/>
+      <c r="E43" s="144"/>
+      <c r="F43" s="144"/>
+      <c r="G43" s="184">
         <v>1</v>
       </c>
-      <c r="H43" s="214"/>
-      <c r="I43" s="215"/>
+      <c r="H43" s="197"/>
+      <c r="I43" s="198"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C44" s="97"/>
-      <c r="D44" s="98"/>
-      <c r="E44" s="98"/>
-      <c r="F44" s="98"/>
-      <c r="G44" s="210"/>
-      <c r="H44" s="214"/>
-      <c r="I44" s="215"/>
+      <c r="C44" s="143"/>
+      <c r="D44" s="144"/>
+      <c r="E44" s="144"/>
+      <c r="F44" s="144"/>
+      <c r="G44" s="184"/>
+      <c r="H44" s="197"/>
+      <c r="I44" s="198"/>
     </row>
     <row r="45" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="97"/>
-      <c r="D45" s="98"/>
-      <c r="E45" s="98"/>
-      <c r="F45" s="98"/>
-      <c r="G45" s="210"/>
-      <c r="H45" s="214"/>
-      <c r="I45" s="215"/>
+      <c r="C45" s="143"/>
+      <c r="D45" s="144"/>
+      <c r="E45" s="144"/>
+      <c r="F45" s="144"/>
+      <c r="G45" s="184"/>
+      <c r="H45" s="197"/>
+      <c r="I45" s="198"/>
     </row>
     <row r="46" spans="2:9" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B46" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="166" t="s">
+      <c r="C46" s="224" t="s">
         <v>113</v>
       </c>
-      <c r="D46" s="116"/>
-      <c r="E46" s="116"/>
-      <c r="F46" s="117"/>
+      <c r="D46" s="52"/>
+      <c r="E46" s="52"/>
+      <c r="F46" s="53"/>
       <c r="G46" s="41">
         <v>0.5</v>
       </c>
-      <c r="H46" s="212" t="s">
+      <c r="H46" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="I46" s="216"/>
+      <c r="I46" s="191"/>
     </row>
     <row r="47" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="48" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B48" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="C48" s="54" t="s">
+      <c r="C48" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="D48" s="55"/>
-      <c r="E48" s="55"/>
-      <c r="F48" s="55"/>
+      <c r="D48" s="106"/>
+      <c r="E48" s="106"/>
+      <c r="F48" s="106"/>
       <c r="G48" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="H48" s="55" t="s">
+      <c r="H48" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="I48" s="56"/>
+      <c r="I48" s="107"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C49" s="167" t="s">
+      <c r="C49" s="192" t="s">
         <v>113</v>
       </c>
-      <c r="D49" s="52"/>
-      <c r="E49" s="52"/>
-      <c r="F49" s="125"/>
-      <c r="G49" s="63">
+      <c r="D49" s="114"/>
+      <c r="E49" s="114"/>
+      <c r="F49" s="115"/>
+      <c r="G49" s="119">
         <v>1</v>
       </c>
-      <c r="H49" s="174"/>
-      <c r="I49" s="175"/>
+      <c r="H49" s="225"/>
+      <c r="I49" s="226"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C50" s="126"/>
-      <c r="D50" s="127"/>
-      <c r="E50" s="127"/>
-      <c r="F50" s="128"/>
-      <c r="G50" s="64"/>
-      <c r="H50" s="151"/>
-      <c r="I50" s="152"/>
+      <c r="C50" s="116"/>
+      <c r="D50" s="117"/>
+      <c r="E50" s="117"/>
+      <c r="F50" s="118"/>
+      <c r="G50" s="61"/>
+      <c r="H50" s="227"/>
+      <c r="I50" s="228"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C51" s="42" t="s">
+      <c r="C51" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="D51" s="43"/>
-      <c r="E51" s="43"/>
-      <c r="F51" s="44"/>
+      <c r="D51" s="49"/>
+      <c r="E51" s="49"/>
+      <c r="F51" s="50"/>
       <c r="G51" s="40"/>
-      <c r="H51" s="47"/>
-      <c r="I51" s="48"/>
+      <c r="H51" s="161"/>
+      <c r="I51" s="162"/>
     </row>
     <row r="52" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C52" s="168" t="s">
+      <c r="C52" s="167" t="s">
         <v>113</v>
       </c>
-      <c r="D52" s="169"/>
-      <c r="E52" s="169"/>
-      <c r="F52" s="170"/>
-      <c r="G52" s="81">
+      <c r="D52" s="168"/>
+      <c r="E52" s="168"/>
+      <c r="F52" s="169"/>
+      <c r="G52" s="60">
         <v>1</v>
       </c>
-      <c r="H52" s="149"/>
-      <c r="I52" s="150"/>
+      <c r="H52" s="229"/>
+      <c r="I52" s="230"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C53" s="171"/>
-      <c r="D53" s="172"/>
-      <c r="E53" s="172"/>
-      <c r="F53" s="173"/>
-      <c r="G53" s="64"/>
-      <c r="H53" s="151"/>
-      <c r="I53" s="152"/>
+      <c r="C53" s="194"/>
+      <c r="D53" s="195"/>
+      <c r="E53" s="195"/>
+      <c r="F53" s="196"/>
+      <c r="G53" s="61"/>
+      <c r="H53" s="227"/>
+      <c r="I53" s="228"/>
     </row>
     <row r="54" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C54" s="168" t="s">
+      <c r="C54" s="167" t="s">
         <v>118</v>
       </c>
-      <c r="D54" s="169"/>
-      <c r="E54" s="169"/>
-      <c r="F54" s="170"/>
-      <c r="G54" s="81"/>
-      <c r="H54" s="149"/>
-      <c r="I54" s="150"/>
+      <c r="D54" s="168"/>
+      <c r="E54" s="168"/>
+      <c r="F54" s="169"/>
+      <c r="G54" s="60">
+        <v>0.7</v>
+      </c>
+      <c r="H54" s="77" t="s">
+        <v>119</v>
+      </c>
+      <c r="I54" s="78"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C55" s="176"/>
-      <c r="D55" s="177"/>
-      <c r="E55" s="177"/>
-      <c r="F55" s="178"/>
-      <c r="G55" s="82"/>
-      <c r="H55" s="179"/>
-      <c r="I55" s="180"/>
+      <c r="C55" s="170"/>
+      <c r="D55" s="171"/>
+      <c r="E55" s="171"/>
+      <c r="F55" s="172"/>
+      <c r="G55" s="75"/>
+      <c r="H55" s="79"/>
+      <c r="I55" s="80"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C56" s="171"/>
-      <c r="D56" s="172"/>
-      <c r="E56" s="172"/>
-      <c r="F56" s="173"/>
-      <c r="G56" s="64"/>
-      <c r="H56" s="151"/>
-      <c r="I56" s="152"/>
+      <c r="C56" s="170"/>
+      <c r="D56" s="171"/>
+      <c r="E56" s="171"/>
+      <c r="F56" s="172"/>
+      <c r="G56" s="75"/>
+      <c r="H56" s="79"/>
+      <c r="I56" s="80"/>
     </row>
     <row r="57" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B57" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C57" s="115" t="s">
-        <v>119</v>
-      </c>
-      <c r="D57" s="162"/>
-      <c r="E57" s="162"/>
-      <c r="F57" s="163"/>
-      <c r="G57" s="41"/>
-      <c r="H57" s="164"/>
-      <c r="I57" s="165"/>
+      <c r="C57" s="173"/>
+      <c r="D57" s="174"/>
+      <c r="E57" s="174"/>
+      <c r="F57" s="175"/>
+      <c r="G57" s="76"/>
+      <c r="H57" s="81"/>
+      <c r="I57" s="82"/>
+    </row>
+    <row r="58" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="C58" s="165" t="s">
+        <v>124</v>
+      </c>
+      <c r="D58" s="114"/>
+      <c r="E58" s="114"/>
+      <c r="F58" s="114"/>
+      <c r="G58" s="44"/>
+      <c r="H58" s="223" t="s">
+        <v>123</v>
+      </c>
+      <c r="I58" s="223"/>
+    </row>
+    <row r="59" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="60" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C60" s="105" t="s">
+        <v>23</v>
+      </c>
+      <c r="D60" s="106"/>
+      <c r="E60" s="106"/>
+      <c r="F60" s="106"/>
+      <c r="G60" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="H60" s="106" t="s">
+        <v>24</v>
+      </c>
+      <c r="I60" s="107"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B61" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" s="113" t="s">
+        <v>125</v>
+      </c>
+      <c r="D61" s="114"/>
+      <c r="E61" s="114"/>
+      <c r="F61" s="115"/>
+      <c r="G61" s="119">
+        <v>0</v>
+      </c>
+      <c r="H61" s="193" t="s">
+        <v>126</v>
+      </c>
+      <c r="I61" s="121"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B62" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="116"/>
+      <c r="D62" s="117"/>
+      <c r="E62" s="117"/>
+      <c r="F62" s="118"/>
+      <c r="G62" s="61"/>
+      <c r="H62" s="122"/>
+      <c r="I62" s="123"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B63" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" s="48" t="s">
+        <v>121</v>
+      </c>
+      <c r="D63" s="49"/>
+      <c r="E63" s="49"/>
+      <c r="F63" s="50"/>
+      <c r="G63" s="43"/>
+      <c r="H63" s="84"/>
+      <c r="I63" s="85"/>
+    </row>
+    <row r="64" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" s="167" t="s">
+        <v>125</v>
+      </c>
+      <c r="D64" s="168"/>
+      <c r="E64" s="168"/>
+      <c r="F64" s="169"/>
+      <c r="G64" s="60">
+        <v>1</v>
+      </c>
+      <c r="H64" s="236"/>
+      <c r="I64" s="237"/>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B65" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" s="170"/>
+      <c r="D65" s="171"/>
+      <c r="E65" s="171"/>
+      <c r="F65" s="172"/>
+      <c r="G65" s="75"/>
+      <c r="H65" s="238"/>
+      <c r="I65" s="239"/>
+    </row>
+    <row r="66" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="170"/>
+      <c r="D66" s="171"/>
+      <c r="E66" s="171"/>
+      <c r="F66" s="172"/>
+      <c r="G66" s="75"/>
+      <c r="H66" s="238"/>
+      <c r="I66" s="239"/>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B67" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67" s="194"/>
+      <c r="D67" s="195"/>
+      <c r="E67" s="195"/>
+      <c r="F67" s="196"/>
+      <c r="G67" s="61"/>
+      <c r="H67" s="154"/>
+      <c r="I67" s="155"/>
+    </row>
+    <row r="68" spans="2:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" s="170" t="s">
+        <v>127</v>
+      </c>
+      <c r="D68" s="215"/>
+      <c r="E68" s="215"/>
+      <c r="F68" s="216"/>
+      <c r="G68" s="75">
+        <v>0.5</v>
+      </c>
+      <c r="H68" s="240" t="s">
+        <v>128</v>
+      </c>
+      <c r="I68" s="241"/>
+    </row>
+    <row r="69" spans="2:9" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="233"/>
+      <c r="D69" s="234"/>
+      <c r="E69" s="234"/>
+      <c r="F69" s="235"/>
+      <c r="G69" s="76"/>
+      <c r="H69" s="242"/>
+      <c r="I69" s="243"/>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C70" s="32"/>
+      <c r="D70" s="32"/>
+      <c r="E70" s="32"/>
+      <c r="F70" s="32"/>
+      <c r="G70" s="32"/>
+      <c r="H70" s="32"/>
+      <c r="I70" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="84">
+  <mergeCells count="97">
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="C68:F69"/>
+    <mergeCell ref="H68:I69"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="C61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="H61:I62"/>
+    <mergeCell ref="C64:F67"/>
+    <mergeCell ref="G64:G67"/>
+    <mergeCell ref="H64:I67"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C60:F60"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="C54:F57"/>
+    <mergeCell ref="G54:G57"/>
+    <mergeCell ref="H54:I57"/>
+    <mergeCell ref="C58:F58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="C49:F50"/>
+    <mergeCell ref="C52:F53"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H49:I50"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="C18:F21"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="H18:I21"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:I27"/>
+    <mergeCell ref="C29:F29"/>
     <mergeCell ref="H46:I46"/>
     <mergeCell ref="C35:F35"/>
     <mergeCell ref="H35:I35"/>
@@ -4585,75 +5024,19 @@
     <mergeCell ref="C40:F40"/>
     <mergeCell ref="H40:I40"/>
     <mergeCell ref="C37:F37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="H30:I30"/>
     <mergeCell ref="C31:F32"/>
     <mergeCell ref="C33:F34"/>
     <mergeCell ref="G31:G32"/>
     <mergeCell ref="H31:I32"/>
     <mergeCell ref="G33:G34"/>
     <mergeCell ref="H33:I34"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:I27"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="C18:F21"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="H18:I21"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C57:F57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="C49:F50"/>
-    <mergeCell ref="C52:F53"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="H49:I50"/>
+    <mergeCell ref="H37:I37"/>
     <mergeCell ref="H52:I53"/>
-    <mergeCell ref="C54:F56"/>
-    <mergeCell ref="G54:G56"/>
-    <mergeCell ref="H54:I56"/>
     <mergeCell ref="C51:F51"/>
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="C48:F48"/>
     <mergeCell ref="H48:I48"/>
+    <mergeCell ref="C63:F63"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4663,12 +5046,179 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D5800FB-BD05-4FC8-A7D1-22A28308449E}">
-  <dimension ref="A1"/>
+  <dimension ref="B1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="15.75" customWidth="1"/>
+    <col min="5" max="5" width="15.125" customWidth="1"/>
+    <col min="6" max="6" width="12.25" customWidth="1"/>
+    <col min="8" max="8" width="15.625" customWidth="1"/>
+    <col min="9" max="9" width="25.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="105" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="106" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="107"/>
+    </row>
+    <row r="3" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="113" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="244"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="231"/>
+      <c r="I3" s="232"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="194"/>
+      <c r="D4" s="195"/>
+      <c r="E4" s="195"/>
+      <c r="F4" s="196"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="65"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="85"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="83" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="85"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="85"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="83" t="s">
+        <v>133</v>
+      </c>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="85"/>
+    </row>
+    <row r="9" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="245" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" s="246"/>
+      <c r="E9" s="246"/>
+      <c r="F9" s="247"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="254"/>
+      <c r="I9" s="255"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="248"/>
+      <c r="D10" s="249"/>
+      <c r="E10" s="249"/>
+      <c r="F10" s="250"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="256"/>
+      <c r="I10" s="257"/>
+    </row>
+    <row r="11" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="251"/>
+      <c r="D11" s="252"/>
+      <c r="E11" s="252"/>
+      <c r="F11" s="253"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="258"/>
+      <c r="I11" s="259"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="C3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:I4"/>
+    <mergeCell ref="C9:F11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="H9:I11"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4702,4 +5252,58 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D96F1D-EE31-4AC2-A6E7-81BDC225122D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7CCFB23-C0D3-4ABB-B8F8-BEF9C47E97C4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCB55DA4-1562-4331-8D42-BD615CB485BA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD044D92-AB44-4CFF-B22D-4A96562A728C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/졸작 진행 계획 시간표.xlsx
+++ b/졸작 진행 계획 시간표.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2020 졸작 깃\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2020 졸작 깃\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F76A75F-D49B-4F94-AAFB-E5079DF60164}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D059B780-6FC1-4775-AA44-BE35186070BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E0805F39-A49F-47F5-8E79-FFCEB62D9AEC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{E0805F39-A49F-47F5-8E79-FFCEB62D9AEC}"/>
   </bookViews>
   <sheets>
     <sheet name="5월 4주차" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="143">
   <si>
     <t>월</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -637,6 +637,39 @@
   </si>
   <si>
     <t>몬스터의 비헤비어 트리가 다른 플레이어에게도 적용되게 하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정작업 진행하였으나 노트북 1대 밖에 없어서 제대로 된 테스팅을 못해봄. 집에서 데스크탑과 함께 테스팅 후 추가 작업해야함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위 사유와 동일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">플레이어만 인지하고 다른 플레이어는 인지하지 못하는 
+원인을 찾는 중. 아직 정확한 원인을 찾지 못함. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fireweapon() 수정 작업 테스팅 및 추가 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020. 06. 09. 화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fireweapon() 수정하여 총알방향 잡기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터의 비헤비어 트리 동기화 하여 다른 플레이어에게도 적용되게 하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1442,7 +1475,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="260">
+  <cellXfs count="258">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1584,6 +1617,12 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1944,6 +1983,66 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1953,6 +2052,99 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1971,147 +2163,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2124,24 +2175,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2149,18 +2182,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2175,6 +2196,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2205,23 +2238,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2543,18 +2570,18 @@
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="14.375" customWidth="1"/>
-    <col min="3" max="4" width="10.625" customWidth="1"/>
-    <col min="5" max="5" width="11.125" customWidth="1"/>
+    <col min="2" max="2" width="14.3984375" customWidth="1"/>
+    <col min="3" max="4" width="10.59765625" customWidth="1"/>
+    <col min="5" max="5" width="11.09765625" customWidth="1"/>
     <col min="6" max="6" width="13.5" customWidth="1"/>
-    <col min="7" max="7" width="10.375" customWidth="1"/>
-    <col min="9" max="9" width="28.625" customWidth="1"/>
+    <col min="7" max="7" width="10.3984375" customWidth="1"/>
+    <col min="9" max="9" width="28.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B4" s="5"/>
       <c r="C4" s="6" t="s">
         <v>0</v>
@@ -2579,7 +2606,7 @@
       </c>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B5" s="13" t="s">
         <v>7</v>
       </c>
@@ -2598,13 +2625,13 @@
       <c r="G5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="133" t="s">
+      <c r="H5" s="135" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="134"/>
+      <c r="I5" s="136"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B6" s="11" t="s">
         <v>8</v>
       </c>
@@ -2623,26 +2650,26 @@
       <c r="G6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="135"/>
-      <c r="I6" s="136"/>
+      <c r="H6" s="137"/>
+      <c r="I6" s="138"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="139" t="s">
+      <c r="C7" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="140"/>
-      <c r="E7" s="140"/>
-      <c r="F7" s="140"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="135"/>
-      <c r="I7" s="136"/>
+      <c r="D7" s="142"/>
+      <c r="E7" s="142"/>
+      <c r="F7" s="142"/>
+      <c r="G7" s="142"/>
+      <c r="H7" s="137"/>
+      <c r="I7" s="138"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="11" t="s">
         <v>10</v>
       </c>
@@ -2661,11 +2688,11 @@
       <c r="G8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="135"/>
-      <c r="I8" s="136"/>
+      <c r="H8" s="137"/>
+      <c r="I8" s="138"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B9" s="11" t="s">
         <v>11</v>
       </c>
@@ -2684,11 +2711,11 @@
       <c r="G9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="135"/>
-      <c r="I9" s="136"/>
+      <c r="H9" s="137"/>
+      <c r="I9" s="138"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B10" s="11" t="s">
         <v>12</v>
       </c>
@@ -2707,11 +2734,11 @@
       <c r="G10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="135"/>
-      <c r="I10" s="136"/>
+      <c r="H10" s="137"/>
+      <c r="I10" s="138"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B11" s="11" t="s">
         <v>13</v>
       </c>
@@ -2730,11 +2757,11 @@
       <c r="G11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="135"/>
-      <c r="I11" s="136"/>
+      <c r="H11" s="137"/>
+      <c r="I11" s="138"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B12" s="11" t="s">
         <v>14</v>
       </c>
@@ -2753,11 +2780,11 @@
       <c r="G12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="135"/>
-      <c r="I12" s="136"/>
+      <c r="H12" s="137"/>
+      <c r="I12" s="138"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B13" s="12" t="s">
         <v>15</v>
       </c>
@@ -2776,11 +2803,11 @@
       <c r="G13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="137"/>
-      <c r="I13" s="138"/>
+      <c r="H13" s="139"/>
+      <c r="I13" s="140"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
         <v>18</v>
@@ -2801,7 +2828,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -2812,1051 +2839,1051 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="105" t="s">
+      <c r="C17" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="106"/>
-      <c r="E17" s="106"/>
-      <c r="F17" s="106"/>
+      <c r="D17" s="108"/>
+      <c r="E17" s="108"/>
+      <c r="F17" s="108"/>
       <c r="G17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="106" t="s">
+      <c r="H17" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="I17" s="107"/>
+      <c r="I17" s="109"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B18" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="108" t="s">
+      <c r="C18" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="109"/>
-      <c r="E18" s="109"/>
-      <c r="F18" s="110"/>
+      <c r="D18" s="111"/>
+      <c r="E18" s="111"/>
+      <c r="F18" s="112"/>
       <c r="G18" s="16">
         <v>1</v>
       </c>
-      <c r="H18" s="141"/>
-      <c r="I18" s="142"/>
+      <c r="H18" s="143"/>
+      <c r="I18" s="144"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B19" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="50"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="52"/>
       <c r="G19" s="16">
         <v>1</v>
       </c>
-      <c r="H19" s="84"/>
-      <c r="I19" s="85"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="87"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B20" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="48" t="s">
+      <c r="C20" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="50"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="52"/>
       <c r="G20" s="16"/>
-      <c r="H20" s="84"/>
-      <c r="I20" s="85"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="87"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B21" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="83" t="s">
+      <c r="C21" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="50"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="52"/>
       <c r="G21" s="16">
         <v>1</v>
       </c>
-      <c r="H21" s="84"/>
-      <c r="I21" s="85"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H21" s="86"/>
+      <c r="I21" s="87"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B22" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="48" t="s">
+      <c r="C22" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="50"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="52"/>
       <c r="G22" s="16"/>
-      <c r="H22" s="84"/>
-      <c r="I22" s="85"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H22" s="86"/>
+      <c r="I22" s="87"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B23" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="48" t="s">
+      <c r="C23" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="50"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="52"/>
       <c r="G23" s="16"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="85"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H23" s="86"/>
+      <c r="I23" s="87"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B24" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="48" t="s">
+      <c r="C24" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="50"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="52"/>
       <c r="G24" s="16">
         <v>1</v>
       </c>
-      <c r="H24" s="84"/>
-      <c r="I24" s="85"/>
-    </row>
-    <row r="25" spans="2:10" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H24" s="86"/>
+      <c r="I24" s="87"/>
+    </row>
+    <row r="25" spans="2:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="48" t="s">
+      <c r="C25" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="50"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="52"/>
       <c r="G25" s="16">
         <v>0.8</v>
       </c>
-      <c r="H25" s="131" t="s">
+      <c r="H25" s="133" t="s">
         <v>38</v>
       </c>
-      <c r="I25" s="132"/>
-    </row>
-    <row r="26" spans="2:10" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I25" s="134"/>
+    </row>
+    <row r="26" spans="2:10" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B26" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="51" t="s">
+      <c r="C26" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="53"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="55"/>
       <c r="G26" s="17">
         <v>1</v>
       </c>
-      <c r="H26" s="129"/>
-      <c r="I26" s="130"/>
-    </row>
-    <row r="27" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H26" s="131"/>
+      <c r="I26" s="132"/>
+    </row>
+    <row r="27" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="28" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B28" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="105" t="s">
+      <c r="C28" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="106"/>
-      <c r="E28" s="106"/>
-      <c r="F28" s="106"/>
+      <c r="D28" s="108"/>
+      <c r="E28" s="108"/>
+      <c r="F28" s="108"/>
       <c r="G28" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H28" s="106" t="s">
+      <c r="H28" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="I28" s="107"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I28" s="109"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B29" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="108" t="s">
+      <c r="C29" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="109"/>
-      <c r="E29" s="109"/>
-      <c r="F29" s="110"/>
+      <c r="D29" s="111"/>
+      <c r="E29" s="111"/>
+      <c r="F29" s="112"/>
       <c r="G29" s="16"/>
-      <c r="H29" s="111"/>
-      <c r="I29" s="112"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H29" s="113"/>
+      <c r="I29" s="114"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B30" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="48" t="s">
+      <c r="C30" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="50"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="52"/>
       <c r="G30" s="16"/>
-      <c r="H30" s="124"/>
-      <c r="I30" s="125"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H30" s="126"/>
+      <c r="I30" s="127"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B31" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="48" t="s">
+      <c r="C31" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="50"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="52"/>
       <c r="G31" s="16"/>
-      <c r="H31" s="124"/>
-      <c r="I31" s="125"/>
-    </row>
-    <row r="32" spans="2:10" ht="80.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H31" s="126"/>
+      <c r="I31" s="127"/>
+    </row>
+    <row r="32" spans="2:10" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="83" t="s">
+      <c r="C32" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="50"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="52"/>
       <c r="G32" s="16">
         <v>0.5</v>
       </c>
-      <c r="H32" s="100" t="s">
+      <c r="H32" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="I32" s="88"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I32" s="90"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B33" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="48" t="s">
+      <c r="C33" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="50"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="52"/>
       <c r="G33" s="16">
         <v>1</v>
       </c>
-      <c r="H33" s="124"/>
-      <c r="I33" s="125"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H33" s="126"/>
+      <c r="I33" s="127"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B34" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="48" t="s">
+      <c r="C34" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="50"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="52"/>
       <c r="G34" s="16">
         <v>1</v>
       </c>
-      <c r="H34" s="124"/>
-      <c r="I34" s="125"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H34" s="126"/>
+      <c r="I34" s="127"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B35" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="48" t="s">
+      <c r="C35" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="50"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="52"/>
       <c r="G35" s="16">
         <v>1</v>
       </c>
-      <c r="H35" s="124"/>
-      <c r="I35" s="125"/>
-    </row>
-    <row r="36" spans="2:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H35" s="126"/>
+      <c r="I35" s="127"/>
+    </row>
+    <row r="36" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="48" t="s">
+      <c r="C36" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="60">
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="62">
         <v>0.5</v>
       </c>
-      <c r="H36" s="77" t="s">
+      <c r="H36" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="I36" s="126"/>
-    </row>
-    <row r="37" spans="2:10" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I36" s="128"/>
+    </row>
+    <row r="37" spans="2:10" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B37" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="51" t="s">
+      <c r="C37" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="D37" s="52"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="76"/>
-      <c r="H37" s="127"/>
-      <c r="I37" s="128"/>
-    </row>
-    <row r="38" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="39" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="78"/>
+      <c r="H37" s="129"/>
+      <c r="I37" s="130"/>
+    </row>
+    <row r="38" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="39" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B39" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C39" s="105" t="s">
+      <c r="C39" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="106"/>
-      <c r="E39" s="106"/>
-      <c r="F39" s="106"/>
+      <c r="D39" s="108"/>
+      <c r="E39" s="108"/>
+      <c r="F39" s="108"/>
       <c r="G39" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="H39" s="106" t="s">
+      <c r="H39" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="I39" s="107"/>
-    </row>
-    <row r="40" spans="2:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I39" s="109"/>
+    </row>
+    <row r="40" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="113" t="s">
+      <c r="C40" s="115" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="114"/>
-      <c r="E40" s="114"/>
-      <c r="F40" s="115"/>
-      <c r="G40" s="119">
+      <c r="D40" s="116"/>
+      <c r="E40" s="116"/>
+      <c r="F40" s="117"/>
+      <c r="G40" s="121">
         <v>0.3</v>
       </c>
-      <c r="H40" s="120" t="s">
+      <c r="H40" s="122" t="s">
         <v>46</v>
       </c>
-      <c r="I40" s="121"/>
-    </row>
-    <row r="41" spans="2:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I40" s="123"/>
+    </row>
+    <row r="41" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C41" s="116"/>
-      <c r="D41" s="117"/>
-      <c r="E41" s="117"/>
-      <c r="F41" s="118"/>
-      <c r="G41" s="61"/>
-      <c r="H41" s="122"/>
-      <c r="I41" s="123"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C41" s="118"/>
+      <c r="D41" s="119"/>
+      <c r="E41" s="119"/>
+      <c r="F41" s="120"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="124"/>
+      <c r="I41" s="125"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B42" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="48" t="s">
+      <c r="C42" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="50"/>
+      <c r="D42" s="51"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="52"/>
       <c r="G42" s="16"/>
-      <c r="H42" s="87"/>
-      <c r="I42" s="88"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H42" s="89"/>
+      <c r="I42" s="90"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B43" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="83" t="s">
+      <c r="C43" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="D43" s="49"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="50"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="51"/>
+      <c r="F43" s="52"/>
       <c r="G43" s="20">
         <v>1</v>
       </c>
-      <c r="H43" s="87"/>
-      <c r="I43" s="88"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H43" s="89"/>
+      <c r="I43" s="90"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B44" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C44" s="83" t="s">
+      <c r="C44" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="D44" s="49"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="50"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="52"/>
       <c r="G44" s="20">
         <v>1</v>
       </c>
-      <c r="H44" s="87"/>
-      <c r="I44" s="88"/>
-    </row>
-    <row r="45" spans="2:10" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H44" s="89"/>
+      <c r="I44" s="90"/>
+    </row>
+    <row r="45" spans="2:10" ht="36.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C45" s="143" t="s">
+      <c r="C45" s="145" t="s">
         <v>47</v>
       </c>
-      <c r="D45" s="144"/>
-      <c r="E45" s="144"/>
-      <c r="F45" s="144"/>
+      <c r="D45" s="146"/>
+      <c r="E45" s="146"/>
+      <c r="F45" s="146"/>
       <c r="G45" s="22"/>
-      <c r="H45" s="145"/>
-      <c r="I45" s="146"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H45" s="147"/>
+      <c r="I45" s="148"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B46" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C46" s="147" t="s">
+      <c r="C46" s="149" t="s">
         <v>51</v>
       </c>
-      <c r="D46" s="148"/>
-      <c r="E46" s="148"/>
-      <c r="F46" s="148"/>
+      <c r="D46" s="150"/>
+      <c r="E46" s="150"/>
+      <c r="F46" s="150"/>
       <c r="G46" s="22">
         <v>1</v>
       </c>
-      <c r="H46" s="124"/>
-      <c r="I46" s="125"/>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H46" s="126"/>
+      <c r="I46" s="127"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B47" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="48" t="s">
+      <c r="C47" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="D47" s="49"/>
-      <c r="E47" s="49"/>
-      <c r="F47" s="50"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="52"/>
       <c r="G47" s="21">
         <v>1</v>
       </c>
-      <c r="H47" s="100"/>
-      <c r="I47" s="101"/>
-    </row>
-    <row r="48" spans="2:10" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H47" s="102"/>
+      <c r="I47" s="103"/>
+    </row>
+    <row r="48" spans="2:10" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="51" t="s">
+      <c r="C48" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="D48" s="52"/>
-      <c r="E48" s="52"/>
-      <c r="F48" s="53"/>
+      <c r="D48" s="54"/>
+      <c r="E48" s="54"/>
+      <c r="F48" s="55"/>
       <c r="G48" s="17">
         <v>0.8</v>
       </c>
-      <c r="H48" s="98" t="s">
+      <c r="H48" s="100" t="s">
         <v>50</v>
       </c>
-      <c r="I48" s="102"/>
+      <c r="I48" s="104"/>
       <c r="J48" s="25" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="50" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="50" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B50" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C50" s="105" t="s">
+      <c r="C50" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="D50" s="106"/>
-      <c r="E50" s="106"/>
-      <c r="F50" s="106"/>
+      <c r="D50" s="108"/>
+      <c r="E50" s="108"/>
+      <c r="F50" s="108"/>
       <c r="G50" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H50" s="106" t="s">
+      <c r="H50" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="I50" s="107"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I50" s="109"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B51" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C51" s="108" t="s">
+      <c r="C51" s="110" t="s">
         <v>53</v>
       </c>
-      <c r="D51" s="109"/>
-      <c r="E51" s="109"/>
-      <c r="F51" s="110"/>
+      <c r="D51" s="111"/>
+      <c r="E51" s="111"/>
+      <c r="F51" s="112"/>
       <c r="G51" s="20">
         <v>1</v>
       </c>
-      <c r="H51" s="141"/>
-      <c r="I51" s="142"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H51" s="143"/>
+      <c r="I51" s="144"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B52" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C52" s="48" t="s">
+      <c r="C52" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="D52" s="49"/>
-      <c r="E52" s="49"/>
-      <c r="F52" s="50"/>
+      <c r="D52" s="51"/>
+      <c r="E52" s="51"/>
+      <c r="F52" s="52"/>
       <c r="G52" s="20">
         <v>1</v>
       </c>
-      <c r="H52" s="84"/>
-      <c r="I52" s="85"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H52" s="86"/>
+      <c r="I52" s="87"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B53" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C53" s="48" t="s">
+      <c r="C53" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="D53" s="49"/>
-      <c r="E53" s="49"/>
-      <c r="F53" s="50"/>
+      <c r="D53" s="51"/>
+      <c r="E53" s="51"/>
+      <c r="F53" s="52"/>
       <c r="G53" s="20"/>
-      <c r="H53" s="84"/>
-      <c r="I53" s="85"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H53" s="86"/>
+      <c r="I53" s="87"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B54" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C54" s="83" t="s">
+      <c r="C54" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="D54" s="103"/>
-      <c r="E54" s="103"/>
-      <c r="F54" s="104"/>
+      <c r="D54" s="105"/>
+      <c r="E54" s="105"/>
+      <c r="F54" s="106"/>
       <c r="G54" s="20">
         <v>1</v>
       </c>
-      <c r="H54" s="84"/>
-      <c r="I54" s="85"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H54" s="86"/>
+      <c r="I54" s="87"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B55" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C55" s="48" t="s">
+      <c r="C55" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="D55" s="49"/>
-      <c r="E55" s="49"/>
-      <c r="F55" s="50"/>
+      <c r="D55" s="51"/>
+      <c r="E55" s="51"/>
+      <c r="F55" s="52"/>
       <c r="G55" s="20">
         <v>1</v>
       </c>
-      <c r="H55" s="84"/>
-      <c r="I55" s="85"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H55" s="86"/>
+      <c r="I55" s="87"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B56" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C56" s="83" t="s">
+      <c r="C56" s="85" t="s">
         <v>58</v>
       </c>
-      <c r="D56" s="103"/>
-      <c r="E56" s="103"/>
-      <c r="F56" s="104"/>
+      <c r="D56" s="105"/>
+      <c r="E56" s="105"/>
+      <c r="F56" s="106"/>
       <c r="G56" s="20">
         <v>1</v>
       </c>
-      <c r="H56" s="84"/>
-      <c r="I56" s="85"/>
-    </row>
-    <row r="57" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H56" s="86"/>
+      <c r="I56" s="87"/>
+    </row>
+    <row r="57" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C57" s="54" t="s">
+      <c r="C57" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="D57" s="55"/>
-      <c r="E57" s="55"/>
-      <c r="F57" s="56"/>
-      <c r="G57" s="60">
+      <c r="D57" s="57"/>
+      <c r="E57" s="57"/>
+      <c r="F57" s="58"/>
+      <c r="G57" s="62">
         <v>0.3</v>
       </c>
-      <c r="H57" s="77" t="s">
+      <c r="H57" s="79" t="s">
         <v>60</v>
       </c>
-      <c r="I57" s="78"/>
-    </row>
-    <row r="58" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I57" s="80"/>
+    </row>
+    <row r="58" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C58" s="89"/>
-      <c r="D58" s="90"/>
-      <c r="E58" s="90"/>
-      <c r="F58" s="91"/>
-      <c r="G58" s="75"/>
-      <c r="H58" s="79"/>
-      <c r="I58" s="80"/>
-    </row>
-    <row r="59" spans="2:9" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C58" s="91"/>
+      <c r="D58" s="92"/>
+      <c r="E58" s="92"/>
+      <c r="F58" s="93"/>
+      <c r="G58" s="77"/>
+      <c r="H58" s="81"/>
+      <c r="I58" s="82"/>
+    </row>
+    <row r="59" spans="2:9" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B59" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C59" s="156"/>
-      <c r="D59" s="157"/>
-      <c r="E59" s="157"/>
-      <c r="F59" s="158"/>
-      <c r="G59" s="76"/>
-      <c r="H59" s="81"/>
-      <c r="I59" s="82"/>
-    </row>
-    <row r="60" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="61" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C59" s="158"/>
+      <c r="D59" s="159"/>
+      <c r="E59" s="159"/>
+      <c r="F59" s="160"/>
+      <c r="G59" s="78"/>
+      <c r="H59" s="83"/>
+      <c r="I59" s="84"/>
+    </row>
+    <row r="60" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="61" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B61" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C61" s="105" t="s">
+      <c r="C61" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="D61" s="106"/>
-      <c r="E61" s="106"/>
-      <c r="F61" s="106"/>
+      <c r="D61" s="108"/>
+      <c r="E61" s="108"/>
+      <c r="F61" s="108"/>
       <c r="G61" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="H61" s="106" t="s">
+      <c r="H61" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="I61" s="107"/>
-    </row>
-    <row r="62" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I61" s="109"/>
+    </row>
+    <row r="62" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B62" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C62" s="149" t="s">
+      <c r="C62" s="151" t="s">
         <v>59</v>
       </c>
-      <c r="D62" s="150"/>
-      <c r="E62" s="150"/>
-      <c r="F62" s="151"/>
-      <c r="G62" s="119">
+      <c r="D62" s="152"/>
+      <c r="E62" s="152"/>
+      <c r="F62" s="153"/>
+      <c r="G62" s="121">
         <v>0.3</v>
       </c>
-      <c r="H62" s="152" t="s">
+      <c r="H62" s="154" t="s">
         <v>67</v>
       </c>
-      <c r="I62" s="153"/>
-    </row>
-    <row r="63" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I62" s="155"/>
+    </row>
+    <row r="63" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B63" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C63" s="57"/>
-      <c r="D63" s="58"/>
-      <c r="E63" s="58"/>
-      <c r="F63" s="59"/>
-      <c r="G63" s="61"/>
-      <c r="H63" s="154"/>
-      <c r="I63" s="155"/>
-    </row>
-    <row r="64" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C63" s="59"/>
+      <c r="D63" s="60"/>
+      <c r="E63" s="60"/>
+      <c r="F63" s="61"/>
+      <c r="G63" s="63"/>
+      <c r="H63" s="156"/>
+      <c r="I63" s="157"/>
+    </row>
+    <row r="64" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B64" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C64" s="48" t="s">
+      <c r="C64" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="D64" s="49"/>
-      <c r="E64" s="49"/>
-      <c r="F64" s="50"/>
+      <c r="D64" s="51"/>
+      <c r="E64" s="51"/>
+      <c r="F64" s="52"/>
       <c r="G64" s="24"/>
-      <c r="H64" s="163"/>
-      <c r="I64" s="164"/>
-    </row>
-    <row r="65" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H64" s="165"/>
+      <c r="I64" s="166"/>
+    </row>
+    <row r="65" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B65" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C65" s="54" t="s">
+      <c r="C65" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="D65" s="55"/>
-      <c r="E65" s="55"/>
-      <c r="F65" s="56"/>
-      <c r="G65" s="60">
+      <c r="D65" s="57"/>
+      <c r="E65" s="57"/>
+      <c r="F65" s="58"/>
+      <c r="G65" s="62">
         <v>1</v>
       </c>
-      <c r="H65" s="92" t="s">
+      <c r="H65" s="94" t="s">
         <v>68</v>
       </c>
-      <c r="I65" s="93"/>
-      <c r="L65" s="83" t="s">
+      <c r="I65" s="95"/>
+      <c r="L65" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="M65" s="49"/>
-      <c r="N65" s="49"/>
-      <c r="O65" s="50"/>
-    </row>
-    <row r="66" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M65" s="51"/>
+      <c r="N65" s="51"/>
+      <c r="O65" s="52"/>
+    </row>
+    <row r="66" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B66" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C66" s="89"/>
-      <c r="D66" s="90"/>
-      <c r="E66" s="90"/>
-      <c r="F66" s="91"/>
-      <c r="G66" s="75"/>
-      <c r="H66" s="94"/>
-      <c r="I66" s="95"/>
-      <c r="L66" s="48" t="s">
+      <c r="C66" s="91"/>
+      <c r="D66" s="92"/>
+      <c r="E66" s="92"/>
+      <c r="F66" s="93"/>
+      <c r="G66" s="77"/>
+      <c r="H66" s="96"/>
+      <c r="I66" s="97"/>
+      <c r="L66" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="M66" s="49"/>
-      <c r="N66" s="49"/>
-      <c r="O66" s="50"/>
-    </row>
-    <row r="67" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M66" s="51"/>
+      <c r="N66" s="51"/>
+      <c r="O66" s="52"/>
+    </row>
+    <row r="67" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B67" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C67" s="89"/>
-      <c r="D67" s="90"/>
-      <c r="E67" s="90"/>
-      <c r="F67" s="91"/>
-      <c r="G67" s="75"/>
-      <c r="H67" s="94"/>
-      <c r="I67" s="95"/>
-      <c r="L67" s="48" t="s">
+      <c r="C67" s="91"/>
+      <c r="D67" s="92"/>
+      <c r="E67" s="92"/>
+      <c r="F67" s="93"/>
+      <c r="G67" s="77"/>
+      <c r="H67" s="96"/>
+      <c r="I67" s="97"/>
+      <c r="L67" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="M67" s="49"/>
-      <c r="N67" s="49"/>
-      <c r="O67" s="50"/>
-    </row>
-    <row r="68" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M67" s="51"/>
+      <c r="N67" s="51"/>
+      <c r="O67" s="52"/>
+    </row>
+    <row r="68" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B68" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C68" s="89"/>
-      <c r="D68" s="90"/>
-      <c r="E68" s="90"/>
-      <c r="F68" s="91"/>
-      <c r="G68" s="75"/>
-      <c r="H68" s="94"/>
-      <c r="I68" s="95"/>
-      <c r="L68" s="48" t="s">
+      <c r="C68" s="91"/>
+      <c r="D68" s="92"/>
+      <c r="E68" s="92"/>
+      <c r="F68" s="93"/>
+      <c r="G68" s="77"/>
+      <c r="H68" s="96"/>
+      <c r="I68" s="97"/>
+      <c r="L68" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="M68" s="49"/>
-      <c r="N68" s="49"/>
-      <c r="O68" s="50"/>
-    </row>
-    <row r="69" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M68" s="51"/>
+      <c r="N68" s="51"/>
+      <c r="O68" s="52"/>
+    </row>
+    <row r="69" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B69" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C69" s="57"/>
-      <c r="D69" s="58"/>
-      <c r="E69" s="58"/>
-      <c r="F69" s="59"/>
-      <c r="G69" s="61"/>
-      <c r="H69" s="96"/>
-      <c r="I69" s="97"/>
-      <c r="L69" s="48" t="s">
+      <c r="C69" s="59"/>
+      <c r="D69" s="60"/>
+      <c r="E69" s="60"/>
+      <c r="F69" s="61"/>
+      <c r="G69" s="63"/>
+      <c r="H69" s="98"/>
+      <c r="I69" s="99"/>
+      <c r="L69" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="M69" s="49"/>
-      <c r="N69" s="49"/>
-      <c r="O69" s="50"/>
-    </row>
-    <row r="70" spans="2:15" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M69" s="51"/>
+      <c r="N69" s="51"/>
+      <c r="O69" s="52"/>
+    </row>
+    <row r="70" spans="2:15" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B70" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C70" s="51" t="s">
+      <c r="C70" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="D70" s="52"/>
-      <c r="E70" s="52"/>
-      <c r="F70" s="53"/>
+      <c r="D70" s="54"/>
+      <c r="E70" s="54"/>
+      <c r="F70" s="55"/>
       <c r="G70" s="17">
         <v>0.5</v>
       </c>
-      <c r="H70" s="98" t="s">
+      <c r="H70" s="100" t="s">
         <v>70</v>
       </c>
-      <c r="I70" s="99"/>
-      <c r="L70" s="51" t="s">
+      <c r="I70" s="101"/>
+      <c r="L70" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="M70" s="52"/>
-      <c r="N70" s="52"/>
-      <c r="O70" s="53"/>
-    </row>
-    <row r="71" spans="2:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M70" s="54"/>
+      <c r="N70" s="54"/>
+      <c r="O70" s="55"/>
+    </row>
+    <row r="71" spans="2:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B71" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="C71" s="165" t="s">
+      <c r="C71" s="167" t="s">
         <v>71</v>
       </c>
-      <c r="D71" s="114"/>
-      <c r="E71" s="114"/>
-      <c r="F71" s="114"/>
-      <c r="H71" s="166" t="s">
+      <c r="D71" s="116"/>
+      <c r="E71" s="116"/>
+      <c r="F71" s="116"/>
+      <c r="H71" s="168" t="s">
         <v>73</v>
       </c>
-      <c r="I71" s="166"/>
+      <c r="I71" s="168"/>
       <c r="J71" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="73" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="74" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="74" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B74" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C74" s="105" t="s">
+      <c r="C74" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="D74" s="106"/>
-      <c r="E74" s="106"/>
-      <c r="F74" s="106"/>
+      <c r="D74" s="108"/>
+      <c r="E74" s="108"/>
+      <c r="F74" s="108"/>
       <c r="G74" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="H74" s="106" t="s">
+      <c r="H74" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="I74" s="107"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="I74" s="109"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B75" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C75" s="108" t="s">
+      <c r="C75" s="110" t="s">
         <v>77</v>
       </c>
-      <c r="D75" s="109"/>
-      <c r="E75" s="109"/>
-      <c r="F75" s="110"/>
+      <c r="D75" s="111"/>
+      <c r="E75" s="111"/>
+      <c r="F75" s="112"/>
       <c r="G75" s="27">
         <v>0</v>
       </c>
-      <c r="H75" s="159" t="s">
+      <c r="H75" s="161" t="s">
         <v>83</v>
       </c>
-      <c r="I75" s="160"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="I75" s="162"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B76" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C76" s="48" t="s">
+      <c r="C76" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="D76" s="49"/>
-      <c r="E76" s="49"/>
-      <c r="F76" s="50"/>
+      <c r="D76" s="51"/>
+      <c r="E76" s="51"/>
+      <c r="F76" s="52"/>
       <c r="G76" s="27">
         <v>0</v>
       </c>
-      <c r="H76" s="161" t="s">
+      <c r="H76" s="163" t="s">
         <v>83</v>
       </c>
-      <c r="I76" s="162"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="I76" s="164"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B77" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C77" s="48" t="s">
+      <c r="C77" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="D77" s="49"/>
-      <c r="E77" s="49"/>
-      <c r="F77" s="50"/>
+      <c r="D77" s="51"/>
+      <c r="E77" s="51"/>
+      <c r="F77" s="52"/>
       <c r="G77" s="27"/>
-      <c r="H77" s="84"/>
-      <c r="I77" s="85"/>
-    </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="H77" s="86"/>
+      <c r="I77" s="87"/>
+    </row>
+    <row r="78" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B78" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C78" s="83" t="s">
+      <c r="C78" s="85" t="s">
         <v>79</v>
       </c>
-      <c r="D78" s="49"/>
-      <c r="E78" s="49"/>
-      <c r="F78" s="50"/>
+      <c r="D78" s="51"/>
+      <c r="E78" s="51"/>
+      <c r="F78" s="52"/>
       <c r="G78" s="27">
         <v>1</v>
       </c>
-      <c r="H78" s="84"/>
-      <c r="I78" s="85"/>
-      <c r="L78" s="48" t="s">
+      <c r="H78" s="86"/>
+      <c r="I78" s="87"/>
+      <c r="L78" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="M78" s="49"/>
-      <c r="N78" s="49"/>
-      <c r="O78" s="50"/>
-    </row>
-    <row r="79" spans="2:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M78" s="51"/>
+      <c r="N78" s="51"/>
+      <c r="O78" s="52"/>
+    </row>
+    <row r="79" spans="2:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C79" s="54" t="s">
+      <c r="C79" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="D79" s="55"/>
-      <c r="E79" s="55"/>
-      <c r="F79" s="56"/>
-      <c r="G79" s="60">
+      <c r="D79" s="57"/>
+      <c r="E79" s="57"/>
+      <c r="F79" s="58"/>
+      <c r="G79" s="62">
         <v>1</v>
       </c>
-      <c r="H79" s="62"/>
-      <c r="I79" s="63"/>
-      <c r="L79" s="48" t="s">
+      <c r="H79" s="64"/>
+      <c r="I79" s="65"/>
+      <c r="L79" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="M79" s="49"/>
-      <c r="N79" s="49"/>
-      <c r="O79" s="50"/>
-    </row>
-    <row r="80" spans="2:15" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M79" s="51"/>
+      <c r="N79" s="51"/>
+      <c r="O79" s="52"/>
+    </row>
+    <row r="80" spans="2:15" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B80" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C80" s="57"/>
-      <c r="D80" s="58"/>
-      <c r="E80" s="58"/>
-      <c r="F80" s="59"/>
-      <c r="G80" s="61"/>
-      <c r="H80" s="64"/>
-      <c r="I80" s="65"/>
-      <c r="L80" s="51" t="s">
+      <c r="C80" s="59"/>
+      <c r="D80" s="60"/>
+      <c r="E80" s="60"/>
+      <c r="F80" s="61"/>
+      <c r="G80" s="63"/>
+      <c r="H80" s="66"/>
+      <c r="I80" s="67"/>
+      <c r="L80" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="M80" s="52"/>
-      <c r="N80" s="52"/>
-      <c r="O80" s="53"/>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M80" s="54"/>
+      <c r="N80" s="54"/>
+      <c r="O80" s="55"/>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B81" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C81" s="66" t="s">
+      <c r="C81" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="D81" s="67"/>
-      <c r="E81" s="67"/>
-      <c r="F81" s="68"/>
-      <c r="G81" s="60">
+      <c r="D81" s="69"/>
+      <c r="E81" s="69"/>
+      <c r="F81" s="70"/>
+      <c r="G81" s="62">
         <v>0.7</v>
       </c>
-      <c r="H81" s="77" t="s">
+      <c r="H81" s="79" t="s">
         <v>85</v>
       </c>
-      <c r="I81" s="78"/>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I81" s="80"/>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B82" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C82" s="69"/>
-      <c r="D82" s="70"/>
-      <c r="E82" s="70"/>
-      <c r="F82" s="71"/>
-      <c r="G82" s="75"/>
-      <c r="H82" s="79"/>
-      <c r="I82" s="80"/>
-    </row>
-    <row r="83" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C82" s="71"/>
+      <c r="D82" s="72"/>
+      <c r="E82" s="72"/>
+      <c r="F82" s="73"/>
+      <c r="G82" s="77"/>
+      <c r="H82" s="81"/>
+      <c r="I82" s="82"/>
+    </row>
+    <row r="83" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C83" s="72"/>
-      <c r="D83" s="73"/>
-      <c r="E83" s="73"/>
-      <c r="F83" s="74"/>
-      <c r="G83" s="76"/>
-      <c r="H83" s="81"/>
-      <c r="I83" s="82"/>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C83" s="74"/>
+      <c r="D83" s="75"/>
+      <c r="E83" s="75"/>
+      <c r="F83" s="76"/>
+      <c r="G83" s="78"/>
+      <c r="H83" s="83"/>
+      <c r="I83" s="84"/>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C84" s="47" t="s">
+      <c r="C84" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="D84" s="47"/>
-      <c r="E84" s="47"/>
-      <c r="F84" s="47"/>
+      <c r="D84" s="49"/>
+      <c r="E84" s="49"/>
+      <c r="F84" s="49"/>
       <c r="G84" s="1"/>
-      <c r="H84" s="47" t="s">
+      <c r="H84" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="I84" s="47"/>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I84" s="49"/>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B85" s="31"/>
-      <c r="C85" s="86" t="s">
+      <c r="C85" s="88" t="s">
         <v>89</v>
       </c>
-      <c r="D85" s="86"/>
-      <c r="E85" s="86"/>
-      <c r="F85" s="86"/>
-      <c r="H85" s="86" t="s">
+      <c r="D85" s="88"/>
+      <c r="E85" s="88"/>
+      <c r="F85" s="88"/>
+      <c r="H85" s="88" t="s">
         <v>88</v>
       </c>
-      <c r="I85" s="86"/>
-    </row>
-    <row r="95" spans="2:9" ht="54" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="I85" s="88"/>
+    </row>
+    <row r="95" spans="2:9" ht="54" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="121">
     <mergeCell ref="C76:F76"/>
@@ -3991,933 +4018,933 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{813EEE76-69D4-4EE1-98FD-50720CEB1426}">
   <dimension ref="B2:I70"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.625" customWidth="1"/>
-    <col min="6" max="6" width="21.25" customWidth="1"/>
-    <col min="8" max="8" width="11.375" customWidth="1"/>
-    <col min="9" max="9" width="29.75" customWidth="1"/>
+    <col min="2" max="2" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.59765625" customWidth="1"/>
+    <col min="6" max="6" width="21.19921875" customWidth="1"/>
+    <col min="8" max="8" width="11.3984375" customWidth="1"/>
+    <col min="9" max="9" width="29.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="105" t="s">
+      <c r="C3" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
       <c r="G3" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="106" t="s">
+      <c r="H3" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="107"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I3" s="109"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="108" t="s">
+      <c r="C4" s="110" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
-      <c r="F4" s="110"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="112"/>
       <c r="G4" s="30">
         <v>1</v>
       </c>
-      <c r="H4" s="141"/>
-      <c r="I4" s="142"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H4" s="143"/>
+      <c r="I4" s="144"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="50"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="52"/>
       <c r="G5" s="30">
         <v>1</v>
       </c>
-      <c r="H5" s="84"/>
-      <c r="I5" s="85"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H5" s="86"/>
+      <c r="I5" s="87"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="50"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="52"/>
       <c r="G6" s="30"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="85"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H6" s="86"/>
+      <c r="I6" s="87"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="83" t="s">
+      <c r="C7" s="85" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="104"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="106"/>
       <c r="G7" s="30">
         <v>1</v>
       </c>
-      <c r="H7" s="84"/>
-      <c r="I7" s="85"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H7" s="86"/>
+      <c r="I7" s="87"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="50"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="52"/>
       <c r="G8" s="30"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="85"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H8" s="86"/>
+      <c r="I8" s="87"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="83" t="s">
+      <c r="C9" s="85" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="103"/>
-      <c r="E9" s="103"/>
-      <c r="F9" s="104"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="106"/>
       <c r="G9" s="30"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="85"/>
-    </row>
-    <row r="10" spans="2:9" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H9" s="86"/>
+      <c r="I9" s="87"/>
+    </row>
+    <row r="10" spans="2:9" ht="54" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="83" t="s">
+      <c r="C10" s="85" t="s">
         <v>95</v>
       </c>
-      <c r="D10" s="103"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="104"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="106"/>
       <c r="G10" s="22">
         <v>0.8</v>
       </c>
-      <c r="H10" s="187" t="s">
+      <c r="H10" s="182" t="s">
         <v>98</v>
       </c>
-      <c r="I10" s="188"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I10" s="183"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="83" t="s">
+      <c r="C11" s="85" t="s">
         <v>96</v>
       </c>
-      <c r="D11" s="103"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="104"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="106"/>
       <c r="G11" s="22">
         <v>1</v>
       </c>
-      <c r="H11" s="219"/>
-      <c r="I11" s="220"/>
-    </row>
-    <row r="12" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H11" s="211"/>
+      <c r="I11" s="212"/>
+    </row>
+    <row r="12" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="51" t="s">
+      <c r="C12" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="D12" s="217"/>
-      <c r="E12" s="217"/>
-      <c r="F12" s="218"/>
+      <c r="D12" s="209"/>
+      <c r="E12" s="209"/>
+      <c r="F12" s="210"/>
       <c r="G12" s="17">
         <v>1</v>
       </c>
-      <c r="H12" s="221"/>
-      <c r="I12" s="222"/>
-    </row>
-    <row r="13" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H12" s="213"/>
+      <c r="I12" s="214"/>
+    </row>
+    <row r="13" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C13" s="32"/>
       <c r="D13" s="32"/>
       <c r="E13" s="32"/>
       <c r="F13" s="32"/>
     </row>
-    <row r="14" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B14" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="105" t="s">
+      <c r="C14" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="106"/>
-      <c r="E14" s="106"/>
-      <c r="F14" s="106"/>
+      <c r="D14" s="108"/>
+      <c r="E14" s="108"/>
+      <c r="F14" s="108"/>
       <c r="G14" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="106" t="s">
+      <c r="H14" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="107"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I14" s="109"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B15" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="108" t="s">
+      <c r="C15" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="109"/>
-      <c r="E15" s="109"/>
-      <c r="F15" s="110"/>
+      <c r="D15" s="111"/>
+      <c r="E15" s="111"/>
+      <c r="F15" s="112"/>
       <c r="G15" s="34"/>
-      <c r="H15" s="141"/>
-      <c r="I15" s="142"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H15" s="143"/>
+      <c r="I15" s="144"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B16" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="48" t="s">
+      <c r="C16" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="50"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="52"/>
       <c r="G16" s="34"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="85"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H16" s="86"/>
+      <c r="I16" s="87"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B17" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="48" t="s">
+      <c r="C17" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="50"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="52"/>
       <c r="G17" s="34"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="85"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H17" s="86"/>
+      <c r="I17" s="87"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B18" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="211" t="s">
+      <c r="C18" s="215" t="s">
         <v>100</v>
       </c>
-      <c r="D18" s="212"/>
-      <c r="E18" s="212"/>
-      <c r="F18" s="213"/>
-      <c r="G18" s="60">
+      <c r="D18" s="216"/>
+      <c r="E18" s="216"/>
+      <c r="F18" s="217"/>
+      <c r="G18" s="62">
         <v>1</v>
       </c>
-      <c r="H18" s="62"/>
-      <c r="I18" s="63"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H18" s="64"/>
+      <c r="I18" s="65"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B19" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="214"/>
-      <c r="D19" s="215"/>
-      <c r="E19" s="215"/>
-      <c r="F19" s="216"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="176"/>
-      <c r="I19" s="177"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C19" s="218"/>
+      <c r="D19" s="219"/>
+      <c r="E19" s="219"/>
+      <c r="F19" s="220"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="221"/>
+      <c r="I19" s="222"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B20" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="214"/>
-      <c r="D20" s="215"/>
-      <c r="E20" s="215"/>
-      <c r="F20" s="216"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="176"/>
-      <c r="I20" s="177"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C20" s="218"/>
+      <c r="D20" s="219"/>
+      <c r="E20" s="219"/>
+      <c r="F20" s="220"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="221"/>
+      <c r="I20" s="222"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B21" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="116"/>
-      <c r="D21" s="117"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="118"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="65"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C21" s="118"/>
+      <c r="D21" s="119"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="120"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="67"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B22" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="48" t="s">
+      <c r="C22" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="50"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="52"/>
       <c r="G22" s="34">
         <v>1</v>
       </c>
-      <c r="H22" s="131"/>
-      <c r="I22" s="132"/>
-    </row>
-    <row r="23" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H22" s="133"/>
+      <c r="I22" s="134"/>
+    </row>
+    <row r="23" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="51" t="s">
+      <c r="C23" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="53"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="55"/>
       <c r="G23" s="17">
         <v>1</v>
       </c>
-      <c r="H23" s="129"/>
-      <c r="I23" s="130"/>
-    </row>
-    <row r="24" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="25" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H23" s="131"/>
+      <c r="I23" s="132"/>
+    </row>
+    <row r="24" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="25" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B25" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="C25" s="105" t="s">
+      <c r="C25" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="106"/>
-      <c r="E25" s="106"/>
-      <c r="F25" s="106"/>
+      <c r="D25" s="108"/>
+      <c r="E25" s="108"/>
+      <c r="F25" s="108"/>
       <c r="G25" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="H25" s="106" t="s">
+      <c r="H25" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="I25" s="107"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I25" s="109"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B26" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="202" t="s">
+      <c r="C26" s="200" t="s">
         <v>104</v>
       </c>
-      <c r="D26" s="203"/>
-      <c r="E26" s="203"/>
-      <c r="F26" s="204"/>
-      <c r="G26" s="119">
+      <c r="D26" s="201"/>
+      <c r="E26" s="201"/>
+      <c r="F26" s="202"/>
+      <c r="G26" s="121">
         <v>0.8</v>
       </c>
-      <c r="H26" s="120" t="s">
+      <c r="H26" s="122" t="s">
         <v>112</v>
       </c>
-      <c r="I26" s="208"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I26" s="206"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B27" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="205"/>
-      <c r="D27" s="206"/>
-      <c r="E27" s="206"/>
-      <c r="F27" s="207"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="209"/>
-      <c r="I27" s="210"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C27" s="203"/>
+      <c r="D27" s="204"/>
+      <c r="E27" s="204"/>
+      <c r="F27" s="205"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="207"/>
+      <c r="I27" s="208"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B28" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="199" t="s">
+      <c r="C28" s="197" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="200"/>
-      <c r="E28" s="200"/>
-      <c r="F28" s="201"/>
+      <c r="D28" s="198"/>
+      <c r="E28" s="198"/>
+      <c r="F28" s="199"/>
       <c r="G28" s="37"/>
-      <c r="H28" s="161"/>
-      <c r="I28" s="162"/>
-    </row>
-    <row r="29" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H28" s="163"/>
+      <c r="I28" s="164"/>
+    </row>
+    <row r="29" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="180" t="s">
+      <c r="C29" s="175" t="s">
         <v>104</v>
       </c>
-      <c r="D29" s="181"/>
-      <c r="E29" s="181"/>
-      <c r="F29" s="181"/>
+      <c r="D29" s="176"/>
+      <c r="E29" s="176"/>
+      <c r="F29" s="176"/>
       <c r="G29" s="22">
         <v>1</v>
       </c>
-      <c r="H29" s="148"/>
-      <c r="I29" s="185"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H29" s="150"/>
+      <c r="I29" s="180"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B30" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="178" t="s">
+      <c r="C30" s="173" t="s">
         <v>105</v>
       </c>
-      <c r="D30" s="179"/>
-      <c r="E30" s="179"/>
-      <c r="F30" s="179"/>
+      <c r="D30" s="174"/>
+      <c r="E30" s="174"/>
+      <c r="F30" s="174"/>
       <c r="G30" s="22">
         <v>1</v>
       </c>
-      <c r="H30" s="148"/>
-      <c r="I30" s="185"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H30" s="150"/>
+      <c r="I30" s="180"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B31" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="178" t="s">
+      <c r="C31" s="173" t="s">
         <v>106</v>
       </c>
-      <c r="D31" s="179"/>
-      <c r="E31" s="179"/>
-      <c r="F31" s="179"/>
-      <c r="G31" s="184">
+      <c r="D31" s="174"/>
+      <c r="E31" s="174"/>
+      <c r="F31" s="174"/>
+      <c r="G31" s="179">
         <v>1</v>
       </c>
-      <c r="H31" s="148"/>
-      <c r="I31" s="185"/>
-    </row>
-    <row r="32" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H31" s="150"/>
+      <c r="I31" s="180"/>
+    </row>
+    <row r="32" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="178"/>
-      <c r="D32" s="179"/>
-      <c r="E32" s="179"/>
-      <c r="F32" s="179"/>
-      <c r="G32" s="184"/>
-      <c r="H32" s="148"/>
-      <c r="I32" s="185"/>
-    </row>
-    <row r="33" spans="2:9" ht="25.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="173"/>
+      <c r="D32" s="174"/>
+      <c r="E32" s="174"/>
+      <c r="F32" s="174"/>
+      <c r="G32" s="179"/>
+      <c r="H32" s="150"/>
+      <c r="I32" s="180"/>
+    </row>
+    <row r="33" spans="2:9" ht="25.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="180" t="s">
+      <c r="C33" s="175" t="s">
         <v>107</v>
       </c>
-      <c r="D33" s="181"/>
-      <c r="E33" s="181"/>
-      <c r="F33" s="181"/>
-      <c r="G33" s="184">
+      <c r="D33" s="176"/>
+      <c r="E33" s="176"/>
+      <c r="F33" s="176"/>
+      <c r="G33" s="179">
         <v>0.5</v>
       </c>
-      <c r="H33" s="187" t="s">
+      <c r="H33" s="182" t="s">
         <v>110</v>
       </c>
-      <c r="I33" s="188"/>
-    </row>
-    <row r="34" spans="2:9" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I33" s="183"/>
+    </row>
+    <row r="34" spans="2:9" ht="25.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B34" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="182"/>
-      <c r="D34" s="183"/>
-      <c r="E34" s="183"/>
-      <c r="F34" s="183"/>
-      <c r="G34" s="186"/>
-      <c r="H34" s="189"/>
-      <c r="I34" s="190"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C34" s="177"/>
+      <c r="D34" s="178"/>
+      <c r="E34" s="178"/>
+      <c r="F34" s="178"/>
+      <c r="G34" s="181"/>
+      <c r="H34" s="184"/>
+      <c r="I34" s="185"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B35" s="28"/>
-      <c r="C35" s="114"/>
-      <c r="D35" s="114"/>
-      <c r="E35" s="114"/>
-      <c r="F35" s="114"/>
+      <c r="C35" s="116"/>
+      <c r="D35" s="116"/>
+      <c r="E35" s="116"/>
+      <c r="F35" s="116"/>
       <c r="G35" s="36"/>
-      <c r="H35" s="47"/>
-      <c r="I35" s="47"/>
-    </row>
-    <row r="36" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="37" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+    </row>
+    <row r="36" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="37" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B37" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="C37" s="105" t="s">
+      <c r="C37" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="D37" s="106"/>
-      <c r="E37" s="106"/>
-      <c r="F37" s="106"/>
+      <c r="D37" s="108"/>
+      <c r="E37" s="108"/>
+      <c r="F37" s="108"/>
       <c r="G37" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="H37" s="106" t="s">
+      <c r="H37" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="I37" s="107"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I37" s="109"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B38" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="192" t="s">
+      <c r="C38" s="187" t="s">
         <v>109</v>
       </c>
-      <c r="D38" s="114"/>
-      <c r="E38" s="114"/>
-      <c r="F38" s="115"/>
-      <c r="G38" s="119">
+      <c r="D38" s="116"/>
+      <c r="E38" s="116"/>
+      <c r="F38" s="117"/>
+      <c r="G38" s="121">
         <v>0.9</v>
       </c>
-      <c r="H38" s="193"/>
-      <c r="I38" s="121"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H38" s="188"/>
+      <c r="I38" s="123"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B39" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="116"/>
-      <c r="D39" s="117"/>
-      <c r="E39" s="117"/>
-      <c r="F39" s="118"/>
-      <c r="G39" s="61"/>
-      <c r="H39" s="122"/>
-      <c r="I39" s="123"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C39" s="118"/>
+      <c r="D39" s="119"/>
+      <c r="E39" s="119"/>
+      <c r="F39" s="120"/>
+      <c r="G39" s="63"/>
+      <c r="H39" s="124"/>
+      <c r="I39" s="125"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B40" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="48" t="s">
+      <c r="C40" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="49"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="50"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="52"/>
       <c r="G40" s="40"/>
-      <c r="H40" s="87"/>
-      <c r="I40" s="88"/>
-    </row>
-    <row r="41" spans="2:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H40" s="89"/>
+      <c r="I40" s="90"/>
+    </row>
+    <row r="41" spans="2:9" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="167" t="s">
+      <c r="C41" s="189" t="s">
         <v>109</v>
       </c>
-      <c r="D41" s="168"/>
-      <c r="E41" s="168"/>
-      <c r="F41" s="169"/>
-      <c r="G41" s="60">
+      <c r="D41" s="190"/>
+      <c r="E41" s="190"/>
+      <c r="F41" s="191"/>
+      <c r="G41" s="62">
         <v>0.9</v>
       </c>
-      <c r="H41" s="77" t="s">
+      <c r="H41" s="79" t="s">
         <v>114</v>
       </c>
-      <c r="I41" s="78"/>
-    </row>
-    <row r="42" spans="2:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I41" s="80"/>
+    </row>
+    <row r="42" spans="2:9" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C42" s="194"/>
-      <c r="D42" s="195"/>
-      <c r="E42" s="195"/>
-      <c r="F42" s="196"/>
-      <c r="G42" s="61"/>
-      <c r="H42" s="122"/>
-      <c r="I42" s="123"/>
-    </row>
-    <row r="43" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="192"/>
+      <c r="D42" s="193"/>
+      <c r="E42" s="193"/>
+      <c r="F42" s="194"/>
+      <c r="G42" s="63"/>
+      <c r="H42" s="124"/>
+      <c r="I42" s="125"/>
+    </row>
+    <row r="43" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C43" s="143" t="s">
+      <c r="C43" s="145" t="s">
         <v>111</v>
       </c>
-      <c r="D43" s="144"/>
-      <c r="E43" s="144"/>
-      <c r="F43" s="144"/>
-      <c r="G43" s="184">
+      <c r="D43" s="146"/>
+      <c r="E43" s="146"/>
+      <c r="F43" s="146"/>
+      <c r="G43" s="179">
         <v>1</v>
       </c>
-      <c r="H43" s="197"/>
-      <c r="I43" s="198"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H43" s="195"/>
+      <c r="I43" s="196"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B44" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C44" s="143"/>
-      <c r="D44" s="144"/>
-      <c r="E44" s="144"/>
-      <c r="F44" s="144"/>
-      <c r="G44" s="184"/>
-      <c r="H44" s="197"/>
-      <c r="I44" s="198"/>
-    </row>
-    <row r="45" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C44" s="145"/>
+      <c r="D44" s="146"/>
+      <c r="E44" s="146"/>
+      <c r="F44" s="146"/>
+      <c r="G44" s="179"/>
+      <c r="H44" s="195"/>
+      <c r="I44" s="196"/>
+    </row>
+    <row r="45" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="143"/>
-      <c r="D45" s="144"/>
-      <c r="E45" s="144"/>
-      <c r="F45" s="144"/>
-      <c r="G45" s="184"/>
-      <c r="H45" s="197"/>
-      <c r="I45" s="198"/>
-    </row>
-    <row r="46" spans="2:9" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C45" s="145"/>
+      <c r="D45" s="146"/>
+      <c r="E45" s="146"/>
+      <c r="F45" s="146"/>
+      <c r="G45" s="179"/>
+      <c r="H45" s="195"/>
+      <c r="I45" s="196"/>
+    </row>
+    <row r="46" spans="2:9" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B46" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="224" t="s">
+      <c r="C46" s="230" t="s">
         <v>113</v>
       </c>
-      <c r="D46" s="52"/>
-      <c r="E46" s="52"/>
-      <c r="F46" s="53"/>
+      <c r="D46" s="54"/>
+      <c r="E46" s="54"/>
+      <c r="F46" s="55"/>
       <c r="G46" s="41">
         <v>0.5</v>
       </c>
-      <c r="H46" s="189" t="s">
+      <c r="H46" s="184" t="s">
         <v>115</v>
       </c>
-      <c r="I46" s="191"/>
-    </row>
-    <row r="47" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="48" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I46" s="186"/>
+    </row>
+    <row r="47" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="48" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="C48" s="105" t="s">
+      <c r="C48" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="D48" s="106"/>
-      <c r="E48" s="106"/>
-      <c r="F48" s="106"/>
+      <c r="D48" s="108"/>
+      <c r="E48" s="108"/>
+      <c r="F48" s="108"/>
       <c r="G48" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="H48" s="106" t="s">
+      <c r="H48" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="I48" s="107"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I48" s="109"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B49" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C49" s="192" t="s">
+      <c r="C49" s="187" t="s">
         <v>113</v>
       </c>
-      <c r="D49" s="114"/>
-      <c r="E49" s="114"/>
-      <c r="F49" s="115"/>
-      <c r="G49" s="119">
+      <c r="D49" s="116"/>
+      <c r="E49" s="116"/>
+      <c r="F49" s="117"/>
+      <c r="G49" s="121">
         <v>1</v>
       </c>
-      <c r="H49" s="225"/>
-      <c r="I49" s="226"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H49" s="231"/>
+      <c r="I49" s="232"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B50" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C50" s="116"/>
-      <c r="D50" s="117"/>
-      <c r="E50" s="117"/>
-      <c r="F50" s="118"/>
-      <c r="G50" s="61"/>
-      <c r="H50" s="227"/>
-      <c r="I50" s="228"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C50" s="118"/>
+      <c r="D50" s="119"/>
+      <c r="E50" s="119"/>
+      <c r="F50" s="120"/>
+      <c r="G50" s="63"/>
+      <c r="H50" s="171"/>
+      <c r="I50" s="172"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B51" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C51" s="48" t="s">
+      <c r="C51" s="50" t="s">
         <v>117</v>
       </c>
-      <c r="D51" s="49"/>
-      <c r="E51" s="49"/>
-      <c r="F51" s="50"/>
+      <c r="D51" s="51"/>
+      <c r="E51" s="51"/>
+      <c r="F51" s="52"/>
       <c r="G51" s="40"/>
-      <c r="H51" s="161"/>
-      <c r="I51" s="162"/>
-    </row>
-    <row r="52" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H51" s="163"/>
+      <c r="I51" s="164"/>
+    </row>
+    <row r="52" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C52" s="167" t="s">
+      <c r="C52" s="189" t="s">
         <v>113</v>
       </c>
-      <c r="D52" s="168"/>
-      <c r="E52" s="168"/>
-      <c r="F52" s="169"/>
-      <c r="G52" s="60">
+      <c r="D52" s="190"/>
+      <c r="E52" s="190"/>
+      <c r="F52" s="191"/>
+      <c r="G52" s="62">
         <v>1</v>
       </c>
-      <c r="H52" s="229"/>
-      <c r="I52" s="230"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H52" s="169"/>
+      <c r="I52" s="170"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B53" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C53" s="194"/>
-      <c r="D53" s="195"/>
-      <c r="E53" s="195"/>
-      <c r="F53" s="196"/>
-      <c r="G53" s="61"/>
-      <c r="H53" s="227"/>
-      <c r="I53" s="228"/>
-    </row>
-    <row r="54" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C53" s="192"/>
+      <c r="D53" s="193"/>
+      <c r="E53" s="193"/>
+      <c r="F53" s="194"/>
+      <c r="G53" s="63"/>
+      <c r="H53" s="171"/>
+      <c r="I53" s="172"/>
+    </row>
+    <row r="54" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B54" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C54" s="167" t="s">
+      <c r="C54" s="189" t="s">
         <v>118</v>
       </c>
-      <c r="D54" s="168"/>
-      <c r="E54" s="168"/>
-      <c r="F54" s="169"/>
-      <c r="G54" s="60">
+      <c r="D54" s="190"/>
+      <c r="E54" s="190"/>
+      <c r="F54" s="191"/>
+      <c r="G54" s="62">
         <v>0.7</v>
       </c>
-      <c r="H54" s="77" t="s">
+      <c r="H54" s="79" t="s">
         <v>119</v>
       </c>
-      <c r="I54" s="78"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I54" s="80"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B55" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C55" s="170"/>
-      <c r="D55" s="171"/>
-      <c r="E55" s="171"/>
-      <c r="F55" s="172"/>
-      <c r="G55" s="75"/>
-      <c r="H55" s="79"/>
-      <c r="I55" s="80"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C55" s="223"/>
+      <c r="D55" s="224"/>
+      <c r="E55" s="224"/>
+      <c r="F55" s="225"/>
+      <c r="G55" s="77"/>
+      <c r="H55" s="81"/>
+      <c r="I55" s="82"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B56" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C56" s="170"/>
-      <c r="D56" s="171"/>
-      <c r="E56" s="171"/>
-      <c r="F56" s="172"/>
-      <c r="G56" s="75"/>
-      <c r="H56" s="79"/>
-      <c r="I56" s="80"/>
-    </row>
-    <row r="57" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C56" s="223"/>
+      <c r="D56" s="224"/>
+      <c r="E56" s="224"/>
+      <c r="F56" s="225"/>
+      <c r="G56" s="77"/>
+      <c r="H56" s="81"/>
+      <c r="I56" s="82"/>
+    </row>
+    <row r="57" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B57" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C57" s="173"/>
-      <c r="D57" s="174"/>
-      <c r="E57" s="174"/>
-      <c r="F57" s="175"/>
-      <c r="G57" s="76"/>
-      <c r="H57" s="81"/>
-      <c r="I57" s="82"/>
-    </row>
-    <row r="58" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C57" s="226"/>
+      <c r="D57" s="227"/>
+      <c r="E57" s="227"/>
+      <c r="F57" s="228"/>
+      <c r="G57" s="78"/>
+      <c r="H57" s="83"/>
+      <c r="I57" s="84"/>
+    </row>
+    <row r="58" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="C58" s="165" t="s">
+      <c r="C58" s="167" t="s">
         <v>124</v>
       </c>
-      <c r="D58" s="114"/>
-      <c r="E58" s="114"/>
-      <c r="F58" s="114"/>
+      <c r="D58" s="116"/>
+      <c r="E58" s="116"/>
+      <c r="F58" s="116"/>
       <c r="G58" s="44"/>
-      <c r="H58" s="223" t="s">
+      <c r="H58" s="229" t="s">
         <v>123</v>
       </c>
-      <c r="I58" s="223"/>
-    </row>
-    <row r="59" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="60" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I58" s="229"/>
+    </row>
+    <row r="59" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="60" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B60" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="C60" s="105" t="s">
+      <c r="C60" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="D60" s="106"/>
-      <c r="E60" s="106"/>
-      <c r="F60" s="106"/>
+      <c r="D60" s="108"/>
+      <c r="E60" s="108"/>
+      <c r="F60" s="108"/>
       <c r="G60" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="H60" s="106" t="s">
+      <c r="H60" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="I60" s="107"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I60" s="109"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B61" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C61" s="113" t="s">
+      <c r="C61" s="115" t="s">
         <v>125</v>
       </c>
-      <c r="D61" s="114"/>
-      <c r="E61" s="114"/>
-      <c r="F61" s="115"/>
-      <c r="G61" s="119">
+      <c r="D61" s="116"/>
+      <c r="E61" s="116"/>
+      <c r="F61" s="117"/>
+      <c r="G61" s="121">
         <v>0</v>
       </c>
-      <c r="H61" s="193" t="s">
+      <c r="H61" s="188" t="s">
         <v>126</v>
       </c>
-      <c r="I61" s="121"/>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I61" s="123"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B62" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C62" s="116"/>
-      <c r="D62" s="117"/>
-      <c r="E62" s="117"/>
-      <c r="F62" s="118"/>
-      <c r="G62" s="61"/>
-      <c r="H62" s="122"/>
-      <c r="I62" s="123"/>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C62" s="118"/>
+      <c r="D62" s="119"/>
+      <c r="E62" s="119"/>
+      <c r="F62" s="120"/>
+      <c r="G62" s="63"/>
+      <c r="H62" s="124"/>
+      <c r="I62" s="125"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B63" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C63" s="48" t="s">
+      <c r="C63" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="D63" s="49"/>
-      <c r="E63" s="49"/>
-      <c r="F63" s="50"/>
+      <c r="D63" s="51"/>
+      <c r="E63" s="51"/>
+      <c r="F63" s="52"/>
       <c r="G63" s="43"/>
-      <c r="H63" s="84"/>
-      <c r="I63" s="85"/>
-    </row>
-    <row r="64" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H63" s="86"/>
+      <c r="I63" s="87"/>
+    </row>
+    <row r="64" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B64" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C64" s="167" t="s">
+      <c r="C64" s="189" t="s">
         <v>125</v>
       </c>
-      <c r="D64" s="168"/>
-      <c r="E64" s="168"/>
-      <c r="F64" s="169"/>
-      <c r="G64" s="60">
+      <c r="D64" s="190"/>
+      <c r="E64" s="190"/>
+      <c r="F64" s="191"/>
+      <c r="G64" s="62">
         <v>1</v>
       </c>
-      <c r="H64" s="236"/>
-      <c r="I64" s="237"/>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H64" s="240"/>
+      <c r="I64" s="241"/>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B65" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C65" s="170"/>
-      <c r="D65" s="171"/>
-      <c r="E65" s="171"/>
-      <c r="F65" s="172"/>
-      <c r="G65" s="75"/>
-      <c r="H65" s="238"/>
-      <c r="I65" s="239"/>
-    </row>
-    <row r="66" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C65" s="223"/>
+      <c r="D65" s="224"/>
+      <c r="E65" s="224"/>
+      <c r="F65" s="225"/>
+      <c r="G65" s="77"/>
+      <c r="H65" s="242"/>
+      <c r="I65" s="243"/>
+    </row>
+    <row r="66" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B66" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C66" s="170"/>
-      <c r="D66" s="171"/>
-      <c r="E66" s="171"/>
-      <c r="F66" s="172"/>
-      <c r="G66" s="75"/>
-      <c r="H66" s="238"/>
-      <c r="I66" s="239"/>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C66" s="223"/>
+      <c r="D66" s="224"/>
+      <c r="E66" s="224"/>
+      <c r="F66" s="225"/>
+      <c r="G66" s="77"/>
+      <c r="H66" s="242"/>
+      <c r="I66" s="243"/>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B67" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C67" s="194"/>
-      <c r="D67" s="195"/>
-      <c r="E67" s="195"/>
-      <c r="F67" s="196"/>
-      <c r="G67" s="61"/>
-      <c r="H67" s="154"/>
-      <c r="I67" s="155"/>
-    </row>
-    <row r="68" spans="2:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C67" s="192"/>
+      <c r="D67" s="193"/>
+      <c r="E67" s="193"/>
+      <c r="F67" s="194"/>
+      <c r="G67" s="63"/>
+      <c r="H67" s="156"/>
+      <c r="I67" s="157"/>
+    </row>
+    <row r="68" spans="2:9" ht="27.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B68" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C68" s="170" t="s">
+      <c r="C68" s="223" t="s">
         <v>127</v>
       </c>
-      <c r="D68" s="215"/>
-      <c r="E68" s="215"/>
-      <c r="F68" s="216"/>
-      <c r="G68" s="75">
+      <c r="D68" s="219"/>
+      <c r="E68" s="219"/>
+      <c r="F68" s="220"/>
+      <c r="G68" s="77">
         <v>0.5</v>
       </c>
-      <c r="H68" s="240" t="s">
+      <c r="H68" s="236" t="s">
         <v>128</v>
       </c>
-      <c r="I68" s="241"/>
-    </row>
-    <row r="69" spans="2:9" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I68" s="237"/>
+    </row>
+    <row r="69" spans="2:9" ht="27.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="12" t="s">
         <v>15</v>
       </c>
@@ -4925,11 +4952,11 @@
       <c r="D69" s="234"/>
       <c r="E69" s="234"/>
       <c r="F69" s="235"/>
-      <c r="G69" s="76"/>
-      <c r="H69" s="242"/>
-      <c r="I69" s="243"/>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G69" s="78"/>
+      <c r="H69" s="238"/>
+      <c r="I69" s="239"/>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C70" s="32"/>
       <c r="D70" s="32"/>
       <c r="E70" s="32"/>
@@ -4950,6 +4977,7 @@
     <mergeCell ref="C64:F67"/>
     <mergeCell ref="G64:G67"/>
     <mergeCell ref="H64:I67"/>
+    <mergeCell ref="C63:F63"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="C10:F10"/>
@@ -4978,7 +5006,6 @@
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="H5:I5"/>
-    <mergeCell ref="C22:F22"/>
     <mergeCell ref="H22:I22"/>
     <mergeCell ref="C12:F12"/>
     <mergeCell ref="H10:I10"/>
@@ -5009,6 +5036,7 @@
     <mergeCell ref="G26:G27"/>
     <mergeCell ref="H26:I27"/>
     <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C22:F22"/>
     <mergeCell ref="H46:I46"/>
     <mergeCell ref="C35:F35"/>
     <mergeCell ref="H35:I35"/>
@@ -5024,19 +5052,18 @@
     <mergeCell ref="C40:F40"/>
     <mergeCell ref="H40:I40"/>
     <mergeCell ref="C37:F37"/>
+    <mergeCell ref="H37:I37"/>
     <mergeCell ref="C31:F32"/>
     <mergeCell ref="C33:F34"/>
     <mergeCell ref="G31:G32"/>
     <mergeCell ref="H31:I32"/>
     <mergeCell ref="G33:G34"/>
     <mergeCell ref="H33:I34"/>
-    <mergeCell ref="H37:I37"/>
     <mergeCell ref="H52:I53"/>
     <mergeCell ref="C51:F51"/>
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="C48:F48"/>
     <mergeCell ref="H48:I48"/>
-    <mergeCell ref="C63:F63"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5046,123 +5073,131 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D5800FB-BD05-4FC8-A7D1-22A28308449E}">
-  <dimension ref="B1:I11"/>
+  <dimension ref="B1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20:I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="15.75" customWidth="1"/>
-    <col min="5" max="5" width="15.125" customWidth="1"/>
-    <col min="6" max="6" width="12.25" customWidth="1"/>
-    <col min="8" max="8" width="15.625" customWidth="1"/>
-    <col min="9" max="9" width="25.125" customWidth="1"/>
+    <col min="2" max="2" width="15.69921875" customWidth="1"/>
+    <col min="5" max="5" width="15.09765625" customWidth="1"/>
+    <col min="6" max="6" width="12.19921875" customWidth="1"/>
+    <col min="8" max="8" width="15.59765625" customWidth="1"/>
+    <col min="9" max="9" width="25.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="105" t="s">
+      <c r="C2" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
       <c r="G2" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="106" t="s">
+      <c r="H2" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="107"/>
-    </row>
-    <row r="3" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I2" s="109"/>
+    </row>
+    <row r="3" spans="2:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="113" t="s">
+      <c r="C3" s="115" t="s">
         <v>131</v>
       </c>
-      <c r="D3" s="165"/>
-      <c r="E3" s="165"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="167"/>
       <c r="F3" s="244"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="231"/>
-      <c r="I3" s="232"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G3" s="121">
+        <v>0.5</v>
+      </c>
+      <c r="H3" s="122" t="s">
+        <v>135</v>
+      </c>
+      <c r="I3" s="206"/>
+    </row>
+    <row r="4" spans="2:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="194"/>
-      <c r="D4" s="195"/>
-      <c r="E4" s="195"/>
-      <c r="F4" s="196"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="65"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C4" s="192"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="193"/>
+      <c r="F4" s="194"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="207"/>
+      <c r="I4" s="208"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="50"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="52"/>
       <c r="G5" s="46"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="85"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H5" s="89"/>
+      <c r="I5" s="90"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="83" t="s">
+      <c r="C6" s="85" t="s">
         <v>132</v>
       </c>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="85"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="89" t="s">
+        <v>136</v>
+      </c>
+      <c r="I6" s="90"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="50"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="52"/>
       <c r="G7" s="46"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="85"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H7" s="89"/>
+      <c r="I7" s="90"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="83" t="s">
+      <c r="C8" s="85" t="s">
         <v>133</v>
       </c>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="104"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="106"/>
       <c r="G8" s="46"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="85"/>
-    </row>
-    <row r="9" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H8" s="89"/>
+      <c r="I8" s="90"/>
+    </row>
+    <row r="9" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="11" t="s">
         <v>13</v>
       </c>
@@ -5172,11 +5207,15 @@
       <c r="D9" s="246"/>
       <c r="E9" s="246"/>
       <c r="F9" s="247"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="254"/>
-      <c r="I9" s="255"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G9" s="62">
+        <v>0.5</v>
+      </c>
+      <c r="H9" s="79" t="s">
+        <v>137</v>
+      </c>
+      <c r="I9" s="128"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B10" s="11" t="s">
         <v>14</v>
       </c>
@@ -5184,11 +5223,11 @@
       <c r="D10" s="249"/>
       <c r="E10" s="249"/>
       <c r="F10" s="250"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="256"/>
-      <c r="I10" s="257"/>
-    </row>
-    <row r="11" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G10" s="77"/>
+      <c r="H10" s="254"/>
+      <c r="I10" s="255"/>
+    </row>
+    <row r="11" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="12" t="s">
         <v>15</v>
       </c>
@@ -5196,12 +5235,184 @@
       <c r="D11" s="252"/>
       <c r="E11" s="252"/>
       <c r="F11" s="253"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="258"/>
-      <c r="I11" s="259"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="129"/>
+      <c r="I11" s="130"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B12" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="116" t="s">
+        <v>139</v>
+      </c>
+      <c r="D12" s="116"/>
+      <c r="E12" s="116"/>
+      <c r="F12" s="116"/>
+      <c r="H12" s="116" t="s">
+        <v>138</v>
+      </c>
+      <c r="I12" s="116"/>
+    </row>
+    <row r="13" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="14" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" s="107" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="108"/>
+      <c r="E14" s="108"/>
+      <c r="F14" s="108"/>
+      <c r="G14" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="108" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="109"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B15" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="110" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="111"/>
+      <c r="E15" s="111"/>
+      <c r="F15" s="112"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="143"/>
+      <c r="I15" s="144"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B16" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="87"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B17" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="87"/>
+    </row>
+    <row r="18" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="189" t="s">
+        <v>141</v>
+      </c>
+      <c r="D18" s="190"/>
+      <c r="E18" s="190"/>
+      <c r="F18" s="191"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="65"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B19" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="192"/>
+      <c r="D19" s="193"/>
+      <c r="E19" s="193"/>
+      <c r="F19" s="194"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="67"/>
+    </row>
+    <row r="20" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="189" t="s">
+        <v>142</v>
+      </c>
+      <c r="D20" s="190"/>
+      <c r="E20" s="190"/>
+      <c r="F20" s="191"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="65"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B21" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="223"/>
+      <c r="D21" s="224"/>
+      <c r="E21" s="224"/>
+      <c r="F21" s="225"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="221"/>
+      <c r="I21" s="222"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B22" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="223"/>
+      <c r="D22" s="224"/>
+      <c r="E22" s="224"/>
+      <c r="F22" s="225"/>
+      <c r="G22" s="77"/>
+      <c r="H22" s="221"/>
+      <c r="I22" s="222"/>
+    </row>
+    <row r="23" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="226"/>
+      <c r="D23" s="227"/>
+      <c r="E23" s="227"/>
+      <c r="F23" s="228"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="256"/>
+      <c r="I23" s="257"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="32">
+    <mergeCell ref="C18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:I19"/>
+    <mergeCell ref="C20:F23"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="H20:I23"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="H12:I12"/>
     <mergeCell ref="C3:F4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:I4"/>
@@ -5214,13 +5425,10 @@
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="H6:I6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5232,7 +5440,7 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5247,7 +5455,7 @@
       <selection activeCell="F35" sqref="F35:F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5260,7 +5468,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5273,7 +5481,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5286,7 +5494,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5301,7 +5509,7 @@
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/졸작 진행 계획 시간표.xlsx
+++ b/졸작 진행 계획 시간표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2020 졸작 깃\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D059B780-6FC1-4775-AA44-BE35186070BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4D2F54-3563-4456-8F81-04C70E9A1A39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{E0805F39-A49F-47F5-8E79-FFCEB62D9AEC}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="157">
   <si>
     <t>월</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -670,6 +670,64 @@
   </si>
   <si>
     <t>몬스터의 비헤비어 트리 동기화 하여 다른 플레이어에게도 적용되게 하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른 플레이어의 카메라값이 총알 방향에 제대로 연산이 
+되지 않는 듯한 문제 발생. 수정작업 진행하였으나 시간내에 못함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fireweapon() 관련 다른 플레이어 카메라 연산 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른 플레이어의 카메라값을 제대로 불러오지 못하는 원인파악 중. 아직 정확한 원인파악 못함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020. 06. 10. 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패트롤 몬스터 생성을 위한 SpawnPoint작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 총 개체 수 조정 및 시간에 따라 리스폰 시키는 함수 구현하여 개체 수 동기화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어들의 HP에 따른 UI 동기화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정작업 진행하였으나 제대로 고치지 못했고 테스팅 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>함수 구현은 하였으나 테스팅이 필요함. 테스팅 후 조정 
+해야함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020. 06. 11. 목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스팅(Fireweapon() / 몬스터 개체수 조정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fireweapon() 관련 총알 방향 연산 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패트롤 몬스터의 waypoint 설정 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 리스폰 함수 조정 및 최적화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1475,7 +1533,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="258">
+  <cellXfs count="269">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1623,6 +1681,21 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2208,6 +2281,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2244,10 +2329,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2625,10 +2716,10 @@
       <c r="G5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="135" t="s">
+      <c r="H5" s="140" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="136"/>
+      <c r="I5" s="141"/>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.4">
@@ -2650,23 +2741,23 @@
       <c r="G6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="137"/>
-      <c r="I6" s="138"/>
+      <c r="H6" s="142"/>
+      <c r="I6" s="143"/>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="141" t="s">
+      <c r="C7" s="146" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="142"/>
-      <c r="E7" s="142"/>
-      <c r="F7" s="142"/>
-      <c r="G7" s="142"/>
-      <c r="H7" s="137"/>
-      <c r="I7" s="138"/>
+      <c r="D7" s="147"/>
+      <c r="E7" s="147"/>
+      <c r="F7" s="147"/>
+      <c r="G7" s="147"/>
+      <c r="H7" s="142"/>
+      <c r="I7" s="143"/>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -2688,8 +2779,8 @@
       <c r="G8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="137"/>
-      <c r="I8" s="138"/>
+      <c r="H8" s="142"/>
+      <c r="I8" s="143"/>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.4">
@@ -2711,8 +2802,8 @@
       <c r="G9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="137"/>
-      <c r="I9" s="138"/>
+      <c r="H9" s="142"/>
+      <c r="I9" s="143"/>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.4">
@@ -2734,8 +2825,8 @@
       <c r="G10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="137"/>
-      <c r="I10" s="138"/>
+      <c r="H10" s="142"/>
+      <c r="I10" s="143"/>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.4">
@@ -2757,8 +2848,8 @@
       <c r="G11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="137"/>
-      <c r="I11" s="138"/>
+      <c r="H11" s="142"/>
+      <c r="I11" s="143"/>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.4">
@@ -2780,8 +2871,8 @@
       <c r="G12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="137"/>
-      <c r="I12" s="138"/>
+      <c r="H12" s="142"/>
+      <c r="I12" s="143"/>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -2803,8 +2894,8 @@
       <c r="G13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="139"/>
-      <c r="I13" s="140"/>
+      <c r="H13" s="144"/>
+      <c r="I13" s="145"/>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.4">
@@ -2846,481 +2937,481 @@
       <c r="B17" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="107" t="s">
+      <c r="C17" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="108"/>
-      <c r="E17" s="108"/>
-      <c r="F17" s="108"/>
+      <c r="D17" s="113"/>
+      <c r="E17" s="113"/>
+      <c r="F17" s="113"/>
       <c r="G17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="108" t="s">
+      <c r="H17" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="I17" s="109"/>
+      <c r="I17" s="114"/>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B18" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="110" t="s">
+      <c r="C18" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="111"/>
-      <c r="E18" s="111"/>
-      <c r="F18" s="112"/>
+      <c r="D18" s="116"/>
+      <c r="E18" s="116"/>
+      <c r="F18" s="117"/>
       <c r="G18" s="16">
         <v>1</v>
       </c>
-      <c r="H18" s="143"/>
-      <c r="I18" s="144"/>
+      <c r="H18" s="148"/>
+      <c r="I18" s="149"/>
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B19" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="50" t="s">
+      <c r="C19" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="52"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="57"/>
       <c r="G19" s="16">
         <v>1</v>
       </c>
-      <c r="H19" s="86"/>
-      <c r="I19" s="87"/>
+      <c r="H19" s="91"/>
+      <c r="I19" s="92"/>
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B20" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="50" t="s">
+      <c r="C20" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="52"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="57"/>
       <c r="G20" s="16"/>
-      <c r="H20" s="86"/>
-      <c r="I20" s="87"/>
+      <c r="H20" s="91"/>
+      <c r="I20" s="92"/>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B21" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="85" t="s">
+      <c r="C21" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="52"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="57"/>
       <c r="G21" s="16">
         <v>1</v>
       </c>
-      <c r="H21" s="86"/>
-      <c r="I21" s="87"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="92"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B22" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="50" t="s">
+      <c r="C22" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="52"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="57"/>
       <c r="G22" s="16"/>
-      <c r="H22" s="86"/>
-      <c r="I22" s="87"/>
+      <c r="H22" s="91"/>
+      <c r="I22" s="92"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B23" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="50" t="s">
+      <c r="C23" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="52"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="57"/>
       <c r="G23" s="16"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="87"/>
+      <c r="H23" s="91"/>
+      <c r="I23" s="92"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B24" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="50" t="s">
+      <c r="C24" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="52"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="57"/>
       <c r="G24" s="16">
         <v>1</v>
       </c>
-      <c r="H24" s="86"/>
-      <c r="I24" s="87"/>
+      <c r="H24" s="91"/>
+      <c r="I24" s="92"/>
     </row>
     <row r="25" spans="2:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="50" t="s">
+      <c r="C25" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="52"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="57"/>
       <c r="G25" s="16">
         <v>0.8</v>
       </c>
-      <c r="H25" s="133" t="s">
+      <c r="H25" s="138" t="s">
         <v>38</v>
       </c>
-      <c r="I25" s="134"/>
+      <c r="I25" s="139"/>
     </row>
     <row r="26" spans="2:10" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B26" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="53" t="s">
+      <c r="C26" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="55"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="60"/>
       <c r="G26" s="17">
         <v>1</v>
       </c>
-      <c r="H26" s="131"/>
-      <c r="I26" s="132"/>
+      <c r="H26" s="136"/>
+      <c r="I26" s="137"/>
     </row>
     <row r="27" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="28" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B28" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="107" t="s">
+      <c r="C28" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="108"/>
-      <c r="E28" s="108"/>
-      <c r="F28" s="108"/>
+      <c r="D28" s="113"/>
+      <c r="E28" s="113"/>
+      <c r="F28" s="113"/>
       <c r="G28" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H28" s="108" t="s">
+      <c r="H28" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="I28" s="109"/>
+      <c r="I28" s="114"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B29" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="110" t="s">
+      <c r="C29" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="111"/>
-      <c r="E29" s="111"/>
-      <c r="F29" s="112"/>
+      <c r="D29" s="116"/>
+      <c r="E29" s="116"/>
+      <c r="F29" s="117"/>
       <c r="G29" s="16"/>
-      <c r="H29" s="113"/>
-      <c r="I29" s="114"/>
+      <c r="H29" s="118"/>
+      <c r="I29" s="119"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B30" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="50" t="s">
+      <c r="C30" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="52"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="57"/>
       <c r="G30" s="16"/>
-      <c r="H30" s="126"/>
-      <c r="I30" s="127"/>
+      <c r="H30" s="131"/>
+      <c r="I30" s="132"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B31" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="50" t="s">
+      <c r="C31" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="52"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="57"/>
       <c r="G31" s="16"/>
-      <c r="H31" s="126"/>
-      <c r="I31" s="127"/>
+      <c r="H31" s="131"/>
+      <c r="I31" s="132"/>
     </row>
     <row r="32" spans="2:10" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="85" t="s">
+      <c r="C32" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="52"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="57"/>
       <c r="G32" s="16">
         <v>0.5</v>
       </c>
-      <c r="H32" s="102" t="s">
+      <c r="H32" s="107" t="s">
         <v>40</v>
       </c>
-      <c r="I32" s="90"/>
+      <c r="I32" s="95"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B33" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="50" t="s">
+      <c r="C33" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="51"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="52"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="57"/>
       <c r="G33" s="16">
         <v>1</v>
       </c>
-      <c r="H33" s="126"/>
-      <c r="I33" s="127"/>
+      <c r="H33" s="131"/>
+      <c r="I33" s="132"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B34" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="50" t="s">
+      <c r="C34" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="52"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="57"/>
       <c r="G34" s="16">
         <v>1</v>
       </c>
-      <c r="H34" s="126"/>
-      <c r="I34" s="127"/>
+      <c r="H34" s="131"/>
+      <c r="I34" s="132"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B35" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="50" t="s">
+      <c r="C35" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="D35" s="51"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="52"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="57"/>
       <c r="G35" s="16">
         <v>1</v>
       </c>
-      <c r="H35" s="126"/>
-      <c r="I35" s="127"/>
+      <c r="H35" s="131"/>
+      <c r="I35" s="132"/>
     </row>
     <row r="36" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="50" t="s">
+      <c r="C36" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="62">
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="67">
         <v>0.5</v>
       </c>
-      <c r="H36" s="79" t="s">
+      <c r="H36" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="I36" s="128"/>
+      <c r="I36" s="133"/>
     </row>
     <row r="37" spans="2:10" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B37" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="53" t="s">
+      <c r="C37" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="D37" s="54"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="55"/>
-      <c r="G37" s="78"/>
-      <c r="H37" s="129"/>
-      <c r="I37" s="130"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="83"/>
+      <c r="H37" s="134"/>
+      <c r="I37" s="135"/>
     </row>
     <row r="38" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="39" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B39" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C39" s="107" t="s">
+      <c r="C39" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="108"/>
-      <c r="E39" s="108"/>
-      <c r="F39" s="108"/>
+      <c r="D39" s="113"/>
+      <c r="E39" s="113"/>
+      <c r="F39" s="113"/>
       <c r="G39" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="H39" s="108" t="s">
+      <c r="H39" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="I39" s="109"/>
+      <c r="I39" s="114"/>
     </row>
     <row r="40" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="115" t="s">
+      <c r="C40" s="120" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="116"/>
-      <c r="E40" s="116"/>
-      <c r="F40" s="117"/>
-      <c r="G40" s="121">
+      <c r="D40" s="121"/>
+      <c r="E40" s="121"/>
+      <c r="F40" s="122"/>
+      <c r="G40" s="126">
         <v>0.3</v>
       </c>
-      <c r="H40" s="122" t="s">
+      <c r="H40" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="I40" s="123"/>
+      <c r="I40" s="128"/>
     </row>
     <row r="41" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C41" s="118"/>
-      <c r="D41" s="119"/>
-      <c r="E41" s="119"/>
-      <c r="F41" s="120"/>
-      <c r="G41" s="63"/>
-      <c r="H41" s="124"/>
-      <c r="I41" s="125"/>
+      <c r="C41" s="123"/>
+      <c r="D41" s="124"/>
+      <c r="E41" s="124"/>
+      <c r="F41" s="125"/>
+      <c r="G41" s="68"/>
+      <c r="H41" s="129"/>
+      <c r="I41" s="130"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B42" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="50" t="s">
+      <c r="C42" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="D42" s="51"/>
-      <c r="E42" s="51"/>
-      <c r="F42" s="52"/>
+      <c r="D42" s="56"/>
+      <c r="E42" s="56"/>
+      <c r="F42" s="57"/>
       <c r="G42" s="16"/>
-      <c r="H42" s="89"/>
-      <c r="I42" s="90"/>
+      <c r="H42" s="94"/>
+      <c r="I42" s="95"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B43" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="85" t="s">
+      <c r="C43" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="D43" s="51"/>
-      <c r="E43" s="51"/>
-      <c r="F43" s="52"/>
+      <c r="D43" s="56"/>
+      <c r="E43" s="56"/>
+      <c r="F43" s="57"/>
       <c r="G43" s="20">
         <v>1</v>
       </c>
-      <c r="H43" s="89"/>
-      <c r="I43" s="90"/>
+      <c r="H43" s="94"/>
+      <c r="I43" s="95"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B44" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C44" s="85" t="s">
+      <c r="C44" s="90" t="s">
         <v>44</v>
       </c>
-      <c r="D44" s="51"/>
-      <c r="E44" s="51"/>
-      <c r="F44" s="52"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="56"/>
+      <c r="F44" s="57"/>
       <c r="G44" s="20">
         <v>1</v>
       </c>
-      <c r="H44" s="89"/>
-      <c r="I44" s="90"/>
+      <c r="H44" s="94"/>
+      <c r="I44" s="95"/>
     </row>
     <row r="45" spans="2:10" ht="36.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C45" s="145" t="s">
+      <c r="C45" s="150" t="s">
         <v>47</v>
       </c>
-      <c r="D45" s="146"/>
-      <c r="E45" s="146"/>
-      <c r="F45" s="146"/>
+      <c r="D45" s="151"/>
+      <c r="E45" s="151"/>
+      <c r="F45" s="151"/>
       <c r="G45" s="22"/>
-      <c r="H45" s="147"/>
-      <c r="I45" s="148"/>
+      <c r="H45" s="152"/>
+      <c r="I45" s="153"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B46" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C46" s="149" t="s">
+      <c r="C46" s="154" t="s">
         <v>51</v>
       </c>
-      <c r="D46" s="150"/>
-      <c r="E46" s="150"/>
-      <c r="F46" s="150"/>
+      <c r="D46" s="155"/>
+      <c r="E46" s="155"/>
+      <c r="F46" s="155"/>
       <c r="G46" s="22">
         <v>1</v>
       </c>
-      <c r="H46" s="126"/>
-      <c r="I46" s="127"/>
+      <c r="H46" s="131"/>
+      <c r="I46" s="132"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B47" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="50" t="s">
+      <c r="C47" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="D47" s="51"/>
-      <c r="E47" s="51"/>
-      <c r="F47" s="52"/>
+      <c r="D47" s="56"/>
+      <c r="E47" s="56"/>
+      <c r="F47" s="57"/>
       <c r="G47" s="21">
         <v>1</v>
       </c>
-      <c r="H47" s="102"/>
-      <c r="I47" s="103"/>
+      <c r="H47" s="107"/>
+      <c r="I47" s="108"/>
     </row>
     <row r="48" spans="2:10" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="53" t="s">
+      <c r="C48" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="D48" s="54"/>
-      <c r="E48" s="54"/>
-      <c r="F48" s="55"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="59"/>
+      <c r="F48" s="60"/>
       <c r="G48" s="17">
         <v>0.8</v>
       </c>
-      <c r="H48" s="100" t="s">
+      <c r="H48" s="105" t="s">
         <v>50</v>
       </c>
-      <c r="I48" s="104"/>
+      <c r="I48" s="109"/>
       <c r="J48" s="25" t="s">
         <v>57</v>
       </c>
@@ -3330,353 +3421,353 @@
       <c r="B50" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C50" s="107" t="s">
+      <c r="C50" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="D50" s="108"/>
-      <c r="E50" s="108"/>
-      <c r="F50" s="108"/>
+      <c r="D50" s="113"/>
+      <c r="E50" s="113"/>
+      <c r="F50" s="113"/>
       <c r="G50" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H50" s="108" t="s">
+      <c r="H50" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="I50" s="109"/>
+      <c r="I50" s="114"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B51" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C51" s="110" t="s">
+      <c r="C51" s="115" t="s">
         <v>53</v>
       </c>
-      <c r="D51" s="111"/>
-      <c r="E51" s="111"/>
-      <c r="F51" s="112"/>
+      <c r="D51" s="116"/>
+      <c r="E51" s="116"/>
+      <c r="F51" s="117"/>
       <c r="G51" s="20">
         <v>1</v>
       </c>
-      <c r="H51" s="143"/>
-      <c r="I51" s="144"/>
+      <c r="H51" s="148"/>
+      <c r="I51" s="149"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B52" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C52" s="50" t="s">
+      <c r="C52" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="D52" s="51"/>
-      <c r="E52" s="51"/>
-      <c r="F52" s="52"/>
+      <c r="D52" s="56"/>
+      <c r="E52" s="56"/>
+      <c r="F52" s="57"/>
       <c r="G52" s="20">
         <v>1</v>
       </c>
-      <c r="H52" s="86"/>
-      <c r="I52" s="87"/>
+      <c r="H52" s="91"/>
+      <c r="I52" s="92"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B53" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C53" s="50" t="s">
+      <c r="C53" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="D53" s="51"/>
-      <c r="E53" s="51"/>
-      <c r="F53" s="52"/>
+      <c r="D53" s="56"/>
+      <c r="E53" s="56"/>
+      <c r="F53" s="57"/>
       <c r="G53" s="20"/>
-      <c r="H53" s="86"/>
-      <c r="I53" s="87"/>
+      <c r="H53" s="91"/>
+      <c r="I53" s="92"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B54" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C54" s="85" t="s">
+      <c r="C54" s="90" t="s">
         <v>55</v>
       </c>
-      <c r="D54" s="105"/>
-      <c r="E54" s="105"/>
-      <c r="F54" s="106"/>
+      <c r="D54" s="110"/>
+      <c r="E54" s="110"/>
+      <c r="F54" s="111"/>
       <c r="G54" s="20">
         <v>1</v>
       </c>
-      <c r="H54" s="86"/>
-      <c r="I54" s="87"/>
+      <c r="H54" s="91"/>
+      <c r="I54" s="92"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B55" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C55" s="50" t="s">
+      <c r="C55" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="D55" s="51"/>
-      <c r="E55" s="51"/>
-      <c r="F55" s="52"/>
+      <c r="D55" s="56"/>
+      <c r="E55" s="56"/>
+      <c r="F55" s="57"/>
       <c r="G55" s="20">
         <v>1</v>
       </c>
-      <c r="H55" s="86"/>
-      <c r="I55" s="87"/>
+      <c r="H55" s="91"/>
+      <c r="I55" s="92"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B56" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C56" s="85" t="s">
+      <c r="C56" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="D56" s="105"/>
-      <c r="E56" s="105"/>
-      <c r="F56" s="106"/>
+      <c r="D56" s="110"/>
+      <c r="E56" s="110"/>
+      <c r="F56" s="111"/>
       <c r="G56" s="20">
         <v>1</v>
       </c>
-      <c r="H56" s="86"/>
-      <c r="I56" s="87"/>
+      <c r="H56" s="91"/>
+      <c r="I56" s="92"/>
     </row>
     <row r="57" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C57" s="56" t="s">
+      <c r="C57" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="D57" s="57"/>
-      <c r="E57" s="57"/>
-      <c r="F57" s="58"/>
-      <c r="G57" s="62">
+      <c r="D57" s="62"/>
+      <c r="E57" s="62"/>
+      <c r="F57" s="63"/>
+      <c r="G57" s="67">
         <v>0.3</v>
       </c>
-      <c r="H57" s="79" t="s">
+      <c r="H57" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="I57" s="80"/>
+      <c r="I57" s="85"/>
     </row>
     <row r="58" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C58" s="91"/>
-      <c r="D58" s="92"/>
-      <c r="E58" s="92"/>
-      <c r="F58" s="93"/>
-      <c r="G58" s="77"/>
-      <c r="H58" s="81"/>
-      <c r="I58" s="82"/>
+      <c r="C58" s="96"/>
+      <c r="D58" s="97"/>
+      <c r="E58" s="97"/>
+      <c r="F58" s="98"/>
+      <c r="G58" s="82"/>
+      <c r="H58" s="86"/>
+      <c r="I58" s="87"/>
     </row>
     <row r="59" spans="2:9" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B59" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C59" s="158"/>
-      <c r="D59" s="159"/>
-      <c r="E59" s="159"/>
-      <c r="F59" s="160"/>
-      <c r="G59" s="78"/>
-      <c r="H59" s="83"/>
-      <c r="I59" s="84"/>
+      <c r="C59" s="163"/>
+      <c r="D59" s="164"/>
+      <c r="E59" s="164"/>
+      <c r="F59" s="165"/>
+      <c r="G59" s="83"/>
+      <c r="H59" s="88"/>
+      <c r="I59" s="89"/>
     </row>
     <row r="60" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="61" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B61" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C61" s="107" t="s">
+      <c r="C61" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="D61" s="108"/>
-      <c r="E61" s="108"/>
-      <c r="F61" s="108"/>
+      <c r="D61" s="113"/>
+      <c r="E61" s="113"/>
+      <c r="F61" s="113"/>
       <c r="G61" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="H61" s="108" t="s">
+      <c r="H61" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="I61" s="109"/>
+      <c r="I61" s="114"/>
     </row>
     <row r="62" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B62" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C62" s="151" t="s">
+      <c r="C62" s="156" t="s">
         <v>59</v>
       </c>
-      <c r="D62" s="152"/>
-      <c r="E62" s="152"/>
-      <c r="F62" s="153"/>
-      <c r="G62" s="121">
+      <c r="D62" s="157"/>
+      <c r="E62" s="157"/>
+      <c r="F62" s="158"/>
+      <c r="G62" s="126">
         <v>0.3</v>
       </c>
-      <c r="H62" s="154" t="s">
+      <c r="H62" s="159" t="s">
         <v>67</v>
       </c>
-      <c r="I62" s="155"/>
+      <c r="I62" s="160"/>
     </row>
     <row r="63" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B63" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C63" s="59"/>
-      <c r="D63" s="60"/>
-      <c r="E63" s="60"/>
-      <c r="F63" s="61"/>
-      <c r="G63" s="63"/>
-      <c r="H63" s="156"/>
-      <c r="I63" s="157"/>
+      <c r="C63" s="64"/>
+      <c r="D63" s="65"/>
+      <c r="E63" s="65"/>
+      <c r="F63" s="66"/>
+      <c r="G63" s="68"/>
+      <c r="H63" s="161"/>
+      <c r="I63" s="162"/>
     </row>
     <row r="64" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B64" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C64" s="50" t="s">
+      <c r="C64" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="D64" s="51"/>
-      <c r="E64" s="51"/>
-      <c r="F64" s="52"/>
+      <c r="D64" s="56"/>
+      <c r="E64" s="56"/>
+      <c r="F64" s="57"/>
       <c r="G64" s="24"/>
-      <c r="H64" s="165"/>
-      <c r="I64" s="166"/>
+      <c r="H64" s="170"/>
+      <c r="I64" s="171"/>
     </row>
     <row r="65" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B65" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C65" s="56" t="s">
+      <c r="C65" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="D65" s="57"/>
-      <c r="E65" s="57"/>
-      <c r="F65" s="58"/>
-      <c r="G65" s="62">
+      <c r="D65" s="62"/>
+      <c r="E65" s="62"/>
+      <c r="F65" s="63"/>
+      <c r="G65" s="67">
         <v>1</v>
       </c>
-      <c r="H65" s="94" t="s">
+      <c r="H65" s="99" t="s">
         <v>68</v>
       </c>
-      <c r="I65" s="95"/>
-      <c r="L65" s="85" t="s">
+      <c r="I65" s="100"/>
+      <c r="L65" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="M65" s="51"/>
-      <c r="N65" s="51"/>
-      <c r="O65" s="52"/>
+      <c r="M65" s="56"/>
+      <c r="N65" s="56"/>
+      <c r="O65" s="57"/>
     </row>
     <row r="66" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B66" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C66" s="91"/>
-      <c r="D66" s="92"/>
-      <c r="E66" s="92"/>
-      <c r="F66" s="93"/>
-      <c r="G66" s="77"/>
-      <c r="H66" s="96"/>
-      <c r="I66" s="97"/>
-      <c r="L66" s="50" t="s">
+      <c r="C66" s="96"/>
+      <c r="D66" s="97"/>
+      <c r="E66" s="97"/>
+      <c r="F66" s="98"/>
+      <c r="G66" s="82"/>
+      <c r="H66" s="101"/>
+      <c r="I66" s="102"/>
+      <c r="L66" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="M66" s="51"/>
-      <c r="N66" s="51"/>
-      <c r="O66" s="52"/>
+      <c r="M66" s="56"/>
+      <c r="N66" s="56"/>
+      <c r="O66" s="57"/>
     </row>
     <row r="67" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B67" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C67" s="91"/>
-      <c r="D67" s="92"/>
-      <c r="E67" s="92"/>
-      <c r="F67" s="93"/>
-      <c r="G67" s="77"/>
-      <c r="H67" s="96"/>
-      <c r="I67" s="97"/>
-      <c r="L67" s="50" t="s">
+      <c r="C67" s="96"/>
+      <c r="D67" s="97"/>
+      <c r="E67" s="97"/>
+      <c r="F67" s="98"/>
+      <c r="G67" s="82"/>
+      <c r="H67" s="101"/>
+      <c r="I67" s="102"/>
+      <c r="L67" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="M67" s="51"/>
-      <c r="N67" s="51"/>
-      <c r="O67" s="52"/>
+      <c r="M67" s="56"/>
+      <c r="N67" s="56"/>
+      <c r="O67" s="57"/>
     </row>
     <row r="68" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B68" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C68" s="91"/>
-      <c r="D68" s="92"/>
-      <c r="E68" s="92"/>
-      <c r="F68" s="93"/>
-      <c r="G68" s="77"/>
-      <c r="H68" s="96"/>
-      <c r="I68" s="97"/>
-      <c r="L68" s="50" t="s">
+      <c r="C68" s="96"/>
+      <c r="D68" s="97"/>
+      <c r="E68" s="97"/>
+      <c r="F68" s="98"/>
+      <c r="G68" s="82"/>
+      <c r="H68" s="101"/>
+      <c r="I68" s="102"/>
+      <c r="L68" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="M68" s="51"/>
-      <c r="N68" s="51"/>
-      <c r="O68" s="52"/>
+      <c r="M68" s="56"/>
+      <c r="N68" s="56"/>
+      <c r="O68" s="57"/>
     </row>
     <row r="69" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B69" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C69" s="59"/>
-      <c r="D69" s="60"/>
-      <c r="E69" s="60"/>
-      <c r="F69" s="61"/>
-      <c r="G69" s="63"/>
-      <c r="H69" s="98"/>
-      <c r="I69" s="99"/>
-      <c r="L69" s="50" t="s">
+      <c r="C69" s="64"/>
+      <c r="D69" s="65"/>
+      <c r="E69" s="65"/>
+      <c r="F69" s="66"/>
+      <c r="G69" s="68"/>
+      <c r="H69" s="103"/>
+      <c r="I69" s="104"/>
+      <c r="L69" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="M69" s="51"/>
-      <c r="N69" s="51"/>
-      <c r="O69" s="52"/>
+      <c r="M69" s="56"/>
+      <c r="N69" s="56"/>
+      <c r="O69" s="57"/>
     </row>
     <row r="70" spans="2:15" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B70" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C70" s="53" t="s">
+      <c r="C70" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="D70" s="54"/>
-      <c r="E70" s="54"/>
-      <c r="F70" s="55"/>
+      <c r="D70" s="59"/>
+      <c r="E70" s="59"/>
+      <c r="F70" s="60"/>
       <c r="G70" s="17">
         <v>0.5</v>
       </c>
-      <c r="H70" s="100" t="s">
+      <c r="H70" s="105" t="s">
         <v>70</v>
       </c>
-      <c r="I70" s="101"/>
-      <c r="L70" s="53" t="s">
+      <c r="I70" s="106"/>
+      <c r="L70" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="M70" s="54"/>
-      <c r="N70" s="54"/>
-      <c r="O70" s="55"/>
+      <c r="M70" s="59"/>
+      <c r="N70" s="59"/>
+      <c r="O70" s="60"/>
     </row>
     <row r="71" spans="2:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B71" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="C71" s="167" t="s">
+      <c r="C71" s="172" t="s">
         <v>71</v>
       </c>
-      <c r="D71" s="116"/>
-      <c r="E71" s="116"/>
-      <c r="F71" s="116"/>
-      <c r="H71" s="168" t="s">
+      <c r="D71" s="121"/>
+      <c r="E71" s="121"/>
+      <c r="F71" s="121"/>
+      <c r="H71" s="173" t="s">
         <v>73</v>
       </c>
-      <c r="I71" s="168"/>
+      <c r="I71" s="173"/>
       <c r="J71" t="s">
         <v>74</v>
       </c>
@@ -3686,202 +3777,202 @@
       <c r="B74" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C74" s="107" t="s">
+      <c r="C74" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="D74" s="108"/>
-      <c r="E74" s="108"/>
-      <c r="F74" s="108"/>
+      <c r="D74" s="113"/>
+      <c r="E74" s="113"/>
+      <c r="F74" s="113"/>
       <c r="G74" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="H74" s="108" t="s">
+      <c r="H74" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="I74" s="109"/>
+      <c r="I74" s="114"/>
     </row>
     <row r="75" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B75" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C75" s="110" t="s">
+      <c r="C75" s="115" t="s">
         <v>77</v>
       </c>
-      <c r="D75" s="111"/>
-      <c r="E75" s="111"/>
-      <c r="F75" s="112"/>
+      <c r="D75" s="116"/>
+      <c r="E75" s="116"/>
+      <c r="F75" s="117"/>
       <c r="G75" s="27">
         <v>0</v>
       </c>
-      <c r="H75" s="161" t="s">
+      <c r="H75" s="166" t="s">
         <v>83</v>
       </c>
-      <c r="I75" s="162"/>
+      <c r="I75" s="167"/>
     </row>
     <row r="76" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B76" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C76" s="50" t="s">
+      <c r="C76" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="D76" s="51"/>
-      <c r="E76" s="51"/>
-      <c r="F76" s="52"/>
+      <c r="D76" s="56"/>
+      <c r="E76" s="56"/>
+      <c r="F76" s="57"/>
       <c r="G76" s="27">
         <v>0</v>
       </c>
-      <c r="H76" s="163" t="s">
+      <c r="H76" s="168" t="s">
         <v>83</v>
       </c>
-      <c r="I76" s="164"/>
+      <c r="I76" s="169"/>
     </row>
     <row r="77" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B77" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C77" s="50" t="s">
+      <c r="C77" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="D77" s="51"/>
-      <c r="E77" s="51"/>
-      <c r="F77" s="52"/>
+      <c r="D77" s="56"/>
+      <c r="E77" s="56"/>
+      <c r="F77" s="57"/>
       <c r="G77" s="27"/>
-      <c r="H77" s="86"/>
-      <c r="I77" s="87"/>
+      <c r="H77" s="91"/>
+      <c r="I77" s="92"/>
     </row>
     <row r="78" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B78" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C78" s="85" t="s">
+      <c r="C78" s="90" t="s">
         <v>79</v>
       </c>
-      <c r="D78" s="51"/>
-      <c r="E78" s="51"/>
-      <c r="F78" s="52"/>
+      <c r="D78" s="56"/>
+      <c r="E78" s="56"/>
+      <c r="F78" s="57"/>
       <c r="G78" s="27">
         <v>1</v>
       </c>
-      <c r="H78" s="86"/>
-      <c r="I78" s="87"/>
-      <c r="L78" s="50" t="s">
+      <c r="H78" s="91"/>
+      <c r="I78" s="92"/>
+      <c r="L78" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="M78" s="51"/>
-      <c r="N78" s="51"/>
-      <c r="O78" s="52"/>
+      <c r="M78" s="56"/>
+      <c r="N78" s="56"/>
+      <c r="O78" s="57"/>
     </row>
     <row r="79" spans="2:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C79" s="56" t="s">
+      <c r="C79" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="D79" s="57"/>
-      <c r="E79" s="57"/>
-      <c r="F79" s="58"/>
-      <c r="G79" s="62">
+      <c r="D79" s="62"/>
+      <c r="E79" s="62"/>
+      <c r="F79" s="63"/>
+      <c r="G79" s="67">
         <v>1</v>
       </c>
-      <c r="H79" s="64"/>
-      <c r="I79" s="65"/>
-      <c r="L79" s="50" t="s">
+      <c r="H79" s="69"/>
+      <c r="I79" s="70"/>
+      <c r="L79" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="M79" s="51"/>
-      <c r="N79" s="51"/>
-      <c r="O79" s="52"/>
+      <c r="M79" s="56"/>
+      <c r="N79" s="56"/>
+      <c r="O79" s="57"/>
     </row>
     <row r="80" spans="2:15" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B80" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C80" s="59"/>
-      <c r="D80" s="60"/>
-      <c r="E80" s="60"/>
-      <c r="F80" s="61"/>
-      <c r="G80" s="63"/>
-      <c r="H80" s="66"/>
-      <c r="I80" s="67"/>
-      <c r="L80" s="53" t="s">
+      <c r="C80" s="64"/>
+      <c r="D80" s="65"/>
+      <c r="E80" s="65"/>
+      <c r="F80" s="66"/>
+      <c r="G80" s="68"/>
+      <c r="H80" s="71"/>
+      <c r="I80" s="72"/>
+      <c r="L80" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="M80" s="54"/>
-      <c r="N80" s="54"/>
-      <c r="O80" s="55"/>
+      <c r="M80" s="59"/>
+      <c r="N80" s="59"/>
+      <c r="O80" s="60"/>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B81" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C81" s="68" t="s">
+      <c r="C81" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="D81" s="69"/>
-      <c r="E81" s="69"/>
-      <c r="F81" s="70"/>
-      <c r="G81" s="62">
+      <c r="D81" s="74"/>
+      <c r="E81" s="74"/>
+      <c r="F81" s="75"/>
+      <c r="G81" s="67">
         <v>0.7</v>
       </c>
-      <c r="H81" s="79" t="s">
+      <c r="H81" s="84" t="s">
         <v>85</v>
       </c>
-      <c r="I81" s="80"/>
+      <c r="I81" s="85"/>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B82" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C82" s="71"/>
-      <c r="D82" s="72"/>
-      <c r="E82" s="72"/>
-      <c r="F82" s="73"/>
-      <c r="G82" s="77"/>
-      <c r="H82" s="81"/>
-      <c r="I82" s="82"/>
+      <c r="C82" s="76"/>
+      <c r="D82" s="77"/>
+      <c r="E82" s="77"/>
+      <c r="F82" s="78"/>
+      <c r="G82" s="82"/>
+      <c r="H82" s="86"/>
+      <c r="I82" s="87"/>
     </row>
     <row r="83" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C83" s="74"/>
-      <c r="D83" s="75"/>
-      <c r="E83" s="75"/>
-      <c r="F83" s="76"/>
-      <c r="G83" s="78"/>
-      <c r="H83" s="83"/>
-      <c r="I83" s="84"/>
+      <c r="C83" s="79"/>
+      <c r="D83" s="80"/>
+      <c r="E83" s="80"/>
+      <c r="F83" s="81"/>
+      <c r="G83" s="83"/>
+      <c r="H83" s="88"/>
+      <c r="I83" s="89"/>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C84" s="49" t="s">
+      <c r="C84" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="D84" s="49"/>
-      <c r="E84" s="49"/>
-      <c r="F84" s="49"/>
+      <c r="D84" s="54"/>
+      <c r="E84" s="54"/>
+      <c r="F84" s="54"/>
       <c r="G84" s="1"/>
-      <c r="H84" s="49" t="s">
+      <c r="H84" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="I84" s="49"/>
+      <c r="I84" s="54"/>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B85" s="31"/>
-      <c r="C85" s="88" t="s">
+      <c r="C85" s="93" t="s">
         <v>89</v>
       </c>
-      <c r="D85" s="88"/>
-      <c r="E85" s="88"/>
-      <c r="F85" s="88"/>
-      <c r="H85" s="88" t="s">
+      <c r="D85" s="93"/>
+      <c r="E85" s="93"/>
+      <c r="F85" s="93"/>
+      <c r="H85" s="93" t="s">
         <v>88</v>
       </c>
-      <c r="I85" s="88"/>
+      <c r="I85" s="93"/>
     </row>
     <row r="95" spans="2:9" ht="54" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
@@ -4019,7 +4110,7 @@
   <dimension ref="B2:I70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:I12"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4036,159 +4127,159 @@
       <c r="B3" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="107" t="s">
+      <c r="C3" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
       <c r="G3" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="108" t="s">
+      <c r="H3" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="109"/>
+      <c r="I3" s="114"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="110" t="s">
+      <c r="C4" s="115" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="112"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="117"/>
       <c r="G4" s="30">
         <v>1</v>
       </c>
-      <c r="H4" s="143"/>
-      <c r="I4" s="144"/>
+      <c r="H4" s="148"/>
+      <c r="I4" s="149"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="52"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="57"/>
       <c r="G5" s="30">
         <v>1</v>
       </c>
-      <c r="H5" s="86"/>
-      <c r="I5" s="87"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="92"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="52"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="57"/>
       <c r="G6" s="30"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="87"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="92"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="85" t="s">
+      <c r="C7" s="90" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="106"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="111"/>
       <c r="G7" s="30">
         <v>1</v>
       </c>
-      <c r="H7" s="86"/>
-      <c r="I7" s="87"/>
+      <c r="H7" s="91"/>
+      <c r="I7" s="92"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="52"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="57"/>
       <c r="G8" s="30"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="87"/>
+      <c r="H8" s="91"/>
+      <c r="I8" s="92"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="85" t="s">
+      <c r="C9" s="90" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="106"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="111"/>
       <c r="G9" s="30"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="87"/>
+      <c r="H9" s="91"/>
+      <c r="I9" s="92"/>
     </row>
     <row r="10" spans="2:9" ht="54" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="85" t="s">
+      <c r="C10" s="90" t="s">
         <v>95</v>
       </c>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="106"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="111"/>
       <c r="G10" s="22">
         <v>0.8</v>
       </c>
-      <c r="H10" s="182" t="s">
+      <c r="H10" s="187" t="s">
         <v>98</v>
       </c>
-      <c r="I10" s="183"/>
+      <c r="I10" s="188"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="85" t="s">
+      <c r="C11" s="90" t="s">
         <v>96</v>
       </c>
-      <c r="D11" s="105"/>
-      <c r="E11" s="105"/>
-      <c r="F11" s="106"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="111"/>
       <c r="G11" s="22">
         <v>1</v>
       </c>
-      <c r="H11" s="211"/>
-      <c r="I11" s="212"/>
+      <c r="H11" s="216"/>
+      <c r="I11" s="217"/>
     </row>
     <row r="12" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="53" t="s">
+      <c r="C12" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="D12" s="209"/>
-      <c r="E12" s="209"/>
-      <c r="F12" s="210"/>
+      <c r="D12" s="214"/>
+      <c r="E12" s="214"/>
+      <c r="F12" s="215"/>
       <c r="G12" s="17">
         <v>1</v>
       </c>
-      <c r="H12" s="213"/>
-      <c r="I12" s="214"/>
+      <c r="H12" s="218"/>
+      <c r="I12" s="219"/>
     </row>
     <row r="13" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C13" s="32"/>
@@ -4200,761 +4291,761 @@
       <c r="B14" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="107" t="s">
+      <c r="C14" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="108"/>
-      <c r="E14" s="108"/>
-      <c r="F14" s="108"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="113"/>
       <c r="G14" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="108" t="s">
+      <c r="H14" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="109"/>
+      <c r="I14" s="114"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B15" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="110" t="s">
+      <c r="C15" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="111"/>
-      <c r="E15" s="111"/>
-      <c r="F15" s="112"/>
+      <c r="D15" s="116"/>
+      <c r="E15" s="116"/>
+      <c r="F15" s="117"/>
       <c r="G15" s="34"/>
-      <c r="H15" s="143"/>
-      <c r="I15" s="144"/>
+      <c r="H15" s="148"/>
+      <c r="I15" s="149"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B16" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="52"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="57"/>
       <c r="G16" s="34"/>
-      <c r="H16" s="86"/>
-      <c r="I16" s="87"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="92"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B17" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="50" t="s">
+      <c r="C17" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="52"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="57"/>
       <c r="G17" s="34"/>
-      <c r="H17" s="86"/>
-      <c r="I17" s="87"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="92"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B18" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="215" t="s">
+      <c r="C18" s="220" t="s">
         <v>100</v>
       </c>
-      <c r="D18" s="216"/>
-      <c r="E18" s="216"/>
-      <c r="F18" s="217"/>
-      <c r="G18" s="62">
+      <c r="D18" s="221"/>
+      <c r="E18" s="221"/>
+      <c r="F18" s="222"/>
+      <c r="G18" s="67">
         <v>1</v>
       </c>
-      <c r="H18" s="64"/>
-      <c r="I18" s="65"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="70"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B19" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="218"/>
-      <c r="D19" s="219"/>
-      <c r="E19" s="219"/>
-      <c r="F19" s="220"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="221"/>
-      <c r="I19" s="222"/>
+      <c r="C19" s="223"/>
+      <c r="D19" s="224"/>
+      <c r="E19" s="224"/>
+      <c r="F19" s="225"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="226"/>
+      <c r="I19" s="227"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B20" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="218"/>
-      <c r="D20" s="219"/>
-      <c r="E20" s="219"/>
-      <c r="F20" s="220"/>
-      <c r="G20" s="77"/>
-      <c r="H20" s="221"/>
-      <c r="I20" s="222"/>
+      <c r="C20" s="223"/>
+      <c r="D20" s="224"/>
+      <c r="E20" s="224"/>
+      <c r="F20" s="225"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="226"/>
+      <c r="I20" s="227"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B21" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="118"/>
-      <c r="D21" s="119"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="120"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="67"/>
+      <c r="C21" s="123"/>
+      <c r="D21" s="124"/>
+      <c r="E21" s="124"/>
+      <c r="F21" s="125"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="72"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B22" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="50" t="s">
+      <c r="C22" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="52"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="57"/>
       <c r="G22" s="34">
         <v>1</v>
       </c>
-      <c r="H22" s="133"/>
-      <c r="I22" s="134"/>
+      <c r="H22" s="138"/>
+      <c r="I22" s="139"/>
     </row>
     <row r="23" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="53" t="s">
+      <c r="C23" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="55"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="60"/>
       <c r="G23" s="17">
         <v>1</v>
       </c>
-      <c r="H23" s="131"/>
-      <c r="I23" s="132"/>
+      <c r="H23" s="136"/>
+      <c r="I23" s="137"/>
     </row>
     <row r="24" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="25" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B25" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="C25" s="107" t="s">
+      <c r="C25" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="108"/>
-      <c r="E25" s="108"/>
-      <c r="F25" s="108"/>
+      <c r="D25" s="113"/>
+      <c r="E25" s="113"/>
+      <c r="F25" s="113"/>
       <c r="G25" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="H25" s="108" t="s">
+      <c r="H25" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="I25" s="109"/>
+      <c r="I25" s="114"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B26" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="200" t="s">
+      <c r="C26" s="205" t="s">
         <v>104</v>
       </c>
-      <c r="D26" s="201"/>
-      <c r="E26" s="201"/>
-      <c r="F26" s="202"/>
-      <c r="G26" s="121">
+      <c r="D26" s="206"/>
+      <c r="E26" s="206"/>
+      <c r="F26" s="207"/>
+      <c r="G26" s="126">
         <v>0.8</v>
       </c>
-      <c r="H26" s="122" t="s">
+      <c r="H26" s="127" t="s">
         <v>112</v>
       </c>
-      <c r="I26" s="206"/>
+      <c r="I26" s="211"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B27" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="203"/>
-      <c r="D27" s="204"/>
-      <c r="E27" s="204"/>
-      <c r="F27" s="205"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="207"/>
-      <c r="I27" s="208"/>
+      <c r="C27" s="208"/>
+      <c r="D27" s="209"/>
+      <c r="E27" s="209"/>
+      <c r="F27" s="210"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="212"/>
+      <c r="I27" s="213"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B28" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="197" t="s">
+      <c r="C28" s="202" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="198"/>
-      <c r="E28" s="198"/>
-      <c r="F28" s="199"/>
+      <c r="D28" s="203"/>
+      <c r="E28" s="203"/>
+      <c r="F28" s="204"/>
       <c r="G28" s="37"/>
-      <c r="H28" s="163"/>
-      <c r="I28" s="164"/>
+      <c r="H28" s="168"/>
+      <c r="I28" s="169"/>
     </row>
     <row r="29" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="175" t="s">
+      <c r="C29" s="180" t="s">
         <v>104</v>
       </c>
-      <c r="D29" s="176"/>
-      <c r="E29" s="176"/>
-      <c r="F29" s="176"/>
+      <c r="D29" s="181"/>
+      <c r="E29" s="181"/>
+      <c r="F29" s="181"/>
       <c r="G29" s="22">
         <v>1</v>
       </c>
-      <c r="H29" s="150"/>
-      <c r="I29" s="180"/>
+      <c r="H29" s="155"/>
+      <c r="I29" s="185"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B30" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="173" t="s">
+      <c r="C30" s="178" t="s">
         <v>105</v>
       </c>
-      <c r="D30" s="174"/>
-      <c r="E30" s="174"/>
-      <c r="F30" s="174"/>
+      <c r="D30" s="179"/>
+      <c r="E30" s="179"/>
+      <c r="F30" s="179"/>
       <c r="G30" s="22">
         <v>1</v>
       </c>
-      <c r="H30" s="150"/>
-      <c r="I30" s="180"/>
+      <c r="H30" s="155"/>
+      <c r="I30" s="185"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B31" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="173" t="s">
+      <c r="C31" s="178" t="s">
         <v>106</v>
       </c>
-      <c r="D31" s="174"/>
-      <c r="E31" s="174"/>
-      <c r="F31" s="174"/>
-      <c r="G31" s="179">
+      <c r="D31" s="179"/>
+      <c r="E31" s="179"/>
+      <c r="F31" s="179"/>
+      <c r="G31" s="184">
         <v>1</v>
       </c>
-      <c r="H31" s="150"/>
-      <c r="I31" s="180"/>
+      <c r="H31" s="155"/>
+      <c r="I31" s="185"/>
     </row>
     <row r="32" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="173"/>
-      <c r="D32" s="174"/>
-      <c r="E32" s="174"/>
-      <c r="F32" s="174"/>
-      <c r="G32" s="179"/>
-      <c r="H32" s="150"/>
-      <c r="I32" s="180"/>
+      <c r="C32" s="178"/>
+      <c r="D32" s="179"/>
+      <c r="E32" s="179"/>
+      <c r="F32" s="179"/>
+      <c r="G32" s="184"/>
+      <c r="H32" s="155"/>
+      <c r="I32" s="185"/>
     </row>
     <row r="33" spans="2:9" ht="25.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="175" t="s">
+      <c r="C33" s="180" t="s">
         <v>107</v>
       </c>
-      <c r="D33" s="176"/>
-      <c r="E33" s="176"/>
-      <c r="F33" s="176"/>
-      <c r="G33" s="179">
+      <c r="D33" s="181"/>
+      <c r="E33" s="181"/>
+      <c r="F33" s="181"/>
+      <c r="G33" s="184">
         <v>0.5</v>
       </c>
-      <c r="H33" s="182" t="s">
+      <c r="H33" s="187" t="s">
         <v>110</v>
       </c>
-      <c r="I33" s="183"/>
+      <c r="I33" s="188"/>
     </row>
     <row r="34" spans="2:9" ht="25.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B34" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="177"/>
-      <c r="D34" s="178"/>
-      <c r="E34" s="178"/>
-      <c r="F34" s="178"/>
-      <c r="G34" s="181"/>
-      <c r="H34" s="184"/>
-      <c r="I34" s="185"/>
+      <c r="C34" s="182"/>
+      <c r="D34" s="183"/>
+      <c r="E34" s="183"/>
+      <c r="F34" s="183"/>
+      <c r="G34" s="186"/>
+      <c r="H34" s="189"/>
+      <c r="I34" s="190"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B35" s="28"/>
-      <c r="C35" s="116"/>
-      <c r="D35" s="116"/>
-      <c r="E35" s="116"/>
-      <c r="F35" s="116"/>
+      <c r="C35" s="121"/>
+      <c r="D35" s="121"/>
+      <c r="E35" s="121"/>
+      <c r="F35" s="121"/>
       <c r="G35" s="36"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="49"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="54"/>
     </row>
     <row r="36" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="37" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B37" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="C37" s="107" t="s">
+      <c r="C37" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="D37" s="108"/>
-      <c r="E37" s="108"/>
-      <c r="F37" s="108"/>
+      <c r="D37" s="113"/>
+      <c r="E37" s="113"/>
+      <c r="F37" s="113"/>
       <c r="G37" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="H37" s="108" t="s">
+      <c r="H37" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="I37" s="109"/>
+      <c r="I37" s="114"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B38" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="187" t="s">
+      <c r="C38" s="192" t="s">
         <v>109</v>
       </c>
-      <c r="D38" s="116"/>
-      <c r="E38" s="116"/>
-      <c r="F38" s="117"/>
-      <c r="G38" s="121">
+      <c r="D38" s="121"/>
+      <c r="E38" s="121"/>
+      <c r="F38" s="122"/>
+      <c r="G38" s="126">
         <v>0.9</v>
       </c>
-      <c r="H38" s="188"/>
-      <c r="I38" s="123"/>
+      <c r="H38" s="193"/>
+      <c r="I38" s="128"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B39" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="118"/>
-      <c r="D39" s="119"/>
-      <c r="E39" s="119"/>
-      <c r="F39" s="120"/>
-      <c r="G39" s="63"/>
-      <c r="H39" s="124"/>
-      <c r="I39" s="125"/>
+      <c r="C39" s="123"/>
+      <c r="D39" s="124"/>
+      <c r="E39" s="124"/>
+      <c r="F39" s="125"/>
+      <c r="G39" s="68"/>
+      <c r="H39" s="129"/>
+      <c r="I39" s="130"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B40" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="50" t="s">
+      <c r="C40" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="51"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="52"/>
+      <c r="D40" s="56"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="57"/>
       <c r="G40" s="40"/>
-      <c r="H40" s="89"/>
-      <c r="I40" s="90"/>
+      <c r="H40" s="94"/>
+      <c r="I40" s="95"/>
     </row>
     <row r="41" spans="2:9" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="189" t="s">
+      <c r="C41" s="194" t="s">
         <v>109</v>
       </c>
-      <c r="D41" s="190"/>
-      <c r="E41" s="190"/>
-      <c r="F41" s="191"/>
-      <c r="G41" s="62">
+      <c r="D41" s="195"/>
+      <c r="E41" s="195"/>
+      <c r="F41" s="196"/>
+      <c r="G41" s="67">
         <v>0.9</v>
       </c>
-      <c r="H41" s="79" t="s">
+      <c r="H41" s="84" t="s">
         <v>114</v>
       </c>
-      <c r="I41" s="80"/>
+      <c r="I41" s="85"/>
     </row>
     <row r="42" spans="2:9" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C42" s="192"/>
-      <c r="D42" s="193"/>
-      <c r="E42" s="193"/>
-      <c r="F42" s="194"/>
-      <c r="G42" s="63"/>
-      <c r="H42" s="124"/>
-      <c r="I42" s="125"/>
+      <c r="C42" s="197"/>
+      <c r="D42" s="198"/>
+      <c r="E42" s="198"/>
+      <c r="F42" s="199"/>
+      <c r="G42" s="68"/>
+      <c r="H42" s="129"/>
+      <c r="I42" s="130"/>
     </row>
     <row r="43" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C43" s="145" t="s">
+      <c r="C43" s="150" t="s">
         <v>111</v>
       </c>
-      <c r="D43" s="146"/>
-      <c r="E43" s="146"/>
-      <c r="F43" s="146"/>
-      <c r="G43" s="179">
+      <c r="D43" s="151"/>
+      <c r="E43" s="151"/>
+      <c r="F43" s="151"/>
+      <c r="G43" s="184">
         <v>1</v>
       </c>
-      <c r="H43" s="195"/>
-      <c r="I43" s="196"/>
+      <c r="H43" s="200"/>
+      <c r="I43" s="201"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B44" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C44" s="145"/>
-      <c r="D44" s="146"/>
-      <c r="E44" s="146"/>
-      <c r="F44" s="146"/>
-      <c r="G44" s="179"/>
-      <c r="H44" s="195"/>
-      <c r="I44" s="196"/>
+      <c r="C44" s="150"/>
+      <c r="D44" s="151"/>
+      <c r="E44" s="151"/>
+      <c r="F44" s="151"/>
+      <c r="G44" s="184"/>
+      <c r="H44" s="200"/>
+      <c r="I44" s="201"/>
     </row>
     <row r="45" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="145"/>
-      <c r="D45" s="146"/>
-      <c r="E45" s="146"/>
-      <c r="F45" s="146"/>
-      <c r="G45" s="179"/>
-      <c r="H45" s="195"/>
-      <c r="I45" s="196"/>
+      <c r="C45" s="150"/>
+      <c r="D45" s="151"/>
+      <c r="E45" s="151"/>
+      <c r="F45" s="151"/>
+      <c r="G45" s="184"/>
+      <c r="H45" s="200"/>
+      <c r="I45" s="201"/>
     </row>
     <row r="46" spans="2:9" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B46" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="230" t="s">
+      <c r="C46" s="235" t="s">
         <v>113</v>
       </c>
-      <c r="D46" s="54"/>
-      <c r="E46" s="54"/>
-      <c r="F46" s="55"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="59"/>
+      <c r="F46" s="60"/>
       <c r="G46" s="41">
         <v>0.5</v>
       </c>
-      <c r="H46" s="184" t="s">
+      <c r="H46" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="I46" s="186"/>
+      <c r="I46" s="191"/>
     </row>
     <row r="47" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="48" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="C48" s="107" t="s">
+      <c r="C48" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="D48" s="108"/>
-      <c r="E48" s="108"/>
-      <c r="F48" s="108"/>
+      <c r="D48" s="113"/>
+      <c r="E48" s="113"/>
+      <c r="F48" s="113"/>
       <c r="G48" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="H48" s="108" t="s">
+      <c r="H48" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="I48" s="109"/>
+      <c r="I48" s="114"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B49" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C49" s="187" t="s">
+      <c r="C49" s="192" t="s">
         <v>113</v>
       </c>
-      <c r="D49" s="116"/>
-      <c r="E49" s="116"/>
-      <c r="F49" s="117"/>
-      <c r="G49" s="121">
+      <c r="D49" s="121"/>
+      <c r="E49" s="121"/>
+      <c r="F49" s="122"/>
+      <c r="G49" s="126">
         <v>1</v>
       </c>
-      <c r="H49" s="231"/>
-      <c r="I49" s="232"/>
+      <c r="H49" s="236"/>
+      <c r="I49" s="237"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B50" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C50" s="118"/>
-      <c r="D50" s="119"/>
-      <c r="E50" s="119"/>
-      <c r="F50" s="120"/>
-      <c r="G50" s="63"/>
-      <c r="H50" s="171"/>
-      <c r="I50" s="172"/>
+      <c r="C50" s="123"/>
+      <c r="D50" s="124"/>
+      <c r="E50" s="124"/>
+      <c r="F50" s="125"/>
+      <c r="G50" s="68"/>
+      <c r="H50" s="176"/>
+      <c r="I50" s="177"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B51" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C51" s="50" t="s">
+      <c r="C51" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="D51" s="51"/>
-      <c r="E51" s="51"/>
-      <c r="F51" s="52"/>
+      <c r="D51" s="56"/>
+      <c r="E51" s="56"/>
+      <c r="F51" s="57"/>
       <c r="G51" s="40"/>
-      <c r="H51" s="163"/>
-      <c r="I51" s="164"/>
+      <c r="H51" s="168"/>
+      <c r="I51" s="169"/>
     </row>
     <row r="52" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C52" s="189" t="s">
+      <c r="C52" s="194" t="s">
         <v>113</v>
       </c>
-      <c r="D52" s="190"/>
-      <c r="E52" s="190"/>
-      <c r="F52" s="191"/>
-      <c r="G52" s="62">
+      <c r="D52" s="195"/>
+      <c r="E52" s="195"/>
+      <c r="F52" s="196"/>
+      <c r="G52" s="67">
         <v>1</v>
       </c>
-      <c r="H52" s="169"/>
-      <c r="I52" s="170"/>
+      <c r="H52" s="174"/>
+      <c r="I52" s="175"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B53" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C53" s="192"/>
-      <c r="D53" s="193"/>
-      <c r="E53" s="193"/>
-      <c r="F53" s="194"/>
-      <c r="G53" s="63"/>
-      <c r="H53" s="171"/>
-      <c r="I53" s="172"/>
+      <c r="C53" s="197"/>
+      <c r="D53" s="198"/>
+      <c r="E53" s="198"/>
+      <c r="F53" s="199"/>
+      <c r="G53" s="68"/>
+      <c r="H53" s="176"/>
+      <c r="I53" s="177"/>
     </row>
     <row r="54" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B54" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C54" s="189" t="s">
+      <c r="C54" s="194" t="s">
         <v>118</v>
       </c>
-      <c r="D54" s="190"/>
-      <c r="E54" s="190"/>
-      <c r="F54" s="191"/>
-      <c r="G54" s="62">
+      <c r="D54" s="195"/>
+      <c r="E54" s="195"/>
+      <c r="F54" s="196"/>
+      <c r="G54" s="67">
         <v>0.7</v>
       </c>
-      <c r="H54" s="79" t="s">
+      <c r="H54" s="84" t="s">
         <v>119</v>
       </c>
-      <c r="I54" s="80"/>
+      <c r="I54" s="85"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B55" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C55" s="223"/>
-      <c r="D55" s="224"/>
-      <c r="E55" s="224"/>
-      <c r="F55" s="225"/>
-      <c r="G55" s="77"/>
-      <c r="H55" s="81"/>
-      <c r="I55" s="82"/>
+      <c r="C55" s="228"/>
+      <c r="D55" s="229"/>
+      <c r="E55" s="229"/>
+      <c r="F55" s="230"/>
+      <c r="G55" s="82"/>
+      <c r="H55" s="86"/>
+      <c r="I55" s="87"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B56" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C56" s="223"/>
-      <c r="D56" s="224"/>
-      <c r="E56" s="224"/>
-      <c r="F56" s="225"/>
-      <c r="G56" s="77"/>
-      <c r="H56" s="81"/>
-      <c r="I56" s="82"/>
+      <c r="C56" s="228"/>
+      <c r="D56" s="229"/>
+      <c r="E56" s="229"/>
+      <c r="F56" s="230"/>
+      <c r="G56" s="82"/>
+      <c r="H56" s="86"/>
+      <c r="I56" s="87"/>
     </row>
     <row r="57" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B57" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C57" s="226"/>
-      <c r="D57" s="227"/>
-      <c r="E57" s="227"/>
-      <c r="F57" s="228"/>
-      <c r="G57" s="78"/>
-      <c r="H57" s="83"/>
-      <c r="I57" s="84"/>
+      <c r="C57" s="231"/>
+      <c r="D57" s="232"/>
+      <c r="E57" s="232"/>
+      <c r="F57" s="233"/>
+      <c r="G57" s="83"/>
+      <c r="H57" s="88"/>
+      <c r="I57" s="89"/>
     </row>
     <row r="58" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="C58" s="167" t="s">
+      <c r="C58" s="172" t="s">
         <v>124</v>
       </c>
-      <c r="D58" s="116"/>
-      <c r="E58" s="116"/>
-      <c r="F58" s="116"/>
+      <c r="D58" s="121"/>
+      <c r="E58" s="121"/>
+      <c r="F58" s="121"/>
       <c r="G58" s="44"/>
-      <c r="H58" s="229" t="s">
+      <c r="H58" s="234" t="s">
         <v>123</v>
       </c>
-      <c r="I58" s="229"/>
+      <c r="I58" s="234"/>
     </row>
     <row r="59" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="60" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B60" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="C60" s="107" t="s">
+      <c r="C60" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="D60" s="108"/>
-      <c r="E60" s="108"/>
-      <c r="F60" s="108"/>
+      <c r="D60" s="113"/>
+      <c r="E60" s="113"/>
+      <c r="F60" s="113"/>
       <c r="G60" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="H60" s="108" t="s">
+      <c r="H60" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="I60" s="109"/>
+      <c r="I60" s="114"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B61" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C61" s="115" t="s">
+      <c r="C61" s="120" t="s">
         <v>125</v>
       </c>
-      <c r="D61" s="116"/>
-      <c r="E61" s="116"/>
-      <c r="F61" s="117"/>
-      <c r="G61" s="121">
+      <c r="D61" s="121"/>
+      <c r="E61" s="121"/>
+      <c r="F61" s="122"/>
+      <c r="G61" s="126">
         <v>0</v>
       </c>
-      <c r="H61" s="188" t="s">
+      <c r="H61" s="193" t="s">
         <v>126</v>
       </c>
-      <c r="I61" s="123"/>
+      <c r="I61" s="128"/>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B62" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C62" s="118"/>
-      <c r="D62" s="119"/>
-      <c r="E62" s="119"/>
-      <c r="F62" s="120"/>
-      <c r="G62" s="63"/>
-      <c r="H62" s="124"/>
-      <c r="I62" s="125"/>
+      <c r="C62" s="123"/>
+      <c r="D62" s="124"/>
+      <c r="E62" s="124"/>
+      <c r="F62" s="125"/>
+      <c r="G62" s="68"/>
+      <c r="H62" s="129"/>
+      <c r="I62" s="130"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B63" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C63" s="50" t="s">
+      <c r="C63" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="D63" s="51"/>
-      <c r="E63" s="51"/>
-      <c r="F63" s="52"/>
+      <c r="D63" s="56"/>
+      <c r="E63" s="56"/>
+      <c r="F63" s="57"/>
       <c r="G63" s="43"/>
-      <c r="H63" s="86"/>
-      <c r="I63" s="87"/>
+      <c r="H63" s="91"/>
+      <c r="I63" s="92"/>
     </row>
     <row r="64" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B64" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C64" s="189" t="s">
+      <c r="C64" s="194" t="s">
         <v>125</v>
       </c>
-      <c r="D64" s="190"/>
-      <c r="E64" s="190"/>
-      <c r="F64" s="191"/>
-      <c r="G64" s="62">
+      <c r="D64" s="195"/>
+      <c r="E64" s="195"/>
+      <c r="F64" s="196"/>
+      <c r="G64" s="67">
         <v>1</v>
       </c>
-      <c r="H64" s="240"/>
-      <c r="I64" s="241"/>
+      <c r="H64" s="245"/>
+      <c r="I64" s="246"/>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B65" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C65" s="223"/>
-      <c r="D65" s="224"/>
-      <c r="E65" s="224"/>
-      <c r="F65" s="225"/>
-      <c r="G65" s="77"/>
-      <c r="H65" s="242"/>
-      <c r="I65" s="243"/>
+      <c r="C65" s="228"/>
+      <c r="D65" s="229"/>
+      <c r="E65" s="229"/>
+      <c r="F65" s="230"/>
+      <c r="G65" s="82"/>
+      <c r="H65" s="247"/>
+      <c r="I65" s="248"/>
     </row>
     <row r="66" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B66" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C66" s="223"/>
-      <c r="D66" s="224"/>
-      <c r="E66" s="224"/>
-      <c r="F66" s="225"/>
-      <c r="G66" s="77"/>
-      <c r="H66" s="242"/>
-      <c r="I66" s="243"/>
+      <c r="C66" s="228"/>
+      <c r="D66" s="229"/>
+      <c r="E66" s="229"/>
+      <c r="F66" s="230"/>
+      <c r="G66" s="82"/>
+      <c r="H66" s="247"/>
+      <c r="I66" s="248"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B67" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C67" s="192"/>
-      <c r="D67" s="193"/>
-      <c r="E67" s="193"/>
-      <c r="F67" s="194"/>
-      <c r="G67" s="63"/>
-      <c r="H67" s="156"/>
-      <c r="I67" s="157"/>
+      <c r="C67" s="197"/>
+      <c r="D67" s="198"/>
+      <c r="E67" s="198"/>
+      <c r="F67" s="199"/>
+      <c r="G67" s="68"/>
+      <c r="H67" s="161"/>
+      <c r="I67" s="162"/>
     </row>
     <row r="68" spans="2:9" ht="27.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B68" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C68" s="223" t="s">
+      <c r="C68" s="228" t="s">
         <v>127</v>
       </c>
-      <c r="D68" s="219"/>
-      <c r="E68" s="219"/>
-      <c r="F68" s="220"/>
-      <c r="G68" s="77">
+      <c r="D68" s="224"/>
+      <c r="E68" s="224"/>
+      <c r="F68" s="225"/>
+      <c r="G68" s="82">
         <v>0.5</v>
       </c>
-      <c r="H68" s="236" t="s">
+      <c r="H68" s="241" t="s">
         <v>128</v>
       </c>
-      <c r="I68" s="237"/>
+      <c r="I68" s="242"/>
     </row>
     <row r="69" spans="2:9" ht="27.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C69" s="233"/>
-      <c r="D69" s="234"/>
-      <c r="E69" s="234"/>
-      <c r="F69" s="235"/>
-      <c r="G69" s="78"/>
-      <c r="H69" s="238"/>
-      <c r="I69" s="239"/>
+      <c r="C69" s="238"/>
+      <c r="D69" s="239"/>
+      <c r="E69" s="239"/>
+      <c r="F69" s="240"/>
+      <c r="G69" s="83"/>
+      <c r="H69" s="243"/>
+      <c r="I69" s="244"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C70" s="32"/>
@@ -5006,22 +5097,21 @@
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="C18:F21"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="H18:I21"/>
     <mergeCell ref="C12:F12"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="C18:F21"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="H18:I21"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C16:F16"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="H29:I29"/>
     <mergeCell ref="C30:F30"/>
@@ -5037,6 +5127,7 @@
     <mergeCell ref="H26:I27"/>
     <mergeCell ref="C29:F29"/>
     <mergeCell ref="C22:F22"/>
+    <mergeCell ref="H22:I22"/>
     <mergeCell ref="H46:I46"/>
     <mergeCell ref="C35:F35"/>
     <mergeCell ref="H35:I35"/>
@@ -5073,10 +5164,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D5800FB-BD05-4FC8-A7D1-22A28308449E}">
-  <dimension ref="B1:I23"/>
+  <dimension ref="B1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20:I23"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -5093,312 +5184,654 @@
       <c r="B2" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="107" t="s">
+      <c r="C2" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
       <c r="G2" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="108" t="s">
+      <c r="H2" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="109"/>
+      <c r="I2" s="114"/>
     </row>
     <row r="3" spans="2:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="115" t="s">
+      <c r="C3" s="120" t="s">
         <v>131</v>
       </c>
-      <c r="D3" s="167"/>
-      <c r="E3" s="167"/>
-      <c r="F3" s="244"/>
-      <c r="G3" s="121">
+      <c r="D3" s="172"/>
+      <c r="E3" s="172"/>
+      <c r="F3" s="253"/>
+      <c r="G3" s="126">
         <v>0.5</v>
       </c>
-      <c r="H3" s="122" t="s">
+      <c r="H3" s="127" t="s">
         <v>135</v>
       </c>
-      <c r="I3" s="206"/>
+      <c r="I3" s="211"/>
     </row>
     <row r="4" spans="2:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="192"/>
-      <c r="D4" s="193"/>
-      <c r="E4" s="193"/>
-      <c r="F4" s="194"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="207"/>
-      <c r="I4" s="208"/>
+      <c r="C4" s="197"/>
+      <c r="D4" s="198"/>
+      <c r="E4" s="198"/>
+      <c r="F4" s="199"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="212"/>
+      <c r="I4" s="213"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="52"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="57"/>
       <c r="G5" s="46"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="90"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="95"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="85" t="s">
+      <c r="C6" s="90" t="s">
         <v>132</v>
       </c>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="106"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="111"/>
       <c r="G6" s="46">
         <v>0.5</v>
       </c>
-      <c r="H6" s="89" t="s">
+      <c r="H6" s="94" t="s">
         <v>136</v>
       </c>
-      <c r="I6" s="90"/>
+      <c r="I6" s="95"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="52"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="57"/>
       <c r="G7" s="46"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="90"/>
+      <c r="H7" s="94"/>
+      <c r="I7" s="95"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="85" t="s">
+      <c r="C8" s="90" t="s">
         <v>133</v>
       </c>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="106"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="111"/>
       <c r="G8" s="46"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="90"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="95"/>
     </row>
     <row r="9" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="245" t="s">
+      <c r="C9" s="254" t="s">
         <v>134</v>
       </c>
-      <c r="D9" s="246"/>
-      <c r="E9" s="246"/>
-      <c r="F9" s="247"/>
-      <c r="G9" s="62">
+      <c r="D9" s="255"/>
+      <c r="E9" s="255"/>
+      <c r="F9" s="256"/>
+      <c r="G9" s="67">
         <v>0.5</v>
       </c>
-      <c r="H9" s="79" t="s">
+      <c r="H9" s="84" t="s">
         <v>137</v>
       </c>
-      <c r="I9" s="128"/>
+      <c r="I9" s="133"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="248"/>
-      <c r="D10" s="249"/>
-      <c r="E10" s="249"/>
-      <c r="F10" s="250"/>
-      <c r="G10" s="77"/>
-      <c r="H10" s="254"/>
-      <c r="I10" s="255"/>
+      <c r="C10" s="257"/>
+      <c r="D10" s="258"/>
+      <c r="E10" s="258"/>
+      <c r="F10" s="259"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="263"/>
+      <c r="I10" s="264"/>
     </row>
     <row r="11" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="251"/>
-      <c r="D11" s="252"/>
-      <c r="E11" s="252"/>
-      <c r="F11" s="253"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="129"/>
-      <c r="I11" s="130"/>
+      <c r="C11" s="260"/>
+      <c r="D11" s="261"/>
+      <c r="E11" s="261"/>
+      <c r="F11" s="262"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="134"/>
+      <c r="I11" s="135"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B12" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="116" t="s">
+      <c r="C12" s="121" t="s">
         <v>139</v>
       </c>
-      <c r="D12" s="116"/>
-      <c r="E12" s="116"/>
-      <c r="F12" s="116"/>
-      <c r="H12" s="116" t="s">
+      <c r="D12" s="121"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="121"/>
+      <c r="H12" s="121" t="s">
         <v>138</v>
       </c>
-      <c r="I12" s="116"/>
+      <c r="I12" s="121"/>
     </row>
     <row r="13" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="14" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B14" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="C14" s="107" t="s">
+      <c r="C14" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="108"/>
-      <c r="E14" s="108"/>
-      <c r="F14" s="108"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="113"/>
       <c r="G14" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="108" t="s">
+      <c r="H14" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="109"/>
+      <c r="I14" s="114"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B15" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="110" t="s">
+      <c r="C15" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="111"/>
-      <c r="E15" s="111"/>
-      <c r="F15" s="112"/>
+      <c r="D15" s="116"/>
+      <c r="E15" s="116"/>
+      <c r="F15" s="117"/>
       <c r="G15" s="48"/>
-      <c r="H15" s="143"/>
-      <c r="I15" s="144"/>
+      <c r="H15" s="148"/>
+      <c r="I15" s="149"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B16" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="52"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="57"/>
       <c r="G16" s="48"/>
-      <c r="H16" s="86"/>
-      <c r="I16" s="87"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="92"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B17" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="50" t="s">
+      <c r="C17" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="52"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="57"/>
       <c r="G17" s="48"/>
-      <c r="H17" s="86"/>
-      <c r="I17" s="87"/>
-    </row>
-    <row r="18" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H17" s="91"/>
+      <c r="I17" s="92"/>
+    </row>
+    <row r="18" spans="2:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="189" t="s">
+      <c r="C18" s="194" t="s">
         <v>141</v>
       </c>
-      <c r="D18" s="190"/>
-      <c r="E18" s="190"/>
-      <c r="F18" s="191"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="65"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D18" s="195"/>
+      <c r="E18" s="195"/>
+      <c r="F18" s="196"/>
+      <c r="G18" s="67">
+        <v>0.5</v>
+      </c>
+      <c r="H18" s="84" t="s">
+        <v>143</v>
+      </c>
+      <c r="I18" s="133"/>
+    </row>
+    <row r="19" spans="2:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="192"/>
-      <c r="D19" s="193"/>
-      <c r="E19" s="193"/>
-      <c r="F19" s="194"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="67"/>
+      <c r="C19" s="197"/>
+      <c r="D19" s="198"/>
+      <c r="E19" s="198"/>
+      <c r="F19" s="199"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="212"/>
+      <c r="I19" s="213"/>
     </row>
     <row r="20" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="189" t="s">
+      <c r="C20" s="150" t="s">
         <v>142</v>
       </c>
-      <c r="D20" s="190"/>
-      <c r="E20" s="190"/>
-      <c r="F20" s="191"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="65"/>
+      <c r="D20" s="151"/>
+      <c r="E20" s="151"/>
+      <c r="F20" s="151"/>
+      <c r="G20" s="184">
+        <v>1</v>
+      </c>
+      <c r="H20" s="155"/>
+      <c r="I20" s="185"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B21" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="223"/>
-      <c r="D21" s="224"/>
-      <c r="E21" s="224"/>
-      <c r="F21" s="225"/>
-      <c r="G21" s="77"/>
-      <c r="H21" s="221"/>
-      <c r="I21" s="222"/>
+      <c r="C21" s="150"/>
+      <c r="D21" s="151"/>
+      <c r="E21" s="151"/>
+      <c r="F21" s="151"/>
+      <c r="G21" s="184"/>
+      <c r="H21" s="155"/>
+      <c r="I21" s="185"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B22" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="223"/>
-      <c r="D22" s="224"/>
-      <c r="E22" s="224"/>
-      <c r="F22" s="225"/>
-      <c r="G22" s="77"/>
-      <c r="H22" s="221"/>
-      <c r="I22" s="222"/>
-    </row>
-    <row r="23" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C22" s="150"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="151"/>
+      <c r="G22" s="184"/>
+      <c r="H22" s="155"/>
+      <c r="I22" s="185"/>
+    </row>
+    <row r="23" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="226"/>
-      <c r="D23" s="227"/>
-      <c r="E23" s="227"/>
-      <c r="F23" s="228"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="256"/>
-      <c r="I23" s="257"/>
+      <c r="C23" s="265" t="s">
+        <v>144</v>
+      </c>
+      <c r="D23" s="266"/>
+      <c r="E23" s="266"/>
+      <c r="F23" s="266"/>
+      <c r="G23" s="51">
+        <v>0.5</v>
+      </c>
+      <c r="H23" s="189" t="s">
+        <v>145</v>
+      </c>
+      <c r="I23" s="190"/>
+    </row>
+    <row r="24" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="25" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="C25" s="112" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="113"/>
+      <c r="E25" s="113"/>
+      <c r="F25" s="113"/>
+      <c r="G25" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="113" t="s">
+        <v>24</v>
+      </c>
+      <c r="I25" s="114"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B26" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="192" t="s">
+        <v>144</v>
+      </c>
+      <c r="D26" s="121"/>
+      <c r="E26" s="121"/>
+      <c r="F26" s="122"/>
+      <c r="G26" s="126">
+        <v>0.6</v>
+      </c>
+      <c r="H26" s="193" t="s">
+        <v>150</v>
+      </c>
+      <c r="I26" s="128"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B27" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="123"/>
+      <c r="D27" s="124"/>
+      <c r="E27" s="124"/>
+      <c r="F27" s="125"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="129"/>
+      <c r="I27" s="130"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B28" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="131"/>
+      <c r="I28" s="132"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B29" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="90" t="s">
+        <v>147</v>
+      </c>
+      <c r="D29" s="110"/>
+      <c r="E29" s="110"/>
+      <c r="F29" s="111"/>
+      <c r="G29" s="49">
+        <v>1</v>
+      </c>
+      <c r="H29" s="131"/>
+      <c r="I29" s="132"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B30" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="194" t="s">
+        <v>148</v>
+      </c>
+      <c r="D30" s="195"/>
+      <c r="E30" s="195"/>
+      <c r="F30" s="196"/>
+      <c r="G30" s="67">
+        <v>0.8</v>
+      </c>
+      <c r="H30" s="84" t="s">
+        <v>151</v>
+      </c>
+      <c r="I30" s="85"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B31" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="228"/>
+      <c r="D31" s="229"/>
+      <c r="E31" s="229"/>
+      <c r="F31" s="230"/>
+      <c r="G31" s="82"/>
+      <c r="H31" s="86"/>
+      <c r="I31" s="87"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B32" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="197"/>
+      <c r="D32" s="198"/>
+      <c r="E32" s="198"/>
+      <c r="F32" s="199"/>
+      <c r="G32" s="68"/>
+      <c r="H32" s="129"/>
+      <c r="I32" s="130"/>
+    </row>
+    <row r="33" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="194" t="s">
+        <v>149</v>
+      </c>
+      <c r="D33" s="195"/>
+      <c r="E33" s="195"/>
+      <c r="F33" s="196"/>
+      <c r="G33" s="67">
+        <v>1</v>
+      </c>
+      <c r="H33" s="249"/>
+      <c r="I33" s="250"/>
+    </row>
+    <row r="34" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="231"/>
+      <c r="D34" s="232"/>
+      <c r="E34" s="232"/>
+      <c r="F34" s="233"/>
+      <c r="G34" s="83"/>
+      <c r="H34" s="251"/>
+      <c r="I34" s="252"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B35" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="121" t="s">
+        <v>153</v>
+      </c>
+      <c r="D35" s="121"/>
+      <c r="E35" s="121"/>
+      <c r="F35" s="121"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="173" t="s">
+        <v>88</v>
+      </c>
+      <c r="I35" s="173"/>
+    </row>
+    <row r="36" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="37" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="C37" s="112" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" s="113"/>
+      <c r="E37" s="113"/>
+      <c r="F37" s="113"/>
+      <c r="G37" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="H37" s="113" t="s">
+        <v>24</v>
+      </c>
+      <c r="I37" s="114"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B38" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="192" t="s">
+        <v>154</v>
+      </c>
+      <c r="D38" s="121"/>
+      <c r="E38" s="121"/>
+      <c r="F38" s="122"/>
+      <c r="G38" s="126"/>
+      <c r="H38" s="267"/>
+      <c r="I38" s="268"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B39" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="123"/>
+      <c r="D39" s="124"/>
+      <c r="E39" s="124"/>
+      <c r="F39" s="125"/>
+      <c r="G39" s="68"/>
+      <c r="H39" s="71"/>
+      <c r="I39" s="72"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B40" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="56"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="57"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="91"/>
+      <c r="I40" s="92"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B41" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="194" t="s">
+        <v>154</v>
+      </c>
+      <c r="D41" s="195"/>
+      <c r="E41" s="195"/>
+      <c r="F41" s="196"/>
+      <c r="G41" s="67"/>
+      <c r="H41" s="69"/>
+      <c r="I41" s="70"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B42" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="197"/>
+      <c r="D42" s="198"/>
+      <c r="E42" s="198"/>
+      <c r="F42" s="199"/>
+      <c r="G42" s="68"/>
+      <c r="H42" s="71"/>
+      <c r="I42" s="72"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B43" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="194" t="s">
+        <v>155</v>
+      </c>
+      <c r="D43" s="195"/>
+      <c r="E43" s="195"/>
+      <c r="F43" s="196"/>
+      <c r="G43" s="67"/>
+      <c r="H43" s="69"/>
+      <c r="I43" s="70"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B44" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="197"/>
+      <c r="D44" s="198"/>
+      <c r="E44" s="198"/>
+      <c r="F44" s="199"/>
+      <c r="G44" s="68"/>
+      <c r="H44" s="71"/>
+      <c r="I44" s="72"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B45" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="194" t="s">
+        <v>156</v>
+      </c>
+      <c r="D45" s="195"/>
+      <c r="E45" s="195"/>
+      <c r="F45" s="196"/>
+      <c r="G45" s="67"/>
+      <c r="H45" s="249"/>
+      <c r="I45" s="250"/>
+    </row>
+    <row r="46" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="231"/>
+      <c r="D46" s="232"/>
+      <c r="E46" s="232"/>
+      <c r="F46" s="233"/>
+      <c r="G46" s="83"/>
+      <c r="H46" s="251"/>
+      <c r="I46" s="252"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="67">
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="H45:I46"/>
+    <mergeCell ref="C45:F46"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="C38:F39"/>
+    <mergeCell ref="C41:F42"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H38:I39"/>
+    <mergeCell ref="H41:I42"/>
+    <mergeCell ref="C43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:I44"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="H37:I37"/>
     <mergeCell ref="C18:F19"/>
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="H18:I19"/>
-    <mergeCell ref="C20:F23"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="H20:I23"/>
+    <mergeCell ref="C20:F22"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="H20:I22"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="H6:I6"/>
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="C17:F17"/>
@@ -5409,6 +5842,8 @@
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="C15:F15"/>
     <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="H25:I25"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="C12:F12"/>
@@ -5423,8 +5858,19 @@
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="H5:I5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="C33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:I34"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="C26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:I27"/>
+    <mergeCell ref="C30:F32"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="H30:I32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/졸작 진행 계획 시간표.xlsx
+++ b/졸작 진행 계획 시간표.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2020 졸작 깃\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2020 졸작 깃\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4D2F54-3563-4456-8F81-04C70E9A1A39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9608442-9AEC-4681-BF1F-811188BA93A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{E0805F39-A49F-47F5-8E79-FFCEB62D9AEC}"/>
+    <workbookView xWindow="5220" yWindow="1290" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{E0805F39-A49F-47F5-8E79-FFCEB62D9AEC}"/>
   </bookViews>
   <sheets>
     <sheet name="5월 4주차" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="167">
   <si>
     <t>월</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -723,11 +723,58 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>패트롤 몬스터의 waypoint 설정 처리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터 리스폰 함수 조정 및 최적화</t>
+    <t>GetAdjustAim() 함수 통한 다른 플레이어의 Aim 연산 결과가 다른 점 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른 플레이어의 AimOffset 결과가 제대로 업데이트 되지 않는 부분 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fireweapon()를 수정해가며 테스팅 해본 결과 함수 내 
+GetAdjustAim() 함수의 결과값이 제대로 맞지 않음을 
+확인함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetAdjustAim() 함수를 수정 하던 중 다른 플레이어 
+캐릭터의 AimOffset 변수의 값이 제대로 변하지 않는 부분 
+확인함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존의 다른 플레이어의 AimOffset() 업데이트 방식이 
+잘못되어서 수정 작업 진행하였으나 시간내에 완료하지 
+못함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">19:00 ~        </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른 플레이어의 AimOffset에 대한 동기화 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020. 06. 12. 금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른 플레이어의 Rotation 설정 부분 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AimOffset 동기화 방식 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Controller의 Aim 관련 Rotation 변경 후 사격 함수 
+조정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1533,7 +1580,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="269">
+  <cellXfs count="273">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1696,6 +1743,12 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2281,18 +2334,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2335,11 +2376,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2661,18 +2720,18 @@
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.3984375" customWidth="1"/>
-    <col min="3" max="4" width="10.59765625" customWidth="1"/>
-    <col min="5" max="5" width="11.09765625" customWidth="1"/>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="3" max="4" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="11.125" customWidth="1"/>
     <col min="6" max="6" width="13.5" customWidth="1"/>
-    <col min="7" max="7" width="10.3984375" customWidth="1"/>
-    <col min="9" max="9" width="28.59765625" customWidth="1"/>
+    <col min="7" max="7" width="10.375" customWidth="1"/>
+    <col min="9" max="9" width="28.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="5"/>
       <c r="C4" s="6" t="s">
         <v>0</v>
@@ -2697,7 +2756,7 @@
       </c>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="13" t="s">
         <v>7</v>
       </c>
@@ -2716,13 +2775,13 @@
       <c r="G5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="140" t="s">
+      <c r="H5" s="142" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="141"/>
+      <c r="I5" s="143"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="11" t="s">
         <v>8</v>
       </c>
@@ -2741,26 +2800,26 @@
       <c r="G6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="142"/>
-      <c r="I6" s="143"/>
+      <c r="H6" s="144"/>
+      <c r="I6" s="145"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="146" t="s">
+      <c r="C7" s="148" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="147"/>
-      <c r="E7" s="147"/>
-      <c r="F7" s="147"/>
-      <c r="G7" s="147"/>
-      <c r="H7" s="142"/>
-      <c r="I7" s="143"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="144"/>
+      <c r="I7" s="145"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="11" t="s">
         <v>10</v>
       </c>
@@ -2779,11 +2838,11 @@
       <c r="G8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="142"/>
-      <c r="I8" s="143"/>
+      <c r="H8" s="144"/>
+      <c r="I8" s="145"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="11" t="s">
         <v>11</v>
       </c>
@@ -2802,11 +2861,11 @@
       <c r="G9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="142"/>
-      <c r="I9" s="143"/>
+      <c r="H9" s="144"/>
+      <c r="I9" s="145"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
         <v>12</v>
       </c>
@@ -2825,11 +2884,11 @@
       <c r="G10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="142"/>
-      <c r="I10" s="143"/>
+      <c r="H10" s="144"/>
+      <c r="I10" s="145"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="11" t="s">
         <v>13</v>
       </c>
@@ -2848,11 +2907,11 @@
       <c r="G11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="142"/>
-      <c r="I11" s="143"/>
+      <c r="H11" s="144"/>
+      <c r="I11" s="145"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="11" t="s">
         <v>14</v>
       </c>
@@ -2871,11 +2930,11 @@
       <c r="G12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="142"/>
-      <c r="I12" s="143"/>
+      <c r="H12" s="144"/>
+      <c r="I12" s="145"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="12" t="s">
         <v>15</v>
       </c>
@@ -2894,11 +2953,11 @@
       <c r="G13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="144"/>
-      <c r="I13" s="145"/>
+      <c r="H13" s="146"/>
+      <c r="I13" s="147"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
         <v>18</v>
@@ -2919,7 +2978,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -2930,1051 +2989,1051 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="112" t="s">
+      <c r="C17" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="113"/>
-      <c r="E17" s="113"/>
-      <c r="F17" s="113"/>
+      <c r="D17" s="115"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="115"/>
       <c r="G17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="113" t="s">
+      <c r="H17" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="I17" s="114"/>
+      <c r="I17" s="116"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="115" t="s">
+      <c r="C18" s="117" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="116"/>
-      <c r="E18" s="116"/>
-      <c r="F18" s="117"/>
+      <c r="D18" s="118"/>
+      <c r="E18" s="118"/>
+      <c r="F18" s="119"/>
       <c r="G18" s="16">
         <v>1</v>
       </c>
-      <c r="H18" s="148"/>
-      <c r="I18" s="149"/>
+      <c r="H18" s="150"/>
+      <c r="I18" s="151"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="55" t="s">
+      <c r="C19" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="57"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="59"/>
       <c r="G19" s="16">
         <v>1</v>
       </c>
-      <c r="H19" s="91"/>
-      <c r="I19" s="92"/>
+      <c r="H19" s="93"/>
+      <c r="I19" s="94"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="55" t="s">
+      <c r="C20" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="57"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="59"/>
       <c r="G20" s="16"/>
-      <c r="H20" s="91"/>
-      <c r="I20" s="92"/>
+      <c r="H20" s="93"/>
+      <c r="I20" s="94"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="90" t="s">
+      <c r="C21" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="57"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="59"/>
       <c r="G21" s="16">
         <v>1</v>
       </c>
-      <c r="H21" s="91"/>
-      <c r="I21" s="92"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="H21" s="93"/>
+      <c r="I21" s="94"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="55" t="s">
+      <c r="C22" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="57"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="59"/>
       <c r="G22" s="16"/>
-      <c r="H22" s="91"/>
-      <c r="I22" s="92"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="H22" s="93"/>
+      <c r="I22" s="94"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="55" t="s">
+      <c r="C23" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="57"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="59"/>
       <c r="G23" s="16"/>
-      <c r="H23" s="91"/>
-      <c r="I23" s="92"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="H23" s="93"/>
+      <c r="I23" s="94"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="55" t="s">
+      <c r="C24" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="57"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="59"/>
       <c r="G24" s="16">
         <v>1</v>
       </c>
-      <c r="H24" s="91"/>
-      <c r="I24" s="92"/>
-    </row>
-    <row r="25" spans="2:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H24" s="93"/>
+      <c r="I24" s="94"/>
+    </row>
+    <row r="25" spans="2:10" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="55" t="s">
+      <c r="C25" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="57"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="59"/>
       <c r="G25" s="16">
         <v>0.8</v>
       </c>
-      <c r="H25" s="138" t="s">
+      <c r="H25" s="140" t="s">
         <v>38</v>
       </c>
-      <c r="I25" s="139"/>
-    </row>
-    <row r="26" spans="2:10" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I25" s="141"/>
+    </row>
+    <row r="26" spans="2:10" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="58" t="s">
+      <c r="C26" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="60"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="62"/>
       <c r="G26" s="17">
         <v>1</v>
       </c>
-      <c r="H26" s="136"/>
-      <c r="I26" s="137"/>
-    </row>
-    <row r="27" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="28" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H26" s="138"/>
+      <c r="I26" s="139"/>
+    </row>
+    <row r="27" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="112" t="s">
+      <c r="C28" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="113"/>
-      <c r="E28" s="113"/>
-      <c r="F28" s="113"/>
+      <c r="D28" s="115"/>
+      <c r="E28" s="115"/>
+      <c r="F28" s="115"/>
       <c r="G28" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H28" s="113" t="s">
+      <c r="H28" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="I28" s="114"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="I28" s="116"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="115" t="s">
+      <c r="C29" s="117" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="116"/>
-      <c r="E29" s="116"/>
-      <c r="F29" s="117"/>
+      <c r="D29" s="118"/>
+      <c r="E29" s="118"/>
+      <c r="F29" s="119"/>
       <c r="G29" s="16"/>
-      <c r="H29" s="118"/>
-      <c r="I29" s="119"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="H29" s="120"/>
+      <c r="I29" s="121"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="55" t="s">
+      <c r="C30" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="57"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="59"/>
       <c r="G30" s="16"/>
-      <c r="H30" s="131"/>
-      <c r="I30" s="132"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="H30" s="133"/>
+      <c r="I30" s="134"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="55" t="s">
+      <c r="C31" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="57"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="59"/>
       <c r="G31" s="16"/>
-      <c r="H31" s="131"/>
-      <c r="I31" s="132"/>
-    </row>
-    <row r="32" spans="2:10" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H31" s="133"/>
+      <c r="I31" s="134"/>
+    </row>
+    <row r="32" spans="2:10" ht="80.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="90" t="s">
+      <c r="C32" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="57"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="59"/>
       <c r="G32" s="16">
         <v>0.5</v>
       </c>
-      <c r="H32" s="107" t="s">
+      <c r="H32" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="I32" s="95"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="I32" s="97"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="55" t="s">
+      <c r="C33" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="57"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="59"/>
       <c r="G33" s="16">
         <v>1</v>
       </c>
-      <c r="H33" s="131"/>
-      <c r="I33" s="132"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="H33" s="133"/>
+      <c r="I33" s="134"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="55" t="s">
+      <c r="C34" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="57"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="59"/>
       <c r="G34" s="16">
         <v>1</v>
       </c>
-      <c r="H34" s="131"/>
-      <c r="I34" s="132"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="H34" s="133"/>
+      <c r="I34" s="134"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B35" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="55" t="s">
+      <c r="C35" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="D35" s="56"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="57"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="59"/>
       <c r="G35" s="16">
         <v>1</v>
       </c>
-      <c r="H35" s="131"/>
-      <c r="I35" s="132"/>
-    </row>
-    <row r="36" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H35" s="133"/>
+      <c r="I35" s="134"/>
+    </row>
+    <row r="36" spans="2:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="55" t="s">
+      <c r="C36" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="D36" s="56"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="67">
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="69">
         <v>0.5</v>
       </c>
-      <c r="H36" s="84" t="s">
+      <c r="H36" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="I36" s="133"/>
-    </row>
-    <row r="37" spans="2:10" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I36" s="135"/>
+    </row>
+    <row r="37" spans="2:10" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="58" t="s">
+      <c r="C37" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="D37" s="59"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="60"/>
-      <c r="G37" s="83"/>
-      <c r="H37" s="134"/>
-      <c r="I37" s="135"/>
-    </row>
-    <row r="38" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="39" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="62"/>
+      <c r="G37" s="85"/>
+      <c r="H37" s="136"/>
+      <c r="I37" s="137"/>
+    </row>
+    <row r="38" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C39" s="112" t="s">
+      <c r="C39" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="113"/>
-      <c r="E39" s="113"/>
-      <c r="F39" s="113"/>
+      <c r="D39" s="115"/>
+      <c r="E39" s="115"/>
+      <c r="F39" s="115"/>
       <c r="G39" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="H39" s="113" t="s">
+      <c r="H39" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="I39" s="114"/>
-    </row>
-    <row r="40" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I39" s="116"/>
+    </row>
+    <row r="40" spans="2:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="120" t="s">
+      <c r="C40" s="122" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="121"/>
-      <c r="E40" s="121"/>
-      <c r="F40" s="122"/>
-      <c r="G40" s="126">
+      <c r="D40" s="123"/>
+      <c r="E40" s="123"/>
+      <c r="F40" s="124"/>
+      <c r="G40" s="128">
         <v>0.3</v>
       </c>
-      <c r="H40" s="127" t="s">
+      <c r="H40" s="129" t="s">
         <v>46</v>
       </c>
-      <c r="I40" s="128"/>
-    </row>
-    <row r="41" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I40" s="130"/>
+    </row>
+    <row r="41" spans="2:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C41" s="123"/>
-      <c r="D41" s="124"/>
-      <c r="E41" s="124"/>
-      <c r="F41" s="125"/>
-      <c r="G41" s="68"/>
-      <c r="H41" s="129"/>
-      <c r="I41" s="130"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="C41" s="125"/>
+      <c r="D41" s="126"/>
+      <c r="E41" s="126"/>
+      <c r="F41" s="127"/>
+      <c r="G41" s="70"/>
+      <c r="H41" s="131"/>
+      <c r="I41" s="132"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B42" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="55" t="s">
+      <c r="C42" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="D42" s="56"/>
-      <c r="E42" s="56"/>
-      <c r="F42" s="57"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="59"/>
       <c r="G42" s="16"/>
-      <c r="H42" s="94"/>
-      <c r="I42" s="95"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="H42" s="96"/>
+      <c r="I42" s="97"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B43" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="90" t="s">
+      <c r="C43" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="D43" s="56"/>
-      <c r="E43" s="56"/>
-      <c r="F43" s="57"/>
+      <c r="D43" s="58"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="59"/>
       <c r="G43" s="20">
         <v>1</v>
       </c>
-      <c r="H43" s="94"/>
-      <c r="I43" s="95"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="H43" s="96"/>
+      <c r="I43" s="97"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C44" s="90" t="s">
+      <c r="C44" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="D44" s="56"/>
-      <c r="E44" s="56"/>
-      <c r="F44" s="57"/>
+      <c r="D44" s="58"/>
+      <c r="E44" s="58"/>
+      <c r="F44" s="59"/>
       <c r="G44" s="20">
         <v>1</v>
       </c>
-      <c r="H44" s="94"/>
-      <c r="I44" s="95"/>
-    </row>
-    <row r="45" spans="2:10" ht="36.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H44" s="96"/>
+      <c r="I44" s="97"/>
+    </row>
+    <row r="45" spans="2:10" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C45" s="150" t="s">
+      <c r="C45" s="152" t="s">
         <v>47</v>
       </c>
-      <c r="D45" s="151"/>
-      <c r="E45" s="151"/>
-      <c r="F45" s="151"/>
+      <c r="D45" s="153"/>
+      <c r="E45" s="153"/>
+      <c r="F45" s="153"/>
       <c r="G45" s="22"/>
-      <c r="H45" s="152"/>
-      <c r="I45" s="153"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="H45" s="154"/>
+      <c r="I45" s="155"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B46" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C46" s="154" t="s">
+      <c r="C46" s="156" t="s">
         <v>51</v>
       </c>
-      <c r="D46" s="155"/>
-      <c r="E46" s="155"/>
-      <c r="F46" s="155"/>
+      <c r="D46" s="157"/>
+      <c r="E46" s="157"/>
+      <c r="F46" s="157"/>
       <c r="G46" s="22">
         <v>1</v>
       </c>
-      <c r="H46" s="131"/>
-      <c r="I46" s="132"/>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="H46" s="133"/>
+      <c r="I46" s="134"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="55" t="s">
+      <c r="C47" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="D47" s="56"/>
-      <c r="E47" s="56"/>
-      <c r="F47" s="57"/>
+      <c r="D47" s="58"/>
+      <c r="E47" s="58"/>
+      <c r="F47" s="59"/>
       <c r="G47" s="21">
         <v>1</v>
       </c>
-      <c r="H47" s="107"/>
-      <c r="I47" s="108"/>
-    </row>
-    <row r="48" spans="2:10" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H47" s="109"/>
+      <c r="I47" s="110"/>
+    </row>
+    <row r="48" spans="2:10" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B48" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="58" t="s">
+      <c r="C48" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="D48" s="59"/>
-      <c r="E48" s="59"/>
-      <c r="F48" s="60"/>
+      <c r="D48" s="61"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="62"/>
       <c r="G48" s="17">
         <v>0.8</v>
       </c>
-      <c r="H48" s="105" t="s">
+      <c r="H48" s="107" t="s">
         <v>50</v>
       </c>
-      <c r="I48" s="109"/>
+      <c r="I48" s="111"/>
       <c r="J48" s="25" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="50" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="50" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B50" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C50" s="112" t="s">
+      <c r="C50" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="D50" s="113"/>
-      <c r="E50" s="113"/>
-      <c r="F50" s="113"/>
+      <c r="D50" s="115"/>
+      <c r="E50" s="115"/>
+      <c r="F50" s="115"/>
       <c r="G50" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H50" s="113" t="s">
+      <c r="H50" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="I50" s="114"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I50" s="116"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C51" s="115" t="s">
+      <c r="C51" s="117" t="s">
         <v>53</v>
       </c>
-      <c r="D51" s="116"/>
-      <c r="E51" s="116"/>
-      <c r="F51" s="117"/>
+      <c r="D51" s="118"/>
+      <c r="E51" s="118"/>
+      <c r="F51" s="119"/>
       <c r="G51" s="20">
         <v>1</v>
       </c>
-      <c r="H51" s="148"/>
-      <c r="I51" s="149"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H51" s="150"/>
+      <c r="I51" s="151"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C52" s="55" t="s">
+      <c r="C52" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="D52" s="56"/>
-      <c r="E52" s="56"/>
-      <c r="F52" s="57"/>
+      <c r="D52" s="58"/>
+      <c r="E52" s="58"/>
+      <c r="F52" s="59"/>
       <c r="G52" s="20">
         <v>1</v>
       </c>
-      <c r="H52" s="91"/>
-      <c r="I52" s="92"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H52" s="93"/>
+      <c r="I52" s="94"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C53" s="55" t="s">
+      <c r="C53" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="D53" s="56"/>
-      <c r="E53" s="56"/>
-      <c r="F53" s="57"/>
+      <c r="D53" s="58"/>
+      <c r="E53" s="58"/>
+      <c r="F53" s="59"/>
       <c r="G53" s="20"/>
-      <c r="H53" s="91"/>
-      <c r="I53" s="92"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H53" s="93"/>
+      <c r="I53" s="94"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C54" s="90" t="s">
+      <c r="C54" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="D54" s="110"/>
-      <c r="E54" s="110"/>
-      <c r="F54" s="111"/>
+      <c r="D54" s="112"/>
+      <c r="E54" s="112"/>
+      <c r="F54" s="113"/>
       <c r="G54" s="20">
         <v>1</v>
       </c>
-      <c r="H54" s="91"/>
-      <c r="I54" s="92"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H54" s="93"/>
+      <c r="I54" s="94"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C55" s="55" t="s">
+      <c r="C55" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="D55" s="56"/>
-      <c r="E55" s="56"/>
-      <c r="F55" s="57"/>
+      <c r="D55" s="58"/>
+      <c r="E55" s="58"/>
+      <c r="F55" s="59"/>
       <c r="G55" s="20">
         <v>1</v>
       </c>
-      <c r="H55" s="91"/>
-      <c r="I55" s="92"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H55" s="93"/>
+      <c r="I55" s="94"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C56" s="90" t="s">
+      <c r="C56" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="D56" s="110"/>
-      <c r="E56" s="110"/>
-      <c r="F56" s="111"/>
+      <c r="D56" s="112"/>
+      <c r="E56" s="112"/>
+      <c r="F56" s="113"/>
       <c r="G56" s="20">
         <v>1</v>
       </c>
-      <c r="H56" s="91"/>
-      <c r="I56" s="92"/>
-    </row>
-    <row r="57" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H56" s="93"/>
+      <c r="I56" s="94"/>
+    </row>
+    <row r="57" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C57" s="61" t="s">
+      <c r="C57" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="D57" s="62"/>
-      <c r="E57" s="62"/>
-      <c r="F57" s="63"/>
-      <c r="G57" s="67">
+      <c r="D57" s="64"/>
+      <c r="E57" s="64"/>
+      <c r="F57" s="65"/>
+      <c r="G57" s="69">
         <v>0.3</v>
       </c>
-      <c r="H57" s="84" t="s">
+      <c r="H57" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="I57" s="85"/>
-    </row>
-    <row r="58" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I57" s="87"/>
+    </row>
+    <row r="58" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C58" s="96"/>
-      <c r="D58" s="97"/>
-      <c r="E58" s="97"/>
-      <c r="F58" s="98"/>
-      <c r="G58" s="82"/>
-      <c r="H58" s="86"/>
-      <c r="I58" s="87"/>
-    </row>
-    <row r="59" spans="2:9" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C58" s="98"/>
+      <c r="D58" s="99"/>
+      <c r="E58" s="99"/>
+      <c r="F58" s="100"/>
+      <c r="G58" s="84"/>
+      <c r="H58" s="88"/>
+      <c r="I58" s="89"/>
+    </row>
+    <row r="59" spans="2:9" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B59" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C59" s="163"/>
-      <c r="D59" s="164"/>
-      <c r="E59" s="164"/>
-      <c r="F59" s="165"/>
-      <c r="G59" s="83"/>
-      <c r="H59" s="88"/>
-      <c r="I59" s="89"/>
-    </row>
-    <row r="60" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="61" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C59" s="165"/>
+      <c r="D59" s="166"/>
+      <c r="E59" s="166"/>
+      <c r="F59" s="167"/>
+      <c r="G59" s="85"/>
+      <c r="H59" s="90"/>
+      <c r="I59" s="91"/>
+    </row>
+    <row r="60" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="61" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B61" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C61" s="112" t="s">
+      <c r="C61" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="D61" s="113"/>
-      <c r="E61" s="113"/>
-      <c r="F61" s="113"/>
+      <c r="D61" s="115"/>
+      <c r="E61" s="115"/>
+      <c r="F61" s="115"/>
       <c r="G61" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="H61" s="113" t="s">
+      <c r="H61" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="I61" s="114"/>
-    </row>
-    <row r="62" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I61" s="116"/>
+    </row>
+    <row r="62" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C62" s="156" t="s">
+      <c r="C62" s="158" t="s">
         <v>59</v>
       </c>
-      <c r="D62" s="157"/>
-      <c r="E62" s="157"/>
-      <c r="F62" s="158"/>
-      <c r="G62" s="126">
+      <c r="D62" s="159"/>
+      <c r="E62" s="159"/>
+      <c r="F62" s="160"/>
+      <c r="G62" s="128">
         <v>0.3</v>
       </c>
-      <c r="H62" s="159" t="s">
+      <c r="H62" s="161" t="s">
         <v>67</v>
       </c>
-      <c r="I62" s="160"/>
-    </row>
-    <row r="63" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I62" s="162"/>
+    </row>
+    <row r="63" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C63" s="64"/>
-      <c r="D63" s="65"/>
-      <c r="E63" s="65"/>
-      <c r="F63" s="66"/>
-      <c r="G63" s="68"/>
-      <c r="H63" s="161"/>
-      <c r="I63" s="162"/>
-    </row>
-    <row r="64" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C63" s="66"/>
+      <c r="D63" s="67"/>
+      <c r="E63" s="67"/>
+      <c r="F63" s="68"/>
+      <c r="G63" s="70"/>
+      <c r="H63" s="163"/>
+      <c r="I63" s="164"/>
+    </row>
+    <row r="64" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C64" s="55" t="s">
+      <c r="C64" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="D64" s="56"/>
-      <c r="E64" s="56"/>
-      <c r="F64" s="57"/>
+      <c r="D64" s="58"/>
+      <c r="E64" s="58"/>
+      <c r="F64" s="59"/>
       <c r="G64" s="24"/>
-      <c r="H64" s="170"/>
-      <c r="I64" s="171"/>
-    </row>
-    <row r="65" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H64" s="172"/>
+      <c r="I64" s="173"/>
+    </row>
+    <row r="65" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C65" s="61" t="s">
+      <c r="C65" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="D65" s="62"/>
-      <c r="E65" s="62"/>
-      <c r="F65" s="63"/>
-      <c r="G65" s="67">
+      <c r="D65" s="64"/>
+      <c r="E65" s="64"/>
+      <c r="F65" s="65"/>
+      <c r="G65" s="69">
         <v>1</v>
       </c>
-      <c r="H65" s="99" t="s">
+      <c r="H65" s="101" t="s">
         <v>68</v>
       </c>
-      <c r="I65" s="100"/>
-      <c r="L65" s="90" t="s">
+      <c r="I65" s="102"/>
+      <c r="L65" s="92" t="s">
         <v>62</v>
       </c>
-      <c r="M65" s="56"/>
-      <c r="N65" s="56"/>
-      <c r="O65" s="57"/>
-    </row>
-    <row r="66" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="M65" s="58"/>
+      <c r="N65" s="58"/>
+      <c r="O65" s="59"/>
+    </row>
+    <row r="66" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C66" s="96"/>
-      <c r="D66" s="97"/>
-      <c r="E66" s="97"/>
-      <c r="F66" s="98"/>
-      <c r="G66" s="82"/>
-      <c r="H66" s="101"/>
-      <c r="I66" s="102"/>
-      <c r="L66" s="55" t="s">
+      <c r="C66" s="98"/>
+      <c r="D66" s="99"/>
+      <c r="E66" s="99"/>
+      <c r="F66" s="100"/>
+      <c r="G66" s="84"/>
+      <c r="H66" s="103"/>
+      <c r="I66" s="104"/>
+      <c r="L66" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="M66" s="56"/>
-      <c r="N66" s="56"/>
-      <c r="O66" s="57"/>
-    </row>
-    <row r="67" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="M66" s="58"/>
+      <c r="N66" s="58"/>
+      <c r="O66" s="59"/>
+    </row>
+    <row r="67" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B67" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C67" s="96"/>
-      <c r="D67" s="97"/>
-      <c r="E67" s="97"/>
-      <c r="F67" s="98"/>
-      <c r="G67" s="82"/>
-      <c r="H67" s="101"/>
-      <c r="I67" s="102"/>
-      <c r="L67" s="55" t="s">
+      <c r="C67" s="98"/>
+      <c r="D67" s="99"/>
+      <c r="E67" s="99"/>
+      <c r="F67" s="100"/>
+      <c r="G67" s="84"/>
+      <c r="H67" s="103"/>
+      <c r="I67" s="104"/>
+      <c r="L67" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="M67" s="56"/>
-      <c r="N67" s="56"/>
-      <c r="O67" s="57"/>
-    </row>
-    <row r="68" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="M67" s="58"/>
+      <c r="N67" s="58"/>
+      <c r="O67" s="59"/>
+    </row>
+    <row r="68" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C68" s="96"/>
-      <c r="D68" s="97"/>
-      <c r="E68" s="97"/>
-      <c r="F68" s="98"/>
-      <c r="G68" s="82"/>
-      <c r="H68" s="101"/>
-      <c r="I68" s="102"/>
-      <c r="L68" s="55" t="s">
+      <c r="C68" s="98"/>
+      <c r="D68" s="99"/>
+      <c r="E68" s="99"/>
+      <c r="F68" s="100"/>
+      <c r="G68" s="84"/>
+      <c r="H68" s="103"/>
+      <c r="I68" s="104"/>
+      <c r="L68" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="M68" s="56"/>
-      <c r="N68" s="56"/>
-      <c r="O68" s="57"/>
-    </row>
-    <row r="69" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="M68" s="58"/>
+      <c r="N68" s="58"/>
+      <c r="O68" s="59"/>
+    </row>
+    <row r="69" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C69" s="64"/>
-      <c r="D69" s="65"/>
-      <c r="E69" s="65"/>
-      <c r="F69" s="66"/>
-      <c r="G69" s="68"/>
-      <c r="H69" s="103"/>
-      <c r="I69" s="104"/>
-      <c r="L69" s="55" t="s">
+      <c r="C69" s="66"/>
+      <c r="D69" s="67"/>
+      <c r="E69" s="67"/>
+      <c r="F69" s="68"/>
+      <c r="G69" s="70"/>
+      <c r="H69" s="105"/>
+      <c r="I69" s="106"/>
+      <c r="L69" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="M69" s="56"/>
-      <c r="N69" s="56"/>
-      <c r="O69" s="57"/>
-    </row>
-    <row r="70" spans="2:15" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="M69" s="58"/>
+      <c r="N69" s="58"/>
+      <c r="O69" s="59"/>
+    </row>
+    <row r="70" spans="2:15" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B70" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C70" s="58" t="s">
+      <c r="C70" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="D70" s="59"/>
-      <c r="E70" s="59"/>
-      <c r="F70" s="60"/>
+      <c r="D70" s="61"/>
+      <c r="E70" s="61"/>
+      <c r="F70" s="62"/>
       <c r="G70" s="17">
         <v>0.5</v>
       </c>
-      <c r="H70" s="105" t="s">
+      <c r="H70" s="107" t="s">
         <v>70</v>
       </c>
-      <c r="I70" s="106"/>
-      <c r="L70" s="58" t="s">
+      <c r="I70" s="108"/>
+      <c r="L70" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="M70" s="59"/>
-      <c r="N70" s="59"/>
-      <c r="O70" s="60"/>
-    </row>
-    <row r="71" spans="2:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="M70" s="61"/>
+      <c r="N70" s="61"/>
+      <c r="O70" s="62"/>
+    </row>
+    <row r="71" spans="2:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="C71" s="172" t="s">
+      <c r="C71" s="174" t="s">
         <v>71</v>
       </c>
-      <c r="D71" s="121"/>
-      <c r="E71" s="121"/>
-      <c r="F71" s="121"/>
-      <c r="H71" s="173" t="s">
+      <c r="D71" s="123"/>
+      <c r="E71" s="123"/>
+      <c r="F71" s="123"/>
+      <c r="H71" s="175" t="s">
         <v>73</v>
       </c>
-      <c r="I71" s="173"/>
+      <c r="I71" s="175"/>
       <c r="J71" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="73" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="74" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="74" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B74" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C74" s="112" t="s">
+      <c r="C74" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="D74" s="113"/>
-      <c r="E74" s="113"/>
-      <c r="F74" s="113"/>
+      <c r="D74" s="115"/>
+      <c r="E74" s="115"/>
+      <c r="F74" s="115"/>
       <c r="G74" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="H74" s="113" t="s">
+      <c r="H74" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="I74" s="114"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="I74" s="116"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B75" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C75" s="115" t="s">
+      <c r="C75" s="117" t="s">
         <v>77</v>
       </c>
-      <c r="D75" s="116"/>
-      <c r="E75" s="116"/>
-      <c r="F75" s="117"/>
+      <c r="D75" s="118"/>
+      <c r="E75" s="118"/>
+      <c r="F75" s="119"/>
       <c r="G75" s="27">
         <v>0</v>
       </c>
-      <c r="H75" s="166" t="s">
+      <c r="H75" s="168" t="s">
         <v>83</v>
       </c>
-      <c r="I75" s="167"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="I75" s="169"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B76" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C76" s="55" t="s">
+      <c r="C76" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="D76" s="56"/>
-      <c r="E76" s="56"/>
-      <c r="F76" s="57"/>
+      <c r="D76" s="58"/>
+      <c r="E76" s="58"/>
+      <c r="F76" s="59"/>
       <c r="G76" s="27">
         <v>0</v>
       </c>
-      <c r="H76" s="168" t="s">
+      <c r="H76" s="170" t="s">
         <v>83</v>
       </c>
-      <c r="I76" s="169"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="I76" s="171"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B77" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C77" s="55" t="s">
+      <c r="C77" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="D77" s="56"/>
-      <c r="E77" s="56"/>
-      <c r="F77" s="57"/>
+      <c r="D77" s="58"/>
+      <c r="E77" s="58"/>
+      <c r="F77" s="59"/>
       <c r="G77" s="27"/>
-      <c r="H77" s="91"/>
-      <c r="I77" s="92"/>
-    </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="H77" s="93"/>
+      <c r="I77" s="94"/>
+    </row>
+    <row r="78" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B78" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C78" s="90" t="s">
+      <c r="C78" s="92" t="s">
         <v>79</v>
       </c>
-      <c r="D78" s="56"/>
-      <c r="E78" s="56"/>
-      <c r="F78" s="57"/>
+      <c r="D78" s="58"/>
+      <c r="E78" s="58"/>
+      <c r="F78" s="59"/>
       <c r="G78" s="27">
         <v>1</v>
       </c>
-      <c r="H78" s="91"/>
-      <c r="I78" s="92"/>
-      <c r="L78" s="55" t="s">
+      <c r="H78" s="93"/>
+      <c r="I78" s="94"/>
+      <c r="L78" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="M78" s="56"/>
-      <c r="N78" s="56"/>
-      <c r="O78" s="57"/>
-    </row>
-    <row r="79" spans="2:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="M78" s="58"/>
+      <c r="N78" s="58"/>
+      <c r="O78" s="59"/>
+    </row>
+    <row r="79" spans="2:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C79" s="61" t="s">
+      <c r="C79" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="D79" s="62"/>
-      <c r="E79" s="62"/>
-      <c r="F79" s="63"/>
-      <c r="G79" s="67">
+      <c r="D79" s="64"/>
+      <c r="E79" s="64"/>
+      <c r="F79" s="65"/>
+      <c r="G79" s="69">
         <v>1</v>
       </c>
-      <c r="H79" s="69"/>
-      <c r="I79" s="70"/>
-      <c r="L79" s="55" t="s">
+      <c r="H79" s="71"/>
+      <c r="I79" s="72"/>
+      <c r="L79" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="M79" s="56"/>
-      <c r="N79" s="56"/>
-      <c r="O79" s="57"/>
-    </row>
-    <row r="80" spans="2:15" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="M79" s="58"/>
+      <c r="N79" s="58"/>
+      <c r="O79" s="59"/>
+    </row>
+    <row r="80" spans="2:15" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B80" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C80" s="64"/>
-      <c r="D80" s="65"/>
-      <c r="E80" s="65"/>
-      <c r="F80" s="66"/>
-      <c r="G80" s="68"/>
-      <c r="H80" s="71"/>
-      <c r="I80" s="72"/>
-      <c r="L80" s="58" t="s">
+      <c r="C80" s="66"/>
+      <c r="D80" s="67"/>
+      <c r="E80" s="67"/>
+      <c r="F80" s="68"/>
+      <c r="G80" s="70"/>
+      <c r="H80" s="73"/>
+      <c r="I80" s="74"/>
+      <c r="L80" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="M80" s="59"/>
-      <c r="N80" s="59"/>
-      <c r="O80" s="60"/>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="M80" s="61"/>
+      <c r="N80" s="61"/>
+      <c r="O80" s="62"/>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C81" s="73" t="s">
+      <c r="C81" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="D81" s="74"/>
-      <c r="E81" s="74"/>
-      <c r="F81" s="75"/>
-      <c r="G81" s="67">
+      <c r="D81" s="76"/>
+      <c r="E81" s="76"/>
+      <c r="F81" s="77"/>
+      <c r="G81" s="69">
         <v>0.7</v>
       </c>
-      <c r="H81" s="84" t="s">
+      <c r="H81" s="86" t="s">
         <v>85</v>
       </c>
-      <c r="I81" s="85"/>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I81" s="87"/>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C82" s="76"/>
-      <c r="D82" s="77"/>
-      <c r="E82" s="77"/>
-      <c r="F82" s="78"/>
-      <c r="G82" s="82"/>
-      <c r="H82" s="86"/>
-      <c r="I82" s="87"/>
-    </row>
-    <row r="83" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C82" s="78"/>
+      <c r="D82" s="79"/>
+      <c r="E82" s="79"/>
+      <c r="F82" s="80"/>
+      <c r="G82" s="84"/>
+      <c r="H82" s="88"/>
+      <c r="I82" s="89"/>
+    </row>
+    <row r="83" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B83" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C83" s="79"/>
-      <c r="D83" s="80"/>
-      <c r="E83" s="80"/>
-      <c r="F83" s="81"/>
-      <c r="G83" s="83"/>
-      <c r="H83" s="88"/>
-      <c r="I83" s="89"/>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C83" s="81"/>
+      <c r="D83" s="82"/>
+      <c r="E83" s="82"/>
+      <c r="F83" s="83"/>
+      <c r="G83" s="85"/>
+      <c r="H83" s="90"/>
+      <c r="I83" s="91"/>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C84" s="54" t="s">
+      <c r="C84" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="D84" s="54"/>
-      <c r="E84" s="54"/>
-      <c r="F84" s="54"/>
+      <c r="D84" s="56"/>
+      <c r="E84" s="56"/>
+      <c r="F84" s="56"/>
       <c r="G84" s="1"/>
-      <c r="H84" s="54" t="s">
+      <c r="H84" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="I84" s="54"/>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I84" s="56"/>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="31"/>
-      <c r="C85" s="93" t="s">
+      <c r="C85" s="95" t="s">
         <v>89</v>
       </c>
-      <c r="D85" s="93"/>
-      <c r="E85" s="93"/>
-      <c r="F85" s="93"/>
-      <c r="H85" s="93" t="s">
+      <c r="D85" s="95"/>
+      <c r="E85" s="95"/>
+      <c r="F85" s="95"/>
+      <c r="H85" s="95" t="s">
         <v>88</v>
       </c>
-      <c r="I85" s="93"/>
-    </row>
-    <row r="95" spans="2:9" ht="54" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="I85" s="95"/>
+    </row>
+    <row r="95" spans="2:9" ht="54" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="121">
     <mergeCell ref="C76:F76"/>
@@ -4110,944 +4169,944 @@
   <dimension ref="B2:I70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.59765625" customWidth="1"/>
-    <col min="6" max="6" width="21.19921875" customWidth="1"/>
-    <col min="8" max="8" width="11.3984375" customWidth="1"/>
-    <col min="9" max="9" width="29.69921875" customWidth="1"/>
+    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.625" customWidth="1"/>
+    <col min="6" max="6" width="21.25" customWidth="1"/>
+    <col min="8" max="8" width="11.375" customWidth="1"/>
+    <col min="9" max="9" width="29.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="112" t="s">
+      <c r="C3" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
       <c r="G3" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="113" t="s">
+      <c r="H3" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="114"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I3" s="116"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="115" t="s">
+      <c r="C4" s="117" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="117"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="119"/>
       <c r="G4" s="30">
         <v>1</v>
       </c>
-      <c r="H4" s="148"/>
-      <c r="I4" s="149"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H4" s="150"/>
+      <c r="I4" s="151"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="57"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="59"/>
       <c r="G5" s="30">
         <v>1</v>
       </c>
-      <c r="H5" s="91"/>
-      <c r="I5" s="92"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H5" s="93"/>
+      <c r="I5" s="94"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="57"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="59"/>
       <c r="G6" s="30"/>
-      <c r="H6" s="91"/>
-      <c r="I6" s="92"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H6" s="93"/>
+      <c r="I6" s="94"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="90" t="s">
+      <c r="C7" s="92" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="111"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="113"/>
       <c r="G7" s="30">
         <v>1</v>
       </c>
-      <c r="H7" s="91"/>
-      <c r="I7" s="92"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H7" s="93"/>
+      <c r="I7" s="94"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="57"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="59"/>
       <c r="G8" s="30"/>
-      <c r="H8" s="91"/>
-      <c r="I8" s="92"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H8" s="93"/>
+      <c r="I8" s="94"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="90" t="s">
+      <c r="C9" s="92" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="110"/>
-      <c r="E9" s="110"/>
-      <c r="F9" s="111"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="112"/>
+      <c r="F9" s="113"/>
       <c r="G9" s="30"/>
-      <c r="H9" s="91"/>
-      <c r="I9" s="92"/>
-    </row>
-    <row r="10" spans="2:9" ht="54" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H9" s="93"/>
+      <c r="I9" s="94"/>
+    </row>
+    <row r="10" spans="2:9" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="90" t="s">
+      <c r="C10" s="92" t="s">
         <v>95</v>
       </c>
-      <c r="D10" s="110"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="111"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="112"/>
+      <c r="F10" s="113"/>
       <c r="G10" s="22">
         <v>0.8</v>
       </c>
-      <c r="H10" s="187" t="s">
+      <c r="H10" s="189" t="s">
         <v>98</v>
       </c>
-      <c r="I10" s="188"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I10" s="190"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="90" t="s">
+      <c r="C11" s="92" t="s">
         <v>96</v>
       </c>
-      <c r="D11" s="110"/>
-      <c r="E11" s="110"/>
-      <c r="F11" s="111"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="113"/>
       <c r="G11" s="22">
         <v>1</v>
       </c>
-      <c r="H11" s="216"/>
-      <c r="I11" s="217"/>
-    </row>
-    <row r="12" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H11" s="218"/>
+      <c r="I11" s="219"/>
+    </row>
+    <row r="12" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="58" t="s">
+      <c r="C12" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="D12" s="214"/>
-      <c r="E12" s="214"/>
-      <c r="F12" s="215"/>
+      <c r="D12" s="216"/>
+      <c r="E12" s="216"/>
+      <c r="F12" s="217"/>
       <c r="G12" s="17">
         <v>1</v>
       </c>
-      <c r="H12" s="218"/>
-      <c r="I12" s="219"/>
-    </row>
-    <row r="13" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H12" s="220"/>
+      <c r="I12" s="221"/>
+    </row>
+    <row r="13" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C13" s="32"/>
       <c r="D13" s="32"/>
       <c r="E13" s="32"/>
       <c r="F13" s="32"/>
     </row>
-    <row r="14" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="112" t="s">
+      <c r="C14" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="113"/>
-      <c r="E14" s="113"/>
-      <c r="F14" s="113"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="115"/>
       <c r="G14" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="113" t="s">
+      <c r="H14" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="114"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I14" s="116"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="115" t="s">
+      <c r="C15" s="117" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="116"/>
-      <c r="E15" s="116"/>
-      <c r="F15" s="117"/>
+      <c r="D15" s="118"/>
+      <c r="E15" s="118"/>
+      <c r="F15" s="119"/>
       <c r="G15" s="34"/>
-      <c r="H15" s="148"/>
-      <c r="I15" s="149"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H15" s="150"/>
+      <c r="I15" s="151"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="55" t="s">
+      <c r="C16" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="57"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="59"/>
       <c r="G16" s="34"/>
-      <c r="H16" s="91"/>
-      <c r="I16" s="92"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H16" s="93"/>
+      <c r="I16" s="94"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="55" t="s">
+      <c r="C17" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="57"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="59"/>
       <c r="G17" s="34"/>
-      <c r="H17" s="91"/>
-      <c r="I17" s="92"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H17" s="93"/>
+      <c r="I17" s="94"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="220" t="s">
+      <c r="C18" s="222" t="s">
         <v>100</v>
       </c>
-      <c r="D18" s="221"/>
-      <c r="E18" s="221"/>
-      <c r="F18" s="222"/>
-      <c r="G18" s="67">
+      <c r="D18" s="223"/>
+      <c r="E18" s="223"/>
+      <c r="F18" s="224"/>
+      <c r="G18" s="69">
         <v>1</v>
       </c>
-      <c r="H18" s="69"/>
-      <c r="I18" s="70"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H18" s="71"/>
+      <c r="I18" s="72"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="223"/>
-      <c r="D19" s="224"/>
-      <c r="E19" s="224"/>
-      <c r="F19" s="225"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="226"/>
-      <c r="I19" s="227"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C19" s="225"/>
+      <c r="D19" s="226"/>
+      <c r="E19" s="226"/>
+      <c r="F19" s="227"/>
+      <c r="G19" s="84"/>
+      <c r="H19" s="228"/>
+      <c r="I19" s="229"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="223"/>
-      <c r="D20" s="224"/>
-      <c r="E20" s="224"/>
-      <c r="F20" s="225"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="226"/>
-      <c r="I20" s="227"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C20" s="225"/>
+      <c r="D20" s="226"/>
+      <c r="E20" s="226"/>
+      <c r="F20" s="227"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="228"/>
+      <c r="I20" s="229"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="123"/>
-      <c r="D21" s="124"/>
-      <c r="E21" s="124"/>
-      <c r="F21" s="125"/>
-      <c r="G21" s="68"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="72"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C21" s="125"/>
+      <c r="D21" s="126"/>
+      <c r="E21" s="126"/>
+      <c r="F21" s="127"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="74"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="55" t="s">
+      <c r="C22" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="57"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="59"/>
       <c r="G22" s="34">
         <v>1</v>
       </c>
-      <c r="H22" s="138"/>
-      <c r="I22" s="139"/>
-    </row>
-    <row r="23" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H22" s="140"/>
+      <c r="I22" s="141"/>
+    </row>
+    <row r="23" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="58" t="s">
+      <c r="C23" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="60"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="62"/>
       <c r="G23" s="17">
         <v>1</v>
       </c>
-      <c r="H23" s="136"/>
-      <c r="I23" s="137"/>
-    </row>
-    <row r="24" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="25" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H23" s="138"/>
+      <c r="I23" s="139"/>
+    </row>
+    <row r="24" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="C25" s="112" t="s">
+      <c r="C25" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="113"/>
-      <c r="E25" s="113"/>
-      <c r="F25" s="113"/>
+      <c r="D25" s="115"/>
+      <c r="E25" s="115"/>
+      <c r="F25" s="115"/>
       <c r="G25" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="H25" s="113" t="s">
+      <c r="H25" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="I25" s="114"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I25" s="116"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="205" t="s">
+      <c r="C26" s="207" t="s">
         <v>104</v>
       </c>
-      <c r="D26" s="206"/>
-      <c r="E26" s="206"/>
-      <c r="F26" s="207"/>
-      <c r="G26" s="126">
+      <c r="D26" s="208"/>
+      <c r="E26" s="208"/>
+      <c r="F26" s="209"/>
+      <c r="G26" s="128">
         <v>0.8</v>
       </c>
-      <c r="H26" s="127" t="s">
+      <c r="H26" s="129" t="s">
         <v>112</v>
       </c>
-      <c r="I26" s="211"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I26" s="213"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="208"/>
-      <c r="D27" s="209"/>
-      <c r="E27" s="209"/>
-      <c r="F27" s="210"/>
-      <c r="G27" s="68"/>
-      <c r="H27" s="212"/>
-      <c r="I27" s="213"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C27" s="210"/>
+      <c r="D27" s="211"/>
+      <c r="E27" s="211"/>
+      <c r="F27" s="212"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="214"/>
+      <c r="I27" s="215"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="202" t="s">
+      <c r="C28" s="204" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="203"/>
-      <c r="E28" s="203"/>
-      <c r="F28" s="204"/>
+      <c r="D28" s="205"/>
+      <c r="E28" s="205"/>
+      <c r="F28" s="206"/>
       <c r="G28" s="37"/>
-      <c r="H28" s="168"/>
-      <c r="I28" s="169"/>
-    </row>
-    <row r="29" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H28" s="170"/>
+      <c r="I28" s="171"/>
+    </row>
+    <row r="29" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="180" t="s">
+      <c r="C29" s="182" t="s">
         <v>104</v>
       </c>
-      <c r="D29" s="181"/>
-      <c r="E29" s="181"/>
-      <c r="F29" s="181"/>
+      <c r="D29" s="183"/>
+      <c r="E29" s="183"/>
+      <c r="F29" s="183"/>
       <c r="G29" s="22">
         <v>1</v>
       </c>
-      <c r="H29" s="155"/>
-      <c r="I29" s="185"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H29" s="157"/>
+      <c r="I29" s="187"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="178" t="s">
+      <c r="C30" s="180" t="s">
         <v>105</v>
       </c>
-      <c r="D30" s="179"/>
-      <c r="E30" s="179"/>
-      <c r="F30" s="179"/>
+      <c r="D30" s="181"/>
+      <c r="E30" s="181"/>
+      <c r="F30" s="181"/>
       <c r="G30" s="22">
         <v>1</v>
       </c>
-      <c r="H30" s="155"/>
-      <c r="I30" s="185"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H30" s="157"/>
+      <c r="I30" s="187"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="178" t="s">
+      <c r="C31" s="180" t="s">
         <v>106</v>
       </c>
-      <c r="D31" s="179"/>
-      <c r="E31" s="179"/>
-      <c r="F31" s="179"/>
-      <c r="G31" s="184">
+      <c r="D31" s="181"/>
+      <c r="E31" s="181"/>
+      <c r="F31" s="181"/>
+      <c r="G31" s="186">
         <v>1</v>
       </c>
-      <c r="H31" s="155"/>
-      <c r="I31" s="185"/>
-    </row>
-    <row r="32" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H31" s="157"/>
+      <c r="I31" s="187"/>
+    </row>
+    <row r="32" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="178"/>
-      <c r="D32" s="179"/>
-      <c r="E32" s="179"/>
-      <c r="F32" s="179"/>
-      <c r="G32" s="184"/>
-      <c r="H32" s="155"/>
-      <c r="I32" s="185"/>
-    </row>
-    <row r="33" spans="2:9" ht="25.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C32" s="180"/>
+      <c r="D32" s="181"/>
+      <c r="E32" s="181"/>
+      <c r="F32" s="181"/>
+      <c r="G32" s="186"/>
+      <c r="H32" s="157"/>
+      <c r="I32" s="187"/>
+    </row>
+    <row r="33" spans="2:9" ht="25.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="180" t="s">
+      <c r="C33" s="182" t="s">
         <v>107</v>
       </c>
-      <c r="D33" s="181"/>
-      <c r="E33" s="181"/>
-      <c r="F33" s="181"/>
-      <c r="G33" s="184">
+      <c r="D33" s="183"/>
+      <c r="E33" s="183"/>
+      <c r="F33" s="183"/>
+      <c r="G33" s="186">
         <v>0.5</v>
       </c>
-      <c r="H33" s="187" t="s">
+      <c r="H33" s="189" t="s">
         <v>110</v>
       </c>
-      <c r="I33" s="188"/>
-    </row>
-    <row r="34" spans="2:9" ht="25.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I33" s="190"/>
+    </row>
+    <row r="34" spans="2:9" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="182"/>
-      <c r="D34" s="183"/>
-      <c r="E34" s="183"/>
-      <c r="F34" s="183"/>
-      <c r="G34" s="186"/>
-      <c r="H34" s="189"/>
-      <c r="I34" s="190"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C34" s="184"/>
+      <c r="D34" s="185"/>
+      <c r="E34" s="185"/>
+      <c r="F34" s="185"/>
+      <c r="G34" s="188"/>
+      <c r="H34" s="191"/>
+      <c r="I34" s="192"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="28"/>
-      <c r="C35" s="121"/>
-      <c r="D35" s="121"/>
-      <c r="E35" s="121"/>
-      <c r="F35" s="121"/>
+      <c r="C35" s="123"/>
+      <c r="D35" s="123"/>
+      <c r="E35" s="123"/>
+      <c r="F35" s="123"/>
       <c r="G35" s="36"/>
-      <c r="H35" s="54"/>
-      <c r="I35" s="54"/>
-    </row>
-    <row r="36" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="37" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H35" s="56"/>
+      <c r="I35" s="56"/>
+    </row>
+    <row r="36" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="37" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="C37" s="112" t="s">
+      <c r="C37" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="D37" s="113"/>
-      <c r="E37" s="113"/>
-      <c r="F37" s="113"/>
+      <c r="D37" s="115"/>
+      <c r="E37" s="115"/>
+      <c r="F37" s="115"/>
       <c r="G37" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="H37" s="113" t="s">
+      <c r="H37" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="I37" s="114"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I37" s="116"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="192" t="s">
+      <c r="C38" s="194" t="s">
         <v>109</v>
       </c>
-      <c r="D38" s="121"/>
-      <c r="E38" s="121"/>
-      <c r="F38" s="122"/>
-      <c r="G38" s="126">
+      <c r="D38" s="123"/>
+      <c r="E38" s="123"/>
+      <c r="F38" s="124"/>
+      <c r="G38" s="128">
         <v>0.9</v>
       </c>
-      <c r="H38" s="193"/>
-      <c r="I38" s="128"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H38" s="195"/>
+      <c r="I38" s="130"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="123"/>
-      <c r="D39" s="124"/>
-      <c r="E39" s="124"/>
-      <c r="F39" s="125"/>
-      <c r="G39" s="68"/>
-      <c r="H39" s="129"/>
-      <c r="I39" s="130"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C39" s="125"/>
+      <c r="D39" s="126"/>
+      <c r="E39" s="126"/>
+      <c r="F39" s="127"/>
+      <c r="G39" s="70"/>
+      <c r="H39" s="131"/>
+      <c r="I39" s="132"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="55" t="s">
+      <c r="C40" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="56"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="57"/>
+      <c r="D40" s="58"/>
+      <c r="E40" s="58"/>
+      <c r="F40" s="59"/>
       <c r="G40" s="40"/>
-      <c r="H40" s="94"/>
-      <c r="I40" s="95"/>
-    </row>
-    <row r="41" spans="2:9" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H40" s="96"/>
+      <c r="I40" s="97"/>
+    </row>
+    <row r="41" spans="2:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="194" t="s">
+      <c r="C41" s="196" t="s">
         <v>109</v>
       </c>
-      <c r="D41" s="195"/>
-      <c r="E41" s="195"/>
-      <c r="F41" s="196"/>
-      <c r="G41" s="67">
+      <c r="D41" s="197"/>
+      <c r="E41" s="197"/>
+      <c r="F41" s="198"/>
+      <c r="G41" s="69">
         <v>0.9</v>
       </c>
-      <c r="H41" s="84" t="s">
+      <c r="H41" s="86" t="s">
         <v>114</v>
       </c>
-      <c r="I41" s="85"/>
-    </row>
-    <row r="42" spans="2:9" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I41" s="87"/>
+    </row>
+    <row r="42" spans="2:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C42" s="197"/>
-      <c r="D42" s="198"/>
-      <c r="E42" s="198"/>
-      <c r="F42" s="199"/>
-      <c r="G42" s="68"/>
-      <c r="H42" s="129"/>
-      <c r="I42" s="130"/>
-    </row>
-    <row r="43" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C42" s="199"/>
+      <c r="D42" s="200"/>
+      <c r="E42" s="200"/>
+      <c r="F42" s="201"/>
+      <c r="G42" s="70"/>
+      <c r="H42" s="131"/>
+      <c r="I42" s="132"/>
+    </row>
+    <row r="43" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C43" s="150" t="s">
+      <c r="C43" s="152" t="s">
         <v>111</v>
       </c>
-      <c r="D43" s="151"/>
-      <c r="E43" s="151"/>
-      <c r="F43" s="151"/>
-      <c r="G43" s="184">
+      <c r="D43" s="153"/>
+      <c r="E43" s="153"/>
+      <c r="F43" s="153"/>
+      <c r="G43" s="186">
         <v>1</v>
       </c>
-      <c r="H43" s="200"/>
-      <c r="I43" s="201"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H43" s="202"/>
+      <c r="I43" s="203"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C44" s="150"/>
-      <c r="D44" s="151"/>
-      <c r="E44" s="151"/>
-      <c r="F44" s="151"/>
-      <c r="G44" s="184"/>
-      <c r="H44" s="200"/>
-      <c r="I44" s="201"/>
-    </row>
-    <row r="45" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C44" s="152"/>
+      <c r="D44" s="153"/>
+      <c r="E44" s="153"/>
+      <c r="F44" s="153"/>
+      <c r="G44" s="186"/>
+      <c r="H44" s="202"/>
+      <c r="I44" s="203"/>
+    </row>
+    <row r="45" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="150"/>
-      <c r="D45" s="151"/>
-      <c r="E45" s="151"/>
-      <c r="F45" s="151"/>
-      <c r="G45" s="184"/>
-      <c r="H45" s="200"/>
-      <c r="I45" s="201"/>
-    </row>
-    <row r="46" spans="2:9" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C45" s="152"/>
+      <c r="D45" s="153"/>
+      <c r="E45" s="153"/>
+      <c r="F45" s="153"/>
+      <c r="G45" s="186"/>
+      <c r="H45" s="202"/>
+      <c r="I45" s="203"/>
+    </row>
+    <row r="46" spans="2:9" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B46" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="235" t="s">
+      <c r="C46" s="237" t="s">
         <v>113</v>
       </c>
-      <c r="D46" s="59"/>
-      <c r="E46" s="59"/>
-      <c r="F46" s="60"/>
+      <c r="D46" s="61"/>
+      <c r="E46" s="61"/>
+      <c r="F46" s="62"/>
       <c r="G46" s="41">
         <v>0.5</v>
       </c>
-      <c r="H46" s="189" t="s">
+      <c r="H46" s="191" t="s">
         <v>115</v>
       </c>
-      <c r="I46" s="191"/>
-    </row>
-    <row r="47" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="48" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I46" s="193"/>
+    </row>
+    <row r="47" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="48" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B48" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="C48" s="112" t="s">
+      <c r="C48" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="D48" s="113"/>
-      <c r="E48" s="113"/>
-      <c r="F48" s="113"/>
+      <c r="D48" s="115"/>
+      <c r="E48" s="115"/>
+      <c r="F48" s="115"/>
       <c r="G48" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="H48" s="113" t="s">
+      <c r="H48" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="I48" s="114"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I48" s="116"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C49" s="192" t="s">
+      <c r="C49" s="194" t="s">
         <v>113</v>
       </c>
-      <c r="D49" s="121"/>
-      <c r="E49" s="121"/>
-      <c r="F49" s="122"/>
-      <c r="G49" s="126">
+      <c r="D49" s="123"/>
+      <c r="E49" s="123"/>
+      <c r="F49" s="124"/>
+      <c r="G49" s="128">
         <v>1</v>
       </c>
-      <c r="H49" s="236"/>
-      <c r="I49" s="237"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H49" s="238"/>
+      <c r="I49" s="239"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C50" s="123"/>
-      <c r="D50" s="124"/>
-      <c r="E50" s="124"/>
-      <c r="F50" s="125"/>
-      <c r="G50" s="68"/>
-      <c r="H50" s="176"/>
-      <c r="I50" s="177"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C50" s="125"/>
+      <c r="D50" s="126"/>
+      <c r="E50" s="126"/>
+      <c r="F50" s="127"/>
+      <c r="G50" s="70"/>
+      <c r="H50" s="178"/>
+      <c r="I50" s="179"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C51" s="55" t="s">
+      <c r="C51" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="D51" s="56"/>
-      <c r="E51" s="56"/>
-      <c r="F51" s="57"/>
+      <c r="D51" s="58"/>
+      <c r="E51" s="58"/>
+      <c r="F51" s="59"/>
       <c r="G51" s="40"/>
-      <c r="H51" s="168"/>
-      <c r="I51" s="169"/>
-    </row>
-    <row r="52" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H51" s="170"/>
+      <c r="I51" s="171"/>
+    </row>
+    <row r="52" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C52" s="194" t="s">
+      <c r="C52" s="196" t="s">
         <v>113</v>
       </c>
-      <c r="D52" s="195"/>
-      <c r="E52" s="195"/>
-      <c r="F52" s="196"/>
-      <c r="G52" s="67">
+      <c r="D52" s="197"/>
+      <c r="E52" s="197"/>
+      <c r="F52" s="198"/>
+      <c r="G52" s="69">
         <v>1</v>
       </c>
-      <c r="H52" s="174"/>
-      <c r="I52" s="175"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H52" s="176"/>
+      <c r="I52" s="177"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C53" s="197"/>
-      <c r="D53" s="198"/>
-      <c r="E53" s="198"/>
-      <c r="F53" s="199"/>
-      <c r="G53" s="68"/>
-      <c r="H53" s="176"/>
-      <c r="I53" s="177"/>
-    </row>
-    <row r="54" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C53" s="199"/>
+      <c r="D53" s="200"/>
+      <c r="E53" s="200"/>
+      <c r="F53" s="201"/>
+      <c r="G53" s="70"/>
+      <c r="H53" s="178"/>
+      <c r="I53" s="179"/>
+    </row>
+    <row r="54" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C54" s="194" t="s">
+      <c r="C54" s="196" t="s">
         <v>118</v>
       </c>
-      <c r="D54" s="195"/>
-      <c r="E54" s="195"/>
-      <c r="F54" s="196"/>
-      <c r="G54" s="67">
+      <c r="D54" s="197"/>
+      <c r="E54" s="197"/>
+      <c r="F54" s="198"/>
+      <c r="G54" s="69">
         <v>0.7</v>
       </c>
-      <c r="H54" s="84" t="s">
+      <c r="H54" s="86" t="s">
         <v>119</v>
       </c>
-      <c r="I54" s="85"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I54" s="87"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C55" s="228"/>
-      <c r="D55" s="229"/>
-      <c r="E55" s="229"/>
-      <c r="F55" s="230"/>
-      <c r="G55" s="82"/>
-      <c r="H55" s="86"/>
-      <c r="I55" s="87"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C55" s="230"/>
+      <c r="D55" s="231"/>
+      <c r="E55" s="231"/>
+      <c r="F55" s="232"/>
+      <c r="G55" s="84"/>
+      <c r="H55" s="88"/>
+      <c r="I55" s="89"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C56" s="228"/>
-      <c r="D56" s="229"/>
-      <c r="E56" s="229"/>
-      <c r="F56" s="230"/>
-      <c r="G56" s="82"/>
-      <c r="H56" s="86"/>
-      <c r="I56" s="87"/>
-    </row>
-    <row r="57" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C56" s="230"/>
+      <c r="D56" s="231"/>
+      <c r="E56" s="231"/>
+      <c r="F56" s="232"/>
+      <c r="G56" s="84"/>
+      <c r="H56" s="88"/>
+      <c r="I56" s="89"/>
+    </row>
+    <row r="57" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B57" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C57" s="231"/>
-      <c r="D57" s="232"/>
-      <c r="E57" s="232"/>
-      <c r="F57" s="233"/>
-      <c r="G57" s="83"/>
-      <c r="H57" s="88"/>
-      <c r="I57" s="89"/>
-    </row>
-    <row r="58" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C57" s="233"/>
+      <c r="D57" s="234"/>
+      <c r="E57" s="234"/>
+      <c r="F57" s="235"/>
+      <c r="G57" s="85"/>
+      <c r="H57" s="90"/>
+      <c r="I57" s="91"/>
+    </row>
+    <row r="58" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="C58" s="172" t="s">
+      <c r="C58" s="174" t="s">
         <v>124</v>
       </c>
-      <c r="D58" s="121"/>
-      <c r="E58" s="121"/>
-      <c r="F58" s="121"/>
+      <c r="D58" s="123"/>
+      <c r="E58" s="123"/>
+      <c r="F58" s="123"/>
       <c r="G58" s="44"/>
-      <c r="H58" s="234" t="s">
+      <c r="H58" s="236" t="s">
         <v>123</v>
       </c>
-      <c r="I58" s="234"/>
-    </row>
-    <row r="59" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="60" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I58" s="236"/>
+    </row>
+    <row r="59" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="60" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B60" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="C60" s="112" t="s">
+      <c r="C60" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="D60" s="113"/>
-      <c r="E60" s="113"/>
-      <c r="F60" s="113"/>
+      <c r="D60" s="115"/>
+      <c r="E60" s="115"/>
+      <c r="F60" s="115"/>
       <c r="G60" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="H60" s="113" t="s">
+      <c r="H60" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="I60" s="114"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I60" s="116"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C61" s="120" t="s">
+      <c r="C61" s="122" t="s">
         <v>125</v>
       </c>
-      <c r="D61" s="121"/>
-      <c r="E61" s="121"/>
-      <c r="F61" s="122"/>
-      <c r="G61" s="126">
+      <c r="D61" s="123"/>
+      <c r="E61" s="123"/>
+      <c r="F61" s="124"/>
+      <c r="G61" s="128">
         <v>0</v>
       </c>
-      <c r="H61" s="193" t="s">
+      <c r="H61" s="195" t="s">
         <v>126</v>
       </c>
-      <c r="I61" s="128"/>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I61" s="130"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C62" s="123"/>
-      <c r="D62" s="124"/>
-      <c r="E62" s="124"/>
-      <c r="F62" s="125"/>
-      <c r="G62" s="68"/>
-      <c r="H62" s="129"/>
-      <c r="I62" s="130"/>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C62" s="125"/>
+      <c r="D62" s="126"/>
+      <c r="E62" s="126"/>
+      <c r="F62" s="127"/>
+      <c r="G62" s="70"/>
+      <c r="H62" s="131"/>
+      <c r="I62" s="132"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C63" s="55" t="s">
+      <c r="C63" s="57" t="s">
         <v>121</v>
       </c>
-      <c r="D63" s="56"/>
-      <c r="E63" s="56"/>
-      <c r="F63" s="57"/>
+      <c r="D63" s="58"/>
+      <c r="E63" s="58"/>
+      <c r="F63" s="59"/>
       <c r="G63" s="43"/>
-      <c r="H63" s="91"/>
-      <c r="I63" s="92"/>
-    </row>
-    <row r="64" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H63" s="93"/>
+      <c r="I63" s="94"/>
+    </row>
+    <row r="64" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C64" s="194" t="s">
+      <c r="C64" s="196" t="s">
         <v>125</v>
       </c>
-      <c r="D64" s="195"/>
-      <c r="E64" s="195"/>
-      <c r="F64" s="196"/>
-      <c r="G64" s="67">
+      <c r="D64" s="197"/>
+      <c r="E64" s="197"/>
+      <c r="F64" s="198"/>
+      <c r="G64" s="69">
         <v>1</v>
       </c>
-      <c r="H64" s="245"/>
-      <c r="I64" s="246"/>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H64" s="247"/>
+      <c r="I64" s="248"/>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C65" s="228"/>
-      <c r="D65" s="229"/>
-      <c r="E65" s="229"/>
-      <c r="F65" s="230"/>
-      <c r="G65" s="82"/>
-      <c r="H65" s="247"/>
-      <c r="I65" s="248"/>
-    </row>
-    <row r="66" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C65" s="230"/>
+      <c r="D65" s="231"/>
+      <c r="E65" s="231"/>
+      <c r="F65" s="232"/>
+      <c r="G65" s="84"/>
+      <c r="H65" s="249"/>
+      <c r="I65" s="250"/>
+    </row>
+    <row r="66" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C66" s="228"/>
-      <c r="D66" s="229"/>
-      <c r="E66" s="229"/>
-      <c r="F66" s="230"/>
-      <c r="G66" s="82"/>
-      <c r="H66" s="247"/>
-      <c r="I66" s="248"/>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C66" s="230"/>
+      <c r="D66" s="231"/>
+      <c r="E66" s="231"/>
+      <c r="F66" s="232"/>
+      <c r="G66" s="84"/>
+      <c r="H66" s="249"/>
+      <c r="I66" s="250"/>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C67" s="197"/>
-      <c r="D67" s="198"/>
-      <c r="E67" s="198"/>
-      <c r="F67" s="199"/>
-      <c r="G67" s="68"/>
-      <c r="H67" s="161"/>
-      <c r="I67" s="162"/>
-    </row>
-    <row r="68" spans="2:9" ht="27.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C67" s="199"/>
+      <c r="D67" s="200"/>
+      <c r="E67" s="200"/>
+      <c r="F67" s="201"/>
+      <c r="G67" s="70"/>
+      <c r="H67" s="163"/>
+      <c r="I67" s="164"/>
+    </row>
+    <row r="68" spans="2:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C68" s="228" t="s">
+      <c r="C68" s="230" t="s">
         <v>127</v>
       </c>
-      <c r="D68" s="224"/>
-      <c r="E68" s="224"/>
-      <c r="F68" s="225"/>
-      <c r="G68" s="82">
+      <c r="D68" s="226"/>
+      <c r="E68" s="226"/>
+      <c r="F68" s="227"/>
+      <c r="G68" s="84">
         <v>0.5</v>
       </c>
-      <c r="H68" s="241" t="s">
+      <c r="H68" s="243" t="s">
         <v>128</v>
       </c>
-      <c r="I68" s="242"/>
-    </row>
-    <row r="69" spans="2:9" ht="27.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I68" s="244"/>
+    </row>
+    <row r="69" spans="2:9" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B69" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C69" s="238"/>
-      <c r="D69" s="239"/>
-      <c r="E69" s="239"/>
-      <c r="F69" s="240"/>
-      <c r="G69" s="83"/>
-      <c r="H69" s="243"/>
-      <c r="I69" s="244"/>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C69" s="240"/>
+      <c r="D69" s="241"/>
+      <c r="E69" s="241"/>
+      <c r="F69" s="242"/>
+      <c r="G69" s="85"/>
+      <c r="H69" s="245"/>
+      <c r="I69" s="246"/>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C70" s="32"/>
       <c r="D70" s="32"/>
       <c r="E70" s="32"/>
@@ -5102,6 +5161,7 @@
     <mergeCell ref="C15:F15"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="C16:F16"/>
+    <mergeCell ref="H16:I16"/>
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="H17:I17"/>
     <mergeCell ref="C18:F21"/>
@@ -5112,7 +5172,6 @@
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H16:I16"/>
     <mergeCell ref="H29:I29"/>
     <mergeCell ref="C30:F30"/>
     <mergeCell ref="H30:I30"/>
@@ -5164,657 +5223,818 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D5800FB-BD05-4FC8-A7D1-22A28308449E}">
-  <dimension ref="B1:I47"/>
+  <dimension ref="B1:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.69921875" customWidth="1"/>
-    <col min="5" max="5" width="15.09765625" customWidth="1"/>
-    <col min="6" max="6" width="12.19921875" customWidth="1"/>
-    <col min="8" max="8" width="15.59765625" customWidth="1"/>
-    <col min="9" max="9" width="25.09765625" customWidth="1"/>
+    <col min="2" max="2" width="15.75" customWidth="1"/>
+    <col min="5" max="5" width="15.125" customWidth="1"/>
+    <col min="6" max="6" width="12.25" customWidth="1"/>
+    <col min="8" max="8" width="15.625" customWidth="1"/>
+    <col min="9" max="9" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="112" t="s">
+      <c r="C2" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
       <c r="G2" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="113" t="s">
+      <c r="H2" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="114"/>
-    </row>
-    <row r="3" spans="2:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I2" s="116"/>
+    </row>
+    <row r="3" spans="2:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="120" t="s">
+      <c r="C3" s="122" t="s">
         <v>131</v>
       </c>
-      <c r="D3" s="172"/>
-      <c r="E3" s="172"/>
-      <c r="F3" s="253"/>
-      <c r="G3" s="126">
+      <c r="D3" s="174"/>
+      <c r="E3" s="174"/>
+      <c r="F3" s="251"/>
+      <c r="G3" s="128">
         <v>0.5</v>
       </c>
-      <c r="H3" s="127" t="s">
+      <c r="H3" s="129" t="s">
         <v>135</v>
       </c>
-      <c r="I3" s="211"/>
-    </row>
-    <row r="4" spans="2:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I3" s="213"/>
+    </row>
+    <row r="4" spans="2:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="197"/>
-      <c r="D4" s="198"/>
-      <c r="E4" s="198"/>
-      <c r="F4" s="199"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="212"/>
-      <c r="I4" s="213"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C4" s="199"/>
+      <c r="D4" s="200"/>
+      <c r="E4" s="200"/>
+      <c r="F4" s="201"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="214"/>
+      <c r="I4" s="215"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="57"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="59"/>
       <c r="G5" s="46"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="95"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H5" s="96"/>
+      <c r="I5" s="97"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="90" t="s">
+      <c r="C6" s="92" t="s">
         <v>132</v>
       </c>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="111"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="113"/>
       <c r="G6" s="46">
         <v>0.5</v>
       </c>
-      <c r="H6" s="94" t="s">
+      <c r="H6" s="96" t="s">
         <v>136</v>
       </c>
-      <c r="I6" s="95"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I6" s="97"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="57" t="s">
         <v>133</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="57"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="59"/>
       <c r="G7" s="46"/>
-      <c r="H7" s="94"/>
-      <c r="I7" s="95"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H7" s="96"/>
+      <c r="I7" s="97"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="90" t="s">
+      <c r="C8" s="92" t="s">
         <v>133</v>
       </c>
-      <c r="D8" s="110"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="111"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="112"/>
+      <c r="F8" s="113"/>
       <c r="G8" s="46"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="95"/>
-    </row>
-    <row r="9" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H8" s="96"/>
+      <c r="I8" s="97"/>
+    </row>
+    <row r="9" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="254" t="s">
+      <c r="C9" s="252" t="s">
         <v>134</v>
       </c>
-      <c r="D9" s="255"/>
-      <c r="E9" s="255"/>
-      <c r="F9" s="256"/>
-      <c r="G9" s="67">
+      <c r="D9" s="253"/>
+      <c r="E9" s="253"/>
+      <c r="F9" s="254"/>
+      <c r="G9" s="69">
         <v>0.5</v>
       </c>
-      <c r="H9" s="84" t="s">
+      <c r="H9" s="86" t="s">
         <v>137</v>
       </c>
-      <c r="I9" s="133"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I9" s="135"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="257"/>
-      <c r="D10" s="258"/>
-      <c r="E10" s="258"/>
-      <c r="F10" s="259"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="263"/>
-      <c r="I10" s="264"/>
-    </row>
-    <row r="11" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C10" s="255"/>
+      <c r="D10" s="256"/>
+      <c r="E10" s="256"/>
+      <c r="F10" s="257"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="261"/>
+      <c r="I10" s="262"/>
+    </row>
+    <row r="11" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="260"/>
-      <c r="D11" s="261"/>
-      <c r="E11" s="261"/>
-      <c r="F11" s="262"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="134"/>
-      <c r="I11" s="135"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C11" s="258"/>
+      <c r="D11" s="259"/>
+      <c r="E11" s="259"/>
+      <c r="F11" s="260"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="136"/>
+      <c r="I11" s="137"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="121" t="s">
+      <c r="C12" s="123" t="s">
         <v>139</v>
       </c>
-      <c r="D12" s="121"/>
-      <c r="E12" s="121"/>
-      <c r="F12" s="121"/>
-      <c r="H12" s="121" t="s">
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
+      <c r="F12" s="123"/>
+      <c r="H12" s="123" t="s">
         <v>138</v>
       </c>
-      <c r="I12" s="121"/>
-    </row>
-    <row r="13" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="14" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I12" s="123"/>
+    </row>
+    <row r="13" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="C14" s="112" t="s">
+      <c r="C14" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="113"/>
-      <c r="E14" s="113"/>
-      <c r="F14" s="113"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="115"/>
       <c r="G14" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="113" t="s">
+      <c r="H14" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="114"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I14" s="116"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="115" t="s">
+      <c r="C15" s="117" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="116"/>
-      <c r="E15" s="116"/>
-      <c r="F15" s="117"/>
+      <c r="D15" s="118"/>
+      <c r="E15" s="118"/>
+      <c r="F15" s="119"/>
       <c r="G15" s="48"/>
-      <c r="H15" s="148"/>
-      <c r="I15" s="149"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H15" s="150"/>
+      <c r="I15" s="151"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="55" t="s">
+      <c r="C16" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="57"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="59"/>
       <c r="G16" s="48"/>
-      <c r="H16" s="91"/>
-      <c r="I16" s="92"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H16" s="93"/>
+      <c r="I16" s="94"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="55" t="s">
+      <c r="C17" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="57"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="59"/>
       <c r="G17" s="48"/>
-      <c r="H17" s="91"/>
-      <c r="I17" s="92"/>
-    </row>
-    <row r="18" spans="2:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H17" s="93"/>
+      <c r="I17" s="94"/>
+    </row>
+    <row r="18" spans="2:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="194" t="s">
+      <c r="C18" s="196" t="s">
         <v>141</v>
       </c>
-      <c r="D18" s="195"/>
-      <c r="E18" s="195"/>
-      <c r="F18" s="196"/>
-      <c r="G18" s="67">
+      <c r="D18" s="197"/>
+      <c r="E18" s="197"/>
+      <c r="F18" s="198"/>
+      <c r="G18" s="69">
         <v>0.5</v>
       </c>
-      <c r="H18" s="84" t="s">
+      <c r="H18" s="86" t="s">
         <v>143</v>
       </c>
-      <c r="I18" s="133"/>
-    </row>
-    <row r="19" spans="2:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I18" s="135"/>
+    </row>
+    <row r="19" spans="2:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="197"/>
-      <c r="D19" s="198"/>
-      <c r="E19" s="198"/>
-      <c r="F19" s="199"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="212"/>
-      <c r="I19" s="213"/>
-    </row>
-    <row r="20" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C19" s="199"/>
+      <c r="D19" s="200"/>
+      <c r="E19" s="200"/>
+      <c r="F19" s="201"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="214"/>
+      <c r="I19" s="215"/>
+    </row>
+    <row r="20" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="150" t="s">
+      <c r="C20" s="152" t="s">
         <v>142</v>
       </c>
-      <c r="D20" s="151"/>
-      <c r="E20" s="151"/>
-      <c r="F20" s="151"/>
-      <c r="G20" s="184">
+      <c r="D20" s="153"/>
+      <c r="E20" s="153"/>
+      <c r="F20" s="153"/>
+      <c r="G20" s="186">
         <v>1</v>
       </c>
-      <c r="H20" s="155"/>
-      <c r="I20" s="185"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H20" s="157"/>
+      <c r="I20" s="187"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="150"/>
-      <c r="D21" s="151"/>
-      <c r="E21" s="151"/>
-      <c r="F21" s="151"/>
-      <c r="G21" s="184"/>
-      <c r="H21" s="155"/>
-      <c r="I21" s="185"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C21" s="152"/>
+      <c r="D21" s="153"/>
+      <c r="E21" s="153"/>
+      <c r="F21" s="153"/>
+      <c r="G21" s="186"/>
+      <c r="H21" s="157"/>
+      <c r="I21" s="187"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="150"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="151"/>
-      <c r="G22" s="184"/>
-      <c r="H22" s="155"/>
-      <c r="I22" s="185"/>
-    </row>
-    <row r="23" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C22" s="152"/>
+      <c r="D22" s="153"/>
+      <c r="E22" s="153"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="186"/>
+      <c r="H22" s="157"/>
+      <c r="I22" s="187"/>
+    </row>
+    <row r="23" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="265" t="s">
+      <c r="C23" s="263" t="s">
         <v>144</v>
       </c>
-      <c r="D23" s="266"/>
-      <c r="E23" s="266"/>
-      <c r="F23" s="266"/>
+      <c r="D23" s="264"/>
+      <c r="E23" s="264"/>
+      <c r="F23" s="264"/>
       <c r="G23" s="51">
         <v>0.5</v>
       </c>
-      <c r="H23" s="189" t="s">
+      <c r="H23" s="191" t="s">
         <v>145</v>
       </c>
-      <c r="I23" s="190"/>
-    </row>
-    <row r="24" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="25" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I23" s="192"/>
+    </row>
+    <row r="24" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="C25" s="112" t="s">
+      <c r="C25" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="113"/>
-      <c r="E25" s="113"/>
-      <c r="F25" s="113"/>
+      <c r="D25" s="115"/>
+      <c r="E25" s="115"/>
+      <c r="F25" s="115"/>
       <c r="G25" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="H25" s="113" t="s">
+      <c r="H25" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="I25" s="114"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I25" s="116"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="192" t="s">
+      <c r="C26" s="194" t="s">
         <v>144</v>
       </c>
-      <c r="D26" s="121"/>
-      <c r="E26" s="121"/>
-      <c r="F26" s="122"/>
-      <c r="G26" s="126">
+      <c r="D26" s="123"/>
+      <c r="E26" s="123"/>
+      <c r="F26" s="124"/>
+      <c r="G26" s="128">
         <v>0.6</v>
       </c>
-      <c r="H26" s="193" t="s">
+      <c r="H26" s="195" t="s">
         <v>150</v>
       </c>
-      <c r="I26" s="128"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I26" s="130"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="123"/>
-      <c r="D27" s="124"/>
-      <c r="E27" s="124"/>
-      <c r="F27" s="125"/>
-      <c r="G27" s="68"/>
-      <c r="H27" s="129"/>
-      <c r="I27" s="130"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C27" s="125"/>
+      <c r="D27" s="126"/>
+      <c r="E27" s="126"/>
+      <c r="F27" s="127"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="131"/>
+      <c r="I27" s="132"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="55" t="s">
+      <c r="C28" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="57"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="59"/>
       <c r="G28" s="49"/>
-      <c r="H28" s="131"/>
-      <c r="I28" s="132"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H28" s="133"/>
+      <c r="I28" s="134"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="90" t="s">
+      <c r="C29" s="92" t="s">
         <v>147</v>
       </c>
-      <c r="D29" s="110"/>
-      <c r="E29" s="110"/>
-      <c r="F29" s="111"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="112"/>
+      <c r="F29" s="113"/>
       <c r="G29" s="49">
         <v>1</v>
       </c>
-      <c r="H29" s="131"/>
-      <c r="I29" s="132"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H29" s="133"/>
+      <c r="I29" s="134"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="194" t="s">
+      <c r="C30" s="196" t="s">
         <v>148</v>
       </c>
-      <c r="D30" s="195"/>
-      <c r="E30" s="195"/>
-      <c r="F30" s="196"/>
-      <c r="G30" s="67">
+      <c r="D30" s="197"/>
+      <c r="E30" s="197"/>
+      <c r="F30" s="198"/>
+      <c r="G30" s="69">
         <v>0.8</v>
       </c>
-      <c r="H30" s="84" t="s">
+      <c r="H30" s="86" t="s">
         <v>151</v>
       </c>
-      <c r="I30" s="85"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I30" s="87"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="228"/>
-      <c r="D31" s="229"/>
-      <c r="E31" s="229"/>
-      <c r="F31" s="230"/>
-      <c r="G31" s="82"/>
-      <c r="H31" s="86"/>
-      <c r="I31" s="87"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C31" s="230"/>
+      <c r="D31" s="231"/>
+      <c r="E31" s="231"/>
+      <c r="F31" s="232"/>
+      <c r="G31" s="84"/>
+      <c r="H31" s="88"/>
+      <c r="I31" s="89"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="197"/>
-      <c r="D32" s="198"/>
-      <c r="E32" s="198"/>
-      <c r="F32" s="199"/>
-      <c r="G32" s="68"/>
-      <c r="H32" s="129"/>
-      <c r="I32" s="130"/>
-    </row>
-    <row r="33" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C32" s="199"/>
+      <c r="D32" s="200"/>
+      <c r="E32" s="200"/>
+      <c r="F32" s="201"/>
+      <c r="G32" s="70"/>
+      <c r="H32" s="131"/>
+      <c r="I32" s="132"/>
+    </row>
+    <row r="33" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="194" t="s">
+      <c r="C33" s="196" t="s">
         <v>149</v>
       </c>
-      <c r="D33" s="195"/>
-      <c r="E33" s="195"/>
-      <c r="F33" s="196"/>
-      <c r="G33" s="67">
+      <c r="D33" s="197"/>
+      <c r="E33" s="197"/>
+      <c r="F33" s="198"/>
+      <c r="G33" s="69">
         <v>1</v>
       </c>
-      <c r="H33" s="249"/>
-      <c r="I33" s="250"/>
-    </row>
-    <row r="34" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H33" s="265"/>
+      <c r="I33" s="266"/>
+    </row>
+    <row r="34" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="231"/>
-      <c r="D34" s="232"/>
-      <c r="E34" s="232"/>
-      <c r="F34" s="233"/>
-      <c r="G34" s="83"/>
-      <c r="H34" s="251"/>
-      <c r="I34" s="252"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C34" s="233"/>
+      <c r="D34" s="234"/>
+      <c r="E34" s="234"/>
+      <c r="F34" s="235"/>
+      <c r="G34" s="85"/>
+      <c r="H34" s="267"/>
+      <c r="I34" s="268"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="121" t="s">
+      <c r="C35" s="123" t="s">
         <v>153</v>
       </c>
-      <c r="D35" s="121"/>
-      <c r="E35" s="121"/>
-      <c r="F35" s="121"/>
+      <c r="D35" s="123"/>
+      <c r="E35" s="123"/>
+      <c r="F35" s="123"/>
       <c r="G35" s="44"/>
-      <c r="H35" s="173" t="s">
+      <c r="H35" s="175" t="s">
         <v>88</v>
       </c>
-      <c r="I35" s="173"/>
-    </row>
-    <row r="36" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="37" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I35" s="175"/>
+    </row>
+    <row r="36" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="37" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="C37" s="112" t="s">
+      <c r="C37" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="D37" s="113"/>
-      <c r="E37" s="113"/>
-      <c r="F37" s="113"/>
+      <c r="D37" s="115"/>
+      <c r="E37" s="115"/>
+      <c r="F37" s="115"/>
       <c r="G37" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="H37" s="113" t="s">
+      <c r="H37" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="I37" s="114"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I37" s="116"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="192" t="s">
+      <c r="C38" s="194" t="s">
         <v>154</v>
       </c>
-      <c r="D38" s="121"/>
-      <c r="E38" s="121"/>
-      <c r="F38" s="122"/>
-      <c r="G38" s="126"/>
-      <c r="H38" s="267"/>
-      <c r="I38" s="268"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D38" s="123"/>
+      <c r="E38" s="123"/>
+      <c r="F38" s="124"/>
+      <c r="G38" s="128">
+        <v>0.8</v>
+      </c>
+      <c r="H38" s="195"/>
+      <c r="I38" s="130"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="123"/>
-      <c r="D39" s="124"/>
-      <c r="E39" s="124"/>
-      <c r="F39" s="125"/>
-      <c r="G39" s="68"/>
-      <c r="H39" s="71"/>
-      <c r="I39" s="72"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C39" s="125"/>
+      <c r="D39" s="126"/>
+      <c r="E39" s="126"/>
+      <c r="F39" s="127"/>
+      <c r="G39" s="70"/>
+      <c r="H39" s="131"/>
+      <c r="I39" s="132"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="55" t="s">
+      <c r="C40" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="56"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="57"/>
+      <c r="D40" s="58"/>
+      <c r="E40" s="58"/>
+      <c r="F40" s="59"/>
       <c r="G40" s="53"/>
-      <c r="H40" s="91"/>
-      <c r="I40" s="92"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H40" s="96"/>
+      <c r="I40" s="97"/>
+    </row>
+    <row r="41" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="194" t="s">
+      <c r="C41" s="196" t="s">
         <v>154</v>
       </c>
-      <c r="D41" s="195"/>
-      <c r="E41" s="195"/>
-      <c r="F41" s="196"/>
-      <c r="G41" s="67"/>
-      <c r="H41" s="69"/>
-      <c r="I41" s="70"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D41" s="197"/>
+      <c r="E41" s="197"/>
+      <c r="F41" s="198"/>
+      <c r="G41" s="69">
+        <v>0.8</v>
+      </c>
+      <c r="H41" s="86" t="s">
+        <v>157</v>
+      </c>
+      <c r="I41" s="87"/>
+    </row>
+    <row r="42" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C42" s="197"/>
-      <c r="D42" s="198"/>
-      <c r="E42" s="198"/>
-      <c r="F42" s="199"/>
-      <c r="G42" s="68"/>
-      <c r="H42" s="71"/>
-      <c r="I42" s="72"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C42" s="199"/>
+      <c r="D42" s="200"/>
+      <c r="E42" s="200"/>
+      <c r="F42" s="201"/>
+      <c r="G42" s="70"/>
+      <c r="H42" s="131"/>
+      <c r="I42" s="132"/>
+    </row>
+    <row r="43" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C43" s="194" t="s">
+      <c r="C43" s="196" t="s">
         <v>155</v>
       </c>
-      <c r="D43" s="195"/>
-      <c r="E43" s="195"/>
-      <c r="F43" s="196"/>
-      <c r="G43" s="67"/>
-      <c r="H43" s="69"/>
-      <c r="I43" s="70"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D43" s="197"/>
+      <c r="E43" s="197"/>
+      <c r="F43" s="198"/>
+      <c r="G43" s="69">
+        <v>0.7</v>
+      </c>
+      <c r="H43" s="86" t="s">
+        <v>158</v>
+      </c>
+      <c r="I43" s="87"/>
+    </row>
+    <row r="44" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C44" s="197"/>
-      <c r="D44" s="198"/>
-      <c r="E44" s="198"/>
-      <c r="F44" s="199"/>
-      <c r="G44" s="68"/>
-      <c r="H44" s="71"/>
-      <c r="I44" s="72"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C44" s="199"/>
+      <c r="D44" s="200"/>
+      <c r="E44" s="200"/>
+      <c r="F44" s="201"/>
+      <c r="G44" s="70"/>
+      <c r="H44" s="131"/>
+      <c r="I44" s="132"/>
+    </row>
+    <row r="45" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="194" t="s">
+      <c r="C45" s="196" t="s">
         <v>156</v>
       </c>
-      <c r="D45" s="195"/>
-      <c r="E45" s="195"/>
-      <c r="F45" s="196"/>
-      <c r="G45" s="67"/>
-      <c r="H45" s="249"/>
-      <c r="I45" s="250"/>
-    </row>
-    <row r="46" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D45" s="197"/>
+      <c r="E45" s="197"/>
+      <c r="F45" s="198"/>
+      <c r="G45" s="69">
+        <v>0.5</v>
+      </c>
+      <c r="H45" s="86" t="s">
+        <v>159</v>
+      </c>
+      <c r="I45" s="87"/>
+    </row>
+    <row r="46" spans="2:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B46" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="231"/>
-      <c r="D46" s="232"/>
-      <c r="E46" s="232"/>
-      <c r="F46" s="233"/>
-      <c r="G46" s="83"/>
-      <c r="H46" s="251"/>
-      <c r="I46" s="252"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="32"/>
+      <c r="C46" s="233"/>
+      <c r="D46" s="234"/>
+      <c r="E46" s="234"/>
+      <c r="F46" s="235"/>
+      <c r="G46" s="85"/>
+      <c r="H46" s="90"/>
+      <c r="I46" s="91"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B47" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="C47" s="123" t="s">
+        <v>162</v>
+      </c>
+      <c r="D47" s="123"/>
+      <c r="E47" s="123"/>
+      <c r="F47" s="123"/>
+      <c r="G47" s="44"/>
+      <c r="H47" s="56" t="s">
+        <v>161</v>
+      </c>
+      <c r="I47" s="56"/>
+    </row>
+    <row r="48" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="49" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="C49" s="114" t="s">
+        <v>23</v>
+      </c>
+      <c r="D49" s="115"/>
+      <c r="E49" s="115"/>
+      <c r="F49" s="115"/>
+      <c r="G49" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="H49" s="115" t="s">
+        <v>24</v>
+      </c>
+      <c r="I49" s="116"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B50" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="194" t="s">
+        <v>164</v>
+      </c>
+      <c r="D50" s="123"/>
+      <c r="E50" s="123"/>
+      <c r="F50" s="124"/>
+      <c r="G50" s="128"/>
+      <c r="H50" s="269"/>
+      <c r="I50" s="270"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B51" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="125"/>
+      <c r="D51" s="126"/>
+      <c r="E51" s="126"/>
+      <c r="F51" s="127"/>
+      <c r="G51" s="70"/>
+      <c r="H51" s="73"/>
+      <c r="I51" s="74"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B52" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="D52" s="58"/>
+      <c r="E52" s="58"/>
+      <c r="F52" s="59"/>
+      <c r="G52" s="55"/>
+      <c r="H52" s="93"/>
+      <c r="I52" s="94"/>
+    </row>
+    <row r="53" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="196" t="s">
+        <v>165</v>
+      </c>
+      <c r="D53" s="197"/>
+      <c r="E53" s="197"/>
+      <c r="F53" s="198"/>
+      <c r="G53" s="69"/>
+      <c r="H53" s="176"/>
+      <c r="I53" s="177"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B54" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="230"/>
+      <c r="D54" s="231"/>
+      <c r="E54" s="231"/>
+      <c r="F54" s="232"/>
+      <c r="G54" s="84"/>
+      <c r="H54" s="271"/>
+      <c r="I54" s="272"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B55" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="199"/>
+      <c r="D55" s="200"/>
+      <c r="E55" s="200"/>
+      <c r="F55" s="201"/>
+      <c r="G55" s="70"/>
+      <c r="H55" s="178"/>
+      <c r="I55" s="179"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B56" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" s="196" t="s">
+        <v>166</v>
+      </c>
+      <c r="D56" s="197"/>
+      <c r="E56" s="197"/>
+      <c r="F56" s="198"/>
+      <c r="G56" s="69"/>
+      <c r="H56" s="86"/>
+      <c r="I56" s="135"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B57" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" s="230"/>
+      <c r="D57" s="231"/>
+      <c r="E57" s="231"/>
+      <c r="F57" s="232"/>
+      <c r="G57" s="84"/>
+      <c r="H57" s="261"/>
+      <c r="I57" s="262"/>
+    </row>
+    <row r="58" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" s="233"/>
+      <c r="D58" s="234"/>
+      <c r="E58" s="234"/>
+      <c r="F58" s="235"/>
+      <c r="G58" s="85"/>
+      <c r="H58" s="136"/>
+      <c r="I58" s="137"/>
     </row>
   </sheetData>
-  <mergeCells count="67">
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H45:I46"/>
-    <mergeCell ref="C45:F46"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="C38:F39"/>
-    <mergeCell ref="C41:F42"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H38:I39"/>
-    <mergeCell ref="H41:I42"/>
+  <mergeCells count="82">
+    <mergeCell ref="C50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:I51"/>
+    <mergeCell ref="C53:F55"/>
+    <mergeCell ref="G53:G55"/>
+    <mergeCell ref="H53:I55"/>
+    <mergeCell ref="C56:F58"/>
+    <mergeCell ref="G56:G58"/>
+    <mergeCell ref="H56:I58"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="H49:I49"/>
     <mergeCell ref="C43:F44"/>
     <mergeCell ref="G43:G44"/>
     <mergeCell ref="H43:I44"/>
@@ -5830,8 +6050,12 @@
     <mergeCell ref="C20:F22"/>
     <mergeCell ref="G20:G22"/>
     <mergeCell ref="H20:I22"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:I34"/>
+    <mergeCell ref="C28:F28"/>
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="C17:F17"/>
@@ -5842,8 +6066,6 @@
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="C15:F15"/>
     <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="H25:I25"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="C12:F12"/>
@@ -5858,10 +6080,8 @@
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="H5:I5"/>
-    <mergeCell ref="C33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="H33:I34"/>
-    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="H6:I6"/>
     <mergeCell ref="H28:I28"/>
     <mergeCell ref="C29:F29"/>
     <mergeCell ref="H29:I29"/>
@@ -5871,6 +6091,19 @@
     <mergeCell ref="C30:F32"/>
     <mergeCell ref="G30:G32"/>
     <mergeCell ref="H30:I32"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="H45:I46"/>
+    <mergeCell ref="C45:F46"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="C38:F39"/>
+    <mergeCell ref="C41:F42"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H38:I39"/>
+    <mergeCell ref="H41:I42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5886,7 +6119,7 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5901,7 +6134,7 @@
       <selection activeCell="F35" sqref="F35:F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5914,7 +6147,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5927,7 +6160,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5940,7 +6173,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5955,7 +6188,7 @@
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/졸작 진행 계획 시간표.xlsx
+++ b/졸작 진행 계획 시간표.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2020 졸작 깃\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9608442-9AEC-4681-BF1F-811188BA93A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA44D4EC-CF1B-436C-B862-2D124297418D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5220" yWindow="1290" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{E0805F39-A49F-47F5-8E79-FFCEB62D9AEC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{E0805F39-A49F-47F5-8E79-FFCEB62D9AEC}"/>
   </bookViews>
   <sheets>
     <sheet name="5월 4주차" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="183">
   <si>
     <t>월</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -773,8 +773,81 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Controller의 Aim 관련 Rotation 변경 후 사격 함수 
-조정</t>
+    <t>동기화 방식 변경 중 GetBaseAim()의 결과값이 각각의 
+클라이언트에서 다르게 나오는것을 확인하여 수정 작업 진행함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetBaseAim()의 결과값이 클라이언트마다 다르게 
+나오는것 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라이언트마다 플레이어의 GetBaseAim()함수 결과값이 
+다르게 나타나는 것에 대해 연관된 함수들을 디버깅 하고 
+구글링하며 수정을 시도 하였으나 시간내에 달성하지 못함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020. 06. 13. 토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetBaseAim()의 결과값이 클라이언트마다 다르게 
+나오는것 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오전에 알람을 못듣고 자버림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>본인이 직접 플레이 했을 때 카메라의 Rotation값과 이를 
+다른 플레이어의 클라이언트에서 이 캐릭터의 카메라 
+Rotation 값이 다르게 나오는 것을 확인하고 수정작업을 
+해보았으나 시간내에 못함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerPawn에 붙어있는 카메라의 Rotation 값을 
+각각의 클라이언트에서 일치시키기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pawn에 빙의된 컨트롤러의 ControlRotation을 활용하여 
+값을 일치시키려 했으나 값이 변화되지 않음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">19:00 ~        </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ControlRotation을 활용하여 액터의 ViewPoint 값 동기화시키기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020. 06. 15. 월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점심시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어들의 viewpoint 일치시키기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetBaseAim() 결과값 동기화시키기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1580,7 +1653,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="273">
+  <cellXfs count="294">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1749,17 +1822,236 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1770,119 +2062,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1908,217 +2146,196 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2127,212 +2344,131 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2370,35 +2506,35 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2716,8 +2852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA488195-4E58-4ADC-87D5-0E438CC6628E}">
   <dimension ref="B3:O95"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2775,10 +2911,10 @@
       <c r="G5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="142" t="s">
+      <c r="H5" s="125" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="143"/>
+      <c r="I5" s="126"/>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
@@ -2800,23 +2936,23 @@
       <c r="G6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="144"/>
-      <c r="I6" s="145"/>
+      <c r="H6" s="127"/>
+      <c r="I6" s="128"/>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="148" t="s">
+      <c r="C7" s="131" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="149"/>
-      <c r="H7" s="144"/>
-      <c r="I7" s="145"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="132"/>
+      <c r="H7" s="127"/>
+      <c r="I7" s="128"/>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2838,8 +2974,8 @@
       <c r="G8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="144"/>
-      <c r="I8" s="145"/>
+      <c r="H8" s="127"/>
+      <c r="I8" s="128"/>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
@@ -2861,8 +2997,8 @@
       <c r="G9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="144"/>
-      <c r="I9" s="145"/>
+      <c r="H9" s="127"/>
+      <c r="I9" s="128"/>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
@@ -2884,8 +3020,8 @@
       <c r="G10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="144"/>
-      <c r="I10" s="145"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
@@ -2907,8 +3043,8 @@
       <c r="G11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="144"/>
-      <c r="I11" s="145"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
@@ -2930,8 +3066,8 @@
       <c r="G12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="144"/>
-      <c r="I12" s="145"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2953,8 +3089,8 @@
       <c r="G13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="146"/>
-      <c r="I13" s="147"/>
+      <c r="H13" s="129"/>
+      <c r="I13" s="130"/>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
@@ -2996,481 +3132,481 @@
       <c r="B17" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="114" t="s">
+      <c r="C17" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="115"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="115"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
       <c r="G17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="115" t="s">
+      <c r="H17" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="I17" s="116"/>
+      <c r="I17" s="74"/>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="117" t="s">
+      <c r="C18" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="118"/>
-      <c r="E18" s="118"/>
-      <c r="F18" s="119"/>
+      <c r="D18" s="109"/>
+      <c r="E18" s="109"/>
+      <c r="F18" s="110"/>
       <c r="G18" s="16">
         <v>1</v>
       </c>
-      <c r="H18" s="150"/>
-      <c r="I18" s="151"/>
+      <c r="H18" s="113"/>
+      <c r="I18" s="114"/>
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="57" t="s">
+      <c r="C19" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="59"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="62"/>
       <c r="G19" s="16">
         <v>1</v>
       </c>
-      <c r="H19" s="93"/>
-      <c r="I19" s="94"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="66"/>
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="57" t="s">
+      <c r="C20" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="59"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="62"/>
       <c r="G20" s="16"/>
-      <c r="H20" s="93"/>
-      <c r="I20" s="94"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="66"/>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="92" t="s">
+      <c r="C21" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="59"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="62"/>
       <c r="G21" s="16">
         <v>1</v>
       </c>
-      <c r="H21" s="93"/>
-      <c r="I21" s="94"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="66"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="57" t="s">
+      <c r="C22" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="59"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="62"/>
       <c r="G22" s="16"/>
-      <c r="H22" s="93"/>
-      <c r="I22" s="94"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="66"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="57" t="s">
+      <c r="C23" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="59"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="62"/>
       <c r="G23" s="16"/>
-      <c r="H23" s="93"/>
-      <c r="I23" s="94"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="66"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="57" t="s">
+      <c r="C24" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="59"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="62"/>
       <c r="G24" s="16">
         <v>1</v>
       </c>
-      <c r="H24" s="93"/>
-      <c r="I24" s="94"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="66"/>
     </row>
     <row r="25" spans="2:10" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="57" t="s">
+      <c r="C25" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="59"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="62"/>
       <c r="G25" s="16">
         <v>0.8</v>
       </c>
-      <c r="H25" s="140" t="s">
+      <c r="H25" s="138" t="s">
         <v>38</v>
       </c>
-      <c r="I25" s="141"/>
+      <c r="I25" s="139"/>
     </row>
     <row r="26" spans="2:10" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="60" t="s">
+      <c r="C26" s="133" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="62"/>
+      <c r="D26" s="134"/>
+      <c r="E26" s="134"/>
+      <c r="F26" s="135"/>
       <c r="G26" s="17">
         <v>1</v>
       </c>
-      <c r="H26" s="138"/>
-      <c r="I26" s="139"/>
+      <c r="H26" s="136"/>
+      <c r="I26" s="137"/>
     </row>
     <row r="27" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="28" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="114" t="s">
+      <c r="C28" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="115"/>
-      <c r="E28" s="115"/>
-      <c r="F28" s="115"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
       <c r="G28" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H28" s="115" t="s">
+      <c r="H28" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="I28" s="116"/>
+      <c r="I28" s="74"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="117" t="s">
+      <c r="C29" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="118"/>
-      <c r="E29" s="118"/>
-      <c r="F29" s="119"/>
+      <c r="D29" s="109"/>
+      <c r="E29" s="109"/>
+      <c r="F29" s="110"/>
       <c r="G29" s="16"/>
-      <c r="H29" s="120"/>
-      <c r="I29" s="121"/>
+      <c r="H29" s="140"/>
+      <c r="I29" s="141"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="57" t="s">
+      <c r="C30" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="59"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="62"/>
       <c r="G30" s="16"/>
-      <c r="H30" s="133"/>
-      <c r="I30" s="134"/>
+      <c r="H30" s="121"/>
+      <c r="I30" s="122"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="57" t="s">
+      <c r="C31" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="59"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="62"/>
       <c r="G31" s="16"/>
-      <c r="H31" s="133"/>
-      <c r="I31" s="134"/>
+      <c r="H31" s="121"/>
+      <c r="I31" s="122"/>
     </row>
     <row r="32" spans="2:10" ht="80.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="92" t="s">
+      <c r="C32" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="58"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="59"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="62"/>
       <c r="G32" s="16">
         <v>0.5</v>
       </c>
-      <c r="H32" s="109" t="s">
+      <c r="H32" s="151" t="s">
         <v>40</v>
       </c>
-      <c r="I32" s="97"/>
+      <c r="I32" s="124"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="57" t="s">
+      <c r="C33" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="58"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="59"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="62"/>
       <c r="G33" s="16">
         <v>1</v>
       </c>
-      <c r="H33" s="133"/>
-      <c r="I33" s="134"/>
+      <c r="H33" s="121"/>
+      <c r="I33" s="122"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="57" t="s">
+      <c r="C34" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="58"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="59"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="62"/>
       <c r="G34" s="16">
         <v>1</v>
       </c>
-      <c r="H34" s="133"/>
-      <c r="I34" s="134"/>
+      <c r="H34" s="121"/>
+      <c r="I34" s="122"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B35" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="57" t="s">
+      <c r="C35" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="D35" s="58"/>
-      <c r="E35" s="58"/>
-      <c r="F35" s="59"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="62"/>
       <c r="G35" s="16">
         <v>1</v>
       </c>
-      <c r="H35" s="133"/>
-      <c r="I35" s="134"/>
+      <c r="H35" s="121"/>
+      <c r="I35" s="122"/>
     </row>
     <row r="36" spans="2:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="57" t="s">
+      <c r="C36" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="D36" s="58"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="59"/>
-      <c r="G36" s="69">
+      <c r="D36" s="61"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="99">
         <v>0.5</v>
       </c>
-      <c r="H36" s="86" t="s">
+      <c r="H36" s="102" t="s">
         <v>41</v>
       </c>
-      <c r="I36" s="135"/>
+      <c r="I36" s="152"/>
     </row>
     <row r="37" spans="2:10" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="60" t="s">
+      <c r="C37" s="133" t="s">
         <v>36</v>
       </c>
-      <c r="D37" s="61"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="85"/>
-      <c r="H37" s="136"/>
-      <c r="I37" s="137"/>
+      <c r="D37" s="134"/>
+      <c r="E37" s="134"/>
+      <c r="F37" s="135"/>
+      <c r="G37" s="101"/>
+      <c r="H37" s="153"/>
+      <c r="I37" s="154"/>
     </row>
     <row r="38" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="39" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C39" s="114" t="s">
+      <c r="C39" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="115"/>
-      <c r="E39" s="115"/>
-      <c r="F39" s="115"/>
+      <c r="D39" s="73"/>
+      <c r="E39" s="73"/>
+      <c r="F39" s="73"/>
       <c r="G39" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="H39" s="115" t="s">
+      <c r="H39" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="I39" s="116"/>
+      <c r="I39" s="74"/>
     </row>
     <row r="40" spans="2:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="122" t="s">
+      <c r="C40" s="142" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="123"/>
-      <c r="E40" s="123"/>
-      <c r="F40" s="124"/>
-      <c r="G40" s="128">
+      <c r="D40" s="70"/>
+      <c r="E40" s="70"/>
+      <c r="F40" s="143"/>
+      <c r="G40" s="81">
         <v>0.3</v>
       </c>
-      <c r="H40" s="129" t="s">
+      <c r="H40" s="147" t="s">
         <v>46</v>
       </c>
-      <c r="I40" s="130"/>
+      <c r="I40" s="148"/>
     </row>
     <row r="41" spans="2:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C41" s="125"/>
-      <c r="D41" s="126"/>
-      <c r="E41" s="126"/>
-      <c r="F41" s="127"/>
-      <c r="G41" s="70"/>
-      <c r="H41" s="131"/>
-      <c r="I41" s="132"/>
+      <c r="C41" s="144"/>
+      <c r="D41" s="145"/>
+      <c r="E41" s="145"/>
+      <c r="F41" s="146"/>
+      <c r="G41" s="82"/>
+      <c r="H41" s="149"/>
+      <c r="I41" s="150"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B42" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="57" t="s">
+      <c r="C42" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="D42" s="58"/>
-      <c r="E42" s="58"/>
-      <c r="F42" s="59"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="62"/>
       <c r="G42" s="16"/>
-      <c r="H42" s="96"/>
-      <c r="I42" s="97"/>
+      <c r="H42" s="123"/>
+      <c r="I42" s="124"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B43" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="92" t="s">
+      <c r="C43" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="D43" s="58"/>
-      <c r="E43" s="58"/>
-      <c r="F43" s="59"/>
+      <c r="D43" s="61"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="62"/>
       <c r="G43" s="20">
         <v>1</v>
       </c>
-      <c r="H43" s="96"/>
-      <c r="I43" s="97"/>
+      <c r="H43" s="123"/>
+      <c r="I43" s="124"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C44" s="92" t="s">
+      <c r="C44" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="D44" s="58"/>
-      <c r="E44" s="58"/>
-      <c r="F44" s="59"/>
+      <c r="D44" s="61"/>
+      <c r="E44" s="61"/>
+      <c r="F44" s="62"/>
       <c r="G44" s="20">
         <v>1</v>
       </c>
-      <c r="H44" s="96"/>
-      <c r="I44" s="97"/>
+      <c r="H44" s="123"/>
+      <c r="I44" s="124"/>
     </row>
     <row r="45" spans="2:10" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C45" s="152" t="s">
+      <c r="C45" s="115" t="s">
         <v>47</v>
       </c>
-      <c r="D45" s="153"/>
-      <c r="E45" s="153"/>
-      <c r="F45" s="153"/>
+      <c r="D45" s="116"/>
+      <c r="E45" s="116"/>
+      <c r="F45" s="116"/>
       <c r="G45" s="22"/>
-      <c r="H45" s="154"/>
-      <c r="I45" s="155"/>
+      <c r="H45" s="117"/>
+      <c r="I45" s="118"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B46" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C46" s="156" t="s">
+      <c r="C46" s="119" t="s">
         <v>51</v>
       </c>
-      <c r="D46" s="157"/>
-      <c r="E46" s="157"/>
-      <c r="F46" s="157"/>
+      <c r="D46" s="120"/>
+      <c r="E46" s="120"/>
+      <c r="F46" s="120"/>
       <c r="G46" s="22">
         <v>1</v>
       </c>
-      <c r="H46" s="133"/>
-      <c r="I46" s="134"/>
+      <c r="H46" s="121"/>
+      <c r="I46" s="122"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="57" t="s">
+      <c r="C47" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="D47" s="58"/>
-      <c r="E47" s="58"/>
-      <c r="F47" s="59"/>
+      <c r="D47" s="61"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="62"/>
       <c r="G47" s="21">
         <v>1</v>
       </c>
-      <c r="H47" s="109"/>
-      <c r="I47" s="110"/>
+      <c r="H47" s="151"/>
+      <c r="I47" s="164"/>
     </row>
     <row r="48" spans="2:10" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B48" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="60" t="s">
+      <c r="C48" s="133" t="s">
         <v>49</v>
       </c>
-      <c r="D48" s="61"/>
-      <c r="E48" s="61"/>
-      <c r="F48" s="62"/>
+      <c r="D48" s="134"/>
+      <c r="E48" s="134"/>
+      <c r="F48" s="135"/>
       <c r="G48" s="17">
         <v>0.8</v>
       </c>
-      <c r="H48" s="107" t="s">
+      <c r="H48" s="162" t="s">
         <v>50</v>
       </c>
-      <c r="I48" s="111"/>
+      <c r="I48" s="165"/>
       <c r="J48" s="25" t="s">
         <v>57</v>
       </c>
@@ -3480,353 +3616,353 @@
       <c r="B50" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C50" s="114" t="s">
+      <c r="C50" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="D50" s="115"/>
-      <c r="E50" s="115"/>
-      <c r="F50" s="115"/>
+      <c r="D50" s="73"/>
+      <c r="E50" s="73"/>
+      <c r="F50" s="73"/>
       <c r="G50" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H50" s="115" t="s">
+      <c r="H50" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="I50" s="116"/>
+      <c r="I50" s="74"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C51" s="117" t="s">
+      <c r="C51" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="D51" s="118"/>
-      <c r="E51" s="118"/>
-      <c r="F51" s="119"/>
+      <c r="D51" s="109"/>
+      <c r="E51" s="109"/>
+      <c r="F51" s="110"/>
       <c r="G51" s="20">
         <v>1</v>
       </c>
-      <c r="H51" s="150"/>
-      <c r="I51" s="151"/>
+      <c r="H51" s="113"/>
+      <c r="I51" s="114"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C52" s="57" t="s">
+      <c r="C52" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="D52" s="58"/>
-      <c r="E52" s="58"/>
-      <c r="F52" s="59"/>
+      <c r="D52" s="61"/>
+      <c r="E52" s="61"/>
+      <c r="F52" s="62"/>
       <c r="G52" s="20">
         <v>1</v>
       </c>
-      <c r="H52" s="93"/>
-      <c r="I52" s="94"/>
+      <c r="H52" s="65"/>
+      <c r="I52" s="66"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C53" s="57" t="s">
+      <c r="C53" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="D53" s="58"/>
-      <c r="E53" s="58"/>
-      <c r="F53" s="59"/>
+      <c r="D53" s="61"/>
+      <c r="E53" s="61"/>
+      <c r="F53" s="62"/>
       <c r="G53" s="20"/>
-      <c r="H53" s="93"/>
-      <c r="I53" s="94"/>
+      <c r="H53" s="65"/>
+      <c r="I53" s="66"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C54" s="92" t="s">
+      <c r="C54" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="D54" s="112"/>
-      <c r="E54" s="112"/>
-      <c r="F54" s="113"/>
+      <c r="D54" s="88"/>
+      <c r="E54" s="88"/>
+      <c r="F54" s="89"/>
       <c r="G54" s="20">
         <v>1</v>
       </c>
-      <c r="H54" s="93"/>
-      <c r="I54" s="94"/>
+      <c r="H54" s="65"/>
+      <c r="I54" s="66"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C55" s="57" t="s">
+      <c r="C55" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="D55" s="58"/>
-      <c r="E55" s="58"/>
-      <c r="F55" s="59"/>
+      <c r="D55" s="61"/>
+      <c r="E55" s="61"/>
+      <c r="F55" s="62"/>
       <c r="G55" s="20">
         <v>1</v>
       </c>
-      <c r="H55" s="93"/>
-      <c r="I55" s="94"/>
+      <c r="H55" s="65"/>
+      <c r="I55" s="66"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C56" s="92" t="s">
+      <c r="C56" s="87" t="s">
         <v>58</v>
       </c>
-      <c r="D56" s="112"/>
-      <c r="E56" s="112"/>
-      <c r="F56" s="113"/>
+      <c r="D56" s="88"/>
+      <c r="E56" s="88"/>
+      <c r="F56" s="89"/>
       <c r="G56" s="20">
         <v>1</v>
       </c>
-      <c r="H56" s="93"/>
-      <c r="I56" s="94"/>
+      <c r="H56" s="65"/>
+      <c r="I56" s="66"/>
     </row>
     <row r="57" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C57" s="63" t="s">
+      <c r="C57" s="90" t="s">
         <v>59</v>
       </c>
-      <c r="D57" s="64"/>
-      <c r="E57" s="64"/>
-      <c r="F57" s="65"/>
-      <c r="G57" s="69">
+      <c r="D57" s="91"/>
+      <c r="E57" s="91"/>
+      <c r="F57" s="92"/>
+      <c r="G57" s="99">
         <v>0.3</v>
       </c>
-      <c r="H57" s="86" t="s">
+      <c r="H57" s="102" t="s">
         <v>60</v>
       </c>
-      <c r="I57" s="87"/>
+      <c r="I57" s="103"/>
     </row>
     <row r="58" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C58" s="98"/>
-      <c r="D58" s="99"/>
-      <c r="E58" s="99"/>
-      <c r="F58" s="100"/>
-      <c r="G58" s="84"/>
-      <c r="H58" s="88"/>
-      <c r="I58" s="89"/>
+      <c r="C58" s="93"/>
+      <c r="D58" s="94"/>
+      <c r="E58" s="94"/>
+      <c r="F58" s="95"/>
+      <c r="G58" s="100"/>
+      <c r="H58" s="104"/>
+      <c r="I58" s="105"/>
     </row>
     <row r="59" spans="2:9" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B59" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C59" s="165"/>
-      <c r="D59" s="166"/>
-      <c r="E59" s="166"/>
-      <c r="F59" s="167"/>
-      <c r="G59" s="85"/>
-      <c r="H59" s="90"/>
-      <c r="I59" s="91"/>
+      <c r="C59" s="96"/>
+      <c r="D59" s="97"/>
+      <c r="E59" s="97"/>
+      <c r="F59" s="98"/>
+      <c r="G59" s="101"/>
+      <c r="H59" s="106"/>
+      <c r="I59" s="107"/>
     </row>
     <row r="60" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="61" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B61" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C61" s="114" t="s">
+      <c r="C61" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="D61" s="115"/>
-      <c r="E61" s="115"/>
-      <c r="F61" s="115"/>
+      <c r="D61" s="73"/>
+      <c r="E61" s="73"/>
+      <c r="F61" s="73"/>
       <c r="G61" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="H61" s="115" t="s">
+      <c r="H61" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="I61" s="116"/>
+      <c r="I61" s="74"/>
     </row>
     <row r="62" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C62" s="158" t="s">
+      <c r="C62" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="D62" s="159"/>
-      <c r="E62" s="159"/>
-      <c r="F62" s="160"/>
-      <c r="G62" s="128">
+      <c r="D62" s="76"/>
+      <c r="E62" s="76"/>
+      <c r="F62" s="77"/>
+      <c r="G62" s="81">
         <v>0.3</v>
       </c>
-      <c r="H62" s="161" t="s">
+      <c r="H62" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="I62" s="162"/>
+      <c r="I62" s="84"/>
     </row>
     <row r="63" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C63" s="66"/>
-      <c r="D63" s="67"/>
-      <c r="E63" s="67"/>
-      <c r="F63" s="68"/>
-      <c r="G63" s="70"/>
-      <c r="H63" s="163"/>
-      <c r="I63" s="164"/>
+      <c r="C63" s="78"/>
+      <c r="D63" s="79"/>
+      <c r="E63" s="79"/>
+      <c r="F63" s="80"/>
+      <c r="G63" s="82"/>
+      <c r="H63" s="85"/>
+      <c r="I63" s="86"/>
     </row>
     <row r="64" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C64" s="57" t="s">
+      <c r="C64" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="D64" s="58"/>
-      <c r="E64" s="58"/>
-      <c r="F64" s="59"/>
+      <c r="D64" s="61"/>
+      <c r="E64" s="61"/>
+      <c r="F64" s="62"/>
       <c r="G64" s="24"/>
-      <c r="H64" s="172"/>
-      <c r="I64" s="173"/>
+      <c r="H64" s="67"/>
+      <c r="I64" s="68"/>
     </row>
     <row r="65" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C65" s="63" t="s">
+      <c r="C65" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="D65" s="64"/>
-      <c r="E65" s="64"/>
-      <c r="F65" s="65"/>
-      <c r="G65" s="69">
+      <c r="D65" s="91"/>
+      <c r="E65" s="91"/>
+      <c r="F65" s="92"/>
+      <c r="G65" s="99">
         <v>1</v>
       </c>
-      <c r="H65" s="101" t="s">
+      <c r="H65" s="156" t="s">
         <v>68</v>
       </c>
-      <c r="I65" s="102"/>
-      <c r="L65" s="92" t="s">
+      <c r="I65" s="157"/>
+      <c r="L65" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="M65" s="58"/>
-      <c r="N65" s="58"/>
-      <c r="O65" s="59"/>
+      <c r="M65" s="61"/>
+      <c r="N65" s="61"/>
+      <c r="O65" s="62"/>
     </row>
     <row r="66" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C66" s="98"/>
-      <c r="D66" s="99"/>
-      <c r="E66" s="99"/>
-      <c r="F66" s="100"/>
-      <c r="G66" s="84"/>
-      <c r="H66" s="103"/>
-      <c r="I66" s="104"/>
-      <c r="L66" s="57" t="s">
+      <c r="C66" s="93"/>
+      <c r="D66" s="94"/>
+      <c r="E66" s="94"/>
+      <c r="F66" s="95"/>
+      <c r="G66" s="100"/>
+      <c r="H66" s="158"/>
+      <c r="I66" s="159"/>
+      <c r="L66" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="M66" s="58"/>
-      <c r="N66" s="58"/>
-      <c r="O66" s="59"/>
+      <c r="M66" s="61"/>
+      <c r="N66" s="61"/>
+      <c r="O66" s="62"/>
     </row>
     <row r="67" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B67" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C67" s="98"/>
-      <c r="D67" s="99"/>
-      <c r="E67" s="99"/>
-      <c r="F67" s="100"/>
-      <c r="G67" s="84"/>
-      <c r="H67" s="103"/>
-      <c r="I67" s="104"/>
-      <c r="L67" s="57" t="s">
+      <c r="C67" s="93"/>
+      <c r="D67" s="94"/>
+      <c r="E67" s="94"/>
+      <c r="F67" s="95"/>
+      <c r="G67" s="100"/>
+      <c r="H67" s="158"/>
+      <c r="I67" s="159"/>
+      <c r="L67" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="M67" s="58"/>
-      <c r="N67" s="58"/>
-      <c r="O67" s="59"/>
+      <c r="M67" s="61"/>
+      <c r="N67" s="61"/>
+      <c r="O67" s="62"/>
     </row>
     <row r="68" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C68" s="98"/>
-      <c r="D68" s="99"/>
-      <c r="E68" s="99"/>
-      <c r="F68" s="100"/>
-      <c r="G68" s="84"/>
-      <c r="H68" s="103"/>
-      <c r="I68" s="104"/>
-      <c r="L68" s="57" t="s">
+      <c r="C68" s="93"/>
+      <c r="D68" s="94"/>
+      <c r="E68" s="94"/>
+      <c r="F68" s="95"/>
+      <c r="G68" s="100"/>
+      <c r="H68" s="158"/>
+      <c r="I68" s="159"/>
+      <c r="L68" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="M68" s="58"/>
-      <c r="N68" s="58"/>
-      <c r="O68" s="59"/>
+      <c r="M68" s="61"/>
+      <c r="N68" s="61"/>
+      <c r="O68" s="62"/>
     </row>
     <row r="69" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C69" s="66"/>
-      <c r="D69" s="67"/>
-      <c r="E69" s="67"/>
-      <c r="F69" s="68"/>
-      <c r="G69" s="70"/>
-      <c r="H69" s="105"/>
-      <c r="I69" s="106"/>
-      <c r="L69" s="57" t="s">
+      <c r="C69" s="78"/>
+      <c r="D69" s="79"/>
+      <c r="E69" s="79"/>
+      <c r="F69" s="80"/>
+      <c r="G69" s="82"/>
+      <c r="H69" s="160"/>
+      <c r="I69" s="161"/>
+      <c r="L69" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="M69" s="58"/>
-      <c r="N69" s="58"/>
-      <c r="O69" s="59"/>
+      <c r="M69" s="61"/>
+      <c r="N69" s="61"/>
+      <c r="O69" s="62"/>
     </row>
     <row r="70" spans="2:15" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B70" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C70" s="60" t="s">
+      <c r="C70" s="133" t="s">
         <v>69</v>
       </c>
-      <c r="D70" s="61"/>
-      <c r="E70" s="61"/>
-      <c r="F70" s="62"/>
+      <c r="D70" s="134"/>
+      <c r="E70" s="134"/>
+      <c r="F70" s="135"/>
       <c r="G70" s="17">
         <v>0.5</v>
       </c>
-      <c r="H70" s="107" t="s">
+      <c r="H70" s="162" t="s">
         <v>70</v>
       </c>
-      <c r="I70" s="108"/>
-      <c r="L70" s="60" t="s">
+      <c r="I70" s="163"/>
+      <c r="L70" s="133" t="s">
         <v>64</v>
       </c>
-      <c r="M70" s="61"/>
-      <c r="N70" s="61"/>
-      <c r="O70" s="62"/>
+      <c r="M70" s="134"/>
+      <c r="N70" s="134"/>
+      <c r="O70" s="135"/>
     </row>
     <row r="71" spans="2:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="C71" s="174" t="s">
+      <c r="C71" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="D71" s="123"/>
-      <c r="E71" s="123"/>
-      <c r="F71" s="123"/>
-      <c r="H71" s="175" t="s">
+      <c r="D71" s="70"/>
+      <c r="E71" s="70"/>
+      <c r="F71" s="70"/>
+      <c r="H71" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="I71" s="175"/>
+      <c r="I71" s="71"/>
       <c r="J71" t="s">
         <v>74</v>
       </c>
@@ -3836,266 +3972,243 @@
       <c r="B74" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C74" s="114" t="s">
+      <c r="C74" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="D74" s="115"/>
-      <c r="E74" s="115"/>
-      <c r="F74" s="115"/>
+      <c r="D74" s="73"/>
+      <c r="E74" s="73"/>
+      <c r="F74" s="73"/>
       <c r="G74" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="H74" s="115" t="s">
+      <c r="H74" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="I74" s="116"/>
+      <c r="I74" s="74"/>
     </row>
     <row r="75" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B75" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C75" s="117" t="s">
+      <c r="C75" s="108" t="s">
         <v>77</v>
       </c>
-      <c r="D75" s="118"/>
-      <c r="E75" s="118"/>
-      <c r="F75" s="119"/>
+      <c r="D75" s="109"/>
+      <c r="E75" s="109"/>
+      <c r="F75" s="110"/>
       <c r="G75" s="27">
         <v>0</v>
       </c>
-      <c r="H75" s="168" t="s">
+      <c r="H75" s="111" t="s">
         <v>83</v>
       </c>
-      <c r="I75" s="169"/>
+      <c r="I75" s="112"/>
     </row>
     <row r="76" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B76" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C76" s="57" t="s">
+      <c r="C76" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="D76" s="58"/>
-      <c r="E76" s="58"/>
-      <c r="F76" s="59"/>
+      <c r="D76" s="61"/>
+      <c r="E76" s="61"/>
+      <c r="F76" s="62"/>
       <c r="G76" s="27">
         <v>0</v>
       </c>
-      <c r="H76" s="170" t="s">
+      <c r="H76" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="I76" s="171"/>
+      <c r="I76" s="64"/>
     </row>
     <row r="77" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B77" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C77" s="57" t="s">
+      <c r="C77" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="D77" s="58"/>
-      <c r="E77" s="58"/>
-      <c r="F77" s="59"/>
+      <c r="D77" s="61"/>
+      <c r="E77" s="61"/>
+      <c r="F77" s="62"/>
       <c r="G77" s="27"/>
-      <c r="H77" s="93"/>
-      <c r="I77" s="94"/>
+      <c r="H77" s="65"/>
+      <c r="I77" s="66"/>
     </row>
     <row r="78" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B78" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C78" s="92" t="s">
+      <c r="C78" s="87" t="s">
         <v>79</v>
       </c>
-      <c r="D78" s="58"/>
-      <c r="E78" s="58"/>
-      <c r="F78" s="59"/>
+      <c r="D78" s="61"/>
+      <c r="E78" s="61"/>
+      <c r="F78" s="62"/>
       <c r="G78" s="27">
         <v>1</v>
       </c>
-      <c r="H78" s="93"/>
-      <c r="I78" s="94"/>
-      <c r="L78" s="57" t="s">
+      <c r="H78" s="65"/>
+      <c r="I78" s="66"/>
+      <c r="L78" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="M78" s="58"/>
-      <c r="N78" s="58"/>
-      <c r="O78" s="59"/>
+      <c r="M78" s="61"/>
+      <c r="N78" s="61"/>
+      <c r="O78" s="62"/>
     </row>
     <row r="79" spans="2:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C79" s="63" t="s">
+      <c r="C79" s="90" t="s">
         <v>84</v>
       </c>
-      <c r="D79" s="64"/>
-      <c r="E79" s="64"/>
-      <c r="F79" s="65"/>
-      <c r="G79" s="69">
+      <c r="D79" s="91"/>
+      <c r="E79" s="91"/>
+      <c r="F79" s="92"/>
+      <c r="G79" s="99">
         <v>1</v>
       </c>
-      <c r="H79" s="71"/>
-      <c r="I79" s="72"/>
-      <c r="L79" s="57" t="s">
+      <c r="H79" s="167"/>
+      <c r="I79" s="168"/>
+      <c r="L79" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="M79" s="58"/>
-      <c r="N79" s="58"/>
-      <c r="O79" s="59"/>
+      <c r="M79" s="61"/>
+      <c r="N79" s="61"/>
+      <c r="O79" s="62"/>
     </row>
     <row r="80" spans="2:15" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B80" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C80" s="66"/>
-      <c r="D80" s="67"/>
-      <c r="E80" s="67"/>
-      <c r="F80" s="68"/>
-      <c r="G80" s="70"/>
-      <c r="H80" s="73"/>
-      <c r="I80" s="74"/>
-      <c r="L80" s="60" t="s">
+      <c r="C80" s="78"/>
+      <c r="D80" s="79"/>
+      <c r="E80" s="79"/>
+      <c r="F80" s="80"/>
+      <c r="G80" s="82"/>
+      <c r="H80" s="169"/>
+      <c r="I80" s="170"/>
+      <c r="L80" s="133" t="s">
         <v>82</v>
       </c>
-      <c r="M80" s="61"/>
-      <c r="N80" s="61"/>
-      <c r="O80" s="62"/>
+      <c r="M80" s="134"/>
+      <c r="N80" s="134"/>
+      <c r="O80" s="135"/>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C81" s="75" t="s">
+      <c r="C81" s="171" t="s">
         <v>65</v>
       </c>
-      <c r="D81" s="76"/>
-      <c r="E81" s="76"/>
-      <c r="F81" s="77"/>
-      <c r="G81" s="69">
+      <c r="D81" s="172"/>
+      <c r="E81" s="172"/>
+      <c r="F81" s="173"/>
+      <c r="G81" s="99">
         <v>0.7</v>
       </c>
-      <c r="H81" s="86" t="s">
+      <c r="H81" s="102" t="s">
         <v>85</v>
       </c>
-      <c r="I81" s="87"/>
+      <c r="I81" s="103"/>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C82" s="78"/>
-      <c r="D82" s="79"/>
-      <c r="E82" s="79"/>
-      <c r="F82" s="80"/>
-      <c r="G82" s="84"/>
-      <c r="H82" s="88"/>
-      <c r="I82" s="89"/>
+      <c r="C82" s="174"/>
+      <c r="D82" s="175"/>
+      <c r="E82" s="175"/>
+      <c r="F82" s="176"/>
+      <c r="G82" s="100"/>
+      <c r="H82" s="104"/>
+      <c r="I82" s="105"/>
     </row>
     <row r="83" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B83" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C83" s="81"/>
-      <c r="D83" s="82"/>
-      <c r="E83" s="82"/>
-      <c r="F83" s="83"/>
-      <c r="G83" s="85"/>
-      <c r="H83" s="90"/>
-      <c r="I83" s="91"/>
+      <c r="C83" s="177"/>
+      <c r="D83" s="178"/>
+      <c r="E83" s="178"/>
+      <c r="F83" s="179"/>
+      <c r="G83" s="101"/>
+      <c r="H83" s="106"/>
+      <c r="I83" s="107"/>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C84" s="56" t="s">
+      <c r="C84" s="166" t="s">
         <v>87</v>
       </c>
-      <c r="D84" s="56"/>
-      <c r="E84" s="56"/>
-      <c r="F84" s="56"/>
+      <c r="D84" s="166"/>
+      <c r="E84" s="166"/>
+      <c r="F84" s="166"/>
       <c r="G84" s="1"/>
-      <c r="H84" s="56" t="s">
+      <c r="H84" s="166" t="s">
         <v>88</v>
       </c>
-      <c r="I84" s="56"/>
+      <c r="I84" s="166"/>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="31"/>
-      <c r="C85" s="95" t="s">
+      <c r="C85" s="155" t="s">
         <v>89</v>
       </c>
-      <c r="D85" s="95"/>
-      <c r="E85" s="95"/>
-      <c r="F85" s="95"/>
-      <c r="H85" s="95" t="s">
+      <c r="D85" s="155"/>
+      <c r="E85" s="155"/>
+      <c r="F85" s="155"/>
+      <c r="H85" s="155" t="s">
         <v>88</v>
       </c>
-      <c r="I85" s="95"/>
+      <c r="I85" s="155"/>
     </row>
     <row r="95" spans="2:9" ht="54" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="121">
-    <mergeCell ref="C76:F76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="C77:F77"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="C64:F64"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="C71:F71"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="C74:F74"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="C62:F63"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="H62:I63"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="C57:F59"/>
-    <mergeCell ref="G57:G59"/>
-    <mergeCell ref="H57:I59"/>
-    <mergeCell ref="C75:F75"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="C61:F61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H5:I13"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C84:F84"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="L78:O78"/>
+    <mergeCell ref="L79:O79"/>
+    <mergeCell ref="L80:O80"/>
+    <mergeCell ref="C79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="H79:I80"/>
+    <mergeCell ref="C81:F83"/>
+    <mergeCell ref="G81:G83"/>
+    <mergeCell ref="H81:I83"/>
+    <mergeCell ref="C78:F78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="C85:F85"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="L70:O70"/>
+    <mergeCell ref="C65:F69"/>
+    <mergeCell ref="G65:G69"/>
+    <mergeCell ref="H65:I69"/>
+    <mergeCell ref="L65:O65"/>
+    <mergeCell ref="L66:O66"/>
+    <mergeCell ref="L67:O67"/>
+    <mergeCell ref="L68:O68"/>
+    <mergeCell ref="L69:O69"/>
+    <mergeCell ref="C70:F70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="C55:F55"/>
     <mergeCell ref="C28:F28"/>
     <mergeCell ref="H28:I28"/>
     <mergeCell ref="C29:F29"/>
@@ -4120,43 +4233,66 @@
     <mergeCell ref="G36:G37"/>
     <mergeCell ref="H36:I37"/>
     <mergeCell ref="C39:F39"/>
-    <mergeCell ref="C85:F85"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="L70:O70"/>
-    <mergeCell ref="C65:F69"/>
-    <mergeCell ref="G65:G69"/>
-    <mergeCell ref="H65:I69"/>
-    <mergeCell ref="L65:O65"/>
-    <mergeCell ref="L66:O66"/>
-    <mergeCell ref="L67:O67"/>
-    <mergeCell ref="L68:O68"/>
-    <mergeCell ref="L69:O69"/>
-    <mergeCell ref="C70:F70"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="C84:F84"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="L78:O78"/>
-    <mergeCell ref="L79:O79"/>
-    <mergeCell ref="L80:O80"/>
-    <mergeCell ref="C79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="H79:I80"/>
-    <mergeCell ref="C81:F83"/>
-    <mergeCell ref="G81:G83"/>
-    <mergeCell ref="H81:I83"/>
-    <mergeCell ref="C78:F78"/>
-    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H5:I13"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="C61:F61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="C62:F63"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="H62:I63"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="C57:F59"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="H57:I59"/>
+    <mergeCell ref="C75:F75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="C76:F76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="C77:F77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="C64:F64"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="C71:F71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="C74:F74"/>
+    <mergeCell ref="H74:I74"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4168,8 +4304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{813EEE76-69D4-4EE1-98FD-50720CEB1426}">
   <dimension ref="B2:I70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4186,159 +4322,159 @@
       <c r="B3" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="114" t="s">
+      <c r="C3" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
       <c r="G3" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="115" t="s">
+      <c r="H3" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="116"/>
+      <c r="I3" s="74"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="117" t="s">
+      <c r="C4" s="108" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="118"/>
-      <c r="E4" s="118"/>
-      <c r="F4" s="119"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="110"/>
       <c r="G4" s="30">
         <v>1</v>
       </c>
-      <c r="H4" s="150"/>
-      <c r="I4" s="151"/>
+      <c r="H4" s="113"/>
+      <c r="I4" s="114"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="59"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="30">
         <v>1</v>
       </c>
-      <c r="H5" s="93"/>
-      <c r="I5" s="94"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="66"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="59"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="30"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="94"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="66"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="92" t="s">
+      <c r="C7" s="87" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="113"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="89"/>
       <c r="G7" s="30">
         <v>1</v>
       </c>
-      <c r="H7" s="93"/>
-      <c r="I7" s="94"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="66"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="59"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="62"/>
       <c r="G8" s="30"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="94"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="66"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="92" t="s">
+      <c r="C9" s="87" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="112"/>
-      <c r="E9" s="112"/>
-      <c r="F9" s="113"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="89"/>
       <c r="G9" s="30"/>
-      <c r="H9" s="93"/>
-      <c r="I9" s="94"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="66"/>
     </row>
     <row r="10" spans="2:9" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="92" t="s">
+      <c r="C10" s="87" t="s">
         <v>95</v>
       </c>
-      <c r="D10" s="112"/>
-      <c r="E10" s="112"/>
-      <c r="F10" s="113"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="89"/>
       <c r="G10" s="22">
         <v>0.8</v>
       </c>
-      <c r="H10" s="189" t="s">
+      <c r="H10" s="221" t="s">
         <v>98</v>
       </c>
-      <c r="I10" s="190"/>
+      <c r="I10" s="222"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="92" t="s">
+      <c r="C11" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="D11" s="112"/>
-      <c r="E11" s="112"/>
-      <c r="F11" s="113"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="89"/>
       <c r="G11" s="22">
         <v>1</v>
       </c>
-      <c r="H11" s="218"/>
-      <c r="I11" s="219"/>
+      <c r="H11" s="223"/>
+      <c r="I11" s="224"/>
     </row>
     <row r="12" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="60" t="s">
+      <c r="C12" s="133" t="s">
         <v>97</v>
       </c>
-      <c r="D12" s="216"/>
-      <c r="E12" s="216"/>
-      <c r="F12" s="217"/>
+      <c r="D12" s="219"/>
+      <c r="E12" s="219"/>
+      <c r="F12" s="220"/>
       <c r="G12" s="17">
         <v>1</v>
       </c>
-      <c r="H12" s="220"/>
-      <c r="I12" s="221"/>
+      <c r="H12" s="225"/>
+      <c r="I12" s="226"/>
     </row>
     <row r="13" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C13" s="32"/>
@@ -4350,761 +4486,761 @@
       <c r="B14" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="114" t="s">
+      <c r="C14" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="115"/>
-      <c r="E14" s="115"/>
-      <c r="F14" s="115"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
       <c r="G14" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="115" t="s">
+      <c r="H14" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="116"/>
+      <c r="I14" s="74"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="117" t="s">
+      <c r="C15" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="118"/>
-      <c r="E15" s="118"/>
-      <c r="F15" s="119"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="110"/>
       <c r="G15" s="34"/>
-      <c r="H15" s="150"/>
-      <c r="I15" s="151"/>
+      <c r="H15" s="113"/>
+      <c r="I15" s="114"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="57" t="s">
+      <c r="C16" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="59"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="62"/>
       <c r="G16" s="34"/>
-      <c r="H16" s="93"/>
-      <c r="I16" s="94"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="66"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="57" t="s">
+      <c r="C17" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="59"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="62"/>
       <c r="G17" s="34"/>
-      <c r="H17" s="93"/>
-      <c r="I17" s="94"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="66"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="222" t="s">
+      <c r="C18" s="213" t="s">
         <v>100</v>
       </c>
-      <c r="D18" s="223"/>
-      <c r="E18" s="223"/>
-      <c r="F18" s="224"/>
-      <c r="G18" s="69">
+      <c r="D18" s="214"/>
+      <c r="E18" s="214"/>
+      <c r="F18" s="215"/>
+      <c r="G18" s="99">
         <v>1</v>
       </c>
-      <c r="H18" s="71"/>
-      <c r="I18" s="72"/>
+      <c r="H18" s="167"/>
+      <c r="I18" s="168"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="225"/>
-      <c r="D19" s="226"/>
-      <c r="E19" s="226"/>
-      <c r="F19" s="227"/>
-      <c r="G19" s="84"/>
-      <c r="H19" s="228"/>
-      <c r="I19" s="229"/>
+      <c r="C19" s="216"/>
+      <c r="D19" s="181"/>
+      <c r="E19" s="181"/>
+      <c r="F19" s="182"/>
+      <c r="G19" s="100"/>
+      <c r="H19" s="217"/>
+      <c r="I19" s="218"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="225"/>
-      <c r="D20" s="226"/>
-      <c r="E20" s="226"/>
-      <c r="F20" s="227"/>
-      <c r="G20" s="84"/>
-      <c r="H20" s="228"/>
-      <c r="I20" s="229"/>
+      <c r="C20" s="216"/>
+      <c r="D20" s="181"/>
+      <c r="E20" s="181"/>
+      <c r="F20" s="182"/>
+      <c r="G20" s="100"/>
+      <c r="H20" s="217"/>
+      <c r="I20" s="218"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="125"/>
-      <c r="D21" s="126"/>
-      <c r="E21" s="126"/>
-      <c r="F21" s="127"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="73"/>
-      <c r="I21" s="74"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="145"/>
+      <c r="F21" s="146"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="169"/>
+      <c r="I21" s="170"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="57" t="s">
+      <c r="C22" s="60" t="s">
         <v>101</v>
       </c>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="59"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="62"/>
       <c r="G22" s="34">
         <v>1</v>
       </c>
-      <c r="H22" s="140"/>
-      <c r="I22" s="141"/>
+      <c r="H22" s="138"/>
+      <c r="I22" s="139"/>
     </row>
     <row r="23" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="60" t="s">
+      <c r="C23" s="133" t="s">
         <v>102</v>
       </c>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="62"/>
+      <c r="D23" s="134"/>
+      <c r="E23" s="134"/>
+      <c r="F23" s="135"/>
       <c r="G23" s="17">
         <v>1</v>
       </c>
-      <c r="H23" s="138"/>
-      <c r="I23" s="139"/>
+      <c r="H23" s="136"/>
+      <c r="I23" s="137"/>
     </row>
     <row r="24" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="25" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="C25" s="114" t="s">
+      <c r="C25" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="115"/>
-      <c r="E25" s="115"/>
-      <c r="F25" s="115"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
       <c r="G25" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="H25" s="115" t="s">
+      <c r="H25" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="I25" s="116"/>
+      <c r="I25" s="74"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="207" t="s">
+      <c r="C26" s="233" t="s">
         <v>104</v>
       </c>
-      <c r="D26" s="208"/>
-      <c r="E26" s="208"/>
-      <c r="F26" s="209"/>
-      <c r="G26" s="128">
+      <c r="D26" s="234"/>
+      <c r="E26" s="234"/>
+      <c r="F26" s="235"/>
+      <c r="G26" s="81">
         <v>0.8</v>
       </c>
-      <c r="H26" s="129" t="s">
+      <c r="H26" s="147" t="s">
         <v>112</v>
       </c>
-      <c r="I26" s="213"/>
+      <c r="I26" s="239"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="210"/>
-      <c r="D27" s="211"/>
-      <c r="E27" s="211"/>
-      <c r="F27" s="212"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="214"/>
-      <c r="I27" s="215"/>
+      <c r="C27" s="236"/>
+      <c r="D27" s="237"/>
+      <c r="E27" s="237"/>
+      <c r="F27" s="238"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="240"/>
+      <c r="I27" s="241"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="204" t="s">
+      <c r="C28" s="230" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="205"/>
-      <c r="E28" s="205"/>
-      <c r="F28" s="206"/>
+      <c r="D28" s="231"/>
+      <c r="E28" s="231"/>
+      <c r="F28" s="232"/>
       <c r="G28" s="37"/>
-      <c r="H28" s="170"/>
-      <c r="I28" s="171"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="64"/>
     </row>
     <row r="29" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="182" t="s">
+      <c r="C29" s="242" t="s">
         <v>104</v>
       </c>
-      <c r="D29" s="183"/>
-      <c r="E29" s="183"/>
-      <c r="F29" s="183"/>
+      <c r="D29" s="243"/>
+      <c r="E29" s="243"/>
+      <c r="F29" s="243"/>
       <c r="G29" s="22">
         <v>1</v>
       </c>
-      <c r="H29" s="157"/>
-      <c r="I29" s="187"/>
+      <c r="H29" s="120"/>
+      <c r="I29" s="227"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="180" t="s">
+      <c r="C30" s="228" t="s">
         <v>105</v>
       </c>
-      <c r="D30" s="181"/>
-      <c r="E30" s="181"/>
-      <c r="F30" s="181"/>
+      <c r="D30" s="229"/>
+      <c r="E30" s="229"/>
+      <c r="F30" s="229"/>
       <c r="G30" s="22">
         <v>1</v>
       </c>
-      <c r="H30" s="157"/>
-      <c r="I30" s="187"/>
+      <c r="H30" s="120"/>
+      <c r="I30" s="227"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="180" t="s">
+      <c r="C31" s="228" t="s">
         <v>106</v>
       </c>
-      <c r="D31" s="181"/>
-      <c r="E31" s="181"/>
-      <c r="F31" s="181"/>
-      <c r="G31" s="186">
+      <c r="D31" s="229"/>
+      <c r="E31" s="229"/>
+      <c r="F31" s="229"/>
+      <c r="G31" s="246">
         <v>1</v>
       </c>
-      <c r="H31" s="157"/>
-      <c r="I31" s="187"/>
+      <c r="H31" s="120"/>
+      <c r="I31" s="227"/>
     </row>
     <row r="32" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="180"/>
-      <c r="D32" s="181"/>
-      <c r="E32" s="181"/>
-      <c r="F32" s="181"/>
-      <c r="G32" s="186"/>
-      <c r="H32" s="157"/>
-      <c r="I32" s="187"/>
+      <c r="C32" s="228"/>
+      <c r="D32" s="229"/>
+      <c r="E32" s="229"/>
+      <c r="F32" s="229"/>
+      <c r="G32" s="246"/>
+      <c r="H32" s="120"/>
+      <c r="I32" s="227"/>
     </row>
     <row r="33" spans="2:9" ht="25.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="182" t="s">
+      <c r="C33" s="242" t="s">
         <v>107</v>
       </c>
-      <c r="D33" s="183"/>
-      <c r="E33" s="183"/>
-      <c r="F33" s="183"/>
-      <c r="G33" s="186">
+      <c r="D33" s="243"/>
+      <c r="E33" s="243"/>
+      <c r="F33" s="243"/>
+      <c r="G33" s="246">
         <v>0.5</v>
       </c>
-      <c r="H33" s="189" t="s">
+      <c r="H33" s="221" t="s">
         <v>110</v>
       </c>
-      <c r="I33" s="190"/>
+      <c r="I33" s="222"/>
     </row>
     <row r="34" spans="2:9" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="184"/>
-      <c r="D34" s="185"/>
-      <c r="E34" s="185"/>
-      <c r="F34" s="185"/>
-      <c r="G34" s="188"/>
-      <c r="H34" s="191"/>
-      <c r="I34" s="192"/>
+      <c r="C34" s="249"/>
+      <c r="D34" s="250"/>
+      <c r="E34" s="250"/>
+      <c r="F34" s="250"/>
+      <c r="G34" s="251"/>
+      <c r="H34" s="244"/>
+      <c r="I34" s="252"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="28"/>
-      <c r="C35" s="123"/>
-      <c r="D35" s="123"/>
-      <c r="E35" s="123"/>
-      <c r="F35" s="123"/>
+      <c r="C35" s="70"/>
+      <c r="D35" s="70"/>
+      <c r="E35" s="70"/>
+      <c r="F35" s="70"/>
       <c r="G35" s="36"/>
-      <c r="H35" s="56"/>
-      <c r="I35" s="56"/>
+      <c r="H35" s="166"/>
+      <c r="I35" s="166"/>
     </row>
     <row r="36" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="37" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="C37" s="114" t="s">
+      <c r="C37" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="D37" s="115"/>
-      <c r="E37" s="115"/>
-      <c r="F37" s="115"/>
+      <c r="D37" s="73"/>
+      <c r="E37" s="73"/>
+      <c r="F37" s="73"/>
       <c r="G37" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="H37" s="115" t="s">
+      <c r="H37" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="I37" s="116"/>
+      <c r="I37" s="74"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="194" t="s">
+      <c r="C38" s="208" t="s">
         <v>109</v>
       </c>
-      <c r="D38" s="123"/>
-      <c r="E38" s="123"/>
-      <c r="F38" s="124"/>
-      <c r="G38" s="128">
+      <c r="D38" s="70"/>
+      <c r="E38" s="70"/>
+      <c r="F38" s="143"/>
+      <c r="G38" s="81">
         <v>0.9</v>
       </c>
-      <c r="H38" s="195"/>
-      <c r="I38" s="130"/>
+      <c r="H38" s="190"/>
+      <c r="I38" s="148"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="125"/>
-      <c r="D39" s="126"/>
-      <c r="E39" s="126"/>
-      <c r="F39" s="127"/>
-      <c r="G39" s="70"/>
-      <c r="H39" s="131"/>
-      <c r="I39" s="132"/>
+      <c r="C39" s="144"/>
+      <c r="D39" s="145"/>
+      <c r="E39" s="145"/>
+      <c r="F39" s="146"/>
+      <c r="G39" s="82"/>
+      <c r="H39" s="149"/>
+      <c r="I39" s="150"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="57" t="s">
+      <c r="C40" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="58"/>
-      <c r="E40" s="58"/>
-      <c r="F40" s="59"/>
+      <c r="D40" s="61"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="62"/>
       <c r="G40" s="40"/>
-      <c r="H40" s="96"/>
-      <c r="I40" s="97"/>
+      <c r="H40" s="123"/>
+      <c r="I40" s="124"/>
     </row>
     <row r="41" spans="2:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="196" t="s">
+      <c r="C41" s="191" t="s">
         <v>109</v>
       </c>
-      <c r="D41" s="197"/>
-      <c r="E41" s="197"/>
-      <c r="F41" s="198"/>
-      <c r="G41" s="69">
+      <c r="D41" s="192"/>
+      <c r="E41" s="192"/>
+      <c r="F41" s="193"/>
+      <c r="G41" s="99">
         <v>0.9</v>
       </c>
-      <c r="H41" s="86" t="s">
+      <c r="H41" s="102" t="s">
         <v>114</v>
       </c>
-      <c r="I41" s="87"/>
+      <c r="I41" s="103"/>
     </row>
     <row r="42" spans="2:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C42" s="199"/>
-      <c r="D42" s="200"/>
-      <c r="E42" s="200"/>
-      <c r="F42" s="201"/>
-      <c r="G42" s="70"/>
-      <c r="H42" s="131"/>
-      <c r="I42" s="132"/>
+      <c r="C42" s="196"/>
+      <c r="D42" s="197"/>
+      <c r="E42" s="197"/>
+      <c r="F42" s="198"/>
+      <c r="G42" s="82"/>
+      <c r="H42" s="149"/>
+      <c r="I42" s="150"/>
     </row>
     <row r="43" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C43" s="152" t="s">
+      <c r="C43" s="115" t="s">
         <v>111</v>
       </c>
-      <c r="D43" s="153"/>
-      <c r="E43" s="153"/>
-      <c r="F43" s="153"/>
-      <c r="G43" s="186">
+      <c r="D43" s="116"/>
+      <c r="E43" s="116"/>
+      <c r="F43" s="116"/>
+      <c r="G43" s="246">
         <v>1</v>
       </c>
-      <c r="H43" s="202"/>
-      <c r="I43" s="203"/>
+      <c r="H43" s="247"/>
+      <c r="I43" s="248"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C44" s="152"/>
-      <c r="D44" s="153"/>
-      <c r="E44" s="153"/>
-      <c r="F44" s="153"/>
-      <c r="G44" s="186"/>
-      <c r="H44" s="202"/>
-      <c r="I44" s="203"/>
+      <c r="C44" s="115"/>
+      <c r="D44" s="116"/>
+      <c r="E44" s="116"/>
+      <c r="F44" s="116"/>
+      <c r="G44" s="246"/>
+      <c r="H44" s="247"/>
+      <c r="I44" s="248"/>
     </row>
     <row r="45" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="152"/>
-      <c r="D45" s="153"/>
-      <c r="E45" s="153"/>
-      <c r="F45" s="153"/>
-      <c r="G45" s="186"/>
-      <c r="H45" s="202"/>
-      <c r="I45" s="203"/>
+      <c r="C45" s="115"/>
+      <c r="D45" s="116"/>
+      <c r="E45" s="116"/>
+      <c r="F45" s="116"/>
+      <c r="G45" s="246"/>
+      <c r="H45" s="247"/>
+      <c r="I45" s="248"/>
     </row>
     <row r="46" spans="2:9" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B46" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="237" t="s">
+      <c r="C46" s="207" t="s">
         <v>113</v>
       </c>
-      <c r="D46" s="61"/>
-      <c r="E46" s="61"/>
-      <c r="F46" s="62"/>
+      <c r="D46" s="134"/>
+      <c r="E46" s="134"/>
+      <c r="F46" s="135"/>
       <c r="G46" s="41">
         <v>0.5</v>
       </c>
-      <c r="H46" s="191" t="s">
+      <c r="H46" s="244" t="s">
         <v>115</v>
       </c>
-      <c r="I46" s="193"/>
+      <c r="I46" s="245"/>
     </row>
     <row r="47" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="48" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B48" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="C48" s="114" t="s">
+      <c r="C48" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="D48" s="115"/>
-      <c r="E48" s="115"/>
-      <c r="F48" s="115"/>
+      <c r="D48" s="73"/>
+      <c r="E48" s="73"/>
+      <c r="F48" s="73"/>
       <c r="G48" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="H48" s="115" t="s">
+      <c r="H48" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="I48" s="116"/>
+      <c r="I48" s="74"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C49" s="194" t="s">
+      <c r="C49" s="208" t="s">
         <v>113</v>
       </c>
-      <c r="D49" s="123"/>
-      <c r="E49" s="123"/>
-      <c r="F49" s="124"/>
-      <c r="G49" s="128">
+      <c r="D49" s="70"/>
+      <c r="E49" s="70"/>
+      <c r="F49" s="143"/>
+      <c r="G49" s="81">
         <v>1</v>
       </c>
-      <c r="H49" s="238"/>
-      <c r="I49" s="239"/>
+      <c r="H49" s="209"/>
+      <c r="I49" s="210"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C50" s="125"/>
-      <c r="D50" s="126"/>
-      <c r="E50" s="126"/>
-      <c r="F50" s="127"/>
-      <c r="G50" s="70"/>
-      <c r="H50" s="178"/>
-      <c r="I50" s="179"/>
+      <c r="C50" s="144"/>
+      <c r="D50" s="145"/>
+      <c r="E50" s="145"/>
+      <c r="F50" s="146"/>
+      <c r="G50" s="82"/>
+      <c r="H50" s="211"/>
+      <c r="I50" s="212"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C51" s="57" t="s">
+      <c r="C51" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="D51" s="58"/>
-      <c r="E51" s="58"/>
-      <c r="F51" s="59"/>
+      <c r="D51" s="61"/>
+      <c r="E51" s="61"/>
+      <c r="F51" s="62"/>
       <c r="G51" s="40"/>
-      <c r="H51" s="170"/>
-      <c r="I51" s="171"/>
+      <c r="H51" s="63"/>
+      <c r="I51" s="64"/>
     </row>
     <row r="52" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C52" s="196" t="s">
+      <c r="C52" s="191" t="s">
         <v>113</v>
       </c>
-      <c r="D52" s="197"/>
-      <c r="E52" s="197"/>
-      <c r="F52" s="198"/>
-      <c r="G52" s="69">
+      <c r="D52" s="192"/>
+      <c r="E52" s="192"/>
+      <c r="F52" s="193"/>
+      <c r="G52" s="99">
         <v>1</v>
       </c>
-      <c r="H52" s="176"/>
-      <c r="I52" s="177"/>
+      <c r="H52" s="253"/>
+      <c r="I52" s="254"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C53" s="199"/>
-      <c r="D53" s="200"/>
-      <c r="E53" s="200"/>
-      <c r="F53" s="201"/>
-      <c r="G53" s="70"/>
-      <c r="H53" s="178"/>
-      <c r="I53" s="179"/>
+      <c r="C53" s="196"/>
+      <c r="D53" s="197"/>
+      <c r="E53" s="197"/>
+      <c r="F53" s="198"/>
+      <c r="G53" s="82"/>
+      <c r="H53" s="211"/>
+      <c r="I53" s="212"/>
     </row>
     <row r="54" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C54" s="196" t="s">
+      <c r="C54" s="191" t="s">
         <v>118</v>
       </c>
-      <c r="D54" s="197"/>
-      <c r="E54" s="197"/>
-      <c r="F54" s="198"/>
-      <c r="G54" s="69">
+      <c r="D54" s="192"/>
+      <c r="E54" s="192"/>
+      <c r="F54" s="193"/>
+      <c r="G54" s="99">
         <v>0.7</v>
       </c>
-      <c r="H54" s="86" t="s">
+      <c r="H54" s="102" t="s">
         <v>119</v>
       </c>
-      <c r="I54" s="87"/>
+      <c r="I54" s="103"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C55" s="230"/>
-      <c r="D55" s="231"/>
-      <c r="E55" s="231"/>
-      <c r="F55" s="232"/>
-      <c r="G55" s="84"/>
-      <c r="H55" s="88"/>
-      <c r="I55" s="89"/>
+      <c r="C55" s="180"/>
+      <c r="D55" s="194"/>
+      <c r="E55" s="194"/>
+      <c r="F55" s="195"/>
+      <c r="G55" s="100"/>
+      <c r="H55" s="104"/>
+      <c r="I55" s="105"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C56" s="230"/>
-      <c r="D56" s="231"/>
-      <c r="E56" s="231"/>
-      <c r="F56" s="232"/>
-      <c r="G56" s="84"/>
-      <c r="H56" s="88"/>
-      <c r="I56" s="89"/>
+      <c r="C56" s="180"/>
+      <c r="D56" s="194"/>
+      <c r="E56" s="194"/>
+      <c r="F56" s="195"/>
+      <c r="G56" s="100"/>
+      <c r="H56" s="104"/>
+      <c r="I56" s="105"/>
     </row>
     <row r="57" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B57" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C57" s="233"/>
-      <c r="D57" s="234"/>
-      <c r="E57" s="234"/>
-      <c r="F57" s="235"/>
-      <c r="G57" s="85"/>
-      <c r="H57" s="90"/>
-      <c r="I57" s="91"/>
+      <c r="C57" s="203"/>
+      <c r="D57" s="204"/>
+      <c r="E57" s="204"/>
+      <c r="F57" s="205"/>
+      <c r="G57" s="101"/>
+      <c r="H57" s="106"/>
+      <c r="I57" s="107"/>
     </row>
     <row r="58" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="C58" s="174" t="s">
+      <c r="C58" s="69" t="s">
         <v>124</v>
       </c>
-      <c r="D58" s="123"/>
-      <c r="E58" s="123"/>
-      <c r="F58" s="123"/>
+      <c r="D58" s="70"/>
+      <c r="E58" s="70"/>
+      <c r="F58" s="70"/>
       <c r="G58" s="44"/>
-      <c r="H58" s="236" t="s">
+      <c r="H58" s="206" t="s">
         <v>123</v>
       </c>
-      <c r="I58" s="236"/>
+      <c r="I58" s="206"/>
     </row>
     <row r="59" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="60" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B60" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="C60" s="114" t="s">
+      <c r="C60" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="D60" s="115"/>
-      <c r="E60" s="115"/>
-      <c r="F60" s="115"/>
+      <c r="D60" s="73"/>
+      <c r="E60" s="73"/>
+      <c r="F60" s="73"/>
       <c r="G60" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="H60" s="115" t="s">
+      <c r="H60" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="I60" s="116"/>
+      <c r="I60" s="74"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C61" s="122" t="s">
+      <c r="C61" s="142" t="s">
         <v>125</v>
       </c>
-      <c r="D61" s="123"/>
-      <c r="E61" s="123"/>
-      <c r="F61" s="124"/>
-      <c r="G61" s="128">
+      <c r="D61" s="70"/>
+      <c r="E61" s="70"/>
+      <c r="F61" s="143"/>
+      <c r="G61" s="81">
         <v>0</v>
       </c>
-      <c r="H61" s="195" t="s">
+      <c r="H61" s="190" t="s">
         <v>126</v>
       </c>
-      <c r="I61" s="130"/>
+      <c r="I61" s="148"/>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C62" s="125"/>
-      <c r="D62" s="126"/>
-      <c r="E62" s="126"/>
-      <c r="F62" s="127"/>
-      <c r="G62" s="70"/>
-      <c r="H62" s="131"/>
-      <c r="I62" s="132"/>
+      <c r="C62" s="144"/>
+      <c r="D62" s="145"/>
+      <c r="E62" s="145"/>
+      <c r="F62" s="146"/>
+      <c r="G62" s="82"/>
+      <c r="H62" s="149"/>
+      <c r="I62" s="150"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C63" s="57" t="s">
+      <c r="C63" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="D63" s="58"/>
-      <c r="E63" s="58"/>
-      <c r="F63" s="59"/>
+      <c r="D63" s="61"/>
+      <c r="E63" s="61"/>
+      <c r="F63" s="62"/>
       <c r="G63" s="43"/>
-      <c r="H63" s="93"/>
-      <c r="I63" s="94"/>
+      <c r="H63" s="65"/>
+      <c r="I63" s="66"/>
     </row>
     <row r="64" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C64" s="196" t="s">
+      <c r="C64" s="191" t="s">
         <v>125</v>
       </c>
-      <c r="D64" s="197"/>
-      <c r="E64" s="197"/>
-      <c r="F64" s="198"/>
-      <c r="G64" s="69">
+      <c r="D64" s="192"/>
+      <c r="E64" s="192"/>
+      <c r="F64" s="193"/>
+      <c r="G64" s="99">
         <v>1</v>
       </c>
-      <c r="H64" s="247"/>
-      <c r="I64" s="248"/>
+      <c r="H64" s="199"/>
+      <c r="I64" s="200"/>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C65" s="230"/>
-      <c r="D65" s="231"/>
-      <c r="E65" s="231"/>
-      <c r="F65" s="232"/>
-      <c r="G65" s="84"/>
-      <c r="H65" s="249"/>
-      <c r="I65" s="250"/>
+      <c r="C65" s="180"/>
+      <c r="D65" s="194"/>
+      <c r="E65" s="194"/>
+      <c r="F65" s="195"/>
+      <c r="G65" s="100"/>
+      <c r="H65" s="201"/>
+      <c r="I65" s="202"/>
     </row>
     <row r="66" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C66" s="230"/>
-      <c r="D66" s="231"/>
-      <c r="E66" s="231"/>
-      <c r="F66" s="232"/>
-      <c r="G66" s="84"/>
-      <c r="H66" s="249"/>
-      <c r="I66" s="250"/>
+      <c r="C66" s="180"/>
+      <c r="D66" s="194"/>
+      <c r="E66" s="194"/>
+      <c r="F66" s="195"/>
+      <c r="G66" s="100"/>
+      <c r="H66" s="201"/>
+      <c r="I66" s="202"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C67" s="199"/>
-      <c r="D67" s="200"/>
-      <c r="E67" s="200"/>
-      <c r="F67" s="201"/>
-      <c r="G67" s="70"/>
-      <c r="H67" s="163"/>
-      <c r="I67" s="164"/>
+      <c r="C67" s="196"/>
+      <c r="D67" s="197"/>
+      <c r="E67" s="197"/>
+      <c r="F67" s="198"/>
+      <c r="G67" s="82"/>
+      <c r="H67" s="85"/>
+      <c r="I67" s="86"/>
     </row>
     <row r="68" spans="2:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C68" s="230" t="s">
+      <c r="C68" s="180" t="s">
         <v>127</v>
       </c>
-      <c r="D68" s="226"/>
-      <c r="E68" s="226"/>
-      <c r="F68" s="227"/>
-      <c r="G68" s="84">
+      <c r="D68" s="181"/>
+      <c r="E68" s="181"/>
+      <c r="F68" s="182"/>
+      <c r="G68" s="100">
         <v>0.5</v>
       </c>
-      <c r="H68" s="243" t="s">
+      <c r="H68" s="186" t="s">
         <v>128</v>
       </c>
-      <c r="I68" s="244"/>
+      <c r="I68" s="187"/>
     </row>
     <row r="69" spans="2:9" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B69" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C69" s="240"/>
-      <c r="D69" s="241"/>
-      <c r="E69" s="241"/>
-      <c r="F69" s="242"/>
-      <c r="G69" s="85"/>
-      <c r="H69" s="245"/>
-      <c r="I69" s="246"/>
+      <c r="C69" s="183"/>
+      <c r="D69" s="184"/>
+      <c r="E69" s="184"/>
+      <c r="F69" s="185"/>
+      <c r="G69" s="101"/>
+      <c r="H69" s="188"/>
+      <c r="I69" s="189"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C70" s="32"/>
@@ -5117,17 +5253,76 @@
     </row>
   </sheetData>
   <mergeCells count="97">
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="C68:F69"/>
-    <mergeCell ref="H68:I69"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="C61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="H61:I62"/>
-    <mergeCell ref="C64:F67"/>
-    <mergeCell ref="G64:G67"/>
-    <mergeCell ref="H64:I67"/>
-    <mergeCell ref="C63:F63"/>
+    <mergeCell ref="H52:I53"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="C31:F32"/>
+    <mergeCell ref="C33:F34"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:I32"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:I34"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="C38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:I39"/>
+    <mergeCell ref="C41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:I42"/>
+    <mergeCell ref="C43:F45"/>
+    <mergeCell ref="G43:G45"/>
+    <mergeCell ref="H43:I45"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:I27"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="C18:F21"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="H18:I21"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="H8:I8"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="C10:F10"/>
@@ -5144,76 +5339,17 @@
     <mergeCell ref="G49:G50"/>
     <mergeCell ref="G52:G53"/>
     <mergeCell ref="H49:I50"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="C18:F21"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="H18:I21"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:I27"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="C38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:I39"/>
-    <mergeCell ref="C41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:I42"/>
-    <mergeCell ref="C43:F45"/>
-    <mergeCell ref="G43:G45"/>
-    <mergeCell ref="H43:I45"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="C31:F32"/>
-    <mergeCell ref="C33:F34"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:I32"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="H33:I34"/>
-    <mergeCell ref="H52:I53"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="C68:F69"/>
+    <mergeCell ref="H68:I69"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="C61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="H61:I62"/>
+    <mergeCell ref="C64:F67"/>
+    <mergeCell ref="G64:G67"/>
+    <mergeCell ref="H64:I67"/>
+    <mergeCell ref="C63:F63"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5223,10 +5359,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D5800FB-BD05-4FC8-A7D1-22A28308449E}">
-  <dimension ref="B1:I58"/>
+  <dimension ref="B1:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5243,829 +5379,985 @@
       <c r="B2" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="114" t="s">
+      <c r="C2" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
       <c r="G2" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="115" t="s">
+      <c r="H2" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="116"/>
+      <c r="I2" s="74"/>
     </row>
     <row r="3" spans="2:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="122" t="s">
+      <c r="C3" s="142" t="s">
         <v>131</v>
       </c>
-      <c r="D3" s="174"/>
-      <c r="E3" s="174"/>
-      <c r="F3" s="251"/>
-      <c r="G3" s="128">
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="272"/>
+      <c r="G3" s="81">
         <v>0.5</v>
       </c>
-      <c r="H3" s="129" t="s">
+      <c r="H3" s="147" t="s">
         <v>135</v>
       </c>
-      <c r="I3" s="213"/>
+      <c r="I3" s="239"/>
     </row>
     <row r="4" spans="2:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="199"/>
-      <c r="D4" s="200"/>
-      <c r="E4" s="200"/>
-      <c r="F4" s="201"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="214"/>
-      <c r="I4" s="215"/>
+      <c r="C4" s="196"/>
+      <c r="D4" s="197"/>
+      <c r="E4" s="197"/>
+      <c r="F4" s="198"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="240"/>
+      <c r="I4" s="241"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="60" t="s">
         <v>130</v>
       </c>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="59"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="46"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="97"/>
+      <c r="H5" s="123"/>
+      <c r="I5" s="124"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="92" t="s">
+      <c r="C6" s="87" t="s">
         <v>132</v>
       </c>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="113"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="89"/>
       <c r="G6" s="46">
         <v>0.5</v>
       </c>
-      <c r="H6" s="96" t="s">
+      <c r="H6" s="123" t="s">
         <v>136</v>
       </c>
-      <c r="I6" s="97"/>
+      <c r="I6" s="124"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="60" t="s">
         <v>133</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="59"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="46"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="97"/>
+      <c r="H7" s="123"/>
+      <c r="I7" s="124"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="92" t="s">
+      <c r="C8" s="87" t="s">
         <v>133</v>
       </c>
-      <c r="D8" s="112"/>
-      <c r="E8" s="112"/>
-      <c r="F8" s="113"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="89"/>
       <c r="G8" s="46"/>
-      <c r="H8" s="96"/>
-      <c r="I8" s="97"/>
+      <c r="H8" s="123"/>
+      <c r="I8" s="124"/>
     </row>
     <row r="9" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="252" t="s">
+      <c r="C9" s="273" t="s">
         <v>134</v>
       </c>
-      <c r="D9" s="253"/>
-      <c r="E9" s="253"/>
-      <c r="F9" s="254"/>
-      <c r="G9" s="69">
+      <c r="D9" s="274"/>
+      <c r="E9" s="274"/>
+      <c r="F9" s="275"/>
+      <c r="G9" s="99">
         <v>0.5</v>
       </c>
-      <c r="H9" s="86" t="s">
+      <c r="H9" s="102" t="s">
         <v>137</v>
       </c>
-      <c r="I9" s="135"/>
+      <c r="I9" s="152"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="255"/>
-      <c r="D10" s="256"/>
-      <c r="E10" s="256"/>
-      <c r="F10" s="257"/>
-      <c r="G10" s="84"/>
-      <c r="H10" s="261"/>
-      <c r="I10" s="262"/>
+      <c r="C10" s="276"/>
+      <c r="D10" s="277"/>
+      <c r="E10" s="277"/>
+      <c r="F10" s="278"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="282"/>
+      <c r="I10" s="283"/>
     </row>
     <row r="11" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="258"/>
-      <c r="D11" s="259"/>
-      <c r="E11" s="259"/>
-      <c r="F11" s="260"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="136"/>
-      <c r="I11" s="137"/>
+      <c r="C11" s="279"/>
+      <c r="D11" s="280"/>
+      <c r="E11" s="280"/>
+      <c r="F11" s="281"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="153"/>
+      <c r="I11" s="154"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="123" t="s">
+      <c r="C12" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
-      <c r="F12" s="123"/>
-      <c r="H12" s="123" t="s">
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="H12" s="70" t="s">
         <v>138</v>
       </c>
-      <c r="I12" s="123"/>
+      <c r="I12" s="70"/>
     </row>
     <row r="13" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="C14" s="114" t="s">
+      <c r="C14" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="115"/>
-      <c r="E14" s="115"/>
-      <c r="F14" s="115"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
       <c r="G14" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="115" t="s">
+      <c r="H14" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="116"/>
+      <c r="I14" s="74"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="117" t="s">
+      <c r="C15" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="118"/>
-      <c r="E15" s="118"/>
-      <c r="F15" s="119"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="110"/>
       <c r="G15" s="48"/>
-      <c r="H15" s="150"/>
-      <c r="I15" s="151"/>
+      <c r="H15" s="113"/>
+      <c r="I15" s="114"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="57" t="s">
+      <c r="C16" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="59"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="62"/>
       <c r="G16" s="48"/>
-      <c r="H16" s="93"/>
-      <c r="I16" s="94"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="66"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="57" t="s">
+      <c r="C17" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="59"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="62"/>
       <c r="G17" s="48"/>
-      <c r="H17" s="93"/>
-      <c r="I17" s="94"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="66"/>
     </row>
     <row r="18" spans="2:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="196" t="s">
+      <c r="C18" s="191" t="s">
         <v>141</v>
       </c>
-      <c r="D18" s="197"/>
-      <c r="E18" s="197"/>
-      <c r="F18" s="198"/>
-      <c r="G18" s="69">
+      <c r="D18" s="192"/>
+      <c r="E18" s="192"/>
+      <c r="F18" s="193"/>
+      <c r="G18" s="99">
         <v>0.5</v>
       </c>
-      <c r="H18" s="86" t="s">
+      <c r="H18" s="102" t="s">
         <v>143</v>
       </c>
-      <c r="I18" s="135"/>
+      <c r="I18" s="152"/>
     </row>
     <row r="19" spans="2:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="199"/>
-      <c r="D19" s="200"/>
-      <c r="E19" s="200"/>
-      <c r="F19" s="201"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="214"/>
-      <c r="I19" s="215"/>
+      <c r="C19" s="196"/>
+      <c r="D19" s="197"/>
+      <c r="E19" s="197"/>
+      <c r="F19" s="198"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="240"/>
+      <c r="I19" s="241"/>
     </row>
     <row r="20" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="152" t="s">
+      <c r="C20" s="115" t="s">
         <v>142</v>
       </c>
-      <c r="D20" s="153"/>
-      <c r="E20" s="153"/>
-      <c r="F20" s="153"/>
-      <c r="G20" s="186">
+      <c r="D20" s="116"/>
+      <c r="E20" s="116"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="246">
         <v>1</v>
       </c>
-      <c r="H20" s="157"/>
-      <c r="I20" s="187"/>
+      <c r="H20" s="120"/>
+      <c r="I20" s="227"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="152"/>
-      <c r="D21" s="153"/>
-      <c r="E21" s="153"/>
-      <c r="F21" s="153"/>
-      <c r="G21" s="186"/>
-      <c r="H21" s="157"/>
-      <c r="I21" s="187"/>
+      <c r="C21" s="115"/>
+      <c r="D21" s="116"/>
+      <c r="E21" s="116"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="246"/>
+      <c r="H21" s="120"/>
+      <c r="I21" s="227"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="152"/>
-      <c r="D22" s="153"/>
-      <c r="E22" s="153"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="186"/>
-      <c r="H22" s="157"/>
-      <c r="I22" s="187"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="116"/>
+      <c r="G22" s="246"/>
+      <c r="H22" s="120"/>
+      <c r="I22" s="227"/>
     </row>
     <row r="23" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="263" t="s">
+      <c r="C23" s="258" t="s">
         <v>144</v>
       </c>
-      <c r="D23" s="264"/>
-      <c r="E23" s="264"/>
-      <c r="F23" s="264"/>
+      <c r="D23" s="259"/>
+      <c r="E23" s="259"/>
+      <c r="F23" s="259"/>
       <c r="G23" s="51">
         <v>0.5</v>
       </c>
-      <c r="H23" s="191" t="s">
+      <c r="H23" s="244" t="s">
         <v>145</v>
       </c>
-      <c r="I23" s="192"/>
+      <c r="I23" s="252"/>
     </row>
     <row r="24" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="25" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="C25" s="114" t="s">
+      <c r="C25" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="115"/>
-      <c r="E25" s="115"/>
-      <c r="F25" s="115"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
       <c r="G25" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="H25" s="115" t="s">
+      <c r="H25" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="I25" s="116"/>
+      <c r="I25" s="74"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="194" t="s">
+      <c r="C26" s="208" t="s">
         <v>144</v>
       </c>
-      <c r="D26" s="123"/>
-      <c r="E26" s="123"/>
-      <c r="F26" s="124"/>
-      <c r="G26" s="128">
+      <c r="D26" s="70"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="143"/>
+      <c r="G26" s="81">
         <v>0.6</v>
       </c>
-      <c r="H26" s="195" t="s">
+      <c r="H26" s="190" t="s">
         <v>150</v>
       </c>
-      <c r="I26" s="130"/>
+      <c r="I26" s="148"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="125"/>
-      <c r="D27" s="126"/>
-      <c r="E27" s="126"/>
-      <c r="F27" s="127"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="131"/>
-      <c r="I27" s="132"/>
+      <c r="C27" s="144"/>
+      <c r="D27" s="145"/>
+      <c r="E27" s="145"/>
+      <c r="F27" s="146"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="149"/>
+      <c r="I27" s="150"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="57" t="s">
+      <c r="C28" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="58"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="59"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="62"/>
       <c r="G28" s="49"/>
-      <c r="H28" s="133"/>
-      <c r="I28" s="134"/>
+      <c r="H28" s="121"/>
+      <c r="I28" s="122"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="92" t="s">
+      <c r="C29" s="87" t="s">
         <v>147</v>
       </c>
-      <c r="D29" s="112"/>
-      <c r="E29" s="112"/>
-      <c r="F29" s="113"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="89"/>
       <c r="G29" s="49">
         <v>1</v>
       </c>
-      <c r="H29" s="133"/>
-      <c r="I29" s="134"/>
+      <c r="H29" s="121"/>
+      <c r="I29" s="122"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="196" t="s">
+      <c r="C30" s="191" t="s">
         <v>148</v>
       </c>
-      <c r="D30" s="197"/>
-      <c r="E30" s="197"/>
-      <c r="F30" s="198"/>
-      <c r="G30" s="69">
+      <c r="D30" s="192"/>
+      <c r="E30" s="192"/>
+      <c r="F30" s="193"/>
+      <c r="G30" s="99">
         <v>0.8</v>
       </c>
-      <c r="H30" s="86" t="s">
+      <c r="H30" s="102" t="s">
         <v>151</v>
       </c>
-      <c r="I30" s="87"/>
+      <c r="I30" s="103"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="230"/>
-      <c r="D31" s="231"/>
-      <c r="E31" s="231"/>
-      <c r="F31" s="232"/>
-      <c r="G31" s="84"/>
-      <c r="H31" s="88"/>
-      <c r="I31" s="89"/>
+      <c r="C31" s="180"/>
+      <c r="D31" s="194"/>
+      <c r="E31" s="194"/>
+      <c r="F31" s="195"/>
+      <c r="G31" s="100"/>
+      <c r="H31" s="104"/>
+      <c r="I31" s="105"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="199"/>
-      <c r="D32" s="200"/>
-      <c r="E32" s="200"/>
-      <c r="F32" s="201"/>
-      <c r="G32" s="70"/>
-      <c r="H32" s="131"/>
-      <c r="I32" s="132"/>
+      <c r="C32" s="196"/>
+      <c r="D32" s="197"/>
+      <c r="E32" s="197"/>
+      <c r="F32" s="198"/>
+      <c r="G32" s="82"/>
+      <c r="H32" s="149"/>
+      <c r="I32" s="150"/>
     </row>
     <row r="33" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="196" t="s">
+      <c r="C33" s="191" t="s">
         <v>149</v>
       </c>
-      <c r="D33" s="197"/>
-      <c r="E33" s="197"/>
-      <c r="F33" s="198"/>
-      <c r="G33" s="69">
+      <c r="D33" s="192"/>
+      <c r="E33" s="192"/>
+      <c r="F33" s="193"/>
+      <c r="G33" s="99">
         <v>1</v>
       </c>
-      <c r="H33" s="265"/>
-      <c r="I33" s="266"/>
+      <c r="H33" s="268"/>
+      <c r="I33" s="269"/>
     </row>
     <row r="34" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="233"/>
-      <c r="D34" s="234"/>
-      <c r="E34" s="234"/>
-      <c r="F34" s="235"/>
-      <c r="G34" s="85"/>
-      <c r="H34" s="267"/>
-      <c r="I34" s="268"/>
+      <c r="C34" s="203"/>
+      <c r="D34" s="204"/>
+      <c r="E34" s="204"/>
+      <c r="F34" s="205"/>
+      <c r="G34" s="101"/>
+      <c r="H34" s="270"/>
+      <c r="I34" s="271"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="123" t="s">
+      <c r="C35" s="70" t="s">
         <v>153</v>
       </c>
-      <c r="D35" s="123"/>
-      <c r="E35" s="123"/>
-      <c r="F35" s="123"/>
+      <c r="D35" s="70"/>
+      <c r="E35" s="70"/>
+      <c r="F35" s="70"/>
       <c r="G35" s="44"/>
-      <c r="H35" s="175" t="s">
+      <c r="H35" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="I35" s="175"/>
+      <c r="I35" s="71"/>
     </row>
     <row r="36" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="37" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="C37" s="114" t="s">
+      <c r="C37" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="D37" s="115"/>
-      <c r="E37" s="115"/>
-      <c r="F37" s="115"/>
+      <c r="D37" s="73"/>
+      <c r="E37" s="73"/>
+      <c r="F37" s="73"/>
       <c r="G37" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="H37" s="115" t="s">
+      <c r="H37" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="I37" s="116"/>
+      <c r="I37" s="74"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="194" t="s">
+      <c r="C38" s="208" t="s">
         <v>154</v>
       </c>
-      <c r="D38" s="123"/>
-      <c r="E38" s="123"/>
-      <c r="F38" s="124"/>
-      <c r="G38" s="128">
+      <c r="D38" s="70"/>
+      <c r="E38" s="70"/>
+      <c r="F38" s="143"/>
+      <c r="G38" s="81">
         <v>0.8</v>
       </c>
-      <c r="H38" s="195"/>
-      <c r="I38" s="130"/>
+      <c r="H38" s="190"/>
+      <c r="I38" s="148"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="125"/>
-      <c r="D39" s="126"/>
-      <c r="E39" s="126"/>
-      <c r="F39" s="127"/>
-      <c r="G39" s="70"/>
-      <c r="H39" s="131"/>
-      <c r="I39" s="132"/>
+      <c r="C39" s="144"/>
+      <c r="D39" s="145"/>
+      <c r="E39" s="145"/>
+      <c r="F39" s="146"/>
+      <c r="G39" s="82"/>
+      <c r="H39" s="149"/>
+      <c r="I39" s="150"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="57" t="s">
+      <c r="C40" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="58"/>
-      <c r="E40" s="58"/>
-      <c r="F40" s="59"/>
+      <c r="D40" s="61"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="62"/>
       <c r="G40" s="53"/>
-      <c r="H40" s="96"/>
-      <c r="I40" s="97"/>
+      <c r="H40" s="123"/>
+      <c r="I40" s="124"/>
     </row>
     <row r="41" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="196" t="s">
+      <c r="C41" s="191" t="s">
         <v>154</v>
       </c>
-      <c r="D41" s="197"/>
-      <c r="E41" s="197"/>
-      <c r="F41" s="198"/>
-      <c r="G41" s="69">
+      <c r="D41" s="192"/>
+      <c r="E41" s="192"/>
+      <c r="F41" s="193"/>
+      <c r="G41" s="99">
         <v>0.8</v>
       </c>
-      <c r="H41" s="86" t="s">
+      <c r="H41" s="102" t="s">
         <v>157</v>
       </c>
-      <c r="I41" s="87"/>
+      <c r="I41" s="103"/>
     </row>
     <row r="42" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C42" s="199"/>
-      <c r="D42" s="200"/>
-      <c r="E42" s="200"/>
-      <c r="F42" s="201"/>
-      <c r="G42" s="70"/>
-      <c r="H42" s="131"/>
-      <c r="I42" s="132"/>
+      <c r="C42" s="196"/>
+      <c r="D42" s="197"/>
+      <c r="E42" s="197"/>
+      <c r="F42" s="198"/>
+      <c r="G42" s="82"/>
+      <c r="H42" s="149"/>
+      <c r="I42" s="150"/>
     </row>
     <row r="43" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C43" s="196" t="s">
+      <c r="C43" s="191" t="s">
         <v>155</v>
       </c>
-      <c r="D43" s="197"/>
-      <c r="E43" s="197"/>
-      <c r="F43" s="198"/>
-      <c r="G43" s="69">
+      <c r="D43" s="192"/>
+      <c r="E43" s="192"/>
+      <c r="F43" s="193"/>
+      <c r="G43" s="99">
         <v>0.7</v>
       </c>
-      <c r="H43" s="86" t="s">
+      <c r="H43" s="102" t="s">
         <v>158</v>
       </c>
-      <c r="I43" s="87"/>
+      <c r="I43" s="103"/>
     </row>
     <row r="44" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C44" s="199"/>
-      <c r="D44" s="200"/>
-      <c r="E44" s="200"/>
-      <c r="F44" s="201"/>
-      <c r="G44" s="70"/>
-      <c r="H44" s="131"/>
-      <c r="I44" s="132"/>
+      <c r="C44" s="196"/>
+      <c r="D44" s="197"/>
+      <c r="E44" s="197"/>
+      <c r="F44" s="198"/>
+      <c r="G44" s="82"/>
+      <c r="H44" s="149"/>
+      <c r="I44" s="150"/>
     </row>
     <row r="45" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="196" t="s">
+      <c r="C45" s="191" t="s">
         <v>156</v>
       </c>
-      <c r="D45" s="197"/>
-      <c r="E45" s="197"/>
-      <c r="F45" s="198"/>
-      <c r="G45" s="69">
+      <c r="D45" s="192"/>
+      <c r="E45" s="192"/>
+      <c r="F45" s="193"/>
+      <c r="G45" s="99">
         <v>0.5</v>
       </c>
-      <c r="H45" s="86" t="s">
+      <c r="H45" s="102" t="s">
         <v>159</v>
       </c>
-      <c r="I45" s="87"/>
+      <c r="I45" s="103"/>
     </row>
     <row r="46" spans="2:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B46" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="233"/>
-      <c r="D46" s="234"/>
-      <c r="E46" s="234"/>
-      <c r="F46" s="235"/>
-      <c r="G46" s="85"/>
-      <c r="H46" s="90"/>
-      <c r="I46" s="91"/>
+      <c r="C46" s="203"/>
+      <c r="D46" s="204"/>
+      <c r="E46" s="204"/>
+      <c r="F46" s="205"/>
+      <c r="G46" s="101"/>
+      <c r="H46" s="106"/>
+      <c r="I46" s="107"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="C47" s="123" t="s">
+      <c r="C47" s="70" t="s">
         <v>162</v>
       </c>
-      <c r="D47" s="123"/>
-      <c r="E47" s="123"/>
-      <c r="F47" s="123"/>
+      <c r="D47" s="70"/>
+      <c r="E47" s="70"/>
+      <c r="F47" s="70"/>
       <c r="G47" s="44"/>
-      <c r="H47" s="56" t="s">
+      <c r="H47" s="166" t="s">
         <v>161</v>
       </c>
-      <c r="I47" s="56"/>
+      <c r="I47" s="166"/>
     </row>
     <row r="48" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="49" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B49" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="C49" s="114" t="s">
+      <c r="C49" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="D49" s="115"/>
-      <c r="E49" s="115"/>
-      <c r="F49" s="115"/>
+      <c r="D49" s="73"/>
+      <c r="E49" s="73"/>
+      <c r="F49" s="73"/>
       <c r="G49" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="H49" s="115" t="s">
+      <c r="H49" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="I49" s="116"/>
+      <c r="I49" s="74"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C50" s="194" t="s">
+      <c r="C50" s="208" t="s">
         <v>164</v>
       </c>
-      <c r="D50" s="123"/>
-      <c r="E50" s="123"/>
-      <c r="F50" s="124"/>
-      <c r="G50" s="128"/>
-      <c r="H50" s="269"/>
-      <c r="I50" s="270"/>
+      <c r="D50" s="70"/>
+      <c r="E50" s="70"/>
+      <c r="F50" s="143"/>
+      <c r="G50" s="81">
+        <v>1</v>
+      </c>
+      <c r="H50" s="255"/>
+      <c r="I50" s="256"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C51" s="125"/>
-      <c r="D51" s="126"/>
-      <c r="E51" s="126"/>
-      <c r="F51" s="127"/>
-      <c r="G51" s="70"/>
-      <c r="H51" s="73"/>
-      <c r="I51" s="74"/>
+      <c r="C51" s="144"/>
+      <c r="D51" s="145"/>
+      <c r="E51" s="145"/>
+      <c r="F51" s="146"/>
+      <c r="G51" s="82"/>
+      <c r="H51" s="169"/>
+      <c r="I51" s="170"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C52" s="57" t="s">
+      <c r="C52" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="D52" s="58"/>
-      <c r="E52" s="58"/>
-      <c r="F52" s="59"/>
+      <c r="D52" s="61"/>
+      <c r="E52" s="61"/>
+      <c r="F52" s="62"/>
       <c r="G52" s="55"/>
-      <c r="H52" s="93"/>
-      <c r="I52" s="94"/>
+      <c r="H52" s="65"/>
+      <c r="I52" s="66"/>
     </row>
     <row r="53" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C53" s="196" t="s">
+      <c r="C53" s="115" t="s">
         <v>165</v>
       </c>
-      <c r="D53" s="197"/>
-      <c r="E53" s="197"/>
-      <c r="F53" s="198"/>
-      <c r="G53" s="69"/>
-      <c r="H53" s="176"/>
-      <c r="I53" s="177"/>
+      <c r="D53" s="116"/>
+      <c r="E53" s="116"/>
+      <c r="F53" s="116"/>
+      <c r="G53" s="246">
+        <v>0.6</v>
+      </c>
+      <c r="H53" s="260" t="s">
+        <v>166</v>
+      </c>
+      <c r="I53" s="261"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C54" s="230"/>
-      <c r="D54" s="231"/>
-      <c r="E54" s="231"/>
-      <c r="F54" s="232"/>
-      <c r="G54" s="84"/>
-      <c r="H54" s="271"/>
-      <c r="I54" s="272"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C54" s="115"/>
+      <c r="D54" s="116"/>
+      <c r="E54" s="116"/>
+      <c r="F54" s="116"/>
+      <c r="G54" s="246"/>
+      <c r="H54" s="262"/>
+      <c r="I54" s="261"/>
+    </row>
+    <row r="55" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C55" s="199"/>
-      <c r="D55" s="200"/>
-      <c r="E55" s="200"/>
-      <c r="F55" s="201"/>
-      <c r="G55" s="70"/>
-      <c r="H55" s="178"/>
-      <c r="I55" s="179"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C55" s="115" t="s">
+        <v>167</v>
+      </c>
+      <c r="D55" s="116"/>
+      <c r="E55" s="116"/>
+      <c r="F55" s="116"/>
+      <c r="G55" s="246">
+        <v>0.6</v>
+      </c>
+      <c r="H55" s="263" t="s">
+        <v>168</v>
+      </c>
+      <c r="I55" s="264"/>
+    </row>
+    <row r="56" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C56" s="196" t="s">
-        <v>166</v>
-      </c>
-      <c r="D56" s="197"/>
-      <c r="E56" s="197"/>
-      <c r="F56" s="198"/>
-      <c r="G56" s="69"/>
-      <c r="H56" s="86"/>
-      <c r="I56" s="135"/>
+      <c r="C56" s="115"/>
+      <c r="D56" s="116"/>
+      <c r="E56" s="116"/>
+      <c r="F56" s="116"/>
+      <c r="G56" s="246"/>
+      <c r="H56" s="265"/>
+      <c r="I56" s="264"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C57" s="230"/>
-      <c r="D57" s="231"/>
-      <c r="E57" s="231"/>
-      <c r="F57" s="232"/>
-      <c r="G57" s="84"/>
-      <c r="H57" s="261"/>
-      <c r="I57" s="262"/>
+      <c r="C57" s="115"/>
+      <c r="D57" s="116"/>
+      <c r="E57" s="116"/>
+      <c r="F57" s="116"/>
+      <c r="G57" s="246"/>
+      <c r="H57" s="265"/>
+      <c r="I57" s="264"/>
     </row>
     <row r="58" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B58" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C58" s="233"/>
-      <c r="D58" s="234"/>
-      <c r="E58" s="234"/>
-      <c r="F58" s="235"/>
-      <c r="G58" s="85"/>
-      <c r="H58" s="136"/>
-      <c r="I58" s="137"/>
+      <c r="C58" s="258"/>
+      <c r="D58" s="259"/>
+      <c r="E58" s="259"/>
+      <c r="F58" s="259"/>
+      <c r="G58" s="251"/>
+      <c r="H58" s="266"/>
+      <c r="I58" s="267"/>
+    </row>
+    <row r="59" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="60" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="C60" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="D60" s="73"/>
+      <c r="E60" s="73"/>
+      <c r="F60" s="73"/>
+      <c r="G60" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="H60" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="I60" s="74"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B61" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" s="142" t="s">
+        <v>170</v>
+      </c>
+      <c r="D61" s="70"/>
+      <c r="E61" s="70"/>
+      <c r="F61" s="143"/>
+      <c r="G61" s="81">
+        <v>0</v>
+      </c>
+      <c r="H61" s="284" t="s">
+        <v>171</v>
+      </c>
+      <c r="I61" s="285"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B62" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="144"/>
+      <c r="D62" s="145"/>
+      <c r="E62" s="145"/>
+      <c r="F62" s="146"/>
+      <c r="G62" s="82"/>
+      <c r="H62" s="286"/>
+      <c r="I62" s="287"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B63" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="D63" s="61"/>
+      <c r="E63" s="61"/>
+      <c r="F63" s="62"/>
+      <c r="G63" s="56"/>
+      <c r="H63" s="63"/>
+      <c r="I63" s="64"/>
+    </row>
+    <row r="64" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" s="191" t="s">
+        <v>170</v>
+      </c>
+      <c r="D64" s="192"/>
+      <c r="E64" s="192"/>
+      <c r="F64" s="193"/>
+      <c r="G64" s="99">
+        <v>0.6</v>
+      </c>
+      <c r="H64" s="257" t="s">
+        <v>172</v>
+      </c>
+      <c r="I64" s="200"/>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B65" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" s="180"/>
+      <c r="D65" s="194"/>
+      <c r="E65" s="194"/>
+      <c r="F65" s="195"/>
+      <c r="G65" s="100"/>
+      <c r="H65" s="201"/>
+      <c r="I65" s="202"/>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B66" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="180"/>
+      <c r="D66" s="194"/>
+      <c r="E66" s="194"/>
+      <c r="F66" s="195"/>
+      <c r="G66" s="100"/>
+      <c r="H66" s="201"/>
+      <c r="I66" s="202"/>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B67" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67" s="196"/>
+      <c r="D67" s="197"/>
+      <c r="E67" s="197"/>
+      <c r="F67" s="198"/>
+      <c r="G67" s="82"/>
+      <c r="H67" s="85"/>
+      <c r="I67" s="86"/>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B68" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" s="191" t="s">
+        <v>173</v>
+      </c>
+      <c r="D68" s="214"/>
+      <c r="E68" s="214"/>
+      <c r="F68" s="215"/>
+      <c r="G68" s="99">
+        <v>0.6</v>
+      </c>
+      <c r="H68" s="102" t="s">
+        <v>174</v>
+      </c>
+      <c r="I68" s="152"/>
+    </row>
+    <row r="69" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="183"/>
+      <c r="D69" s="184"/>
+      <c r="E69" s="184"/>
+      <c r="F69" s="185"/>
+      <c r="G69" s="101"/>
+      <c r="H69" s="153"/>
+      <c r="I69" s="154"/>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B70" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="C70" s="71" t="s">
+        <v>176</v>
+      </c>
+      <c r="D70" s="71"/>
+      <c r="E70" s="71"/>
+      <c r="F70" s="71"/>
+      <c r="G70" s="44"/>
+      <c r="H70" s="70" t="s">
+        <v>177</v>
+      </c>
+      <c r="I70" s="70"/>
     </row>
   </sheetData>
-  <mergeCells count="82">
-    <mergeCell ref="C50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="H50:I51"/>
-    <mergeCell ref="C53:F55"/>
-    <mergeCell ref="G53:G55"/>
-    <mergeCell ref="H53:I55"/>
-    <mergeCell ref="C56:F58"/>
-    <mergeCell ref="G56:G58"/>
-    <mergeCell ref="H56:I58"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="C49:F49"/>
+  <mergeCells count="97">
     <mergeCell ref="H49:I49"/>
     <mergeCell ref="C43:F44"/>
     <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:I44"/>
+    <mergeCell ref="C68:F69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="H68:I69"/>
+    <mergeCell ref="C61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="H61:I62"/>
+    <mergeCell ref="C63:F63"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="C30:F32"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="H30:I32"/>
+    <mergeCell ref="C60:F60"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="C38:F39"/>
+    <mergeCell ref="C41:F42"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H38:I39"/>
+    <mergeCell ref="H41:I42"/>
     <mergeCell ref="C40:F40"/>
     <mergeCell ref="H40:I40"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="C18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:I19"/>
-    <mergeCell ref="C20:F22"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="H20:I22"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="H33:I34"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C49:F49"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="C12:F12"/>
@@ -6082,28 +6374,60 @@
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="H6:I6"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:I19"/>
+    <mergeCell ref="C20:F22"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="H20:I22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:I34"/>
+    <mergeCell ref="C28:F28"/>
     <mergeCell ref="H28:I28"/>
     <mergeCell ref="C29:F29"/>
     <mergeCell ref="H29:I29"/>
     <mergeCell ref="C26:F27"/>
     <mergeCell ref="G26:G27"/>
     <mergeCell ref="H26:I27"/>
-    <mergeCell ref="C30:F32"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="H30:I32"/>
+    <mergeCell ref="H43:I44"/>
     <mergeCell ref="C47:F47"/>
     <mergeCell ref="H47:I47"/>
     <mergeCell ref="G45:G46"/>
     <mergeCell ref="H45:I46"/>
     <mergeCell ref="C45:F46"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="C38:F39"/>
-    <mergeCell ref="C41:F42"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H38:I39"/>
-    <mergeCell ref="H41:I42"/>
+    <mergeCell ref="C70:F70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="C50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:I51"/>
+    <mergeCell ref="C64:F67"/>
+    <mergeCell ref="G64:G67"/>
+    <mergeCell ref="H64:I67"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="C53:F54"/>
+    <mergeCell ref="C55:F58"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="H53:I54"/>
+    <mergeCell ref="G55:G58"/>
+    <mergeCell ref="H55:I58"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6113,16 +6437,182 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5A5B6FC-CF1A-453B-8488-14729B516AED}">
-  <dimension ref="A1"/>
+  <dimension ref="B1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.375" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
+    <col min="8" max="8" width="20.75" customWidth="1"/>
+    <col min="9" max="9" width="24.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="74"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="208" t="s">
+        <v>181</v>
+      </c>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="143"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="255"/>
+      <c r="I3" s="256"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="144"/>
+      <c r="D4" s="145"/>
+      <c r="E4" s="145"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="169"/>
+      <c r="I4" s="170"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>179</v>
+      </c>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="66"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="87" t="s">
+        <v>181</v>
+      </c>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="66"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="60" t="s">
+        <v>180</v>
+      </c>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="66"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="87" t="s">
+        <v>180</v>
+      </c>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="66"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="191" t="s">
+        <v>182</v>
+      </c>
+      <c r="D9" s="192"/>
+      <c r="E9" s="192"/>
+      <c r="F9" s="193"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="288"/>
+      <c r="I9" s="289"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="180"/>
+      <c r="D10" s="194"/>
+      <c r="E10" s="194"/>
+      <c r="F10" s="195"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="290"/>
+      <c r="I10" s="291"/>
+    </row>
+    <row r="11" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="203"/>
+      <c r="D11" s="204"/>
+      <c r="E11" s="204"/>
+      <c r="F11" s="205"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="292"/>
+      <c r="I11" s="293"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="C3:F4"/>
+    <mergeCell ref="C9:F11"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:I4"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="H9:I11"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/졸작 진행 계획 시간표.xlsx
+++ b/졸작 진행 계획 시간표.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2020 졸작 깃\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2020 졸작 깃\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA44D4EC-CF1B-436C-B862-2D124297418D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15188006-4221-480F-A505-45AE2AF12562}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{E0805F39-A49F-47F5-8E79-FFCEB62D9AEC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{E0805F39-A49F-47F5-8E79-FFCEB62D9AEC}"/>
   </bookViews>
   <sheets>
     <sheet name="5월 4주차" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="188">
   <si>
     <t>월</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -848,6 +848,27 @@
   </si>
   <si>
     <t>GetBaseAim() 결과값 동기화시키기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업완료하였으나 노트북 1대 밖에 없어서 테스팅을 못해봄.
+테스팅 후 결과에 따라 수정해야함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>viewpoint 및 GetBaseAim 동기화 테스팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020. 06. 16. 화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 사망 관련 정보 및 애니메이션 동기화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이 중 게임 내 시간 동기화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1653,7 +1674,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="294">
+  <cellXfs count="296">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1834,6 +1855,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1843,17 +1873,341 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1864,343 +2218,199 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2224,200 +2434,83 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2428,12 +2521,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2456,66 +2543,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2856,18 +2883,18 @@
       <selection activeCell="B17" sqref="B17:I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="14.375" customWidth="1"/>
-    <col min="3" max="4" width="10.625" customWidth="1"/>
-    <col min="5" max="5" width="11.125" customWidth="1"/>
+    <col min="2" max="2" width="14.3984375" customWidth="1"/>
+    <col min="3" max="4" width="10.59765625" customWidth="1"/>
+    <col min="5" max="5" width="11.09765625" customWidth="1"/>
     <col min="6" max="6" width="13.5" customWidth="1"/>
-    <col min="7" max="7" width="10.375" customWidth="1"/>
-    <col min="9" max="9" width="28.625" customWidth="1"/>
+    <col min="7" max="7" width="10.3984375" customWidth="1"/>
+    <col min="9" max="9" width="28.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B4" s="5"/>
       <c r="C4" s="6" t="s">
         <v>0</v>
@@ -2892,7 +2919,7 @@
       </c>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B5" s="13" t="s">
         <v>7</v>
       </c>
@@ -2911,13 +2938,13 @@
       <c r="G5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="125" t="s">
+      <c r="H5" s="148" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="126"/>
+      <c r="I5" s="149"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B6" s="11" t="s">
         <v>8</v>
       </c>
@@ -2936,26 +2963,26 @@
       <c r="G6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="127"/>
-      <c r="I6" s="128"/>
+      <c r="H6" s="150"/>
+      <c r="I6" s="151"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="131" t="s">
+      <c r="C7" s="154" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="132"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="132"/>
-      <c r="G7" s="132"/>
-      <c r="H7" s="127"/>
-      <c r="I7" s="128"/>
+      <c r="D7" s="155"/>
+      <c r="E7" s="155"/>
+      <c r="F7" s="155"/>
+      <c r="G7" s="155"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="151"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="11" t="s">
         <v>10</v>
       </c>
@@ -2974,11 +3001,11 @@
       <c r="G8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="127"/>
-      <c r="I8" s="128"/>
+      <c r="H8" s="150"/>
+      <c r="I8" s="151"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B9" s="11" t="s">
         <v>11</v>
       </c>
@@ -2997,11 +3024,11 @@
       <c r="G9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="127"/>
-      <c r="I9" s="128"/>
+      <c r="H9" s="150"/>
+      <c r="I9" s="151"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B10" s="11" t="s">
         <v>12</v>
       </c>
@@ -3020,11 +3047,11 @@
       <c r="G10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="127"/>
-      <c r="I10" s="128"/>
+      <c r="H10" s="150"/>
+      <c r="I10" s="151"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B11" s="11" t="s">
         <v>13</v>
       </c>
@@ -3043,11 +3070,11 @@
       <c r="G11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128"/>
+      <c r="H11" s="150"/>
+      <c r="I11" s="151"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B12" s="11" t="s">
         <v>14</v>
       </c>
@@ -3066,11 +3093,11 @@
       <c r="G12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="127"/>
-      <c r="I12" s="128"/>
+      <c r="H12" s="150"/>
+      <c r="I12" s="151"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B13" s="12" t="s">
         <v>15</v>
       </c>
@@ -3089,11 +3116,11 @@
       <c r="G13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="129"/>
-      <c r="I13" s="130"/>
+      <c r="H13" s="152"/>
+      <c r="I13" s="153"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
         <v>18</v>
@@ -3114,7 +3141,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -3125,1066 +3152,1137 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="72" t="s">
+      <c r="C17" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
+      <c r="D17" s="121"/>
+      <c r="E17" s="121"/>
+      <c r="F17" s="121"/>
       <c r="G17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="73" t="s">
+      <c r="H17" s="121" t="s">
         <v>24</v>
       </c>
-      <c r="I17" s="74"/>
+      <c r="I17" s="122"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B18" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="108" t="s">
+      <c r="C18" s="123" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="109"/>
-      <c r="E18" s="109"/>
-      <c r="F18" s="110"/>
+      <c r="D18" s="124"/>
+      <c r="E18" s="124"/>
+      <c r="F18" s="125"/>
       <c r="G18" s="16">
         <v>1</v>
       </c>
-      <c r="H18" s="113"/>
-      <c r="I18" s="114"/>
+      <c r="H18" s="156"/>
+      <c r="I18" s="157"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B19" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="C19" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="62"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="65"/>
       <c r="G19" s="16">
         <v>1</v>
       </c>
-      <c r="H19" s="65"/>
-      <c r="I19" s="66"/>
+      <c r="H19" s="99"/>
+      <c r="I19" s="100"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B20" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="60" t="s">
+      <c r="C20" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="62"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="65"/>
       <c r="G20" s="16"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="66"/>
+      <c r="H20" s="99"/>
+      <c r="I20" s="100"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B21" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="87" t="s">
+      <c r="C21" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="62"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="65"/>
       <c r="G21" s="16">
         <v>1</v>
       </c>
-      <c r="H21" s="65"/>
-      <c r="I21" s="66"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H21" s="99"/>
+      <c r="I21" s="100"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B22" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="60" t="s">
+      <c r="C22" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="62"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="65"/>
       <c r="G22" s="16"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="66"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H22" s="99"/>
+      <c r="I22" s="100"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B23" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="60" t="s">
+      <c r="C23" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="62"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="65"/>
       <c r="G23" s="16"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="66"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H23" s="99"/>
+      <c r="I23" s="100"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B24" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="60" t="s">
+      <c r="C24" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="62"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="65"/>
       <c r="G24" s="16">
         <v>1</v>
       </c>
-      <c r="H24" s="65"/>
-      <c r="I24" s="66"/>
-    </row>
-    <row r="25" spans="2:10" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H24" s="99"/>
+      <c r="I24" s="100"/>
+    </row>
+    <row r="25" spans="2:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="60" t="s">
+      <c r="C25" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="62"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="65"/>
       <c r="G25" s="16">
         <v>0.8</v>
       </c>
-      <c r="H25" s="138" t="s">
+      <c r="H25" s="146" t="s">
         <v>38</v>
       </c>
-      <c r="I25" s="139"/>
-    </row>
-    <row r="26" spans="2:10" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I25" s="147"/>
+    </row>
+    <row r="26" spans="2:10" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B26" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="133" t="s">
+      <c r="C26" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="134"/>
-      <c r="E26" s="134"/>
-      <c r="F26" s="135"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="68"/>
       <c r="G26" s="17">
         <v>1</v>
       </c>
-      <c r="H26" s="136"/>
-      <c r="I26" s="137"/>
-    </row>
-    <row r="27" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H26" s="144"/>
+      <c r="I26" s="145"/>
+    </row>
+    <row r="27" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="28" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B28" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="72" t="s">
+      <c r="C28" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
+      <c r="D28" s="121"/>
+      <c r="E28" s="121"/>
+      <c r="F28" s="121"/>
       <c r="G28" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H28" s="73" t="s">
+      <c r="H28" s="121" t="s">
         <v>24</v>
       </c>
-      <c r="I28" s="74"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I28" s="122"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B29" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="108" t="s">
+      <c r="C29" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="109"/>
-      <c r="E29" s="109"/>
-      <c r="F29" s="110"/>
+      <c r="D29" s="124"/>
+      <c r="E29" s="124"/>
+      <c r="F29" s="125"/>
       <c r="G29" s="16"/>
-      <c r="H29" s="140"/>
-      <c r="I29" s="141"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H29" s="126"/>
+      <c r="I29" s="127"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B30" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="60" t="s">
+      <c r="C30" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="62"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="65"/>
       <c r="G30" s="16"/>
-      <c r="H30" s="121"/>
-      <c r="I30" s="122"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H30" s="139"/>
+      <c r="I30" s="140"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B31" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="60" t="s">
+      <c r="C31" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="62"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="65"/>
       <c r="G31" s="16"/>
-      <c r="H31" s="121"/>
-      <c r="I31" s="122"/>
-    </row>
-    <row r="32" spans="2:10" ht="80.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H31" s="139"/>
+      <c r="I31" s="140"/>
+    </row>
+    <row r="32" spans="2:10" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="87" t="s">
+      <c r="C32" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="62"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="65"/>
       <c r="G32" s="16">
         <v>0.5</v>
       </c>
-      <c r="H32" s="151" t="s">
+      <c r="H32" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="I32" s="124"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I32" s="103"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B33" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="60" t="s">
+      <c r="C33" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="62"/>
+      <c r="D33" s="64"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="65"/>
       <c r="G33" s="16">
         <v>1</v>
       </c>
-      <c r="H33" s="121"/>
-      <c r="I33" s="122"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H33" s="139"/>
+      <c r="I33" s="140"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B34" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="60" t="s">
+      <c r="C34" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="61"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="62"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="65"/>
       <c r="G34" s="16">
         <v>1</v>
       </c>
-      <c r="H34" s="121"/>
-      <c r="I34" s="122"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H34" s="139"/>
+      <c r="I34" s="140"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B35" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="60" t="s">
+      <c r="C35" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="62"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="65"/>
       <c r="G35" s="16">
         <v>1</v>
       </c>
-      <c r="H35" s="121"/>
-      <c r="I35" s="122"/>
-    </row>
-    <row r="36" spans="2:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H35" s="139"/>
+      <c r="I35" s="140"/>
+    </row>
+    <row r="36" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="60" t="s">
+      <c r="C36" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="D36" s="61"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="99">
+      <c r="D36" s="64"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="75">
         <v>0.5</v>
       </c>
-      <c r="H36" s="102" t="s">
+      <c r="H36" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="I36" s="152"/>
-    </row>
-    <row r="37" spans="2:10" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I36" s="141"/>
+    </row>
+    <row r="37" spans="2:10" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B37" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="133" t="s">
+      <c r="C37" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="D37" s="134"/>
-      <c r="E37" s="134"/>
-      <c r="F37" s="135"/>
-      <c r="G37" s="101"/>
-      <c r="H37" s="153"/>
-      <c r="I37" s="154"/>
-    </row>
-    <row r="38" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="39" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D37" s="67"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="68"/>
+      <c r="G37" s="91"/>
+      <c r="H37" s="142"/>
+      <c r="I37" s="143"/>
+    </row>
+    <row r="38" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="39" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B39" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C39" s="72" t="s">
+      <c r="C39" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="73"/>
-      <c r="E39" s="73"/>
-      <c r="F39" s="73"/>
+      <c r="D39" s="121"/>
+      <c r="E39" s="121"/>
+      <c r="F39" s="121"/>
       <c r="G39" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="H39" s="73" t="s">
+      <c r="H39" s="121" t="s">
         <v>24</v>
       </c>
-      <c r="I39" s="74"/>
-    </row>
-    <row r="40" spans="2:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I39" s="122"/>
+    </row>
+    <row r="40" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="142" t="s">
+      <c r="C40" s="128" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="70"/>
-      <c r="E40" s="70"/>
-      <c r="F40" s="143"/>
-      <c r="G40" s="81">
+      <c r="D40" s="129"/>
+      <c r="E40" s="129"/>
+      <c r="F40" s="130"/>
+      <c r="G40" s="134">
         <v>0.3</v>
       </c>
-      <c r="H40" s="147" t="s">
+      <c r="H40" s="135" t="s">
         <v>46</v>
       </c>
-      <c r="I40" s="148"/>
-    </row>
-    <row r="41" spans="2:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I40" s="136"/>
+    </row>
+    <row r="41" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C41" s="144"/>
-      <c r="D41" s="145"/>
-      <c r="E41" s="145"/>
-      <c r="F41" s="146"/>
-      <c r="G41" s="82"/>
-      <c r="H41" s="149"/>
-      <c r="I41" s="150"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C41" s="131"/>
+      <c r="D41" s="132"/>
+      <c r="E41" s="132"/>
+      <c r="F41" s="133"/>
+      <c r="G41" s="76"/>
+      <c r="H41" s="137"/>
+      <c r="I41" s="138"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B42" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="60" t="s">
+      <c r="C42" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="D42" s="61"/>
-      <c r="E42" s="61"/>
-      <c r="F42" s="62"/>
+      <c r="D42" s="64"/>
+      <c r="E42" s="64"/>
+      <c r="F42" s="65"/>
       <c r="G42" s="16"/>
-      <c r="H42" s="123"/>
-      <c r="I42" s="124"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H42" s="102"/>
+      <c r="I42" s="103"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B43" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="87" t="s">
+      <c r="C43" s="98" t="s">
         <v>43</v>
       </c>
-      <c r="D43" s="61"/>
-      <c r="E43" s="61"/>
-      <c r="F43" s="62"/>
+      <c r="D43" s="64"/>
+      <c r="E43" s="64"/>
+      <c r="F43" s="65"/>
       <c r="G43" s="20">
         <v>1</v>
       </c>
-      <c r="H43" s="123"/>
-      <c r="I43" s="124"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H43" s="102"/>
+      <c r="I43" s="103"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B44" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C44" s="87" t="s">
+      <c r="C44" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="D44" s="61"/>
-      <c r="E44" s="61"/>
-      <c r="F44" s="62"/>
+      <c r="D44" s="64"/>
+      <c r="E44" s="64"/>
+      <c r="F44" s="65"/>
       <c r="G44" s="20">
         <v>1</v>
       </c>
-      <c r="H44" s="123"/>
-      <c r="I44" s="124"/>
-    </row>
-    <row r="45" spans="2:10" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H44" s="102"/>
+      <c r="I44" s="103"/>
+    </row>
+    <row r="45" spans="2:10" ht="36.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C45" s="115" t="s">
+      <c r="C45" s="158" t="s">
         <v>47</v>
       </c>
-      <c r="D45" s="116"/>
-      <c r="E45" s="116"/>
-      <c r="F45" s="116"/>
+      <c r="D45" s="159"/>
+      <c r="E45" s="159"/>
+      <c r="F45" s="159"/>
       <c r="G45" s="22"/>
-      <c r="H45" s="117"/>
-      <c r="I45" s="118"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H45" s="160"/>
+      <c r="I45" s="161"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B46" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C46" s="119" t="s">
+      <c r="C46" s="162" t="s">
         <v>51</v>
       </c>
-      <c r="D46" s="120"/>
-      <c r="E46" s="120"/>
-      <c r="F46" s="120"/>
+      <c r="D46" s="163"/>
+      <c r="E46" s="163"/>
+      <c r="F46" s="163"/>
       <c r="G46" s="22">
         <v>1</v>
       </c>
-      <c r="H46" s="121"/>
-      <c r="I46" s="122"/>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H46" s="139"/>
+      <c r="I46" s="140"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B47" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="60" t="s">
+      <c r="C47" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="D47" s="61"/>
-      <c r="E47" s="61"/>
-      <c r="F47" s="62"/>
+      <c r="D47" s="64"/>
+      <c r="E47" s="64"/>
+      <c r="F47" s="65"/>
       <c r="G47" s="21">
         <v>1</v>
       </c>
-      <c r="H47" s="151"/>
-      <c r="I47" s="164"/>
-    </row>
-    <row r="48" spans="2:10" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H47" s="115"/>
+      <c r="I47" s="116"/>
+    </row>
+    <row r="48" spans="2:10" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="133" t="s">
+      <c r="C48" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="D48" s="134"/>
-      <c r="E48" s="134"/>
-      <c r="F48" s="135"/>
+      <c r="D48" s="67"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="68"/>
       <c r="G48" s="17">
         <v>0.8</v>
       </c>
-      <c r="H48" s="162" t="s">
+      <c r="H48" s="113" t="s">
         <v>50</v>
       </c>
-      <c r="I48" s="165"/>
+      <c r="I48" s="117"/>
       <c r="J48" s="25" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="50" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="50" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B50" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C50" s="72" t="s">
+      <c r="C50" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="D50" s="73"/>
-      <c r="E50" s="73"/>
-      <c r="F50" s="73"/>
+      <c r="D50" s="121"/>
+      <c r="E50" s="121"/>
+      <c r="F50" s="121"/>
       <c r="G50" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H50" s="73" t="s">
+      <c r="H50" s="121" t="s">
         <v>24</v>
       </c>
-      <c r="I50" s="74"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I50" s="122"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B51" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C51" s="108" t="s">
+      <c r="C51" s="123" t="s">
         <v>53</v>
       </c>
-      <c r="D51" s="109"/>
-      <c r="E51" s="109"/>
-      <c r="F51" s="110"/>
+      <c r="D51" s="124"/>
+      <c r="E51" s="124"/>
+      <c r="F51" s="125"/>
       <c r="G51" s="20">
         <v>1</v>
       </c>
-      <c r="H51" s="113"/>
-      <c r="I51" s="114"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H51" s="156"/>
+      <c r="I51" s="157"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B52" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C52" s="60" t="s">
+      <c r="C52" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="D52" s="61"/>
-      <c r="E52" s="61"/>
-      <c r="F52" s="62"/>
+      <c r="D52" s="64"/>
+      <c r="E52" s="64"/>
+      <c r="F52" s="65"/>
       <c r="G52" s="20">
         <v>1</v>
       </c>
-      <c r="H52" s="65"/>
-      <c r="I52" s="66"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H52" s="99"/>
+      <c r="I52" s="100"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B53" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C53" s="60" t="s">
+      <c r="C53" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="D53" s="61"/>
-      <c r="E53" s="61"/>
-      <c r="F53" s="62"/>
+      <c r="D53" s="64"/>
+      <c r="E53" s="64"/>
+      <c r="F53" s="65"/>
       <c r="G53" s="20"/>
-      <c r="H53" s="65"/>
-      <c r="I53" s="66"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H53" s="99"/>
+      <c r="I53" s="100"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B54" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C54" s="87" t="s">
+      <c r="C54" s="98" t="s">
         <v>55</v>
       </c>
-      <c r="D54" s="88"/>
-      <c r="E54" s="88"/>
-      <c r="F54" s="89"/>
+      <c r="D54" s="118"/>
+      <c r="E54" s="118"/>
+      <c r="F54" s="119"/>
       <c r="G54" s="20">
         <v>1</v>
       </c>
-      <c r="H54" s="65"/>
-      <c r="I54" s="66"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H54" s="99"/>
+      <c r="I54" s="100"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B55" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C55" s="60" t="s">
+      <c r="C55" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="D55" s="61"/>
-      <c r="E55" s="61"/>
-      <c r="F55" s="62"/>
+      <c r="D55" s="64"/>
+      <c r="E55" s="64"/>
+      <c r="F55" s="65"/>
       <c r="G55" s="20">
         <v>1</v>
       </c>
-      <c r="H55" s="65"/>
-      <c r="I55" s="66"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H55" s="99"/>
+      <c r="I55" s="100"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B56" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C56" s="87" t="s">
+      <c r="C56" s="98" t="s">
         <v>58</v>
       </c>
-      <c r="D56" s="88"/>
-      <c r="E56" s="88"/>
-      <c r="F56" s="89"/>
+      <c r="D56" s="118"/>
+      <c r="E56" s="118"/>
+      <c r="F56" s="119"/>
       <c r="G56" s="20">
         <v>1</v>
       </c>
-      <c r="H56" s="65"/>
-      <c r="I56" s="66"/>
-    </row>
-    <row r="57" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H56" s="99"/>
+      <c r="I56" s="100"/>
+    </row>
+    <row r="57" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C57" s="90" t="s">
+      <c r="C57" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="D57" s="91"/>
-      <c r="E57" s="91"/>
-      <c r="F57" s="92"/>
-      <c r="G57" s="99">
+      <c r="D57" s="70"/>
+      <c r="E57" s="70"/>
+      <c r="F57" s="71"/>
+      <c r="G57" s="75">
         <v>0.3</v>
       </c>
-      <c r="H57" s="102" t="s">
+      <c r="H57" s="92" t="s">
         <v>60</v>
       </c>
-      <c r="I57" s="103"/>
-    </row>
-    <row r="58" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I57" s="93"/>
+    </row>
+    <row r="58" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C58" s="93"/>
-      <c r="D58" s="94"/>
-      <c r="E58" s="94"/>
-      <c r="F58" s="95"/>
-      <c r="G58" s="100"/>
-      <c r="H58" s="104"/>
-      <c r="I58" s="105"/>
-    </row>
-    <row r="59" spans="2:9" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C58" s="104"/>
+      <c r="D58" s="105"/>
+      <c r="E58" s="105"/>
+      <c r="F58" s="106"/>
+      <c r="G58" s="90"/>
+      <c r="H58" s="94"/>
+      <c r="I58" s="95"/>
+    </row>
+    <row r="59" spans="2:9" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B59" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C59" s="96"/>
-      <c r="D59" s="97"/>
-      <c r="E59" s="97"/>
-      <c r="F59" s="98"/>
-      <c r="G59" s="101"/>
-      <c r="H59" s="106"/>
-      <c r="I59" s="107"/>
-    </row>
-    <row r="60" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="61" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C59" s="171"/>
+      <c r="D59" s="172"/>
+      <c r="E59" s="172"/>
+      <c r="F59" s="173"/>
+      <c r="G59" s="91"/>
+      <c r="H59" s="96"/>
+      <c r="I59" s="97"/>
+    </row>
+    <row r="60" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="61" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B61" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C61" s="72" t="s">
+      <c r="C61" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="D61" s="73"/>
-      <c r="E61" s="73"/>
-      <c r="F61" s="73"/>
+      <c r="D61" s="121"/>
+      <c r="E61" s="121"/>
+      <c r="F61" s="121"/>
       <c r="G61" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="H61" s="73" t="s">
+      <c r="H61" s="121" t="s">
         <v>24</v>
       </c>
-      <c r="I61" s="74"/>
-    </row>
-    <row r="62" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I61" s="122"/>
+    </row>
+    <row r="62" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B62" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C62" s="75" t="s">
+      <c r="C62" s="164" t="s">
         <v>59</v>
       </c>
-      <c r="D62" s="76"/>
-      <c r="E62" s="76"/>
-      <c r="F62" s="77"/>
-      <c r="G62" s="81">
+      <c r="D62" s="165"/>
+      <c r="E62" s="165"/>
+      <c r="F62" s="166"/>
+      <c r="G62" s="134">
         <v>0.3</v>
       </c>
-      <c r="H62" s="83" t="s">
+      <c r="H62" s="167" t="s">
         <v>67</v>
       </c>
-      <c r="I62" s="84"/>
-    </row>
-    <row r="63" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I62" s="168"/>
+    </row>
+    <row r="63" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B63" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C63" s="78"/>
-      <c r="D63" s="79"/>
-      <c r="E63" s="79"/>
-      <c r="F63" s="80"/>
-      <c r="G63" s="82"/>
-      <c r="H63" s="85"/>
-      <c r="I63" s="86"/>
-    </row>
-    <row r="64" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C63" s="72"/>
+      <c r="D63" s="73"/>
+      <c r="E63" s="73"/>
+      <c r="F63" s="74"/>
+      <c r="G63" s="76"/>
+      <c r="H63" s="169"/>
+      <c r="I63" s="170"/>
+    </row>
+    <row r="64" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B64" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C64" s="60" t="s">
+      <c r="C64" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="D64" s="61"/>
-      <c r="E64" s="61"/>
-      <c r="F64" s="62"/>
+      <c r="D64" s="64"/>
+      <c r="E64" s="64"/>
+      <c r="F64" s="65"/>
       <c r="G64" s="24"/>
-      <c r="H64" s="67"/>
-      <c r="I64" s="68"/>
-    </row>
-    <row r="65" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H64" s="178"/>
+      <c r="I64" s="179"/>
+    </row>
+    <row r="65" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B65" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C65" s="90" t="s">
+      <c r="C65" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="D65" s="91"/>
-      <c r="E65" s="91"/>
-      <c r="F65" s="92"/>
-      <c r="G65" s="99">
+      <c r="D65" s="70"/>
+      <c r="E65" s="70"/>
+      <c r="F65" s="71"/>
+      <c r="G65" s="75">
         <v>1</v>
       </c>
-      <c r="H65" s="156" t="s">
+      <c r="H65" s="107" t="s">
         <v>68</v>
       </c>
-      <c r="I65" s="157"/>
-      <c r="L65" s="87" t="s">
+      <c r="I65" s="108"/>
+      <c r="L65" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="M65" s="61"/>
-      <c r="N65" s="61"/>
-      <c r="O65" s="62"/>
-    </row>
-    <row r="66" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M65" s="64"/>
+      <c r="N65" s="64"/>
+      <c r="O65" s="65"/>
+    </row>
+    <row r="66" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B66" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C66" s="93"/>
-      <c r="D66" s="94"/>
-      <c r="E66" s="94"/>
-      <c r="F66" s="95"/>
-      <c r="G66" s="100"/>
-      <c r="H66" s="158"/>
-      <c r="I66" s="159"/>
-      <c r="L66" s="60" t="s">
+      <c r="C66" s="104"/>
+      <c r="D66" s="105"/>
+      <c r="E66" s="105"/>
+      <c r="F66" s="106"/>
+      <c r="G66" s="90"/>
+      <c r="H66" s="109"/>
+      <c r="I66" s="110"/>
+      <c r="L66" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="M66" s="61"/>
-      <c r="N66" s="61"/>
-      <c r="O66" s="62"/>
-    </row>
-    <row r="67" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M66" s="64"/>
+      <c r="N66" s="64"/>
+      <c r="O66" s="65"/>
+    </row>
+    <row r="67" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B67" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C67" s="93"/>
-      <c r="D67" s="94"/>
-      <c r="E67" s="94"/>
-      <c r="F67" s="95"/>
-      <c r="G67" s="100"/>
-      <c r="H67" s="158"/>
-      <c r="I67" s="159"/>
-      <c r="L67" s="60" t="s">
+      <c r="C67" s="104"/>
+      <c r="D67" s="105"/>
+      <c r="E67" s="105"/>
+      <c r="F67" s="106"/>
+      <c r="G67" s="90"/>
+      <c r="H67" s="109"/>
+      <c r="I67" s="110"/>
+      <c r="L67" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="M67" s="61"/>
-      <c r="N67" s="61"/>
-      <c r="O67" s="62"/>
-    </row>
-    <row r="68" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M67" s="64"/>
+      <c r="N67" s="64"/>
+      <c r="O67" s="65"/>
+    </row>
+    <row r="68" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B68" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C68" s="93"/>
-      <c r="D68" s="94"/>
-      <c r="E68" s="94"/>
-      <c r="F68" s="95"/>
-      <c r="G68" s="100"/>
-      <c r="H68" s="158"/>
-      <c r="I68" s="159"/>
-      <c r="L68" s="60" t="s">
+      <c r="C68" s="104"/>
+      <c r="D68" s="105"/>
+      <c r="E68" s="105"/>
+      <c r="F68" s="106"/>
+      <c r="G68" s="90"/>
+      <c r="H68" s="109"/>
+      <c r="I68" s="110"/>
+      <c r="L68" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="M68" s="61"/>
-      <c r="N68" s="61"/>
-      <c r="O68" s="62"/>
-    </row>
-    <row r="69" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M68" s="64"/>
+      <c r="N68" s="64"/>
+      <c r="O68" s="65"/>
+    </row>
+    <row r="69" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B69" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C69" s="78"/>
-      <c r="D69" s="79"/>
-      <c r="E69" s="79"/>
-      <c r="F69" s="80"/>
-      <c r="G69" s="82"/>
-      <c r="H69" s="160"/>
-      <c r="I69" s="161"/>
-      <c r="L69" s="60" t="s">
+      <c r="C69" s="72"/>
+      <c r="D69" s="73"/>
+      <c r="E69" s="73"/>
+      <c r="F69" s="74"/>
+      <c r="G69" s="76"/>
+      <c r="H69" s="111"/>
+      <c r="I69" s="112"/>
+      <c r="L69" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="M69" s="61"/>
-      <c r="N69" s="61"/>
-      <c r="O69" s="62"/>
-    </row>
-    <row r="70" spans="2:15" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M69" s="64"/>
+      <c r="N69" s="64"/>
+      <c r="O69" s="65"/>
+    </row>
+    <row r="70" spans="2:15" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B70" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C70" s="133" t="s">
+      <c r="C70" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="D70" s="134"/>
-      <c r="E70" s="134"/>
-      <c r="F70" s="135"/>
+      <c r="D70" s="67"/>
+      <c r="E70" s="67"/>
+      <c r="F70" s="68"/>
       <c r="G70" s="17">
         <v>0.5</v>
       </c>
-      <c r="H70" s="162" t="s">
+      <c r="H70" s="113" t="s">
         <v>70</v>
       </c>
-      <c r="I70" s="163"/>
-      <c r="L70" s="133" t="s">
+      <c r="I70" s="114"/>
+      <c r="L70" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="M70" s="134"/>
-      <c r="N70" s="134"/>
-      <c r="O70" s="135"/>
-    </row>
-    <row r="71" spans="2:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M70" s="67"/>
+      <c r="N70" s="67"/>
+      <c r="O70" s="68"/>
+    </row>
+    <row r="71" spans="2:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B71" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="C71" s="69" t="s">
+      <c r="C71" s="180" t="s">
         <v>71</v>
       </c>
-      <c r="D71" s="70"/>
-      <c r="E71" s="70"/>
-      <c r="F71" s="70"/>
-      <c r="H71" s="71" t="s">
+      <c r="D71" s="129"/>
+      <c r="E71" s="129"/>
+      <c r="F71" s="129"/>
+      <c r="H71" s="181" t="s">
         <v>73</v>
       </c>
-      <c r="I71" s="71"/>
+      <c r="I71" s="181"/>
       <c r="J71" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="73" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="74" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="74" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B74" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C74" s="72" t="s">
+      <c r="C74" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="D74" s="73"/>
-      <c r="E74" s="73"/>
-      <c r="F74" s="73"/>
+      <c r="D74" s="121"/>
+      <c r="E74" s="121"/>
+      <c r="F74" s="121"/>
       <c r="G74" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="H74" s="73" t="s">
+      <c r="H74" s="121" t="s">
         <v>24</v>
       </c>
-      <c r="I74" s="74"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="I74" s="122"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B75" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C75" s="108" t="s">
+      <c r="C75" s="123" t="s">
         <v>77</v>
       </c>
-      <c r="D75" s="109"/>
-      <c r="E75" s="109"/>
-      <c r="F75" s="110"/>
+      <c r="D75" s="124"/>
+      <c r="E75" s="124"/>
+      <c r="F75" s="125"/>
       <c r="G75" s="27">
         <v>0</v>
       </c>
-      <c r="H75" s="111" t="s">
+      <c r="H75" s="174" t="s">
         <v>83</v>
       </c>
-      <c r="I75" s="112"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="I75" s="175"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B76" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C76" s="60" t="s">
+      <c r="C76" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="D76" s="61"/>
-      <c r="E76" s="61"/>
-      <c r="F76" s="62"/>
+      <c r="D76" s="64"/>
+      <c r="E76" s="64"/>
+      <c r="F76" s="65"/>
       <c r="G76" s="27">
         <v>0</v>
       </c>
-      <c r="H76" s="63" t="s">
+      <c r="H76" s="176" t="s">
         <v>83</v>
       </c>
-      <c r="I76" s="64"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="I76" s="177"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B77" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C77" s="60" t="s">
+      <c r="C77" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="D77" s="61"/>
-      <c r="E77" s="61"/>
-      <c r="F77" s="62"/>
+      <c r="D77" s="64"/>
+      <c r="E77" s="64"/>
+      <c r="F77" s="65"/>
       <c r="G77" s="27"/>
-      <c r="H77" s="65"/>
-      <c r="I77" s="66"/>
-    </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="H77" s="99"/>
+      <c r="I77" s="100"/>
+    </row>
+    <row r="78" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B78" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C78" s="87" t="s">
+      <c r="C78" s="98" t="s">
         <v>79</v>
       </c>
-      <c r="D78" s="61"/>
-      <c r="E78" s="61"/>
-      <c r="F78" s="62"/>
+      <c r="D78" s="64"/>
+      <c r="E78" s="64"/>
+      <c r="F78" s="65"/>
       <c r="G78" s="27">
         <v>1</v>
       </c>
-      <c r="H78" s="65"/>
-      <c r="I78" s="66"/>
-      <c r="L78" s="60" t="s">
+      <c r="H78" s="99"/>
+      <c r="I78" s="100"/>
+      <c r="L78" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="M78" s="61"/>
-      <c r="N78" s="61"/>
-      <c r="O78" s="62"/>
-    </row>
-    <row r="79" spans="2:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M78" s="64"/>
+      <c r="N78" s="64"/>
+      <c r="O78" s="65"/>
+    </row>
+    <row r="79" spans="2:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C79" s="90" t="s">
+      <c r="C79" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="D79" s="91"/>
-      <c r="E79" s="91"/>
-      <c r="F79" s="92"/>
-      <c r="G79" s="99">
+      <c r="D79" s="70"/>
+      <c r="E79" s="70"/>
+      <c r="F79" s="71"/>
+      <c r="G79" s="75">
         <v>1</v>
       </c>
-      <c r="H79" s="167"/>
-      <c r="I79" s="168"/>
-      <c r="L79" s="60" t="s">
+      <c r="H79" s="77"/>
+      <c r="I79" s="78"/>
+      <c r="L79" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="M79" s="61"/>
-      <c r="N79" s="61"/>
-      <c r="O79" s="62"/>
-    </row>
-    <row r="80" spans="2:15" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M79" s="64"/>
+      <c r="N79" s="64"/>
+      <c r="O79" s="65"/>
+    </row>
+    <row r="80" spans="2:15" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B80" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C80" s="78"/>
-      <c r="D80" s="79"/>
-      <c r="E80" s="79"/>
-      <c r="F80" s="80"/>
-      <c r="G80" s="82"/>
-      <c r="H80" s="169"/>
-      <c r="I80" s="170"/>
-      <c r="L80" s="133" t="s">
+      <c r="C80" s="72"/>
+      <c r="D80" s="73"/>
+      <c r="E80" s="73"/>
+      <c r="F80" s="74"/>
+      <c r="G80" s="76"/>
+      <c r="H80" s="79"/>
+      <c r="I80" s="80"/>
+      <c r="L80" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="M80" s="134"/>
-      <c r="N80" s="134"/>
-      <c r="O80" s="135"/>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M80" s="67"/>
+      <c r="N80" s="67"/>
+      <c r="O80" s="68"/>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B81" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C81" s="171" t="s">
+      <c r="C81" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="D81" s="172"/>
-      <c r="E81" s="172"/>
-      <c r="F81" s="173"/>
-      <c r="G81" s="99">
+      <c r="D81" s="82"/>
+      <c r="E81" s="82"/>
+      <c r="F81" s="83"/>
+      <c r="G81" s="75">
         <v>0.7</v>
       </c>
-      <c r="H81" s="102" t="s">
+      <c r="H81" s="92" t="s">
         <v>85</v>
       </c>
-      <c r="I81" s="103"/>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I81" s="93"/>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B82" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C82" s="174"/>
-      <c r="D82" s="175"/>
-      <c r="E82" s="175"/>
-      <c r="F82" s="176"/>
-      <c r="G82" s="100"/>
-      <c r="H82" s="104"/>
-      <c r="I82" s="105"/>
-    </row>
-    <row r="83" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C82" s="84"/>
+      <c r="D82" s="85"/>
+      <c r="E82" s="85"/>
+      <c r="F82" s="86"/>
+      <c r="G82" s="90"/>
+      <c r="H82" s="94"/>
+      <c r="I82" s="95"/>
+    </row>
+    <row r="83" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C83" s="177"/>
-      <c r="D83" s="178"/>
-      <c r="E83" s="178"/>
-      <c r="F83" s="179"/>
-      <c r="G83" s="101"/>
-      <c r="H83" s="106"/>
-      <c r="I83" s="107"/>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C83" s="87"/>
+      <c r="D83" s="88"/>
+      <c r="E83" s="88"/>
+      <c r="F83" s="89"/>
+      <c r="G83" s="91"/>
+      <c r="H83" s="96"/>
+      <c r="I83" s="97"/>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C84" s="166" t="s">
+      <c r="C84" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="D84" s="166"/>
-      <c r="E84" s="166"/>
-      <c r="F84" s="166"/>
+      <c r="D84" s="62"/>
+      <c r="E84" s="62"/>
+      <c r="F84" s="62"/>
       <c r="G84" s="1"/>
-      <c r="H84" s="166" t="s">
+      <c r="H84" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="I84" s="166"/>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I84" s="62"/>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B85" s="31"/>
-      <c r="C85" s="155" t="s">
+      <c r="C85" s="101" t="s">
         <v>89</v>
       </c>
-      <c r="D85" s="155"/>
-      <c r="E85" s="155"/>
-      <c r="F85" s="155"/>
-      <c r="H85" s="155" t="s">
+      <c r="D85" s="101"/>
+      <c r="E85" s="101"/>
+      <c r="F85" s="101"/>
+      <c r="H85" s="101" t="s">
         <v>88</v>
       </c>
-      <c r="I85" s="155"/>
-    </row>
-    <row r="95" spans="2:9" ht="54" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="I85" s="101"/>
+    </row>
+    <row r="95" spans="2:9" ht="54" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="121">
-    <mergeCell ref="C84:F84"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="L78:O78"/>
-    <mergeCell ref="L79:O79"/>
-    <mergeCell ref="L80:O80"/>
-    <mergeCell ref="C79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="H79:I80"/>
-    <mergeCell ref="C81:F83"/>
-    <mergeCell ref="G81:G83"/>
-    <mergeCell ref="H81:I83"/>
-    <mergeCell ref="C78:F78"/>
-    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="C76:F76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="C77:F77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="C64:F64"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="C71:F71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="C74:F74"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="C62:F63"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="H62:I63"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="C57:F59"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="H57:I59"/>
+    <mergeCell ref="C75:F75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="C61:F61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H5:I13"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="C40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:I41"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:I37"/>
+    <mergeCell ref="C39:F39"/>
     <mergeCell ref="C85:F85"/>
     <mergeCell ref="H85:I85"/>
     <mergeCell ref="C44:F44"/>
@@ -4209,90 +4307,19 @@
     <mergeCell ref="C54:F54"/>
     <mergeCell ref="H54:I54"/>
     <mergeCell ref="C55:F55"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="C40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:I41"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:I37"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H5:I13"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="C61:F61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="C62:F63"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="H62:I63"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="C57:F59"/>
-    <mergeCell ref="G57:G59"/>
-    <mergeCell ref="H57:I59"/>
-    <mergeCell ref="C75:F75"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="C76:F76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="C77:F77"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="C64:F64"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="C71:F71"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="C74:F74"/>
-    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="C84:F84"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="L78:O78"/>
+    <mergeCell ref="L79:O79"/>
+    <mergeCell ref="L80:O80"/>
+    <mergeCell ref="C79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="H79:I80"/>
+    <mergeCell ref="C81:F83"/>
+    <mergeCell ref="G81:G83"/>
+    <mergeCell ref="H81:I83"/>
+    <mergeCell ref="C78:F78"/>
+    <mergeCell ref="H78:I78"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4304,945 +4331,945 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{813EEE76-69D4-4EE1-98FD-50720CEB1426}">
   <dimension ref="B2:I70"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.625" customWidth="1"/>
-    <col min="6" max="6" width="21.25" customWidth="1"/>
-    <col min="8" max="8" width="11.375" customWidth="1"/>
-    <col min="9" max="9" width="29.75" customWidth="1"/>
+    <col min="2" max="2" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.59765625" customWidth="1"/>
+    <col min="6" max="6" width="21.19921875" customWidth="1"/>
+    <col min="8" max="8" width="11.3984375" customWidth="1"/>
+    <col min="9" max="9" width="29.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
       <c r="G3" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="73" t="s">
+      <c r="H3" s="121" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="74"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I3" s="122"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="108" t="s">
+      <c r="C4" s="123" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
-      <c r="F4" s="110"/>
+      <c r="D4" s="124"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="125"/>
       <c r="G4" s="30">
         <v>1</v>
       </c>
-      <c r="H4" s="113"/>
-      <c r="I4" s="114"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H4" s="156"/>
+      <c r="I4" s="157"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="62"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="65"/>
       <c r="G5" s="30">
         <v>1</v>
       </c>
-      <c r="H5" s="65"/>
-      <c r="I5" s="66"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H5" s="99"/>
+      <c r="I5" s="100"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="62"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="65"/>
       <c r="G6" s="30"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="66"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H6" s="99"/>
+      <c r="I6" s="100"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="87" t="s">
+      <c r="C7" s="98" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="89"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="119"/>
       <c r="G7" s="30">
         <v>1</v>
       </c>
-      <c r="H7" s="65"/>
-      <c r="I7" s="66"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H7" s="99"/>
+      <c r="I7" s="100"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="62"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="65"/>
       <c r="G8" s="30"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="66"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H8" s="99"/>
+      <c r="I8" s="100"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="87" t="s">
+      <c r="C9" s="98" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="88"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="89"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="118"/>
+      <c r="F9" s="119"/>
       <c r="G9" s="30"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="66"/>
-    </row>
-    <row r="10" spans="2:9" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H9" s="99"/>
+      <c r="I9" s="100"/>
+    </row>
+    <row r="10" spans="2:9" ht="54" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="87" t="s">
+      <c r="C10" s="98" t="s">
         <v>95</v>
       </c>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="89"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="119"/>
       <c r="G10" s="22">
         <v>0.8</v>
       </c>
-      <c r="H10" s="221" t="s">
+      <c r="H10" s="195" t="s">
         <v>98</v>
       </c>
-      <c r="I10" s="222"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I10" s="196"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="87" t="s">
+      <c r="C11" s="98" t="s">
         <v>96</v>
       </c>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="89"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="118"/>
+      <c r="F11" s="119"/>
       <c r="G11" s="22">
         <v>1</v>
       </c>
-      <c r="H11" s="223"/>
-      <c r="I11" s="224"/>
-    </row>
-    <row r="12" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H11" s="224"/>
+      <c r="I11" s="225"/>
+    </row>
+    <row r="12" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="133" t="s">
+      <c r="C12" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="D12" s="219"/>
-      <c r="E12" s="219"/>
-      <c r="F12" s="220"/>
+      <c r="D12" s="222"/>
+      <c r="E12" s="222"/>
+      <c r="F12" s="223"/>
       <c r="G12" s="17">
         <v>1</v>
       </c>
-      <c r="H12" s="225"/>
-      <c r="I12" s="226"/>
-    </row>
-    <row r="13" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H12" s="226"/>
+      <c r="I12" s="227"/>
+    </row>
+    <row r="13" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C13" s="32"/>
       <c r="D13" s="32"/>
       <c r="E13" s="32"/>
       <c r="F13" s="32"/>
     </row>
-    <row r="14" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B14" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="72" t="s">
+      <c r="C14" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
+      <c r="D14" s="121"/>
+      <c r="E14" s="121"/>
+      <c r="F14" s="121"/>
       <c r="G14" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="73" t="s">
+      <c r="H14" s="121" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="74"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I14" s="122"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B15" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="108" t="s">
+      <c r="C15" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="109"/>
-      <c r="E15" s="109"/>
-      <c r="F15" s="110"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
+      <c r="F15" s="125"/>
       <c r="G15" s="34"/>
-      <c r="H15" s="113"/>
-      <c r="I15" s="114"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H15" s="156"/>
+      <c r="I15" s="157"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B16" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="60" t="s">
+      <c r="C16" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="62"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="65"/>
       <c r="G16" s="34"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="66"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H16" s="99"/>
+      <c r="I16" s="100"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B17" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="60" t="s">
+      <c r="C17" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="62"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="65"/>
       <c r="G17" s="34"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="66"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H17" s="99"/>
+      <c r="I17" s="100"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B18" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="213" t="s">
+      <c r="C18" s="228" t="s">
         <v>100</v>
       </c>
-      <c r="D18" s="214"/>
-      <c r="E18" s="214"/>
-      <c r="F18" s="215"/>
-      <c r="G18" s="99">
+      <c r="D18" s="229"/>
+      <c r="E18" s="229"/>
+      <c r="F18" s="230"/>
+      <c r="G18" s="75">
         <v>1</v>
       </c>
-      <c r="H18" s="167"/>
-      <c r="I18" s="168"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H18" s="77"/>
+      <c r="I18" s="78"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B19" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="216"/>
-      <c r="D19" s="181"/>
-      <c r="E19" s="181"/>
-      <c r="F19" s="182"/>
-      <c r="G19" s="100"/>
-      <c r="H19" s="217"/>
-      <c r="I19" s="218"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C19" s="231"/>
+      <c r="D19" s="232"/>
+      <c r="E19" s="232"/>
+      <c r="F19" s="233"/>
+      <c r="G19" s="90"/>
+      <c r="H19" s="234"/>
+      <c r="I19" s="235"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B20" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="216"/>
-      <c r="D20" s="181"/>
-      <c r="E20" s="181"/>
-      <c r="F20" s="182"/>
-      <c r="G20" s="100"/>
-      <c r="H20" s="217"/>
-      <c r="I20" s="218"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C20" s="231"/>
+      <c r="D20" s="232"/>
+      <c r="E20" s="232"/>
+      <c r="F20" s="233"/>
+      <c r="G20" s="90"/>
+      <c r="H20" s="234"/>
+      <c r="I20" s="235"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B21" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="144"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="145"/>
-      <c r="F21" s="146"/>
-      <c r="G21" s="82"/>
-      <c r="H21" s="169"/>
-      <c r="I21" s="170"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C21" s="131"/>
+      <c r="D21" s="132"/>
+      <c r="E21" s="132"/>
+      <c r="F21" s="133"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="79"/>
+      <c r="I21" s="80"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B22" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="60" t="s">
+      <c r="C22" s="63" t="s">
         <v>101</v>
       </c>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="62"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="65"/>
       <c r="G22" s="34">
         <v>1</v>
       </c>
-      <c r="H22" s="138"/>
-      <c r="I22" s="139"/>
-    </row>
-    <row r="23" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H22" s="146"/>
+      <c r="I22" s="147"/>
+    </row>
+    <row r="23" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="133" t="s">
+      <c r="C23" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="D23" s="134"/>
-      <c r="E23" s="134"/>
-      <c r="F23" s="135"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="68"/>
       <c r="G23" s="17">
         <v>1</v>
       </c>
-      <c r="H23" s="136"/>
-      <c r="I23" s="137"/>
-    </row>
-    <row r="24" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="25" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H23" s="144"/>
+      <c r="I23" s="145"/>
+    </row>
+    <row r="24" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="25" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B25" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="C25" s="72" t="s">
+      <c r="C25" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
+      <c r="D25" s="121"/>
+      <c r="E25" s="121"/>
+      <c r="F25" s="121"/>
       <c r="G25" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="H25" s="73" t="s">
+      <c r="H25" s="121" t="s">
         <v>24</v>
       </c>
-      <c r="I25" s="74"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I25" s="122"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B26" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="233" t="s">
+      <c r="C26" s="213" t="s">
         <v>104</v>
       </c>
-      <c r="D26" s="234"/>
-      <c r="E26" s="234"/>
-      <c r="F26" s="235"/>
-      <c r="G26" s="81">
+      <c r="D26" s="214"/>
+      <c r="E26" s="214"/>
+      <c r="F26" s="215"/>
+      <c r="G26" s="134">
         <v>0.8</v>
       </c>
-      <c r="H26" s="147" t="s">
+      <c r="H26" s="135" t="s">
         <v>112</v>
       </c>
-      <c r="I26" s="239"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I26" s="219"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B27" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="236"/>
-      <c r="D27" s="237"/>
-      <c r="E27" s="237"/>
-      <c r="F27" s="238"/>
-      <c r="G27" s="82"/>
-      <c r="H27" s="240"/>
-      <c r="I27" s="241"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C27" s="216"/>
+      <c r="D27" s="217"/>
+      <c r="E27" s="217"/>
+      <c r="F27" s="218"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="220"/>
+      <c r="I27" s="221"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B28" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="230" t="s">
+      <c r="C28" s="210" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="231"/>
-      <c r="E28" s="231"/>
-      <c r="F28" s="232"/>
+      <c r="D28" s="211"/>
+      <c r="E28" s="211"/>
+      <c r="F28" s="212"/>
       <c r="G28" s="37"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="64"/>
-    </row>
-    <row r="29" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H28" s="176"/>
+      <c r="I28" s="177"/>
+    </row>
+    <row r="29" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="242" t="s">
+      <c r="C29" s="188" t="s">
         <v>104</v>
       </c>
-      <c r="D29" s="243"/>
-      <c r="E29" s="243"/>
-      <c r="F29" s="243"/>
+      <c r="D29" s="189"/>
+      <c r="E29" s="189"/>
+      <c r="F29" s="189"/>
       <c r="G29" s="22">
         <v>1</v>
       </c>
-      <c r="H29" s="120"/>
-      <c r="I29" s="227"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H29" s="163"/>
+      <c r="I29" s="193"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B30" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="228" t="s">
+      <c r="C30" s="186" t="s">
         <v>105</v>
       </c>
-      <c r="D30" s="229"/>
-      <c r="E30" s="229"/>
-      <c r="F30" s="229"/>
+      <c r="D30" s="187"/>
+      <c r="E30" s="187"/>
+      <c r="F30" s="187"/>
       <c r="G30" s="22">
         <v>1</v>
       </c>
-      <c r="H30" s="120"/>
-      <c r="I30" s="227"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H30" s="163"/>
+      <c r="I30" s="193"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B31" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="228" t="s">
+      <c r="C31" s="186" t="s">
         <v>106</v>
       </c>
-      <c r="D31" s="229"/>
-      <c r="E31" s="229"/>
-      <c r="F31" s="229"/>
-      <c r="G31" s="246">
+      <c r="D31" s="187"/>
+      <c r="E31" s="187"/>
+      <c r="F31" s="187"/>
+      <c r="G31" s="192">
         <v>1</v>
       </c>
-      <c r="H31" s="120"/>
-      <c r="I31" s="227"/>
-    </row>
-    <row r="32" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H31" s="163"/>
+      <c r="I31" s="193"/>
+    </row>
+    <row r="32" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="228"/>
-      <c r="D32" s="229"/>
-      <c r="E32" s="229"/>
-      <c r="F32" s="229"/>
-      <c r="G32" s="246"/>
-      <c r="H32" s="120"/>
-      <c r="I32" s="227"/>
-    </row>
-    <row r="33" spans="2:9" ht="25.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="186"/>
+      <c r="D32" s="187"/>
+      <c r="E32" s="187"/>
+      <c r="F32" s="187"/>
+      <c r="G32" s="192"/>
+      <c r="H32" s="163"/>
+      <c r="I32" s="193"/>
+    </row>
+    <row r="33" spans="2:9" ht="25.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="242" t="s">
+      <c r="C33" s="188" t="s">
         <v>107</v>
       </c>
-      <c r="D33" s="243"/>
-      <c r="E33" s="243"/>
-      <c r="F33" s="243"/>
-      <c r="G33" s="246">
+      <c r="D33" s="189"/>
+      <c r="E33" s="189"/>
+      <c r="F33" s="189"/>
+      <c r="G33" s="192">
         <v>0.5</v>
       </c>
-      <c r="H33" s="221" t="s">
+      <c r="H33" s="195" t="s">
         <v>110</v>
       </c>
-      <c r="I33" s="222"/>
-    </row>
-    <row r="34" spans="2:9" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I33" s="196"/>
+    </row>
+    <row r="34" spans="2:9" ht="25.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B34" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="249"/>
-      <c r="D34" s="250"/>
-      <c r="E34" s="250"/>
-      <c r="F34" s="250"/>
-      <c r="G34" s="251"/>
-      <c r="H34" s="244"/>
-      <c r="I34" s="252"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C34" s="190"/>
+      <c r="D34" s="191"/>
+      <c r="E34" s="191"/>
+      <c r="F34" s="191"/>
+      <c r="G34" s="194"/>
+      <c r="H34" s="197"/>
+      <c r="I34" s="198"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B35" s="28"/>
-      <c r="C35" s="70"/>
-      <c r="D35" s="70"/>
-      <c r="E35" s="70"/>
-      <c r="F35" s="70"/>
+      <c r="C35" s="129"/>
+      <c r="D35" s="129"/>
+      <c r="E35" s="129"/>
+      <c r="F35" s="129"/>
       <c r="G35" s="36"/>
-      <c r="H35" s="166"/>
-      <c r="I35" s="166"/>
-    </row>
-    <row r="36" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="37" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H35" s="62"/>
+      <c r="I35" s="62"/>
+    </row>
+    <row r="36" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="37" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B37" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="C37" s="72" t="s">
+      <c r="C37" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="D37" s="73"/>
-      <c r="E37" s="73"/>
-      <c r="F37" s="73"/>
+      <c r="D37" s="121"/>
+      <c r="E37" s="121"/>
+      <c r="F37" s="121"/>
       <c r="G37" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="H37" s="73" t="s">
+      <c r="H37" s="121" t="s">
         <v>24</v>
       </c>
-      <c r="I37" s="74"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I37" s="122"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B38" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="208" t="s">
+      <c r="C38" s="200" t="s">
         <v>109</v>
       </c>
-      <c r="D38" s="70"/>
-      <c r="E38" s="70"/>
-      <c r="F38" s="143"/>
-      <c r="G38" s="81">
+      <c r="D38" s="129"/>
+      <c r="E38" s="129"/>
+      <c r="F38" s="130"/>
+      <c r="G38" s="134">
         <v>0.9</v>
       </c>
-      <c r="H38" s="190"/>
-      <c r="I38" s="148"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H38" s="201"/>
+      <c r="I38" s="136"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B39" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="144"/>
-      <c r="D39" s="145"/>
-      <c r="E39" s="145"/>
-      <c r="F39" s="146"/>
-      <c r="G39" s="82"/>
-      <c r="H39" s="149"/>
-      <c r="I39" s="150"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C39" s="131"/>
+      <c r="D39" s="132"/>
+      <c r="E39" s="132"/>
+      <c r="F39" s="133"/>
+      <c r="G39" s="76"/>
+      <c r="H39" s="137"/>
+      <c r="I39" s="138"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B40" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="60" t="s">
+      <c r="C40" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="61"/>
-      <c r="E40" s="61"/>
-      <c r="F40" s="62"/>
+      <c r="D40" s="64"/>
+      <c r="E40" s="64"/>
+      <c r="F40" s="65"/>
       <c r="G40" s="40"/>
-      <c r="H40" s="123"/>
-      <c r="I40" s="124"/>
-    </row>
-    <row r="41" spans="2:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H40" s="102"/>
+      <c r="I40" s="103"/>
+    </row>
+    <row r="41" spans="2:9" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="191" t="s">
+      <c r="C41" s="202" t="s">
         <v>109</v>
       </c>
-      <c r="D41" s="192"/>
-      <c r="E41" s="192"/>
-      <c r="F41" s="193"/>
-      <c r="G41" s="99">
+      <c r="D41" s="203"/>
+      <c r="E41" s="203"/>
+      <c r="F41" s="204"/>
+      <c r="G41" s="75">
         <v>0.9</v>
       </c>
-      <c r="H41" s="102" t="s">
+      <c r="H41" s="92" t="s">
         <v>114</v>
       </c>
-      <c r="I41" s="103"/>
-    </row>
-    <row r="42" spans="2:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I41" s="93"/>
+    </row>
+    <row r="42" spans="2:9" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C42" s="196"/>
-      <c r="D42" s="197"/>
-      <c r="E42" s="197"/>
-      <c r="F42" s="198"/>
-      <c r="G42" s="82"/>
-      <c r="H42" s="149"/>
-      <c r="I42" s="150"/>
-    </row>
-    <row r="43" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="205"/>
+      <c r="D42" s="206"/>
+      <c r="E42" s="206"/>
+      <c r="F42" s="207"/>
+      <c r="G42" s="76"/>
+      <c r="H42" s="137"/>
+      <c r="I42" s="138"/>
+    </row>
+    <row r="43" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C43" s="115" t="s">
+      <c r="C43" s="158" t="s">
         <v>111</v>
       </c>
-      <c r="D43" s="116"/>
-      <c r="E43" s="116"/>
-      <c r="F43" s="116"/>
-      <c r="G43" s="246">
+      <c r="D43" s="159"/>
+      <c r="E43" s="159"/>
+      <c r="F43" s="159"/>
+      <c r="G43" s="192">
         <v>1</v>
       </c>
-      <c r="H43" s="247"/>
-      <c r="I43" s="248"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H43" s="208"/>
+      <c r="I43" s="209"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B44" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C44" s="115"/>
-      <c r="D44" s="116"/>
-      <c r="E44" s="116"/>
-      <c r="F44" s="116"/>
-      <c r="G44" s="246"/>
-      <c r="H44" s="247"/>
-      <c r="I44" s="248"/>
-    </row>
-    <row r="45" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C44" s="158"/>
+      <c r="D44" s="159"/>
+      <c r="E44" s="159"/>
+      <c r="F44" s="159"/>
+      <c r="G44" s="192"/>
+      <c r="H44" s="208"/>
+      <c r="I44" s="209"/>
+    </row>
+    <row r="45" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="115"/>
-      <c r="D45" s="116"/>
-      <c r="E45" s="116"/>
-      <c r="F45" s="116"/>
-      <c r="G45" s="246"/>
-      <c r="H45" s="247"/>
-      <c r="I45" s="248"/>
-    </row>
-    <row r="46" spans="2:9" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C45" s="158"/>
+      <c r="D45" s="159"/>
+      <c r="E45" s="159"/>
+      <c r="F45" s="159"/>
+      <c r="G45" s="192"/>
+      <c r="H45" s="208"/>
+      <c r="I45" s="209"/>
+    </row>
+    <row r="46" spans="2:9" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B46" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="207" t="s">
+      <c r="C46" s="243" t="s">
         <v>113</v>
       </c>
-      <c r="D46" s="134"/>
-      <c r="E46" s="134"/>
-      <c r="F46" s="135"/>
+      <c r="D46" s="67"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="68"/>
       <c r="G46" s="41">
         <v>0.5</v>
       </c>
-      <c r="H46" s="244" t="s">
+      <c r="H46" s="197" t="s">
         <v>115</v>
       </c>
-      <c r="I46" s="245"/>
-    </row>
-    <row r="47" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="48" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I46" s="199"/>
+    </row>
+    <row r="47" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="48" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="C48" s="72" t="s">
+      <c r="C48" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="D48" s="73"/>
-      <c r="E48" s="73"/>
-      <c r="F48" s="73"/>
+      <c r="D48" s="121"/>
+      <c r="E48" s="121"/>
+      <c r="F48" s="121"/>
       <c r="G48" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="H48" s="73" t="s">
+      <c r="H48" s="121" t="s">
         <v>24</v>
       </c>
-      <c r="I48" s="74"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I48" s="122"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B49" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C49" s="208" t="s">
+      <c r="C49" s="200" t="s">
         <v>113</v>
       </c>
-      <c r="D49" s="70"/>
-      <c r="E49" s="70"/>
-      <c r="F49" s="143"/>
-      <c r="G49" s="81">
+      <c r="D49" s="129"/>
+      <c r="E49" s="129"/>
+      <c r="F49" s="130"/>
+      <c r="G49" s="134">
         <v>1</v>
       </c>
-      <c r="H49" s="209"/>
-      <c r="I49" s="210"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H49" s="244"/>
+      <c r="I49" s="245"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B50" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C50" s="144"/>
-      <c r="D50" s="145"/>
-      <c r="E50" s="145"/>
-      <c r="F50" s="146"/>
-      <c r="G50" s="82"/>
-      <c r="H50" s="211"/>
-      <c r="I50" s="212"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C50" s="131"/>
+      <c r="D50" s="132"/>
+      <c r="E50" s="132"/>
+      <c r="F50" s="133"/>
+      <c r="G50" s="76"/>
+      <c r="H50" s="184"/>
+      <c r="I50" s="185"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B51" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C51" s="60" t="s">
+      <c r="C51" s="63" t="s">
         <v>117</v>
       </c>
-      <c r="D51" s="61"/>
-      <c r="E51" s="61"/>
-      <c r="F51" s="62"/>
+      <c r="D51" s="64"/>
+      <c r="E51" s="64"/>
+      <c r="F51" s="65"/>
       <c r="G51" s="40"/>
-      <c r="H51" s="63"/>
-      <c r="I51" s="64"/>
-    </row>
-    <row r="52" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H51" s="176"/>
+      <c r="I51" s="177"/>
+    </row>
+    <row r="52" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C52" s="191" t="s">
+      <c r="C52" s="202" t="s">
         <v>113</v>
       </c>
-      <c r="D52" s="192"/>
-      <c r="E52" s="192"/>
-      <c r="F52" s="193"/>
-      <c r="G52" s="99">
+      <c r="D52" s="203"/>
+      <c r="E52" s="203"/>
+      <c r="F52" s="204"/>
+      <c r="G52" s="75">
         <v>1</v>
       </c>
-      <c r="H52" s="253"/>
-      <c r="I52" s="254"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H52" s="182"/>
+      <c r="I52" s="183"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B53" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C53" s="196"/>
-      <c r="D53" s="197"/>
-      <c r="E53" s="197"/>
-      <c r="F53" s="198"/>
-      <c r="G53" s="82"/>
-      <c r="H53" s="211"/>
-      <c r="I53" s="212"/>
-    </row>
-    <row r="54" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C53" s="205"/>
+      <c r="D53" s="206"/>
+      <c r="E53" s="206"/>
+      <c r="F53" s="207"/>
+      <c r="G53" s="76"/>
+      <c r="H53" s="184"/>
+      <c r="I53" s="185"/>
+    </row>
+    <row r="54" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B54" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C54" s="191" t="s">
+      <c r="C54" s="202" t="s">
         <v>118</v>
       </c>
-      <c r="D54" s="192"/>
-      <c r="E54" s="192"/>
-      <c r="F54" s="193"/>
-      <c r="G54" s="99">
+      <c r="D54" s="203"/>
+      <c r="E54" s="203"/>
+      <c r="F54" s="204"/>
+      <c r="G54" s="75">
         <v>0.7</v>
       </c>
-      <c r="H54" s="102" t="s">
+      <c r="H54" s="92" t="s">
         <v>119</v>
       </c>
-      <c r="I54" s="103"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I54" s="93"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B55" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C55" s="180"/>
-      <c r="D55" s="194"/>
-      <c r="E55" s="194"/>
-      <c r="F55" s="195"/>
-      <c r="G55" s="100"/>
-      <c r="H55" s="104"/>
-      <c r="I55" s="105"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C55" s="236"/>
+      <c r="D55" s="237"/>
+      <c r="E55" s="237"/>
+      <c r="F55" s="238"/>
+      <c r="G55" s="90"/>
+      <c r="H55" s="94"/>
+      <c r="I55" s="95"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B56" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C56" s="180"/>
-      <c r="D56" s="194"/>
-      <c r="E56" s="194"/>
-      <c r="F56" s="195"/>
-      <c r="G56" s="100"/>
-      <c r="H56" s="104"/>
-      <c r="I56" s="105"/>
-    </row>
-    <row r="57" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C56" s="236"/>
+      <c r="D56" s="237"/>
+      <c r="E56" s="237"/>
+      <c r="F56" s="238"/>
+      <c r="G56" s="90"/>
+      <c r="H56" s="94"/>
+      <c r="I56" s="95"/>
+    </row>
+    <row r="57" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B57" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C57" s="203"/>
-      <c r="D57" s="204"/>
-      <c r="E57" s="204"/>
-      <c r="F57" s="205"/>
-      <c r="G57" s="101"/>
-      <c r="H57" s="106"/>
-      <c r="I57" s="107"/>
-    </row>
-    <row r="58" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C57" s="239"/>
+      <c r="D57" s="240"/>
+      <c r="E57" s="240"/>
+      <c r="F57" s="241"/>
+      <c r="G57" s="91"/>
+      <c r="H57" s="96"/>
+      <c r="I57" s="97"/>
+    </row>
+    <row r="58" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="C58" s="69" t="s">
+      <c r="C58" s="180" t="s">
         <v>124</v>
       </c>
-      <c r="D58" s="70"/>
-      <c r="E58" s="70"/>
-      <c r="F58" s="70"/>
+      <c r="D58" s="129"/>
+      <c r="E58" s="129"/>
+      <c r="F58" s="129"/>
       <c r="G58" s="44"/>
-      <c r="H58" s="206" t="s">
+      <c r="H58" s="242" t="s">
         <v>123</v>
       </c>
-      <c r="I58" s="206"/>
-    </row>
-    <row r="59" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="60" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I58" s="242"/>
+    </row>
+    <row r="59" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="60" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B60" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="C60" s="72" t="s">
+      <c r="C60" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="D60" s="73"/>
-      <c r="E60" s="73"/>
-      <c r="F60" s="73"/>
+      <c r="D60" s="121"/>
+      <c r="E60" s="121"/>
+      <c r="F60" s="121"/>
       <c r="G60" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="H60" s="73" t="s">
+      <c r="H60" s="121" t="s">
         <v>24</v>
       </c>
-      <c r="I60" s="74"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I60" s="122"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B61" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C61" s="142" t="s">
+      <c r="C61" s="128" t="s">
         <v>125</v>
       </c>
-      <c r="D61" s="70"/>
-      <c r="E61" s="70"/>
-      <c r="F61" s="143"/>
-      <c r="G61" s="81">
+      <c r="D61" s="129"/>
+      <c r="E61" s="129"/>
+      <c r="F61" s="130"/>
+      <c r="G61" s="134">
         <v>0</v>
       </c>
-      <c r="H61" s="190" t="s">
+      <c r="H61" s="201" t="s">
         <v>126</v>
       </c>
-      <c r="I61" s="148"/>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I61" s="136"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B62" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C62" s="144"/>
-      <c r="D62" s="145"/>
-      <c r="E62" s="145"/>
-      <c r="F62" s="146"/>
-      <c r="G62" s="82"/>
-      <c r="H62" s="149"/>
-      <c r="I62" s="150"/>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C62" s="131"/>
+      <c r="D62" s="132"/>
+      <c r="E62" s="132"/>
+      <c r="F62" s="133"/>
+      <c r="G62" s="76"/>
+      <c r="H62" s="137"/>
+      <c r="I62" s="138"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B63" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C63" s="60" t="s">
+      <c r="C63" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="D63" s="61"/>
-      <c r="E63" s="61"/>
-      <c r="F63" s="62"/>
+      <c r="D63" s="64"/>
+      <c r="E63" s="64"/>
+      <c r="F63" s="65"/>
       <c r="G63" s="43"/>
-      <c r="H63" s="65"/>
-      <c r="I63" s="66"/>
-    </row>
-    <row r="64" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H63" s="99"/>
+      <c r="I63" s="100"/>
+    </row>
+    <row r="64" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B64" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C64" s="191" t="s">
+      <c r="C64" s="202" t="s">
         <v>125</v>
       </c>
-      <c r="D64" s="192"/>
-      <c r="E64" s="192"/>
-      <c r="F64" s="193"/>
-      <c r="G64" s="99">
+      <c r="D64" s="203"/>
+      <c r="E64" s="203"/>
+      <c r="F64" s="204"/>
+      <c r="G64" s="75">
         <v>1</v>
       </c>
-      <c r="H64" s="199"/>
-      <c r="I64" s="200"/>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H64" s="253"/>
+      <c r="I64" s="254"/>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B65" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C65" s="180"/>
-      <c r="D65" s="194"/>
-      <c r="E65" s="194"/>
-      <c r="F65" s="195"/>
-      <c r="G65" s="100"/>
-      <c r="H65" s="201"/>
-      <c r="I65" s="202"/>
-    </row>
-    <row r="66" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C65" s="236"/>
+      <c r="D65" s="237"/>
+      <c r="E65" s="237"/>
+      <c r="F65" s="238"/>
+      <c r="G65" s="90"/>
+      <c r="H65" s="255"/>
+      <c r="I65" s="256"/>
+    </row>
+    <row r="66" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B66" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C66" s="180"/>
-      <c r="D66" s="194"/>
-      <c r="E66" s="194"/>
-      <c r="F66" s="195"/>
-      <c r="G66" s="100"/>
-      <c r="H66" s="201"/>
-      <c r="I66" s="202"/>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C66" s="236"/>
+      <c r="D66" s="237"/>
+      <c r="E66" s="237"/>
+      <c r="F66" s="238"/>
+      <c r="G66" s="90"/>
+      <c r="H66" s="255"/>
+      <c r="I66" s="256"/>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B67" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C67" s="196"/>
-      <c r="D67" s="197"/>
-      <c r="E67" s="197"/>
-      <c r="F67" s="198"/>
-      <c r="G67" s="82"/>
-      <c r="H67" s="85"/>
-      <c r="I67" s="86"/>
-    </row>
-    <row r="68" spans="2:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C67" s="205"/>
+      <c r="D67" s="206"/>
+      <c r="E67" s="206"/>
+      <c r="F67" s="207"/>
+      <c r="G67" s="76"/>
+      <c r="H67" s="169"/>
+      <c r="I67" s="170"/>
+    </row>
+    <row r="68" spans="2:9" ht="27.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B68" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C68" s="180" t="s">
+      <c r="C68" s="236" t="s">
         <v>127</v>
       </c>
-      <c r="D68" s="181"/>
-      <c r="E68" s="181"/>
-      <c r="F68" s="182"/>
-      <c r="G68" s="100">
+      <c r="D68" s="232"/>
+      <c r="E68" s="232"/>
+      <c r="F68" s="233"/>
+      <c r="G68" s="90">
         <v>0.5</v>
       </c>
-      <c r="H68" s="186" t="s">
+      <c r="H68" s="249" t="s">
         <v>128</v>
       </c>
-      <c r="I68" s="187"/>
-    </row>
-    <row r="69" spans="2:9" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I68" s="250"/>
+    </row>
+    <row r="69" spans="2:9" ht="27.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C69" s="183"/>
-      <c r="D69" s="184"/>
-      <c r="E69" s="184"/>
-      <c r="F69" s="185"/>
-      <c r="G69" s="101"/>
-      <c r="H69" s="188"/>
-      <c r="I69" s="189"/>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C69" s="246"/>
+      <c r="D69" s="247"/>
+      <c r="E69" s="247"/>
+      <c r="F69" s="248"/>
+      <c r="G69" s="91"/>
+      <c r="H69" s="251"/>
+      <c r="I69" s="252"/>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C70" s="32"/>
       <c r="D70" s="32"/>
       <c r="E70" s="32"/>
@@ -5253,19 +5280,74 @@
     </row>
   </sheetData>
   <mergeCells count="97">
-    <mergeCell ref="H52:I53"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="C31:F32"/>
-    <mergeCell ref="C33:F34"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:I32"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="H33:I34"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="C68:F69"/>
+    <mergeCell ref="H68:I69"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="C61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="H61:I62"/>
+    <mergeCell ref="C64:F67"/>
+    <mergeCell ref="G64:G67"/>
+    <mergeCell ref="H64:I67"/>
+    <mergeCell ref="C63:F63"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C60:F60"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="C54:F57"/>
+    <mergeCell ref="G54:G57"/>
+    <mergeCell ref="H54:I57"/>
+    <mergeCell ref="C58:F58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="C49:F50"/>
+    <mergeCell ref="C52:F53"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H49:I50"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="C18:F21"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="H18:I21"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:I27"/>
+    <mergeCell ref="C29:F29"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="H22:I22"/>
     <mergeCell ref="H46:I46"/>
@@ -5282,74 +5364,19 @@
     <mergeCell ref="H43:I45"/>
     <mergeCell ref="C40:F40"/>
     <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:I27"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="C18:F21"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="H18:I21"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C60:F60"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="C54:F57"/>
-    <mergeCell ref="G54:G57"/>
-    <mergeCell ref="H54:I57"/>
-    <mergeCell ref="C58:F58"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="C49:F50"/>
-    <mergeCell ref="C52:F53"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="H49:I50"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="C68:F69"/>
-    <mergeCell ref="H68:I69"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="C61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="H61:I62"/>
-    <mergeCell ref="C64:F67"/>
-    <mergeCell ref="G64:G67"/>
-    <mergeCell ref="H64:I67"/>
-    <mergeCell ref="C63:F63"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="C31:F32"/>
+    <mergeCell ref="C33:F34"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:I32"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:I34"/>
+    <mergeCell ref="H52:I53"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="H48:I48"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5361,987 +5388,1041 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D5800FB-BD05-4FC8-A7D1-22A28308449E}">
   <dimension ref="B1:I70"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="15.75" customWidth="1"/>
-    <col min="5" max="5" width="15.125" customWidth="1"/>
-    <col min="6" max="6" width="12.25" customWidth="1"/>
-    <col min="8" max="8" width="15.625" customWidth="1"/>
-    <col min="9" max="9" width="25.125" customWidth="1"/>
+    <col min="2" max="2" width="15.69921875" customWidth="1"/>
+    <col min="5" max="5" width="15.09765625" customWidth="1"/>
+    <col min="6" max="6" width="12.19921875" customWidth="1"/>
+    <col min="8" max="8" width="15.59765625" customWidth="1"/>
+    <col min="9" max="9" width="25.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="72" t="s">
+      <c r="C2" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
       <c r="G2" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="73" t="s">
+      <c r="H2" s="121" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="74"/>
-    </row>
-    <row r="3" spans="2:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I2" s="122"/>
+    </row>
+    <row r="3" spans="2:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="142" t="s">
+      <c r="C3" s="128" t="s">
         <v>131</v>
       </c>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="272"/>
-      <c r="G3" s="81">
+      <c r="D3" s="180"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="261"/>
+      <c r="G3" s="134">
         <v>0.5</v>
       </c>
-      <c r="H3" s="147" t="s">
+      <c r="H3" s="135" t="s">
         <v>135</v>
       </c>
-      <c r="I3" s="239"/>
-    </row>
-    <row r="4" spans="2:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I3" s="219"/>
+    </row>
+    <row r="4" spans="2:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="196"/>
-      <c r="D4" s="197"/>
-      <c r="E4" s="197"/>
-      <c r="F4" s="198"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="240"/>
-      <c r="I4" s="241"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C4" s="205"/>
+      <c r="D4" s="206"/>
+      <c r="E4" s="206"/>
+      <c r="F4" s="207"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="220"/>
+      <c r="I4" s="221"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="62"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="65"/>
       <c r="G5" s="46"/>
-      <c r="H5" s="123"/>
-      <c r="I5" s="124"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H5" s="102"/>
+      <c r="I5" s="103"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="87" t="s">
+      <c r="C6" s="98" t="s">
         <v>132</v>
       </c>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="89"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="119"/>
       <c r="G6" s="46">
         <v>0.5</v>
       </c>
-      <c r="H6" s="123" t="s">
+      <c r="H6" s="102" t="s">
         <v>136</v>
       </c>
-      <c r="I6" s="124"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I6" s="103"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="63" t="s">
         <v>133</v>
       </c>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="62"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="65"/>
       <c r="G7" s="46"/>
-      <c r="H7" s="123"/>
-      <c r="I7" s="124"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H7" s="102"/>
+      <c r="I7" s="103"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="87" t="s">
+      <c r="C8" s="98" t="s">
         <v>133</v>
       </c>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="89"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="119"/>
       <c r="G8" s="46"/>
-      <c r="H8" s="123"/>
-      <c r="I8" s="124"/>
-    </row>
-    <row r="9" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H8" s="102"/>
+      <c r="I8" s="103"/>
+    </row>
+    <row r="9" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="273" t="s">
+      <c r="C9" s="262" t="s">
         <v>134</v>
       </c>
-      <c r="D9" s="274"/>
-      <c r="E9" s="274"/>
-      <c r="F9" s="275"/>
-      <c r="G9" s="99">
+      <c r="D9" s="263"/>
+      <c r="E9" s="263"/>
+      <c r="F9" s="264"/>
+      <c r="G9" s="75">
         <v>0.5</v>
       </c>
-      <c r="H9" s="102" t="s">
+      <c r="H9" s="92" t="s">
         <v>137</v>
       </c>
-      <c r="I9" s="152"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I9" s="141"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="276"/>
-      <c r="D10" s="277"/>
-      <c r="E10" s="277"/>
-      <c r="F10" s="278"/>
-      <c r="G10" s="100"/>
-      <c r="H10" s="282"/>
-      <c r="I10" s="283"/>
-    </row>
-    <row r="11" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="265"/>
+      <c r="D10" s="266"/>
+      <c r="E10" s="266"/>
+      <c r="F10" s="267"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="271"/>
+      <c r="I10" s="272"/>
+    </row>
+    <row r="11" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="279"/>
-      <c r="D11" s="280"/>
-      <c r="E11" s="280"/>
-      <c r="F11" s="281"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="153"/>
-      <c r="I11" s="154"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C11" s="268"/>
+      <c r="D11" s="269"/>
+      <c r="E11" s="269"/>
+      <c r="F11" s="270"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="142"/>
+      <c r="I11" s="143"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B12" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="70" t="s">
+      <c r="C12" s="129" t="s">
         <v>139</v>
       </c>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="H12" s="70" t="s">
+      <c r="D12" s="129"/>
+      <c r="E12" s="129"/>
+      <c r="F12" s="129"/>
+      <c r="H12" s="129" t="s">
         <v>138</v>
       </c>
-      <c r="I12" s="70"/>
-    </row>
-    <row r="13" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I12" s="129"/>
+    </row>
+    <row r="13" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="14" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B14" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="C14" s="72" t="s">
+      <c r="C14" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
+      <c r="D14" s="121"/>
+      <c r="E14" s="121"/>
+      <c r="F14" s="121"/>
       <c r="G14" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="73" t="s">
+      <c r="H14" s="121" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="74"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I14" s="122"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B15" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="108" t="s">
+      <c r="C15" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="109"/>
-      <c r="E15" s="109"/>
-      <c r="F15" s="110"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
+      <c r="F15" s="125"/>
       <c r="G15" s="48"/>
-      <c r="H15" s="113"/>
-      <c r="I15" s="114"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H15" s="156"/>
+      <c r="I15" s="157"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B16" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="60" t="s">
+      <c r="C16" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="62"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="65"/>
       <c r="G16" s="48"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="66"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H16" s="99"/>
+      <c r="I16" s="100"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B17" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="60" t="s">
+      <c r="C17" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="62"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="65"/>
       <c r="G17" s="48"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="66"/>
-    </row>
-    <row r="18" spans="2:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H17" s="99"/>
+      <c r="I17" s="100"/>
+    </row>
+    <row r="18" spans="2:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="191" t="s">
+      <c r="C18" s="202" t="s">
         <v>141</v>
       </c>
-      <c r="D18" s="192"/>
-      <c r="E18" s="192"/>
-      <c r="F18" s="193"/>
-      <c r="G18" s="99">
+      <c r="D18" s="203"/>
+      <c r="E18" s="203"/>
+      <c r="F18" s="204"/>
+      <c r="G18" s="75">
         <v>0.5</v>
       </c>
-      <c r="H18" s="102" t="s">
+      <c r="H18" s="92" t="s">
         <v>143</v>
       </c>
-      <c r="I18" s="152"/>
-    </row>
-    <row r="19" spans="2:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I18" s="141"/>
+    </row>
+    <row r="19" spans="2:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="196"/>
-      <c r="D19" s="197"/>
-      <c r="E19" s="197"/>
-      <c r="F19" s="198"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="240"/>
-      <c r="I19" s="241"/>
-    </row>
-    <row r="20" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="205"/>
+      <c r="D19" s="206"/>
+      <c r="E19" s="206"/>
+      <c r="F19" s="207"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="220"/>
+      <c r="I19" s="221"/>
+    </row>
+    <row r="20" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="115" t="s">
+      <c r="C20" s="158" t="s">
         <v>142</v>
       </c>
-      <c r="D20" s="116"/>
-      <c r="E20" s="116"/>
-      <c r="F20" s="116"/>
-      <c r="G20" s="246">
+      <c r="D20" s="159"/>
+      <c r="E20" s="159"/>
+      <c r="F20" s="159"/>
+      <c r="G20" s="192">
         <v>1</v>
       </c>
-      <c r="H20" s="120"/>
-      <c r="I20" s="227"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H20" s="163"/>
+      <c r="I20" s="193"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B21" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="115"/>
-      <c r="D21" s="116"/>
-      <c r="E21" s="116"/>
-      <c r="F21" s="116"/>
-      <c r="G21" s="246"/>
-      <c r="H21" s="120"/>
-      <c r="I21" s="227"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C21" s="158"/>
+      <c r="D21" s="159"/>
+      <c r="E21" s="159"/>
+      <c r="F21" s="159"/>
+      <c r="G21" s="192"/>
+      <c r="H21" s="163"/>
+      <c r="I21" s="193"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B22" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="116"/>
-      <c r="G22" s="246"/>
-      <c r="H22" s="120"/>
-      <c r="I22" s="227"/>
-    </row>
-    <row r="23" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="158"/>
+      <c r="D22" s="159"/>
+      <c r="E22" s="159"/>
+      <c r="F22" s="159"/>
+      <c r="G22" s="192"/>
+      <c r="H22" s="163"/>
+      <c r="I22" s="193"/>
+    </row>
+    <row r="23" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="258" t="s">
+      <c r="C23" s="273" t="s">
         <v>144</v>
       </c>
-      <c r="D23" s="259"/>
-      <c r="E23" s="259"/>
-      <c r="F23" s="259"/>
+      <c r="D23" s="274"/>
+      <c r="E23" s="274"/>
+      <c r="F23" s="274"/>
       <c r="G23" s="51">
         <v>0.5</v>
       </c>
-      <c r="H23" s="244" t="s">
+      <c r="H23" s="197" t="s">
         <v>145</v>
       </c>
-      <c r="I23" s="252"/>
-    </row>
-    <row r="24" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="25" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I23" s="198"/>
+    </row>
+    <row r="24" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="25" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B25" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="C25" s="72" t="s">
+      <c r="C25" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
+      <c r="D25" s="121"/>
+      <c r="E25" s="121"/>
+      <c r="F25" s="121"/>
       <c r="G25" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="H25" s="73" t="s">
+      <c r="H25" s="121" t="s">
         <v>24</v>
       </c>
-      <c r="I25" s="74"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I25" s="122"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B26" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="208" t="s">
+      <c r="C26" s="200" t="s">
         <v>144</v>
       </c>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="143"/>
-      <c r="G26" s="81">
+      <c r="D26" s="129"/>
+      <c r="E26" s="129"/>
+      <c r="F26" s="130"/>
+      <c r="G26" s="134">
         <v>0.6</v>
       </c>
-      <c r="H26" s="190" t="s">
+      <c r="H26" s="201" t="s">
         <v>150</v>
       </c>
-      <c r="I26" s="148"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I26" s="136"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B27" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="144"/>
-      <c r="D27" s="145"/>
-      <c r="E27" s="145"/>
-      <c r="F27" s="146"/>
-      <c r="G27" s="82"/>
-      <c r="H27" s="149"/>
-      <c r="I27" s="150"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C27" s="131"/>
+      <c r="D27" s="132"/>
+      <c r="E27" s="132"/>
+      <c r="F27" s="133"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="137"/>
+      <c r="I27" s="138"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B28" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="60" t="s">
+      <c r="C28" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="62"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="65"/>
       <c r="G28" s="49"/>
-      <c r="H28" s="121"/>
-      <c r="I28" s="122"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H28" s="139"/>
+      <c r="I28" s="140"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B29" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="87" t="s">
+      <c r="C29" s="98" t="s">
         <v>147</v>
       </c>
-      <c r="D29" s="88"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="89"/>
+      <c r="D29" s="118"/>
+      <c r="E29" s="118"/>
+      <c r="F29" s="119"/>
       <c r="G29" s="49">
         <v>1</v>
       </c>
-      <c r="H29" s="121"/>
-      <c r="I29" s="122"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H29" s="139"/>
+      <c r="I29" s="140"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B30" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="191" t="s">
+      <c r="C30" s="202" t="s">
         <v>148</v>
       </c>
-      <c r="D30" s="192"/>
-      <c r="E30" s="192"/>
-      <c r="F30" s="193"/>
-      <c r="G30" s="99">
+      <c r="D30" s="203"/>
+      <c r="E30" s="203"/>
+      <c r="F30" s="204"/>
+      <c r="G30" s="75">
         <v>0.8</v>
       </c>
-      <c r="H30" s="102" t="s">
+      <c r="H30" s="92" t="s">
         <v>151</v>
       </c>
-      <c r="I30" s="103"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I30" s="93"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B31" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="180"/>
-      <c r="D31" s="194"/>
-      <c r="E31" s="194"/>
-      <c r="F31" s="195"/>
-      <c r="G31" s="100"/>
-      <c r="H31" s="104"/>
-      <c r="I31" s="105"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C31" s="236"/>
+      <c r="D31" s="237"/>
+      <c r="E31" s="237"/>
+      <c r="F31" s="238"/>
+      <c r="G31" s="90"/>
+      <c r="H31" s="94"/>
+      <c r="I31" s="95"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B32" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="196"/>
-      <c r="D32" s="197"/>
-      <c r="E32" s="197"/>
-      <c r="F32" s="198"/>
-      <c r="G32" s="82"/>
-      <c r="H32" s="149"/>
-      <c r="I32" s="150"/>
-    </row>
-    <row r="33" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="205"/>
+      <c r="D32" s="206"/>
+      <c r="E32" s="206"/>
+      <c r="F32" s="207"/>
+      <c r="G32" s="76"/>
+      <c r="H32" s="137"/>
+      <c r="I32" s="138"/>
+    </row>
+    <row r="33" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="191" t="s">
+      <c r="C33" s="202" t="s">
         <v>149</v>
       </c>
-      <c r="D33" s="192"/>
-      <c r="E33" s="192"/>
-      <c r="F33" s="193"/>
-      <c r="G33" s="99">
+      <c r="D33" s="203"/>
+      <c r="E33" s="203"/>
+      <c r="F33" s="204"/>
+      <c r="G33" s="75">
         <v>1</v>
       </c>
-      <c r="H33" s="268"/>
-      <c r="I33" s="269"/>
-    </row>
-    <row r="34" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H33" s="275"/>
+      <c r="I33" s="276"/>
+    </row>
+    <row r="34" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B34" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="203"/>
-      <c r="D34" s="204"/>
-      <c r="E34" s="204"/>
-      <c r="F34" s="205"/>
-      <c r="G34" s="101"/>
-      <c r="H34" s="270"/>
-      <c r="I34" s="271"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C34" s="239"/>
+      <c r="D34" s="240"/>
+      <c r="E34" s="240"/>
+      <c r="F34" s="241"/>
+      <c r="G34" s="91"/>
+      <c r="H34" s="277"/>
+      <c r="I34" s="278"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B35" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="70" t="s">
+      <c r="C35" s="129" t="s">
         <v>153</v>
       </c>
-      <c r="D35" s="70"/>
-      <c r="E35" s="70"/>
-      <c r="F35" s="70"/>
+      <c r="D35" s="129"/>
+      <c r="E35" s="129"/>
+      <c r="F35" s="129"/>
       <c r="G35" s="44"/>
-      <c r="H35" s="71" t="s">
+      <c r="H35" s="181" t="s">
         <v>88</v>
       </c>
-      <c r="I35" s="71"/>
-    </row>
-    <row r="36" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="37" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I35" s="181"/>
+    </row>
+    <row r="36" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="37" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B37" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="C37" s="72" t="s">
+      <c r="C37" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="D37" s="73"/>
-      <c r="E37" s="73"/>
-      <c r="F37" s="73"/>
+      <c r="D37" s="121"/>
+      <c r="E37" s="121"/>
+      <c r="F37" s="121"/>
       <c r="G37" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="H37" s="73" t="s">
+      <c r="H37" s="121" t="s">
         <v>24</v>
       </c>
-      <c r="I37" s="74"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I37" s="122"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B38" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="208" t="s">
+      <c r="C38" s="200" t="s">
         <v>154</v>
       </c>
-      <c r="D38" s="70"/>
-      <c r="E38" s="70"/>
-      <c r="F38" s="143"/>
-      <c r="G38" s="81">
+      <c r="D38" s="129"/>
+      <c r="E38" s="129"/>
+      <c r="F38" s="130"/>
+      <c r="G38" s="134">
         <v>0.8</v>
       </c>
-      <c r="H38" s="190"/>
-      <c r="I38" s="148"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H38" s="201"/>
+      <c r="I38" s="136"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B39" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="144"/>
-      <c r="D39" s="145"/>
-      <c r="E39" s="145"/>
-      <c r="F39" s="146"/>
-      <c r="G39" s="82"/>
-      <c r="H39" s="149"/>
-      <c r="I39" s="150"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C39" s="131"/>
+      <c r="D39" s="132"/>
+      <c r="E39" s="132"/>
+      <c r="F39" s="133"/>
+      <c r="G39" s="76"/>
+      <c r="H39" s="137"/>
+      <c r="I39" s="138"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B40" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="60" t="s">
+      <c r="C40" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="61"/>
-      <c r="E40" s="61"/>
-      <c r="F40" s="62"/>
+      <c r="D40" s="64"/>
+      <c r="E40" s="64"/>
+      <c r="F40" s="65"/>
       <c r="G40" s="53"/>
-      <c r="H40" s="123"/>
-      <c r="I40" s="124"/>
-    </row>
-    <row r="41" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H40" s="102"/>
+      <c r="I40" s="103"/>
+    </row>
+    <row r="41" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="191" t="s">
+      <c r="C41" s="202" t="s">
         <v>154</v>
       </c>
-      <c r="D41" s="192"/>
-      <c r="E41" s="192"/>
-      <c r="F41" s="193"/>
-      <c r="G41" s="99">
+      <c r="D41" s="203"/>
+      <c r="E41" s="203"/>
+      <c r="F41" s="204"/>
+      <c r="G41" s="75">
         <v>0.8</v>
       </c>
-      <c r="H41" s="102" t="s">
+      <c r="H41" s="92" t="s">
         <v>157</v>
       </c>
-      <c r="I41" s="103"/>
-    </row>
-    <row r="42" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I41" s="93"/>
+    </row>
+    <row r="42" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C42" s="196"/>
-      <c r="D42" s="197"/>
-      <c r="E42" s="197"/>
-      <c r="F42" s="198"/>
-      <c r="G42" s="82"/>
-      <c r="H42" s="149"/>
-      <c r="I42" s="150"/>
-    </row>
-    <row r="43" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="205"/>
+      <c r="D42" s="206"/>
+      <c r="E42" s="206"/>
+      <c r="F42" s="207"/>
+      <c r="G42" s="76"/>
+      <c r="H42" s="137"/>
+      <c r="I42" s="138"/>
+    </row>
+    <row r="43" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C43" s="191" t="s">
+      <c r="C43" s="202" t="s">
         <v>155</v>
       </c>
-      <c r="D43" s="192"/>
-      <c r="E43" s="192"/>
-      <c r="F43" s="193"/>
-      <c r="G43" s="99">
+      <c r="D43" s="203"/>
+      <c r="E43" s="203"/>
+      <c r="F43" s="204"/>
+      <c r="G43" s="75">
         <v>0.7</v>
       </c>
-      <c r="H43" s="102" t="s">
+      <c r="H43" s="92" t="s">
         <v>158</v>
       </c>
-      <c r="I43" s="103"/>
-    </row>
-    <row r="44" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I43" s="93"/>
+    </row>
+    <row r="44" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C44" s="196"/>
-      <c r="D44" s="197"/>
-      <c r="E44" s="197"/>
-      <c r="F44" s="198"/>
-      <c r="G44" s="82"/>
-      <c r="H44" s="149"/>
-      <c r="I44" s="150"/>
-    </row>
-    <row r="45" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C44" s="205"/>
+      <c r="D44" s="206"/>
+      <c r="E44" s="206"/>
+      <c r="F44" s="207"/>
+      <c r="G44" s="76"/>
+      <c r="H44" s="137"/>
+      <c r="I44" s="138"/>
+    </row>
+    <row r="45" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="191" t="s">
+      <c r="C45" s="202" t="s">
         <v>156</v>
       </c>
-      <c r="D45" s="192"/>
-      <c r="E45" s="192"/>
-      <c r="F45" s="193"/>
-      <c r="G45" s="99">
+      <c r="D45" s="203"/>
+      <c r="E45" s="203"/>
+      <c r="F45" s="204"/>
+      <c r="G45" s="75">
         <v>0.5</v>
       </c>
-      <c r="H45" s="102" t="s">
+      <c r="H45" s="92" t="s">
         <v>159</v>
       </c>
-      <c r="I45" s="103"/>
-    </row>
-    <row r="46" spans="2:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I45" s="93"/>
+    </row>
+    <row r="46" spans="2:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B46" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="203"/>
-      <c r="D46" s="204"/>
-      <c r="E46" s="204"/>
-      <c r="F46" s="205"/>
-      <c r="G46" s="101"/>
-      <c r="H46" s="106"/>
-      <c r="I46" s="107"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C46" s="239"/>
+      <c r="D46" s="240"/>
+      <c r="E46" s="240"/>
+      <c r="F46" s="241"/>
+      <c r="G46" s="91"/>
+      <c r="H46" s="96"/>
+      <c r="I46" s="97"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B47" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="C47" s="70" t="s">
+      <c r="C47" s="129" t="s">
         <v>162</v>
       </c>
-      <c r="D47" s="70"/>
-      <c r="E47" s="70"/>
-      <c r="F47" s="70"/>
+      <c r="D47" s="129"/>
+      <c r="E47" s="129"/>
+      <c r="F47" s="129"/>
       <c r="G47" s="44"/>
-      <c r="H47" s="166" t="s">
+      <c r="H47" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="I47" s="166"/>
-    </row>
-    <row r="48" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="49" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I47" s="62"/>
+    </row>
+    <row r="48" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="49" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B49" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="C49" s="72" t="s">
+      <c r="C49" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="D49" s="73"/>
-      <c r="E49" s="73"/>
-      <c r="F49" s="73"/>
+      <c r="D49" s="121"/>
+      <c r="E49" s="121"/>
+      <c r="F49" s="121"/>
       <c r="G49" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="H49" s="73" t="s">
+      <c r="H49" s="121" t="s">
         <v>24</v>
       </c>
-      <c r="I49" s="74"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I49" s="122"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B50" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C50" s="208" t="s">
+      <c r="C50" s="200" t="s">
         <v>164</v>
       </c>
-      <c r="D50" s="70"/>
-      <c r="E50" s="70"/>
-      <c r="F50" s="143"/>
-      <c r="G50" s="81">
+      <c r="D50" s="129"/>
+      <c r="E50" s="129"/>
+      <c r="F50" s="130"/>
+      <c r="G50" s="134">
         <v>1</v>
       </c>
-      <c r="H50" s="255"/>
-      <c r="I50" s="256"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H50" s="279"/>
+      <c r="I50" s="280"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B51" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C51" s="144"/>
-      <c r="D51" s="145"/>
-      <c r="E51" s="145"/>
-      <c r="F51" s="146"/>
-      <c r="G51" s="82"/>
-      <c r="H51" s="169"/>
-      <c r="I51" s="170"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C51" s="131"/>
+      <c r="D51" s="132"/>
+      <c r="E51" s="132"/>
+      <c r="F51" s="133"/>
+      <c r="G51" s="76"/>
+      <c r="H51" s="79"/>
+      <c r="I51" s="80"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B52" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C52" s="60" t="s">
+      <c r="C52" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="D52" s="61"/>
-      <c r="E52" s="61"/>
-      <c r="F52" s="62"/>
+      <c r="D52" s="64"/>
+      <c r="E52" s="64"/>
+      <c r="F52" s="65"/>
       <c r="G52" s="55"/>
-      <c r="H52" s="65"/>
-      <c r="I52" s="66"/>
-    </row>
-    <row r="53" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H52" s="99"/>
+      <c r="I52" s="100"/>
+    </row>
+    <row r="53" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C53" s="115" t="s">
+      <c r="C53" s="158" t="s">
         <v>165</v>
       </c>
-      <c r="D53" s="116"/>
-      <c r="E53" s="116"/>
-      <c r="F53" s="116"/>
-      <c r="G53" s="246">
+      <c r="D53" s="159"/>
+      <c r="E53" s="159"/>
+      <c r="F53" s="159"/>
+      <c r="G53" s="192">
         <v>0.6</v>
       </c>
-      <c r="H53" s="260" t="s">
+      <c r="H53" s="282" t="s">
         <v>166</v>
       </c>
-      <c r="I53" s="261"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I53" s="283"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B54" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C54" s="115"/>
-      <c r="D54" s="116"/>
-      <c r="E54" s="116"/>
-      <c r="F54" s="116"/>
-      <c r="G54" s="246"/>
-      <c r="H54" s="262"/>
-      <c r="I54" s="261"/>
-    </row>
-    <row r="55" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C54" s="158"/>
+      <c r="D54" s="159"/>
+      <c r="E54" s="159"/>
+      <c r="F54" s="159"/>
+      <c r="G54" s="192"/>
+      <c r="H54" s="284"/>
+      <c r="I54" s="283"/>
+    </row>
+    <row r="55" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B55" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C55" s="115" t="s">
+      <c r="C55" s="158" t="s">
         <v>167</v>
       </c>
-      <c r="D55" s="116"/>
-      <c r="E55" s="116"/>
-      <c r="F55" s="116"/>
-      <c r="G55" s="246">
+      <c r="D55" s="159"/>
+      <c r="E55" s="159"/>
+      <c r="F55" s="159"/>
+      <c r="G55" s="192">
         <v>0.6</v>
       </c>
-      <c r="H55" s="263" t="s">
+      <c r="H55" s="285" t="s">
         <v>168</v>
       </c>
-      <c r="I55" s="264"/>
-    </row>
-    <row r="56" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I55" s="286"/>
+    </row>
+    <row r="56" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B56" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C56" s="115"/>
-      <c r="D56" s="116"/>
-      <c r="E56" s="116"/>
-      <c r="F56" s="116"/>
-      <c r="G56" s="246"/>
-      <c r="H56" s="265"/>
-      <c r="I56" s="264"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C56" s="158"/>
+      <c r="D56" s="159"/>
+      <c r="E56" s="159"/>
+      <c r="F56" s="159"/>
+      <c r="G56" s="192"/>
+      <c r="H56" s="287"/>
+      <c r="I56" s="286"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B57" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C57" s="115"/>
-      <c r="D57" s="116"/>
-      <c r="E57" s="116"/>
-      <c r="F57" s="116"/>
-      <c r="G57" s="246"/>
-      <c r="H57" s="265"/>
-      <c r="I57" s="264"/>
-    </row>
-    <row r="58" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C57" s="158"/>
+      <c r="D57" s="159"/>
+      <c r="E57" s="159"/>
+      <c r="F57" s="159"/>
+      <c r="G57" s="192"/>
+      <c r="H57" s="287"/>
+      <c r="I57" s="286"/>
+    </row>
+    <row r="58" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B58" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C58" s="258"/>
-      <c r="D58" s="259"/>
-      <c r="E58" s="259"/>
-      <c r="F58" s="259"/>
-      <c r="G58" s="251"/>
-      <c r="H58" s="266"/>
-      <c r="I58" s="267"/>
-    </row>
-    <row r="59" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="60" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C58" s="273"/>
+      <c r="D58" s="274"/>
+      <c r="E58" s="274"/>
+      <c r="F58" s="274"/>
+      <c r="G58" s="194"/>
+      <c r="H58" s="288"/>
+      <c r="I58" s="289"/>
+    </row>
+    <row r="59" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="60" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B60" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="C60" s="72" t="s">
+      <c r="C60" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="D60" s="73"/>
-      <c r="E60" s="73"/>
-      <c r="F60" s="73"/>
+      <c r="D60" s="121"/>
+      <c r="E60" s="121"/>
+      <c r="F60" s="121"/>
       <c r="G60" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="H60" s="73" t="s">
+      <c r="H60" s="121" t="s">
         <v>24</v>
       </c>
-      <c r="I60" s="74"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I60" s="122"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B61" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C61" s="142" t="s">
+      <c r="C61" s="128" t="s">
         <v>170</v>
       </c>
-      <c r="D61" s="70"/>
-      <c r="E61" s="70"/>
-      <c r="F61" s="143"/>
-      <c r="G61" s="81">
+      <c r="D61" s="129"/>
+      <c r="E61" s="129"/>
+      <c r="F61" s="130"/>
+      <c r="G61" s="134">
         <v>0</v>
       </c>
-      <c r="H61" s="284" t="s">
+      <c r="H61" s="257" t="s">
         <v>171</v>
       </c>
-      <c r="I61" s="285"/>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I61" s="258"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B62" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C62" s="144"/>
-      <c r="D62" s="145"/>
-      <c r="E62" s="145"/>
-      <c r="F62" s="146"/>
-      <c r="G62" s="82"/>
-      <c r="H62" s="286"/>
-      <c r="I62" s="287"/>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C62" s="131"/>
+      <c r="D62" s="132"/>
+      <c r="E62" s="132"/>
+      <c r="F62" s="133"/>
+      <c r="G62" s="76"/>
+      <c r="H62" s="259"/>
+      <c r="I62" s="260"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B63" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C63" s="60" t="s">
+      <c r="C63" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="D63" s="61"/>
-      <c r="E63" s="61"/>
-      <c r="F63" s="62"/>
+      <c r="D63" s="64"/>
+      <c r="E63" s="64"/>
+      <c r="F63" s="65"/>
       <c r="G63" s="56"/>
-      <c r="H63" s="63"/>
-      <c r="I63" s="64"/>
-    </row>
-    <row r="64" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H63" s="176"/>
+      <c r="I63" s="177"/>
+    </row>
+    <row r="64" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B64" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C64" s="191" t="s">
+      <c r="C64" s="202" t="s">
         <v>170</v>
       </c>
-      <c r="D64" s="192"/>
-      <c r="E64" s="192"/>
-      <c r="F64" s="193"/>
-      <c r="G64" s="99">
+      <c r="D64" s="203"/>
+      <c r="E64" s="203"/>
+      <c r="F64" s="204"/>
+      <c r="G64" s="75">
         <v>0.6</v>
       </c>
-      <c r="H64" s="257" t="s">
+      <c r="H64" s="281" t="s">
         <v>172</v>
       </c>
-      <c r="I64" s="200"/>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I64" s="254"/>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B65" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C65" s="180"/>
-      <c r="D65" s="194"/>
-      <c r="E65" s="194"/>
-      <c r="F65" s="195"/>
-      <c r="G65" s="100"/>
-      <c r="H65" s="201"/>
-      <c r="I65" s="202"/>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C65" s="236"/>
+      <c r="D65" s="237"/>
+      <c r="E65" s="237"/>
+      <c r="F65" s="238"/>
+      <c r="G65" s="90"/>
+      <c r="H65" s="255"/>
+      <c r="I65" s="256"/>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B66" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C66" s="180"/>
-      <c r="D66" s="194"/>
-      <c r="E66" s="194"/>
-      <c r="F66" s="195"/>
-      <c r="G66" s="100"/>
-      <c r="H66" s="201"/>
-      <c r="I66" s="202"/>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C66" s="236"/>
+      <c r="D66" s="237"/>
+      <c r="E66" s="237"/>
+      <c r="F66" s="238"/>
+      <c r="G66" s="90"/>
+      <c r="H66" s="255"/>
+      <c r="I66" s="256"/>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B67" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C67" s="196"/>
-      <c r="D67" s="197"/>
-      <c r="E67" s="197"/>
-      <c r="F67" s="198"/>
-      <c r="G67" s="82"/>
-      <c r="H67" s="85"/>
-      <c r="I67" s="86"/>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C67" s="205"/>
+      <c r="D67" s="206"/>
+      <c r="E67" s="206"/>
+      <c r="F67" s="207"/>
+      <c r="G67" s="76"/>
+      <c r="H67" s="169"/>
+      <c r="I67" s="170"/>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B68" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C68" s="191" t="s">
+      <c r="C68" s="202" t="s">
         <v>173</v>
       </c>
-      <c r="D68" s="214"/>
-      <c r="E68" s="214"/>
-      <c r="F68" s="215"/>
-      <c r="G68" s="99">
+      <c r="D68" s="229"/>
+      <c r="E68" s="229"/>
+      <c r="F68" s="230"/>
+      <c r="G68" s="75">
         <v>0.6</v>
       </c>
-      <c r="H68" s="102" t="s">
+      <c r="H68" s="92" t="s">
         <v>174</v>
       </c>
-      <c r="I68" s="152"/>
-    </row>
-    <row r="69" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I68" s="141"/>
+    </row>
+    <row r="69" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C69" s="183"/>
-      <c r="D69" s="184"/>
-      <c r="E69" s="184"/>
-      <c r="F69" s="185"/>
-      <c r="G69" s="101"/>
-      <c r="H69" s="153"/>
-      <c r="I69" s="154"/>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C69" s="246"/>
+      <c r="D69" s="247"/>
+      <c r="E69" s="247"/>
+      <c r="F69" s="248"/>
+      <c r="G69" s="91"/>
+      <c r="H69" s="142"/>
+      <c r="I69" s="143"/>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B70" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="C70" s="71" t="s">
+      <c r="C70" s="181" t="s">
         <v>176</v>
       </c>
-      <c r="D70" s="71"/>
-      <c r="E70" s="71"/>
-      <c r="F70" s="71"/>
+      <c r="D70" s="181"/>
+      <c r="E70" s="181"/>
+      <c r="F70" s="181"/>
       <c r="G70" s="44"/>
-      <c r="H70" s="70" t="s">
+      <c r="H70" s="129" t="s">
         <v>177</v>
       </c>
-      <c r="I70" s="70"/>
+      <c r="I70" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="97">
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="C43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="C68:F69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="H68:I69"/>
-    <mergeCell ref="C61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="H61:I62"/>
-    <mergeCell ref="C63:F63"/>
-    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="H55:I58"/>
+    <mergeCell ref="C45:F46"/>
+    <mergeCell ref="C70:F70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="C50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:I51"/>
+    <mergeCell ref="C64:F67"/>
+    <mergeCell ref="G64:G67"/>
+    <mergeCell ref="H64:I67"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="C53:F54"/>
+    <mergeCell ref="C55:F58"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="H53:I54"/>
+    <mergeCell ref="G55:G58"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:I34"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="C26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:I27"/>
+    <mergeCell ref="C18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:I19"/>
+    <mergeCell ref="C20:F22"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="H20:I22"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="C3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:I4"/>
+    <mergeCell ref="C9:F11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="H9:I11"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="H6:I6"/>
     <mergeCell ref="C30:F32"/>
     <mergeCell ref="G30:G32"/>
     <mergeCell ref="H30:I32"/>
@@ -6358,76 +6439,22 @@
     <mergeCell ref="C40:F40"/>
     <mergeCell ref="H40:I40"/>
     <mergeCell ref="C49:F49"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="C3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:I4"/>
-    <mergeCell ref="C9:F11"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="H9:I11"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:I19"/>
-    <mergeCell ref="C20:F22"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="H20:I22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="H33:I34"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="C26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:I27"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="C43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="C68:F69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="H68:I69"/>
+    <mergeCell ref="C61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="H61:I62"/>
+    <mergeCell ref="C63:F63"/>
+    <mergeCell ref="H63:I63"/>
     <mergeCell ref="H43:I44"/>
     <mergeCell ref="C47:F47"/>
     <mergeCell ref="H47:I47"/>
     <mergeCell ref="G45:G46"/>
     <mergeCell ref="H45:I46"/>
-    <mergeCell ref="C45:F46"/>
-    <mergeCell ref="C70:F70"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="C50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="H50:I51"/>
-    <mergeCell ref="C64:F67"/>
-    <mergeCell ref="G64:G67"/>
-    <mergeCell ref="H64:I67"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="C53:F54"/>
-    <mergeCell ref="C55:F58"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="H53:I54"/>
-    <mergeCell ref="G55:G58"/>
-    <mergeCell ref="H55:I58"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6437,162 +6464,345 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5A5B6FC-CF1A-453B-8488-14729B516AED}">
-  <dimension ref="B1:I11"/>
+  <dimension ref="B1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.375" customWidth="1"/>
+    <col min="2" max="2" width="14.8984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.3984375" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
-    <col min="8" max="8" width="20.75" customWidth="1"/>
-    <col min="9" max="9" width="24.875" customWidth="1"/>
+    <col min="8" max="8" width="20.69921875" customWidth="1"/>
+    <col min="9" max="9" width="24.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="C2" s="72" t="s">
+      <c r="C2" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
       <c r="G2" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="73" t="s">
+      <c r="H2" s="121" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="74"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I2" s="122"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="208" t="s">
+      <c r="C3" s="200" t="s">
         <v>181</v>
       </c>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="143"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="255"/>
-      <c r="I3" s="256"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D3" s="129"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="134">
+        <v>0.8</v>
+      </c>
+      <c r="H3" s="135" t="s">
+        <v>183</v>
+      </c>
+      <c r="I3" s="136"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="144"/>
-      <c r="D4" s="145"/>
-      <c r="E4" s="145"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="169"/>
-      <c r="I4" s="170"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C4" s="131"/>
+      <c r="D4" s="132"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="133"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="138"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="63" t="s">
         <v>179</v>
       </c>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="62"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="65"/>
       <c r="G5" s="58"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="66"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H5" s="102"/>
+      <c r="I5" s="103"/>
+    </row>
+    <row r="6" spans="2:9" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="87" t="s">
+      <c r="C6" s="98" t="s">
         <v>181</v>
       </c>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="66"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D6" s="118"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="58">
+        <v>0.8</v>
+      </c>
+      <c r="H6" s="115" t="s">
+        <v>183</v>
+      </c>
+      <c r="I6" s="103"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="63" t="s">
         <v>180</v>
       </c>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="62"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="65"/>
       <c r="G7" s="58"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="66"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H7" s="102"/>
+      <c r="I7" s="103"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="87" t="s">
+      <c r="C8" s="98" t="s">
         <v>180</v>
       </c>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="89"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="119"/>
       <c r="G8" s="58"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="66"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H8" s="102"/>
+      <c r="I8" s="103"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="191" t="s">
+      <c r="C9" s="202" t="s">
         <v>182</v>
       </c>
-      <c r="D9" s="192"/>
-      <c r="E9" s="192"/>
-      <c r="F9" s="193"/>
-      <c r="G9" s="99"/>
-      <c r="H9" s="288"/>
-      <c r="I9" s="289"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D9" s="203"/>
+      <c r="E9" s="203"/>
+      <c r="F9" s="204"/>
+      <c r="G9" s="75">
+        <v>0.8</v>
+      </c>
+      <c r="H9" s="92" t="s">
+        <v>183</v>
+      </c>
+      <c r="I9" s="141"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="180"/>
-      <c r="D10" s="194"/>
-      <c r="E10" s="194"/>
-      <c r="F10" s="195"/>
-      <c r="G10" s="100"/>
-      <c r="H10" s="290"/>
-      <c r="I10" s="291"/>
-    </row>
-    <row r="11" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="236"/>
+      <c r="D10" s="237"/>
+      <c r="E10" s="237"/>
+      <c r="F10" s="238"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="271"/>
+      <c r="I10" s="272"/>
+    </row>
+    <row r="11" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="203"/>
-      <c r="D11" s="204"/>
-      <c r="E11" s="204"/>
-      <c r="F11" s="205"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="292"/>
-      <c r="I11" s="293"/>
+      <c r="C11" s="239"/>
+      <c r="D11" s="240"/>
+      <c r="E11" s="240"/>
+      <c r="F11" s="241"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="142"/>
+      <c r="I11" s="143"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B12" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="129" t="s">
+        <v>184</v>
+      </c>
+      <c r="D12" s="129"/>
+      <c r="E12" s="129"/>
+      <c r="F12" s="129"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="181" t="s">
+        <v>88</v>
+      </c>
+      <c r="I12" s="181"/>
+    </row>
+    <row r="13" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="14" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="C14" s="120" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="121"/>
+      <c r="E14" s="121"/>
+      <c r="F14" s="121"/>
+      <c r="G14" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="121" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="122"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B15" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="123" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
+      <c r="F15" s="125"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="156"/>
+      <c r="I15" s="157"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B16" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="100"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B17" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="99"/>
+      <c r="I17" s="100"/>
+    </row>
+    <row r="18" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="202" t="s">
+        <v>186</v>
+      </c>
+      <c r="D18" s="203"/>
+      <c r="E18" s="203"/>
+      <c r="F18" s="204"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="78"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B19" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="236"/>
+      <c r="D19" s="237"/>
+      <c r="E19" s="237"/>
+      <c r="F19" s="238"/>
+      <c r="G19" s="90"/>
+      <c r="H19" s="234"/>
+      <c r="I19" s="235"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B20" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="205"/>
+      <c r="D20" s="206"/>
+      <c r="E20" s="206"/>
+      <c r="F20" s="207"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="80"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B21" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="202" t="s">
+        <v>187</v>
+      </c>
+      <c r="D21" s="203"/>
+      <c r="E21" s="203"/>
+      <c r="F21" s="204"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="290"/>
+      <c r="I21" s="291"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B22" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="236"/>
+      <c r="D22" s="237"/>
+      <c r="E22" s="237"/>
+      <c r="F22" s="238"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="292"/>
+      <c r="I22" s="293"/>
+    </row>
+    <row r="23" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="239"/>
+      <c r="D23" s="240"/>
+      <c r="E23" s="240"/>
+      <c r="F23" s="241"/>
+      <c r="G23" s="91"/>
+      <c r="H23" s="294"/>
+      <c r="I23" s="295"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="32">
+    <mergeCell ref="C21:F23"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="H21:I23"/>
+    <mergeCell ref="C18:F20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="H18:I20"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell 